--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,9 +378,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -6332,7 +6332,7 @@
         <v>地蔵</v>
       </c>
       <c r="C174" t="str">
-        <v>地蔵</v>
+        <v>掘出地蔵</v>
       </c>
       <c r="D174" t="str">
         <v>中辻町 京終天神社そば</v>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="str">
-        <v>掘出地蔵が正式名称か要確認</v>
+        <v/>
       </c>
       <c r="G174" t="str">
         <v>地蔵盆の写真に「掘出地蔵」の名前が見える</v>
@@ -10448,19 +10448,22 @@
         <v>地蔵</v>
       </c>
       <c r="C294" t="str">
-        <v>地蔵堂？</v>
+        <v>山陵町 空の地蔵堂</v>
       </c>
       <c r="D294" t="str">
-        <v>山陵町</v>
+        <v>山陵町 中身は空だった</v>
       </c>
       <c r="E294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294" t="str">
-        <v>Google StreetViewで発見。要現地調査。</v>
+        <v/>
       </c>
       <c r="I294" t="b">
         <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1050</v>
       </c>
       <c r="K294" t="str">
         <v>山陵町</v>
@@ -11819,19 +11822,22 @@
         <v>地蔵</v>
       </c>
       <c r="C336" t="str">
-        <v>地蔵</v>
+        <v>高畑町 駐車場脇の地蔵</v>
       </c>
       <c r="D336" t="str">
         <v>高畑町 駐車場脇の地蔵</v>
       </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" t="str">
-        <v>飛鳥地蔵マップ48番、要現地調査。</v>
+        <v>飛鳥地蔵マップ48番</v>
       </c>
       <c r="I336" t="b">
         <v>0</v>
+      </c>
+      <c r="J336">
+        <v>1051</v>
       </c>
       <c r="K336" t="str">
         <v>高畑町</v>
@@ -12766,18 +12772,82 @@
         <v>34.64563042691521</v>
       </c>
     </row>
+    <row r="365">
+      <c r="A365">
+        <v>638</v>
+      </c>
+      <c r="B365" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C365" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
+      <c r="D365" t="str">
+        <v>南袋町 建物に囲まれた地蔵堂</v>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
+      </c>
+      <c r="I365" t="b">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>1043</v>
+      </c>
+      <c r="K365" t="str">
+        <v>南袋町</v>
+      </c>
+      <c r="N365">
+        <v>135.82654453657048</v>
+      </c>
+      <c r="O365">
+        <v>34.67638368434264</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>639</v>
+      </c>
+      <c r="B366" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C366" t="str">
+        <v>柳町 日限地蔵尊</v>
+      </c>
+      <c r="D366" t="str">
+        <v>柳町 来迎寺前の日限地蔵尊</v>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
+      </c>
+      <c r="I366" t="b">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>1046</v>
+      </c>
+      <c r="K366" t="str">
+        <v>柳町</v>
+      </c>
+      <c r="N366">
+        <v>135.82471422522525</v>
+      </c>
+      <c r="O366">
+        <v>34.67889526059394</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O364"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O366"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1035"/>
+  <dimension ref="A1:H1048"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -39690,9 +39760,308 @@
         <v>./small_thumbs/7/imaichi_fukutoku_enmei_jizo_shrine_inside.jpg</v>
       </c>
     </row>
+    <row r="1036">
+      <c r="A1036">
+        <v>1039</v>
+      </c>
+      <c r="B1036">
+        <v>638</v>
+      </c>
+      <c r="D1036" t="str">
+        <v>./images/638/IMG_7800.jpg</v>
+      </c>
+      <c r="E1036" t="str">
+        <v>2018-10-19T10:45:13</v>
+      </c>
+      <c r="F1036" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1036" t="str">
+        <v>./mid_thumbs/638/IMG_7800.jpg</v>
+      </c>
+      <c r="H1036" t="str">
+        <v>./small_thumbs/638/IMG_7800.jpg</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037">
+        <v>1040</v>
+      </c>
+      <c r="B1037">
+        <v>638</v>
+      </c>
+      <c r="D1037" t="str">
+        <v>./images/638/IMG_7802.jpg</v>
+      </c>
+      <c r="E1037" t="str">
+        <v>2018-10-19T10:45:34</v>
+      </c>
+      <c r="F1037" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1037" t="str">
+        <v>./mid_thumbs/638/IMG_7802.jpg</v>
+      </c>
+      <c r="H1037" t="str">
+        <v>./small_thumbs/638/IMG_7802.jpg</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038">
+        <v>1041</v>
+      </c>
+      <c r="B1038">
+        <v>638</v>
+      </c>
+      <c r="D1038" t="str">
+        <v>./images/638/IMG_7803.jpg</v>
+      </c>
+      <c r="E1038" t="str">
+        <v>2018-10-19T10:45:41</v>
+      </c>
+      <c r="F1038" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1038" t="str">
+        <v>./mid_thumbs/638/IMG_7803.jpg</v>
+      </c>
+      <c r="H1038" t="str">
+        <v>./small_thumbs/638/IMG_7803.jpg</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039">
+        <v>1042</v>
+      </c>
+      <c r="B1039">
+        <v>638</v>
+      </c>
+      <c r="D1039" t="str">
+        <v>./images/638/IMG_7804.jpg</v>
+      </c>
+      <c r="E1039" t="str">
+        <v>2018-10-19T10:45:55</v>
+      </c>
+      <c r="F1039" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1039" t="str">
+        <v>./mid_thumbs/638/IMG_7804.jpg</v>
+      </c>
+      <c r="H1039" t="str">
+        <v>./small_thumbs/638/IMG_7804.jpg</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040">
+        <v>1043</v>
+      </c>
+      <c r="B1040">
+        <v>638</v>
+      </c>
+      <c r="D1040" t="str">
+        <v>./images/638/IMG_7799.jpg</v>
+      </c>
+      <c r="E1040" t="str">
+        <v>2018-10-19T10:45:06</v>
+      </c>
+      <c r="F1040" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1040" t="str">
+        <v>./mid_thumbs/638/IMG_7799.jpg</v>
+      </c>
+      <c r="H1040" t="str">
+        <v>./small_thumbs/638/IMG_7799.jpg</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041">
+        <v>1044</v>
+      </c>
+      <c r="B1041">
+        <v>639</v>
+      </c>
+      <c r="D1041" t="str">
+        <v>./images/639/IMG_4220.jpg</v>
+      </c>
+      <c r="E1041" t="str">
+        <v>2021-09-16T15:45:31</v>
+      </c>
+      <c r="F1041" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1041" t="str">
+        <v>./mid_thumbs/639/IMG_4220.jpg</v>
+      </c>
+      <c r="H1041" t="str">
+        <v>./small_thumbs/639/IMG_4220.jpg</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042">
+        <v>1045</v>
+      </c>
+      <c r="B1042">
+        <v>639</v>
+      </c>
+      <c r="D1042" t="str">
+        <v>./images/639/IMG_4221.jpg</v>
+      </c>
+      <c r="E1042" t="str">
+        <v>2021-09-16T15:45:43</v>
+      </c>
+      <c r="F1042" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1042" t="str">
+        <v>./mid_thumbs/639/IMG_4221.jpg</v>
+      </c>
+      <c r="H1042" t="str">
+        <v>./small_thumbs/639/IMG_4221.jpg</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043">
+        <v>1046</v>
+      </c>
+      <c r="B1043">
+        <v>639</v>
+      </c>
+      <c r="D1043" t="str">
+        <v>./images/639/IMG_4218.jpg</v>
+      </c>
+      <c r="E1043" t="str">
+        <v>2021-09-16T15:45:00</v>
+      </c>
+      <c r="F1043" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1043" t="str">
+        <v>./mid_thumbs/639/IMG_4218.jpg</v>
+      </c>
+      <c r="H1043" t="str">
+        <v>./small_thumbs/639/IMG_4218.jpg</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044">
+        <v>1047</v>
+      </c>
+      <c r="B1044">
+        <v>90</v>
+      </c>
+      <c r="D1044" t="str">
+        <v>./images/90/IMG_2398.jpg</v>
+      </c>
+      <c r="E1044" t="str">
+        <v>2021-07-23T15:30:22</v>
+      </c>
+      <c r="F1044" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1044" t="str">
+        <v>./mid_thumbs/90/IMG_2398.jpg</v>
+      </c>
+      <c r="H1044" t="str">
+        <v>./small_thumbs/90/IMG_2398.jpg</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045">
+        <v>1048</v>
+      </c>
+      <c r="B1045">
+        <v>90</v>
+      </c>
+      <c r="D1045" t="str">
+        <v>./images/90/IMG_2399.jpg</v>
+      </c>
+      <c r="E1045" t="str">
+        <v>2021-07-23T15:30:39</v>
+      </c>
+      <c r="F1045" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1045" t="str">
+        <v>./mid_thumbs/90/IMG_2399.jpg</v>
+      </c>
+      <c r="H1045" t="str">
+        <v>./small_thumbs/90/IMG_2399.jpg</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046">
+        <v>1049</v>
+      </c>
+      <c r="B1046">
+        <v>567</v>
+      </c>
+      <c r="D1046" t="str">
+        <v>./images/567/IMG_8334.jpg</v>
+      </c>
+      <c r="E1046" t="str">
+        <v>2020-08-10T13:40:42</v>
+      </c>
+      <c r="F1046" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1046" t="str">
+        <v>./mid_thumbs/567/IMG_8334.jpg</v>
+      </c>
+      <c r="H1046" t="str">
+        <v>./small_thumbs/567/IMG_8334.jpg</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047">
+        <v>1050</v>
+      </c>
+      <c r="B1047">
+        <v>567</v>
+      </c>
+      <c r="D1047" t="str">
+        <v>./images/567/IMG_8333.jpg</v>
+      </c>
+      <c r="E1047" t="str">
+        <v>2020-08-10T13:40:38</v>
+      </c>
+      <c r="F1047" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1047" t="str">
+        <v>./mid_thumbs/567/IMG_8333.jpg</v>
+      </c>
+      <c r="H1047" t="str">
+        <v>./small_thumbs/567/IMG_8333.jpg</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048">
+        <v>1051</v>
+      </c>
+      <c r="B1048">
+        <v>609</v>
+      </c>
+      <c r="D1048" t="str">
+        <v>./images/609/IMG_8433.jpg</v>
+      </c>
+      <c r="E1048" t="str">
+        <v>2020-08-21T09:24:09</v>
+      </c>
+      <c r="F1048" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1048" t="str">
+        <v>./mid_thumbs/609/IMG_8433.jpg</v>
+      </c>
+      <c r="H1048" t="str">
+        <v>./small_thumbs/609/IMG_8433.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1035"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1048"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -39701,7 +40070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -45724,7 +46093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -12890,7 +12890,7 @@
         <v>./images/191/Several_Buddhas_Saidaiji_Kobo_Nara_(Fudo).jpg</v>
       </c>
       <c r="E2" t="str">
-        <v>2017/02/18 14:48:25</v>
+        <v>2017-02-18T14:48:25</v>
       </c>
       <c r="F2" t="str">
         <v>Kohei Otsuka</v>
@@ -12916,7 +12916,7 @@
         <v>./images/191/Several_Buddhas_Saidaiji_Kobo_Nara_(Kanzeon).jpg</v>
       </c>
       <c r="E3" t="str">
-        <v>2017/02/18 14:48:30</v>
+        <v>2017-02-18T14:48:30</v>
       </c>
       <c r="F3" t="str">
         <v>Kohei Otsuka</v>
@@ -12942,7 +12942,7 @@
         <v>./images/191/Several_Buddhas_Saidaiji_Kobo_Nara_(Sanpo).jpg</v>
       </c>
       <c r="E4" t="str">
-        <v>2017/02/18 14:48:13</v>
+        <v>2017-02-18T14:48:13</v>
       </c>
       <c r="F4" t="str">
         <v>Kohei Otsuka</v>
@@ -12968,7 +12968,7 @@
         <v>./images/191/Several_Buddhas_Saidaiji_Kobo_Nara.jpg</v>
       </c>
       <c r="E5" t="str">
-        <v>2017/02/18 14:48:04</v>
+        <v>2017-02-18T14:48:04</v>
       </c>
       <c r="F5" t="str">
         <v>Kohei Otsuka</v>
@@ -12994,7 +12994,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Giten_Ryuou1.jpg</v>
       </c>
       <c r="E6" t="str">
-        <v>2018/06/22 10:25:42</v>
+        <v>2018-06-22T10:25:42</v>
       </c>
       <c r="F6" t="str">
         <v>Kohei Otsuka</v>
@@ -13020,7 +13020,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Giten_Ryuou2.jpg</v>
       </c>
       <c r="E7" t="str">
-        <v>2018/06/22 10:26:00</v>
+        <v>2018-06-22T10:26:00</v>
       </c>
       <c r="F7" t="str">
         <v>Kohei Otsuka</v>
@@ -13046,7 +13046,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Hondo.jpg</v>
       </c>
       <c r="E8" t="str">
-        <v>2018/06/22 10:25:28</v>
+        <v>2018-06-22T10:25:28</v>
       </c>
       <c r="F8" t="str">
         <v>Kohei Otsuka</v>
@@ -13072,7 +13072,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Jizo1.jpg</v>
       </c>
       <c r="E9" t="str">
-        <v>2018/06/22 10:26:50</v>
+        <v>2018-06-22T10:26:50</v>
       </c>
       <c r="F9" t="str">
         <v>Kohei Otsuka</v>
@@ -13098,7 +13098,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Jizo2.jpg</v>
       </c>
       <c r="E10" t="str">
-        <v>2018/06/22 10:27:04</v>
+        <v>2018-06-22T10:27:04</v>
       </c>
       <c r="F10" t="str">
         <v>Kohei Otsuka</v>
@@ -13124,7 +13124,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Jizos.jpg</v>
       </c>
       <c r="E11" t="str">
-        <v>2018/06/22 10:26:59</v>
+        <v>2018-06-22T10:26:59</v>
       </c>
       <c r="F11" t="str">
         <v>Kohei Otsuka</v>
@@ -13150,7 +13150,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara)_Keidai.jpg</v>
       </c>
       <c r="E12" t="str">
-        <v>2018/06/22 10:28:01</v>
+        <v>2018-06-22T10:28:01</v>
       </c>
       <c r="F12" t="str">
         <v>Kohei Otsuka</v>
@@ -13176,7 +13176,7 @@
         <v>./images/1/Aburakake_Jizo_(Furuichi-cho,_Nara).jpg</v>
       </c>
       <c r="E13" t="str">
-        <v>2018/06/22 10:25:18</v>
+        <v>2018-06-22T10:25:18</v>
       </c>
       <c r="F13" t="str">
         <v>Kohei Otsuka</v>
@@ -13202,7 +13202,7 @@
         <v>./images/2/Nara_Takabatake_Araike_Jizo.jpg</v>
       </c>
       <c r="E14" t="str">
-        <v>2015/05/06 15:05:52</v>
+        <v>2015-05-06T15:05:52</v>
       </c>
       <c r="F14" t="str">
         <v>Kohei Otsuka</v>
@@ -13228,7 +13228,7 @@
         <v>./images/3/Enmei_Jizo_(Kawanoue-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E15" t="str">
-        <v>2016/11/04 11:53:41</v>
+        <v>2016-11-04T11:53:41</v>
       </c>
       <c r="F15" t="str">
         <v>Kohei Otsuka</v>
@@ -13254,7 +13254,7 @@
         <v>./images/3/Enmei_Jizo_(Kawanoue-cho)_Nara_Zoom.jpg</v>
       </c>
       <c r="E16" t="str">
-        <v>2016/11/04 11:53:48</v>
+        <v>2016-11-04T11:53:48</v>
       </c>
       <c r="F16" t="str">
         <v>Kohei Otsuka</v>
@@ -13280,7 +13280,7 @@
         <v>./images/3/Enmei_Jizo_(Kawanoue-cho)_Nara.jpg</v>
       </c>
       <c r="E17" t="str">
-        <v>2016/11/04 11:53:17</v>
+        <v>2016-11-04T11:53:17</v>
       </c>
       <c r="F17" t="str">
         <v>Kohei Otsuka</v>
@@ -13306,7 +13306,7 @@
         <v>./images/4/Enmei_Jizo_(Tsubai-cho)_Nara_1.jpg</v>
       </c>
       <c r="E18" t="str">
-        <v>2016/11/04 13:54:28</v>
+        <v>2016-11-04T13:54:28</v>
       </c>
       <c r="F18" t="str">
         <v>Kohei Otsuka</v>
@@ -13332,7 +13332,7 @@
         <v>./images/4/Enmei_Jizo_(Tsubai-cho)_Nara_2.jpg</v>
       </c>
       <c r="E19" t="str">
-        <v>2016/11/04 13:54:35</v>
+        <v>2016-11-04T13:54:35</v>
       </c>
       <c r="F19" t="str">
         <v>Kohei Otsuka</v>
@@ -13358,7 +13358,7 @@
         <v>./images/4/Enmei_Jizo_(Tsubai-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E20" t="str">
-        <v>2016/11/04 13:54:47</v>
+        <v>2016-11-04T13:54:47</v>
       </c>
       <c r="F20" t="str">
         <v>Kohei Otsuka</v>
@@ -13384,7 +13384,7 @@
         <v>./images/4/Enmei_Jizo_(Tsubai-cho)_Nara_Left_side.jpg</v>
       </c>
       <c r="E21" t="str">
-        <v>2016/11/04 13:54:54</v>
+        <v>2016-11-04T13:54:54</v>
       </c>
       <c r="F21" t="str">
         <v>Kohei Otsuka</v>
@@ -13410,7 +13410,7 @@
         <v>./images/4/Honkomori-cho_Jizo_Tall_(Nara).jpg</v>
       </c>
       <c r="E22" t="str">
-        <v>2015/10/17 15:26:55</v>
+        <v>2015-10-17T15:26:55</v>
       </c>
       <c r="F22" t="str">
         <v>Kohei Otsuka</v>
@@ -13436,7 +13436,7 @@
         <v>./images/5/Enmei_Jizo_(TsunofuriShinya-cho,_Nara).jpg</v>
       </c>
       <c r="E23" t="str">
-        <v>2017/08/26 12:07:57</v>
+        <v>2017-08-26T12:07:57</v>
       </c>
       <c r="F23" t="str">
         <v>Kohei Otsuka</v>
@@ -13462,7 +13462,7 @@
         <v>./images/5/Enmei_Jizouson_Nara.jpg</v>
       </c>
       <c r="E24" t="str">
-        <v>2015/09/05 17:58:33</v>
+        <v>2015-09-05T17:58:33</v>
       </c>
       <c r="F24" t="str">
         <v>Kohei Otsuka</v>
@@ -13488,7 +13488,7 @@
         <v>./images/6/Enmei_Jizoson_(ShijoOji-1,_Nara)_Inside.jpg</v>
       </c>
       <c r="E25" t="str">
-        <v>2018/01/19 15:22:29</v>
+        <v>2018-01-19T15:22:29</v>
       </c>
       <c r="F25" t="str">
         <v>Kohei Otsuka</v>
@@ -13514,7 +13514,7 @@
         <v>./images/6/Enmei_Jizoson_(ShijoOji-1,_Nara).jpg</v>
       </c>
       <c r="E26" t="str">
-        <v>2018/01/19 15:22:12</v>
+        <v>2018-01-19T15:22:12</v>
       </c>
       <c r="F26" t="str">
         <v>Kohei Otsuka</v>
@@ -13540,7 +13540,7 @@
         <v>./images/7/Fukutoku_Enmei_Jizo_(Nara)_Jizodo1_Inside.jpg</v>
       </c>
       <c r="E27" t="str">
-        <v>2016/05/05 16:21:06</v>
+        <v>2016-05-05T16:21:06</v>
       </c>
       <c r="F27" t="str">
         <v>Kohei Otsuka</v>
@@ -13566,7 +13566,7 @@
         <v>./images/7/Fukutoku_Enmei_Jizo_(Nara)_Jizodo1.jpg</v>
       </c>
       <c r="E28" t="str">
-        <v>2016/05/05 16:20:45</v>
+        <v>2016-05-05T16:20:45</v>
       </c>
       <c r="F28" t="str">
         <v>Kohei Otsuka</v>
@@ -13592,7 +13592,7 @@
         <v>./images/7/Fukutoku_Enmei_Jizo_(Nara)_Jizodo2.jpg</v>
       </c>
       <c r="E29" t="str">
-        <v>2016/05/05 16:20:51</v>
+        <v>2016-05-05T16:20:51</v>
       </c>
       <c r="F29" t="str">
         <v>Kohei Otsuka</v>
@@ -13618,7 +13618,7 @@
         <v>./images/7/Fukutoku_Enmei_Jizo_(Nara).jpg</v>
       </c>
       <c r="E30" t="str">
-        <v>2016/05/05 16:21:25</v>
+        <v>2016-05-05T16:21:25</v>
       </c>
       <c r="F30" t="str">
         <v>Kohei Otsuka</v>
@@ -13644,7 +13644,7 @@
         <v>./images/8/HigashiKidera-cho_1_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E31" t="str">
-        <v>2016/08/06 12:16:33</v>
+        <v>2016-08-06T12:16:33</v>
       </c>
       <c r="F31" t="str">
         <v>Kohei Otsuka</v>
@@ -13670,7 +13670,7 @@
         <v>./images/8/HigashiKidera-cho_1_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E32" t="str">
-        <v>2016/08/06 12:16:26</v>
+        <v>2016-08-06T12:16:26</v>
       </c>
       <c r="F32" t="str">
         <v>Kohei Otsuka</v>
@@ -13696,7 +13696,7 @@
         <v>./images/9/HigashiKidera-cho_2_Jizodo_Nara.jpg</v>
       </c>
       <c r="E33" t="str">
-        <v>2016/08/06 12:13:08</v>
+        <v>2016-08-06T12:13:08</v>
       </c>
       <c r="F33" t="str">
         <v>Kohei Otsuka</v>
@@ -13722,7 +13722,7 @@
         <v>./images/10/Jizodo_HigashiKidera-cho_2_Inside.jpg</v>
       </c>
       <c r="E34" t="str">
-        <v>2016/09/18 12:19:16</v>
+        <v>2016-09-18T12:19:16</v>
       </c>
       <c r="F34" t="str">
         <v>Kohei Otsuka</v>
@@ -13748,7 +13748,7 @@
         <v>./images/10/Jizodo_HigashiKidera-cho_2.jpg</v>
       </c>
       <c r="E35" t="str">
-        <v>2016/09/18 12:19:10</v>
+        <v>2016-09-18T12:19:10</v>
       </c>
       <c r="F35" t="str">
         <v>Kohei Otsuka</v>
@@ -13774,7 +13774,7 @@
         <v>./images/11/Nara_HigashiKitsuji_Jizo.jpg</v>
       </c>
       <c r="E36" t="str">
-        <v>2015/08/05 18:31:37</v>
+        <v>2015-08-05T18:31:37</v>
       </c>
       <c r="F36" t="str">
         <v>Kohei Otsuka</v>
@@ -13800,7 +13800,7 @@
         <v>./images/11/Wayside_Jizo_In_Nara_Near_Big_Nara_Inside.jpg</v>
       </c>
       <c r="E37" t="str">
-        <v>2016/07/22 15:22:03</v>
+        <v>2016-07-22T15:22:03</v>
       </c>
       <c r="F37" t="str">
         <v>Kohei Otsuka</v>
@@ -13826,7 +13826,7 @@
         <v>./images/11/Wayside_Jizo_In_Nara_Near_Big_Nara.jpg</v>
       </c>
       <c r="E38" t="str">
-        <v>2016/07/22 15:21:57</v>
+        <v>2016-07-22T15:21:57</v>
       </c>
       <c r="F38" t="str">
         <v>Kohei Otsuka</v>
@@ -13852,7 +13852,7 @@
         <v>./images/12/HigashimukiKita-machi_Jizodo_Nara_Jizobon.jpg</v>
       </c>
       <c r="E39" t="str">
-        <v>2018/07/23 13:59:00</v>
+        <v>2018-07-23T13:59:00</v>
       </c>
       <c r="F39" t="str">
         <v>Yasushi Fukunaga</v>
@@ -13878,7 +13878,7 @@
         <v>./images/12/Nara_Higashimuki_KIta_Jizo.jpg</v>
       </c>
       <c r="E40" t="str">
-        <v>2015/05/24 17:55:25</v>
+        <v>2015-05-24T17:55:25</v>
       </c>
       <c r="F40" t="str">
         <v>Kohei Otsuka</v>
@@ -13904,7 +13904,7 @@
         <v>./images/12/Nara_Higashimuki-KIta_Dori_EastSide_Jizo.jpg</v>
       </c>
       <c r="E41" t="str">
-        <v>2016/07/17 10:01:08</v>
+        <v>2016-07-17T10:01:08</v>
       </c>
       <c r="F41" t="str">
         <v>Kohei Otsuka</v>
@@ -13930,7 +13930,7 @@
         <v>./images/13/Hirakinoshiba_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E42" t="str">
-        <v>2016/11/04 16:00:07</v>
+        <v>2016-11-04T16:00:07</v>
       </c>
       <c r="F42" t="str">
         <v>Kohei Otsuka</v>
@@ -13956,7 +13956,7 @@
         <v>./images/13/Hirakinoshiba_Jizo_Nara.jpg</v>
       </c>
       <c r="E43" t="str">
-        <v>2016/11/04 15:59:38</v>
+        <v>2016-11-04T15:59:38</v>
       </c>
       <c r="F43" t="str">
         <v>Kohei Otsuka</v>
@@ -13982,7 +13982,7 @@
         <v>./images/14/Horen-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E44" t="str">
-        <v>2016/08/19 14:33:01</v>
+        <v>2016-08-19T14:33:01</v>
       </c>
       <c r="F44" t="str">
         <v>Kohei Otsuka</v>
@@ -14008,7 +14008,7 @@
         <v>./images/14/Horen-cho_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E45" t="str">
-        <v>2016/08/19 14:32:50</v>
+        <v>2016-08-19T14:32:50</v>
       </c>
       <c r="F45" t="str">
         <v>Kohei Otsuka</v>
@@ -14034,7 +14034,7 @@
         <v>./images/15/Horen-cho_Jizos_(North_of_Fuko-in)_Nara_Far.jpg</v>
       </c>
       <c r="E46" t="str">
-        <v>2016/08/19 14:40:02</v>
+        <v>2016-08-19T14:40:02</v>
       </c>
       <c r="F46" t="str">
         <v>Kohei Otsuka</v>
@@ -14060,7 +14060,7 @@
         <v>./images/15/Horen-cho_Jizos_(North_of_Fuko-in)_Nara_Near.jpg</v>
       </c>
       <c r="E47" t="str">
-        <v>2016/08/19 14:40:10</v>
+        <v>2016-08-19T14:40:10</v>
       </c>
       <c r="F47" t="str">
         <v>Kohei Otsuka</v>
@@ -14086,7 +14086,7 @@
         <v>./images/16/Imaicho_Jizo_Nara_Inside_Left.jpg</v>
       </c>
       <c r="E48" t="str">
-        <v>2016/11/04 16:33:31</v>
+        <v>2016-11-04T16:33:31</v>
       </c>
       <c r="F48" t="str">
         <v>Kohei Otsuka</v>
@@ -14112,7 +14112,7 @@
         <v>./images/16/Imaicho_Jizo_Nara_Inside_Right.jpg</v>
       </c>
       <c r="E49" t="str">
-        <v>2016/11/04 16:33:36</v>
+        <v>2016-11-04T16:33:36</v>
       </c>
       <c r="F49" t="str">
         <v>Kohei Otsuka</v>
@@ -14138,7 +14138,7 @@
         <v>./images/16/Imaicho_Jizo_Nara.jpg</v>
       </c>
       <c r="E50" t="str">
-        <v>2016/11/04 16:33:21</v>
+        <v>2016-11-04T16:33:21</v>
       </c>
       <c r="F50" t="str">
         <v>Kohei Otsuka</v>
@@ -14164,7 +14164,7 @@
         <v>./images/16/Inside_1_of_Jizodo_(Imaicho,_Nara).jpg</v>
       </c>
       <c r="E51" t="str">
-        <v>2017/08/26 12:45:21</v>
+        <v>2017-08-26T12:45:21</v>
       </c>
       <c r="F51" t="str">
         <v>Kohei Otsuka</v>
@@ -14190,7 +14190,7 @@
         <v>./images/16/Inside_2_of_Jizodo_(Imaicho,_Nara).jpg</v>
       </c>
       <c r="E52" t="str">
-        <v>2017/08/26 12:45:25</v>
+        <v>2017-08-26T12:45:25</v>
       </c>
       <c r="F52" t="str">
         <v>Kohei Otsuka</v>
@@ -14216,7 +14216,7 @@
         <v>./images/16/Jizodo_(Imaicho,_Nara).jpg</v>
       </c>
       <c r="E53" t="str">
-        <v>2017/08/26 12:45:14</v>
+        <v>2017-08-26T12:45:14</v>
       </c>
       <c r="F53" t="str">
         <v>Kohei Otsuka</v>
@@ -14242,7 +14242,7 @@
         <v>./images/17/Isakawa_Jizos_Nara.jpg</v>
       </c>
       <c r="E54" t="str">
-        <v>2015/09/25 09:17:41</v>
+        <v>2015-09-25T09:17:41</v>
       </c>
       <c r="F54" t="str">
         <v>Kohei Otsuka</v>
@@ -14268,7 +14268,7 @@
         <v>./images/17/Isakaawa_Jizos_in_Nara.jpg</v>
       </c>
       <c r="E55" t="str">
-        <v>2015/08/29 13:36:29</v>
+        <v>2015-08-29T13:36:29</v>
       </c>
       <c r="F55" t="str">
         <v>Kohei Otsuka</v>
@@ -14294,7 +14294,7 @@
         <v>./images/18/Jizo_(MinamiJodo-cho)_Nara_1.jpg</v>
       </c>
       <c r="E56" t="str">
-        <v>2016/11/04 12:53:08</v>
+        <v>2016-11-04T12:53:08</v>
       </c>
       <c r="F56" t="str">
         <v>Kohei Otsuka</v>
@@ -14320,7 +14320,7 @@
         <v>./images/18/Jizo_(MinamiJodo-cho)_Nara_All.jpg</v>
       </c>
       <c r="E57" t="str">
-        <v>2016/11/04 12:53:23</v>
+        <v>2016-11-04T12:53:23</v>
       </c>
       <c r="F57" t="str">
         <v>Kohei Otsuka</v>
@@ -14346,7 +14346,7 @@
         <v>./images/18/Jizo_(MinamiJodo-cho)_Nara_Myogo.jpg</v>
       </c>
       <c r="E58" t="str">
-        <v>2016/11/04 12:53:16</v>
+        <v>2016-11-04T12:53:16</v>
       </c>
       <c r="F58" t="str">
         <v>Kohei Otsuka</v>
@@ -14372,7 +14372,7 @@
         <v>./images/18/Kinpachi_Daimyojin_Nara.jpg</v>
       </c>
       <c r="E59" t="str">
-        <v>2016/11/04 12:53:31</v>
+        <v>2016-11-04T12:53:31</v>
       </c>
       <c r="F59" t="str">
         <v>Kohei Otsuka</v>
@@ -14398,7 +14398,7 @@
         <v>./images/19/Jizo_(Shibatsujicho-3)_Nara_from_Far.jpg</v>
       </c>
       <c r="E60" t="str">
-        <v>2016/11/04 16:06:44</v>
+        <v>2016-11-04T16:06:44</v>
       </c>
       <c r="F60" t="str">
         <v>Kohei Otsuka</v>
@@ -14424,7 +14424,7 @@
         <v>./images/19/Jizo_(Shibatsujicho-3)_Nara_Myogo.jpg</v>
       </c>
       <c r="E61" t="str">
-        <v>2016/11/04 16:06:24</v>
+        <v>2016-11-04T16:06:24</v>
       </c>
       <c r="F61" t="str">
         <v>Kohei Otsuka</v>
@@ -14450,7 +14450,7 @@
         <v>./images/19/Jizo_(Shibatsujicho-3)_Nara_Only.jpg</v>
       </c>
       <c r="E62" t="str">
-        <v>2016/11/04 16:06:19</v>
+        <v>2016-11-04T16:06:19</v>
       </c>
       <c r="F62" t="str">
         <v>Kohei Otsuka</v>
@@ -14476,7 +14476,7 @@
         <v>./images/19/Jizo_(Shibatsujicho-3)_Nara.jpg</v>
       </c>
       <c r="E63" t="str">
-        <v>2016/11/04 16:06:14</v>
+        <v>2016-11-04T16:06:14</v>
       </c>
       <c r="F63" t="str">
         <v>Kohei Otsuka</v>
@@ -14502,7 +14502,7 @@
         <v>./images/20/Jizo_in_Daianji4_Nara_(Inside).jpg</v>
       </c>
       <c r="E64" t="str">
-        <v>2017/01/02 15:06:11</v>
+        <v>2017-01-02T15:06:11</v>
       </c>
       <c r="F64" t="str">
         <v>Kohei Otsuka</v>
@@ -14528,7 +14528,7 @@
         <v>./images/20/Jizo_in_Daianji4_Nara.jpg</v>
       </c>
       <c r="E65" t="str">
-        <v>2017/01/02 15:05:59</v>
+        <v>2017-01-02T15:05:59</v>
       </c>
       <c r="F65" t="str">
         <v>Kohei Otsuka</v>
@@ -14554,7 +14554,7 @@
         <v>./images/21/Jizo_in_Wall_(Takamikado-cho)_Nara_Jizobon.jpg</v>
       </c>
       <c r="E66" t="str">
-        <v>2018/07/23 13:59:00</v>
+        <v>2018-07-23T13:59:00</v>
       </c>
       <c r="F66" t="str">
         <v>Yasushi Fukunaga</v>
@@ -14580,7 +14580,7 @@
         <v>./images/21/Jizo_in_Wall_(Takamikado-cho)_Nara_Near1.jpg</v>
       </c>
       <c r="E67" t="str">
-        <v>2017/03/18 14:19:16</v>
+        <v>2017-03-18T14:19:16</v>
       </c>
       <c r="F67" t="str">
         <v>Kohei Otsuka</v>
@@ -14606,7 +14606,7 @@
         <v>./images/21/Jizo_in_Wall_(Takamikado-cho)_Nara_Near2.jpg</v>
       </c>
       <c r="E68" t="str">
-        <v>2017/03/18 14:19:24</v>
+        <v>2017-03-18T14:19:24</v>
       </c>
       <c r="F68" t="str">
         <v>Kohei Otsuka</v>
@@ -14632,7 +14632,7 @@
         <v>./images/21/Jizo_in_Wall_(Takamikado-cho)_Nara.jpg</v>
       </c>
       <c r="E69" t="str">
-        <v>2016/11/04 13:07:53</v>
+        <v>2016-11-04T13:07:53</v>
       </c>
       <c r="F69" t="str">
         <v>Kohei Otsuka</v>
@@ -14658,7 +14658,7 @@
         <v>./images/21/Jizo_in_Wall_(Takamikado-cho)_Nara2.jpg</v>
       </c>
       <c r="E70" t="str">
-        <v>2017/03/18 14:19:10</v>
+        <v>2017-03-18T14:19:10</v>
       </c>
       <c r="F70" t="str">
         <v>Kohei Otsuka</v>
@@ -14684,7 +14684,7 @@
         <v>./images/21/Nara_Takamikado_cho_Jizo_in_Wall.jpg</v>
       </c>
       <c r="E71" t="str">
-        <v>2015/05/04 17:27:10</v>
+        <v>2015-05-04T17:27:10</v>
       </c>
       <c r="F71" t="str">
         <v>Kohei Otsuka</v>
@@ -14710,7 +14710,7 @@
         <v>./images/22/Jizo_in_Wall_Gangouji-Cho_Nara_Inside.jpg</v>
       </c>
       <c r="E72" t="str">
-        <v>2016/11/04 13:13:09</v>
+        <v>2016-11-04T13:13:09</v>
       </c>
       <c r="F72" t="str">
         <v>Kohei Otsuka</v>
@@ -14736,7 +14736,7 @@
         <v>./images/22/Jizo_in_Wall_Gangouji-Cho_Nara_Renew.jpg</v>
       </c>
       <c r="E73" t="str">
-        <v>2016/11/04 13:13:15</v>
+        <v>2016-11-04T13:13:15</v>
       </c>
       <c r="F73" t="str">
         <v>Kohei Otsuka</v>
@@ -14762,7 +14762,7 @@
         <v>./images/22/Jizo_in_Wall_Gangouji-Cho_Nara.jpg</v>
       </c>
       <c r="E74" t="str">
-        <v>2015/12/20 16:23:37</v>
+        <v>2015-12-20T16:23:37</v>
       </c>
       <c r="F74" t="str">
         <v>Kohei Otsuka</v>
@@ -14788,7 +14788,7 @@
         <v>./images/23/Jizo_Kasugano_Nara_Inside.jpg</v>
       </c>
       <c r="E75" t="str">
-        <v>2017/02/18 17:36:39</v>
+        <v>2017-02-18T17:36:39</v>
       </c>
       <c r="F75" t="str">
         <v>Kohei Otsuka</v>
@@ -14814,7 +14814,7 @@
         <v>./images/23/Jizo_Kasugano_Nara.jpg</v>
       </c>
       <c r="E76" t="str">
-        <v>2017/02/18 17:36:33</v>
+        <v>2017-02-18T17:36:33</v>
       </c>
       <c r="F76" t="str">
         <v>Kohei Otsuka</v>
@@ -14840,7 +14840,7 @@
         <v>./images/24/Jizo_Kidera_Nara_1_Inside.jpg</v>
       </c>
       <c r="E77" t="str">
-        <v>2017/02/11 15:24:58</v>
+        <v>2017-02-11T15:24:58</v>
       </c>
       <c r="F77" t="str">
         <v>Kohei Otsuka</v>
@@ -14866,7 +14866,7 @@
         <v>./images/24/Jizo_Kidera_Nara_1.jpg</v>
       </c>
       <c r="E78" t="str">
-        <v>2017/02/11 15:24:42</v>
+        <v>2017-02-11T15:24:42</v>
       </c>
       <c r="F78" t="str">
         <v>Kohei Otsuka</v>
@@ -14892,7 +14892,7 @@
         <v>./images/24/Nara_Kidera_cho_Jizo_1.jpg</v>
       </c>
       <c r="E79" t="str">
-        <v>2015/05/04 15:38:38</v>
+        <v>2015-05-04T15:38:38</v>
       </c>
       <c r="F79" t="str">
         <v>Kohei Otsuka</v>
@@ -14918,7 +14918,7 @@
         <v>./images/25/Jizo_Kidera_Nara_2_Inside.jpg</v>
       </c>
       <c r="E80" t="str">
-        <v>2017/02/11 15:26:37</v>
+        <v>2017-02-11T15:26:37</v>
       </c>
       <c r="F80" t="str">
         <v>Kohei Otsuka</v>
@@ -14944,7 +14944,7 @@
         <v>./images/25/Jizo_Kidera_Nara_2.jpg</v>
       </c>
       <c r="E81" t="str">
-        <v>2017/02/11 15:26:04</v>
+        <v>2017-02-11T15:26:04</v>
       </c>
       <c r="F81" t="str">
         <v>Kohei Otsuka</v>
@@ -14970,7 +14970,7 @@
         <v>./images/25/Nara_Kidera_cho_Jizo_2.jpg</v>
       </c>
       <c r="E82" t="str">
-        <v>2015/05/04 15:40:49</v>
+        <v>2015-05-04T15:40:49</v>
       </c>
       <c r="F82" t="str">
         <v>Kohei Otsuka</v>
@@ -14996,7 +14996,7 @@
         <v>./images/26/Jizo_Kidera_Nara_3.jpg</v>
       </c>
       <c r="E83" t="str">
-        <v>2017/02/11 15:26:11</v>
+        <v>2017-02-11T15:26:11</v>
       </c>
       <c r="F83" t="str">
         <v>Kohei Otsuka</v>
@@ -15022,7 +15022,7 @@
         <v>./images/26/Nara_Kidera_cho_Jizo_3.jpg</v>
       </c>
       <c r="E84" t="str">
-        <v>2015/05/04 15:41:03</v>
+        <v>2015-05-04T15:41:03</v>
       </c>
       <c r="F84" t="str">
         <v>Kohei Otsuka</v>
@@ -15048,7 +15048,7 @@
         <v>./images/27/Jizo_Minami-Kidera_3_Nara_1_Inside.jpg</v>
       </c>
       <c r="E85" t="str">
-        <v>2017/02/11 15:39:31</v>
+        <v>2017-02-11T15:39:31</v>
       </c>
       <c r="F85" t="str">
         <v>Kohei Otsuka</v>
@@ -15074,7 +15074,7 @@
         <v>./images/27/Jizo_Minami-Kidera_3_Nara_1.jpg</v>
       </c>
       <c r="E86" t="str">
-        <v>2017/02/11 15:39:15</v>
+        <v>2017-02-11T15:39:15</v>
       </c>
       <c r="F86" t="str">
         <v>Kohei Otsuka</v>
@@ -15100,7 +15100,7 @@
         <v>./images/28/Jizo_Minami-Kidera_3_Nara_2_Inside.jpg</v>
       </c>
       <c r="E87" t="str">
-        <v>2017/02/11 15:38:49</v>
+        <v>2017-02-11T15:38:49</v>
       </c>
       <c r="F87" t="str">
         <v>Kohei Otsuka</v>
@@ -15126,7 +15126,7 @@
         <v>./images/28/Jizo_Minami-Kidera_3_Nara_2.jpg</v>
       </c>
       <c r="E88" t="str">
-        <v>2017/02/11 15:38:42</v>
+        <v>2017-02-11T15:38:42</v>
       </c>
       <c r="F88" t="str">
         <v>Kohei Otsuka</v>
@@ -15152,7 +15152,7 @@
         <v>./images/29/Jizo_Minami-Kyobate_Nara_1.jpg</v>
       </c>
       <c r="E89" t="str">
-        <v>2017/02/11 14:32:53</v>
+        <v>2017-02-11T14:32:53</v>
       </c>
       <c r="F89" t="str">
         <v>Kohei Otsuka</v>
@@ -15178,7 +15178,7 @@
         <v>./images/29/Jizo_Minami-Kyobate_Nara_2.jpg</v>
       </c>
       <c r="E90" t="str">
-        <v>2017/02/11 14:32:14</v>
+        <v>2017-02-11T14:32:14</v>
       </c>
       <c r="F90" t="str">
         <v>Kohei Otsuka</v>
@@ -15204,7 +15204,7 @@
         <v>./images/29/Jizo_Minami-Kyobate_Nara_3.jpg</v>
       </c>
       <c r="E91" t="str">
-        <v>2017/02/11 14:32:46</v>
+        <v>2017-02-11T14:32:46</v>
       </c>
       <c r="F91" t="str">
         <v>Kohei Otsuka</v>
@@ -15230,7 +15230,7 @@
         <v>./images/30/Jizo_Nijo-Oji-Minami_4_Nara_Inside.jpg</v>
       </c>
       <c r="E92" t="str">
-        <v>2017/02/18 15:46:18</v>
+        <v>2017-02-18T15:46:18</v>
       </c>
       <c r="F92" t="str">
         <v>Kohei Otsuka</v>
@@ -15256,7 +15256,7 @@
         <v>./images/30/Jizo_Nijo-Oji-Minami_4_Nara.jpg</v>
       </c>
       <c r="E93" t="str">
-        <v>2017/02/18 15:44:53</v>
+        <v>2017-02-18T15:44:53</v>
       </c>
       <c r="F93" t="str">
         <v>Kohei Otsuka</v>
@@ -15282,7 +15282,7 @@
         <v>./images/31/IJizo_Nijo-oji-Minami_5_Nara_2.jpg</v>
       </c>
       <c r="E94" t="str">
-        <v>2017/02/18 15:39:38</v>
+        <v>2017-02-18T15:39:38</v>
       </c>
       <c r="F94" t="str">
         <v>Kohei Otsuka</v>
@@ -15308,7 +15308,7 @@
         <v>./images/31/Jizo_Nijo-oji-Minami_5_Nara_Inside.jpg</v>
       </c>
       <c r="E95" t="str">
-        <v>2017/02/18 15:39:19</v>
+        <v>2017-02-18T15:39:19</v>
       </c>
       <c r="F95" t="str">
         <v>Kohei Otsuka</v>
@@ -15334,7 +15334,7 @@
         <v>./images/31/Jizo_Nijo-oji-Minami_5_Nara.jpg</v>
       </c>
       <c r="E96" t="str">
-        <v>2017/02/18 15:38:59</v>
+        <v>2017-02-18T15:38:59</v>
       </c>
       <c r="F96" t="str">
         <v>Kohei Otsuka</v>
@@ -15360,7 +15360,7 @@
         <v>./images/32/Jizo_Ogawa-cho_Nara_Body_1.jpg</v>
       </c>
       <c r="E97" t="str">
-        <v>2017/02/18 17:05:42</v>
+        <v>2017-02-18T17:05:42</v>
       </c>
       <c r="F97" t="str">
         <v>Kohei Otsuka</v>
@@ -15386,7 +15386,7 @@
         <v>./images/32/Jizo_Ogawa-cho_Nara_Body_2.jpg</v>
       </c>
       <c r="E98" t="str">
-        <v>2017/02/18 17:05:50</v>
+        <v>2017-02-18T17:05:50</v>
       </c>
       <c r="F98" t="str">
         <v>Kohei Otsuka</v>
@@ -15412,7 +15412,7 @@
         <v>./images/32/Jizo_Ogawa-cho_Nara_Body_3.jpg</v>
       </c>
       <c r="E99" t="str">
-        <v>2017/02/18 17:06:01</v>
+        <v>2017-02-18T17:06:01</v>
       </c>
       <c r="F99" t="str">
         <v>Kohei Otsuka</v>
@@ -15438,7 +15438,7 @@
         <v>./images/32/Jizo_Ogawa-cho_Nara.jpg</v>
       </c>
       <c r="E100" t="str">
-        <v>2017/02/18 17:05:30</v>
+        <v>2017-02-18T17:05:30</v>
       </c>
       <c r="F100" t="str">
         <v>Kohei Otsuka</v>
@@ -15464,7 +15464,7 @@
         <v>./images/33/Jizo_Omiya_4_Nara_(Body).jpg</v>
       </c>
       <c r="E101" t="str">
-        <v>2017/02/18 16:03:28</v>
+        <v>2017-02-18T16:03:28</v>
       </c>
       <c r="F101" t="str">
         <v>Kohei Otsuka</v>
@@ -15490,7 +15490,7 @@
         <v>./images/33/Jizo_Omiya_4_Nara_(Inside).jpg</v>
       </c>
       <c r="E102" t="str">
-        <v>2017/02/18 16:03:01</v>
+        <v>2017-02-18T16:03:01</v>
       </c>
       <c r="F102" t="str">
         <v>Kohei Otsuka</v>
@@ -15516,7 +15516,7 @@
         <v>./images/33/Jizo_Omiya_4_Nara_(Side_Jizos).jpg</v>
       </c>
       <c r="E103" t="str">
-        <v>2017/02/18 16:02:51</v>
+        <v>2017-02-18T16:02:51</v>
       </c>
       <c r="F103" t="str">
         <v>Kohei Otsuka</v>
@@ -15542,7 +15542,7 @@
         <v>./images/33/Jizo_Omiya_4_Nara.jpg</v>
       </c>
       <c r="E104" t="str">
-        <v>2017/02/18 16:02:43</v>
+        <v>2017-02-18T16:02:43</v>
       </c>
       <c r="F104" t="str">
         <v>Kohei Otsuka</v>
@@ -15568,7 +15568,7 @@
         <v>./images/34/Jizo_Teramachi_Nara_Inside.jpg</v>
       </c>
       <c r="E105" t="str">
-        <v>2017/02/18 16:52:41</v>
+        <v>2017-02-18T16:52:41</v>
       </c>
       <c r="F105" t="str">
         <v>Kohei Otsuka</v>
@@ -15594,7 +15594,7 @@
         <v>./images/34/Jizo_Teramachi_Nara.jpg</v>
       </c>
       <c r="E106" t="str">
-        <v>2017/02/18 16:52:32</v>
+        <v>2017-02-18T16:52:32</v>
       </c>
       <c r="F106" t="str">
         <v>Kohei Otsuka</v>
@@ -15620,7 +15620,7 @@
         <v>./images/35/Jizo_near_Sosen-no-hi_Yokoi2_Nara.jpg</v>
       </c>
       <c r="E107" t="str">
-        <v>2016/05/05 15:23:07</v>
+        <v>2016-05-05T15:23:07</v>
       </c>
       <c r="F107" t="str">
         <v>Kohei Otsuka</v>
@@ -15646,7 +15646,7 @@
         <v>./images/35/Sosen-no-hi_Yokoi2_Nara_2.jpg</v>
       </c>
       <c r="E108" t="str">
-        <v>2016/05/05 15:22:34</v>
+        <v>2016-05-05T15:22:34</v>
       </c>
       <c r="F108" t="str">
         <v>Kohei Otsuka</v>
@@ -15672,7 +15672,7 @@
         <v>./images/35/Sosen-no-hi_Yokoi2_Nara_3.jpg</v>
       </c>
       <c r="E109" t="str">
-        <v>2016/05/05 15:23:19</v>
+        <v>2016-05-05T15:23:19</v>
       </c>
       <c r="F109" t="str">
         <v>Kohei Otsuka</v>
@@ -15698,7 +15698,7 @@
         <v>./images/35/Sosen-no-hi_Yokoi2_Nara.jpg</v>
       </c>
       <c r="E110" t="str">
-        <v>2016/05/05 15:22:18</v>
+        <v>2016-05-05T15:22:18</v>
       </c>
       <c r="F110" t="str">
         <v>Kohei Otsuka</v>
@@ -15724,7 +15724,7 @@
         <v>./images/36/Jizodo_(AmagatsujiKita-machi,_Nara)_Inside.jpg</v>
       </c>
       <c r="E111" t="str">
-        <v>2018/02/16 15:12:44</v>
+        <v>2018-02-16T15:12:44</v>
       </c>
       <c r="F111" t="str">
         <v>Kohei Otsuka</v>
@@ -15750,7 +15750,7 @@
         <v>./images/36/Jizodo_(AmagatsujiKita-machi,_Nara).jpg</v>
       </c>
       <c r="E112" t="str">
-        <v>2018/02/16 15:12:33</v>
+        <v>2018-02-16T15:12:33</v>
       </c>
       <c r="F112" t="str">
         <v>Kohei Otsuka</v>
@@ -15776,7 +15776,7 @@
         <v>./images/37/Jizodo_(AmagatsujiMinami-machi,_Nara)_Inside_1.jpg</v>
       </c>
       <c r="E113" t="str">
-        <v>2018/02/16 14:54:59</v>
+        <v>2018-02-16T14:54:59</v>
       </c>
       <c r="F113" t="str">
         <v>Kohei Otsuka</v>
@@ -15802,7 +15802,7 @@
         <v>./images/37/Jizodo_(AmagatsujiMinami-machi,_Nara)_Inside_2.jpg</v>
       </c>
       <c r="E114" t="str">
-        <v>2018/02/16 14:55:05</v>
+        <v>2018-02-16T14:55:05</v>
       </c>
       <c r="F114" t="str">
         <v>Kohei Otsuka</v>
@@ -15828,7 +15828,7 @@
         <v>./images/37/Jizodo_(AmagatsujiMinami-machi,_Nara)_Inside_3.jpg</v>
       </c>
       <c r="E115" t="str">
-        <v>2018/02/16 14:55:09</v>
+        <v>2018-02-16T14:55:09</v>
       </c>
       <c r="F115" t="str">
         <v>Kohei Otsuka</v>
@@ -15854,7 +15854,7 @@
         <v>./images/37/Jizodo_(AmagatsujiMinami-machi,_Nara).jpg</v>
       </c>
       <c r="E116" t="str">
-        <v>2018/02/16 14:54:46</v>
+        <v>2018-02-16T14:54:46</v>
       </c>
       <c r="F116" t="str">
         <v>Kohei Otsuka</v>
@@ -15880,7 +15880,7 @@
         <v>./images/38/Jizodo_(Furuichi-cho_North_Most,_NARA)_Inside.jpg</v>
       </c>
       <c r="E117" t="str">
-        <v>2018/06/22 10:30:44</v>
+        <v>2018-06-22T10:30:44</v>
       </c>
       <c r="F117" t="str">
         <v>Kohei Otsuka</v>
@@ -15906,7 +15906,7 @@
         <v>./images/38/Jizodo_(Furuichi-cho_North_Most,_NARA).jpg</v>
       </c>
       <c r="E118" t="str">
-        <v>2018/06/22 10:30:38</v>
+        <v>2018-06-22T10:30:38</v>
       </c>
       <c r="F118" t="str">
         <v>Kohei Otsuka</v>
@@ -15932,7 +15932,7 @@
         <v>./images/39/Jizodo_(Furuichi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E119" t="str">
-        <v>2018/06/22 09:40:44</v>
+        <v>2018-06-22T09:40:44</v>
       </c>
       <c r="F119" t="str">
         <v>Kohei Otsuka</v>
@@ -15958,7 +15958,7 @@
         <v>./images/39/Jizodo_(Furuichi-cho,_Nara).jpg</v>
       </c>
       <c r="E120" t="str">
-        <v>2018/06/22 09:40:33</v>
+        <v>2018-06-22T09:40:33</v>
       </c>
       <c r="F120" t="str">
         <v>Kohei Otsuka</v>
@@ -15984,7 +15984,7 @@
         <v>./images/40/Art_in_Jizodo_(Hachijo_1,_Nara).jpg</v>
       </c>
       <c r="E121" t="str">
-        <v>2017/09/20 17:28:13</v>
+        <v>2017-09-20T17:28:13</v>
       </c>
       <c r="F121" t="str">
         <v>Kohei Otsuka</v>
@@ -16010,7 +16010,7 @@
         <v>./images/40/Jizo_in_Jizodo_(Hachijo_1,_Nara).jpg</v>
       </c>
       <c r="E122" t="str">
-        <v>2017/09/20 17:27:52</v>
+        <v>2017-09-20T17:27:52</v>
       </c>
       <c r="F122" t="str">
         <v>Kohei Otsuka</v>
@@ -16036,7 +16036,7 @@
         <v>./images/40/Jizodo_(Hachijo_1,_Nara).jpg</v>
       </c>
       <c r="E123" t="str">
-        <v>2017/09/20 17:27:39</v>
+        <v>2017-09-20T17:27:39</v>
       </c>
       <c r="F123" t="str">
         <v>Kohei Otsuka</v>
@@ -16062,7 +16062,7 @@
         <v>./images/40/Jizos_in_Jizodo_(Hachijo_1,_Nara).jpg</v>
       </c>
       <c r="E124" t="str">
-        <v>2017/09/20 17:27:57</v>
+        <v>2017-09-20T17:27:57</v>
       </c>
       <c r="F124" t="str">
         <v>Kohei Otsuka</v>
@@ -16088,7 +16088,7 @@
         <v>./images/41/Jizodo_(Hatanaka-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E125" t="str">
-        <v>2016/11/04 15:53:19</v>
+        <v>2016-11-04T15:53:19</v>
       </c>
       <c r="F125" t="str">
         <v>Kohei Otsuka</v>
@@ -16114,7 +16114,7 @@
         <v>./images/41/Jizodo_(Hatanaka-cho)_Nara.jpg</v>
       </c>
       <c r="E126" t="str">
-        <v>2016/11/04 15:53:10</v>
+        <v>2016-11-04T15:53:10</v>
       </c>
       <c r="F126" t="str">
         <v>Kohei Otsuka</v>
@@ -16140,7 +16140,7 @@
         <v>./images/42/Jizodo_(Horen-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E127" t="str">
-        <v>2016/11/04 15:33:46</v>
+        <v>2016-11-04T15:33:46</v>
       </c>
       <c r="F127" t="str">
         <v>Kohei Otsuka</v>
@@ -16166,7 +16166,7 @@
         <v>./images/42/Jizodo_(Horen-cho)_Nara_Left.jpg</v>
       </c>
       <c r="E128" t="str">
-        <v>2016/11/04 15:33:52</v>
+        <v>2016-11-04T15:33:52</v>
       </c>
       <c r="F128" t="str">
         <v>Kohei Otsuka</v>
@@ -16192,7 +16192,7 @@
         <v>./images/42/Jizodo_(Horen-cho)_Nara_Right.jpg</v>
       </c>
       <c r="E129" t="str">
-        <v>2016/11/04 15:33:41</v>
+        <v>2016-11-04T15:33:41</v>
       </c>
       <c r="F129" t="str">
         <v>Kohei Otsuka</v>
@@ -16218,7 +16218,7 @@
         <v>./images/42/Jizodo_(Horen-cho)_Nara.jpg</v>
       </c>
       <c r="E130" t="str">
-        <v>2016/11/04 15:33:35</v>
+        <v>2016-11-04T15:33:35</v>
       </c>
       <c r="F130" t="str">
         <v>Kohei Otsuka</v>
@@ -16244,7 +16244,7 @@
         <v>./images/43/Inside_of_Jizodo_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E131" t="str">
-        <v>2017/09/20 16:57:04</v>
+        <v>2017-09-20T16:57:04</v>
       </c>
       <c r="F131" t="str">
         <v>Kohei Otsuka</v>
@@ -16270,7 +16270,7 @@
         <v>./images/43/Jizodo_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E132" t="str">
-        <v>2017/09/20 16:56:54</v>
+        <v>2017-09-20T16:56:54</v>
       </c>
       <c r="F132" t="str">
         <v>Kohei Otsuka</v>
@@ -16296,7 +16296,7 @@
         <v>./images/44/Jizodo_(Kashiwagi-cho,_Nara)_2.jpg</v>
       </c>
       <c r="E133" t="str">
-        <v>2018/02/16 13:37:38</v>
+        <v>2018-02-16T13:37:38</v>
       </c>
       <c r="F133" t="str">
         <v>Kohei Otsuka</v>
@@ -16322,7 +16322,7 @@
         <v>./images/44/Jizodo_(Kashiwagi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E134" t="str">
-        <v>2018/02/16 13:37:59</v>
+        <v>2018-02-16T13:37:59</v>
       </c>
       <c r="F134" t="str">
         <v>Kohei Otsuka</v>
@@ -16348,7 +16348,7 @@
         <v>./images/44/Jizodo_(Kashiwagi-cho,_Nara)_Toro.jpg</v>
       </c>
       <c r="E135" t="str">
-        <v>2018/02/16 13:37:44</v>
+        <v>2018-02-16T13:37:44</v>
       </c>
       <c r="F135" t="str">
         <v>Kohei Otsuka</v>
@@ -16374,7 +16374,7 @@
         <v>./images/44/Jizodo_(Kashiwagi-cho,_Nara).jpg</v>
       </c>
       <c r="E136" t="str">
-        <v>2018/02/16 13:36:48</v>
+        <v>2018-02-16T13:36:48</v>
       </c>
       <c r="F136" t="str">
         <v>Kohei Otsuka</v>
@@ -16400,7 +16400,7 @@
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_From_Far.jpg</v>
       </c>
       <c r="E137" t="str">
-        <v>2016/11/04 15:05:31</v>
+        <v>2016-11-04T15:05:31</v>
       </c>
       <c r="F137" t="str">
         <v>Kohei Otsuka</v>
@@ -16426,7 +16426,7 @@
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_Inside_1.jpg</v>
       </c>
       <c r="E138" t="str">
-        <v>2016/11/04 15:04:23</v>
+        <v>2016-11-04T15:04:23</v>
       </c>
       <c r="F138" t="str">
         <v>Kohei Otsuka</v>
@@ -16452,7 +16452,7 @@
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_Inside_2.jpg</v>
       </c>
       <c r="E139" t="str">
-        <v>2016/11/04 15:04:33</v>
+        <v>2016-11-04T15:04:33</v>
       </c>
       <c r="F139" t="str">
         <v>Kohei Otsuka</v>
@@ -16478,7 +16478,7 @@
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara.jpg</v>
       </c>
       <c r="E140" t="str">
-        <v>2016/11/04 15:03:57</v>
+        <v>2016-11-04T15:03:57</v>
       </c>
       <c r="F140" t="str">
         <v>Kohei Otsuka</v>
@@ -16504,7 +16504,7 @@
         <v>./images/46/Jizodo_(MinamiKidera5,_Nara)_Inside.jpg</v>
       </c>
       <c r="E141" t="str">
-        <v>2018/06/22 10:36:19</v>
+        <v>2018-06-22T10:36:19</v>
       </c>
       <c r="F141" t="str">
         <v>Kohei Otsuka</v>
@@ -16530,7 +16530,7 @@
         <v>./images/46/Jizodo_(MinamiKidera5,_Nara).jpg</v>
       </c>
       <c r="E142" t="str">
-        <v>2018/06/22 10:36:11</v>
+        <v>2018-06-22T10:36:11</v>
       </c>
       <c r="F142" t="str">
         <v>Kohei Otsuka</v>
@@ -16556,7 +16556,7 @@
         <v>./images/47/Jizodo_(MinamiUoya-cho,_Nara).jpg</v>
       </c>
       <c r="E143" t="str">
-        <v>2017/08/26 13:00:54</v>
+        <v>2017-08-26T13:00:54</v>
       </c>
       <c r="F143" t="str">
         <v>Kohei Otsuka</v>
@@ -16582,7 +16582,7 @@
         <v>./images/47/Wayside_Jizo_Minami_Uoyacho.jpg</v>
       </c>
       <c r="E144" t="str">
-        <v>2016/07/22 15:33:17</v>
+        <v>2016-07-22T15:33:17</v>
       </c>
       <c r="F144" t="str">
         <v>Kohei Otsuka</v>
@@ -16608,7 +16608,7 @@
         <v>./images/48/Jizodo_(Misasagi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E145" t="str">
-        <v>2018/07/21 10:06:26</v>
+        <v>2018-07-21T10:06:26</v>
       </c>
       <c r="F145" t="str">
         <v>Kohei Otsuka</v>
@@ -16634,7 +16634,7 @@
         <v>./images/48/Jizodo_(Misasagi-cho,_Nara).jpg</v>
       </c>
       <c r="E146" t="str">
-        <v>2018/07/21 10:05:43</v>
+        <v>2018-07-21T10:05:43</v>
       </c>
       <c r="F146" t="str">
         <v>Kohei Otsuka</v>
@@ -16660,7 +16660,7 @@
         <v>./images/49/Jizodo_(NishiKistuji-cho,_Nishiki_Ichiba)_Nara_Inside.jpg</v>
       </c>
       <c r="E147" t="str">
-        <v>2016/11/04 12:55:00</v>
+        <v>2016-11-04T12:55:00</v>
       </c>
       <c r="F147" t="str">
         <v>Kohei Otsuka</v>
@@ -16686,7 +16686,7 @@
         <v>./images/49/Jizodo_(NishiKistuji-cho,_Nishiki_Ichiba)_Nara.jpg</v>
       </c>
       <c r="E148" t="str">
-        <v>2016/11/04 12:54:45</v>
+        <v>2016-11-04T12:54:45</v>
       </c>
       <c r="F148" t="str">
         <v>Kohei Otsuka</v>
@@ -16712,7 +16712,7 @@
         <v>./images/50/Inside_1_of_Jizodo_(Omori-cho,_Nara).jpg</v>
       </c>
       <c r="E149" t="str">
-        <v>2017/08/26 12:56:05</v>
+        <v>2017-08-26T12:56:05</v>
       </c>
       <c r="F149" t="str">
         <v>Kohei Otsuka</v>
@@ -16738,7 +16738,7 @@
         <v>./images/50/Inside_2_of_Jizodo_(Omori-cho,_Nara).jpg</v>
       </c>
       <c r="E150" t="str">
-        <v>2017/08/26 12:56:18</v>
+        <v>2017-08-26T12:56:18</v>
       </c>
       <c r="F150" t="str">
         <v>Kohei Otsuka</v>
@@ -16764,7 +16764,7 @@
         <v>./images/50/Jizodo_(Omori-cho,_Nara).jpg</v>
       </c>
       <c r="E151" t="str">
-        <v>2017/08/26 12:55:51</v>
+        <v>2017-08-26T12:55:51</v>
       </c>
       <c r="F151" t="str">
         <v>Kohei Otsuka</v>
@@ -16790,7 +16790,7 @@
         <v>./images/51/Jizodo_(Saki-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E152" t="str">
-        <v>2018/07/21 11:02:40</v>
+        <v>2018-07-21T11:02:40</v>
       </c>
       <c r="F152" t="str">
         <v>Kohei Otsuka</v>
@@ -16816,7 +16816,7 @@
         <v>./images/51/Jizodo_(Saki-cho,_Nara).jpg</v>
       </c>
       <c r="E153" t="str">
-        <v>2018/07/21 11:02:32</v>
+        <v>2018-07-21T11:02:32</v>
       </c>
       <c r="F153" t="str">
         <v>Kohei Otsuka</v>
@@ -16842,7 +16842,7 @@
         <v>./images/52/Jizodo_(SanjoKawanishi-cho,_Nara)_Inside_1.jpg</v>
       </c>
       <c r="E154" t="str">
-        <v>2018/01/19 15:23:46</v>
+        <v>2018-01-19T15:23:46</v>
       </c>
       <c r="F154" t="str">
         <v>Kohei Otsuka</v>
@@ -16868,7 +16868,7 @@
         <v>./images/52/Jizodo_(SanjoKawanishi-cho,_Nara)_Inside_2.jpg</v>
       </c>
       <c r="E155" t="str">
-        <v>2018/01/19 15:23:41</v>
+        <v>2018-01-19T15:23:41</v>
       </c>
       <c r="F155" t="str">
         <v>Kohei Otsuka</v>
@@ -16894,7 +16894,7 @@
         <v>./images/52/Jizodo_(SanjoKawanishi-cho,_Nara).jpg</v>
       </c>
       <c r="E156" t="str">
-        <v>2018/01/19 15:23:57</v>
+        <v>2018-01-19T15:23:57</v>
       </c>
       <c r="F156" t="str">
         <v>Kohei Otsuka</v>
@@ -16920,7 +16920,7 @@
         <v>./images/53/Jizodo_(Shibatsuji-cho,_Nara)_Headless_Jizo.jpg</v>
       </c>
       <c r="E157" t="str">
-        <v>2018/06/22 12:28:10</v>
+        <v>2018-06-22T12:28:10</v>
       </c>
       <c r="F157" t="str">
         <v>Kohei Otsuka</v>
@@ -16946,7 +16946,7 @@
         <v>./images/53/Jizodo_(Shibatsuji-cho,_Nara)_Inside1.jpg</v>
       </c>
       <c r="E158" t="str">
-        <v>2018/06/22 12:27:50</v>
+        <v>2018-06-22T12:27:50</v>
       </c>
       <c r="F158" t="str">
         <v>Kohei Otsuka</v>
@@ -16972,7 +16972,7 @@
         <v>./images/53/Jizodo_(Shibatsuji-cho,_Nara)_Inside2.jpg</v>
       </c>
       <c r="E159" t="str">
-        <v>2018/06/22 12:27:54</v>
+        <v>2018-06-22T12:27:54</v>
       </c>
       <c r="F159" t="str">
         <v>Kohei Otsuka</v>
@@ -16998,7 +16998,7 @@
         <v>./images/53/Jizodo_(Shibatsuji-cho,_Nara).jpg</v>
       </c>
       <c r="E160" t="str">
-        <v>2018/06/22 12:27:43</v>
+        <v>2018-06-22T12:27:43</v>
       </c>
       <c r="F160" t="str">
         <v>Kohei Otsuka</v>
@@ -17024,7 +17024,7 @@
         <v>./images/54/Jizodo_(Shibatsuji-cho-2)_Nara_Inside.jpg</v>
       </c>
       <c r="E161" t="str">
-        <v>2016/11/04 16:08:53</v>
+        <v>2016-11-04T16:08:53</v>
       </c>
       <c r="F161" t="str">
         <v>Kohei Otsuka</v>
@@ -17050,7 +17050,7 @@
         <v>./images/54/Jizodo_(Shibatsuji-cho-2)_Nara.jpg</v>
       </c>
       <c r="E162" t="str">
-        <v>2016/11/04 16:08:44</v>
+        <v>2016-11-04T16:08:44</v>
       </c>
       <c r="F162" t="str">
         <v>Kohei Otsuka</v>
@@ -17076,7 +17076,7 @@
         <v>./images/55/Inside_1_of_Jizodo_(ShimoSanjo-cho,_Nara).jpg</v>
       </c>
       <c r="E163" t="str">
-        <v>2017/08/26 12:39:36</v>
+        <v>2017-08-26T12:39:36</v>
       </c>
       <c r="F163" t="str">
         <v>Kohei Otsuka</v>
@@ -17102,7 +17102,7 @@
         <v>./images/55/Inside_2_of_Jizodo_(ShimoSanjo-cho,_Nara).jpg</v>
       </c>
       <c r="E164" t="str">
-        <v>2017/08/26 12:39:53</v>
+        <v>2017-08-26T12:39:53</v>
       </c>
       <c r="F164" t="str">
         <v>Kohei Otsuka</v>
@@ -17128,7 +17128,7 @@
         <v>./images/55/Inside_3_of_Jizodo_(ShimoSanjo-cho,_Nara).jpg</v>
       </c>
       <c r="E165" t="str">
-        <v>2017/08/26 12:39:59</v>
+        <v>2017-08-26T12:39:59</v>
       </c>
       <c r="F165" t="str">
         <v>Kohei Otsuka</v>
@@ -17154,7 +17154,7 @@
         <v>./images/55/Jizodo_(ShimoSanjo-cho,_Nara).jpg</v>
       </c>
       <c r="E166" t="str">
-        <v>2017/08/26 12:39:29</v>
+        <v>2017-08-26T12:39:29</v>
       </c>
       <c r="F166" t="str">
         <v>Kohei Otsuka</v>
@@ -17180,7 +17180,7 @@
         <v>./images/56/Jizodo_(Shukuin-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E167" t="str">
-        <v>2016/11/04 14:31:20</v>
+        <v>2016-11-04T14:31:20</v>
       </c>
       <c r="F167" t="str">
         <v>Kohei Otsuka</v>
@@ -17206,7 +17206,7 @@
         <v>./images/56/Jizodo_(Shukuin-cho)_Nara.jpg</v>
       </c>
       <c r="E168" t="str">
-        <v>2016/11/04 14:31:12</v>
+        <v>2016-11-04T14:31:12</v>
       </c>
       <c r="F168" t="str">
         <v>Kohei Otsuka</v>
@@ -17232,7 +17232,7 @@
         <v>./images/57/Jizodo_(Tamon-cho)_Nara_Inside_1.jpg</v>
       </c>
       <c r="E169" t="str">
-        <v>2016/11/04 15:20:13</v>
+        <v>2016-11-04T15:20:13</v>
       </c>
       <c r="F169" t="str">
         <v>Kohei Otsuka</v>
@@ -17258,7 +17258,7 @@
         <v>./images/57/Jizodo_(Tamon-cho)_Nara_Inside_2.jpg</v>
       </c>
       <c r="E170" t="str">
-        <v>2016/11/04 15:20:16</v>
+        <v>2016-11-04T15:20:16</v>
       </c>
       <c r="F170" t="str">
         <v>Kohei Otsuka</v>
@@ -17284,7 +17284,7 @@
         <v>./images/57/Jizodo_(Tamon-cho)_Nara.jpg</v>
       </c>
       <c r="E171" t="str">
-        <v>2016/11/04 15:20:07</v>
+        <v>2016-11-04T15:20:07</v>
       </c>
       <c r="F171" t="str">
         <v>Kohei Otsuka</v>
@@ -17310,7 +17310,7 @@
         <v>./images/58/Jizodo_(Tegai-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E172" t="str">
-        <v>2016/11/04 14:41:12</v>
+        <v>2016-11-04T14:41:12</v>
       </c>
       <c r="F172" t="str">
         <v>Kohei Otsuka</v>
@@ -17336,7 +17336,7 @@
         <v>./images/58/Jizodo_(Tegai-cho)_Nara.jpg</v>
       </c>
       <c r="E173" t="str">
-        <v>2016/11/04 14:41:06</v>
+        <v>2016-11-04T14:41:06</v>
       </c>
       <c r="F173" t="str">
         <v>Kohei Otsuka</v>
@@ -17362,7 +17362,7 @@
         <v>./images/59/Jizodo_(Tegai-cho,_North_East_Most)_Nara_Inside.jpg</v>
       </c>
       <c r="E174" t="str">
-        <v>2016/11/04 14:52:01</v>
+        <v>2016-11-04T14:52:01</v>
       </c>
       <c r="F174" t="str">
         <v>Kohei Otsuka</v>
@@ -17388,7 +17388,7 @@
         <v>./images/59/Jizodo_(Tegai-cho,_North_East_Most)_Nara_Zoom.jpg</v>
       </c>
       <c r="E175" t="str">
-        <v>2016/11/04 14:52:07</v>
+        <v>2016-11-04T14:52:07</v>
       </c>
       <c r="F175" t="str">
         <v>Kohei Otsuka</v>
@@ -17414,7 +17414,7 @@
         <v>./images/59/Jizodo_(Tegai-cho,_North_East_Most)_Nara.jpg</v>
       </c>
       <c r="E176" t="str">
-        <v>2016/11/04 14:51:52</v>
+        <v>2016-11-04T14:51:52</v>
       </c>
       <c r="F176" t="str">
         <v>Kohei Otsuka</v>
@@ -17440,7 +17440,7 @@
         <v>./images/60/Jizodo_(Tegai-cho,_small)_Nara_Inside.jpg</v>
       </c>
       <c r="E177" t="str">
-        <v>2016/11/04 14:49:11</v>
+        <v>2016-11-04T14:49:11</v>
       </c>
       <c r="F177" t="str">
         <v>Kohei Otsuka</v>
@@ -17466,7 +17466,7 @@
         <v>./images/60/Jizodo_(Tegai-cho,_small)_Nara.jpg</v>
       </c>
       <c r="E178" t="str">
-        <v>2016/11/04 14:49:04</v>
+        <v>2016-11-04T14:49:04</v>
       </c>
       <c r="F178" t="str">
         <v>Kohei Otsuka</v>
@@ -17492,7 +17492,7 @@
         <v>./images/61/Honkomori-cho_Jizo_Short_(Nara).jpg</v>
       </c>
       <c r="E179" t="str">
-        <v>2015/10/17 15:28:16</v>
+        <v>2015-10-17T15:28:16</v>
       </c>
       <c r="F179" t="str">
         <v>Kohei Otsuka</v>
@@ -17518,7 +17518,7 @@
         <v>./images/61/Jizodo_(Tsubai-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E180" t="str">
-        <v>2016/11/04 13:59:02</v>
+        <v>2016-11-04T13:59:02</v>
       </c>
       <c r="F180" t="str">
         <v>Kohei Otsuka</v>
@@ -17544,7 +17544,7 @@
         <v>./images/61/Jizodo_(Tsubai-cho)_Nara.jpg</v>
       </c>
       <c r="E181" t="str">
-        <v>2016/11/04 13:58:55</v>
+        <v>2016-11-04T13:58:55</v>
       </c>
       <c r="F181" t="str">
         <v>Kohei Otsuka</v>
@@ -17570,7 +17570,7 @@
         <v>./images/62/Inside_of_Jizodo_1_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E182" t="str">
-        <v>2017/09/20 15:50:32</v>
+        <v>2017-09-20T15:50:32</v>
       </c>
       <c r="F182" t="str">
         <v>Kohei Otsuka</v>
@@ -17596,7 +17596,7 @@
         <v>./images/62/Jizodo_1_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E183" t="str">
-        <v>2017/09/20 15:50:03</v>
+        <v>2017-09-20T15:50:03</v>
       </c>
       <c r="F183" t="str">
         <v>Kohei Otsuka</v>
@@ -17622,7 +17622,7 @@
         <v>./images/63/Inside_of_Jizodo_2_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E184" t="str">
-        <v>2017/09/20 16:08:06</v>
+        <v>2017-09-20T16:08:06</v>
       </c>
       <c r="F184" t="str">
         <v>Kohei Otsuka</v>
@@ -17648,7 +17648,7 @@
         <v>./images/63/Jizodo_2_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E185" t="str">
-        <v>2017/09/20 16:08:01</v>
+        <v>2017-09-20T16:08:01</v>
       </c>
       <c r="F185" t="str">
         <v>Kohei Otsuka</v>
@@ -17674,7 +17674,7 @@
         <v>./images/64/Jizodo_2_(Horen-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E186" t="str">
-        <v>2018/06/22 13:14:57</v>
+        <v>2018-06-22T13:14:57</v>
       </c>
       <c r="F186" t="str">
         <v>Kohei Otsuka</v>
@@ -17700,7 +17700,7 @@
         <v>./images/64/Jizodo_2_(Horen-cho)_Nara.jpg</v>
       </c>
       <c r="E187" t="str">
-        <v>2018/06/22 13:14:51</v>
+        <v>2018-06-22T13:14:51</v>
       </c>
       <c r="F187" t="str">
         <v>Kohei Otsuka</v>
@@ -17726,7 +17726,7 @@
         <v>./images/65/Inside_of_Jizodo_2_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E188" t="str">
-        <v>2017/09/20 17:02:10</v>
+        <v>2017-09-20T17:02:10</v>
       </c>
       <c r="F188" t="str">
         <v>Kohei Otsuka</v>
@@ -17752,7 +17752,7 @@
         <v>./images/65/Jizodo_2_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E189" t="str">
-        <v>2017/09/20 17:02:00</v>
+        <v>2017-09-20T17:02:00</v>
       </c>
       <c r="F189" t="str">
         <v>Kohei Otsuka</v>
@@ -17778,7 +17778,7 @@
         <v>./images/66/Inside_of_Jizodo_3_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E190" t="str">
-        <v>2017/09/20 16:09:02</v>
+        <v>2017-09-20T16:09:02</v>
       </c>
       <c r="F190" t="str">
         <v>Kohei Otsuka</v>
@@ -17804,7 +17804,7 @@
         <v>./images/66/Jizodo_3_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E191" t="str">
-        <v>2017/09/20 16:08:55</v>
+        <v>2017-09-20T16:08:55</v>
       </c>
       <c r="F191" t="str">
         <v>Kohei Otsuka</v>
@@ -17830,7 +17830,7 @@
         <v>./images/67/Jizodo_3_(Horen-cho)_Nara_Inside1.jpg</v>
       </c>
       <c r="E192" t="str">
-        <v>2018/06/22 13:16:54</v>
+        <v>2018-06-22T13:16:54</v>
       </c>
       <c r="F192" t="str">
         <v>Kohei Otsuka</v>
@@ -17856,7 +17856,7 @@
         <v>./images/67/Jizodo_3_(Horen-cho)_Nara_Inside2.jpg</v>
       </c>
       <c r="E193" t="str">
-        <v>2018/06/22 13:17:06</v>
+        <v>2018-06-22T13:17:06</v>
       </c>
       <c r="F193" t="str">
         <v>Kohei Otsuka</v>
@@ -17882,7 +17882,7 @@
         <v>./images/67/Jizodo_3_(Horen-cho)_Nara.jpg</v>
       </c>
       <c r="E194" t="str">
-        <v>2018/06/22 13:16:43</v>
+        <v>2018-06-22T13:16:43</v>
       </c>
       <c r="F194" t="str">
         <v>Kohei Otsuka</v>
@@ -17908,7 +17908,7 @@
         <v>./images/68/Inside_of_Jizodo_3_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E195" t="str">
-        <v>2017/09/20 17:06:14</v>
+        <v>2017-09-20T17:06:14</v>
       </c>
       <c r="F195" t="str">
         <v>Kohei Otsuka</v>
@@ -17934,7 +17934,7 @@
         <v>./images/68/Jizodo_3_(Karamomo-cho,_Nara).jpg</v>
       </c>
       <c r="E196" t="str">
-        <v>2017/09/20 17:06:06</v>
+        <v>2017-09-20T17:06:06</v>
       </c>
       <c r="F196" t="str">
         <v>Kohei Otsuka</v>
@@ -17960,7 +17960,7 @@
         <v>./images/69/Jizodo_4_(Horen-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E197" t="str">
-        <v>2018/06/22 13:20:41</v>
+        <v>2018-06-22T13:20:41</v>
       </c>
       <c r="F197" t="str">
         <v>Kohei Otsuka</v>
@@ -17986,7 +17986,7 @@
         <v>./images/69/Jizodo_4_(Horen-cho)_Nara.jpg</v>
       </c>
       <c r="E198" t="str">
-        <v>2018/06/22 13:20:30</v>
+        <v>2018-06-22T13:20:30</v>
       </c>
       <c r="F198" t="str">
         <v>Kohei Otsuka</v>
@@ -18012,7 +18012,7 @@
         <v>./images/70/Jizodo_Daianji4_Inside.jpg</v>
       </c>
       <c r="E199" t="str">
-        <v>2016/05/02 18:17:16</v>
+        <v>2016-05-02T18:17:16</v>
       </c>
       <c r="F199" t="str">
         <v>Kohei Otsuka</v>
@@ -18038,7 +18038,7 @@
         <v>./images/70/Jizodo_Daianji4.jpg</v>
       </c>
       <c r="E200" t="str">
-        <v>2016/05/02 18:17:07</v>
+        <v>2016-05-02T18:17:07</v>
       </c>
       <c r="F200" t="str">
         <v>Kohei Otsuka</v>
@@ -18064,7 +18064,7 @@
         <v>./images/71/Jizodo_Daianji4_On_the_Stream_Inside.jpg</v>
       </c>
       <c r="E201" t="str">
-        <v>2016/05/02 18:23:26</v>
+        <v>2016-05-02T18:23:26</v>
       </c>
       <c r="F201" t="str">
         <v>Kohei Otsuka</v>
@@ -18090,7 +18090,7 @@
         <v>./images/71/Jizodo_Daianji4_On_the_Stream.jpg</v>
       </c>
       <c r="E202" t="str">
-        <v>2016/05/02 18:23:16</v>
+        <v>2016-05-02T18:23:16</v>
       </c>
       <c r="F202" t="str">
         <v>Kohei Otsuka</v>
@@ -18116,7 +18116,7 @@
         <v>./images/72/Jizodo_in_Emperor_Sudo_Shrine_(Nara_Kodono)_Inside.jpg</v>
       </c>
       <c r="E203" t="str">
-        <v>2016/05/05 17:21:33</v>
+        <v>2016-05-05T17:21:33</v>
       </c>
       <c r="F203" t="str">
         <v>Kohei Otsuka</v>
@@ -18142,7 +18142,7 @@
         <v>./images/72/Sudo_Tenno_Shrine_Kodono_Jizodo,jpg.jpg</v>
       </c>
       <c r="E204" t="str">
-        <v>2016/05/05 17:21:22</v>
+        <v>2016-05-05T17:21:22</v>
       </c>
       <c r="F204" t="str">
         <v>Kohei Otsuka</v>
@@ -18168,7 +18168,7 @@
         <v>./images/73/Inside_of_Jizodo_in_front_of_Raigo-ji_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E205" t="str">
-        <v>2017/09/20 15:38:59</v>
+        <v>2017-09-20T15:38:59</v>
       </c>
       <c r="F205" t="str">
         <v>Kohei Otsuka</v>
@@ -18194,7 +18194,7 @@
         <v>./images/73/Jizodo_in_front_of_Raigo-ji_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E206" t="str">
-        <v>2017/09/20 15:38:32</v>
+        <v>2017-09-20T15:38:32</v>
       </c>
       <c r="F206" t="str">
         <v>Kohei Otsuka</v>
@@ -18220,7 +18220,7 @@
         <v>./images/74/Gangou-ji_Shoto-in_Wayside_Garan.jpg</v>
       </c>
       <c r="E207" t="str">
-        <v>2015/12/20 16:21:55</v>
+        <v>2015-12-20T16:21:55</v>
       </c>
       <c r="F207" t="str">
         <v>Kohei Otsuka</v>
@@ -18246,7 +18246,7 @@
         <v>./images/74/Jizodo_near_Gangouji_Shotoin_Nara_Inside.jpg</v>
       </c>
       <c r="E208" t="str">
-        <v>2016/11/04 13:10:13</v>
+        <v>2016-11-04T13:10:13</v>
       </c>
       <c r="F208" t="str">
         <v>Kohei Otsuka</v>
@@ -18272,7 +18272,7 @@
         <v>./images/74/Jizodo_near_Gangouji_Shotoin_Nara.jpg</v>
       </c>
       <c r="E209" t="str">
-        <v>2016/11/04 13:09:00</v>
+        <v>2016-11-04T13:09:00</v>
       </c>
       <c r="F209" t="str">
         <v>Kohei Otsuka</v>
@@ -18298,7 +18298,7 @@
         <v>./images/75/Jizodo_near_prefectural_library_(SanjoKawanishi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E210" t="str">
-        <v>2018/01/19 15:27:59</v>
+        <v>2018-01-19T15:27:59</v>
       </c>
       <c r="F210" t="str">
         <v>Kohei Otsuka</v>
@@ -18324,7 +18324,7 @@
         <v>./images/75/Jizodo_near_prefectural_library_(SanjoKawanishi-cho,_Nara).jpg</v>
       </c>
       <c r="E211" t="str">
-        <v>2018/01/19 15:27:51</v>
+        <v>2018-01-19T15:27:51</v>
       </c>
       <c r="F211" t="str">
         <v>Kohei Otsuka</v>
@@ -18350,7 +18350,7 @@
         <v>./images/76/Jizodo_Saidaiji_Kobo_Nara_Inside.jpg</v>
       </c>
       <c r="E212" t="str">
-        <v>2017/02/18 14:51:44</v>
+        <v>2017-02-18T14:51:44</v>
       </c>
       <c r="F212" t="str">
         <v>Kohei Otsuka</v>
@@ -18376,7 +18376,7 @@
         <v>./images/76/Jizodo_Saidaiji_Kobo_Nara.jpg</v>
       </c>
       <c r="E213" t="str">
-        <v>2017/02/18 14:51:37</v>
+        <v>2017-02-18T14:51:37</v>
       </c>
       <c r="F213" t="str">
         <v>Kohei Otsuka</v>
@@ -18402,7 +18402,7 @@
         <v>./images/77/Hakayama_Kofun_Nara_Big_Jizo.jpg</v>
       </c>
       <c r="E214" t="str">
-        <v>2016/05/02 18:07:13</v>
+        <v>2016-05-02T18:07:13</v>
       </c>
       <c r="F214" t="str">
         <v>Kohei Otsuka</v>
@@ -18428,7 +18428,7 @@
         <v>./images/77/Hakayama_Kofun_Nara_Jizo_Entrance.jpg</v>
       </c>
       <c r="E215" t="str">
-        <v>2016/05/02 18:06:19</v>
+        <v>2016-05-02T18:06:19</v>
       </c>
       <c r="F215" t="str">
         <v>Kohei Otsuka</v>
@@ -18454,7 +18454,7 @@
         <v>./images/77/Hakayama_Kofun_Nara_Jizos_Entrance.jpg</v>
       </c>
       <c r="E216" t="str">
-        <v>2016/05/02 18:06:39</v>
+        <v>2016-05-02T18:06:39</v>
       </c>
       <c r="F216" t="str">
         <v>Kohei Otsuka</v>
@@ -18480,7 +18480,7 @@
         <v>./images/77/Hakayama_Kofun_Nara_Jizos_Middle.jpg</v>
       </c>
       <c r="E217" t="str">
-        <v>2016/05/02 18:08:00</v>
+        <v>2016-05-02T18:08:00</v>
       </c>
       <c r="F217" t="str">
         <v>Kohei Otsuka</v>
@@ -18506,7 +18506,7 @@
         <v>./images/78/Jizos_in_Takabatake_(Obanatani_River)_Jizobon.jpg</v>
       </c>
       <c r="E218" t="str">
-        <v>2018/07/23 13:59:00</v>
+        <v>2018-07-23T13:59:00</v>
       </c>
       <c r="F218" t="str">
         <v>Yasushi Fukunaga</v>
@@ -18532,7 +18532,7 @@
         <v>./images/78/Jizos_in_Takabatake_(Obanatani_River).jpg</v>
       </c>
       <c r="E219" t="str">
-        <v>2015/10/17 10:31:08</v>
+        <v>2015-10-17T10:31:08</v>
       </c>
       <c r="F219" t="str">
         <v>Kohei Otsuka</v>
@@ -18558,7 +18558,7 @@
         <v>./images/79/Jizos_near_Kofukuji_NoboriOji-cho_Nara_2.jpg</v>
       </c>
       <c r="E220" t="str">
-        <v>2017/02/18 17:14:47</v>
+        <v>2017-02-18T17:14:47</v>
       </c>
       <c r="F220" t="str">
         <v>Kohei Otsuka</v>
@@ -18584,7 +18584,7 @@
         <v>./images/79/Jizos_near_Kofukuji_NoboriOji-cho_Nara_3.jpg</v>
       </c>
       <c r="E221" t="str">
-        <v>2017/02/18 17:15:25</v>
+        <v>2017-02-18T17:15:25</v>
       </c>
       <c r="F221" t="str">
         <v>Kohei Otsuka</v>
@@ -18610,7 +18610,7 @@
         <v>./images/79/Jizos_near_Kofukuji_NoboriOji-cho_Nara_4.jpg</v>
       </c>
       <c r="E222" t="str">
-        <v>2017/02/18 17:17:59</v>
+        <v>2017-02-18T17:17:59</v>
       </c>
       <c r="F222" t="str">
         <v>Kohei Otsuka</v>
@@ -18636,7 +18636,7 @@
         <v>./images/79/Jizos_near_Kofukuji_NoboriOji-cho_Nara.jpg</v>
       </c>
       <c r="E223" t="str">
-        <v>2017/02/18 17:14:27</v>
+        <v>2017-02-18T17:14:27</v>
       </c>
       <c r="F223" t="str">
         <v>Kohei Otsuka</v>
@@ -18662,7 +18662,7 @@
         <v>./images/80/Jizos_near_Yawata_Shrine_Higashikujo_Nara_(North)_Inside.jpg</v>
       </c>
       <c r="E224" t="str">
-        <v>2017/01/02 14:33:05</v>
+        <v>2017-01-02T14:33:05</v>
       </c>
       <c r="F224" t="str">
         <v>Kohei Otsuka</v>
@@ -18688,7 +18688,7 @@
         <v>./images/80/Jizos_near_Yawata_Shrine_Higashikujo_Nara_(North).jpg</v>
       </c>
       <c r="E225" t="str">
-        <v>2017/01/02 14:32:42</v>
+        <v>2017-01-02T14:32:42</v>
       </c>
       <c r="F225" t="str">
         <v>Kohei Otsuka</v>
@@ -18714,7 +18714,7 @@
         <v>./images/81/Jizos_near_Yawata_Shrine_Higashikujo_Nara_(South)_Indise.jpg</v>
       </c>
       <c r="E226" t="str">
-        <v>2017/01/02 14:33:55</v>
+        <v>2017-01-02T14:33:55</v>
       </c>
       <c r="F226" t="str">
         <v>Kohei Otsuka</v>
@@ -18740,7 +18740,7 @@
         <v>./images/81/Jizos_near_Yawata_Shrine_Higashikujo_Nara_(South).jpg</v>
       </c>
       <c r="E227" t="str">
-        <v>2017/01/02 14:33:50</v>
+        <v>2017-01-02T14:33:50</v>
       </c>
       <c r="F227" t="str">
         <v>Kohei Otsuka</v>
@@ -18766,7 +18766,7 @@
         <v>./images/82/Jufuku_Jizo_Nara_Jizobon.jpg</v>
       </c>
       <c r="E228" t="str">
-        <v>2018/07/23 13:59:00</v>
+        <v>2018-07-23T13:59:00</v>
       </c>
       <c r="F228" t="str">
         <v>Yasushi Fukunaga</v>
@@ -18792,7 +18792,7 @@
         <v>./images/82/Nara_Higashimuki-KIta_Dori_NorthEast_Jizo.jpg</v>
       </c>
       <c r="E229" t="str">
-        <v>2016/07/17 10:04:10</v>
+        <v>2016-07-17T10:04:10</v>
       </c>
       <c r="F229" t="str">
         <v>Kohei Otsuka</v>
@@ -18818,7 +18818,7 @@
         <v>./images/82/Nara,_Nara_Prefecture,_Japan_-_panoramio_-_ESU_(4).jpg</v>
       </c>
       <c r="E230" t="str">
-        <v>2010/09/26 15:47:31</v>
+        <v>2010-09-26T15:47:31</v>
       </c>
       <c r="F230" t="str">
         <v>panoramino user: ESU</v>
@@ -18844,7 +18844,7 @@
         <v>./images/83/Kainotsuka-cho_Jizo_(Near_Big_Stone_Light)_Nara.jpg</v>
       </c>
       <c r="E231" t="str">
-        <v>2016/05/05 18:19:34</v>
+        <v>2016-05-05T18:19:34</v>
       </c>
       <c r="F231" t="str">
         <v>Kohei Otsuka</v>
@@ -18870,7 +18870,7 @@
         <v>./images/83/Kainotsuka-cho_Jizo_Inside_(Near_Big_Stone_Light)_Nara.jpg</v>
       </c>
       <c r="E232" t="str">
-        <v>2016/05/05 18:20:09</v>
+        <v>2016-05-05T18:20:09</v>
       </c>
       <c r="F232" t="str">
         <v>Kohei Otsuka</v>
@@ -18896,7 +18896,7 @@
         <v>./images/83/Nara_Kainotsuka_Jizo.jpg</v>
       </c>
       <c r="E233" t="str">
-        <v>2015/08/05 17:56:59</v>
+        <v>2015-08-05T17:56:59</v>
       </c>
       <c r="F233" t="str">
         <v>Kohei Otsuka</v>
@@ -18922,7 +18922,7 @@
         <v>./images/84/Kainotsuka-cho_Jizo_(With_Myogo)_Nara_Myogo.jpg</v>
       </c>
       <c r="E234" t="str">
-        <v>2016/08/06 12:40:19</v>
+        <v>2016-08-06T12:40:19</v>
       </c>
       <c r="F234" t="str">
         <v>Kohei Otsuka</v>
@@ -18948,7 +18948,7 @@
         <v>./images/84/Kainotsuka-cho_Jizo_(With_Myogo)_Nara.jpg</v>
       </c>
       <c r="E235" t="str">
-        <v>2016/08/06 12:40:15</v>
+        <v>2016-08-06T12:40:15</v>
       </c>
       <c r="F235" t="str">
         <v>Kohei Otsuka</v>
@@ -18974,7 +18974,7 @@
         <v>./images/85/Kangiji_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E236" t="str">
-        <v>2016/08/06 15:23:41</v>
+        <v>2016-08-06T15:23:41</v>
       </c>
       <c r="F236" t="str">
         <v>Kohei Otsuka</v>
@@ -19000,7 +19000,7 @@
         <v>./images/85/Kangiji_Jizo_Nara_Outside.jpg</v>
       </c>
       <c r="E237" t="str">
-        <v>2016/08/06 15:25:21</v>
+        <v>2016-08-06T15:25:21</v>
       </c>
       <c r="F237" t="str">
         <v>Kohei Otsuka</v>
@@ -19026,7 +19026,7 @@
         <v>./images/85/Kangiji_Jizo_Nara_Plate.jpg</v>
       </c>
       <c r="E238" t="str">
-        <v>2016/08/06 15:24:04</v>
+        <v>2016-08-06T15:24:04</v>
       </c>
       <c r="F238" t="str">
         <v>Kohei Otsuka</v>
@@ -19052,7 +19052,7 @@
         <v>./images/85/Kobo_Well_With_Amida_And_Kangiji_Jizo.jpg</v>
       </c>
       <c r="E239" t="str">
-        <v>2016/08/06 15:26:08</v>
+        <v>2016-08-06T15:26:08</v>
       </c>
       <c r="F239" t="str">
         <v>Kohei Otsuka</v>
@@ -19078,7 +19078,7 @@
         <v>./images/86/Kawakami-cho_Jizodo_(East_of_Nara_Juvenile_Prison)_Inside.jpg</v>
       </c>
       <c r="E240" t="str">
-        <v>2016/08/19 14:30:48</v>
+        <v>2016-08-19T14:30:48</v>
       </c>
       <c r="F240" t="str">
         <v>Kohei Otsuka</v>
@@ -19104,7 +19104,7 @@
         <v>./images/86/Kawakami-cho_Jizodo_(East_of_Nara_Juvenile_Prison)_Outside.jpg</v>
       </c>
       <c r="E241" t="str">
-        <v>2016/08/19 14:30:41</v>
+        <v>2016-08-19T14:30:41</v>
       </c>
       <c r="F241" t="str">
         <v>Kohei Otsuka</v>
@@ -19130,7 +19130,7 @@
         <v>./images/87/Kawakami-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E242" t="str">
-        <v>2016/08/19 13:19:10</v>
+        <v>2016-08-19T13:19:10</v>
       </c>
       <c r="F242" t="str">
         <v>Kohei Otsuka</v>
@@ -19156,7 +19156,7 @@
         <v>./images/87/Kawakami-cho_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E243" t="str">
-        <v>2016/08/19 13:19:02</v>
+        <v>2016-08-19T13:19:02</v>
       </c>
       <c r="F243" t="str">
         <v>Kohei Otsuka</v>
@@ -19182,7 +19182,7 @@
         <v>./images/88/Kawanaka_Jizo_(Horen-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E244" t="str">
-        <v>2016/08/19 14:39:10</v>
+        <v>2016-08-19T14:39:10</v>
       </c>
       <c r="F244" t="str">
         <v>Kohei Otsuka</v>
@@ -19208,7 +19208,7 @@
         <v>./images/88/Kawanaka_Jizo_(Horen-cho)_Nara_Outside.jpg</v>
       </c>
       <c r="E245" t="str">
-        <v>2016/08/19 14:39:02</v>
+        <v>2016-08-19T14:39:02</v>
       </c>
       <c r="F245" t="str">
         <v>Kohei Otsuka</v>
@@ -19234,7 +19234,7 @@
         <v>./images/89/Nara_Kawanaka_Jizo_Kitamachi.jpg</v>
       </c>
       <c r="E246" t="str">
-        <v>2016/07/17 12:50:47</v>
+        <v>2016-07-17T12:50:47</v>
       </c>
       <c r="F246" t="str">
         <v>Kohei Otsuka</v>
@@ -19260,7 +19260,7 @@
         <v>./images/90/Mannaoshi_Jizo_Kawarado-cho_Nara_Inside.jpg</v>
       </c>
       <c r="E247" t="str">
-        <v>2017/03/18 14:03:33</v>
+        <v>2017-03-18T14:03:33</v>
       </c>
       <c r="F247" t="str">
         <v>Kohei Otsuka</v>
@@ -19286,7 +19286,7 @@
         <v>./images/90/Mannaoshi_Jizo_Kawarado-cho_Nara.jpg</v>
       </c>
       <c r="E248" t="str">
-        <v>2017/03/18 14:02:45</v>
+        <v>2017-03-18T14:02:45</v>
       </c>
       <c r="F248" t="str">
         <v>Kohei Otsuka</v>
@@ -19312,7 +19312,7 @@
         <v>./images/90/Nara_Kawarado_cho_Jizo.jpg</v>
       </c>
       <c r="E249" t="str">
-        <v>2015/05/04 16:52:34</v>
+        <v>2015-05-04T16:52:34</v>
       </c>
       <c r="F249" t="str">
         <v>Kohei Otsuka</v>
@@ -19338,7 +19338,7 @@
         <v>./images/91/Kidera-cho_Jizodo_(Near_Kasuga_Driving_School)_Inside.jpg</v>
       </c>
       <c r="E250" t="str">
-        <v>2016/05/05 18:23:02</v>
+        <v>2016-05-05T18:23:02</v>
       </c>
       <c r="F250" t="str">
         <v>Kohei Otsuka</v>
@@ -19364,7 +19364,7 @@
         <v>./images/91/Kidera-cho_Jizodo_(Near_Kasuga_Driving_School).jpg</v>
       </c>
       <c r="E251" t="str">
-        <v>2016/05/05 18:22:57</v>
+        <v>2016-05-05T18:22:57</v>
       </c>
       <c r="F251" t="str">
         <v>Kohei Otsuka</v>
@@ -19390,7 +19390,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Center_Left.jpg</v>
       </c>
       <c r="E252" t="str">
-        <v>2016/11/04 15:38:01</v>
+        <v>2016-11-04T15:38:01</v>
       </c>
       <c r="F252" t="str">
         <v>Kohei Otsuka</v>
@@ -19416,7 +19416,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Center_Right.jpg</v>
       </c>
       <c r="E253" t="str">
-        <v>2016/11/04 15:38:10</v>
+        <v>2016-11-04T15:38:10</v>
       </c>
       <c r="F253" t="str">
         <v>Kohei Otsuka</v>
@@ -19442,7 +19442,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Happy_Jizo.jpg</v>
       </c>
       <c r="E254" t="str">
-        <v>2016/11/04 15:38:55</v>
+        <v>2016-11-04T15:38:55</v>
       </c>
       <c r="F254" t="str">
         <v>Kohei Otsuka</v>
@@ -19468,7 +19468,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Left.jpg</v>
       </c>
       <c r="E255" t="str">
-        <v>2016/11/04 15:37:54</v>
+        <v>2016-11-04T15:37:54</v>
       </c>
       <c r="F255" t="str">
         <v>Kohei Otsuka</v>
@@ -19494,7 +19494,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Memorial.jpg</v>
       </c>
       <c r="E256" t="str">
-        <v>2016/11/04 15:38:59</v>
+        <v>2016-11-04T15:38:59</v>
       </c>
       <c r="F256" t="str">
         <v>Kohei Otsuka</v>
@@ -19520,7 +19520,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara_Right.jpg</v>
       </c>
       <c r="E257" t="str">
-        <v>2016/11/04 15:38:19</v>
+        <v>2016-11-04T15:38:19</v>
       </c>
       <c r="F257" t="str">
         <v>Kohei Otsuka</v>
@@ -19546,7 +19546,7 @@
         <v>./images/92/Kitamuki_Jizo_(Horen-cho)_Nara.jpg</v>
       </c>
       <c r="E258" t="str">
-        <v>2016/11/04 15:37:46</v>
+        <v>2016-11-04T15:37:46</v>
       </c>
       <c r="F258" t="str">
         <v>Kohei Otsuka</v>
@@ -19572,7 +19572,7 @@
         <v>./images/93/Kitamuki_Jizo_(Imazaike-cho)_Nara_Inside_from_Left.jpg</v>
       </c>
       <c r="E259" t="str">
-        <v>2016/11/04 14:53:58</v>
+        <v>2016-11-04T14:53:58</v>
       </c>
       <c r="F259" t="str">
         <v>Kohei Otsuka</v>
@@ -19598,7 +19598,7 @@
         <v>./images/93/Kitamuki_Jizo_(Imazaike-cho)_Nara_Inside_from_Right.jpg</v>
       </c>
       <c r="E260" t="str">
-        <v>2016/11/04 14:54:10</v>
+        <v>2016-11-04T14:54:10</v>
       </c>
       <c r="F260" t="str">
         <v>Kohei Otsuka</v>
@@ -19624,7 +19624,7 @@
         <v>./images/93/Kitamuki_Jizo_(Imazaike-cho)_Nara.jpg</v>
       </c>
       <c r="E261" t="str">
-        <v>2016/11/04 14:53:51</v>
+        <v>2016-11-04T14:53:51</v>
       </c>
       <c r="F261" t="str">
         <v>Kohei Otsuka</v>
@@ -19650,7 +19650,7 @@
         <v>./images/94/Kitamuki_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E262" t="str">
-        <v>2016/08/06 14:56:18</v>
+        <v>2016-08-06T14:56:18</v>
       </c>
       <c r="F262" t="str">
         <v>Kohei Otsuka</v>
@@ -19676,7 +19676,7 @@
         <v>./images/94/Kitamuki_Jizo_Nara_Outside.jpg</v>
       </c>
       <c r="E263" t="str">
-        <v>2016/08/06 14:56:08</v>
+        <v>2016-08-06T14:56:08</v>
       </c>
       <c r="F263" t="str">
         <v>Kohei Otsuka</v>
@@ -19702,7 +19702,7 @@
         <v>./images/95/Kodakara_Jizo_Nara_Inside_1.jpg</v>
       </c>
       <c r="E264" t="str">
-        <v>2016/08/06 13:04:14</v>
+        <v>2016-08-06T13:04:14</v>
       </c>
       <c r="F264" t="str">
         <v>Kohei Otsuka</v>
@@ -19728,7 +19728,7 @@
         <v>./images/95/Kodakara_Jizo_Nara_Inside_2.jpg</v>
       </c>
       <c r="E265" t="str">
-        <v>2016/08/06 13:04:30</v>
+        <v>2016-08-06T13:04:30</v>
       </c>
       <c r="F265" t="str">
         <v>Kohei Otsuka</v>
@@ -19754,7 +19754,7 @@
         <v>./images/95/Kodakara_Jizo_Nara_Outside.jpg</v>
       </c>
       <c r="E266" t="str">
-        <v>2016/08/06 13:03:19</v>
+        <v>2016-08-06T13:03:19</v>
       </c>
       <c r="F266" t="str">
         <v>Kohei Otsuka</v>
@@ -19780,7 +19780,7 @@
         <v>./images/96/Komori_Jizo_(NishiSasaboko-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E267" t="str">
-        <v>2016/08/19 14:43:03</v>
+        <v>2016-08-19T14:43:03</v>
       </c>
       <c r="F267" t="str">
         <v>Kohei Otsuka</v>
@@ -19806,7 +19806,7 @@
         <v>./images/96/Komori_Jizo_(NishiSasaboko-cho)_Nara_Outside.jpg</v>
       </c>
       <c r="E268" t="str">
-        <v>2016/08/19 14:42:45</v>
+        <v>2016-08-19T14:42:45</v>
       </c>
       <c r="F268" t="str">
         <v>Kohei Otsuka</v>
@@ -19832,7 +19832,7 @@
         <v>./images/97/Komori_Jizo_Takabatake-cho_Nara_Inside.jpg</v>
       </c>
       <c r="E269" t="str">
-        <v>2016/11/04 11:32:35</v>
+        <v>2016-11-04T11:32:35</v>
       </c>
       <c r="F269" t="str">
         <v>Kohei Otsuka</v>
@@ -19858,7 +19858,7 @@
         <v>./images/97/Komori_Jizo_Takabatake-cho_Nara.jpg</v>
       </c>
       <c r="E270" t="str">
-        <v>2016/11/04 11:31:27</v>
+        <v>2016-11-04T11:31:27</v>
       </c>
       <c r="F270" t="str">
         <v>Kohei Otsuka</v>
@@ -19884,7 +19884,7 @@
         <v>./images/98/Koyasu_Jizo_NishiKitsuji_(Inside).jpg</v>
       </c>
       <c r="E271" t="str">
-        <v>2017/02/11 14:21:48</v>
+        <v>2017-02-11T14:21:48</v>
       </c>
       <c r="F271" t="str">
         <v>Kohei Otsuka</v>
@@ -19910,7 +19910,7 @@
         <v>./images/98/Koyasu_Jizo_NishiKitsuji.jpg</v>
       </c>
       <c r="E272" t="str">
-        <v>2017/02/11 14:21:29</v>
+        <v>2017-02-11T14:21:29</v>
       </c>
       <c r="F272" t="str">
         <v>Kohei Otsuka</v>
@@ -19936,7 +19936,7 @@
         <v>./images/99/Koyasu_Jizo_Saidaiji_Kobo_Nara_Inside.jpg</v>
       </c>
       <c r="E273" t="str">
-        <v>2017/02/18 14:49:05</v>
+        <v>2017-02-18T14:49:05</v>
       </c>
       <c r="F273" t="str">
         <v>Kohei Otsuka</v>
@@ -19962,7 +19962,7 @@
         <v>./images/99/Koyasu_Jizo_Saidaiji_Kobo_Nara.jpg</v>
       </c>
       <c r="E274" t="str">
-        <v>2017/02/18 14:48:43</v>
+        <v>2017-02-18T14:48:43</v>
       </c>
       <c r="F274" t="str">
         <v>Kohei Otsuka</v>
@@ -19988,7 +19988,7 @@
         <v>./images/100/Manki_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E275" t="str">
-        <v>2016/08/19 13:22:01</v>
+        <v>2016-08-19T13:22:01</v>
       </c>
       <c r="F275" t="str">
         <v>Kohei Otsuka</v>
@@ -20014,7 +20014,7 @@
         <v>./images/100/Manki_Jizo_Nara_NameStone.jpg</v>
       </c>
       <c r="E276" t="str">
-        <v>2016/08/19 13:21:52</v>
+        <v>2016-08-19T13:21:52</v>
       </c>
       <c r="F276" t="str">
         <v>Kohei Otsuka</v>
@@ -20040,7 +20040,7 @@
         <v>./images/100/Manki_Jizo_Nara_Outside.jpg</v>
       </c>
       <c r="E277" t="str">
-        <v>2016/08/19 13:21:46</v>
+        <v>2016-08-19T13:21:46</v>
       </c>
       <c r="F277" t="str">
         <v>Kohei Otsuka</v>
@@ -20066,7 +20066,7 @@
         <v>./images/101/ManNaoshi_Jizo_Nara.jpg</v>
       </c>
       <c r="E278" t="str">
-        <v>2015/12/09 15:56:07</v>
+        <v>2015-12-09T15:56:07</v>
       </c>
       <c r="F278" t="str">
         <v>Kohei Otsuka</v>
@@ -20092,7 +20092,7 @@
         <v>./images/101/Wayside_Jizo_Nara_Sugigacho_Near_Sugiichi_Taishin_Inside.jpg</v>
       </c>
       <c r="E279" t="str">
-        <v>2016/07/22 15:44:16</v>
+        <v>2016-07-22T15:44:16</v>
       </c>
       <c r="F279" t="str">
         <v>Kohei Otsuka</v>
@@ -20118,7 +20118,7 @@
         <v>./images/101/Wayside_Jizo_Nara_Sugigacho_Near_Sugiichi_Taishin.jpg</v>
       </c>
       <c r="E280" t="str">
-        <v>2016/07/22 15:43:50</v>
+        <v>2016-07-22T15:43:50</v>
       </c>
       <c r="F280" t="str">
         <v>Kohei Otsuka</v>
@@ -20144,7 +20144,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara)_From_Front.jpg</v>
       </c>
       <c r="E281" t="str">
-        <v>2018/06/22 12:07:53</v>
+        <v>2018-06-22T12:07:53</v>
       </c>
       <c r="F281" t="str">
         <v>Kohei Otsuka</v>
@@ -20170,7 +20170,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara)_Jizo.jpg</v>
       </c>
       <c r="E282" t="str">
-        <v>2018/06/22 12:08:02</v>
+        <v>2018-06-22T12:08:02</v>
       </c>
       <c r="F282" t="str">
         <v>Kohei Otsuka</v>
@@ -20196,7 +20196,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara)_Name_Stone.jpg</v>
       </c>
       <c r="E283" t="str">
-        <v>2018/06/22 12:08:37</v>
+        <v>2018-06-22T12:08:37</v>
       </c>
       <c r="F283" t="str">
         <v>Kohei Otsuka</v>
@@ -20222,7 +20222,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara)_Small_Jizos.jpg</v>
       </c>
       <c r="E284" t="str">
-        <v>2018/06/22 12:08:56</v>
+        <v>2018-06-22T12:08:56</v>
       </c>
       <c r="F284" t="str">
         <v>Kohei Otsuka</v>
@@ -20248,7 +20248,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara)_Small_Toriis.jpg</v>
       </c>
       <c r="E285" t="str">
-        <v>2018/06/22 12:08:48</v>
+        <v>2018-06-22T12:08:48</v>
       </c>
       <c r="F285" t="str">
         <v>Kohei Otsuka</v>
@@ -20274,7 +20274,7 @@
         <v>./images/102/Mannawoshi_Jizo_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E286" t="str">
-        <v>2018/06/22 12:07:40</v>
+        <v>2018-06-22T12:07:40</v>
       </c>
       <c r="F286" t="str">
         <v>Kohei Otsuka</v>
@@ -20300,7 +20300,7 @@
         <v>./images/103/Meyasu_Jizo_(ShijoOji-Minami-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E287" t="str">
-        <v>2018/02/16 13:26:41</v>
+        <v>2018-02-16T13:26:41</v>
       </c>
       <c r="F287" t="str">
         <v>Kohei Otsuka</v>
@@ -20326,7 +20326,7 @@
         <v>./images/103/Meyasu_Jizo_(ShijoOji-Minami-cho,_Nara).jpg</v>
       </c>
       <c r="E288" t="str">
-        <v>2018/02/16 13:25:35</v>
+        <v>2018-02-16T13:25:35</v>
       </c>
       <c r="F288" t="str">
         <v>Kohei Otsuka</v>
@@ -20352,7 +20352,7 @@
         <v>./images/104/Nara_Fukudera_Stone_Buddha.jpg</v>
       </c>
       <c r="E289" t="str">
-        <v>2016/05/02 17:16:14</v>
+        <v>2016-05-02T17:16:14</v>
       </c>
       <c r="F289" t="str">
         <v>Kohei Otsuka</v>
@@ -20378,7 +20378,7 @@
         <v>./images/105/MinamiKyobate-cho_1_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E290" t="str">
-        <v>2016/08/06 12:44:17</v>
+        <v>2016-08-06T12:44:17</v>
       </c>
       <c r="F290" t="str">
         <v>Kohei Otsuka</v>
@@ -20404,7 +20404,7 @@
         <v>./images/105/MinamiKyobate-cho_1_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E291" t="str">
-        <v>2016/08/06 12:44:03</v>
+        <v>2016-08-06T12:44:03</v>
       </c>
       <c r="F291" t="str">
         <v>Kohei Otsuka</v>
@@ -20430,7 +20430,7 @@
         <v>./images/106/MinamiKyobate-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E292" t="str">
-        <v>2016/08/06 12:49:44</v>
+        <v>2016-08-06T12:49:44</v>
       </c>
       <c r="F292" t="str">
         <v>Kohei Otsuka</v>
@@ -20456,7 +20456,7 @@
         <v>./images/106/MinamiKyobate-cho_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E293" t="str">
-        <v>2016/08/06 12:49:39</v>
+        <v>2016-08-06T12:49:39</v>
       </c>
       <c r="F293" t="str">
         <v>Kohei Otsuka</v>
@@ -20482,7 +20482,7 @@
         <v>./images/107/Inside_Kaisho_near_MinamiNagai-cho_Jizo.jpg</v>
       </c>
       <c r="E294" t="str">
-        <v>2016/05/05 15:59:56</v>
+        <v>2016-05-05T15:59:56</v>
       </c>
       <c r="F294" t="str">
         <v>Kohei Otsuka</v>
@@ -20508,7 +20508,7 @@
         <v>./images/107/Kaisho_near_MinamiNagai-cho_Jizo.jpg</v>
       </c>
       <c r="E295" t="str">
-        <v>2016/05/05 15:59:32</v>
+        <v>2016-05-05T15:59:32</v>
       </c>
       <c r="F295" t="str">
         <v>Kohei Otsuka</v>
@@ -20534,7 +20534,7 @@
         <v>./images/107/MinamiNagai-cho_Jizo_near_Taishi-michi.jpg</v>
       </c>
       <c r="E296" t="str">
-        <v>2016/05/05 15:59:24</v>
+        <v>2016-05-05T15:59:24</v>
       </c>
       <c r="F296" t="str">
         <v>Kohei Otsuka</v>
@@ -20560,7 +20560,7 @@
         <v>./images/107/Nagai_Taishi-michi_Sekihi.jpg</v>
       </c>
       <c r="E297" t="str">
-        <v>2016/05/05 15:59:20</v>
+        <v>2016-05-05T15:59:20</v>
       </c>
       <c r="F297" t="str">
         <v>Kohei Otsuka</v>
@@ -20586,7 +20586,7 @@
         <v>./images/108/Benzaiten_and_Jizodo_(MinamiShin-machi,_Nara).jpg</v>
       </c>
       <c r="E298" t="str">
-        <v>2017/08/26 13:02:49</v>
+        <v>2017-08-26T13:02:49</v>
       </c>
       <c r="F298" t="str">
         <v>Kohei Otsuka</v>
@@ -20612,7 +20612,7 @@
         <v>./images/108/Inside_of_Jizodo_(MinamiShin-machi,_Nara).jpg</v>
       </c>
       <c r="E299" t="str">
-        <v>2017/08/26 13:03:26</v>
+        <v>2017-08-26T13:03:26</v>
       </c>
       <c r="F299" t="str">
         <v>Kohei Otsuka</v>
@@ -20638,7 +20638,7 @@
         <v>./images/108/Wayside_Jizo_And_Benzaiten_Minami_Shinmachi.jpg</v>
       </c>
       <c r="E300" t="str">
-        <v>2016/07/22 15:31:53</v>
+        <v>2016-07-22T15:31:53</v>
       </c>
       <c r="F300" t="str">
         <v>Kohei Otsuka</v>
@@ -20664,7 +20664,7 @@
         <v>./images/109/Nakasuji-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E301" t="str">
-        <v>2016/08/06 18:25:45</v>
+        <v>2016-08-06T18:25:45</v>
       </c>
       <c r="F301" t="str">
         <v>Kohei Otsuka</v>
@@ -20690,7 +20690,7 @@
         <v>./images/109/Nakasuji-cho_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E302" t="str">
-        <v>2016/08/06 18:25:39</v>
+        <v>2016-08-06T18:25:39</v>
       </c>
       <c r="F302" t="str">
         <v>Kohei Otsuka</v>
@@ -20716,7 +20716,7 @@
         <v>./images/110/Nara_Ganrin-in_Jizodo_Inside1.jpg</v>
       </c>
       <c r="E303" t="str">
-        <v>2017/03/18 14:43:32</v>
+        <v>2017-03-18T14:43:32</v>
       </c>
       <c r="F303" t="str">
         <v>Kohei Otsuka</v>
@@ -20742,7 +20742,7 @@
         <v>./images/110/Nara_Ganrin-in_Jizodo_Inside2.jpg</v>
       </c>
       <c r="E304" t="str">
-        <v>2017/03/18 14:43:45</v>
+        <v>2017-03-18T14:43:45</v>
       </c>
       <c r="F304" t="str">
         <v>Kohei Otsuka</v>
@@ -20768,7 +20768,7 @@
         <v>./images/110/Nara_Ganrin-in_Jizodo.jpg</v>
       </c>
       <c r="E305" t="str">
-        <v>2015/05/17 15:02:49</v>
+        <v>2015-05-17T15:02:49</v>
       </c>
       <c r="F305" t="str">
         <v>Kohei Otsuka</v>
@@ -20794,7 +20794,7 @@
         <v>./images/110/Nara_Ganrin-in_Jizodo2.jpg</v>
       </c>
       <c r="E306" t="str">
-        <v>2017/03/18 14:43:13</v>
+        <v>2017-03-18T14:43:13</v>
       </c>
       <c r="F306" t="str">
         <v>Kohei Otsuka</v>
@@ -20820,7 +20820,7 @@
         <v>./images/111/Nara_Jizo_(Kidera-cho,_Near_Hoju-ji)_Inside.jpg</v>
       </c>
       <c r="E307" t="str">
-        <v>2016/11/04 12:30:46</v>
+        <v>2016-11-04T12:30:46</v>
       </c>
       <c r="F307" t="str">
         <v>Kohei Otsuka</v>
@@ -20846,7 +20846,7 @@
         <v>./images/111/Nara_Jizo_(Kidera-cho,_Near_Hoju-ji).jpg</v>
       </c>
       <c r="E308" t="str">
-        <v>2016/11/04 12:30:56</v>
+        <v>2016-11-04T12:30:56</v>
       </c>
       <c r="F308" t="str">
         <v>Kohei Otsuka</v>
@@ -20872,7 +20872,7 @@
         <v>./images/111/Nara_Kidera_cho_Jizo_4.jpg</v>
       </c>
       <c r="E309" t="str">
-        <v>2015/05/04 15:49:32</v>
+        <v>2015-05-04T15:49:32</v>
       </c>
       <c r="F309" t="str">
         <v>Kohei Otsuka</v>
@@ -20898,7 +20898,7 @@
         <v>./images/112/Nara_Kofukuji_South_Jizo_(Kasako).jpg</v>
       </c>
       <c r="E310" t="str">
-        <v>2017/02/18 17:22:08</v>
+        <v>2017-02-18T17:22:08</v>
       </c>
       <c r="F310" t="str">
         <v>Kohei Otsuka</v>
@@ -20924,7 +20924,7 @@
         <v>./images/112/Nara_Kofukuji_South_Jizo.jpg</v>
       </c>
       <c r="E311" t="str">
-        <v>2015/05/17 14:11:54</v>
+        <v>2015-05-17T14:11:54</v>
       </c>
       <c r="F311" t="str">
         <v>Kohei Otsuka</v>
@@ -20950,7 +20950,7 @@
         <v>./images/113/Nataedaguchi_Jizo_Nara1.jpg</v>
       </c>
       <c r="E312" t="str">
-        <v>2015/12/20 16:52:54</v>
+        <v>2015-12-20T16:52:54</v>
       </c>
       <c r="F312" t="str">
         <v>Kohei Otsuka</v>
@@ -20976,7 +20976,7 @@
         <v>./images/113/Nataedaguchi_Jizo_Nara2.jpg</v>
       </c>
       <c r="E313" t="str">
-        <v>2015/12/20 16:52:59</v>
+        <v>2015-12-20T16:52:59</v>
       </c>
       <c r="F313" t="str">
         <v>Kohei Otsuka</v>
@@ -21002,7 +21002,7 @@
         <v>./images/113/Nataedaguchi_Jizo_Nara3.jpg</v>
       </c>
       <c r="E314" t="str">
-        <v>2015/12/20 16:53:22</v>
+        <v>2015-12-20T16:53:22</v>
       </c>
       <c r="F314" t="str">
         <v>Kohei Otsuka</v>
@@ -21028,7 +21028,7 @@
         <v>./images/113/Nataedaguchi_Jizo_Nara4.jpg</v>
       </c>
       <c r="E315" t="str">
-        <v>2015/12/20 16:53:57</v>
+        <v>2015-12-20T16:53:57</v>
       </c>
       <c r="F315" t="str">
         <v>Kohei Otsuka</v>
@@ -21054,7 +21054,7 @@
         <v>./images/114/Nara_Nishikidera_Jizo.jpg</v>
       </c>
       <c r="E316" t="str">
-        <v>2015/06/23 10:30:31</v>
+        <v>2015-06-23T10:30:31</v>
       </c>
       <c r="F316" t="str">
         <v>Kohei Otsuka</v>
@@ -21080,7 +21080,7 @@
         <v>./images/114/NishiKidera-cho_Jizo_(Nara).jpg</v>
       </c>
       <c r="E317" t="str">
-        <v>2015/12/20 16:36:41</v>
+        <v>2015-12-20T16:36:41</v>
       </c>
       <c r="F317" t="str">
         <v>Kohei Otsuka</v>
@@ -21106,7 +21106,7 @@
         <v>./images/115/Wayside_Jizo_Kawaramachi_Kaisho_Inside.jpg</v>
       </c>
       <c r="E318" t="str">
-        <v>2016/07/22 15:28:33</v>
+        <v>2016-07-22T15:28:33</v>
       </c>
       <c r="F318" t="str">
         <v>Kohei Otsuka</v>
@@ -21132,7 +21132,7 @@
         <v>./images/115/Wayside_Jizo_Kawaramachi_Kaisho.jpg</v>
       </c>
       <c r="E319" t="str">
-        <v>2016/07/22 15:28:12</v>
+        <v>2016-07-22T15:28:12</v>
       </c>
       <c r="F319" t="str">
         <v>Kohei Otsuka</v>
@@ -21158,7 +21158,7 @@
         <v>./images/116/Nara_NishiKitsuji_Jizo.jpg</v>
       </c>
       <c r="E320" t="str">
-        <v>2015/06/28 18:44:20</v>
+        <v>2015-06-28T18:44:20</v>
       </c>
       <c r="F320" t="str">
         <v>Kohei Otsuka</v>
@@ -21184,7 +21184,7 @@
         <v>./images/116/Wayside_Jizo_In_Nara_Near_Watamachi_Inside.jpg</v>
       </c>
       <c r="E321" t="str">
-        <v>2016/07/22 15:19:46</v>
+        <v>2016-07-22T15:19:46</v>
       </c>
       <c r="F321" t="str">
         <v>Kohei Otsuka</v>
@@ -21210,7 +21210,7 @@
         <v>./images/116/Wayside_Jizo_In_Nara_Near_Watamachi.jpg</v>
       </c>
       <c r="E322" t="str">
-        <v>2016/07/22 15:19:20</v>
+        <v>2016-07-22T15:19:20</v>
       </c>
       <c r="F322" t="str">
         <v>Kohei Otsuka</v>
@@ -21236,7 +21236,7 @@
         <v>./images/117/NishiKitsuji-cho_Jizodo_(Empty)_Nara_Inside.jpg</v>
       </c>
       <c r="E323" t="str">
-        <v>2016/08/06 13:17:19</v>
+        <v>2016-08-06T13:17:19</v>
       </c>
       <c r="F323" t="str">
         <v>Kohei Otsuka</v>
@@ -21262,7 +21262,7 @@
         <v>./images/117/NishiKitsuji-cho_Jizodo_(Empty)_Nara_Outside.jpg</v>
       </c>
       <c r="E324" t="str">
-        <v>2016/08/06 13:16:49</v>
+        <v>2016-08-06T13:16:49</v>
       </c>
       <c r="F324" t="str">
         <v>Kohei Otsuka</v>
@@ -21288,7 +21288,7 @@
         <v>./images/118/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_North)_2.jpg</v>
       </c>
       <c r="E325" t="str">
-        <v>2016/05/02 18:38:12</v>
+        <v>2016-05-02T18:38:12</v>
       </c>
       <c r="F325" t="str">
         <v>Kohei Otsuka</v>
@@ -21314,7 +21314,7 @@
         <v>./images/118/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_North)_Inside_2.jpg</v>
       </c>
       <c r="E326" t="str">
-        <v>2016/05/02 18:38:32</v>
+        <v>2016-05-02T18:38:32</v>
       </c>
       <c r="F326" t="str">
         <v>Kohei Otsuka</v>
@@ -21340,7 +21340,7 @@
         <v>./images/118/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_North)_Inside_3.jpg</v>
       </c>
       <c r="E327" t="str">
-        <v>2016/05/02 18:38:49</v>
+        <v>2016-05-02T18:38:49</v>
       </c>
       <c r="F327" t="str">
         <v>Kohei Otsuka</v>
@@ -21366,7 +21366,7 @@
         <v>./images/118/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_North)_Nara_Inside.jpg</v>
       </c>
       <c r="E328" t="str">
-        <v>2016/08/06 13:21:02</v>
+        <v>2016-08-06T13:21:02</v>
       </c>
       <c r="F328" t="str">
         <v>Kohei Otsuka</v>
@@ -21392,7 +21392,7 @@
         <v>./images/118/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_North)_Nara_Outside.jpg</v>
       </c>
       <c r="E329" t="str">
-        <v>2016/08/06 13:20:52</v>
+        <v>2016-08-06T13:20:52</v>
       </c>
       <c r="F329" t="str">
         <v>Kohei Otsuka</v>
@@ -21418,7 +21418,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_2.jpg</v>
       </c>
       <c r="E330" t="str">
-        <v>2016/05/02 18:36:01</v>
+        <v>2016-05-02T18:36:01</v>
       </c>
       <c r="F330" t="str">
         <v>Kohei Otsuka</v>
@@ -21444,7 +21444,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Inside_2.jpg</v>
       </c>
       <c r="E331" t="str">
-        <v>2016/05/02 18:36:10</v>
+        <v>2016-05-02T18:36:10</v>
       </c>
       <c r="F331" t="str">
         <v>Kohei Otsuka</v>
@@ -21470,7 +21470,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Inside_3.jpg</v>
       </c>
       <c r="E332" t="str">
-        <v>2016/05/02 18:36:14</v>
+        <v>2016-05-02T18:36:14</v>
       </c>
       <c r="F332" t="str">
         <v>Kohei Otsuka</v>
@@ -21496,7 +21496,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Nara_Inside_Left.jpg</v>
       </c>
       <c r="E333" t="str">
-        <v>2016/08/06 13:22:28</v>
+        <v>2016-08-06T13:22:28</v>
       </c>
       <c r="F333" t="str">
         <v>Kohei Otsuka</v>
@@ -21522,7 +21522,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Nara_Inside_Right.jpg</v>
       </c>
       <c r="E334" t="str">
-        <v>2016/08/06 13:22:32</v>
+        <v>2016-08-06T13:22:32</v>
       </c>
       <c r="F334" t="str">
         <v>Kohei Otsuka</v>
@@ -21548,7 +21548,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Nara_Inside.jpg</v>
       </c>
       <c r="E335" t="str">
-        <v>2016/08/06 13:22:23</v>
+        <v>2016-08-06T13:22:23</v>
       </c>
       <c r="F335" t="str">
         <v>Kohei Otsuka</v>
@@ -21574,7 +21574,7 @@
         <v>./images/119/NishiKitsuji-cho_Jizodo_(Under_Sakurai_Line_South)_Nara_Outside.jpg</v>
       </c>
       <c r="E336" t="str">
-        <v>2016/08/06 13:22:47</v>
+        <v>2016-08-06T13:22:47</v>
       </c>
       <c r="F336" t="str">
         <v>Kohei Otsuka</v>
@@ -21600,7 +21600,7 @@
         <v>./images/120/Nishinosaka-cho_Jizodo_Nara_Center.jpg</v>
       </c>
       <c r="E337" t="str">
-        <v>2016/08/06 13:42:45</v>
+        <v>2016-08-06T13:42:45</v>
       </c>
       <c r="F337" t="str">
         <v>Kohei Otsuka</v>
@@ -21626,7 +21626,7 @@
         <v>./images/120/Nishinosaka-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E338" t="str">
-        <v>2016/08/06 13:42:52</v>
+        <v>2016-08-06T13:42:52</v>
       </c>
       <c r="F338" t="str">
         <v>Kohei Otsuka</v>
@@ -21652,7 +21652,7 @@
         <v>./images/120/Nishinosaka-cho_Jizodo_Nara_Left.jpg</v>
       </c>
       <c r="E339" t="str">
-        <v>2016/08/06 13:42:41</v>
+        <v>2016-08-06T13:42:41</v>
       </c>
       <c r="F339" t="str">
         <v>Kohei Otsuka</v>
@@ -21678,7 +21678,7 @@
         <v>./images/120/Nishinosaka-cho_Jizodo_Nara_Right.jpg</v>
       </c>
       <c r="E340" t="str">
-        <v>2016/08/06 13:42:34</v>
+        <v>2016-08-06T13:42:34</v>
       </c>
       <c r="F340" t="str">
         <v>Kohei Otsuka</v>
@@ -21704,7 +21704,7 @@
         <v>./images/121/Jizo_in_Nara_Nishi-Shinnyacho.jpg</v>
       </c>
       <c r="E341" t="str">
-        <v>2015/05/02 17:32:36</v>
+        <v>2015-05-02T17:32:36</v>
       </c>
       <c r="F341" t="str">
         <v>Kohei Otsuka</v>
@@ -21730,7 +21730,7 @@
         <v>./images/121/NishiShinya-cho_Jizodo_Nara_Jizobon.jpg</v>
       </c>
       <c r="E342" t="str">
-        <v>2018/07/23 13:59:00</v>
+        <v>2018-07-23T13:59:00</v>
       </c>
       <c r="F342" t="str">
         <v>Yasushi Fukunaga</v>
@@ -21756,7 +21756,7 @@
         <v>./images/121/NishiShinya-cho_Jizodo_Nara.jpg</v>
       </c>
       <c r="E343" t="str">
-        <v>2016/01/01 15:19:29</v>
+        <v>2016-01-01T15:19:29</v>
       </c>
       <c r="F343" t="str">
         <v>Kohei Otsuka</v>
@@ -21782,7 +21782,7 @@
         <v>./images/122/Inside_of_Jizodo_2_(Omori-cho,_Nara).jpg</v>
       </c>
       <c r="E344" t="str">
-        <v>2017/08/26 13:06:55</v>
+        <v>2017-08-26T13:06:55</v>
       </c>
       <c r="F344" t="str">
         <v>Kohei Otsuka</v>
@@ -21808,7 +21808,7 @@
         <v>./images/122/Jizodo_2_(Omori-cho,_Nara).jpg</v>
       </c>
       <c r="E345" t="str">
-        <v>2017/08/26 13:06:47</v>
+        <v>2017-08-26T13:06:47</v>
       </c>
       <c r="F345" t="str">
         <v>Kohei Otsuka</v>
@@ -21834,7 +21834,7 @@
         <v>./images/122/Omori-cho_Jizodo_Nara_Inside.jpg</v>
       </c>
       <c r="E346" t="str">
-        <v>2016/08/06 13:08:44</v>
+        <v>2016-08-06T13:08:44</v>
       </c>
       <c r="F346" t="str">
         <v>Kohei Otsuka</v>
@@ -21860,7 +21860,7 @@
         <v>./images/122/Omori-cho_Jizodo_Nara_Outside.jpg</v>
       </c>
       <c r="E347" t="str">
-        <v>2016/08/06 13:08:36</v>
+        <v>2016-08-06T13:08:36</v>
       </c>
       <c r="F347" t="str">
         <v>Kohei Otsuka</v>
@@ -21886,7 +21886,7 @@
         <v>./images/123/Sahogawa_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E348" t="str">
-        <v>2016/11/04 14:57:08</v>
+        <v>2016-11-04T14:57:08</v>
       </c>
       <c r="F348" t="str">
         <v>Kohei Otsuka</v>
@@ -21912,7 +21912,7 @@
         <v>./images/123/Sahogawa_Jizo_Nara.jpg</v>
       </c>
       <c r="E349" t="str">
-        <v>2016/11/04 14:56:58</v>
+        <v>2016-11-04T14:56:58</v>
       </c>
       <c r="F349" t="str">
         <v>Kohei Otsuka</v>
@@ -21938,7 +21938,7 @@
         <v>./images/124/Nara_wayside_Jizo_In_Sugigacho_North_Of_Sugiichi_Taishin_Inside.jpg</v>
       </c>
       <c r="E350" t="str">
-        <v>2016/07/22 15:47:23</v>
+        <v>2016-07-22T15:47:23</v>
       </c>
       <c r="F350" t="str">
         <v>Kohei Otsuka</v>
@@ -21964,7 +21964,7 @@
         <v>./images/124/Nara_wayside_Jizo_In_Sugigacho_North_Of_Sugiichi_Taishin.jpg</v>
       </c>
       <c r="E351" t="str">
-        <v>2016/07/22 15:47:15</v>
+        <v>2016-07-22T15:47:15</v>
       </c>
       <c r="F351" t="str">
         <v>Kohei Otsuka</v>
@@ -21990,7 +21990,7 @@
         <v>./images/125/Inside_of_Sawara_Jizo_Nara.jpg</v>
       </c>
       <c r="E352" t="str">
-        <v>2016/05/05 18:54:57</v>
+        <v>2016-05-05T18:54:57</v>
       </c>
       <c r="F352" t="str">
         <v>Kohei Otsuka</v>
@@ -22016,7 +22016,7 @@
         <v>./images/125/Sawara_Jizo_Nara_Inside.jpg</v>
       </c>
       <c r="E353" t="str">
-        <v>2016/08/06 12:22:00</v>
+        <v>2016-08-06T12:22:00</v>
       </c>
       <c r="F353" t="str">
         <v>Kohei Otsuka</v>
@@ -22042,7 +22042,7 @@
         <v>./images/125/Sawara_Jizo_Nara_Outside.jpg</v>
       </c>
       <c r="E354" t="str">
-        <v>2016/08/06 12:21:48</v>
+        <v>2016-08-06T12:21:48</v>
       </c>
       <c r="F354" t="str">
         <v>Kohei Otsuka</v>
@@ -22068,7 +22068,7 @@
         <v>./images/125/Sawara_Jizo_Nara.jpg</v>
       </c>
       <c r="E355" t="str">
-        <v>2016/05/05 18:54:42</v>
+        <v>2016-05-05T18:54:42</v>
       </c>
       <c r="F355" t="str">
         <v>Kohei Otsuka</v>
@@ -22094,7 +22094,7 @@
         <v>./images/126/Nara_Byakugoji_cho_Shinmei_Jizo.jpg</v>
       </c>
       <c r="E356" t="str">
-        <v>2015/05/04 14:50:30</v>
+        <v>2015-05-04T14:50:30</v>
       </c>
       <c r="F356" t="str">
         <v>Kohei Otsuka</v>
@@ -22120,7 +22120,7 @@
         <v>./images/127/Shinroku_Jizo_Nara_NameStone.jpg</v>
       </c>
       <c r="E357" t="str">
-        <v>2015/12/17 15:59:18</v>
+        <v>2015-12-17T15:59:18</v>
       </c>
       <c r="F357" t="str">
         <v>Kohei Otsuka</v>
@@ -22146,7 +22146,7 @@
         <v>./images/127/Shinroku_Jizo_Nara.jpg</v>
       </c>
       <c r="E358" t="str">
-        <v>2015/12/17 15:59:14</v>
+        <v>2015-12-17T15:59:14</v>
       </c>
       <c r="F358" t="str">
         <v>Kohei Otsuka</v>
@@ -22172,7 +22172,7 @@
         <v>./images/128/Small_Jizodo_1_(Zoshi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E359" t="str">
-        <v>2018/06/22 12:04:25</v>
+        <v>2018-06-22T12:04:25</v>
       </c>
       <c r="F359" t="str">
         <v>Kohei Otsuka</v>
@@ -22198,7 +22198,7 @@
         <v>./images/128/Small_Jizodo_1_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E360" t="str">
-        <v>2018/06/22 12:04:21</v>
+        <v>2018-06-22T12:04:21</v>
       </c>
       <c r="F360" t="str">
         <v>Kohei Otsuka</v>
@@ -22224,7 +22224,7 @@
         <v>./images/129/Small_Jizodo_2_(Zoshi-cho,_Nara)_Inside.jpg</v>
       </c>
       <c r="E361" t="str">
-        <v>2018/06/22 12:05:25</v>
+        <v>2018-06-22T12:05:25</v>
       </c>
       <c r="F361" t="str">
         <v>Kohei Otsuka</v>
@@ -22250,7 +22250,7 @@
         <v>./images/129/Small_Jizodo_2_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E362" t="str">
-        <v>2018/06/22 12:05:22</v>
+        <v>2018-06-22T12:05:22</v>
       </c>
       <c r="F362" t="str">
         <v>Kohei Otsuka</v>
@@ -22276,7 +22276,7 @@
         <v>./images/130/Nara_Wayside_Jizo_Sugigacho_Park_North_Inside.jpg</v>
       </c>
       <c r="E363" t="str">
-        <v>2016/07/22 15:50:44</v>
+        <v>2016-07-22T15:50:44</v>
       </c>
       <c r="F363" t="str">
         <v>Kohei Otsuka</v>
@@ -22302,7 +22302,7 @@
         <v>./images/130/Nara_Wayside_Jizo_Sugigacho_Park_North.jpg</v>
       </c>
       <c r="E364" t="str">
-        <v>2016/07/22 15:50:32</v>
+        <v>2016-07-22T15:50:32</v>
       </c>
       <c r="F364" t="str">
         <v>Kohei Otsuka</v>
@@ -22328,7 +22328,7 @@
         <v>./images/131/Nara_Wayside_Jizo_Sugigacho_Park_South_Inside.jpg</v>
       </c>
       <c r="E365" t="str">
-        <v>2016/07/22 15:49:48</v>
+        <v>2016-07-22T15:49:48</v>
       </c>
       <c r="F365" t="str">
         <v>Kohei Otsuka</v>
@@ -22354,7 +22354,7 @@
         <v>./images/131/Nara_Wayside_Jizo_Sugigacho_Park_South.jpg</v>
       </c>
       <c r="E366" t="str">
-        <v>2016/07/22 15:49:38</v>
+        <v>2016-07-22T15:49:38</v>
       </c>
       <c r="F366" t="str">
         <v>Kohei Otsuka</v>
@@ -22380,7 +22380,7 @@
         <v>./images/132/Sukehigiri_Jizo_Saidaiji-Kita_1_Nara_Wakiji_1.jpg</v>
       </c>
       <c r="E367" t="str">
-        <v>2017/02/17 16:55:11</v>
+        <v>2017-02-17T16:55:11</v>
       </c>
       <c r="F367" t="str">
         <v>Kohei Otsuka</v>
@@ -22406,7 +22406,7 @@
         <v>./images/132/Sukehigiri_Jizo_Saidaiji-Kita_1_Nara_Wakiji_2.jpg</v>
       </c>
       <c r="E368" t="str">
-        <v>2017/02/17 16:55:20</v>
+        <v>2017-02-17T16:55:20</v>
       </c>
       <c r="F368" t="str">
         <v>Kohei Otsuka</v>
@@ -22432,7 +22432,7 @@
         <v>./images/132/Sukehigiri_Jizo_Saidaiji-Kita_1_Nara.jpg</v>
       </c>
       <c r="E369" t="str">
-        <v>2017/02/17 10:36:03</v>
+        <v>2017-02-17T10:36:03</v>
       </c>
       <c r="F369" t="str">
         <v>Kohei Otsuka</v>
@@ -22458,7 +22458,7 @@
         <v>./images/133/Jizo_Takabatake-cho_Nara_(Fuku-in_north)_Inside.jpg</v>
       </c>
       <c r="E370" t="str">
-        <v>2016/09/23 12:36:45</v>
+        <v>2016-09-23T12:36:45</v>
       </c>
       <c r="F370" t="str">
         <v>Kohei Otsuka</v>
@@ -22484,7 +22484,7 @@
         <v>./images/133/Jizo_Takabatake-cho_Nara_(Fuku-in_north).jpg</v>
       </c>
       <c r="E371" t="str">
-        <v>2016/09/23 12:36:36</v>
+        <v>2016-09-23T12:36:36</v>
       </c>
       <c r="F371" t="str">
         <v>Kohei Otsuka</v>
@@ -22510,7 +22510,7 @@
         <v>./images/134/Jizo_Takabatake-cho_Nara_(Kakuya-dera_west)_Inside.jpg</v>
       </c>
       <c r="E372" t="str">
-        <v>2016/09/23 12:39:11</v>
+        <v>2016-09-23T12:39:11</v>
       </c>
       <c r="F372" t="str">
         <v>Kohei Otsuka</v>
@@ -22536,7 +22536,7 @@
         <v>./images/134/Jizo_Takabatake-cho_Nara_(Kakuya-dera_west).jpg</v>
       </c>
       <c r="E373" t="str">
-        <v>2016/09/23 12:38:30</v>
+        <v>2016-09-23T12:38:30</v>
       </c>
       <c r="F373" t="str">
         <v>Kohei Otsuka</v>
@@ -22562,7 +22562,7 @@
         <v>./images/135/Nara_Takabatake_Tsubaki_Jizo.jpg</v>
       </c>
       <c r="E374" t="str">
-        <v>2015/06/24 07:32:46</v>
+        <v>2015-06-24T07:32:46</v>
       </c>
       <c r="F374" t="str">
         <v>Kohei Otsuka</v>
@@ -22588,7 +22588,7 @@
         <v>./images/135/Nara_Takabatakecho_Tsubaki_Jizo.jpg</v>
       </c>
       <c r="E375" t="str">
-        <v>2016/07/22 14:22:40</v>
+        <v>2016-07-22T14:22:40</v>
       </c>
       <c r="F375" t="str">
         <v>Kohei Otsuka</v>
@@ -22614,7 +22614,7 @@
         <v>./images/135/Wayside_Jizo_Tsubaki_Takabatake_Inside_And_Ceremony.jpg</v>
       </c>
       <c r="E376" t="str">
-        <v>2016/07/23 08:18:52</v>
+        <v>2016-07-23T08:18:52</v>
       </c>
       <c r="F376" t="str">
         <v>Kohei Otsuka</v>
@@ -22640,7 +22640,7 @@
         <v>./images/136/Nara_Takabatake_Tsumegaki_Jizo.jpg</v>
       </c>
       <c r="E377" t="str">
-        <v>2015/05/17 13:54:30</v>
+        <v>2015-05-17T13:54:30</v>
       </c>
       <c r="F377" t="str">
         <v>Kohei Otsuka</v>
@@ -22666,7 +22666,7 @@
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_1.jpg</v>
       </c>
       <c r="E378" t="str">
-        <v>2018/07/21 11:34:04</v>
+        <v>2018-07-21T11:34:04</v>
       </c>
       <c r="F378" t="str">
         <v>Kohei Otsuka</v>
@@ -22692,7 +22692,7 @@
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_2.jpg</v>
       </c>
       <c r="E379" t="str">
-        <v>2018/07/21 11:34:08</v>
+        <v>2018-07-21T11:34:08</v>
       </c>
       <c r="F379" t="str">
         <v>Kohei Otsuka</v>
@@ -22718,7 +22718,7 @@
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_From_Faraway.jpg</v>
       </c>
       <c r="E380" t="str">
-        <v>2018/07/21 11:33:51</v>
+        <v>2018-07-21T11:33:51</v>
       </c>
       <c r="F380" t="str">
         <v>Kohei Otsuka</v>
@@ -22744,7 +22744,7 @@
         <v>./images/138/Wayside_Jizo_Mitsumune-sho_(Nara)_Inside.jpg</v>
       </c>
       <c r="E381" t="str">
-        <v>2017/03/18 14:11:27</v>
+        <v>2017-03-18T14:11:27</v>
       </c>
       <c r="F381" t="str">
         <v>Kohei Otsuka</v>
@@ -22770,7 +22770,7 @@
         <v>./images/138/Wayside_Jizo_Mitsumune-sho_(Nara).jpg</v>
       </c>
       <c r="E382" t="str">
-        <v>2017/03/18 14:10:56</v>
+        <v>2017-03-18T14:10:56</v>
       </c>
       <c r="F382" t="str">
         <v>Kohei Otsuka</v>
@@ -22796,7 +22796,7 @@
         <v>./images/138/Wayside_Shrine_and_Jizo_Mitsumune-sho_(Nara).jpg</v>
       </c>
       <c r="E383" t="str">
-        <v>2017/03/18 14:11:17</v>
+        <v>2017-03-18T14:11:17</v>
       </c>
       <c r="F383" t="str">
         <v>Kohei Otsuka</v>
@@ -22822,7 +22822,7 @@
         <v>./images/139/Wayside_Jizos_(Zoshi-cho,_Nara)_1.jpg</v>
       </c>
       <c r="E384" t="str">
-        <v>2018/06/22 12:01:25</v>
+        <v>2018-06-22T12:01:25</v>
       </c>
       <c r="F384" t="str">
         <v>Kohei Otsuka</v>
@@ -22848,7 +22848,7 @@
         <v>./images/139/Wayside_Jizos_(Zoshi-cho,_Nara)_2.jpg</v>
       </c>
       <c r="E385" t="str">
-        <v>2018/06/22 12:01:30</v>
+        <v>2018-06-22T12:01:30</v>
       </c>
       <c r="F385" t="str">
         <v>Kohei Otsuka</v>
@@ -22874,7 +22874,7 @@
         <v>./images/139/Wayside_Jizos_(Zoshi-cho,_Nara)_3.jpg</v>
       </c>
       <c r="E386" t="str">
-        <v>2018/06/22 12:01:33</v>
+        <v>2018-06-22T12:01:33</v>
       </c>
       <c r="F386" t="str">
         <v>Kohei Otsuka</v>
@@ -22900,7 +22900,7 @@
         <v>./images/140/Wooden_Jizo_Daianji5_Nara_(Inside_1).jpg</v>
       </c>
       <c r="E387" t="str">
-        <v>2017/01/02 15:20:43</v>
+        <v>2017-01-02T15:20:43</v>
       </c>
       <c r="F387" t="str">
         <v>Kohei Otsuka</v>
@@ -22926,7 +22926,7 @@
         <v>./images/140/Wooden_Jizo_Daianji5_Nara_(Inside_2).jpg</v>
       </c>
       <c r="E388" t="str">
-        <v>2017/01/02 15:20:57</v>
+        <v>2017-01-02T15:20:57</v>
       </c>
       <c r="F388" t="str">
         <v>Kohei Otsuka</v>
@@ -22952,7 +22952,7 @@
         <v>./images/140/Wooden_Jizo_Daianji5_Nara_Incised_Stupa.jpg</v>
       </c>
       <c r="E389" t="str">
-        <v>2017/01/02 15:21:17</v>
+        <v>2017-01-02T15:21:17</v>
       </c>
       <c r="F389" t="str">
         <v>Kohei Otsuka</v>
@@ -22978,7 +22978,7 @@
         <v>./images/140/Wooden_Jizo_Daianji5_Nara.jpg</v>
       </c>
       <c r="E390" t="str">
-        <v>2017/01/02 15:19:59</v>
+        <v>2017-01-02T15:19:59</v>
       </c>
       <c r="F390" t="str">
         <v>Kohei Otsuka</v>
@@ -23004,7 +23004,7 @@
         <v>./images/141/Nara_Takabatake_Yanagi_Jizo.jpg</v>
       </c>
       <c r="E391" t="str">
-        <v>2015/05/06 14:10:36</v>
+        <v>2015-05-06T14:10:36</v>
       </c>
       <c r="F391" t="str">
         <v>Kohei Otsuka</v>
@@ -23030,7 +23030,7 @@
         <v>./images/141/Wayside_Jizo_Yanagi_Takabatake_Inside.jpg</v>
       </c>
       <c r="E392" t="str">
-        <v>2016/07/23 08:14:59</v>
+        <v>2016-07-23T08:14:59</v>
       </c>
       <c r="F392" t="str">
         <v>Kohei Otsuka</v>
@@ -23056,7 +23056,7 @@
         <v>./images/141/Wayside_Jizo_Yanagi_Takabatake.jpg</v>
       </c>
       <c r="E393" t="str">
-        <v>2016/07/23 08:14:43</v>
+        <v>2016-07-23T08:14:43</v>
       </c>
       <c r="F393" t="str">
         <v>Kohei Otsuka</v>
@@ -23082,7 +23082,7 @@
         <v>./images/142/Yoroi_Jizo_Kasayacho_Nara.jpg</v>
       </c>
       <c r="E394" t="str">
-        <v>2015/09/25 08:32:22</v>
+        <v>2015-09-25T08:32:22</v>
       </c>
       <c r="F394" t="str">
         <v>Kohei Otsuka</v>
@@ -23108,7 +23108,7 @@
         <v>./images/142/Yoroi_Jizo_Nara_Inside_1.jpg</v>
       </c>
       <c r="E395" t="str">
-        <v>2016/11/04 11:36:32</v>
+        <v>2016-11-04T11:36:32</v>
       </c>
       <c r="F395" t="str">
         <v>Kohei Otsuka</v>
@@ -23134,7 +23134,7 @@
         <v>./images/142/Yoroi_Jizo_Nara_Inside_2.jpg</v>
       </c>
       <c r="E396" t="str">
-        <v>2016/11/04 11:37:47</v>
+        <v>2016-11-04T11:37:47</v>
       </c>
       <c r="F396" t="str">
         <v>Kohei Otsuka</v>
@@ -23160,7 +23160,7 @@
         <v>./images/143/Nara_Yuuhijizo.jpg</v>
       </c>
       <c r="E397" t="str">
-        <v>2016/02/19 17:08:15</v>
+        <v>2016-02-19T17:08:15</v>
       </c>
       <c r="F397" t="str">
         <v>Kohei Otsuka</v>
@@ -23186,7 +23186,7 @@
         <v>./images/144/Nara_Zoshi_Cho_Jizo_(Open).jpg</v>
       </c>
       <c r="E398" t="str">
-        <v>2016/05/05 12:28:01</v>
+        <v>2016-05-05T12:28:01</v>
       </c>
       <c r="F398" t="str">
         <v>Kohei Otsuka</v>
@@ -23212,7 +23212,7 @@
         <v>./images/144/Nara_Zoshi_Cho_Jizo.jpg</v>
       </c>
       <c r="E399" t="str">
-        <v>2015/05/24 15:14:59</v>
+        <v>2015-05-24T15:14:59</v>
       </c>
       <c r="F399" t="str">
         <v>Kohei Otsuka</v>
@@ -23238,7 +23238,7 @@
         <v>./images/177/Amida_In_Nara_Kyobate_Jizo.jpg</v>
       </c>
       <c r="E400" t="str">
-        <v>2015/08/05 18:08:28</v>
+        <v>2015-08-05T18:08:28</v>
       </c>
       <c r="F400" t="str">
         <v>Kohei Otsuka</v>
@@ -23264,7 +23264,7 @@
         <v>./images/177/Nara_Kyobate_Jizo_buddha.jpg</v>
       </c>
       <c r="E401" t="str">
-        <v>2015/08/05 18:07:30</v>
+        <v>2015-08-05T18:07:30</v>
       </c>
       <c r="F401" t="str">
         <v>Kohei Otsuka</v>
@@ -23290,7 +23290,7 @@
         <v>./images/178/Asahi_Myoken_(Kitamukai-cho,_Nara).jpg</v>
       </c>
       <c r="E402" t="str">
-        <v>2017/08/26 12:31:21</v>
+        <v>2017-08-26T12:31:21</v>
       </c>
       <c r="F402" t="str">
         <v>Kohei Otsuka</v>
@@ -23316,7 +23316,7 @@
         <v>./images/178/Inside_of_Asahi_Myoken_(Kitamukai-cho,_Nara).jpg</v>
       </c>
       <c r="E403" t="str">
-        <v>2017/08/26 12:34:12</v>
+        <v>2017-08-26T12:34:12</v>
       </c>
       <c r="F403" t="str">
         <v>Kohei Otsuka</v>
@@ -23342,7 +23342,7 @@
         <v>./images/179/Bishamondo_(Hotokuji,_Nara)_Inside.jpg</v>
       </c>
       <c r="E404" t="str">
-        <v>2018/02/16 16:17:20</v>
+        <v>2018-02-16T16:17:20</v>
       </c>
       <c r="F404" t="str">
         <v>Kohei Otsuka</v>
@@ -23368,7 +23368,7 @@
         <v>./images/179/Bishamondo_(Hotokuji,_Nara).jpg</v>
       </c>
       <c r="E405" t="str">
-        <v>2018/02/16 16:16:49</v>
+        <v>2018-02-16T16:16:49</v>
       </c>
       <c r="F405" t="str">
         <v>Kohei Otsuka</v>
@@ -23394,7 +23394,7 @@
         <v>./images/179/Hotokuji_Bishamondo_Nara.jpg</v>
       </c>
       <c r="E406" t="str">
-        <v>2015/09/25 08:57:37</v>
+        <v>2015-09-25T08:57:37</v>
       </c>
       <c r="F406" t="str">
         <v>Kohei Otsuka</v>
@@ -23420,7 +23420,7 @@
         <v>./images/180/Buddhism_stone_near_Yawata_Shrine_Higashikujo_Nara_(Inside).jpg</v>
       </c>
       <c r="E407" t="str">
-        <v>2017/01/02 14:33:14</v>
+        <v>2017-01-02T14:33:14</v>
       </c>
       <c r="F407" t="str">
         <v>Kohei Otsuka</v>
@@ -23446,7 +23446,7 @@
         <v>./images/180/Buddhism_stone_near_Yawata_Shrine_Higashikujo_Nara.jpg</v>
       </c>
       <c r="E408" t="str">
-        <v>2017/01/02 14:32:55</v>
+        <v>2017-01-02T14:32:55</v>
       </c>
       <c r="F408" t="str">
         <v>Kohei Otsuka</v>
@@ -23472,7 +23472,7 @@
         <v>./images/181/Buddhism_stone_Saidaiji_Minami_Nara_(body).jpg</v>
       </c>
       <c r="E409" t="str">
-        <v>2017/02/18 14:56:43</v>
+        <v>2017-02-18T14:56:43</v>
       </c>
       <c r="F409" t="str">
         <v>Kohei Otsuka</v>
@@ -23498,7 +23498,7 @@
         <v>./images/181/Buddhism_stone_Saidaiji_Minami_Nara_(zoom).jpg</v>
       </c>
       <c r="E410" t="str">
-        <v>2017/02/18 14:56:34</v>
+        <v>2017-02-18T14:56:34</v>
       </c>
       <c r="F410" t="str">
         <v>Kohei Otsuka</v>
@@ -23524,7 +23524,7 @@
         <v>./images/181/Buddhism_stone_Saidaiji_Minami_Nara.jpg</v>
       </c>
       <c r="E411" t="str">
-        <v>2017/02/18 14:55:27</v>
+        <v>2017-02-18T14:55:27</v>
       </c>
       <c r="F411" t="str">
         <v>Kohei Otsuka</v>
@@ -23550,7 +23550,7 @@
         <v>./images/182/Daishido_(AmagatsujiNaka-machi,_Nara)_Inside.jpg</v>
       </c>
       <c r="E412" t="str">
-        <v>2018/02/16 15:01:15</v>
+        <v>2018-02-16T15:01:15</v>
       </c>
       <c r="F412" t="str">
         <v>Kohei Otsuka</v>
@@ -23576,7 +23576,7 @@
         <v>./images/182/Daishido_(AmagatsujiNaka-machi,_Nara).jpg</v>
       </c>
       <c r="E413" t="str">
-        <v>2018/02/16 15:01:01</v>
+        <v>2018-02-16T15:01:01</v>
       </c>
       <c r="F413" t="str">
         <v>Kohei Otsuka</v>
@@ -23602,7 +23602,7 @@
         <v>./images/183/Daishido_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E414" t="str">
-        <v>2017/09/20 15:52:06</v>
+        <v>2017-09-20T15:52:06</v>
       </c>
       <c r="F414" t="str">
         <v>Kohei Otsuka</v>
@@ -23628,7 +23628,7 @@
         <v>./images/183/Inside_of_Daishido_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E415" t="str">
-        <v>2017/09/20 15:52:49</v>
+        <v>2017-09-20T15:52:49</v>
       </c>
       <c r="F415" t="str">
         <v>Kohei Otsuka</v>
@@ -23654,7 +23654,7 @@
         <v>./images/184/Gorinto-Daianji1-Nara-Inside.jpg</v>
       </c>
       <c r="E416" t="str">
-        <v>2017/01/02 13:24:56</v>
+        <v>2017-01-02T13:24:56</v>
       </c>
       <c r="F416" t="str">
         <v>Kohei Otsuka</v>
@@ -23680,7 +23680,7 @@
         <v>./images/184/Gorinto-Daianji1-Nara.jpg</v>
       </c>
       <c r="E417" t="str">
-        <v>2017/01/02 13:24:49</v>
+        <v>2017-01-02T13:24:49</v>
       </c>
       <c r="F417" t="str">
         <v>Kohei Otsuka</v>
@@ -23706,7 +23706,7 @@
         <v>./images/185/Incised_Stupa_Kidera_1.jpg</v>
       </c>
       <c r="E418" t="str">
-        <v>2017/02/11 15:23:55</v>
+        <v>2017-02-11T15:23:55</v>
       </c>
       <c r="F418" t="str">
         <v>Kohei Otsuka</v>
@@ -23732,7 +23732,7 @@
         <v>./images/185/Incised_Stupa_Kidera_2.jpg</v>
       </c>
       <c r="E419" t="str">
-        <v>2017/02/11 15:23:49</v>
+        <v>2017-02-11T15:23:49</v>
       </c>
       <c r="F419" t="str">
         <v>Kohei Otsuka</v>
@@ -23758,7 +23758,7 @@
         <v>./images/186/Kobo_Well_With_Amida_And_Kangiji_Jizo.jpg</v>
       </c>
       <c r="E420" t="str">
-        <v>2016/08/06 15:26:08</v>
+        <v>2016-08-06T15:26:08</v>
       </c>
       <c r="F420" t="str">
         <v>Kohei Otsuka</v>
@@ -23784,7 +23784,7 @@
         <v>./images/186/Kobo_Well_With_Amida_Nara_Inside.jpg</v>
       </c>
       <c r="E421" t="str">
-        <v>2016/08/06 15:24:31</v>
+        <v>2016-08-06T15:24:31</v>
       </c>
       <c r="F421" t="str">
         <v>Kohei Otsuka</v>
@@ -23810,7 +23810,7 @@
         <v>./images/186/Kobo_Well_With_Amida_Nara_Outside.jpg</v>
       </c>
       <c r="E422" t="str">
-        <v>2016/08/06 15:25:28</v>
+        <v>2016-08-06T15:25:28</v>
       </c>
       <c r="F422" t="str">
         <v>Kohei Otsuka</v>
@@ -23836,7 +23836,7 @@
         <v>./images/187/Koshindo_(NishiShinya-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E423" t="str">
-        <v>2016/11/04 13:17:19</v>
+        <v>2016-11-04T13:17:19</v>
       </c>
       <c r="F423" t="str">
         <v>Kohei Otsuka</v>
@@ -23862,7 +23862,7 @@
         <v>./images/187/Koshindo_(NishiShinya-cho)_Nara.jpg</v>
       </c>
       <c r="E424" t="str">
-        <v>2016/11/04 13:16:47</v>
+        <v>2016-11-04T13:16:47</v>
       </c>
       <c r="F424" t="str">
         <v>Kohei Otsuka</v>
@@ -23888,7 +23888,7 @@
         <v>./images/188/MinamiKainotsuka_Small_Temple_(Nara)_Inside.jpg</v>
       </c>
       <c r="E425" t="str">
-        <v>2016/05/05 18:07:35</v>
+        <v>2016-05-05T18:07:35</v>
       </c>
       <c r="F425" t="str">
         <v>Kohei Otsuka</v>
@@ -23914,7 +23914,7 @@
         <v>./images/188/MinamiKainotsuka_Small_Temple_(Nara).jpg</v>
       </c>
       <c r="E426" t="str">
-        <v>2016/05/05 18:07:23</v>
+        <v>2016-05-05T18:07:23</v>
       </c>
       <c r="F426" t="str">
         <v>Kohei Otsuka</v>
@@ -23940,7 +23940,7 @@
         <v>./images/189/Mirokudo_(Sanjo-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E427" t="str">
-        <v>2016/11/04 16:24:56</v>
+        <v>2016-11-04T16:24:56</v>
       </c>
       <c r="F427" t="str">
         <v>Kohei Otsuka</v>
@@ -23966,7 +23966,7 @@
         <v>./images/189/Mirokudo_(Sanjo-cho)_Nara.jpg</v>
       </c>
       <c r="E428" t="str">
-        <v>2016/11/04 16:24:31</v>
+        <v>2016-11-04T16:24:31</v>
       </c>
       <c r="F428" t="str">
         <v>Kohei Otsuka</v>
@@ -23992,7 +23992,7 @@
         <v>./images/190/Jizo_(NishiKitsuji,_Seiten-mae)_Nara.jpg</v>
       </c>
       <c r="E429" t="str">
-        <v>2016/11/04 12:48:16</v>
+        <v>2016-11-04T12:48:16</v>
       </c>
       <c r="F429" t="str">
         <v>Kohei Otsuka</v>
@@ -24018,7 +24018,7 @@
         <v>./images/190/Seiten-do_(NishiKitsuji-cho)_Nara_Hengaku.jpg</v>
       </c>
       <c r="E430" t="str">
-        <v>2016/11/04 12:50:57</v>
+        <v>2016-11-04T12:50:57</v>
       </c>
       <c r="F430" t="str">
         <v>Kohei Otsuka</v>
@@ -24044,7 +24044,7 @@
         <v>./images/190/Seiten-do_(NishiKitsuji-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E431" t="str">
-        <v>2016/11/04 12:50:17</v>
+        <v>2016-11-04T12:50:17</v>
       </c>
       <c r="F431" t="str">
         <v>Kohei Otsuka</v>
@@ -24070,7 +24070,7 @@
         <v>./images/190/Seiten-do_(NishiKitsuji-cho)_Nara_Omine_Kuyo.jpg</v>
       </c>
       <c r="E432" t="str">
-        <v>2016/11/04 12:48:26</v>
+        <v>2016-11-04T12:48:26</v>
       </c>
       <c r="F432" t="str">
         <v>Kohei Otsuka</v>
@@ -24096,7 +24096,7 @@
         <v>./images/190/Seiten-do_(NishiKitsuji-cho)_Nara.jpg</v>
       </c>
       <c r="E433" t="str">
-        <v>2016/11/04 12:50:35</v>
+        <v>2016-11-04T12:50:35</v>
       </c>
       <c r="F433" t="str">
         <v>Kohei Otsuka</v>
@@ -24122,7 +24122,7 @@
         <v>./images/192/Mochiidono_Benzaiten_and_Shoho_Rigen_Daishido_(Nara).jpg</v>
       </c>
       <c r="E434" t="str">
-        <v>2016/11/04 13:40:12</v>
+        <v>2016-11-04T13:40:12</v>
       </c>
       <c r="F434" t="str">
         <v>Kohei Otsuka</v>
@@ -24148,7 +24148,7 @@
         <v>./images/192/Shoho_Rigen_Daishido_(Nara).jpg</v>
       </c>
       <c r="E435" t="str">
-        <v>2016/11/04 13:40:47</v>
+        <v>2016-11-04T13:40:47</v>
       </c>
       <c r="F435" t="str">
         <v>Kohei Otsuka</v>
@@ -24174,7 +24174,7 @@
         <v>./images/193/Shugyo_Daishi_Saidaiji_Kobo_Nara.jpg</v>
       </c>
       <c r="E436" t="str">
-        <v>2017/02/18 14:47:44</v>
+        <v>2017-02-18T14:47:44</v>
       </c>
       <c r="F436" t="str">
         <v>Kohei Otsuka</v>
@@ -24200,7 +24200,7 @@
         <v>./images/194/Small_Temple_Daianji1_Nara_Enkyo_3.jpg</v>
       </c>
       <c r="E437" t="str">
-        <v>2017/01/02 13:44:53</v>
+        <v>2017-01-02T13:44:53</v>
       </c>
       <c r="F437" t="str">
         <v>Kohei Otsuka</v>
@@ -24226,7 +24226,7 @@
         <v>./images/194/Small_Temple_Daianji1_Nara_Inside.jpg</v>
       </c>
       <c r="E438" t="str">
-        <v>2017/01/02 13:44:32</v>
+        <v>2017-01-02T13:44:32</v>
       </c>
       <c r="F438" t="str">
         <v>Kohei Otsuka</v>
@@ -24252,7 +24252,7 @@
         <v>./images/194/Small_Temple_Daianji1_Nara.jpg</v>
       </c>
       <c r="E439" t="str">
-        <v>2017/01/02 13:44:17</v>
+        <v>2017-01-02T13:44:17</v>
       </c>
       <c r="F439" t="str">
         <v>Kohei Otsuka</v>
@@ -24278,7 +24278,7 @@
         <v>./images/195/Kobo-daishi_Koshikake_Ishi_NameStone.jpg</v>
       </c>
       <c r="E440" t="str">
-        <v>2017/01/02 13:43:20</v>
+        <v>2017-01-02T13:43:20</v>
       </c>
       <c r="F440" t="str">
         <v>Kohei Otsuka</v>
@@ -24304,7 +24304,7 @@
         <v>./images/195/Kobo-daishi_Koshikake_Ishi.jpg</v>
       </c>
       <c r="E441" t="str">
-        <v>2017/01/02 13:43:25</v>
+        <v>2017-01-02T13:43:25</v>
       </c>
       <c r="F441" t="str">
         <v>Kohei Otsuka</v>
@@ -24330,7 +24330,7 @@
         <v>./images/195/Vairocana_Daianji1_Nara_Inscribed.jpg</v>
       </c>
       <c r="E442" t="str">
-        <v>2017/01/02 13:43:00</v>
+        <v>2017-01-02T13:43:00</v>
       </c>
       <c r="F442" t="str">
         <v>Kohei Otsuka</v>
@@ -24356,7 +24356,7 @@
         <v>./images/195/Vairocana_Daianji1_Nara_New_Statue.jpg</v>
       </c>
       <c r="E443" t="str">
-        <v>2017/01/02 13:42:56</v>
+        <v>2017-01-02T13:42:56</v>
       </c>
       <c r="F443" t="str">
         <v>Kohei Otsuka</v>
@@ -24382,7 +24382,7 @@
         <v>./images/195/Vairocana_Daianji1_Nara.jpg</v>
       </c>
       <c r="E444" t="str">
-        <v>2017/01/02 13:42:47</v>
+        <v>2017-01-02T13:42:47</v>
       </c>
       <c r="F444" t="str">
         <v>Kohei Otsuka</v>
@@ -24408,7 +24408,7 @@
         <v>./images/196/Wayside_Amida_In_Nara_Sugigacho_Inside.jpg</v>
       </c>
       <c r="E445" t="str">
-        <v>2016/07/22 15:38:29</v>
+        <v>2016-07-22T15:38:29</v>
       </c>
       <c r="F445" t="str">
         <v>Kohei Otsuka</v>
@@ -24434,7 +24434,7 @@
         <v>./images/196/Wayside_Amida_In_Nara_Sugigacho.jpg</v>
       </c>
       <c r="E446" t="str">
-        <v>2016/07/22 15:38:18</v>
+        <v>2016-07-22T15:38:18</v>
       </c>
       <c r="F446" t="str">
         <v>Kohei Otsuka</v>
@@ -24460,7 +24460,7 @@
         <v>./images/197/Kitamuki_Koshindo_Nara_Inside.jpg</v>
       </c>
       <c r="E447" t="str">
-        <v>2017/03/18 14:09:37</v>
+        <v>2017-03-18T14:09:37</v>
       </c>
       <c r="F447" t="str">
         <v>Kohei Otsuka</v>
@@ -24486,7 +24486,7 @@
         <v>./images/197/Kitamuki_Koshindo_Nara_Stone_Monument.jpg</v>
       </c>
       <c r="E448" t="str">
-        <v>2017/03/18 14:09:50</v>
+        <v>2017-03-18T14:09:50</v>
       </c>
       <c r="F448" t="str">
         <v>Kohei Otsuka</v>
@@ -24512,7 +24512,7 @@
         <v>./images/197/Kitamuki_Koshindo_Nara.jpg</v>
       </c>
       <c r="E449" t="str">
-        <v>2017/03/18 14:09:20</v>
+        <v>2017-03-18T14:09:20</v>
       </c>
       <c r="F449" t="str">
         <v>Kohei Otsuka</v>
@@ -24538,7 +24538,7 @@
         <v>./images/197/Nara_Tanjoji_SeimenKongo.jpg</v>
       </c>
       <c r="E450" t="str">
-        <v>2015/08/05 18:20:40</v>
+        <v>2015-08-05T18:20:40</v>
       </c>
       <c r="F450" t="str">
         <v>Kohei Otsuka</v>
@@ -24564,7 +24564,7 @@
         <v>./images/204/Akachi_Shrine_Nara1.jpg</v>
       </c>
       <c r="E451" t="str">
-        <v>2015/12/17 16:03:51</v>
+        <v>2015-12-17T16:03:51</v>
       </c>
       <c r="F451" t="str">
         <v>Kohei Otsuka</v>
@@ -24590,7 +24590,7 @@
         <v>./images/204/Akachi_Shrine_Nara2.jpg</v>
       </c>
       <c r="E452" t="str">
-        <v>2015/12/17 16:03:59</v>
+        <v>2015-12-17T16:03:59</v>
       </c>
       <c r="F452" t="str">
         <v>Kohei Otsuka</v>
@@ -24616,7 +24616,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara_Haiden.jpg</v>
       </c>
       <c r="E453" t="str">
-        <v>2016/05/05 15:29:10</v>
+        <v>2016-05-05T15:29:10</v>
       </c>
       <c r="F453" t="str">
         <v>Kohei Otsuka</v>
@@ -24642,7 +24642,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara_Hoso.jpg</v>
       </c>
       <c r="E454" t="str">
-        <v>2016/05/05 15:29:48</v>
+        <v>2016-05-05T15:29:48</v>
       </c>
       <c r="F454" t="str">
         <v>Kohei Otsuka</v>
@@ -24668,7 +24668,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara_Keidai.jpg</v>
       </c>
       <c r="E455" t="str">
-        <v>2016/05/05 15:29:05</v>
+        <v>2016-05-05T15:29:05</v>
       </c>
       <c r="F455" t="str">
         <v>Kohei Otsuka</v>
@@ -24694,7 +24694,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara_Toro_1.jpg</v>
       </c>
       <c r="E456" t="str">
-        <v>2016/05/05 15:29:54</v>
+        <v>2016-05-05T15:29:54</v>
       </c>
       <c r="F456" t="str">
         <v>Kohei Otsuka</v>
@@ -24720,7 +24720,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara_Toro_2.jpg</v>
       </c>
       <c r="E457" t="str">
-        <v>2016/05/05 15:29:59</v>
+        <v>2016-05-05T15:29:59</v>
       </c>
       <c r="F457" t="str">
         <v>Kohei Otsuka</v>
@@ -24746,7 +24746,7 @@
         <v>./images/205/Aoi-Jinja_KitaNagai_Nara.jpg</v>
       </c>
       <c r="E458" t="str">
-        <v>2016/05/05 15:28:55</v>
+        <v>2016-05-05T15:28:55</v>
       </c>
       <c r="F458" t="str">
         <v>Kohei Otsuka</v>
@@ -24772,7 +24772,7 @@
         <v>./images/206/Benzaiten_(Kidera-cho)_Nara_1.jpg</v>
       </c>
       <c r="E459" t="str">
-        <v>2016/11/04 12:32:05</v>
+        <v>2016-11-04T12:32:05</v>
       </c>
       <c r="F459" t="str">
         <v>Kohei Otsuka</v>
@@ -24798,7 +24798,7 @@
         <v>./images/206/Benzaiten_(Kidera-cho)_Nara_2.jpg</v>
       </c>
       <c r="E460" t="str">
-        <v>2016/11/04 12:33:02</v>
+        <v>2016-11-04T12:33:02</v>
       </c>
       <c r="F460" t="str">
         <v>Kohei Otsuka</v>
@@ -24824,7 +24824,7 @@
         <v>./images/206/Benzaiten_(Kidera-cho)_Nara_3.jpg</v>
       </c>
       <c r="E461" t="str">
-        <v>2016/11/04 12:33:21</v>
+        <v>2016-11-04T12:33:21</v>
       </c>
       <c r="F461" t="str">
         <v>Kohei Otsuka</v>
@@ -24850,7 +24850,7 @@
         <v>./images/206/Benzaiten_(Kidera-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E462" t="str">
-        <v>2016/11/04 12:32:41</v>
+        <v>2016-11-04T12:32:41</v>
       </c>
       <c r="F462" t="str">
         <v>Kohei Otsuka</v>
@@ -24876,7 +24876,7 @@
         <v>./images/207/Benzaiten_(Suimon-cho,_Nara).jpg</v>
       </c>
       <c r="E463" t="str">
-        <v>2018/06/22 11:47:54</v>
+        <v>2018-06-22T11:47:54</v>
       </c>
       <c r="F463" t="str">
         <v>Kohei Otsuka</v>
@@ -24902,7 +24902,7 @@
         <v>./images/208/Benzaiten_Ogawa-cho_Nara_Inside.jpg</v>
       </c>
       <c r="E464" t="str">
-        <v>2017/02/18 17:02:53</v>
+        <v>2017-02-18T17:02:53</v>
       </c>
       <c r="F464" t="str">
         <v>Kohei Otsuka</v>
@@ -24928,7 +24928,7 @@
         <v>./images/208/Benzaiten_Ogawa-cho_Nara.jpg</v>
       </c>
       <c r="E465" t="str">
-        <v>2017/02/18 17:01:13</v>
+        <v>2017-02-18T17:01:13</v>
       </c>
       <c r="F465" t="str">
         <v>Kohei Otsuka</v>
@@ -24954,7 +24954,7 @@
         <v>./images/209/Daifuku_Inari_Mochiido-cho_Nara.jpg</v>
       </c>
       <c r="E466" t="str">
-        <v>2017/03/18 14:34:31</v>
+        <v>2017-03-18T14:34:31</v>
       </c>
       <c r="F466" t="str">
         <v>Kohei Otsuka</v>
@@ -24980,7 +24980,7 @@
         <v>./images/209/Daifuku_Inari_Mochiido-cho_Nara2.jpg</v>
       </c>
       <c r="E467" t="str">
-        <v>2017/03/18 14:34:41</v>
+        <v>2017-03-18T14:34:41</v>
       </c>
       <c r="F467" t="str">
         <v>Kohei Otsuka</v>
@@ -25006,7 +25006,7 @@
         <v>./images/210/Fuku_Shrine_Nara_Honden.jpg</v>
       </c>
       <c r="E468" t="str">
-        <v>2015/12/09 16:00:26</v>
+        <v>2015-12-09T16:00:26</v>
       </c>
       <c r="F468" t="str">
         <v>Kohei Otsuka</v>
@@ -25032,7 +25032,7 @@
         <v>./images/210/Fuku_Shrine_Nara.jpg</v>
       </c>
       <c r="E469" t="str">
-        <v>2015/12/09 16:00:17</v>
+        <v>2015-12-09T16:00:17</v>
       </c>
       <c r="F469" t="str">
         <v>Kohei Otsuka</v>
@@ -25058,7 +25058,7 @@
         <v>./images/210/Nara_Fuku_Shrine.jpg</v>
       </c>
       <c r="E470" t="str">
-        <v>2016/07/22 15:36:24</v>
+        <v>2016-07-22T15:36:24</v>
       </c>
       <c r="F470" t="str">
         <v>Kohei Otsuka</v>
@@ -25084,7 +25084,7 @@
         <v>./images/211/Goryo_Shrine_Daianji1_Nara_Honden.jpg</v>
       </c>
       <c r="E471" t="str">
-        <v>2017/01/02 13:47:28</v>
+        <v>2017-01-02T13:47:28</v>
       </c>
       <c r="F471" t="str">
         <v>Kohei Otsuka</v>
@@ -25110,7 +25110,7 @@
         <v>./images/211/Goryo_Shrine_Daianji1_Nara_Torii.jpg</v>
       </c>
       <c r="E472" t="str">
-        <v>2017/01/02 13:46:41</v>
+        <v>2017-01-02T13:46:41</v>
       </c>
       <c r="F472" t="str">
         <v>Kohei Otsuka</v>
@@ -25136,7 +25136,7 @@
         <v>./images/212/Nara_Nouin-cho_Hachioji_shrine.jpg</v>
       </c>
       <c r="E473" t="str">
-        <v>2015/05/02 17:11:25</v>
+        <v>2015-05-02T17:11:25</v>
       </c>
       <c r="F473" t="str">
         <v>Kohei Otsuka</v>
@@ -25162,7 +25162,7 @@
         <v>./images/213/Hachioji_Shinomuro_Shrine_Nara_Inside.jpg</v>
       </c>
       <c r="E474" t="str">
-        <v>2017/03/18 14:44:17</v>
+        <v>2017-03-18T14:44:17</v>
       </c>
       <c r="F474" t="str">
         <v>Kohei Otsuka</v>
@@ -25188,7 +25188,7 @@
         <v>./images/213/Hachioji_Shinomuro_Shrine_Nara.jpg</v>
       </c>
       <c r="E475" t="str">
-        <v>2015/10/17 14:20:15</v>
+        <v>2015-10-17T14:20:15</v>
       </c>
       <c r="F475" t="str">
         <v>Kohei Otsuka</v>
@@ -25214,7 +25214,7 @@
         <v>./images/213/Nara_Ganrin-in_Hachioji_Shinomuro.jpg</v>
       </c>
       <c r="E476" t="str">
-        <v>2015/05/17 15:02:41</v>
+        <v>2015-05-17T15:02:41</v>
       </c>
       <c r="F476" t="str">
         <v>Kohei Otsuka</v>
@@ -25240,7 +25240,7 @@
         <v>./images/214/Hakusan_Shrine_(Gangouji-cho)_Nara_Gate.jpg</v>
       </c>
       <c r="E477" t="str">
-        <v>2016/11/04 13:14:23</v>
+        <v>2016-11-04T13:14:23</v>
       </c>
       <c r="F477" t="str">
         <v>Kohei Otsuka</v>
@@ -25266,7 +25266,7 @@
         <v>./images/214/Hakusan_Shrine_(Gangouji-cho)_Nara_Keidai.jpg</v>
       </c>
       <c r="E478" t="str">
-        <v>2016/11/04 13:14:11</v>
+        <v>2016-11-04T13:14:11</v>
       </c>
       <c r="F478" t="str">
         <v>Kohei Otsuka</v>
@@ -25292,7 +25292,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Chozu.jpg</v>
       </c>
       <c r="E479" t="str">
-        <v>2015/12/20 16:32:42</v>
+        <v>2015-12-20T16:32:42</v>
       </c>
       <c r="F479" t="str">
         <v>Kohei Otsuka</v>
@@ -25318,7 +25318,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Gate.jpg</v>
       </c>
       <c r="E480" t="str">
-        <v>2015/12/20 16:32:20</v>
+        <v>2015-12-20T16:32:20</v>
       </c>
       <c r="F480" t="str">
         <v>Kohei Otsuka</v>
@@ -25344,7 +25344,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Honden1.jpg</v>
       </c>
       <c r="E481" t="str">
-        <v>2015/12/20 16:33:07</v>
+        <v>2015-12-20T16:33:07</v>
       </c>
       <c r="F481" t="str">
         <v>Kohei Otsuka</v>
@@ -25370,7 +25370,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Honden2.jpg</v>
       </c>
       <c r="E482" t="str">
-        <v>2015/12/20 16:34:20</v>
+        <v>2015-12-20T16:34:20</v>
       </c>
       <c r="F482" t="str">
         <v>Kohei Otsuka</v>
@@ -25396,7 +25396,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Kahi.jpg</v>
       </c>
       <c r="E483" t="str">
-        <v>2015/12/20 16:32:55</v>
+        <v>2015-12-20T16:32:55</v>
       </c>
       <c r="F483" t="str">
         <v>Kohei Otsuka</v>
@@ -25422,7 +25422,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Keidai.jpg</v>
       </c>
       <c r="E484" t="str">
-        <v>2015/12/20 16:32:48</v>
+        <v>2015-12-20T16:32:48</v>
       </c>
       <c r="F484" t="str">
         <v>Kohei Otsuka</v>
@@ -25448,7 +25448,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Torii.jpg</v>
       </c>
       <c r="E485" t="str">
-        <v>2015/12/20 16:32:37</v>
+        <v>2015-12-20T16:32:37</v>
       </c>
       <c r="F485" t="str">
         <v>Kohei Otsuka</v>
@@ -25474,7 +25474,7 @@
         <v>./images/215/Hakusan_Shrine_Nara_Well.jpg</v>
       </c>
       <c r="E486" t="str">
-        <v>2015/12/20 16:32:31</v>
+        <v>2015-12-20T16:32:31</v>
       </c>
       <c r="F486" t="str">
         <v>Kohei Otsuka</v>
@@ -25500,7 +25500,7 @@
         <v>./images/216/Hayabusa_Jinja_Nara.jpg</v>
       </c>
       <c r="E487" t="str">
-        <v>2015/09/05 17:58:52</v>
+        <v>2015-09-05T17:58:52</v>
       </c>
       <c r="F487" t="str">
         <v>Kohei Otsuka</v>
@@ -25526,7 +25526,7 @@
         <v>./images/216/Hayabusa_Shrine_(TsunofuriShinya-cho,_Nara).jpg</v>
       </c>
       <c r="E488" t="str">
-        <v>2017/08/26 12:07:49</v>
+        <v>2017-08-26T12:07:49</v>
       </c>
       <c r="F488" t="str">
         <v>Kohei Otsuka</v>
@@ -25552,7 +25552,7 @@
         <v>./images/216/Wakiden_in_Hayabusa_Shrine_(TsunofuriShinya-cho,_Nara).jpg</v>
       </c>
       <c r="E489" t="str">
-        <v>2017/08/26 12:07:27</v>
+        <v>2017-08-26T12:07:27</v>
       </c>
       <c r="F489" t="str">
         <v>Kohei Otsuka</v>
@@ -25578,7 +25578,7 @@
         <v>./images/217/Hebizuka_Shrine_(SaiKujo-cho_2,_Nara).jpg</v>
       </c>
       <c r="E490" t="str">
-        <v>2017/09/20 16:33:46</v>
+        <v>2017-09-20T16:33:46</v>
       </c>
       <c r="F490" t="str">
         <v>Kohei Otsuka</v>
@@ -25604,7 +25604,7 @@
         <v>./images/217/Honden_of_Hebizuka_Shrine_(SaiKujo-cho_2,_Nara).jpg</v>
       </c>
       <c r="E491" t="str">
-        <v>2017/09/20 16:33:58</v>
+        <v>2017-09-20T16:33:58</v>
       </c>
       <c r="F491" t="str">
         <v>Kohei Otsuka</v>
@@ -25630,7 +25630,7 @@
         <v>./images/218/Nara_Higashimuki_Benzaiten.jpg</v>
       </c>
       <c r="E492" t="str">
-        <v>2015/05/06 15:42:47</v>
+        <v>2015-05-06T15:42:47</v>
       </c>
       <c r="F492" t="str">
         <v>Kohei Otsuka</v>
@@ -25656,7 +25656,7 @@
         <v>./images/219/Hinode_Shrine_(Zoshi-cho,_Nara)_Hengaku.jpg</v>
       </c>
       <c r="E493" t="str">
-        <v>2018/06/22 12:11:15</v>
+        <v>2018-06-22T12:11:15</v>
       </c>
       <c r="F493" t="str">
         <v>Kohei Otsuka</v>
@@ -25682,7 +25682,7 @@
         <v>./images/219/Hinode_Shrine_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E494" t="str">
-        <v>2018/06/22 12:11:05</v>
+        <v>2018-06-22T12:11:05</v>
       </c>
       <c r="F494" t="str">
         <v>Kohei Otsuka</v>
@@ -25708,7 +25708,7 @@
         <v>./images/220/Igami_Shrine_Nara_(Honden).jpg</v>
       </c>
       <c r="E495" t="str">
-        <v>2016/11/04 12:36:44</v>
+        <v>2016-11-04T12:36:44</v>
       </c>
       <c r="F495" t="str">
         <v>Kohei Otsuka</v>
@@ -25734,7 +25734,7 @@
         <v>./images/220/Igami_Shrine_Nara.jpg</v>
       </c>
       <c r="E496" t="str">
-        <v>2016/11/04 12:36:36</v>
+        <v>2016-11-04T12:36:36</v>
       </c>
       <c r="F496" t="str">
         <v>Kohei Otsuka</v>
@@ -25760,7 +25760,7 @@
         <v>./images/220/Nara_Igami_Shrine.jpg</v>
       </c>
       <c r="E497" t="str">
-        <v>2015/05/04 16:39:12</v>
+        <v>2015-05-04T16:39:12</v>
       </c>
       <c r="F497" t="str">
         <v>Kohei Otsuka</v>
@@ -25786,7 +25786,7 @@
         <v>./images/221/Honden_of_Inari_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E498" t="str">
-        <v>2017/09/20 16:00:08</v>
+        <v>2017-09-20T16:00:08</v>
       </c>
       <c r="F498" t="str">
         <v>Kohei Otsuka</v>
@@ -25812,7 +25812,7 @@
         <v>./images/221/Inari_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E499" t="str">
-        <v>2017/09/20 15:59:34</v>
+        <v>2017-09-20T15:59:34</v>
       </c>
       <c r="F499" t="str">
         <v>Kohei Otsuka</v>
@@ -25838,7 +25838,7 @@
         <v>./images/221/Stone_memorial_of_Inari_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E500" t="str">
-        <v>2017/09/20 16:00:24</v>
+        <v>2017-09-20T16:00:24</v>
       </c>
       <c r="F500" t="str">
         <v>Kohei Otsuka</v>
@@ -25864,7 +25864,7 @@
         <v>./images/221/Torii_on_midway_of_Inari_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E501" t="str">
-        <v>2017/09/20 15:59:50</v>
+        <v>2017-09-20T15:59:50</v>
       </c>
       <c r="F501" t="str">
         <v>Kohei Otsuka</v>
@@ -25890,7 +25890,7 @@
         <v>./images/222/Art_of_Itsukushima_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E502" t="str">
-        <v>2017/09/20 15:27:53</v>
+        <v>2017-09-20T15:27:53</v>
       </c>
       <c r="F502" t="str">
         <v>Kohei Otsuka</v>
@@ -25916,7 +25916,7 @@
         <v>./images/222/Honden_of_Itsukushima_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E503" t="str">
-        <v>2017/09/20 15:27:08</v>
+        <v>2017-09-20T15:27:08</v>
       </c>
       <c r="F503" t="str">
         <v>Kohei Otsuka</v>
@@ -25942,7 +25942,7 @@
         <v>./images/222/Inside_of_Itsukushima_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E504" t="str">
-        <v>2017/09/20 15:27:42</v>
+        <v>2017-09-20T15:27:42</v>
       </c>
       <c r="F504" t="str">
         <v>Kohei Otsuka</v>
@@ -25968,7 +25968,7 @@
         <v>./images/222/Itsukushima_Shrine_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E505" t="str">
-        <v>2017/09/20 15:26:57</v>
+        <v>2017-09-20T15:26:57</v>
       </c>
       <c r="F505" t="str">
         <v>Kohei Otsuka</v>
@@ -25994,7 +25994,7 @@
         <v>./images/223/Itsukushima_Shrine_Kitaburo-cho_Nara_Chozubachi.jpg</v>
       </c>
       <c r="E506" t="str">
-        <v>2015/12/09 16:06:01</v>
+        <v>2015-12-09T16:06:01</v>
       </c>
       <c r="F506" t="str">
         <v>Kohei Otsuka</v>
@@ -26020,7 +26020,7 @@
         <v>./images/223/Itsukushima_Shrine_Kitaburo-cho_Nara_Gate.jpg</v>
       </c>
       <c r="E507" t="str">
-        <v>2015/12/09 16:06:23</v>
+        <v>2015-12-09T16:06:23</v>
       </c>
       <c r="F507" t="str">
         <v>Kohei Otsuka</v>
@@ -26046,7 +26046,7 @@
         <v>./images/223/Itsukushima_Shrine_Kitaburo-cho_Nara_Tree.jpg</v>
       </c>
       <c r="E508" t="str">
-        <v>2015/12/09 16:05:41</v>
+        <v>2015-12-09T16:05:41</v>
       </c>
       <c r="F508" t="str">
         <v>Kohei Otsuka</v>
@@ -26072,7 +26072,7 @@
         <v>./images/223/Itsukushima_Shrine_Kitaburo-cho_Nara.jpg</v>
       </c>
       <c r="E509" t="str">
-        <v>2015/12/09 16:05:17</v>
+        <v>2015-12-09T16:05:17</v>
       </c>
       <c r="F509" t="str">
         <v>Kohei Otsuka</v>
@@ -26098,7 +26098,7 @@
         <v>./images/224/Kainotsuka-cho_Hachi-o_Small_Shrine_Nara_Inside.jpg</v>
       </c>
       <c r="E510" t="str">
-        <v>2016/08/06 12:33:24</v>
+        <v>2016-08-06T12:33:24</v>
       </c>
       <c r="F510" t="str">
         <v>Kohei Otsuka</v>
@@ -26124,7 +26124,7 @@
         <v>./images/224/Kainotsuka-cho_Hachi-o_Small_Shrine_Nara_Outside.jpg</v>
       </c>
       <c r="E511" t="str">
-        <v>2016/08/06 12:32:58</v>
+        <v>2016-08-06T12:32:58</v>
       </c>
       <c r="F511" t="str">
         <v>Kohei Otsuka</v>
@@ -26150,7 +26150,7 @@
         <v>./images/225/Nara_Kainaduka_KasugaWakamiya.jpg</v>
       </c>
       <c r="E512" t="str">
-        <v>2015/08/05 17:53:24</v>
+        <v>2015-08-05T17:53:24</v>
       </c>
       <c r="F512" t="str">
         <v>Kohei Otsuka</v>
@@ -26176,7 +26176,7 @@
         <v>./images/226/Katte_Shrine_(Aburasaka-cho,_Nara)_Honden.jpg</v>
       </c>
       <c r="E513" t="str">
-        <v>2018/06/21 18:13:31</v>
+        <v>2018-06-21T18:13:31</v>
       </c>
       <c r="F513" t="str">
         <v>Kohei Otsuka</v>
@@ -26202,7 +26202,7 @@
         <v>./images/226/Katte_Shrine_(Aburasaka-cho,_Nara).jpg</v>
       </c>
       <c r="E514" t="str">
-        <v>2018/06/21 18:13:24</v>
+        <v>2018-06-21T18:13:24</v>
       </c>
       <c r="F514" t="str">
         <v>Kohei Otsuka</v>
@@ -26228,7 +26228,7 @@
         <v>./images/227/Jizo_(MinamiJodo-cho)_Nara_All.jpg</v>
       </c>
       <c r="E515" t="str">
-        <v>2016/11/04 12:53:23</v>
+        <v>2016-11-04T12:53:23</v>
       </c>
       <c r="F515" t="str">
         <v>Kohei Otsuka</v>
@@ -26254,7 +26254,7 @@
         <v>./images/227/Kinpachi_Daimyojin_Nara.jpg</v>
       </c>
       <c r="E516" t="str">
-        <v>2016/11/04 12:53:31</v>
+        <v>2016-11-04T12:53:31</v>
       </c>
       <c r="F516" t="str">
         <v>Kohei Otsuka</v>
@@ -26280,7 +26280,7 @@
         <v>./images/228/Kitaichi_Ebisu_(Kitaichi-cho,_Nara)_Haiden.jpg</v>
       </c>
       <c r="E517" t="str">
-        <v>2018/06/22 13:26:35</v>
+        <v>2018-06-22T13:26:35</v>
       </c>
       <c r="F517" t="str">
         <v>Kohei Otsuka</v>
@@ -26306,7 +26306,7 @@
         <v>./images/228/Kitaichi_Ebisu_(Kitaichi-cho,_Nara).jpg</v>
       </c>
       <c r="E518" t="str">
-        <v>2018/06/22 13:26:22</v>
+        <v>2018-06-22T13:26:22</v>
       </c>
       <c r="F518" t="str">
         <v>Kohei Otsuka</v>
@@ -26332,7 +26332,7 @@
         <v>./images/229/Kojoro_Taishin_(Sanjo-cho,_renew)_Nara_Near.jpg</v>
       </c>
       <c r="E519" t="str">
-        <v>2016/11/04 16:25:26</v>
+        <v>2016-11-04T16:25:26</v>
       </c>
       <c r="F519" t="str">
         <v>Kohei Otsuka</v>
@@ -26358,7 +26358,7 @@
         <v>./images/229/Kojoro_Taishin_(Sanjo-cho,_renew)_Nara.jpg</v>
       </c>
       <c r="E520" t="str">
-        <v>2016/11/04 16:25:18</v>
+        <v>2016-11-04T16:25:18</v>
       </c>
       <c r="F520" t="str">
         <v>Kohei Otsuka</v>
@@ -26384,7 +26384,7 @@
         <v>./images/229/Kojoro_Taishin_Sanjo_Honmachi_Nara_1.jpg</v>
       </c>
       <c r="E521" t="str">
-        <v>2015/12/09 15:29:16</v>
+        <v>2015-12-09T15:29:16</v>
       </c>
       <c r="F521" t="str">
         <v>Kohei Otsuka</v>
@@ -26410,7 +26410,7 @@
         <v>./images/229/Kojoro_Taishin_Sanjo_Honmachi_Nara_2.jpg</v>
       </c>
       <c r="E522" t="str">
-        <v>2015/12/09 15:29:23</v>
+        <v>2015-12-09T15:29:23</v>
       </c>
       <c r="F522" t="str">
         <v>Kohei Otsuka</v>
@@ -26436,7 +26436,7 @@
         <v>./images/230/Kompira_Daianji1_Nara_Hengaku.jpg</v>
       </c>
       <c r="E523" t="str">
-        <v>2017/01/02 13:42:11</v>
+        <v>2017-01-02T13:42:11</v>
       </c>
       <c r="F523" t="str">
         <v>Kohei Otsuka</v>
@@ -26462,7 +26462,7 @@
         <v>./images/230/Kompira_Daianji1_Nara_No.1.jpg</v>
       </c>
       <c r="E524" t="str">
-        <v>2017/01/02 13:41:06</v>
+        <v>2017-01-02T13:41:06</v>
       </c>
       <c r="F524" t="str">
         <v>Kohei Otsuka</v>
@@ -26488,7 +26488,7 @@
         <v>./images/230/Kompira_Daianji1_Nara_No.2.jpg</v>
       </c>
       <c r="E525" t="str">
-        <v>2017/01/02 13:42:39</v>
+        <v>2017-01-02T13:42:39</v>
       </c>
       <c r="F525" t="str">
         <v>Kohei Otsuka</v>
@@ -26514,7 +26514,7 @@
         <v>./images/231/Koshinden_Teramachi_Nara_(Inside).jpg</v>
       </c>
       <c r="E526" t="str">
-        <v>2017/02/18 16:54:44</v>
+        <v>2017-02-18T16:54:44</v>
       </c>
       <c r="F526" t="str">
         <v>Kohei Otsuka</v>
@@ -26540,7 +26540,7 @@
         <v>./images/231/Koshinden_Teramachi_Nara.jpg</v>
       </c>
       <c r="E527" t="str">
-        <v>2017/02/18 16:53:46</v>
+        <v>2017-02-18T16:53:46</v>
       </c>
       <c r="F527" t="str">
         <v>Kohei Otsuka</v>
@@ -26566,7 +26566,7 @@
         <v>./images/232/Kotai_Jingu_(Wakido-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E528" t="str">
-        <v>2016/11/04 13:25:09</v>
+        <v>2016-11-04T13:25:09</v>
       </c>
       <c r="F528" t="str">
         <v>Kohei Otsuka</v>
@@ -26592,7 +26592,7 @@
         <v>./images/232/Kotai_Jingu_(Wakido-cho)_Nara.jpg</v>
       </c>
       <c r="E529" t="str">
-        <v>2016/11/04 13:24:52</v>
+        <v>2016-11-04T13:24:52</v>
       </c>
       <c r="F529" t="str">
         <v>Kohei Otsuka</v>
@@ -26618,7 +26618,7 @@
         <v>./images/233/Kumataka_Daimyojin_Shrine_(SanjoHinoki-cho,_Nara)_Hokora.jpg</v>
       </c>
       <c r="E530" t="str">
-        <v>2018/02/16 13:09:31</v>
+        <v>2018-02-16T13:09:31</v>
       </c>
       <c r="F530" t="str">
         <v>Kohei Otsuka</v>
@@ -26644,7 +26644,7 @@
         <v>./images/233/Kumataka_Daimyojin_Shrine_(SanjoHinoki-cho,_Nara).jpg</v>
       </c>
       <c r="E531" t="str">
-        <v>2018/02/16 13:09:21</v>
+        <v>2018-02-16T13:09:21</v>
       </c>
       <c r="F531" t="str">
         <v>Kohei Otsuka</v>
@@ -26670,7 +26670,7 @@
         <v>./images/234/Nara_Kainotsuka_Kunugi_Shrine.jpg</v>
       </c>
       <c r="E532" t="str">
-        <v>2015/06/28 19:18:43</v>
+        <v>2015-06-28T19:18:43</v>
       </c>
       <c r="F532" t="str">
         <v>Kohei Otsuka</v>
@@ -26696,7 +26696,7 @@
         <v>./images/235/Minamiichi_Inari_Nara_Honden.jpg</v>
       </c>
       <c r="E533" t="str">
-        <v>2017/03/18 14:38:15</v>
+        <v>2017-03-18T14:38:15</v>
       </c>
       <c r="F533" t="str">
         <v>Kohei Otsuka</v>
@@ -26722,7 +26722,7 @@
         <v>./images/235/Minamiichi_Inari_Nara.jpg</v>
       </c>
       <c r="E534" t="str">
-        <v>2017/03/18 14:38:06</v>
+        <v>2017-03-18T14:38:06</v>
       </c>
       <c r="F534" t="str">
         <v>Kohei Otsuka</v>
@@ -26748,7 +26748,7 @@
         <v>./images/236/Benzaiten_and_Jizodo_(MinamiShin-machi,_Nara).jpg</v>
       </c>
       <c r="E535" t="str">
-        <v>2017/08/26 13:02:49</v>
+        <v>2017-08-26T13:02:49</v>
       </c>
       <c r="F535" t="str">
         <v>Kohei Otsuka</v>
@@ -26774,7 +26774,7 @@
         <v>./images/236/Inside_of_Benzaiten_(MinamiShin-machi,_Nara).jpg</v>
       </c>
       <c r="E536" t="str">
-        <v>2017/08/26 13:03:09</v>
+        <v>2017-08-26T13:03:09</v>
       </c>
       <c r="F536" t="str">
         <v>Kohei Otsuka</v>
@@ -26800,7 +26800,7 @@
         <v>./images/236/Wayside_Jizo_And_Benzaiten_Minami_Shinmachi.jpg</v>
       </c>
       <c r="E537" t="str">
-        <v>2016/07/22 15:31:53</v>
+        <v>2016-07-22T15:31:53</v>
       </c>
       <c r="F537" t="str">
         <v>Kohei Otsuka</v>
@@ -26826,7 +26826,7 @@
         <v>./images/237/Misome_Shrine_Nara_Gate.jpg</v>
       </c>
       <c r="E538" t="str">
-        <v>2015/12/20 14:52:34</v>
+        <v>2015-12-20T14:52:34</v>
       </c>
       <c r="F538" t="str">
         <v>Kohei Otsuka</v>
@@ -26852,7 +26852,7 @@
         <v>./images/237/Misome_Shrine_Nara_Honden_From_Above.jpg</v>
       </c>
       <c r="E539" t="str">
-        <v>2015/12/20 14:44:07</v>
+        <v>2015-12-20T14:44:07</v>
       </c>
       <c r="F539" t="str">
         <v>Kohei Otsuka</v>
@@ -26878,7 +26878,7 @@
         <v>./images/237/Misome_Shrine_Nara_Honden.jpg</v>
       </c>
       <c r="E540" t="str">
-        <v>2016/09/24 16:40:13</v>
+        <v>2016-09-24T16:40:13</v>
       </c>
       <c r="F540" t="str">
         <v>Kohei Otsuka</v>
@@ -26904,7 +26904,7 @@
         <v>./images/238/Mochiidono_Benzaiten_and_Shoho_Rigen_Daishido_(Nara).jpg</v>
       </c>
       <c r="E541" t="str">
-        <v>2016/11/04 13:40:12</v>
+        <v>2016-11-04T13:40:12</v>
       </c>
       <c r="F541" t="str">
         <v>Kohei Otsuka</v>
@@ -26930,7 +26930,7 @@
         <v>./images/238/Mochiidono_Benzaiten_Shrine_(Nara)_1.jpg</v>
       </c>
       <c r="E542" t="str">
-        <v>2016/11/04 13:40:52</v>
+        <v>2016-11-04T13:40:52</v>
       </c>
       <c r="F542" t="str">
         <v>Kohei Otsuka</v>
@@ -26956,7 +26956,7 @@
         <v>./images/238/Mochiidono_Benzaiten_Shrine_(Nara)_2.jpg</v>
       </c>
       <c r="E543" t="str">
-        <v>2016/11/04 13:41:13</v>
+        <v>2016-11-04T13:41:13</v>
       </c>
       <c r="F543" t="str">
         <v>Kohei Otsuka</v>
@@ -26982,7 +26982,7 @@
         <v>./images/239/Honden_of_Motoiwashimizu_Otabisho_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E544" t="str">
-        <v>2017/09/20 15:53:23</v>
+        <v>2017-09-20T15:53:23</v>
       </c>
       <c r="F544" t="str">
         <v>Kohei Otsuka</v>
@@ -27008,7 +27008,7 @@
         <v>./images/239/Motoiwashimizu_Otabisho_(ToKujo-cho,_Nara).jpg</v>
       </c>
       <c r="E545" t="str">
-        <v>2017/09/20 15:53:06</v>
+        <v>2017-09-20T15:53:06</v>
       </c>
       <c r="F545" t="str">
         <v>Kohei Otsuka</v>
@@ -27034,7 +27034,7 @@
         <v>./images/240/Nakasuji_Jinja_Honden_(Nara).jpg</v>
       </c>
       <c r="E546" t="str">
-        <v>2017/03/05 11:07:34</v>
+        <v>2017-03-05T11:07:34</v>
       </c>
       <c r="F546" t="str">
         <v>Kohei Otsuka</v>
@@ -27060,7 +27060,7 @@
         <v>./images/240/Nakasuji_Jinja_Honden2_(Nara).jpg</v>
       </c>
       <c r="E547" t="str">
-        <v>2017/03/05 11:07:47</v>
+        <v>2017-03-05T11:07:47</v>
       </c>
       <c r="F547" t="str">
         <v>Kohei Otsuka</v>
@@ -27086,7 +27086,7 @@
         <v>./images/240/Nakasuji_Jinja_Torii_(Nara).jpg</v>
       </c>
       <c r="E548" t="str">
-        <v>2017/03/05 11:07:21</v>
+        <v>2017-03-05T11:07:21</v>
       </c>
       <c r="F548" t="str">
         <v>Kohei Otsuka</v>
@@ -27112,7 +27112,7 @@
         <v>./images/240/Nakasuji_Shrine_Nara_Honden.jpg</v>
       </c>
       <c r="E549" t="str">
-        <v>2016/08/06 18:27:16</v>
+        <v>2016-08-06T18:27:16</v>
       </c>
       <c r="F549" t="str">
         <v>Kohei Otsuka</v>
@@ -27138,7 +27138,7 @@
         <v>./images/240/Nakasuji_Shrine_Nara_Outside.jpg</v>
       </c>
       <c r="E550" t="str">
-        <v>2016/08/06 18:27:04</v>
+        <v>2016-08-06T18:27:04</v>
       </c>
       <c r="F550" t="str">
         <v>Kohei Otsuka</v>
@@ -27164,7 +27164,7 @@
         <v>./images/241/Nara_Tsubai_Ichiba_Gosha_Inari_Inside.jpg</v>
       </c>
       <c r="E551" t="str">
-        <v>2016/11/04 13:50:02</v>
+        <v>2016-11-04T13:50:02</v>
       </c>
       <c r="F551" t="str">
         <v>Kohei Otsuka</v>
@@ -27190,7 +27190,7 @@
         <v>./images/241/Nara_Tsubai_Ichiba_Gosha_Inari.jpg</v>
       </c>
       <c r="E552" t="str">
-        <v>2016/07/16 16:17:50</v>
+        <v>2016-07-16T16:17:50</v>
       </c>
       <c r="F552" t="str">
         <v>Kohei Otsuka</v>
@@ -27216,7 +27216,7 @@
         <v>./images/242/Nara_Tsubai_Ichina_Rikimatsu_Inari_2.jpg</v>
       </c>
       <c r="E553" t="str">
-        <v>2016/11/04 13:50:49</v>
+        <v>2016-11-04T13:50:49</v>
       </c>
       <c r="F553" t="str">
         <v>Kohei Otsuka</v>
@@ -27242,7 +27242,7 @@
         <v>./images/242/Nara_Tsubai_Ichina_Rikimatsu_Inari_Inside.jpg</v>
       </c>
       <c r="E554" t="str">
-        <v>2016/11/04 13:51:09</v>
+        <v>2016-11-04T13:51:09</v>
       </c>
       <c r="F554" t="str">
         <v>Kohei Otsuka</v>
@@ -27268,7 +27268,7 @@
         <v>./images/242/Nara_Tsubai_Ichina_RIkimatsu_Inari.jpg</v>
       </c>
       <c r="E555" t="str">
-        <v>2016/07/16 16:18:36</v>
+        <v>2016-07-16T16:18:36</v>
       </c>
       <c r="F555" t="str">
         <v>Kohei Otsuka</v>
@@ -27294,7 +27294,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Chozusha.jpg</v>
       </c>
       <c r="E556" t="str">
-        <v>2016/05/05 17:09:28</v>
+        <v>2016-05-05T17:09:28</v>
       </c>
       <c r="F556" t="str">
         <v>Kohei Otsuka</v>
@@ -27320,7 +27320,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Entrance.jpg</v>
       </c>
       <c r="E557" t="str">
-        <v>2016/05/05 17:09:02</v>
+        <v>2016-05-05T17:09:02</v>
       </c>
       <c r="F557" t="str">
         <v>Kohei Otsuka</v>
@@ -27346,7 +27346,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Haiden.jpg</v>
       </c>
       <c r="E558" t="str">
-        <v>2016/05/05 17:10:11</v>
+        <v>2016-05-05T17:10:11</v>
       </c>
       <c r="F558" t="str">
         <v>Kohei Otsuka</v>
@@ -27372,7 +27372,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Hengaku.jpg</v>
       </c>
       <c r="E559" t="str">
-        <v>2016/05/05 17:10:28</v>
+        <v>2016-05-05T17:10:28</v>
       </c>
       <c r="F559" t="str">
         <v>Kohei Otsuka</v>
@@ -27398,7 +27398,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Mankichi.jpg</v>
       </c>
       <c r="E560" t="str">
-        <v>2016/05/05 17:11:17</v>
+        <v>2016-05-05T17:11:17</v>
       </c>
       <c r="F560" t="str">
         <v>Kohei Otsuka</v>
@@ -27424,7 +27424,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Morimitsu.jpg</v>
       </c>
       <c r="E561" t="str">
-        <v>2016/05/05 17:10:54</v>
+        <v>2016-05-05T17:10:54</v>
       </c>
       <c r="F561" t="str">
         <v>Kohei Otsuka</v>
@@ -27450,7 +27450,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Sankichi_2.jpg</v>
       </c>
       <c r="E562" t="str">
-        <v>2016/05/05 17:10:01</v>
+        <v>2016-05-05T17:10:01</v>
       </c>
       <c r="F562" t="str">
         <v>Kohei Otsuka</v>
@@ -27476,7 +27476,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Sankichi.jpg</v>
       </c>
       <c r="E563" t="str">
-        <v>2016/05/05 17:09:54</v>
+        <v>2016-05-05T17:09:54</v>
       </c>
       <c r="F563" t="str">
         <v>Kohei Otsuka</v>
@@ -27502,7 +27502,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Shoshichi.jpg</v>
       </c>
       <c r="E564" t="str">
-        <v>2016/05/05 17:10:57</v>
+        <v>2016-05-05T17:10:57</v>
       </c>
       <c r="F564" t="str">
         <v>Kohei Otsuka</v>
@@ -27528,7 +27528,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Toriis.jpg</v>
       </c>
       <c r="E565" t="str">
-        <v>2016/05/05 17:09:39</v>
+        <v>2016-05-05T17:09:39</v>
       </c>
       <c r="F565" t="str">
         <v>Kohei Otsuka</v>
@@ -27554,7 +27554,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Toro.jpg</v>
       </c>
       <c r="E566" t="str">
-        <v>2016/05/05 17:11:01</v>
+        <v>2016-05-05T17:11:01</v>
       </c>
       <c r="F566" t="str">
         <v>Kohei Otsuka</v>
@@ -27580,7 +27580,7 @@
         <v>./images/243/Nishiyama-Inari_Shrine_(Nara)_Toro2.jpg</v>
       </c>
       <c r="E567" t="str">
-        <v>2016/05/05 17:11:22</v>
+        <v>2016-05-05T17:11:22</v>
       </c>
       <c r="F567" t="str">
         <v>Kohei Otsuka</v>
@@ -27606,7 +27606,7 @@
         <v>./images/244/Nogami_Shrine_Honden_(Nogami-cho,_NARA).jpg</v>
       </c>
       <c r="E568" t="str">
-        <v>2017/05/01 13:09:55</v>
+        <v>2017-05-01T13:09:55</v>
       </c>
       <c r="F568" t="str">
         <v>Kohei Otsuka</v>
@@ -27632,7 +27632,7 @@
         <v>./images/244/Nogami_Shrine_Honden_and_Torii_(Nogami-cho,_NARA).jpg</v>
       </c>
       <c r="E569" t="str">
-        <v>2017/05/01 13:09:44</v>
+        <v>2017-05-01T13:09:44</v>
       </c>
       <c r="F569" t="str">
         <v>Kohei Otsuka</v>
@@ -27658,7 +27658,7 @@
         <v>./images/244/Nogami_Shrine_Nogamido_(Nogami-cho,_NARA).jpg</v>
       </c>
       <c r="E570" t="str">
-        <v>2017/05/01 13:09:31</v>
+        <v>2017-05-01T13:09:31</v>
       </c>
       <c r="F570" t="str">
         <v>Kohei Otsuka</v>
@@ -27684,7 +27684,7 @@
         <v>./images/244/Nogami_Shrine_Statue_(Nogami-cho,_NARA).jpg</v>
       </c>
       <c r="E571" t="str">
-        <v>2017/05/01 13:09:37</v>
+        <v>2017-05-01T13:09:37</v>
       </c>
       <c r="F571" t="str">
         <v>Kohei Otsuka</v>
@@ -27710,7 +27710,7 @@
         <v>./images/245/Nogami_Tree_Sanjo-Soekawa_Nara.jpg</v>
       </c>
       <c r="E572" t="str">
-        <v>2017/02/18 16:06:49</v>
+        <v>2017-02-18T16:06:49</v>
       </c>
       <c r="F572" t="str">
         <v>Kohei Otsuka</v>
@@ -27736,7 +27736,7 @@
         <v>./images/246/Old_Isagawa-Awa_Shrine_(NishiJodo-cho,_Nara)_1.jpg</v>
       </c>
       <c r="E573" t="str">
-        <v>2018/02/15 18:17:10</v>
+        <v>2018-02-15T18:17:10</v>
       </c>
       <c r="F573" t="str">
         <v>Kohei Otsuka</v>
@@ -27762,7 +27762,7 @@
         <v>./images/246/Old_Isagawa-Awa_Shrine_(NishiJodo-cho,_Nara)_2.jpg</v>
       </c>
       <c r="E574" t="str">
-        <v>2018/02/15 18:17:18</v>
+        <v>2018-02-15T18:17:18</v>
       </c>
       <c r="F574" t="str">
         <v>Kohei Otsuka</v>
@@ -27788,7 +27788,7 @@
         <v>./images/246/Old_Isagawa-Awa_Shrine_(NishiJodo-cho,_Nara)_3.jpg</v>
       </c>
       <c r="E575" t="str">
-        <v>2018/02/15 18:17:35</v>
+        <v>2018-02-15T18:17:35</v>
       </c>
       <c r="F575" t="str">
         <v>Kohei Otsuka</v>
@@ -27814,7 +27814,7 @@
         <v>./images/246/Old_Isagawa-Awa_Shrine_(NishiJodo-cho,_Nara)_4.jpg</v>
       </c>
       <c r="E576" t="str">
-        <v>2018/02/15 18:17:45</v>
+        <v>2018-02-15T18:17:45</v>
       </c>
       <c r="F576" t="str">
         <v>Kohei Otsuka</v>
@@ -27840,7 +27840,7 @@
         <v>./images/247/RyuCho_Taishin_Shrine_Nara_Entrance.jpg</v>
       </c>
       <c r="E577" t="str">
-        <v>2016/08/06 14:32:31</v>
+        <v>2016-08-06T14:32:31</v>
       </c>
       <c r="F577" t="str">
         <v>Kohei Otsuka</v>
@@ -27866,7 +27866,7 @@
         <v>./images/247/RyuCho_Taishin_Shrine_Nara_Honden.jpg</v>
       </c>
       <c r="E578" t="str">
-        <v>2016/08/06 14:34:33</v>
+        <v>2016-08-06T14:34:33</v>
       </c>
       <c r="F578" t="str">
         <v>Kohei Otsuka</v>
@@ -27892,7 +27892,7 @@
         <v>./images/247/RyuCho_Taishin_Shrine_Nara_Sando.jpg</v>
       </c>
       <c r="E579" t="str">
-        <v>2016/08/06 14:32:42</v>
+        <v>2016-08-06T14:32:42</v>
       </c>
       <c r="F579" t="str">
         <v>Kohei Otsuka</v>
@@ -27918,7 +27918,7 @@
         <v>./images/247/RyuCho_Taishin_Shrine_Nara_Torii.jpg</v>
       </c>
       <c r="E580" t="str">
-        <v>2016/08/06 14:34:25</v>
+        <v>2016-08-06T14:34:25</v>
       </c>
       <c r="F580" t="str">
         <v>Kohei Otsuka</v>
@@ -27944,7 +27944,7 @@
         <v>./images/248/Sahogawa_Tenmangu_Nara_from_Far.jpg</v>
       </c>
       <c r="E581" t="str">
-        <v>2016/11/04 15:22:05</v>
+        <v>2016-11-04T15:22:05</v>
       </c>
       <c r="F581" t="str">
         <v>Kohei Otsuka</v>
@@ -27970,7 +27970,7 @@
         <v>./images/248/Sahogawa_Tenmangu_Nara.jpg</v>
       </c>
       <c r="E582" t="str">
-        <v>2016/11/04 15:21:48</v>
+        <v>2016-11-04T15:21:48</v>
       </c>
       <c r="F582" t="str">
         <v>Kohei Otsuka</v>
@@ -27996,7 +27996,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Ebisu_Honden.jpg</v>
       </c>
       <c r="E583" t="str">
-        <v>2018/06/22 10:20:46</v>
+        <v>2018-06-22T10:20:46</v>
       </c>
       <c r="F583" t="str">
         <v>Kohei Otsuka</v>
@@ -28022,7 +28022,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Ebisu_Torii.jpg</v>
       </c>
       <c r="E584" t="str">
-        <v>2018/06/22 10:20:36</v>
+        <v>2018-06-22T10:20:36</v>
       </c>
       <c r="F584" t="str">
         <v>Kohei Otsuka</v>
@@ -28048,7 +28048,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Honden1.jpg</v>
       </c>
       <c r="E585" t="str">
-        <v>2018/06/22 10:19:04</v>
+        <v>2018-06-22T10:19:04</v>
       </c>
       <c r="F585" t="str">
         <v>Kohei Otsuka</v>
@@ -28074,7 +28074,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Honden2.jpg</v>
       </c>
       <c r="E586" t="str">
-        <v>2018/06/22 10:20:02</v>
+        <v>2018-06-22T10:20:02</v>
       </c>
       <c r="F586" t="str">
         <v>Kohei Otsuka</v>
@@ -28100,7 +28100,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Sueyoshi_Honden.jpg</v>
       </c>
       <c r="E587" t="str">
-        <v>2018/06/22 10:20:14</v>
+        <v>2018-06-22T10:20:14</v>
       </c>
       <c r="F587" t="str">
         <v>Kohei Otsuka</v>
@@ -28126,7 +28126,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Sueyoshi_Torii.jpg</v>
       </c>
       <c r="E588" t="str">
-        <v>2018/06/22 10:21:22</v>
+        <v>2018-06-22T10:21:22</v>
       </c>
       <c r="F588" t="str">
         <v>Kohei Otsuka</v>
@@ -28152,7 +28152,7 @@
         <v>./images/249/Sanpo_Kojin_Shrine_Torii.jpg</v>
       </c>
       <c r="E589" t="str">
-        <v>2018/06/22 10:18:55</v>
+        <v>2018-06-22T10:18:55</v>
       </c>
       <c r="F589" t="str">
         <v>Kohei Otsuka</v>
@@ -28178,7 +28178,7 @@
         <v>./images/250/Shirachi_Shrine_Nara1.jpg</v>
       </c>
       <c r="E590" t="str">
-        <v>2015/12/17 15:57:16</v>
+        <v>2015-12-17T15:57:16</v>
       </c>
       <c r="F590" t="str">
         <v>Kohei Otsuka</v>
@@ -28204,7 +28204,7 @@
         <v>./images/250/Shirachi_Shrine_Nara2.jpg</v>
       </c>
       <c r="E591" t="str">
-        <v>2015/12/17 15:57:46</v>
+        <v>2015-12-17T15:57:46</v>
       </c>
       <c r="F591" t="str">
         <v>Kohei Otsuka</v>
@@ -28230,7 +28230,7 @@
         <v>./images/251/God_Tree_of_worship_Kainotsuka_Nara.jpg</v>
       </c>
       <c r="E592" t="str">
-        <v>2016/05/05 18:06:07</v>
+        <v>2016-05-05T18:06:07</v>
       </c>
       <c r="F592" t="str">
         <v>Kohei Otsuka</v>
@@ -28256,7 +28256,7 @@
         <v>./images/251/Small_Shrine_near_Big_Tree_Kainotsuka_Nara.jpg</v>
       </c>
       <c r="E593" t="str">
-        <v>2016/05/05 18:05:49</v>
+        <v>2016-05-05T18:05:49</v>
       </c>
       <c r="F593" t="str">
         <v>Kohei Otsuka</v>
@@ -28282,7 +28282,7 @@
         <v>./images/252/Small_Shrine_near_Yawata_Shrine_Higashikujo_Nara.jpg</v>
       </c>
       <c r="E594" t="str">
-        <v>2017/01/02 14:40:26</v>
+        <v>2017-01-02T14:40:26</v>
       </c>
       <c r="F594" t="str">
         <v>Kohei Otsuka</v>
@@ -28308,7 +28308,7 @@
         <v>./images/253/Sugiichi_Taishin_Shrine_In_Nara.jpg</v>
       </c>
       <c r="E595" t="str">
-        <v>2016/07/22 15:43:05</v>
+        <v>2016-07-22T15:43:05</v>
       </c>
       <c r="F595" t="str">
         <v>Kohei Otsuka</v>
@@ -28334,7 +28334,7 @@
         <v>./images/253/Sugiichi_Taishin_Sugiga-cho_NameStone1.jpg</v>
       </c>
       <c r="E596" t="str">
-        <v>2015/12/09 15:54:48</v>
+        <v>2015-12-09T15:54:48</v>
       </c>
       <c r="F596" t="str">
         <v>Kohei Otsuka</v>
@@ -28360,7 +28360,7 @@
         <v>./images/253/Sugiichi_Taishin_Sugiga-cho_NameStone2.jpg</v>
       </c>
       <c r="E597" t="str">
-        <v>2015/12/09 15:54:56</v>
+        <v>2015-12-09T15:54:56</v>
       </c>
       <c r="F597" t="str">
         <v>Kohei Otsuka</v>
@@ -28386,7 +28386,7 @@
         <v>./images/253/Sugiichi_Taishin_Sugiga-cho_Nara.jpg</v>
       </c>
       <c r="E598" t="str">
-        <v>2015/12/09 15:54:42</v>
+        <v>2015-12-09T15:54:42</v>
       </c>
       <c r="F598" t="str">
         <v>Kohei Otsuka</v>
@@ -28412,7 +28412,7 @@
         <v>./images/254/Suihaku_Taishin_Nara_Zoom.jpg</v>
       </c>
       <c r="E599" t="str">
-        <v>2016/08/06 18:29:22</v>
+        <v>2016-08-06T18:29:22</v>
       </c>
       <c r="F599" t="str">
         <v>Kohei Otsuka</v>
@@ -28438,7 +28438,7 @@
         <v>./images/254/Suihaku_Taishin_Nara.jpg</v>
       </c>
       <c r="E600" t="str">
-        <v>2016/08/06 18:28:59</v>
+        <v>2016-08-06T18:28:59</v>
       </c>
       <c r="F600" t="str">
         <v>Kohei Otsuka</v>
@@ -28464,7 +28464,7 @@
         <v>./images/255/Suiko_Empress_Shrine_Chozusha.jpg</v>
       </c>
       <c r="E601" t="str">
-        <v>2017/01/02 13:40:51</v>
+        <v>2017-01-02T13:40:51</v>
       </c>
       <c r="F601" t="str">
         <v>Kohei Otsuka</v>
@@ -28490,7 +28490,7 @@
         <v>./images/255/Suiko_Empress_Shrine_Honden.jpg</v>
       </c>
       <c r="E602" t="str">
-        <v>2017/01/02 13:40:35</v>
+        <v>2017-01-02T13:40:35</v>
       </c>
       <c r="F602" t="str">
         <v>Kohei Otsuka</v>
@@ -28516,7 +28516,7 @@
         <v>./images/255/Suiko_Empress_Shrine_Torii.jpg</v>
       </c>
       <c r="E603" t="str">
-        <v>2017/01/02 13:40:15</v>
+        <v>2017-01-02T13:40:15</v>
       </c>
       <c r="F603" t="str">
         <v>Kohei Otsuka</v>
@@ -28542,7 +28542,7 @@
         <v>./images/256/Sumiyoshi_Shrine_(Imazushi-cho,_Nara)_1.jpg</v>
       </c>
       <c r="E604" t="str">
-        <v>2017/08/27 12:16:22</v>
+        <v>2017-08-27T12:16:22</v>
       </c>
       <c r="F604" t="str">
         <v>Kohei Otsuka</v>
@@ -28568,7 +28568,7 @@
         <v>./images/256/Sumiyoshi_Shrine_(Imazushi-cho,_Nara)_2.jpg</v>
       </c>
       <c r="E605" t="str">
-        <v>2017/08/27 12:17:17</v>
+        <v>2017-08-27T12:17:17</v>
       </c>
       <c r="F605" t="str">
         <v>Kohei Otsuka</v>
@@ -28594,7 +28594,7 @@
         <v>./images/257/Tajikarao_Jinja_in_Nara.jpg</v>
       </c>
       <c r="E606" t="str">
-        <v>2015/05/17 14:24:23</v>
+        <v>2015-05-17T14:24:23</v>
       </c>
       <c r="F606" t="str">
         <v>Kohei Otsuka</v>
@@ -28620,7 +28620,7 @@
         <v>./images/258/Tamataki_Inari_Nara_1.jpg</v>
       </c>
       <c r="E607" t="str">
-        <v>2016/11/04 12:48:56</v>
+        <v>2016-11-04T12:48:56</v>
       </c>
       <c r="F607" t="str">
         <v>Kohei Otsuka</v>
@@ -28646,7 +28646,7 @@
         <v>./images/258/Tamataki_Inari_Nara_2.jpg</v>
       </c>
       <c r="E608" t="str">
-        <v>2016/11/04 12:49:06</v>
+        <v>2016-11-04T12:49:06</v>
       </c>
       <c r="F608" t="str">
         <v>Kohei Otsuka</v>
@@ -28672,7 +28672,7 @@
         <v>./images/258/Tamataki_Inari_Nara_Inside.jpg</v>
       </c>
       <c r="E609" t="str">
-        <v>2016/11/04 12:49:14</v>
+        <v>2016-11-04T12:49:14</v>
       </c>
       <c r="F609" t="str">
         <v>Kohei Otsuka</v>
@@ -28698,7 +28698,7 @@
         <v>./images/259/Tamatesu_Inari_(Kawakami-cho)_Nara_Honden.jpg</v>
       </c>
       <c r="E610" t="str">
-        <v>2016/11/04 15:16:14</v>
+        <v>2016-11-04T15:16:14</v>
       </c>
       <c r="F610" t="str">
         <v>Kohei Otsuka</v>
@@ -28724,7 +28724,7 @@
         <v>./images/259/Tamatesu_Inari_(Kawakami-cho)_Nara_Inside.jpg</v>
       </c>
       <c r="E611" t="str">
-        <v>2016/11/04 15:16:30</v>
+        <v>2016-11-04T15:16:30</v>
       </c>
       <c r="F611" t="str">
         <v>Kohei Otsuka</v>
@@ -28750,7 +28750,7 @@
         <v>./images/259/Tamatesu_Inari_(Kawakami-cho)_Nara.jpg</v>
       </c>
       <c r="E612" t="str">
-        <v>2016/11/04 15:16:06</v>
+        <v>2016-11-04T15:16:06</v>
       </c>
       <c r="F612" t="str">
         <v>Kohei Otsuka</v>
@@ -28776,7 +28776,7 @@
         <v>./images/260/Honden_of_Tokikaze_Shrine_(SaiKujo-cho_3,_Nara).jpg</v>
       </c>
       <c r="E613" t="str">
-        <v>2017/09/20 16:46:03</v>
+        <v>2017-09-20T16:46:03</v>
       </c>
       <c r="F613" t="str">
         <v>Kohei Otsuka</v>
@@ -28802,7 +28802,7 @@
         <v>./images/260/Tokikaze_Shrine_(SaiKujo-cho_3,_Nara).jpg</v>
       </c>
       <c r="E614" t="str">
-        <v>2017/09/20 16:45:36</v>
+        <v>2017-09-20T16:45:36</v>
       </c>
       <c r="F614" t="str">
         <v>Kohei Otsuka</v>
@@ -28828,7 +28828,7 @@
         <v>./images/261/Tsukihiiwa_Annai.jpg</v>
       </c>
       <c r="E615" t="str">
-        <v>2015/12/17 14:49:05</v>
+        <v>2015-12-17T14:49:05</v>
       </c>
       <c r="F615" t="str">
         <v>Kohei Otsuka</v>
@@ -28854,7 +28854,7 @@
         <v>./images/261/Tsukihiiwa_dam.jpg</v>
       </c>
       <c r="E616" t="str">
-        <v>2015/12/17 15:01:14</v>
+        <v>2015-12-17T15:01:14</v>
       </c>
       <c r="F616" t="str">
         <v>Kohei Otsuka</v>
@@ -28880,7 +28880,7 @@
         <v>./images/261/Tsukihiiwa_itself.jpg</v>
       </c>
       <c r="E617" t="str">
-        <v>2015/12/17 15:07:09</v>
+        <v>2015-12-17T15:07:09</v>
       </c>
       <c r="F617" t="str">
         <v>Kohei Otsuka</v>
@@ -28906,7 +28906,7 @@
         <v>./images/261/Tsukihiiwa_toro.jpg</v>
       </c>
       <c r="E618" t="str">
-        <v>2015/12/17 15:02:19</v>
+        <v>2015-12-17T15:02:19</v>
       </c>
       <c r="F618" t="str">
         <v>Kohei Otsuka</v>
@@ -28932,7 +28932,7 @@
         <v>./images/262/Wayside_Shrine_(Saki-cho,_Nara)_From_Faraway.jpg</v>
       </c>
       <c r="E619" t="str">
-        <v>2018/07/21 10:54:50</v>
+        <v>2018-07-21T10:54:50</v>
       </c>
       <c r="F619" t="str">
         <v>Kohei Otsuka</v>
@@ -28958,7 +28958,7 @@
         <v>./images/262/Wayside_Shrine_(Saki-cho,_Nara)_Monument.jpg</v>
       </c>
       <c r="E620" t="str">
-        <v>2018/07/21 10:51:24</v>
+        <v>2018-07-21T10:51:24</v>
       </c>
       <c r="F620" t="str">
         <v>Kohei Otsuka</v>
@@ -28984,7 +28984,7 @@
         <v>./images/262/Wayside_Shrine_(Saki-cho,_Nara).jpg</v>
       </c>
       <c r="E621" t="str">
-        <v>2018/07/21 10:51:32</v>
+        <v>2018-07-21T10:51:32</v>
       </c>
       <c r="F621" t="str">
         <v>Kohei Otsuka</v>
@@ -29010,7 +29010,7 @@
         <v>./images/263/Wayside_Shrine_in_Minami-Kidera_3_Nara_Inside.jpg</v>
       </c>
       <c r="E622" t="str">
-        <v>2017/02/11 15:41:18</v>
+        <v>2017-02-11T15:41:18</v>
       </c>
       <c r="F622" t="str">
         <v>Kohei Otsuka</v>
@@ -29036,7 +29036,7 @@
         <v>./images/263/Wayside_Shrine_in_Minami-Kidera_3_Nara.jpg</v>
       </c>
       <c r="E623" t="str">
-        <v>2017/02/11 15:41:13</v>
+        <v>2017-02-11T15:41:13</v>
       </c>
       <c r="F623" t="str">
         <v>Kohei Otsuka</v>
@@ -29062,7 +29062,7 @@
         <v>./images/264/Wayside_Shrine_and_Jizo_Mitsumune-sho_(Nara).jpg</v>
       </c>
       <c r="E624" t="str">
-        <v>2017/03/18 14:11:17</v>
+        <v>2017-03-18T14:11:17</v>
       </c>
       <c r="F624" t="str">
         <v>Kohei Otsuka</v>
@@ -29088,7 +29088,7 @@
         <v>./images/264/Wayside_Shrine_Mitsumune-sho_(Nara)_Inside.jpg</v>
       </c>
       <c r="E625" t="str">
-        <v>2017/03/18 14:11:35</v>
+        <v>2017-03-18T14:11:35</v>
       </c>
       <c r="F625" t="str">
         <v>Kohei Otsuka</v>
@@ -29114,7 +29114,7 @@
         <v>./images/264/Wayside_Shrine_Mitsumune-sho_(Nara).jpg</v>
       </c>
       <c r="E626" t="str">
-        <v>2017/03/18 14:10:48</v>
+        <v>2017-03-18T14:10:48</v>
       </c>
       <c r="F626" t="str">
         <v>Kohei Otsuka</v>
@@ -29140,7 +29140,7 @@
         <v>./images/265/Yoshimine_Daimyojin_Shrine_Nara_Honden.jpg</v>
       </c>
       <c r="E627" t="str">
-        <v>2016/08/19 14:59:16</v>
+        <v>2016-08-19T14:59:16</v>
       </c>
       <c r="F627" t="str">
         <v>Kohei Otsuka</v>
@@ -29166,7 +29166,7 @@
         <v>./images/265/Yoshimine_Daimyojin_Shrine_Nara.jpg</v>
       </c>
       <c r="E628" t="str">
-        <v>2016/08/19 14:59:05</v>
+        <v>2016-08-19T14:59:05</v>
       </c>
       <c r="F628" t="str">
         <v>Kohei Otsuka</v>
@@ -29192,7 +29192,7 @@
         <v>./images/149/Jizo_in_NishiShinya-cho_front_of_Koshindo.jpg</v>
       </c>
       <c r="E629" t="str">
-        <v>2016/11/04 13:16:30</v>
+        <v>2016-11-04T13:16:30</v>
       </c>
       <c r="F629" t="str">
         <v>Kohei Otsuka</v>
@@ -29218,7 +29218,7 @@
         <v>./images/149/Jizo_In_NishiShinya_Nara.jpg</v>
       </c>
       <c r="E630" t="str">
-        <v>2015/12/20 16:16:47</v>
+        <v>2015-12-20T16:16:47</v>
       </c>
       <c r="F630" t="str">
         <v>Kohei Otsuka</v>
@@ -29244,7 +29244,7 @@
         <v>./images/145/HandaBiraki-cho_Jizos_Nara.jpg</v>
       </c>
       <c r="E631" t="str">
-        <v>2016/08/19 14:35:24</v>
+        <v>2016-08-19T14:35:24</v>
       </c>
       <c r="F631" t="str">
         <v>Kohei Otsuka</v>
@@ -29270,7 +29270,7 @@
         <v>./images/146/Jizo_(Kango-cho,_Nara).jpg</v>
       </c>
       <c r="E632" t="str">
-        <v>2018/02/16 10:10:20</v>
+        <v>2018-02-16T10:10:20</v>
       </c>
       <c r="F632" t="str">
         <v>Kohei Otsuka</v>
@@ -29296,7 +29296,7 @@
         <v>./images/147/Jizo_(NishiKitsuji,_Seiten-mae)_Nara.jpg</v>
       </c>
       <c r="E633" t="str">
-        <v>2016/11/04 12:48:16</v>
+        <v>2016-11-04T12:48:16</v>
       </c>
       <c r="F633" t="str">
         <v>Kohei Otsuka</v>
@@ -29322,7 +29322,7 @@
         <v>./images/150/Jizo_Most_North_of_Kidera-cho_Nara.jpg</v>
       </c>
       <c r="E634" t="str">
-        <v>2015/11/29 13:22:48</v>
+        <v>2015-11-29T13:22:48</v>
       </c>
       <c r="F634" t="str">
         <v>Kohei Otsuka</v>
@@ -29348,7 +29348,7 @@
         <v>./images/151/Jizo_of_north_of_Nara_Womans_Univ.jpg</v>
       </c>
       <c r="E635" t="str">
-        <v>2016/07/17 12:48:05</v>
+        <v>2016-07-17T12:48:05</v>
       </c>
       <c r="F635" t="str">
         <v>Kohei Otsuka</v>
@@ -29374,7 +29374,7 @@
         <v>./images/152/Jizodo_Daianji4_Sugiyama_Kofun_Mae.jpg</v>
       </c>
       <c r="E636" t="str">
-        <v>2016/05/02 18:18:57</v>
+        <v>2016-05-02T18:18:57</v>
       </c>
       <c r="F636" t="str">
         <v>Kohei Otsuka</v>
@@ -29400,7 +29400,7 @@
         <v>./images/153/Jizodo_Takabatake-cho_(Godo_Chosha)_Nara.jpg</v>
       </c>
       <c r="E637" t="str">
-        <v>2016/11/04 11:16:39</v>
+        <v>2016-11-04T11:16:39</v>
       </c>
       <c r="F637" t="str">
         <v>Kohei Otsuka</v>
@@ -29426,7 +29426,7 @@
         <v>./images/154/Jizos_(Kitaichi-cho,_Nara).jpg</v>
       </c>
       <c r="E638" t="str">
-        <v>2018/06/22 13:25:39</v>
+        <v>2018-06-22T13:25:39</v>
       </c>
       <c r="F638" t="str">
         <v>Kohei Otsuka</v>
@@ -29452,7 +29452,7 @@
         <v>./images/155/Jizos_Near_House_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E639" t="str">
-        <v>2018/06/22 12:23:38</v>
+        <v>2018-06-22T12:23:38</v>
       </c>
       <c r="F639" t="str">
         <v>Kohei Otsuka</v>
@@ -29478,7 +29478,7 @@
         <v>./images/156/Jizos_Near_Small_Bridge_(Zoshi-cho,_Nara).jpg</v>
       </c>
       <c r="E640" t="str">
-        <v>2018/06/22 12:18:09</v>
+        <v>2018-06-22T12:18:09</v>
       </c>
       <c r="F640" t="str">
         <v>Kohei Otsuka</v>
@@ -29504,7 +29504,7 @@
         <v>./images/157/Kainotsuka-cho_Jizo_(Block_Wall)_Nara.jpg</v>
       </c>
       <c r="E641" t="str">
-        <v>2016/08/06 12:40:50</v>
+        <v>2016-08-06T12:40:50</v>
       </c>
       <c r="F641" t="str">
         <v>Kohei Otsuka</v>
@@ -29530,7 +29530,7 @@
         <v>./images/158/Kainotsuka-cho_Jizo_(Kaisho-mae)_Nara.jpg</v>
       </c>
       <c r="E642" t="str">
-        <v>2016/08/06 12:33:38</v>
+        <v>2016-08-06T12:33:38</v>
       </c>
       <c r="F642" t="str">
         <v>Kohei Otsuka</v>
@@ -29556,7 +29556,7 @@
         <v>./images/159/Kainotsuka-cho_Jizo_(Kaisho-west)_Nara.jpg</v>
       </c>
       <c r="E643" t="str">
-        <v>2016/08/06 12:38:05</v>
+        <v>2016-08-06T12:38:05</v>
       </c>
       <c r="F643" t="str">
         <v>Kohei Otsuka</v>
@@ -29582,7 +29582,7 @@
         <v>./images/160/Kawakami-cho_Jizo_(South_of_Nara_Juvenile_Prison).jpg</v>
       </c>
       <c r="E644" t="str">
-        <v>2016/08/19 14:31:32</v>
+        <v>2016-08-19T14:31:32</v>
       </c>
       <c r="F644" t="str">
         <v>Kohei Otsuka</v>
@@ -29608,7 +29608,7 @@
         <v>./images/161/KitaHandaNishi-machi_Jizodo_Nara.jpg</v>
       </c>
       <c r="E645" t="str">
-        <v>2016/08/19 14:55:21</v>
+        <v>2016-08-19T14:55:21</v>
       </c>
       <c r="F645" t="str">
         <v>Kohei Otsuka</v>
@@ -29634,7 +29634,7 @@
         <v>./images/162/Nara_Byakugoji_cho_Jizos_1.jpg</v>
       </c>
       <c r="E646" t="str">
-        <v>2015/05/04 14:52:26</v>
+        <v>2015-05-04T14:52:26</v>
       </c>
       <c r="F646" t="str">
         <v>Kohei Otsuka</v>
@@ -29660,7 +29660,7 @@
         <v>./images/163/Nara_Byakugoji_cho_Jizos_2.jpg</v>
       </c>
       <c r="E647" t="str">
-        <v>2015/05/04 15:03:03</v>
+        <v>2015-05-04T15:03:03</v>
       </c>
       <c r="F647" t="str">
         <v>Kohei Otsuka</v>
@@ -29686,7 +29686,7 @@
         <v>./images/164/Nara_Byakugoji_cho_Jizos_3.jpg</v>
       </c>
       <c r="E648" t="str">
-        <v>2015/05/04 15:05:41</v>
+        <v>2015-05-04T15:05:41</v>
       </c>
       <c r="F648" t="str">
         <v>Kohei Otsuka</v>
@@ -29712,7 +29712,7 @@
         <v>./images/165/Nara_Byakugoji_cho_Notogawa_Jizos_1.jpg</v>
       </c>
       <c r="E649" t="str">
-        <v>2015/05/04 15:11:16</v>
+        <v>2015-05-04T15:11:16</v>
       </c>
       <c r="F649" t="str">
         <v>Kohei Otsuka</v>
@@ -29738,7 +29738,7 @@
         <v>./images/166/Nara_Byakugoji_cho_Notogawa_Jizos_2.jpg</v>
       </c>
       <c r="E650" t="str">
-        <v>2015/05/04 15:12:43</v>
+        <v>2015-05-04T15:12:43</v>
       </c>
       <c r="F650" t="str">
         <v>Kohei Otsuka</v>
@@ -29764,7 +29764,7 @@
         <v>./images/167/Nara_Hanazono_cho_Jizos_in_Wall.jpg</v>
       </c>
       <c r="E651" t="str">
-        <v>2015/05/04 16:47:31</v>
+        <v>2015-05-04T16:47:31</v>
       </c>
       <c r="F651" t="str">
         <v>Kohei Otsuka</v>
@@ -29790,7 +29790,7 @@
         <v>./images/168/Nara_Irie_KyuKyo_Jizo.jpg</v>
       </c>
       <c r="E652" t="str">
-        <v>2015/12/18 13:50:04</v>
+        <v>2015-12-18T13:50:04</v>
       </c>
       <c r="F652" t="str">
         <v>Kohei Otsuka</v>
@@ -29816,7 +29816,7 @@
         <v>./images/169/Nara_Kidera_Jizo_in_Mansion.jpg</v>
       </c>
       <c r="E653" t="str">
-        <v>2015/05/04 15:30:17</v>
+        <v>2015-05-04T15:30:17</v>
       </c>
       <c r="F653" t="str">
         <v>Kohei Otsuka</v>
@@ -29842,7 +29842,7 @@
         <v>./images/170/Nara_Takabatake_Jizo_near_Araike.jpg</v>
       </c>
       <c r="E654" t="str">
-        <v>2015/05/06 15:08:27</v>
+        <v>2015-05-06T15:08:27</v>
       </c>
       <c r="F654" t="str">
         <v>Kohei Otsuka</v>
@@ -29868,7 +29868,7 @@
         <v>./images/171/Nara_Takabatake_Nokisaki_Jizo.jpg</v>
       </c>
       <c r="E655" t="str">
-        <v>2015/05/06 14:35:57</v>
+        <v>2015-05-06T14:35:57</v>
       </c>
       <c r="F655" t="str">
         <v>Kohei Otsuka</v>
@@ -29894,7 +29894,7 @@
         <v>./images/172/Several_Buddhas_Saidaiji_Kobo_Nara_(Jizo).jpg</v>
       </c>
       <c r="E656" t="str">
-        <v>2017/02/18 14:48:35</v>
+        <v>2017-02-18T14:48:35</v>
       </c>
       <c r="F656" t="str">
         <v>Kohei Otsuka</v>
@@ -29920,7 +29920,7 @@
         <v>./images/173/Shibatsuji-cho_Jizodo_Nara.jpg</v>
       </c>
       <c r="E657" t="str">
-        <v>2016/08/06 13:49:33</v>
+        <v>2016-08-06T13:49:33</v>
       </c>
       <c r="F657" t="str">
         <v>Kohei Otsuka</v>
@@ -29946,7 +29946,7 @@
         <v>./images/174/Wayside_Jizo_In_Nara_Near_Asuka_JInja.jpg</v>
       </c>
       <c r="E658" t="str">
-        <v>2016/07/22 15:00:27</v>
+        <v>2016-07-22T15:00:27</v>
       </c>
       <c r="F658" t="str">
         <v>Kohei Otsuka</v>
@@ -29972,7 +29972,7 @@
         <v>./images/175/Wayside_Jizo_In_Nara_Near_Zuto.jpg</v>
       </c>
       <c r="E659" t="str">
-        <v>2016/07/22 14:25:01</v>
+        <v>2016-07-22T14:25:01</v>
       </c>
       <c r="F659" t="str">
         <v>Kohei Otsuka</v>
@@ -29998,7 +29998,7 @@
         <v>./images/176/Wayside_Jizo_In_Nara_Sugigamachi.jpg</v>
       </c>
       <c r="E660" t="str">
-        <v>2016/07/22 15:37:24</v>
+        <v>2016-07-22T15:37:24</v>
       </c>
       <c r="F660" t="str">
         <v>Kohei Otsuka</v>
@@ -30024,7 +30024,7 @@
         <v>./images/198/Horen-cho_Stone_Amida_in_Fuko-in_Nara.jpg</v>
       </c>
       <c r="E661" t="str">
-        <v>2016/08/19 14:40:27</v>
+        <v>2016-08-19T14:40:27</v>
       </c>
       <c r="F661" t="str">
         <v>Kohei Otsuka</v>
@@ -30050,7 +30050,7 @@
         <v>./images/199/Kainotsuka_Myogo_sekihi_(Nara).jpg</v>
       </c>
       <c r="E662" t="str">
-        <v>2016/05/05 18:13:16</v>
+        <v>2016-05-05T18:13:16</v>
       </c>
       <c r="F662" t="str">
         <v>Kohei Otsuka</v>
@@ -30076,7 +30076,7 @@
         <v>./images/200/Kainotsuka-cho_Stoper_Relief_Nara.jpg</v>
       </c>
       <c r="E663" t="str">
-        <v>2016/08/06 12:35:34</v>
+        <v>2016-08-06T12:35:34</v>
       </c>
       <c r="F663" t="str">
         <v>Kohei Otsuka</v>
@@ -30102,7 +30102,7 @@
         <v>./images/201/Myogo_Stone_(Kitaichi-cho,_Nara).jpg</v>
       </c>
       <c r="E664" t="str">
-        <v>2018/06/22 13:26:03</v>
+        <v>2018-06-22T13:26:03</v>
       </c>
       <c r="F664" t="str">
         <v>Kohei Otsuka</v>
@@ -30128,7 +30128,7 @@
         <v>./images/202/Nara_Stone_Budda_NW_of_Tokuyu-ji.jpg</v>
       </c>
       <c r="E665" t="str">
-        <v>2016/07/16 16:31:56</v>
+        <v>2016-07-16T16:31:56</v>
       </c>
       <c r="F665" t="str">
         <v>Kohei Otsuka</v>
@@ -30154,7 +30154,7 @@
         <v>./images/203/Nogami_Shrine_Statue_(Nogami-cho,_NARA).jpg</v>
       </c>
       <c r="E666" t="str">
-        <v>2017/05/01 13:09:37</v>
+        <v>2017-05-01T13:09:37</v>
       </c>
       <c r="F666" t="str">
         <v>Kohei Otsuka</v>
@@ -30180,7 +30180,7 @@
         <v>./images/266/Nara_Hyoshi_Shrine.jpg</v>
       </c>
       <c r="E667" t="str">
-        <v>2015/05/24 14:31:18</v>
+        <v>2015-05-24T14:31:18</v>
       </c>
       <c r="F667" t="str">
         <v>Kohei Otsuka</v>
@@ -30206,7 +30206,7 @@
         <v>./images/267/Nishinosaka-cho_Hakuryu_Taishin_Nara.jpg</v>
       </c>
       <c r="E668" t="str">
-        <v>2016/08/06 13:41:15</v>
+        <v>2016-08-06T13:41:15</v>
       </c>
       <c r="F668" t="str">
         <v>Kohei Otsuka</v>
@@ -30232,7 +30232,7 @@
         <v>./images/268/Sahohime_Shrine_Nara.jpg</v>
       </c>
       <c r="E669" t="str">
-        <v>2016/11/04 14:57:20</v>
+        <v>2016-11-04T14:57:20</v>
       </c>
       <c r="F669" t="str">
         <v>Kohei Otsuka</v>
@@ -30258,7 +30258,7 @@
         <v>./images/269/Small_Shrines_in_Imaichi_Nara.jpg</v>
       </c>
       <c r="E670" t="str">
-        <v>2016/05/05 16:16:10</v>
+        <v>2016-05-05T16:16:10</v>
       </c>
       <c r="F670" t="str">
         <v>Kohei Otsuka</v>
@@ -30284,7 +30284,7 @@
         <v>./images/270/Tsukihi_Jinja_Nara.jpg</v>
       </c>
       <c r="E671" t="str">
-        <v>2015/09/20 17:42:16</v>
+        <v>2015-09-20T17:42:16</v>
       </c>
       <c r="F671" t="str">
         <v>Kohei Otsuka</v>
@@ -30310,7 +30310,7 @@
         <v>./images/271/Wayside_Shrine_In_Nara_NishiKitsuji.jpg</v>
       </c>
       <c r="E672" t="str">
-        <v>2016/07/22 15:27:37</v>
+        <v>2016-07-22T15:27:37</v>
       </c>
       <c r="F672" t="str">
         <v>Kohei Otsuka</v>
@@ -30336,7 +30336,7 @@
         <v>./images/272/ishidoro_and_jizo.jpg</v>
       </c>
       <c r="E673" t="str">
-        <v>2017/06/17 09:07:45</v>
+        <v>2017-06-17T09:07:45</v>
       </c>
       <c r="F673" t="str">
         <v>Kohei Otsuka</v>
@@ -30362,7 +30362,7 @@
         <v>./images/272/ishidoro_and_jizo2.jpg</v>
       </c>
       <c r="E674" t="str">
-        <v>2017/06/17 09:08:24</v>
+        <v>2017-06-17T09:08:24</v>
       </c>
       <c r="F674" t="str">
         <v>Kohei Otsuka</v>
@@ -30388,7 +30388,7 @@
         <v>./images/272/jizo_left_most.jpg</v>
       </c>
       <c r="E675" t="str">
-        <v>2017/06/17 09:07:50</v>
+        <v>2017-06-17T09:07:50</v>
       </c>
       <c r="F675" t="str">
         <v>Kohei Otsuka</v>
@@ -30414,7 +30414,7 @@
         <v>./images/272/jizo_at_backward.jpg</v>
       </c>
       <c r="E676" t="str">
-        <v>2017/06/17 09:08:02</v>
+        <v>2017-06-17T09:08:02</v>
       </c>
       <c r="F676" t="str">
         <v>Kohei Otsuka</v>
@@ -30440,7 +30440,7 @@
         <v>./images/273/kidera_jizodo_jizobon.jpg</v>
       </c>
       <c r="E677" t="str">
-        <v>2019/07/23 11:41:30</v>
+        <v>2019-07-23T11:41:30</v>
       </c>
       <c r="F677" t="str">
         <v>Kohei Otsuka</v>
@@ -30466,7 +30466,7 @@
         <v>./images/273/kidera_jizodo_inside.jpg</v>
       </c>
       <c r="E678" t="str">
-        <v>2019/07/23 11:41:42</v>
+        <v>2019-07-23T11:41:42</v>
       </c>
       <c r="F678" t="str">
         <v>Kohei Otsuka</v>
@@ -30492,7 +30492,7 @@
         <v>./images/274/minamikidera_jizodo.jpg</v>
       </c>
       <c r="E679" t="str">
-        <v>2018/06/22 09:26:10</v>
+        <v>2018-06-22T09:26:10</v>
       </c>
       <c r="F679" t="str">
         <v>Kohei Otsuka</v>
@@ -30518,7 +30518,7 @@
         <v>./images/274/minamikidera_jizodo_inside.jpg</v>
       </c>
       <c r="E680" t="str">
-        <v>2018/06/22 09:25:57</v>
+        <v>2018-06-22T09:25:57</v>
       </c>
       <c r="F680" t="str">
         <v>Kohei Otsuka</v>
@@ -30544,7 +30544,7 @@
         <v>./images/547/umitsukuri_inari.jpg</v>
       </c>
       <c r="E681" t="str">
-        <v>2019/10/18 13:01:56</v>
+        <v>2019-10-18T13:01:56</v>
       </c>
       <c r="F681" t="str">
         <v>Kohei Otsuka</v>
@@ -30570,7 +30570,7 @@
         <v>./images/547/umitsukuri_inari_torii.jpg</v>
       </c>
       <c r="E682" t="str">
-        <v>2019/10/18 13:01:00</v>
+        <v>2019-10-18T13:01:00</v>
       </c>
       <c r="F682" t="str">
         <v>Kohei Otsuka</v>
@@ -30596,7 +30596,7 @@
         <v>./images/547/umitsukuri_inari_inside.jpg</v>
       </c>
       <c r="E683" t="str">
-        <v>2019/10/18 13:01:20</v>
+        <v>2019-10-18T13:01:20</v>
       </c>
       <c r="F683" t="str">
         <v>Kohei Otsuka</v>
@@ -30622,7 +30622,7 @@
         <v>./images/174/horidashi_jizo_up.jpg</v>
       </c>
       <c r="E684" t="str">
-        <v>2019/07/23 10:08:39</v>
+        <v>2019-07-23T10:08:39</v>
       </c>
       <c r="F684" t="str">
         <v>Kohei Otsuka</v>
@@ -30648,7 +30648,7 @@
         <v>./images/174/horidashi_jizo.jpg</v>
       </c>
       <c r="E685" t="str">
-        <v>2019/07/23 10:10:26</v>
+        <v>2019-07-23T10:10:26</v>
       </c>
       <c r="F685" t="str">
         <v>Kohei Otsuka</v>
@@ -30674,7 +30674,7 @@
         <v>./images/22/gangojicho_jizo.jpg</v>
       </c>
       <c r="E686" t="str">
-        <v>2017/03/18 14:13:10</v>
+        <v>2017-03-18T14:13:10</v>
       </c>
       <c r="F686" t="str">
         <v>Kohei Otsuka</v>
@@ -30700,7 +30700,7 @@
         <v>./images/214/hakusan_jinja_from_ne.jpg</v>
       </c>
       <c r="E687" t="str">
-        <v>2019/11/21 15:36:30</v>
+        <v>2019-11-21T15:36:30</v>
       </c>
       <c r="F687" t="str">
         <v>Kohei Otsuka</v>
@@ -30726,7 +30726,7 @@
         <v>./images/214/hakusan_jinja_torii.jpg</v>
       </c>
       <c r="E688" t="str">
-        <v>2017/03/18 14:13:22</v>
+        <v>2017-03-18T14:13:22</v>
       </c>
       <c r="F688" t="str">
         <v>Kohei Otsuka</v>
@@ -30752,7 +30752,7 @@
         <v>./images/232/kotai_jingu_from_l.jpg</v>
       </c>
       <c r="E689" t="str">
-        <v>2017/03/18 14:28:32</v>
+        <v>2017-03-18T14:28:32</v>
       </c>
       <c r="F689" t="str">
         <v>Kohei Otsuka</v>
@@ -30778,7 +30778,7 @@
         <v>./images/232/kotai_jingu_from_r.jpg</v>
       </c>
       <c r="E690" t="str">
-        <v>2017/03/18 14:28:38</v>
+        <v>2017-03-18T14:28:38</v>
       </c>
       <c r="F690" t="str">
         <v>Kohei Otsuka</v>
@@ -30804,7 +30804,7 @@
         <v>./images/232/kotai_jingu_2019.jpg</v>
       </c>
       <c r="E691" t="str">
-        <v>2019/12/20 00:58:21</v>
+        <v>2019-12-20T00:58:21</v>
       </c>
       <c r="F691" t="str">
         <v>Kohei Otsuka</v>
@@ -30830,7 +30830,7 @@
         <v>./images/548/eyabashi_jizo.jpg</v>
       </c>
       <c r="E692" t="str">
-        <v>2017/12/22 10:42:48</v>
+        <v>2017-12-22T10:42:48</v>
       </c>
       <c r="F692" t="str">
         <v>Kohei Otsuka</v>
@@ -30856,7 +30856,7 @@
         <v>./images/548/eyabashi_jizo_up_2017.jpg</v>
       </c>
       <c r="E693" t="str">
-        <v>2017/12/22 10:40:12</v>
+        <v>2017-12-22T10:40:12</v>
       </c>
       <c r="F693" t="str">
         <v>Kohei Otsuka</v>
@@ -30882,7 +30882,7 @@
         <v>./images/548/eyabashi_jizo_up_2019.jpg</v>
       </c>
       <c r="E694" t="str">
-        <v>2019/11/22 09:19:48</v>
+        <v>2019-11-22T09:19:48</v>
       </c>
       <c r="F694" t="str">
         <v>Kohei Otsuka</v>
@@ -30908,7 +30908,7 @@
         <v>./images/17/izakawa_jizo_2019.jpg</v>
       </c>
       <c r="E695" t="str">
-        <v>2019/07/23 12:49:55</v>
+        <v>2019-07-23T12:49:55</v>
       </c>
       <c r="F695" t="str">
         <v>Kohei Otsuka</v>
@@ -30934,7 +30934,7 @@
         <v>./images/549/uneme_jizo.jpg</v>
       </c>
       <c r="E696" t="str">
-        <v>2019/01/18 14:17:54</v>
+        <v>2019-01-18T14:17:54</v>
       </c>
       <c r="F696" t="str">
         <v>Kohei Otsuka</v>
@@ -30960,7 +30960,7 @@
         <v>./images/550/jizo_near_yoshidaya.jpg</v>
       </c>
       <c r="E697" t="str">
-        <v>2019/01/18 14:19:32</v>
+        <v>2019-01-18T14:19:32</v>
       </c>
       <c r="F697" t="str">
         <v>Kohei Otsuka</v>
@@ -30986,7 +30986,7 @@
         <v>./images/549/9stories_pagoda.jpg</v>
       </c>
       <c r="E698" t="str">
-        <v>2019/01/18 14:17:48</v>
+        <v>2019-01-18T14:17:48</v>
       </c>
       <c r="F698" t="str">
         <v>Kohei Otsuka</v>
@@ -31012,7 +31012,7 @@
         <v>./images/89/kawanaka_jizo.jpg</v>
       </c>
       <c r="E699" t="str">
-        <v>2018/09/21 15:08:11</v>
+        <v>2018-09-21T15:08:11</v>
       </c>
       <c r="F699" t="str">
         <v>Kohei Otsuka</v>
@@ -31038,7 +31038,7 @@
         <v>./images/89/kawanaka_jizo_inside.jpg</v>
       </c>
       <c r="E700" t="str">
-        <v>2018/09/21 15:08:19</v>
+        <v>2018-09-21T15:08:19</v>
       </c>
       <c r="F700" t="str">
         <v>Kohei Otsuka</v>
@@ -31064,7 +31064,7 @@
         <v>./images/89/kawanakaj_jizo_right.jpg</v>
       </c>
       <c r="E701" t="str">
-        <v>2018/09/21 15:08:30</v>
+        <v>2018-09-21T15:08:30</v>
       </c>
       <c r="F701" t="str">
         <v>Kohei Otsuka</v>
@@ -31090,7 +31090,7 @@
         <v>./images/551/higashisasahoko_benzaiten.jpg</v>
       </c>
       <c r="E702" t="str">
-        <v>2018/09/21 15:10:15</v>
+        <v>2018-09-21T15:10:15</v>
       </c>
       <c r="F702" t="str">
         <v>Kohei Otsuka</v>
@@ -31116,7 +31116,7 @@
         <v>./images/551/higashisasahoko_benzaiten_inside.jpg</v>
       </c>
       <c r="E703" t="str">
-        <v>2018/09/21 15:10:24</v>
+        <v>2018-09-21T15:10:24</v>
       </c>
       <c r="F703" t="str">
         <v>Kohei Otsuka</v>
@@ -31142,7 +31142,7 @@
         <v>./images/551/higashisasahoko_benzaiten_shingon.jpg</v>
       </c>
       <c r="E704" t="str">
-        <v>2018/09/21 15:10:37</v>
+        <v>2018-09-21T15:10:37</v>
       </c>
       <c r="F704" t="str">
         <v>Kohei Otsuka</v>
@@ -31168,7 +31168,7 @@
         <v>./images/43/karamomocho_jizo_stones.jpg</v>
       </c>
       <c r="E705" t="str">
-        <v>2020/06/27 14:22:55</v>
+        <v>2020-06-27T14:22:55</v>
       </c>
       <c r="F705" t="str">
         <v>Kohei Otsuka</v>
@@ -31194,7 +31194,7 @@
         <v>./images/43/karamomocho_jizodo_stones.jpg</v>
       </c>
       <c r="E706" t="str">
-        <v>2020/06/27 14:22:47</v>
+        <v>2020-06-27T14:22:47</v>
       </c>
       <c r="F706" t="str">
         <v>Kohei Otsuka</v>
@@ -31220,7 +31220,7 @@
         <v>./images/552/saikujo_jizo_stone_in_wall.jpg</v>
       </c>
       <c r="E707" t="str">
-        <v>2020/06/27 14:17:59</v>
+        <v>2020-06-27T14:17:59</v>
       </c>
       <c r="F707" t="str">
         <v>Kohei Otsuka</v>
@@ -31246,7 +31246,7 @@
         <v>./images/552/saikujo_jizodo_in_wall.jpg</v>
       </c>
       <c r="E708" t="str">
-        <v>2020/06/27 14:17:54</v>
+        <v>2020-06-27T14:17:54</v>
       </c>
       <c r="F708" t="str">
         <v>Kohei Otsuka</v>
@@ -31272,7 +31272,7 @@
         <v>./images/553/saikujo_jizos.jpg</v>
       </c>
       <c r="E709" t="str">
-        <v>2020/06/27 14:09:57</v>
+        <v>2020-06-27T14:09:57</v>
       </c>
       <c r="F709" t="str">
         <v>Kohei Otsuka</v>
@@ -31298,7 +31298,7 @@
         <v>./images/553/saikujo_jizos_back.jpg</v>
       </c>
       <c r="E710" t="str">
-        <v>2020/06/27 14:10:17</v>
+        <v>2020-06-27T14:10:17</v>
       </c>
       <c r="F710" t="str">
         <v>Kohei Otsuka</v>
@@ -31324,7 +31324,7 @@
         <v>./images/553/saikujo_jizos_left.jpg</v>
       </c>
       <c r="E711" t="str">
-        <v>2020/06/27 14:10:07</v>
+        <v>2020-06-27T14:10:07</v>
       </c>
       <c r="F711" t="str">
         <v>Kohei Otsuka</v>
@@ -31350,7 +31350,7 @@
         <v>./images/553/saikujo_jizos_right.jpg</v>
       </c>
       <c r="E712" t="str">
-        <v>2020/06/27 14:10:02</v>
+        <v>2020-06-27T14:10:02</v>
       </c>
       <c r="F712" t="str">
         <v>Kohei Otsuka</v>
@@ -31376,7 +31376,7 @@
         <v>./images/554/tatsuichi_dainichi_haiden.jpg</v>
       </c>
       <c r="E713" t="str">
-        <v>2020/06/27 15:11:00</v>
+        <v>2020-06-27T15:11:00</v>
       </c>
       <c r="F713" t="str">
         <v>Kohei Otsuka</v>
@@ -31402,7 +31402,7 @@
         <v>./images/554/tatsuichi_dainichi_sekibutsu.jpg</v>
       </c>
       <c r="E714" t="str">
-        <v>2020/06/27 15:10:36</v>
+        <v>2020-06-27T15:10:36</v>
       </c>
       <c r="F714" t="str">
         <v>Kohei Otsuka</v>
@@ -31428,7 +31428,7 @@
         <v>./images/554/tatsuichi_dainichi_stone.jpg</v>
       </c>
       <c r="E715" t="str">
-        <v>2020/06/27 15:11:21</v>
+        <v>2020-06-27T15:11:21</v>
       </c>
       <c r="F715" t="str">
         <v>Kohei Otsuka</v>
@@ -31454,7 +31454,7 @@
         <v>./images/555/tatsuichi_jizos.jpg</v>
       </c>
       <c r="E716" t="str">
-        <v>2020/06/27 14:08:23</v>
+        <v>2020-06-27T14:08:23</v>
       </c>
       <c r="F716" t="str">
         <v>Kohei Otsuka</v>
@@ -31480,7 +31480,7 @@
         <v>./images/555/tatsuichi_jizos_back.jpg</v>
       </c>
       <c r="E717" t="str">
-        <v>2020/06/27 14:08:32</v>
+        <v>2020-06-27T14:08:32</v>
       </c>
       <c r="F717" t="str">
         <v>Kohei Otsuka</v>
@@ -31506,7 +31506,7 @@
         <v>./images/555/tatsuichi_jizos_left.jpg</v>
       </c>
       <c r="E718" t="str">
-        <v>2020/06/27 14:08:13</v>
+        <v>2020-06-27T14:08:13</v>
       </c>
       <c r="F718" t="str">
         <v>Kohei Otsuka</v>
@@ -31532,7 +31532,7 @@
         <v>./images/555/tatsuichi_jizos_right.jpg</v>
       </c>
       <c r="E719" t="str">
-        <v>2020/06/27 14:08:09</v>
+        <v>2020-06-27T14:08:09</v>
       </c>
       <c r="F719" t="str">
         <v>Kohei Otsuka</v>
@@ -31558,7 +31558,7 @@
         <v>./images/556/saho_akishino_jizo.jpg</v>
       </c>
       <c r="E720" t="str">
-        <v>2020/06/27 14:37:24</v>
+        <v>2020-06-27T14:37:24</v>
       </c>
       <c r="F720" t="str">
         <v>Kohei Otsuka</v>
@@ -31584,7 +31584,7 @@
         <v>./images/556/saho_akishino_jizo_left.jpg</v>
       </c>
       <c r="E721" t="str">
-        <v>2020/06/27 14:37:27</v>
+        <v>2020-06-27T14:37:27</v>
       </c>
       <c r="F721" t="str">
         <v>Kohei Otsuka</v>
@@ -31610,7 +31610,7 @@
         <v>./images/556/saho_akishino_jizo_right.jpg</v>
       </c>
       <c r="E722" t="str">
-        <v>2020/06/27 14:37:30</v>
+        <v>2020-06-27T14:37:30</v>
       </c>
       <c r="F722" t="str">
         <v>Kohei Otsuka</v>
@@ -31636,7 +31636,7 @@
         <v>./images/556/saho_akishino_jizodo.jpg</v>
       </c>
       <c r="E723" t="str">
-        <v>2020/06/27 14:37:13</v>
+        <v>2020-06-27T14:37:13</v>
       </c>
       <c r="F723" t="str">
         <v>Kohei Otsuka</v>
@@ -31662,7 +31662,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_fudo.jpg</v>
       </c>
       <c r="E724" t="str">
-        <v>2020/06/27 14:12:41</v>
+        <v>2020-06-27T14:12:41</v>
       </c>
       <c r="F724" t="str">
         <v>Kohei Otsuka</v>
@@ -31688,7 +31688,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_jizodo.jpg</v>
       </c>
       <c r="E725" t="str">
-        <v>2020/06/27 14:12:21</v>
+        <v>2020-06-27T14:12:21</v>
       </c>
       <c r="F725" t="str">
         <v>Kohei Otsuka</v>
@@ -31714,7 +31714,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_left.jpg</v>
       </c>
       <c r="E726" t="str">
-        <v>2020/06/27 14:12:48</v>
+        <v>2020-06-27T14:12:48</v>
       </c>
       <c r="F726" t="str">
         <v>Kohei Otsuka</v>
@@ -31740,7 +31740,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_path_east.jpg</v>
       </c>
       <c r="E727" t="str">
-        <v>2020/06/27 14:12:28</v>
+        <v>2020-06-27T14:12:28</v>
       </c>
       <c r="F727" t="str">
         <v>Kohei Otsuka</v>
@@ -31766,7 +31766,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_path_west.jpg</v>
       </c>
       <c r="E728" t="str">
-        <v>2020/06/27 14:12:32</v>
+        <v>2020-06-27T14:12:32</v>
       </c>
       <c r="F728" t="str">
         <v>Kohei Otsuka</v>
@@ -31792,7 +31792,7 @@
         <v>./images/557/saikujo_fudo_or_jizo_right.jpg</v>
       </c>
       <c r="E729" t="str">
-        <v>2020/06/27 14:12:45</v>
+        <v>2020-06-27T14:12:45</v>
       </c>
       <c r="F729" t="str">
         <v>Kohei Otsuka</v>
@@ -31818,7 +31818,7 @@
         <v>./images/558/tatsuichi_dainichi_jizo.jpg</v>
       </c>
       <c r="E730" t="str">
-        <v>2020/06/27 15:10:46</v>
+        <v>2020-06-27T15:10:46</v>
       </c>
       <c r="F730" t="str">
         <v>Kohei Otsuka</v>
@@ -31844,7 +31844,7 @@
         <v>./images/65/karamomocho_white_jizo.jpg</v>
       </c>
       <c r="E731" t="str">
-        <v>2020/06/27 14:26:57</v>
+        <v>2020-06-27T14:26:57</v>
       </c>
       <c r="F731" t="str">
         <v>Kohei Otsuka</v>
@@ -31870,7 +31870,7 @@
         <v>./images/65/karamomocho_white_jizodo_new.jpg</v>
       </c>
       <c r="E732" t="str">
-        <v>2020/06/27 14:26:47</v>
+        <v>2020-06-27T14:26:47</v>
       </c>
       <c r="F732" t="str">
         <v>Kohei Otsuka</v>
@@ -31896,7 +31896,7 @@
         <v>./images/68/karamomocho_jizo.jpg</v>
       </c>
       <c r="E733" t="str">
-        <v>2020/06/27 14:29:44</v>
+        <v>2020-06-27T14:29:44</v>
       </c>
       <c r="F733" t="str">
         <v>Kohei Otsuka</v>
@@ -31922,7 +31922,7 @@
         <v>./images/68/karamomocho_jizodo.jpg</v>
       </c>
       <c r="E734" t="str">
-        <v>2020/06/27 14:29:32</v>
+        <v>2020-06-27T14:29:32</v>
       </c>
       <c r="F734" t="str">
         <v>Kohei Otsuka</v>
@@ -31948,7 +31948,7 @@
         <v>./images/109/nakasujicho_parking_jizo.jpg</v>
       </c>
       <c r="E735" t="str">
-        <v>2020/06/27 11:10:07</v>
+        <v>2020-06-27T11:10:07</v>
       </c>
       <c r="F735" t="str">
         <v>Kohei Otsuka</v>
@@ -31974,7 +31974,7 @@
         <v>./images/109/nakasujicho_parking_jizo_inside.jpg</v>
       </c>
       <c r="E736" t="str">
-        <v>2020/06/27 11:10:16</v>
+        <v>2020-06-27T11:10:16</v>
       </c>
       <c r="F736" t="str">
         <v>Kohei Otsuka</v>
@@ -32000,7 +32000,7 @@
         <v>./images/146/kango_jinja_jizo.jpg</v>
       </c>
       <c r="E737" t="str">
-        <v>2020/06/27 11:15:07</v>
+        <v>2020-06-27T11:15:07</v>
       </c>
       <c r="F737" t="str">
         <v>Kohei Otsuka</v>
@@ -32026,7 +32026,7 @@
         <v>./images/152/daianji_4_w_jizodo_inside.jpg</v>
       </c>
       <c r="E738" t="str">
-        <v>2020/06/27 15:45:18</v>
+        <v>2020-06-27T15:45:18</v>
       </c>
       <c r="F738" t="str">
         <v>Kohei Otsuka</v>
@@ -32052,7 +32052,7 @@
         <v>./images/152/daianji_4_w_jizos.jpg</v>
       </c>
       <c r="E739" t="str">
-        <v>2020/06/27 15:45:02</v>
+        <v>2020-06-27T15:45:02</v>
       </c>
       <c r="F739" t="str">
         <v>Kohei Otsuka</v>
@@ -32078,7 +32078,7 @@
         <v>./images/152/daianji_4_w_new_jizo.jpg</v>
       </c>
       <c r="E740" t="str">
-        <v>2020/06/27 15:45:07</v>
+        <v>2020-06-27T15:45:07</v>
       </c>
       <c r="F740" t="str">
         <v>Kohei Otsuka</v>
@@ -32104,7 +32104,7 @@
         <v>./images/174/horidashi_jizo_izodo.jpg</v>
       </c>
       <c r="E741" t="str">
-        <v>2020/06/27 13:15:52</v>
+        <v>2020-06-27T13:15:52</v>
       </c>
       <c r="F741" t="str">
         <v>Kohei Otsuka</v>
@@ -32130,7 +32130,7 @@
         <v>./images/183/tokujo_daishido.jpg</v>
       </c>
       <c r="E742" t="str">
-        <v>2020/06/27 13:59:59</v>
+        <v>2020-06-27T13:59:59</v>
       </c>
       <c r="F742" t="str">
         <v>Kohei Otsuka</v>
@@ -32156,7 +32156,7 @@
         <v>./images/183/tokujo_daishido_jizo_inside.jpg</v>
       </c>
       <c r="E743" t="str">
-        <v>2020/06/27 14:00:44</v>
+        <v>2020-06-27T14:00:44</v>
       </c>
       <c r="F743" t="str">
         <v>Kohei Otsuka</v>
@@ -32182,7 +32182,7 @@
         <v>./images/183/tokujo_daishido_jizo_left.jpg</v>
       </c>
       <c r="E744" t="str">
-        <v>2020/06/27 14:00:09</v>
+        <v>2020-06-27T14:00:09</v>
       </c>
       <c r="F744" t="str">
         <v>Kohei Otsuka</v>
@@ -32208,7 +32208,7 @@
         <v>./images/183/tokujo_daishido_jizo_right.jpg</v>
       </c>
       <c r="E745" t="str">
-        <v>2020/06/27 14:00:06</v>
+        <v>2020-06-27T14:00:06</v>
       </c>
       <c r="F745" t="str">
         <v>Kohei Otsuka</v>
@@ -32234,7 +32234,7 @@
         <v>./images/199/kainotsuka_myogo_lost.jpg</v>
       </c>
       <c r="E746" t="str">
-        <v>2020/06/27 13:28:42</v>
+        <v>2020-06-27T13:28:42</v>
       </c>
       <c r="F746" t="str">
         <v>Kohei Otsuka</v>
@@ -32260,7 +32260,7 @@
         <v>./images/234/kainotsuka_kunugi_shrine.jpg</v>
       </c>
       <c r="E747" t="str">
-        <v>2020/06/27 13:21:23</v>
+        <v>2020-06-27T13:21:23</v>
       </c>
       <c r="F747" t="str">
         <v>Kohei Otsuka</v>
@@ -32286,7 +32286,7 @@
         <v>./images/239/tokujo_motoiwashimizu_honden.jpg</v>
       </c>
       <c r="E748" t="str">
-        <v>2020/06/27 14:01:08</v>
+        <v>2020-06-27T14:01:08</v>
       </c>
       <c r="F748" t="str">
         <v>Kohei Otsuka</v>
@@ -32312,7 +32312,7 @@
         <v>./images/239/tokujo_motoiwashimizu_torii.jpg</v>
       </c>
       <c r="E749" t="str">
-        <v>2020/06/27 14:00:58</v>
+        <v>2020-06-27T14:00:58</v>
       </c>
       <c r="F749" t="str">
         <v>Kohei Otsuka</v>
@@ -32338,7 +32338,7 @@
         <v>./images/251/kainotsuka_maybe_nogami_202006.jpg</v>
       </c>
       <c r="E750" t="str">
-        <v>2020/06/27 13:31:49</v>
+        <v>2020-06-27T13:31:49</v>
       </c>
       <c r="F750" t="str">
         <v>Kohei Otsuka</v>
@@ -32364,7 +32364,7 @@
         <v>./images/254/suihaku_taishin_2020.jpg</v>
       </c>
       <c r="E751" t="str">
-        <v>2020/06/27 11:07:31</v>
+        <v>2020-06-27T11:07:31</v>
       </c>
       <c r="F751" t="str">
         <v>Kohei Otsuka</v>
@@ -32390,7 +32390,7 @@
         <v>./images/559/satsuma_jizoson.jpg</v>
       </c>
       <c r="E752" t="str">
-        <v>2020/06/27 16:16:51</v>
+        <v>2020-06-27T16:16:51</v>
       </c>
       <c r="F752" t="str">
         <v>Kohei Otsuka</v>
@@ -32416,7 +32416,7 @@
         <v>./images/559/satsuma_jizoson_inside.jpg</v>
       </c>
       <c r="E753" t="str">
-        <v>2020/06/27 16:17:06</v>
+        <v>2020-06-27T16:17:06</v>
       </c>
       <c r="F753" t="str">
         <v>Kohei Otsuka</v>
@@ -32442,7 +32442,7 @@
         <v>./images/56/shukuin_new_jizodo.jpg</v>
       </c>
       <c r="E754" t="str">
-        <v>2020/06/27 10:53:14</v>
+        <v>2020-06-27T10:53:14</v>
       </c>
       <c r="F754" t="str">
         <v>Kohei Otsuka</v>
@@ -32468,7 +32468,7 @@
         <v>./images/56/shukuin_new_jizodo_inside.jpg</v>
       </c>
       <c r="E755" t="str">
-        <v>2020/06/27 10:53:25</v>
+        <v>2020-06-27T10:53:25</v>
       </c>
       <c r="F755" t="str">
         <v>Kohei Otsuka</v>
@@ -32494,7 +32494,7 @@
         <v>./images/560/minami_kyobate_koyasu_enmei_jizo.jpg</v>
       </c>
       <c r="E756" t="str">
-        <v>2020/06/27 15:33:16</v>
+        <v>2020-06-27T15:33:16</v>
       </c>
       <c r="F756" t="str">
         <v>Kohei Otsuka</v>
@@ -32520,7 +32520,7 @@
         <v>./images/560/minami_kyobate_koyasu_enmei_jizo_center.jpg</v>
       </c>
       <c r="E757" t="str">
-        <v>2020/06/27 15:33:46</v>
+        <v>2020-06-27T15:33:46</v>
       </c>
       <c r="F757" t="str">
         <v>Kohei Otsuka</v>
@@ -32546,7 +32546,7 @@
         <v>./images/560/minami_kyobate_koyasu_enmei_jizo_left.jpg</v>
       </c>
       <c r="E758" t="str">
-        <v>2020/06/27 15:33:34</v>
+        <v>2020-06-27T15:33:34</v>
       </c>
       <c r="F758" t="str">
         <v>Kohei Otsuka</v>
@@ -32572,7 +32572,7 @@
         <v>./images/560/minami_kyobate_koyasu_enmei_jizo_right.jpg</v>
       </c>
       <c r="E759" t="str">
-        <v>2020/06/27 15:33:28</v>
+        <v>2020-06-27T15:33:28</v>
       </c>
       <c r="F759" t="str">
         <v>Kohei Otsuka</v>
@@ -32598,7 +32598,7 @@
         <v>./images/561/kyobate_nogami.jpg</v>
       </c>
       <c r="E760" t="str">
-        <v>2020/06/27 15:29:58</v>
+        <v>2020-06-27T15:29:58</v>
       </c>
       <c r="F760" t="str">
         <v>Kohei Otsuka</v>
@@ -32624,7 +32624,7 @@
         <v>./images/562/karamomo_bunka_2_myogo.jpg</v>
       </c>
       <c r="E761" t="str">
-        <v>2020/06/27 15:08:17</v>
+        <v>2020-06-27T15:08:17</v>
       </c>
       <c r="F761" t="str">
         <v>Kohei Otsuka</v>
@@ -32650,7 +32650,7 @@
         <v>./images/562/karamomo_bunka_2_myogo_zoom.jpg</v>
       </c>
       <c r="E762" t="str">
-        <v>2020/06/27 15:08:20</v>
+        <v>2020-06-27T15:08:20</v>
       </c>
       <c r="F762" t="str">
         <v>Kohei Otsuka</v>
@@ -32676,7 +32676,7 @@
         <v>./images/563/minami_kyobate_myogo_sekihi.jpg</v>
       </c>
       <c r="E763" t="str">
-        <v>2020/06/27 13:37:33</v>
+        <v>2020-06-27T13:37:33</v>
       </c>
       <c r="F763" t="str">
         <v>Kohei Otsuka</v>
@@ -32702,7 +32702,7 @@
         <v>./images/563/minami_kyobate_myogo_sekihi_do.jpg</v>
       </c>
       <c r="E764" t="str">
-        <v>2020/06/27 13:37:18</v>
+        <v>2020-06-27T13:37:18</v>
       </c>
       <c r="F764" t="str">
         <v>Kohei Otsuka</v>
@@ -32728,7 +32728,7 @@
         <v>./images/564/sanjo_sakae_jizoson.jpg</v>
       </c>
       <c r="E765" t="str">
-        <v>2020/06/27 12:47:48</v>
+        <v>2020-06-27T12:47:48</v>
       </c>
       <c r="F765" t="str">
         <v>Kohei Otsuka</v>
@@ -32754,7 +32754,7 @@
         <v>./images/564/sanjo_sakae_jizoson_center.jpg</v>
       </c>
       <c r="E766" t="str">
-        <v>2020/06/27 12:48:08</v>
+        <v>2020-06-27T12:48:08</v>
       </c>
       <c r="F766" t="str">
         <v>Kohei Otsuka</v>
@@ -32780,7 +32780,7 @@
         <v>./images/564/sanjo_sakae_jizoson_goriyaku.jpg</v>
       </c>
       <c r="E767" t="str">
-        <v>2020/06/27 12:48:24</v>
+        <v>2020-06-27T12:48:24</v>
       </c>
       <c r="F767" t="str">
         <v>Kohei Otsuka</v>
@@ -32806,7 +32806,7 @@
         <v>./images/564/sanjo_sakae_jizoson_inside.jpg</v>
       </c>
       <c r="E768" t="str">
-        <v>2020/06/27 12:48:02</v>
+        <v>2020-06-27T12:48:02</v>
       </c>
       <c r="F768" t="str">
         <v>Kohei Otsuka</v>
@@ -32832,7 +32832,7 @@
         <v>./images/564/sanjo_sakae_jizoson_left.jpg</v>
       </c>
       <c r="E769" t="str">
-        <v>2020/06/27 12:48:12</v>
+        <v>2020-06-27T12:48:12</v>
       </c>
       <c r="F769" t="str">
         <v>Kohei Otsuka</v>
@@ -32858,7 +32858,7 @@
         <v>./images/564/sanjo_sakae_jizoson_right.jpg</v>
       </c>
       <c r="E770" t="str">
-        <v>2020/06/27 12:48:15</v>
+        <v>2020-06-27T12:48:15</v>
       </c>
       <c r="F770" t="str">
         <v>Kohei Otsuka</v>
@@ -32884,7 +32884,7 @@
         <v>./images/62/tokujo_nichiro_jizo.jpg</v>
       </c>
       <c r="E771" t="str">
-        <v>2020/06/27 13:54:39</v>
+        <v>2020-06-27T13:54:39</v>
       </c>
       <c r="F771" t="str">
         <v>Kohei Otsuka</v>
@@ -32910,7 +32910,7 @@
         <v>./images/62/tokujo_nichiro_jizo_door.jpg</v>
       </c>
       <c r="E772" t="str">
-        <v>2020/06/27 13:55:06</v>
+        <v>2020-06-27T13:55:06</v>
       </c>
       <c r="F772" t="str">
         <v>Kohei Otsuka</v>
@@ -32936,7 +32936,7 @@
         <v>./images/62/tokujo_nichiro_jizo_inside1.jpg</v>
       </c>
       <c r="E773" t="str">
-        <v>2020/06/27 13:55:19</v>
+        <v>2020-06-27T13:55:19</v>
       </c>
       <c r="F773" t="str">
         <v>Kohei Otsuka</v>
@@ -32962,7 +32962,7 @@
         <v>./images/62/tokujo_nichiro_jizo_inside2.jpg</v>
       </c>
       <c r="E774" t="str">
-        <v>2020/06/27 13:55:39</v>
+        <v>2020-06-27T13:55:39</v>
       </c>
       <c r="F774" t="str">
         <v>Kohei Otsuka</v>
@@ -32988,7 +32988,7 @@
         <v>./images/63/tokujo_jizo_low_height.jpg</v>
       </c>
       <c r="E775" t="str">
-        <v>2020/06/27 14:02:35</v>
+        <v>2020-06-27T14:02:35</v>
       </c>
       <c r="F775" t="str">
         <v>Kohei Otsuka</v>
@@ -33014,7 +33014,7 @@
         <v>./images/63/tokujo_jizo_low_height_inside.jpg</v>
       </c>
       <c r="E776" t="str">
-        <v>2020/06/27 14:02:42</v>
+        <v>2020-06-27T14:02:42</v>
       </c>
       <c r="F776" t="str">
         <v>Kohei Otsuka</v>
@@ -33040,7 +33040,7 @@
         <v>./images/66/tokujo_jizodo_high_height.jpg</v>
       </c>
       <c r="E777" t="str">
-        <v>2020/06/27 14:04:04</v>
+        <v>2020-06-27T14:04:04</v>
       </c>
       <c r="F777" t="str">
         <v>Kohei Otsuka</v>
@@ -33066,7 +33066,7 @@
         <v>./images/66/tokujo_jizodo_high_height_inside.jpg</v>
       </c>
       <c r="E778" t="str">
-        <v>2020/06/27 14:04:13</v>
+        <v>2020-06-27T14:04:13</v>
       </c>
       <c r="F778" t="str">
         <v>Kohei Otsuka</v>
@@ -33092,7 +33092,7 @@
         <v>./images/70/daianji_4_sw_jizodo.jpg</v>
       </c>
       <c r="E779" t="str">
-        <v>2020/06/27 15:54:28</v>
+        <v>2020-06-27T15:54:28</v>
       </c>
       <c r="F779" t="str">
         <v>Kohei Otsuka</v>
@@ -33118,7 +33118,7 @@
         <v>./images/70/daianji_4_sw_jizodo_inside_left.jpg</v>
       </c>
       <c r="E780" t="str">
-        <v>2020/06/27 15:54:35</v>
+        <v>2020-06-27T15:54:35</v>
       </c>
       <c r="F780" t="str">
         <v>Kohei Otsuka</v>
@@ -33144,7 +33144,7 @@
         <v>./images/70/daianji_4_sw_jizodo_inside_right.jpg</v>
       </c>
       <c r="E781" t="str">
-        <v>2020/06/27 15:54:40</v>
+        <v>2020-06-27T15:54:40</v>
       </c>
       <c r="F781" t="str">
         <v>Kohei Otsuka</v>
@@ -33170,7 +33170,7 @@
         <v>./images/71/daianji_4_nw_on_stream.jpg</v>
       </c>
       <c r="E782" t="str">
-        <v>2020/06/27 15:43:21</v>
+        <v>2020-06-27T15:43:21</v>
       </c>
       <c r="F782" t="str">
         <v>Kohei Otsuka</v>
@@ -33196,7 +33196,7 @@
         <v>./images/71/daianji_4_nw_on_stream_inside1.jpg</v>
       </c>
       <c r="E783" t="str">
-        <v>2020/06/27 15:43:44</v>
+        <v>2020-06-27T15:43:44</v>
       </c>
       <c r="F783" t="str">
         <v>Kohei Otsuka</v>
@@ -33222,7 +33222,7 @@
         <v>./images/71/daianji_4_nw_on_stream_inside2.jpg</v>
       </c>
       <c r="E784" t="str">
-        <v>2020/06/27 15:43:34</v>
+        <v>2020-06-27T15:43:34</v>
       </c>
       <c r="F784" t="str">
         <v>Kohei Otsuka</v>
@@ -33248,7 +33248,7 @@
         <v>./images/73/tokujo_raigoji_jizodo.jpg</v>
       </c>
       <c r="E785" t="str">
-        <v>2020/06/27 13:47:58</v>
+        <v>2020-06-27T13:47:58</v>
       </c>
       <c r="F785" t="str">
         <v>Kohei Otsuka</v>
@@ -33274,7 +33274,7 @@
         <v>./images/73/tokujo_raigoji_jizodo_inside.jpg</v>
       </c>
       <c r="E786" t="str">
-        <v>2020/06/27 13:48:16</v>
+        <v>2020-06-27T13:48:16</v>
       </c>
       <c r="F786" t="str">
         <v>Kohei Otsuka</v>
@@ -33300,7 +33300,7 @@
         <v>./images/83/kainotsuka_okage_jizo.jpg</v>
       </c>
       <c r="E787" t="str">
-        <v>2020/06/27 13:23:41</v>
+        <v>2020-06-27T13:23:41</v>
       </c>
       <c r="F787" t="str">
         <v>Kohei Otsuka</v>
@@ -33326,7 +33326,7 @@
         <v>./images/83/kainotsuka_okage_jizo_inside.jpg</v>
       </c>
       <c r="E788" t="str">
-        <v>2020/06/27 13:23:53</v>
+        <v>2020-06-27T13:23:53</v>
       </c>
       <c r="F788" t="str">
         <v>Kohei Otsuka</v>
@@ -33352,7 +33352,7 @@
         <v>./images/91/kainotsuka_kasuga_car_school_jizodo.jpg</v>
       </c>
       <c r="E789" t="str">
-        <v>2020/06/27 13:24:59</v>
+        <v>2020-06-27T13:24:59</v>
       </c>
       <c r="F789" t="str">
         <v>Kohei Otsuka</v>
@@ -33378,7 +33378,7 @@
         <v>./images/91/kainotsuka_kasuga_car_school_jizodo_inside.jpg</v>
       </c>
       <c r="E790" t="str">
-        <v>2020/06/27 13:25:11</v>
+        <v>2020-06-27T13:25:11</v>
       </c>
       <c r="F790" t="str">
         <v>Kohei Otsuka</v>
@@ -33404,7 +33404,7 @@
         <v>./images/568/zoshicho_enmei_jizo.jpg</v>
       </c>
       <c r="E791" t="str">
-        <v>2018/09/21 15:25:52</v>
+        <v>2018-09-21T15:25:52</v>
       </c>
       <c r="F791" t="str">
         <v>Kohei Otsuka</v>
@@ -33430,7 +33430,7 @@
         <v>./images/569/uenodan_hachiman_honden.jpg</v>
       </c>
       <c r="E792" t="str">
-        <v>2018/09/21 15:26:58</v>
+        <v>2018-09-21T15:26:58</v>
       </c>
       <c r="F792" t="str">
         <v>Kohei Otsuka</v>
@@ -33456,7 +33456,7 @@
         <v>./images/569/uenodan_hachiman_keidai.jpg</v>
       </c>
       <c r="E793" t="str">
-        <v>2018/09/21 15:27:24</v>
+        <v>2018-09-21T15:27:24</v>
       </c>
       <c r="F793" t="str">
         <v>Kohei Otsuka</v>
@@ -33482,7 +33482,7 @@
         <v>./images/569/uenodan_hachiman_torii.jpg</v>
       </c>
       <c r="E794" t="str">
-        <v>2018/09/21 15:26:46</v>
+        <v>2018-09-21T15:26:46</v>
       </c>
       <c r="F794" t="str">
         <v>Kohei Otsuka</v>
@@ -33508,7 +33508,7 @@
         <v>./images/570/zoshicho_daisho_jizodo.jpg</v>
       </c>
       <c r="E795" t="str">
-        <v>2018/09/21 16:08:14</v>
+        <v>2018-09-21T16:08:14</v>
       </c>
       <c r="F795" t="str">
         <v>Kohei Otsuka</v>
@@ -33534,7 +33534,7 @@
         <v>./images/570/zoshicho_daisho_jizodo_inside_big1.jpg</v>
       </c>
       <c r="E796" t="str">
-        <v>2018/09/21 16:08:43</v>
+        <v>2018-09-21T16:08:43</v>
       </c>
       <c r="F796" t="str">
         <v>Kohei Otsuka</v>
@@ -33560,7 +33560,7 @@
         <v>./images/570/zoshicho_daisho_jizodo_inside_big2.jpg</v>
       </c>
       <c r="E797" t="str">
-        <v>2018/09/21 16:08:30</v>
+        <v>2018-09-21T16:08:30</v>
       </c>
       <c r="F797" t="str">
         <v>Kohei Otsuka</v>
@@ -33586,7 +33586,7 @@
         <v>./images/570/zoshicho_daisho_jizodo_inside_small.jpg</v>
       </c>
       <c r="E798" t="str">
-        <v>2018/09/21 16:08:20</v>
+        <v>2018-09-21T16:08:20</v>
       </c>
       <c r="F798" t="str">
         <v>Kohei Otsuka</v>
@@ -33612,7 +33612,7 @@
         <v>./images/571/zoshicho_jizodo.jpg</v>
       </c>
       <c r="E799" t="str">
-        <v>2018/09/21 15:29:16</v>
+        <v>2018-09-21T15:29:16</v>
       </c>
       <c r="F799" t="str">
         <v>Kohei Otsuka</v>
@@ -33638,7 +33638,7 @@
         <v>./images/571/zoshicho_jizodo_inside.jpg</v>
       </c>
       <c r="E800" t="str">
-        <v>2018/09/21 15:29:26</v>
+        <v>2018-09-21T15:29:26</v>
       </c>
       <c r="F800" t="str">
         <v>Kohei Otsuka</v>
@@ -33664,7 +33664,7 @@
         <v>./images/572/zoshicho_yasaka_shrine.jpg</v>
       </c>
       <c r="E801" t="str">
-        <v>2018/09/21 15:45:13</v>
+        <v>2018-09-21T15:45:13</v>
       </c>
       <c r="F801" t="str">
         <v>Kohei Otsuka</v>
@@ -33690,7 +33690,7 @@
         <v>./images/572/zoshicho_yasaka_shrine_honden.jpg</v>
       </c>
       <c r="E802" t="str">
-        <v>2018/09/21 15:45:40</v>
+        <v>2018-09-21T15:45:40</v>
       </c>
       <c r="F802" t="str">
         <v>Kohei Otsuka</v>
@@ -33716,7 +33716,7 @@
         <v>./images/573/zoshicho_kotaku_jizo.jpg</v>
       </c>
       <c r="E803" t="str">
-        <v>2018/09/21 15:49:25</v>
+        <v>2018-09-21T15:49:25</v>
       </c>
       <c r="F803" t="str">
         <v>Kohei Otsuka</v>
@@ -33742,7 +33742,7 @@
         <v>./images/574/tegaicho_shiawase_jizo.jpg</v>
       </c>
       <c r="E804" t="str">
-        <v>2017/06/17 12:31:07</v>
+        <v>2017-06-17T12:31:07</v>
       </c>
       <c r="F804" t="str">
         <v>Kohei Otsuka</v>
@@ -33768,7 +33768,7 @@
         <v>./images/574/tegaicho_shiawase_jizo_honzon.jpg</v>
       </c>
       <c r="E805" t="str">
-        <v>2017/06/17 12:31:48</v>
+        <v>2017-06-17T12:31:48</v>
       </c>
       <c r="F805" t="str">
         <v>Kohei Otsuka</v>
@@ -33794,7 +33794,7 @@
         <v>./images/574/tegaicho_shiawase_jizo_inside.jpg</v>
       </c>
       <c r="E806" t="str">
-        <v>2017/06/17 12:31:36</v>
+        <v>2017-06-17T12:31:36</v>
       </c>
       <c r="F806" t="str">
         <v>Kohei Otsuka</v>
@@ -33820,7 +33820,7 @@
         <v>./images/574/tegaicho_shiawase_jizo_waki.jpg</v>
       </c>
       <c r="E807" t="str">
-        <v>2017/06/17 12:31:40</v>
+        <v>2017-06-17T12:31:40</v>
       </c>
       <c r="F807" t="str">
         <v>Kohei Otsuka</v>
@@ -33846,7 +33846,7 @@
         <v>./images/575/small_jizodo.jpg</v>
       </c>
       <c r="E808" t="str">
-        <v>2019/07/23 10:32:20</v>
+        <v>2019-07-23T10:32:20</v>
       </c>
       <c r="F808" t="str">
         <v>Kohei Otsuka</v>
@@ -33872,7 +33872,7 @@
         <v>./images/126/byakugojicho_funny_shinmei_jizo.jpg</v>
       </c>
       <c r="E809" t="str">
-        <v>2018/09/21 13:42:20</v>
+        <v>2018-09-21T13:42:20</v>
       </c>
       <c r="F809" t="str">
         <v>Kohei Otsuka</v>
@@ -33898,7 +33898,7 @@
         <v>./images/126/byakugojicho_shinmei_jizo.jpg</v>
       </c>
       <c r="E810" t="str">
-        <v>2018/09/21 13:42:07</v>
+        <v>2018-09-21T13:42:07</v>
       </c>
       <c r="F810" t="str">
         <v>Kohei Otsuka</v>
@@ -33924,7 +33924,7 @@
         <v>./images/127/shinroku_jizo.jpg</v>
       </c>
       <c r="E811" t="str">
-        <v>2018/09/21 13:31:48</v>
+        <v>2018-09-21T13:31:48</v>
       </c>
       <c r="F811" t="str">
         <v>Kohei Otsuka</v>
@@ -33950,7 +33950,7 @@
         <v>./images/127/shinroku_jizo_inside.jpg</v>
       </c>
       <c r="E812" t="str">
-        <v>2018/09/21 13:31:57</v>
+        <v>2018-09-21T13:31:57</v>
       </c>
       <c r="F812" t="str">
         <v>Kohei Otsuka</v>
@@ -33976,7 +33976,7 @@
         <v>./images/127/shinroku_jizo_side.jpg</v>
       </c>
       <c r="E813" t="str">
-        <v>2018/09/21 13:32:03</v>
+        <v>2018-09-21T13:32:03</v>
       </c>
       <c r="F813" t="str">
         <v>Kohei Otsuka</v>
@@ -34002,7 +34002,7 @@
         <v>./images/158/kainotsukacho_jizobon.jpg</v>
       </c>
       <c r="E814" t="str">
-        <v>2019/07/23 10:59:53</v>
+        <v>2019-07-23T10:59:53</v>
       </c>
       <c r="F814" t="str">
         <v>Kohei Otsuka</v>
@@ -34028,7 +34028,7 @@
         <v>./images/159/kainotsuka_jizogun.jpg</v>
       </c>
       <c r="E815" t="str">
-        <v>2019/07/23 10:58:08</v>
+        <v>2019-07-23T10:58:08</v>
       </c>
       <c r="F815" t="str">
         <v>Kohei Otsuka</v>
@@ -34054,7 +34054,7 @@
         <v>./images/162/byakugojicho_funny_jizos.jpg</v>
       </c>
       <c r="E816" t="str">
-        <v>2018/09/21 13:40:36</v>
+        <v>2018-09-21T13:40:36</v>
       </c>
       <c r="F816" t="str">
         <v>Kohei Otsuka</v>
@@ -34080,7 +34080,7 @@
         <v>./images/162/byakugojicho_jizos.jpg</v>
       </c>
       <c r="E817" t="str">
-        <v>2018/09/21 13:40:12</v>
+        <v>2018-09-21T13:40:12</v>
       </c>
       <c r="F817" t="str">
         <v>Kohei Otsuka</v>
@@ -34106,7 +34106,7 @@
         <v>./images/204/new_akachi_shrine.jpg</v>
       </c>
       <c r="E818" t="str">
-        <v>2018/09/21 13:34:52</v>
+        <v>2018-09-21T13:34:52</v>
       </c>
       <c r="F818" t="str">
         <v>Kohei Otsuka</v>
@@ -34132,7 +34132,7 @@
         <v>./images/250/new_shirachi_shrine.jpg</v>
       </c>
       <c r="E819" t="str">
-        <v>2018/09/21 13:26:29</v>
+        <v>2018-09-21T13:26:29</v>
       </c>
       <c r="F819" t="str">
         <v>Kohei Otsuka</v>
@@ -34158,7 +34158,7 @@
         <v>./images/575/small_jizodo.jpg</v>
       </c>
       <c r="E820" t="str">
-        <v>2019/07/23 10:32:20</v>
+        <v>2019-07-23T10:32:20</v>
       </c>
       <c r="F820" t="str">
         <v>Kohei Otsuka</v>
@@ -34184,7 +34184,7 @@
         <v>./images/576/nakaotani_jizoson.jpg</v>
       </c>
       <c r="E821" t="str">
-        <v>2018/09/21 13:37:58</v>
+        <v>2018-09-21T13:37:58</v>
       </c>
       <c r="F821" t="str">
         <v>Kohei Otsuka</v>
@@ -34210,7 +34210,7 @@
         <v>./images/576/nakaotani_jizoson_left.jpg</v>
       </c>
       <c r="E822" t="str">
-        <v>2018/09/21 13:38:07</v>
+        <v>2018-09-21T13:38:07</v>
       </c>
       <c r="F822" t="str">
         <v>Kohei Otsuka</v>
@@ -34236,7 +34236,7 @@
         <v>./images/576/nakaotani_jizoson_right.jpg</v>
       </c>
       <c r="E823" t="str">
-        <v>2018/09/21 13:38:13</v>
+        <v>2018-09-21T13:38:13</v>
       </c>
       <c r="F823" t="str">
         <v>Kohei Otsuka</v>
@@ -34262,7 +34262,7 @@
         <v>./images/577/takabatake_sumiyoshi_shrine.jpg</v>
       </c>
       <c r="E824" t="str">
-        <v>2018/09/21 13:28:51</v>
+        <v>2018-09-21T13:28:51</v>
       </c>
       <c r="F824" t="str">
         <v>Kohei Otsuka</v>
@@ -34288,7 +34288,7 @@
         <v>./images/577/takabatake_sumiyoshi_stone.jpg</v>
       </c>
       <c r="E825" t="str">
-        <v>2018/09/21 13:29:01</v>
+        <v>2018-09-21T13:29:01</v>
       </c>
       <c r="F825" t="str">
         <v>Kohei Otsuka</v>
@@ -34314,7 +34314,7 @@
         <v>./images/578/takabatake_jizo.jpg</v>
       </c>
       <c r="E826" t="str">
-        <v>2018/09/21 13:20:46</v>
+        <v>2018-09-21T13:20:46</v>
       </c>
       <c r="F826" t="str">
         <v>Kohei Otsuka</v>
@@ -34340,7 +34340,7 @@
         <v>./images/579/oshiagecho_kaisho_jizodo.jpg</v>
       </c>
       <c r="E827" t="str">
-        <v>2017/06/17 12:36:09</v>
+        <v>2017-06-17T12:36:09</v>
       </c>
       <c r="F827" t="str">
         <v>Kohei Otsuka</v>
@@ -34366,7 +34366,7 @@
         <v>./images/579/oshiagecho_kaisho_jizodo_inside1.jpg</v>
       </c>
       <c r="E828" t="str">
-        <v>2017/06/17 12:36:17</v>
+        <v>2017-06-17T12:36:17</v>
       </c>
       <c r="F828" t="str">
         <v>Kohei Otsuka</v>
@@ -34392,7 +34392,7 @@
         <v>./images/579/oshiagecho_kaisho_jizodo_inside2.jpg</v>
       </c>
       <c r="E829" t="str">
-        <v>2017/06/17 12:36:26</v>
+        <v>2017-06-17T12:36:26</v>
       </c>
       <c r="F829" t="str">
         <v>Kohei Otsuka</v>
@@ -34418,7 +34418,7 @@
         <v>./images/580/under_kitayama_18_jizo.jpg</v>
       </c>
       <c r="E830" t="str">
-        <v>2017/06/17 12:21:59</v>
+        <v>2017-06-17T12:21:59</v>
       </c>
       <c r="F830" t="str">
         <v>Kohei Otsuka</v>
@@ -34444,7 +34444,7 @@
         <v>./images/580/under_kitayama_18_jizo_inside.jpg</v>
       </c>
       <c r="E831" t="str">
-        <v>2017/06/17 12:22:06</v>
+        <v>2017-06-17T12:22:06</v>
       </c>
       <c r="F831" t="str">
         <v>Kohei Otsuka</v>
@@ -34470,7 +34470,7 @@
         <v>./images/581/higashinosaka_jido_yuen_south_jizo.jpg</v>
       </c>
       <c r="E832" t="str">
-        <v>2017/06/17 11:54:31</v>
+        <v>2017-06-17T11:54:31</v>
       </c>
       <c r="F832" t="str">
         <v>Kohei Otsuka</v>
@@ -34496,7 +34496,7 @@
         <v>./images/581/higashinosaka_jido_yuen_south_jizo_inside.jpg</v>
       </c>
       <c r="E833" t="str">
-        <v>2017/06/17 11:54:39</v>
+        <v>2017-06-17T11:54:39</v>
       </c>
       <c r="F833" t="str">
         <v>Kohei Otsuka</v>
@@ -34522,7 +34522,7 @@
         <v>./images/582/kawakamicho_jizo_on_border.jpg</v>
       </c>
       <c r="E834" t="str">
-        <v>2017/06/17 11:55:57</v>
+        <v>2017-06-17T11:55:57</v>
       </c>
       <c r="F834" t="str">
         <v>Kohei Otsuka</v>
@@ -34548,7 +34548,7 @@
         <v>./images/582/kawakamicho_jizo_on_border_inside.jpg</v>
       </c>
       <c r="E835" t="str">
-        <v>2017/06/17 11:56:02</v>
+        <v>2017-06-17T11:56:02</v>
       </c>
       <c r="F835" t="str">
         <v>Kohei Otsuka</v>
@@ -34574,7 +34574,7 @@
         <v>./images/583/kawakamicho_jizo_on_odori.jpg</v>
       </c>
       <c r="E836" t="str">
-        <v>2017/06/17 11:52:42</v>
+        <v>2017-06-17T11:52:42</v>
       </c>
       <c r="F836" t="str">
         <v>Kohei Otsuka</v>
@@ -34600,7 +34600,7 @@
         <v>./images/583/kawakamicho_jizo_on_odori_inside.jpg</v>
       </c>
       <c r="E837" t="str">
-        <v>2017/06/17 11:52:57</v>
+        <v>2017-06-17T11:52:57</v>
       </c>
       <c r="F837" t="str">
         <v>Kohei Otsuka</v>
@@ -34626,7 +34626,7 @@
         <v>./images/59/tegaicho_jizodo.jpg</v>
       </c>
       <c r="E838" t="str">
-        <v>2018/09/21 15:24:21</v>
+        <v>2018-09-21T15:24:21</v>
       </c>
       <c r="F838" t="str">
         <v>Kohei Otsuka</v>
@@ -34652,7 +34652,7 @@
         <v>./images/59/tegaicho_jizodo_inside_center.jpg</v>
       </c>
       <c r="E839" t="str">
-        <v>2018/09/21 15:24:34</v>
+        <v>2018-09-21T15:24:34</v>
       </c>
       <c r="F839" t="str">
         <v>Kohei Otsuka</v>
@@ -34678,7 +34678,7 @@
         <v>./images/59/tegaicho_jizodo_inside_left.jpg</v>
       </c>
       <c r="E840" t="str">
-        <v>2018/09/21 15:24:41</v>
+        <v>2018-09-21T15:24:41</v>
       </c>
       <c r="F840" t="str">
         <v>Kohei Otsuka</v>
@@ -34704,7 +34704,7 @@
         <v>./images/59/tegaicho_jizodo_inside_right.jpg</v>
       </c>
       <c r="E841" t="str">
-        <v>2018/09/21 15:24:37</v>
+        <v>2018-09-21T15:24:37</v>
       </c>
       <c r="F841" t="str">
         <v>Kohei Otsuka</v>
@@ -34730,7 +34730,7 @@
         <v>./images/584/kogawa_jizoson.jpg</v>
       </c>
       <c r="E842" t="str">
-        <v>2017/06/17 12:15:32</v>
+        <v>2017-06-17T12:15:32</v>
       </c>
       <c r="F842" t="str">
         <v>Kohei Otsuka</v>
@@ -34756,7 +34756,7 @@
         <v>./images/584/kogawa_jizoson_inside.jpg</v>
       </c>
       <c r="E843" t="str">
-        <v>2017/06/17 12:15:48</v>
+        <v>2017-06-17T12:15:48</v>
       </c>
       <c r="F843" t="str">
         <v>Kohei Otsuka</v>
@@ -34782,7 +34782,7 @@
         <v>./images/585/jizodo_narasakacho.jpg</v>
       </c>
       <c r="E844" t="str">
-        <v>2017/06/17 12:11:42</v>
+        <v>2017-06-17T12:11:42</v>
       </c>
       <c r="F844" t="str">
         <v>Kohei Otsuka</v>
@@ -34808,7 +34808,7 @@
         <v>./images/585/jizodo_narasakacho_inside_left.jpg</v>
       </c>
       <c r="E845" t="str">
-        <v>2017/06/17 12:12:04</v>
+        <v>2017-06-17T12:12:04</v>
       </c>
       <c r="F845" t="str">
         <v>Kohei Otsuka</v>
@@ -34834,7 +34834,7 @@
         <v>./images/585/jizodo_narasakacho_inside_right1.jpg</v>
       </c>
       <c r="E846" t="str">
-        <v>2017/06/17 12:11:54</v>
+        <v>2017-06-17T12:11:54</v>
       </c>
       <c r="F846" t="str">
         <v>Kohei Otsuka</v>
@@ -34860,7 +34860,7 @@
         <v>./images/585/jizodo_narasakacho_inside_right2.jpg</v>
       </c>
       <c r="E847" t="str">
-        <v>2017/06/17 12:12:13</v>
+        <v>2017-06-17T12:12:13</v>
       </c>
       <c r="F847" t="str">
         <v>Kohei Otsuka</v>
@@ -34886,7 +34886,7 @@
         <v>./images/586/tatsue_jizoson.jpg</v>
       </c>
       <c r="E848" t="str">
-        <v>2017/06/17 12:13:34</v>
+        <v>2017-06-17T12:13:34</v>
       </c>
       <c r="F848" t="str">
         <v>Kohei Otsuka</v>
@@ -34912,7 +34912,7 @@
         <v>./images/586/tatsue_jizoson_inside.jpg</v>
       </c>
       <c r="E849" t="str">
-        <v>2017/06/17 12:13:46</v>
+        <v>2017-06-17T12:13:46</v>
       </c>
       <c r="F849" t="str">
         <v>Kohei Otsuka</v>
@@ -34938,7 +34938,7 @@
         <v>./images/586/tatsue_jizoson_sign.jpg</v>
       </c>
       <c r="E850" t="str">
-        <v>2017/06/17 12:13:58</v>
+        <v>2017-06-17T12:13:58</v>
       </c>
       <c r="F850" t="str">
         <v>Kohei Otsuka</v>
@@ -34964,7 +34964,7 @@
         <v>./images/587/narasaka_tatsue_entrance_jizo.jpg</v>
       </c>
       <c r="E851" t="str">
-        <v>2017/06/17 12:14:15</v>
+        <v>2017-06-17T12:14:15</v>
       </c>
       <c r="F851" t="str">
         <v>Kohei Otsuka</v>
@@ -34990,7 +34990,7 @@
         <v>./images/587/narasaka_tatsue_entrance_jizo_inside.jpg</v>
       </c>
       <c r="E852" t="str">
-        <v>2017/06/17 12:14:20</v>
+        <v>2017-06-17T12:14:20</v>
       </c>
       <c r="F852" t="str">
         <v>Kohei Otsuka</v>
@@ -35016,7 +35016,7 @@
         <v>./images/588/jizo_near_narazuhiko_shrine.jpg</v>
       </c>
       <c r="E853" t="str">
-        <v>2017/06/17 12:04:54</v>
+        <v>2017-06-17T12:04:54</v>
       </c>
       <c r="F853" t="str">
         <v>Kohei Otsuka</v>
@@ -35042,7 +35042,7 @@
         <v>./images/588/jizo_near_narazuhiko_shrine_basestone.jpg</v>
       </c>
       <c r="E854" t="str">
-        <v>2017/06/17 12:05:25</v>
+        <v>2017-06-17T12:05:25</v>
       </c>
       <c r="F854" t="str">
         <v>Kohei Otsuka</v>
@@ -35068,7 +35068,7 @@
         <v>./images/588/jizo_near_narazuhiko_shrine_inside.jpg</v>
       </c>
       <c r="E855" t="str">
-        <v>2017/06/17 12:05:11</v>
+        <v>2017-06-17T12:05:11</v>
       </c>
       <c r="F855" t="str">
         <v>Kohei Otsuka</v>
@@ -35094,7 +35094,7 @@
         <v>./images/588/jizo_near_narazuhiko_shrine_light.jpg</v>
       </c>
       <c r="E856" t="str">
-        <v>2017/06/17 12:04:47</v>
+        <v>2017-06-17T12:04:47</v>
       </c>
       <c r="F856" t="str">
         <v>Kohei Otsuka</v>
@@ -35120,7 +35120,7 @@
         <v>./images/589/kurokami_inari_jizo.jpg</v>
       </c>
       <c r="E857" t="str">
-        <v>2017/05/03 16:51:14</v>
+        <v>2017-05-03T16:51:14</v>
       </c>
       <c r="F857" t="str">
         <v>Kohei Otsuka</v>
@@ -35146,7 +35146,7 @@
         <v>./images/589/kurokami_inari_jizo_inside.jpg</v>
       </c>
       <c r="E858" t="str">
-        <v>2017/05/03 16:51:25</v>
+        <v>2017-05-03T16:51:25</v>
       </c>
       <c r="F858" t="str">
         <v>Kohei Otsuka</v>
@@ -35172,7 +35172,7 @@
         <v>./images/590/hokoku_1.jpg</v>
       </c>
       <c r="E859" t="str">
-        <v>2017/05/03 16:52:00</v>
+        <v>2017-05-03T16:52:00</v>
       </c>
       <c r="F859" t="str">
         <v>Kohei Otsuka</v>
@@ -35198,7 +35198,7 @@
         <v>./images/590/hokoku_2.jpg</v>
       </c>
       <c r="E860" t="str">
-        <v>2017/05/03 16:53:01</v>
+        <v>2017-05-03T16:53:01</v>
       </c>
       <c r="F860" t="str">
         <v>Kohei Otsuka</v>
@@ -35224,7 +35224,7 @@
         <v>./images/590/kurozumi_daimyojin_1.jpg</v>
       </c>
       <c r="E861" t="str">
-        <v>2017/05/03 16:52:18</v>
+        <v>2017-05-03T16:52:18</v>
       </c>
       <c r="F861" t="str">
         <v>Kohei Otsuka</v>
@@ -35250,7 +35250,7 @@
         <v>./images/590/kurozumi_daimyojin_2.jpg</v>
       </c>
       <c r="E862" t="str">
-        <v>2017/05/03 16:52:54</v>
+        <v>2017-05-03T16:52:54</v>
       </c>
       <c r="F862" t="str">
         <v>Kohei Otsuka</v>
@@ -35276,7 +35276,7 @@
         <v>./images/590/kurozumi_daimyojin_etc.jpg</v>
       </c>
       <c r="E863" t="str">
-        <v>2017/05/03 16:53:12</v>
+        <v>2017-05-03T16:53:12</v>
       </c>
       <c r="F863" t="str">
         <v>Kohei Otsuka</v>
@@ -35302,7 +35302,7 @@
         <v>./images/590/sekimo_1.jpg</v>
       </c>
       <c r="E864" t="str">
-        <v>2017/05/03 16:52:08</v>
+        <v>2017-05-03T16:52:08</v>
       </c>
       <c r="F864" t="str">
         <v>Kohei Otsuka</v>
@@ -35328,7 +35328,7 @@
         <v>./images/590/sekimo_2.jpg</v>
       </c>
       <c r="E865" t="str">
-        <v>2017/05/03 16:52:46</v>
+        <v>2017-05-03T16:52:46</v>
       </c>
       <c r="F865" t="str">
         <v>Kohei Otsuka</v>
@@ -35354,7 +35354,7 @@
         <v>./images/590/stone_shrine.jpg</v>
       </c>
       <c r="E866" t="str">
-        <v>2017/05/03 16:51:37</v>
+        <v>2017-05-03T16:51:37</v>
       </c>
       <c r="F866" t="str">
         <v>Kohei Otsuka</v>
@@ -35380,7 +35380,7 @@
         <v>./images/591/horiuchi_enzo.jpg</v>
       </c>
       <c r="E867" t="str">
-        <v>2017/05/03 17:00:17</v>
+        <v>2017-05-03T17:00:17</v>
       </c>
       <c r="F867" t="str">
         <v>Kohei Otsuka</v>
@@ -35406,7 +35406,7 @@
         <v>./images/591/kurokamiyama_inari_haiden.jpg</v>
       </c>
       <c r="E868" t="str">
-        <v>2017/05/03 16:55:03</v>
+        <v>2017-05-03T16:55:03</v>
       </c>
       <c r="F868" t="str">
         <v>Kohei Otsuka</v>
@@ -35432,7 +35432,7 @@
         <v>./images/591/kurokamiyama_inari_honden.jpg</v>
       </c>
       <c r="E869" t="str">
-        <v>2017/05/03 16:56:02</v>
+        <v>2017-05-03T16:56:02</v>
       </c>
       <c r="F869" t="str">
         <v>Kohei Otsuka</v>
@@ -35458,7 +35458,7 @@
         <v>./images/591/kurokamiyama_inari_left_fox.jpg</v>
       </c>
       <c r="E870" t="str">
-        <v>2017/05/03 16:56:18</v>
+        <v>2017-05-03T16:56:18</v>
       </c>
       <c r="F870" t="str">
         <v>Kohei Otsuka</v>
@@ -35484,7 +35484,7 @@
         <v>./images/591/kurokamiyama_inari_right_fox.jpg</v>
       </c>
       <c r="E871" t="str">
-        <v>2017/05/03 16:56:09</v>
+        <v>2017-05-03T16:56:09</v>
       </c>
       <c r="F871" t="str">
         <v>Kohei Otsuka</v>
@@ -35510,7 +35510,7 @@
         <v>./images/591/kurokamiyama_inari_torii.jpg</v>
       </c>
       <c r="E872" t="str">
-        <v>2017/05/03 16:54:22</v>
+        <v>2017-05-03T16:54:22</v>
       </c>
       <c r="F872" t="str">
         <v>Kohei Otsuka</v>
@@ -35536,7 +35536,7 @@
         <v>./images/591/kuromaru.jpg</v>
       </c>
       <c r="E873" t="str">
-        <v>2017/05/03 17:00:44</v>
+        <v>2017-05-03T17:00:44</v>
       </c>
       <c r="F873" t="str">
         <v>Kohei Otsuka</v>
@@ -35562,7 +35562,7 @@
         <v>./images/591/kurotomi.jpg</v>
       </c>
       <c r="E874" t="str">
-        <v>2017/05/03 17:01:26</v>
+        <v>2017-05-03T17:01:26</v>
       </c>
       <c r="F874" t="str">
         <v>Kohei Otsuka</v>
@@ -35588,7 +35588,7 @@
         <v>./images/591/shirataki_center.jpg</v>
       </c>
       <c r="E875" t="str">
-        <v>2017/05/03 16:57:41</v>
+        <v>2017-05-03T16:57:41</v>
       </c>
       <c r="F875" t="str">
         <v>Kohei Otsuka</v>
@@ -35614,7 +35614,7 @@
         <v>./images/591/shirataki_left2_asahi.jpg</v>
       </c>
       <c r="E876" t="str">
-        <v>2017/05/03 16:58:08</v>
+        <v>2017-05-03T16:58:08</v>
       </c>
       <c r="F876" t="str">
         <v>Kohei Otsuka</v>
@@ -35640,7 +35640,7 @@
         <v>./images/591/shirataki_left_rikimatsu.jpg</v>
       </c>
       <c r="E877" t="str">
-        <v>2017/05/03 16:58:21</v>
+        <v>2017-05-03T16:58:21</v>
       </c>
       <c r="F877" t="str">
         <v>Kohei Otsuka</v>
@@ -35666,7 +35666,7 @@
         <v>./images/591/shirataki_mostleft2_suehiro.jpg</v>
       </c>
       <c r="E878" t="str">
-        <v>2017/05/03 16:57:08</v>
+        <v>2017-05-03T16:57:08</v>
       </c>
       <c r="F878" t="str">
         <v>Kohei Otsuka</v>
@@ -35692,7 +35692,7 @@
         <v>./images/591/shirataki_mostleft_shirayoshi.jpg</v>
       </c>
       <c r="E879" t="str">
-        <v>2017/05/03 16:57:13</v>
+        <v>2017-05-03T16:57:13</v>
       </c>
       <c r="F879" t="str">
         <v>Kohei Otsuka</v>
@@ -35718,7 +35718,7 @@
         <v>./images/591/shirataki_mostright2_toyomaru.jpg</v>
       </c>
       <c r="E880" t="str">
-        <v>2017/05/03 16:57:18</v>
+        <v>2017-05-03T16:57:18</v>
       </c>
       <c r="F880" t="str">
         <v>Kohei Otsuka</v>
@@ -35744,7 +35744,7 @@
         <v>./images/591/shirataki_mostright_toyokawa.jpg</v>
       </c>
       <c r="E881" t="str">
-        <v>2017/05/03 16:57:34</v>
+        <v>2017-05-03T16:57:34</v>
       </c>
       <c r="F881" t="str">
         <v>Kohei Otsuka</v>
@@ -35770,7 +35770,7 @@
         <v>./images/591/shirataki_right2_kurokami.jpg</v>
       </c>
       <c r="E882" t="str">
-        <v>2017/05/03 16:58:38</v>
+        <v>2017-05-03T16:58:38</v>
       </c>
       <c r="F882" t="str">
         <v>Kohei Otsuka</v>
@@ -35796,7 +35796,7 @@
         <v>./images/591/shirataki_right3_matsuno.jpg</v>
       </c>
       <c r="E883" t="str">
-        <v>2017/05/03 16:58:06</v>
+        <v>2017-05-03T16:58:06</v>
       </c>
       <c r="F883" t="str">
         <v>Kohei Otsuka</v>
@@ -35822,7 +35822,7 @@
         <v>./images/591/shirataki_right_fujitaka.jpg</v>
       </c>
       <c r="E884" t="str">
-        <v>2017/05/03 16:57:48</v>
+        <v>2017-05-03T16:57:48</v>
       </c>
       <c r="F884" t="str">
         <v>Kohei Otsuka</v>
@@ -35848,7 +35848,7 @@
         <v>./images/591/shirataki_torii.jpg</v>
       </c>
       <c r="E885" t="str">
-        <v>2017/05/03 16:56:32</v>
+        <v>2017-05-03T16:56:32</v>
       </c>
       <c r="F885" t="str">
         <v>Kohei Otsuka</v>
@@ -35874,7 +35874,7 @@
         <v>./images/591/shiratakiko_basement.jpg</v>
       </c>
       <c r="E886" t="str">
-        <v>2017/05/03 16:58:00</v>
+        <v>2017-05-03T16:58:00</v>
       </c>
       <c r="F886" t="str">
         <v>Kohei Otsuka</v>
@@ -35900,7 +35900,7 @@
         <v>./images/591/shiratakis_1.jpg</v>
       </c>
       <c r="E887" t="str">
-        <v>2017/05/03 16:59:30</v>
+        <v>2017-05-03T16:59:30</v>
       </c>
       <c r="F887" t="str">
         <v>Kohei Otsuka</v>
@@ -35926,7 +35926,7 @@
         <v>./images/591/shiratakis_2.jpg</v>
       </c>
       <c r="E888" t="str">
-        <v>2017/05/03 16:56:57</v>
+        <v>2017-05-03T16:56:57</v>
       </c>
       <c r="F888" t="str">
         <v>Kohei Otsuka</v>
@@ -35952,7 +35952,7 @@
         <v>./images/591/somei_renjo.jpg</v>
       </c>
       <c r="E889" t="str">
-        <v>2017/05/03 17:02:23</v>
+        <v>2017-05-03T17:02:23</v>
       </c>
       <c r="F889" t="str">
         <v>Kohei Otsuka</v>
@@ -35978,7 +35978,7 @@
         <v>./images/591/takamatsu.jpg</v>
       </c>
       <c r="E890" t="str">
-        <v>2017/05/03 17:01:17</v>
+        <v>2017-05-03T17:01:17</v>
       </c>
       <c r="F890" t="str">
         <v>Kohei Otsuka</v>
@@ -36004,7 +36004,7 @@
         <v>./images/591/tenichi.jpg</v>
       </c>
       <c r="E891" t="str">
-        <v>2017/05/03 17:00:09</v>
+        <v>2017-05-03T17:00:09</v>
       </c>
       <c r="F891" t="str">
         <v>Kohei Otsuka</v>
@@ -36030,7 +36030,7 @@
         <v>./images/591/yoshitaka_daimyojin.jpg</v>
       </c>
       <c r="E892" t="str">
-        <v>2017/05/03 17:00:27</v>
+        <v>2017-05-03T17:00:27</v>
       </c>
       <c r="F892" t="str">
         <v>Kohei Otsuka</v>
@@ -36056,7 +36056,7 @@
         <v>./images/591/yoshitaka_daimyojin2.jpg</v>
       </c>
       <c r="E893" t="str">
-        <v>2017/05/03 17:01:55</v>
+        <v>2017-05-03T17:01:55</v>
       </c>
       <c r="F893" t="str">
         <v>Kohei Otsuka</v>
@@ -36082,7 +36082,7 @@
         <v>./images/591/yoshitaka_daimyojin3.jpg</v>
       </c>
       <c r="E894" t="str">
-        <v>2017/05/03 17:00:35</v>
+        <v>2017-05-03T17:00:35</v>
       </c>
       <c r="F894" t="str">
         <v>Kohei Otsuka</v>
@@ -36108,7 +36108,7 @@
         <v>./images/592/horen_sahoyama_colored_jizos.jpg</v>
       </c>
       <c r="E895" t="str">
-        <v>2017/05/03 16:44:25</v>
+        <v>2017-05-03T16:44:25</v>
       </c>
       <c r="F895" t="str">
         <v>Kohei Otsuka</v>
@@ -36134,7 +36134,7 @@
         <v>./images/592/horen_sahoyama_colored_jizos_roof.jpg</v>
       </c>
       <c r="E896" t="str">
-        <v>2017/05/03 16:44:08</v>
+        <v>2017-05-03T16:44:08</v>
       </c>
       <c r="F896" t="str">
         <v>Kohei Otsuka</v>
@@ -36160,7 +36160,7 @@
         <v>./images/593/horen_sahoyama_relief_gorinto_fuhito.jpg</v>
       </c>
       <c r="E897" t="str">
-        <v>2017/12/22 15:20:09</v>
+        <v>2017-12-22T15:20:09</v>
       </c>
       <c r="F897" t="str">
         <v>Kohei Otsuka</v>
@@ -36186,7 +36186,7 @@
         <v>./images/594/horencho_relief_gorinto.jpg</v>
       </c>
       <c r="E898" t="str">
-        <v>2019/11/22 09:54:37</v>
+        <v>2019-11-22T09:54:37</v>
       </c>
       <c r="F898" t="str">
         <v>Kohei Otsuka</v>
@@ -36212,7 +36212,7 @@
         <v>./images/595/nemuri_shrine_honden.jpg</v>
       </c>
       <c r="E899" t="str">
-        <v>2020/02/21 17:41:03</v>
+        <v>2020-02-21T17:41:03</v>
       </c>
       <c r="F899" t="str">
         <v>Kohei Otsuka</v>
@@ -36238,7 +36238,7 @@
         <v>./images/595/nemuri_shrine_keidai.jpg</v>
       </c>
       <c r="E900" t="str">
-        <v>2020/02/21 17:39:22</v>
+        <v>2020-02-21T17:39:22</v>
       </c>
       <c r="F900" t="str">
         <v>Kohei Otsuka</v>
@@ -36264,7 +36264,7 @@
         <v>./images/595/nemuri_shrine_torii.jpg</v>
       </c>
       <c r="E901" t="str">
-        <v>2020/02/21 17:38:59</v>
+        <v>2020-02-21T17:38:59</v>
       </c>
       <c r="F901" t="str">
         <v>Kohei Otsuka</v>
@@ -36290,7 +36290,7 @@
         <v>./images/596/jizos_in_nemuri_shirine1.jpg</v>
       </c>
       <c r="E902" t="str">
-        <v>2020/02/21 17:40:55</v>
+        <v>2020-02-21T17:40:55</v>
       </c>
       <c r="F902" t="str">
         <v>Kohei Otsuka</v>
@@ -36316,7 +36316,7 @@
         <v>./images/596/jizos_in_nemuri_shirine2.jpg</v>
       </c>
       <c r="E903" t="str">
-        <v>2020/02/21 17:40:01</v>
+        <v>2020-02-21T17:40:01</v>
       </c>
       <c r="F903" t="str">
         <v>Kohei Otsuka</v>
@@ -36342,7 +36342,7 @@
         <v>./images/596/jizos_in_nemuri_shirine3.jpg</v>
       </c>
       <c r="E904" t="str">
-        <v>2020/02/21 17:40:51</v>
+        <v>2020-02-21T17:40:51</v>
       </c>
       <c r="F904" t="str">
         <v>Kohei Otsuka</v>
@@ -36368,7 +36368,7 @@
         <v>./images/596/jizos_in_nemuri_shirine4.jpg</v>
       </c>
       <c r="E905" t="str">
-        <v>2020/02/21 17:40:48</v>
+        <v>2020-02-21T17:40:48</v>
       </c>
       <c r="F905" t="str">
         <v>Kohei Otsuka</v>
@@ -36394,7 +36394,7 @@
         <v>./images/597/ukigumo_shrine.jpg</v>
       </c>
       <c r="E906" t="str">
-        <v>2020/02/21 17:49:43</v>
+        <v>2020-02-21T17:49:43</v>
       </c>
       <c r="F906" t="str">
         <v>Kohei Otsuka</v>
@@ -36420,7 +36420,7 @@
         <v>./images/597/ukigumo_shrine_torii.jpg</v>
       </c>
       <c r="E907" t="str">
-        <v>2020/02/21 17:49:37</v>
+        <v>2020-02-21T17:49:37</v>
       </c>
       <c r="F907" t="str">
         <v>Kohei Otsuka</v>
@@ -36446,7 +36446,7 @@
         <v>./images/598/kasugano_tenjin.jpg</v>
       </c>
       <c r="E908" t="str">
-        <v>2020/02/21 17:50:58</v>
+        <v>2020-02-21T17:50:58</v>
       </c>
       <c r="F908" t="str">
         <v>Kohei Otsuka</v>
@@ -36472,7 +36472,7 @@
         <v>./images/599/kasugano_seimei_shrine.jpg</v>
       </c>
       <c r="E909" t="str">
-        <v>2020/02/21 17:52:12</v>
+        <v>2020-02-21T17:52:12</v>
       </c>
       <c r="F909" t="str">
         <v>Kohei Otsuka</v>
@@ -36498,7 +36498,7 @@
         <v>./images/600/kasugano_atago_shrine.jpg</v>
       </c>
       <c r="E910" t="str">
-        <v>2020/02/21 17:51:54</v>
+        <v>2020-02-21T17:51:54</v>
       </c>
       <c r="F910" t="str">
         <v>Kohei Otsuka</v>
@@ -36524,7 +36524,7 @@
         <v>./images/161/handa_yokomachi_egao_jizo.jpg</v>
       </c>
       <c r="E911" t="str">
-        <v>2020/08/08 18:35:55</v>
+        <v>2020-08-08T18:35:55</v>
       </c>
       <c r="F911" t="str">
         <v>Kohei Otsuka</v>
@@ -36550,7 +36550,7 @@
         <v>./images/57/tamoncho_jizodo_2020_left.jpg</v>
       </c>
       <c r="E912" t="str">
-        <v>2020/08/08 17:55:26</v>
+        <v>2020-08-08T17:55:26</v>
       </c>
       <c r="F912" t="str">
         <v>Kohei Otsuka</v>
@@ -36576,7 +36576,7 @@
         <v>./images/57/tamoncho_jizodo_2020_right.jpg</v>
       </c>
       <c r="E913" t="str">
-        <v>2020/08/08 17:55:29</v>
+        <v>2020-08-08T17:55:29</v>
       </c>
       <c r="F913" t="str">
         <v>Kohei Otsuka</v>
@@ -36602,7 +36602,7 @@
         <v>./images/623/misome_jizo_from_gate.jpg</v>
       </c>
       <c r="E914" t="str">
-        <v>2020/08/08 17:26:54</v>
+        <v>2020-08-08T17:26:54</v>
       </c>
       <c r="F914" t="str">
         <v>Kohei Otsuka</v>
@@ -36628,7 +36628,7 @@
         <v>./images/623/misome_jizo_from_seven.jpg</v>
       </c>
       <c r="E915" t="str">
-        <v>2020/08/08 17:26:04</v>
+        <v>2020-08-08T17:26:04</v>
       </c>
       <c r="F915" t="str">
         <v>Kohei Otsuka</v>
@@ -36654,7 +36654,7 @@
         <v>./images/624/nashihara_small_jizodo.jpg</v>
       </c>
       <c r="E916" t="str">
-        <v>2020/08/08 17:31:59</v>
+        <v>2020-08-08T17:31:59</v>
       </c>
       <c r="F916" t="str">
         <v>Kohei Otsuka</v>
@@ -36680,7 +36680,7 @@
         <v>./images/624/nashihara_small_jizodo_inside.jpg</v>
       </c>
       <c r="E917" t="str">
-        <v>2020/08/08 17:32:06</v>
+        <v>2020-08-08T17:32:06</v>
       </c>
       <c r="F917" t="str">
         <v>Kohei Otsuka</v>
@@ -36706,7 +36706,7 @@
         <v>./images/625/horencho_wall_jizos.jpg</v>
       </c>
       <c r="E918" t="str">
-        <v>2020/08/08 17:51:29</v>
+        <v>2020-08-08T17:51:29</v>
       </c>
       <c r="F918" t="str">
         <v>Kohei Otsuka</v>
@@ -36732,7 +36732,7 @@
         <v>./images/625/horencho_wall_jizos_left.jpg</v>
       </c>
       <c r="E919" t="str">
-        <v>2020/08/08 17:51:37</v>
+        <v>2020-08-08T17:51:37</v>
       </c>
       <c r="F919" t="str">
         <v>Kohei Otsuka</v>
@@ -36758,7 +36758,7 @@
         <v>./images/625/horencho_wall_jizos_right.jpg</v>
       </c>
       <c r="E920" t="str">
-        <v>2020/08/08 17:51:42</v>
+        <v>2020-08-08T17:51:42</v>
       </c>
       <c r="F920" t="str">
         <v>Kohei Otsuka</v>
@@ -36784,7 +36784,7 @@
         <v>./images/626/tamoncho_jizos.jpg</v>
       </c>
       <c r="E921" t="str">
-        <v>2020/08/08 18:00:35</v>
+        <v>2020-08-08T18:00:35</v>
       </c>
       <c r="F921" t="str">
         <v>Kohei Otsuka</v>
@@ -36810,7 +36810,7 @@
         <v>./images/626/tamoncho_jizos2.jpg</v>
       </c>
       <c r="E922" t="str">
-        <v>2020/08/08 18:00:42</v>
+        <v>2020-08-08T18:00:42</v>
       </c>
       <c r="F922" t="str">
         <v>Kohei Otsuka</v>
@@ -36836,7 +36836,7 @@
         <v>./images/627/sahogawa_waki_jizos.jpg</v>
       </c>
       <c r="E923" t="str">
-        <v>2020/08/08 18:05:06</v>
+        <v>2020-08-08T18:05:06</v>
       </c>
       <c r="F923" t="str">
         <v>Kohei Otsuka</v>
@@ -36862,7 +36862,7 @@
         <v>./images/627/sahogawa_waki_jizos_center.jpg</v>
       </c>
       <c r="E924" t="str">
-        <v>2020/08/08 18:05:42</v>
+        <v>2020-08-08T18:05:42</v>
       </c>
       <c r="F924" t="str">
         <v>Kohei Otsuka</v>
@@ -36888,7 +36888,7 @@
         <v>./images/627/sahogawa_waki_jizos_left.jpg</v>
       </c>
       <c r="E925" t="str">
-        <v>2020/08/08 18:05:25</v>
+        <v>2020-08-08T18:05:25</v>
       </c>
       <c r="F925" t="str">
         <v>Kohei Otsuka</v>
@@ -36914,7 +36914,7 @@
         <v>./images/627/sahogawa_waki_jizos_right.jpg</v>
       </c>
       <c r="E926" t="str">
-        <v>2020/08/08 18:05:35</v>
+        <v>2020-08-08T18:05:35</v>
       </c>
       <c r="F926" t="str">
         <v>Kohei Otsuka</v>
@@ -36940,7 +36940,7 @@
         <v>./images/628/wakakusa_kominkan_jizodo_lost.jpg</v>
       </c>
       <c r="E927" t="str">
-        <v>2020/08/08 18:15:13</v>
+        <v>2020-08-08T18:15:13</v>
       </c>
       <c r="F927" t="str">
         <v>Kohei Otsuka</v>
@@ -36966,7 +36966,7 @@
         <v>./images/629/kitahanda_nakamachi_enmei_jizo.jpg</v>
       </c>
       <c r="E928" t="str">
-        <v>2020/08/08 18:30:56</v>
+        <v>2020-08-08T18:30:56</v>
       </c>
       <c r="F928" t="str">
         <v>Kohei Otsuka</v>
@@ -36992,7 +36992,7 @@
         <v>./images/629/kitahanda_nakamachi_enmei_jizo_inside.jpg</v>
       </c>
       <c r="E929" t="str">
-        <v>2020/08/08 18:31:45</v>
+        <v>2020-08-08T18:31:45</v>
       </c>
       <c r="F929" t="str">
         <v>Kohei Otsuka</v>
@@ -37018,7 +37018,7 @@
         <v>./images/629/kitahanda_nakamachi_enmei_jizo_inside2.jpg</v>
       </c>
       <c r="E930" t="str">
-        <v>2020/08/08 18:31:58</v>
+        <v>2020-08-08T18:31:58</v>
       </c>
       <c r="F930" t="str">
         <v>Kohei Otsuka</v>
@@ -37044,7 +37044,7 @@
         <v>./images/88/kawanaka_jizo_2020.jpg</v>
       </c>
       <c r="E931" t="str">
-        <v>2020/08/08 17:54:06</v>
+        <v>2020-08-08T17:54:06</v>
       </c>
       <c r="F931" t="str">
         <v>Kohei Otsuka</v>
@@ -37070,7 +37070,7 @@
         <v>./images/88/kawanaka_jizo_amida.jpg</v>
       </c>
       <c r="E932" t="str">
-        <v>2020/08/08 17:54:11</v>
+        <v>2020-08-08T17:54:11</v>
       </c>
       <c r="F932" t="str">
         <v>Kohei Otsuka</v>
@@ -37096,7 +37096,7 @@
         <v>./images/89/kawanaka_jizo_2020.jpg</v>
       </c>
       <c r="E933" t="str">
-        <v>2020/08/08 18:28:18</v>
+        <v>2020-08-08T18:28:18</v>
       </c>
       <c r="F933" t="str">
         <v>Kohei Otsuka</v>
@@ -37122,7 +37122,7 @@
         <v>./images/89/kawanaka_jizo_2020_2.jpg</v>
       </c>
       <c r="E934" t="str">
-        <v>2020/08/08 18:28:36</v>
+        <v>2020-08-08T18:28:36</v>
       </c>
       <c r="F934" t="str">
         <v>Kohei Otsuka</v>
@@ -37148,7 +37148,7 @@
         <v>./images/89/kawanaka_jizo_2020_inside.jpg</v>
       </c>
       <c r="E935" t="str">
-        <v>2020/08/08 18:28:28</v>
+        <v>2020-08-08T18:28:28</v>
       </c>
       <c r="F935" t="str">
         <v>Kohei Otsuka</v>
@@ -37174,7 +37174,7 @@
         <v>./images/89/kawanaka_jizo_2020_waki.jpg</v>
       </c>
       <c r="E936" t="str">
-        <v>2020/08/08 18:28:45</v>
+        <v>2020-08-08T18:28:45</v>
       </c>
       <c r="F936" t="str">
         <v>Kohei Otsuka</v>
@@ -37200,7 +37200,7 @@
         <v>./images/57/tamoncho_jizodo_2020.jpg</v>
       </c>
       <c r="E937" t="str">
-        <v>2020/08/08 17:55:20</v>
+        <v>2020-08-08T17:55:20</v>
       </c>
       <c r="F937" t="str">
         <v>Kohei Otsuka</v>
@@ -37226,7 +37226,7 @@
         <v>./images/10/higashikidera2_jizodo_new.jpg</v>
       </c>
       <c r="E938" t="str">
-        <v>2020/08/09 10:44:28</v>
+        <v>2020-08-09T10:44:28</v>
       </c>
       <c r="F938" t="str">
         <v>Kohei Otsuka</v>
@@ -37252,7 +37252,7 @@
         <v>./images/111/kideracho_iizodo_with_stopa.jpg</v>
       </c>
       <c r="E939" t="str">
-        <v>2020/08/09 11:17:07</v>
+        <v>2020-08-09T11:17:07</v>
       </c>
       <c r="F939" t="str">
         <v>Kohei Otsuka</v>
@@ -37278,7 +37278,7 @@
         <v>./images/111/kideracho_iizodo_with_stopa_left.jpg</v>
       </c>
       <c r="E940" t="str">
-        <v>2020/08/09 11:17:33</v>
+        <v>2020-08-09T11:17:33</v>
       </c>
       <c r="F940" t="str">
         <v>Kohei Otsuka</v>
@@ -37304,7 +37304,7 @@
         <v>./images/111/kideracho_iizodo_with_stopa_right.jpg</v>
       </c>
       <c r="E941" t="str">
-        <v>2020/08/09 11:17:24</v>
+        <v>2020-08-09T11:17:24</v>
       </c>
       <c r="F941" t="str">
         <v>Kohei Otsuka</v>
@@ -37330,7 +37330,7 @@
         <v>./images/113/nataedaguchi_jizo_entrance.jpg</v>
       </c>
       <c r="E942" t="str">
-        <v>2020/08/09 11:38:16</v>
+        <v>2020-08-09T11:38:16</v>
       </c>
       <c r="F942" t="str">
         <v>Kohei Otsuka</v>
@@ -37356,7 +37356,7 @@
         <v>./images/113/nataedaguchi_jizo_inside.jpg</v>
       </c>
       <c r="E943" t="str">
-        <v>2020/08/09 11:38:29</v>
+        <v>2020-08-09T11:38:29</v>
       </c>
       <c r="F943" t="str">
         <v>Kohei Otsuka</v>
@@ -37382,7 +37382,7 @@
         <v>./images/113/nataedaguchi_jizo_waki_left.jpg</v>
       </c>
       <c r="E944" t="str">
-        <v>2020/08/09 11:38:42</v>
+        <v>2020-08-09T11:38:42</v>
       </c>
       <c r="F944" t="str">
         <v>Kohei Otsuka</v>
@@ -37408,7 +37408,7 @@
         <v>./images/113/nataedaguchi_jizo_waki_right.jpg</v>
       </c>
       <c r="E945" t="str">
-        <v>2020/08/09 11:38:46</v>
+        <v>2020-08-09T11:38:46</v>
       </c>
       <c r="F945" t="str">
         <v>Kohei Otsuka</v>
@@ -37434,7 +37434,7 @@
         <v>./images/169/kidera_mansion_jizo_2020.jpg</v>
       </c>
       <c r="E946" t="str">
-        <v>2020/08/09 11:05:11</v>
+        <v>2020-08-09T11:05:11</v>
       </c>
       <c r="F946" t="str">
         <v>Kohei Otsuka</v>
@@ -37460,7 +37460,7 @@
         <v>./images/24/kideracho_jizodo_2020.jpg</v>
       </c>
       <c r="E947" t="str">
-        <v>2020/08/09 11:11:05</v>
+        <v>2020-08-09T11:11:05</v>
       </c>
       <c r="F947" t="str">
         <v>Kohei Otsuka</v>
@@ -37486,7 +37486,7 @@
         <v>./images/24/kideracho_jizodo_2020_left.jpg</v>
       </c>
       <c r="E948" t="str">
-        <v>2020/08/09 11:11:28</v>
+        <v>2020-08-09T11:11:28</v>
       </c>
       <c r="F948" t="str">
         <v>Kohei Otsuka</v>
@@ -37512,7 +37512,7 @@
         <v>./images/24/kideracho_jizodo_2020_right.jpg</v>
       </c>
       <c r="E949" t="str">
-        <v>2020/08/09 11:11:19</v>
+        <v>2020-08-09T11:11:19</v>
       </c>
       <c r="F949" t="str">
         <v>Kohei Otsuka</v>
@@ -37538,7 +37538,7 @@
         <v>./images/25/kideracho_park_jizodo.jpg</v>
       </c>
       <c r="E950" t="str">
-        <v>2020/08/09 11:12:55</v>
+        <v>2020-08-09T11:12:55</v>
       </c>
       <c r="F950" t="str">
         <v>Kohei Otsuka</v>
@@ -37564,7 +37564,7 @@
         <v>./images/25/kideracho_park_jizodo_left.jpg</v>
       </c>
       <c r="E951" t="str">
-        <v>2020/08/09 11:13:14</v>
+        <v>2020-08-09T11:13:14</v>
       </c>
       <c r="F951" t="str">
         <v>Kohei Otsuka</v>
@@ -37590,7 +37590,7 @@
         <v>./images/25/kideracho_park_jizodo_right.jpg</v>
       </c>
       <c r="E952" t="str">
-        <v>2020/08/09 11:13:05</v>
+        <v>2020-08-09T11:13:05</v>
       </c>
       <c r="F952" t="str">
         <v>Kohei Otsuka</v>
@@ -37616,7 +37616,7 @@
         <v>./images/25/kideracho_park_jizodo_under.jpg</v>
       </c>
       <c r="E953" t="str">
-        <v>2020/08/09 11:13:20</v>
+        <v>2020-08-09T11:13:20</v>
       </c>
       <c r="F953" t="str">
         <v>Kohei Otsuka</v>
@@ -37642,7 +37642,7 @@
         <v>./images/612/takabatake_honyakushi_jizodo.jpg</v>
       </c>
       <c r="E954" t="str">
-        <v>2020/08/09 11:48:52</v>
+        <v>2020-08-09T11:48:52</v>
       </c>
       <c r="F954" t="str">
         <v>Kohei Otsuka</v>
@@ -37668,7 +37668,7 @@
         <v>./images/612/takabatake_honyakushi_jizodo_inside.jpg</v>
       </c>
       <c r="E955" t="str">
-        <v>2020/08/09 11:49:02</v>
+        <v>2020-08-09T11:49:02</v>
       </c>
       <c r="F955" t="str">
         <v>Kohei Otsuka</v>
@@ -37694,7 +37694,7 @@
         <v>./images/612/takabatake_honyakushi_jizodo_inside_center.jpg</v>
       </c>
       <c r="E956" t="str">
-        <v>2020/08/09 11:49:06</v>
+        <v>2020-08-09T11:49:06</v>
       </c>
       <c r="F956" t="str">
         <v>Kohei Otsuka</v>
@@ -37720,7 +37720,7 @@
         <v>./images/612/takabatake_honyakushi_jizodo_inside_left.jpg</v>
       </c>
       <c r="E957" t="str">
-        <v>2020/08/09 11:49:11</v>
+        <v>2020-08-09T11:49:11</v>
       </c>
       <c r="F957" t="str">
         <v>Kohei Otsuka</v>
@@ -37746,7 +37746,7 @@
         <v>./images/612/takabatake_honyakushi_jizodo_inside_right.jpg</v>
       </c>
       <c r="E958" t="str">
-        <v>2020/08/09 11:49:15</v>
+        <v>2020-08-09T11:49:15</v>
       </c>
       <c r="F958" t="str">
         <v>Kohei Otsuka</v>
@@ -37772,7 +37772,7 @@
         <v>./images/613/jurin-in_cho_nokisaki_jizo.jpg</v>
       </c>
       <c r="E959" t="str">
-        <v>2020/08/09 11:30:43</v>
+        <v>2020-08-09T11:30:43</v>
       </c>
       <c r="F959" t="str">
         <v>Kohei Otsuka</v>
@@ -37798,7 +37798,7 @@
         <v>./images/614/kideracho_small_jizodo.jpg</v>
       </c>
       <c r="E960" t="str">
-        <v>2020/08/09 11:07:49</v>
+        <v>2020-08-09T11:07:49</v>
       </c>
       <c r="F960" t="str">
         <v>Kohei Otsuka</v>
@@ -37824,7 +37824,7 @@
         <v>./images/614/kideracho_small_jizodo_inside.jpg</v>
       </c>
       <c r="E961" t="str">
-        <v>2020/08/09 11:07:59</v>
+        <v>2020-08-09T11:07:59</v>
       </c>
       <c r="F961" t="str">
         <v>Kohei Otsuka</v>
@@ -37850,7 +37850,7 @@
         <v>./images/615/higashikideracho3_jizodo.jpg</v>
       </c>
       <c r="E962" t="str">
-        <v>2020/08/09 10:46:30</v>
+        <v>2020-08-09T10:46:30</v>
       </c>
       <c r="F962" t="str">
         <v>Kohei Otsuka</v>
@@ -37876,7 +37876,7 @@
         <v>./images/615/higashikideracho3_jizodo_inside.jpg</v>
       </c>
       <c r="E963" t="str">
-        <v>2020/08/09 10:46:41</v>
+        <v>2020-08-09T10:46:41</v>
       </c>
       <c r="F963" t="str">
         <v>Kohei Otsuka</v>
@@ -37902,7 +37902,7 @@
         <v>./images/616/kideradanchi_jizo.jpg</v>
       </c>
       <c r="E964" t="str">
-        <v>2020/08/09 10:57:00</v>
+        <v>2020-08-09T10:57:00</v>
       </c>
       <c r="F964" t="str">
         <v>Kohei Otsuka</v>
@@ -37928,7 +37928,7 @@
         <v>./images/616/kideradanchi_sakura_jizo.jpg</v>
       </c>
       <c r="E965" t="str">
-        <v>2020/08/09 10:57:22</v>
+        <v>2020-08-09T10:57:22</v>
       </c>
       <c r="F965" t="str">
         <v>Kohei Otsuka</v>
@@ -37954,7 +37954,7 @@
         <v>./images/616/kideradanchi_sakura_jizodo.jpg</v>
       </c>
       <c r="E966" t="str">
-        <v>2020/08/09 10:56:18</v>
+        <v>2020-08-09T10:56:18</v>
       </c>
       <c r="F966" t="str">
         <v>Kohei Otsuka</v>
@@ -37980,7 +37980,7 @@
         <v>./images/616/sakura_jizo.jpg</v>
       </c>
       <c r="E967" t="str">
-        <v>2020/08/09 10:57:10</v>
+        <v>2020-08-09T10:57:10</v>
       </c>
       <c r="F967" t="str">
         <v>Kohei Otsuka</v>
@@ -38006,7 +38006,7 @@
         <v>./images/630/kideracho_near_carpark.jpg</v>
       </c>
       <c r="E968" t="str">
-        <v>2020/08/09 11:32:22</v>
+        <v>2020-08-09T11:32:22</v>
       </c>
       <c r="F968" t="str">
         <v>Kohei Otsuka</v>
@@ -38032,7 +38032,7 @@
         <v>./images/630/kideracho_near_carpark_inside.jpg</v>
       </c>
       <c r="E969" t="str">
-        <v>2020/08/09 11:32:27</v>
+        <v>2020-08-09T11:32:27</v>
       </c>
       <c r="F969" t="str">
         <v>Kohei Otsuka</v>
@@ -38058,7 +38058,7 @@
         <v>./images/10/higashikidera2_jizodo_new_inside.jpg</v>
       </c>
       <c r="E970" t="str">
-        <v>2020/08/09 10:44:33</v>
+        <v>2020-08-09T10:44:33</v>
       </c>
       <c r="F970" t="str">
         <v>Kohei Otsuka</v>
@@ -38084,7 +38084,7 @@
         <v>./images/565/yokoi2_jizodo.jpg</v>
       </c>
       <c r="E971" t="str">
-        <v>2020/08/09 14:15:38</v>
+        <v>2020-08-09T14:15:38</v>
       </c>
       <c r="F971" t="str">
         <v>Kohei Otsuka</v>
@@ -38110,7 +38110,7 @@
         <v>./images/565/yokoi2_jizodo_inside.jpg</v>
       </c>
       <c r="E972" t="str">
-        <v>2020/08/09 14:15:51</v>
+        <v>2020-08-09T14:15:51</v>
       </c>
       <c r="F972" t="str">
         <v>Kohei Otsuka</v>
@@ -38136,7 +38136,7 @@
         <v>./images/601/byakugoji_jizo_in_smallroad.jpg</v>
       </c>
       <c r="E973" t="str">
-        <v>2020/08/09 12:17:45</v>
+        <v>2020-08-09T12:17:45</v>
       </c>
       <c r="F973" t="str">
         <v>Kohei Otsuka</v>
@@ -38162,7 +38162,7 @@
         <v>./images/601/byakugoji_jizo_in_smallroad_zoom.jpg</v>
       </c>
       <c r="E974" t="str">
-        <v>2020/08/09 12:17:50</v>
+        <v>2020-08-09T12:17:50</v>
       </c>
       <c r="F974" t="str">
         <v>Kohei Otsuka</v>
@@ -38188,7 +38188,7 @@
         <v>./images/602/byakugoji_nakayoshi_jizo.jpg</v>
       </c>
       <c r="E975" t="str">
-        <v>2020/08/09 12:07:34</v>
+        <v>2020-08-09T12:07:34</v>
       </c>
       <c r="F975" t="str">
         <v>Kohei Otsuka</v>
@@ -38214,7 +38214,7 @@
         <v>./images/602/byakugoji_nakayoshi_jizo_inside.jpg</v>
       </c>
       <c r="E976" t="str">
-        <v>2020/08/09 12:07:41</v>
+        <v>2020-08-09T12:07:41</v>
       </c>
       <c r="F976" t="str">
         <v>Kohei Otsuka</v>
@@ -38240,7 +38240,7 @@
         <v>./images/603/byakugoji_relief_stupa_myogo.jpg</v>
       </c>
       <c r="E977" t="str">
-        <v>2020/08/09 12:15:25</v>
+        <v>2020-08-09T12:15:25</v>
       </c>
       <c r="F977" t="str">
         <v>Kohei Otsuka</v>
@@ -38266,7 +38266,7 @@
         <v>./images/604/byakugoji_jizos_side_of_tombs.jpg</v>
       </c>
       <c r="E978" t="str">
-        <v>2020/08/09 12:35:53</v>
+        <v>2020-08-09T12:35:53</v>
       </c>
       <c r="F978" t="str">
         <v>Kohei Otsuka</v>
@@ -38292,7 +38292,7 @@
         <v>./images/604/byakugoji_jizos_side_of_tombs_far.jpg</v>
       </c>
       <c r="E979" t="str">
-        <v>2020/08/09 12:35:31</v>
+        <v>2020-08-09T12:35:31</v>
       </c>
       <c r="F979" t="str">
         <v>Kohei Otsuka</v>
@@ -38318,7 +38318,7 @@
         <v>./images/604/byakugoji_jizos_side_of_tombs_near.jpg</v>
       </c>
       <c r="E980" t="str">
-        <v>2020/08/09 12:35:22</v>
+        <v>2020-08-09T12:35:22</v>
       </c>
       <c r="F980" t="str">
         <v>Kohei Otsuka</v>
@@ -38344,7 +38344,7 @@
         <v>./images/604/byakugoji_sankaibanrei_side_of_tombs.jpg</v>
       </c>
       <c r="E981" t="str">
-        <v>2020/08/09 12:35:40</v>
+        <v>2020-08-09T12:35:40</v>
       </c>
       <c r="F981" t="str">
         <v>Kohei Otsuka</v>
@@ -38370,7 +38370,7 @@
         <v>./images/605/byakugoji_kasoba_entrance_jizo.jpg</v>
       </c>
       <c r="E982" t="str">
-        <v>2020/08/09 12:37:41</v>
+        <v>2020-08-09T12:37:41</v>
       </c>
       <c r="F982" t="str">
         <v>Kohei Otsuka</v>
@@ -38396,7 +38396,7 @@
         <v>./images/605/byakugoji_kasoba_entrance_jizo_zoom.jpg</v>
       </c>
       <c r="E983" t="str">
-        <v>2020/08/09 12:37:49</v>
+        <v>2020-08-09T12:37:49</v>
       </c>
       <c r="F983" t="str">
         <v>Kohei Otsuka</v>
@@ -38422,7 +38422,7 @@
         <v>./images/606/byakugojicho_jizo_side_of_road.jpg</v>
       </c>
       <c r="E984" t="str">
-        <v>2020/08/09 12:40:55</v>
+        <v>2020-08-09T12:40:55</v>
       </c>
       <c r="F984" t="str">
         <v>Kohei Otsuka</v>
@@ -38448,7 +38448,7 @@
         <v>./images/606/byakugojicho_jizo_side_of_road_zoom.jpg</v>
       </c>
       <c r="E985" t="str">
-        <v>2020/08/09 12:41:15</v>
+        <v>2020-08-09T12:41:15</v>
       </c>
       <c r="F985" t="str">
         <v>Kohei Otsuka</v>
@@ -38474,7 +38474,7 @@
         <v>./images/606/byakugojicho_myogo_side_of_road.jpg</v>
       </c>
       <c r="E986" t="str">
-        <v>2020/08/09 12:41:26</v>
+        <v>2020-08-09T12:41:26</v>
       </c>
       <c r="F986" t="str">
         <v>Kohei Otsuka</v>
@@ -38500,7 +38500,7 @@
         <v>./images/607/byakugoji_jizo_back_of_takamado_hs.jpg</v>
       </c>
       <c r="E987" t="str">
-        <v>2020/08/09 12:47:35</v>
+        <v>2020-08-09T12:47:35</v>
       </c>
       <c r="F987" t="str">
         <v>Kohei Otsuka</v>
@@ -38526,7 +38526,7 @@
         <v>./images/607/byakugoji_jizo_back_of_takamado_hs_zoom.jpg</v>
       </c>
       <c r="E988" t="str">
-        <v>2020/08/09 12:47:46</v>
+        <v>2020-08-09T12:47:46</v>
       </c>
       <c r="F988" t="str">
         <v>Kohei Otsuka</v>
@@ -38552,7 +38552,7 @@
         <v>./images/608/byakugoji_jizo_in_park.jpg</v>
       </c>
       <c r="E989" t="str">
-        <v>2020/08/09 12:22:00</v>
+        <v>2020-08-09T12:22:00</v>
       </c>
       <c r="F989" t="str">
         <v>Kohei Otsuka</v>
@@ -38578,7 +38578,7 @@
         <v>./images/610/takabatake_kokusaikenshukan_jizo_1.jpg</v>
       </c>
       <c r="E990" t="str">
-        <v>2020/08/09 13:06:55</v>
+        <v>2020-08-09T13:06:55</v>
       </c>
       <c r="F990" t="str">
         <v>Kohei Otsuka</v>
@@ -38604,7 +38604,7 @@
         <v>./images/610/takabatake_kokusaikenshukan_jizo_2.jpg</v>
       </c>
       <c r="E991" t="str">
-        <v>2020/08/09 13:07:00</v>
+        <v>2020-08-09T13:07:00</v>
       </c>
       <c r="F991" t="str">
         <v>Kohei Otsuka</v>
@@ -38630,7 +38630,7 @@
         <v>./images/611/byakugoji_relief_stupa_by_southmost_jizodo.jpg</v>
       </c>
       <c r="E992" t="str">
-        <v>2020/08/09 13:00:37</v>
+        <v>2020-08-09T13:00:37</v>
       </c>
       <c r="F992" t="str">
         <v>Kohei Otsuka</v>
@@ -38656,7 +38656,7 @@
         <v>./images/611/byakugoji_southmost_jizodo.jpg</v>
       </c>
       <c r="E993" t="str">
-        <v>2020/08/09 13:00:22</v>
+        <v>2020-08-09T13:00:22</v>
       </c>
       <c r="F993" t="str">
         <v>Kohei Otsuka</v>
@@ -38682,7 +38682,7 @@
         <v>./images/611/byakugoji_southmost_jizodo_inside.jpg</v>
       </c>
       <c r="E994" t="str">
-        <v>2020/08/09 13:00:30</v>
+        <v>2020-08-09T13:00:30</v>
       </c>
       <c r="F994" t="str">
         <v>Kohei Otsuka</v>
@@ -38708,7 +38708,7 @@
         <v>./images/620/byakugoji_ruriko_yakushi.jpg</v>
       </c>
       <c r="E995" t="str">
-        <v>2020/08/09 12:10:25</v>
+        <v>2020-08-09T12:10:25</v>
       </c>
       <c r="F995" t="str">
         <v>Kohei Otsuka</v>
@@ -38734,7 +38734,7 @@
         <v>./images/620/byakugoji_ruriko_yakushi_honzon.jpg</v>
       </c>
       <c r="E996" t="str">
-        <v>2020/08/09 12:10:48</v>
+        <v>2020-08-09T12:10:48</v>
       </c>
       <c r="F996" t="str">
         <v>Kohei Otsuka</v>
@@ -38760,7 +38760,7 @@
         <v>./images/620/byakugoji_ruriko_yakushi_koshin.jpg</v>
       </c>
       <c r="E997" t="str">
-        <v>2020/08/09 12:11:01</v>
+        <v>2020-08-09T12:11:01</v>
       </c>
       <c r="F997" t="str">
         <v>Kohei Otsuka</v>
@@ -38786,7 +38786,7 @@
         <v>./images/621/minaminagai_jizodo_under_pond.jpg</v>
       </c>
       <c r="E998" t="str">
-        <v>2020/08/09 14:26:26</v>
+        <v>2020-08-09T14:26:26</v>
       </c>
       <c r="F998" t="str">
         <v>Kohei Otsuka</v>
@@ -38812,7 +38812,7 @@
         <v>./images/621/minaminagai_jizodo_under_pond_inside_center.jpg</v>
       </c>
       <c r="E999" t="str">
-        <v>2020/08/09 14:26:50</v>
+        <v>2020-08-09T14:26:50</v>
       </c>
       <c r="F999" t="str">
         <v>Kohei Otsuka</v>
@@ -38838,7 +38838,7 @@
         <v>./images/621/minaminagai_jizodo_under_pond_inside_left.jpg</v>
       </c>
       <c r="E1000" t="str">
-        <v>2020/08/09 14:26:55</v>
+        <v>2020-08-09T14:26:55</v>
       </c>
       <c r="F1000" t="str">
         <v>Kohei Otsuka</v>
@@ -38864,7 +38864,7 @@
         <v>./images/621/minaminagai_jizodo_under_pond_inside_right.jpg</v>
       </c>
       <c r="E1001" t="str">
-        <v>2020/08/09 14:26:38</v>
+        <v>2020-08-09T14:26:38</v>
       </c>
       <c r="F1001" t="str">
         <v>Kohei Otsuka</v>
@@ -38890,7 +38890,7 @@
         <v>./images/631/byakugoji_myogo_stones.jpg</v>
       </c>
       <c r="E1002" t="str">
-        <v>2020/08/09 12:03:50</v>
+        <v>2020-08-09T12:03:50</v>
       </c>
       <c r="F1002" t="str">
         <v>Kohei Otsuka</v>
@@ -38916,7 +38916,7 @@
         <v>./images/632/byakugoji_many_stones_1.jpg</v>
       </c>
       <c r="E1003" t="str">
-        <v>2020/08/09 12:16:47</v>
+        <v>2020-08-09T12:16:47</v>
       </c>
       <c r="F1003" t="str">
         <v>Kohei Otsuka</v>
@@ -38942,7 +38942,7 @@
         <v>./images/632/byakugoji_many_stones_2.jpg</v>
       </c>
       <c r="E1004" t="str">
-        <v>2020/08/09 12:17:21</v>
+        <v>2020-08-09T12:17:21</v>
       </c>
       <c r="F1004" t="str">
         <v>Kohei Otsuka</v>
@@ -38968,7 +38968,7 @@
         <v>./images/633/byakugoji_kasoba_entrance_jizos.jpg</v>
       </c>
       <c r="E1005" t="str">
-        <v>2020/08/09 12:38:54</v>
+        <v>2020-08-09T12:38:54</v>
       </c>
       <c r="F1005" t="str">
         <v>Kohei Otsuka</v>
@@ -38994,7 +38994,7 @@
         <v>./images/633/byakugoji_kasoba_entrance_jizos_amida.jpg</v>
       </c>
       <c r="E1006" t="str">
-        <v>2020/08/09 12:39:01</v>
+        <v>2020-08-09T12:39:01</v>
       </c>
       <c r="F1006" t="str">
         <v>Kohei Otsuka</v>
@@ -39020,7 +39020,7 @@
         <v>./images/633/byakugoji_kasoba_entrance_jizos_center.jpg</v>
       </c>
       <c r="E1007" t="str">
-        <v>2020/08/09 12:39:13</v>
+        <v>2020-08-09T12:39:13</v>
       </c>
       <c r="F1007" t="str">
         <v>Kohei Otsuka</v>
@@ -39046,7 +39046,7 @@
         <v>./images/633/byakugoji_kasoba_entrance_jizos_left.jpg</v>
       </c>
       <c r="E1008" t="str">
-        <v>2020/08/09 12:39:18</v>
+        <v>2020-08-09T12:39:18</v>
       </c>
       <c r="F1008" t="str">
         <v>Kohei Otsuka</v>
@@ -39072,7 +39072,7 @@
         <v>./images/633/byakugoji_kasoba_entrance_jizos_right.jpg</v>
       </c>
       <c r="E1009" t="str">
-        <v>2020/08/09 12:39:06</v>
+        <v>2020-08-09T12:39:06</v>
       </c>
       <c r="F1009" t="str">
         <v>Kohei Otsuka</v>
@@ -39098,7 +39098,7 @@
         <v>./images/634/rokujizo_near_takamado_hs.jpg</v>
       </c>
       <c r="E1010" t="str">
-        <v>2020/08/09 12:44:33</v>
+        <v>2020-08-09T12:44:33</v>
       </c>
       <c r="F1010" t="str">
         <v>Kohei Otsuka</v>
@@ -39124,7 +39124,7 @@
         <v>./images/635/fujiwaracho_jizodo_near_juroku_bridge.jpg</v>
       </c>
       <c r="E1011" t="str">
-        <v>2020/08/09 13:46:59</v>
+        <v>2020-08-09T13:46:59</v>
       </c>
       <c r="F1011" t="str">
         <v>Kohei Otsuka</v>
@@ -39150,7 +39150,7 @@
         <v>./images/635/fujiwaracho_jizodo_near_juroku_bridge_inside_far_left.jpg</v>
       </c>
       <c r="E1012" t="str">
-        <v>2020/08/09 13:47:17</v>
+        <v>2020-08-09T13:47:17</v>
       </c>
       <c r="F1012" t="str">
         <v>Kohei Otsuka</v>
@@ -39176,7 +39176,7 @@
         <v>./images/635/fujiwaracho_jizodo_near_juroku_bridge_inside_far_right.jpg</v>
       </c>
       <c r="E1013" t="str">
-        <v>2020/08/09 13:47:11</v>
+        <v>2020-08-09T13:47:11</v>
       </c>
       <c r="F1013" t="str">
         <v>Kohei Otsuka</v>
@@ -39202,7 +39202,7 @@
         <v>./images/635/fujiwaracho_jizodo_near_juroku_bridge_inside_near_left.jpg</v>
       </c>
       <c r="E1014" t="str">
-        <v>2020/08/09 13:47:30</v>
+        <v>2020-08-09T13:47:30</v>
       </c>
       <c r="F1014" t="str">
         <v>Kohei Otsuka</v>
@@ -39228,7 +39228,7 @@
         <v>./images/635/fujiwaracho_jizodo_near_juroku_bridge_inside_near_right.jpg</v>
       </c>
       <c r="E1015" t="str">
-        <v>2020/08/09 13:47:24</v>
+        <v>2020-08-09T13:47:24</v>
       </c>
       <c r="F1015" t="str">
         <v>Kohei Otsuka</v>
@@ -39254,7 +39254,7 @@
         <v>./images/636/yokoi5_shuji_stone.jpg</v>
       </c>
       <c r="E1016" t="str">
-        <v>2020/08/09 14:09:13</v>
+        <v>2020-08-09T14:09:13</v>
       </c>
       <c r="F1016" t="str">
         <v>Kohei Otsuka</v>
@@ -39280,7 +39280,7 @@
         <v>./images/636/yokoi5_shuji_stone_inside_1.jpg</v>
       </c>
       <c r="E1017" t="str">
-        <v>2020/08/09 14:09:51</v>
+        <v>2020-08-09T14:09:51</v>
       </c>
       <c r="F1017" t="str">
         <v>Kohei Otsuka</v>
@@ -39306,7 +39306,7 @@
         <v>./images/636/yokoi5_shuji_stone_inside_2.jpg</v>
       </c>
       <c r="E1018" t="str">
-        <v>2020/08/09 14:10:14</v>
+        <v>2020-08-09T14:10:14</v>
       </c>
       <c r="F1018" t="str">
         <v>Kohei Otsuka</v>
@@ -39332,7 +39332,7 @@
         <v>./images/636/yokoi5_shuji_stone_inside_3.jpg</v>
       </c>
       <c r="E1019" t="str">
-        <v>2020/08/09 14:10:00</v>
+        <v>2020-08-09T14:10:00</v>
       </c>
       <c r="F1019" t="str">
         <v>Kohei Otsuka</v>
@@ -39358,7 +39358,7 @@
         <v>./images/269/imaichi_small_shrine.jpg</v>
       </c>
       <c r="E1020" t="str">
-        <v>2020/08/09 14:52:43</v>
+        <v>2020-08-09T14:52:43</v>
       </c>
       <c r="F1020" t="str">
         <v>Kohei Otsuka</v>
@@ -39384,7 +39384,7 @@
         <v>./images/622/Iimaichi_toyokawa_stones_1.jpg</v>
       </c>
       <c r="E1021" t="str">
-        <v>2020/08/09 14:43:45</v>
+        <v>2020-08-09T14:43:45</v>
       </c>
       <c r="F1021" t="str">
         <v>Kohei Otsuka</v>
@@ -39410,7 +39410,7 @@
         <v>./images/622/imaichi_toyokawa_fox_left.jpg</v>
       </c>
       <c r="E1022" t="str">
-        <v>2020/08/09 14:43:35</v>
+        <v>2020-08-09T14:43:35</v>
       </c>
       <c r="F1022" t="str">
         <v>Kohei Otsuka</v>
@@ -39436,7 +39436,7 @@
         <v>./images/622/imaichi_toyokawa_fox_right.jpg</v>
       </c>
       <c r="E1023" t="str">
-        <v>2020/08/09 14:43:33</v>
+        <v>2020-08-09T14:43:33</v>
       </c>
       <c r="F1023" t="str">
         <v>Kohei Otsuka</v>
@@ -39462,7 +39462,7 @@
         <v>./images/622/imaichi_toyokawa_stones_2.jpg</v>
       </c>
       <c r="E1024" t="str">
-        <v>2020/08/09 14:43:58</v>
+        <v>2020-08-09T14:43:58</v>
       </c>
       <c r="F1024" t="str">
         <v>Kohei Otsuka</v>
@@ -39488,7 +39488,7 @@
         <v>./images/622/imaichi_toyokawa_torii_1.jpg</v>
       </c>
       <c r="E1025" t="str">
-        <v>2020/08/09 14:43:12</v>
+        <v>2020-08-09T14:43:12</v>
       </c>
       <c r="F1025" t="str">
         <v>Kohei Otsuka</v>
@@ -39514,7 +39514,7 @@
         <v>./images/622/imaichi_toyokawa_torii_2.jpg</v>
       </c>
       <c r="E1026" t="str">
-        <v>2020/08/09 14:43:27</v>
+        <v>2020-08-09T14:43:27</v>
       </c>
       <c r="F1026" t="str">
         <v>Kohei Otsuka</v>
@@ -39540,7 +39540,7 @@
         <v>./images/637/imaichi_gamaike_jizos.jpg</v>
       </c>
       <c r="E1027" t="str">
-        <v>2020/08/09 14:44:43</v>
+        <v>2020-08-09T14:44:43</v>
       </c>
       <c r="F1027" t="str">
         <v>Kohei Otsuka</v>
@@ -39566,7 +39566,7 @@
         <v>./images/637/imaichi_gamaike_jizos_inside.jpg</v>
       </c>
       <c r="E1028" t="str">
-        <v>2020/08/09 14:44:58</v>
+        <v>2020-08-09T14:44:58</v>
       </c>
       <c r="F1028" t="str">
         <v>Kohei Otsuka</v>
@@ -39592,7 +39592,7 @@
         <v>./images/637/imaichi_gamaike_jizos_outside.jpg</v>
       </c>
       <c r="E1029" t="str">
-        <v>2020/08/09 14:44:51</v>
+        <v>2020-08-09T14:44:51</v>
       </c>
       <c r="F1029" t="str">
         <v>Kohei Otsuka</v>
@@ -39618,7 +39618,7 @@
         <v>./images/637/imaichi_gamaike_jizos_reliefs.jpg</v>
       </c>
       <c r="E1030" t="str">
-        <v>2020/08/09 14:44:47</v>
+        <v>2020-08-09T14:44:47</v>
       </c>
       <c r="F1030" t="str">
         <v>Kohei Otsuka</v>
@@ -39644,7 +39644,7 @@
         <v>./images/7/imaichi_fukutoku_enmei_jizo.jpg</v>
       </c>
       <c r="E1031" t="str">
-        <v>2020/08/09 14:54:31</v>
+        <v>2020-08-09T14:54:31</v>
       </c>
       <c r="F1031" t="str">
         <v>Kohei Otsuka</v>
@@ -39670,7 +39670,7 @@
         <v>./images/7/imaichi_fukutoku_enmei_jizo_odo.jpg</v>
       </c>
       <c r="E1032" t="str">
-        <v>2020/08/09 14:54:41</v>
+        <v>2020-08-09T14:54:41</v>
       </c>
       <c r="F1032" t="str">
         <v>Kohei Otsuka</v>
@@ -39696,7 +39696,7 @@
         <v>./images/7/imaichi_fukutoku_enmei_jizo_odo_inside.jpg</v>
       </c>
       <c r="E1033" t="str">
-        <v>2020/08/09 14:55:09</v>
+        <v>2020-08-09T14:55:09</v>
       </c>
       <c r="F1033" t="str">
         <v>Kohei Otsuka</v>
@@ -39722,7 +39722,7 @@
         <v>./images/7/imaichi_fukutoku_enmei_jizo_shrine.jpg</v>
       </c>
       <c r="E1034" t="str">
-        <v>2020/08/09 14:54:47</v>
+        <v>2020-08-09T14:54:47</v>
       </c>
       <c r="F1034" t="str">
         <v>Kohei Otsuka</v>
@@ -39748,7 +39748,7 @@
         <v>./images/7/imaichi_fukutoku_enmei_jizo_shrine_inside.jpg</v>
       </c>
       <c r="E1035" t="str">
-        <v>2020/08/09 14:54:57</v>
+        <v>2020-08-09T14:54:57</v>
       </c>
       <c r="F1035" t="str">
         <v>Kohei Otsuka</v>
@@ -39767,6 +39767,9 @@
       <c r="B1036">
         <v>638</v>
       </c>
+      <c r="C1036" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
       <c r="D1036" t="str">
         <v>./images/638/IMG_7800.jpg</v>
       </c>
@@ -39790,6 +39793,9 @@
       <c r="B1037">
         <v>638</v>
       </c>
+      <c r="C1037" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
       <c r="D1037" t="str">
         <v>./images/638/IMG_7802.jpg</v>
       </c>
@@ -39813,6 +39819,9 @@
       <c r="B1038">
         <v>638</v>
       </c>
+      <c r="C1038" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
       <c r="D1038" t="str">
         <v>./images/638/IMG_7803.jpg</v>
       </c>
@@ -39836,6 +39845,9 @@
       <c r="B1039">
         <v>638</v>
       </c>
+      <c r="C1039" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
       <c r="D1039" t="str">
         <v>./images/638/IMG_7804.jpg</v>
       </c>
@@ -39859,6 +39871,9 @@
       <c r="B1040">
         <v>638</v>
       </c>
+      <c r="C1040" t="str">
+        <v>南袋町地蔵堂</v>
+      </c>
       <c r="D1040" t="str">
         <v>./images/638/IMG_7799.jpg</v>
       </c>
@@ -39882,6 +39897,9 @@
       <c r="B1041">
         <v>639</v>
       </c>
+      <c r="C1041" t="str">
+        <v>柳町 日限地蔵尊</v>
+      </c>
       <c r="D1041" t="str">
         <v>./images/639/IMG_4220.jpg</v>
       </c>
@@ -39905,6 +39923,9 @@
       <c r="B1042">
         <v>639</v>
       </c>
+      <c r="C1042" t="str">
+        <v>柳町 日限地蔵尊</v>
+      </c>
       <c r="D1042" t="str">
         <v>./images/639/IMG_4221.jpg</v>
       </c>
@@ -39928,6 +39949,9 @@
       <c r="B1043">
         <v>639</v>
       </c>
+      <c r="C1043" t="str">
+        <v>柳町 日限地蔵尊</v>
+      </c>
       <c r="D1043" t="str">
         <v>./images/639/IMG_4218.jpg</v>
       </c>
@@ -39951,6 +39975,9 @@
       <c r="B1044">
         <v>90</v>
       </c>
+      <c r="C1044" t="str">
+        <v>まんなおし地蔵</v>
+      </c>
       <c r="D1044" t="str">
         <v>./images/90/IMG_2398.jpg</v>
       </c>
@@ -39974,6 +40001,9 @@
       <c r="B1045">
         <v>90</v>
       </c>
+      <c r="C1045" t="str">
+        <v>まんなおし地蔵</v>
+      </c>
       <c r="D1045" t="str">
         <v>./images/90/IMG_2399.jpg</v>
       </c>
@@ -39997,6 +40027,9 @@
       <c r="B1046">
         <v>567</v>
       </c>
+      <c r="C1046" t="str">
+        <v>山陵町 空の地蔵堂</v>
+      </c>
       <c r="D1046" t="str">
         <v>./images/567/IMG_8334.jpg</v>
       </c>
@@ -40020,6 +40053,9 @@
       <c r="B1047">
         <v>567</v>
       </c>
+      <c r="C1047" t="str">
+        <v>山陵町 空の地蔵堂</v>
+      </c>
       <c r="D1047" t="str">
         <v>./images/567/IMG_8333.jpg</v>
       </c>
@@ -40042,6 +40078,9 @@
       </c>
       <c r="B1048">
         <v>609</v>
+      </c>
+      <c r="C1048" t="str">
+        <v>高畑町 駐車場脇の地蔵</v>
       </c>
       <c r="D1048" t="str">
         <v>./images/609/IMG_8433.jpg</v>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O366"/>
+  <dimension ref="A1:M369"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -406,7 +406,7 @@
         <v>ノート</v>
       </c>
       <c r="H1" t="str">
-        <v>元コモンズ情報</v>
+        <v>調査日</v>
       </c>
       <c r="I1" t="str">
         <v>消失フラグ</v>
@@ -418,15 +418,9 @@
         <v>住所</v>
       </c>
       <c r="L1" t="str">
-        <v>monumen.to</v>
+        <v>経度</v>
       </c>
       <c r="M1" t="str">
-        <v>ウィキペディア</v>
-      </c>
-      <c r="N1" t="str">
-        <v>経度</v>
-      </c>
-      <c r="O1" t="str">
         <v>緯度</v>
       </c>
     </row>
@@ -447,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Aburakake_Jizo_%28Furuichi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -458,10 +452,10 @@
       <c r="K2" t="str">
         <v>古市町</v>
       </c>
-      <c r="N2">
+      <c r="L2">
         <v>135.83543371143801</v>
       </c>
-      <c r="O2">
+      <c r="M2">
         <v>34.66472542913676</v>
       </c>
     </row>
@@ -482,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Araike_Jizo_Nara</v>
+        <v>2015-05-06</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -490,10 +484,10 @@
       <c r="K3" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N3">
+      <c r="L3">
         <v>135.83529443537944</v>
       </c>
-      <c r="O3">
+      <c r="M3">
         <v>34.67899546646606</v>
       </c>
     </row>
@@ -514,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Enmei_Jizo_%28Kawanoue-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -525,10 +519,10 @@
       <c r="K4" t="str">
         <v>川之上町</v>
       </c>
-      <c r="N4">
+      <c r="L4">
         <v>135.83170329054718</v>
       </c>
-      <c r="O4">
+      <c r="M4">
         <v>34.675084301616934</v>
       </c>
     </row>
@@ -549,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Enmei_Jizo_%28Tsubai-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -560,10 +554,10 @@
       <c r="K5" t="str">
         <v>椿井町</v>
       </c>
-      <c r="N5">
+      <c r="L5">
         <v>135.82650530167857</v>
       </c>
-      <c r="O5">
+      <c r="M5">
         <v>34.68088428824696</v>
       </c>
     </row>
@@ -584,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Enmei_Jizo_Nara</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -595,10 +589,10 @@
       <c r="K6" t="str">
         <v>角振新屋町</v>
       </c>
-      <c r="N6">
+      <c r="L6">
         <v>135.82766358286696</v>
       </c>
-      <c r="O6">
+      <c r="M6">
         <v>34.68178066607627</v>
       </c>
     </row>
@@ -619,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Enmei_Jizoson_%28ShijoOji-1,_Nara%29</v>
+        <v>2018-01-19</v>
       </c>
       <c r="J7">
         <v>25</v>
@@ -627,10 +621,10 @@
       <c r="K7" t="str">
         <v>四条大路一丁目</v>
       </c>
-      <c r="N7">
+      <c r="L7">
         <v>135.80575871453652</v>
       </c>
-      <c r="O7">
+      <c r="M7">
         <v>34.68094715740136</v>
       </c>
     </row>
@@ -651,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Fukutoku_Enmei_Jizo_%28Nara%29</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -662,10 +656,10 @@
       <c r="K8" t="str">
         <v>今市町</v>
       </c>
-      <c r="N8">
+      <c r="L8">
         <v>135.82538351149833</v>
       </c>
-      <c r="O8">
+      <c r="M8">
         <v>34.64457432221025</v>
       </c>
     </row>
@@ -686,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HigashiKidera-cho_1_Jizodo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J9">
         <v>31</v>
@@ -694,10 +688,10 @@
       <c r="K9" t="str">
         <v>東紀寺町一丁目</v>
       </c>
-      <c r="N9">
+      <c r="L9">
         <v>135.83841142059558</v>
       </c>
-      <c r="O9">
+      <c r="M9">
         <v>34.67388370649654</v>
       </c>
     </row>
@@ -718,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HigashiKidera-cho_2_%28East%29_Jizodo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J10">
         <v>32</v>
@@ -726,10 +720,10 @@
       <c r="K10" t="str">
         <v>東紀寺町二丁目</v>
       </c>
-      <c r="N10">
+      <c r="L10">
         <v>135.84024868539663</v>
       </c>
-      <c r="O10">
+      <c r="M10">
         <v>34.6730130253359</v>
       </c>
     </row>
@@ -750,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HigashiKidera-cho_2_%28South%29_Jizodo_Nara</v>
+        <v>2020-08-09</v>
       </c>
       <c r="J11">
         <v>34</v>
@@ -758,10 +752,10 @@
       <c r="K11" t="str">
         <v>東紀寺町二丁目</v>
       </c>
-      <c r="N11">
+      <c r="L11">
         <v>135.83893774320543</v>
       </c>
-      <c r="O11">
+      <c r="M11">
         <v>34.67185609194996</v>
       </c>
     </row>
@@ -782,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HigashiKitsuji-cho_Jizodo_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -793,10 +787,10 @@
       <c r="K12" t="str">
         <v>東木辻町</v>
       </c>
-      <c r="N12">
+      <c r="L12">
         <v>135.82768979723278</v>
       </c>
-      <c r="O12">
+      <c r="M12">
         <v>34.674132350665374</v>
       </c>
     </row>
@@ -820,7 +814,7 @@
         <v>きたまちまっぷ お地蔵さんに「東向北地蔵」あり 現地では名称なし</v>
       </c>
       <c r="H13" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HigashimukiKita-machi_Jizodo_Nara</v>
+        <v>2018-07-23</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -831,10 +825,10 @@
       <c r="K13" t="str">
         <v>東向北町</v>
       </c>
-      <c r="N13">
+      <c r="L13">
         <v>135.8288947727436</v>
       </c>
-      <c r="O13">
+      <c r="M13">
         <v>34.68535975033932</v>
       </c>
     </row>
@@ -855,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hirakinoshiba_Jizo_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J14">
         <v>42</v>
@@ -863,10 +857,10 @@
       <c r="K14" t="str">
         <v>芝辻町一丁目</v>
       </c>
-      <c r="N14">
+      <c r="L14">
         <v>135.818347214975</v>
       </c>
-      <c r="O14">
+      <c r="M14">
         <v>34.68673452249126</v>
       </c>
     </row>
@@ -887,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Horen-cho_Jizodo_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="J15">
         <v>44</v>
@@ -895,10 +889,10 @@
       <c r="K15" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N15">
+      <c r="L15">
         <v>135.83311100212188</v>
       </c>
-      <c r="O15">
+      <c r="M15">
         <v>34.69659844153505</v>
       </c>
     </row>
@@ -919,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Horen-cho_Jizos_%28North_of_Fuko-in%29_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -930,10 +924,10 @@
       <c r="K16" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N16">
+      <c r="L16">
         <v>135.82948593063585</v>
       </c>
-      <c r="O16">
+      <c r="M16">
         <v>34.691379265951866</v>
       </c>
     </row>
@@ -954,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Imaicho_Jizo_Nara</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -965,10 +959,10 @@
       <c r="K17" t="str">
         <v>三条町</v>
       </c>
-      <c r="N17">
+      <c r="L17">
         <v>135.8224659936283</v>
       </c>
-      <c r="O17">
+      <c r="M17">
         <v>34.68008762392831</v>
       </c>
     </row>
@@ -989,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Isagawa_Jizo_Nara</v>
+        <v>2019-07-23</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1000,10 +994,10 @@
       <c r="K18" t="str">
         <v>登大路町</v>
       </c>
-      <c r="N18">
+      <c r="L18">
         <v>135.83054064426275</v>
       </c>
-      <c r="O18">
+      <c r="M18">
         <v>34.680902183693604</v>
       </c>
     </row>
@@ -1024,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_%28MinamiKido-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1035,10 +1029,10 @@
       <c r="K19" t="str">
         <v>南城戸町</v>
       </c>
-      <c r="N19">
+      <c r="L19">
         <v>135.82704887868695</v>
       </c>
-      <c r="O19">
+      <c r="M19">
         <v>34.675944988871535</v>
       </c>
     </row>
@@ -1062,7 +1056,7 @@
         <v>野神さんの木の根元</v>
       </c>
       <c r="H20" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_%28Shibatsujicho-3%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1073,10 +1067,10 @@
       <c r="K20" t="str">
         <v>芝辻町三丁目</v>
       </c>
-      <c r="N20">
+      <c r="L20">
         <v>135.81351981456186</v>
       </c>
-      <c r="O20">
+      <c r="M20">
         <v>34.68675576087613</v>
       </c>
     </row>
@@ -1097,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_in_Daianji4_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1108,10 +1102,10 @@
       <c r="K21" t="str">
         <v>大安寺四丁目</v>
       </c>
-      <c r="N21">
+      <c r="L21">
         <v>135.81343896611386</v>
       </c>
-      <c r="O21">
+      <c r="M21">
         <v>34.671630958969935</v>
       </c>
     </row>
@@ -1132,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_in_Wall_%28Takamikado-cho%29_Nara</v>
+        <v>2018-07-23</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1143,10 +1137,10 @@
       <c r="K22" t="str">
         <v>鳴川町</v>
       </c>
-      <c r="N22">
+      <c r="L22">
         <v>135.82900803705982</v>
       </c>
-      <c r="O22">
+      <c r="M22">
         <v>34.6766241562695</v>
       </c>
     </row>
@@ -1170,7 +1164,7 @@
         <v>元興寺町地蔵尊との記載あり</v>
       </c>
       <c r="H23" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_in_Wall_Gangouji-Cho_Nara</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1181,10 +1175,10 @@
       <c r="K23" t="str">
         <v>元興寺町</v>
       </c>
-      <c r="N23">
+      <c r="L23">
         <v>135.8298273747596</v>
       </c>
-      <c r="O23">
+      <c r="M23">
         <v>34.67589468501386</v>
       </c>
     </row>
@@ -1205,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Kasugano_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="J24">
         <v>75</v>
@@ -1213,10 +1207,10 @@
       <c r="K24" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N24">
+      <c r="L24">
         <v>135.83931422318994</v>
       </c>
-      <c r="O24">
+      <c r="M24">
         <v>34.683362265595015</v>
       </c>
     </row>
@@ -1240,7 +1234,7 @@
         <v>地蔵堂内に光好地蔵大菩薩の名前あり</v>
       </c>
       <c r="H25" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Kidera_Nara_1</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1251,10 +1245,10 @@
       <c r="K25" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N25">
+      <c r="L25">
         <v>135.83371337784047</v>
       </c>
-      <c r="O25">
+      <c r="M25">
         <v>34.67107315803388</v>
       </c>
     </row>
@@ -1275,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Kidera_Nara_2</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1286,10 +1280,10 @@
       <c r="K26" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N26">
+      <c r="L26">
         <v>135.8335490552994</v>
       </c>
-      <c r="O26">
+      <c r="M26">
         <v>34.67167108084515</v>
       </c>
     </row>
@@ -1310,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Kidera_Nara_3</v>
+        <v>2017-02-11</v>
       </c>
       <c r="J27">
         <v>83</v>
@@ -1318,10 +1312,10 @@
       <c r="K27" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N27">
+      <c r="L27">
         <v>135.83355936335545</v>
       </c>
-      <c r="O27">
+      <c r="M27">
         <v>34.67168803605794</v>
       </c>
     </row>
@@ -1342,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Minami-Kidera_3_Nara_1</v>
+        <v>2017-02-11</v>
       </c>
       <c r="J28">
         <v>85</v>
@@ -1350,10 +1344,10 @@
       <c r="K28" t="str">
         <v>南紀寺町三丁目</v>
       </c>
-      <c r="N28">
+      <c r="L28">
         <v>135.8390898713811</v>
       </c>
-      <c r="O28">
+      <c r="M28">
         <v>34.66953708324498</v>
       </c>
     </row>
@@ -1374,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Minami-Kidera_3_Nara_2</v>
+        <v>2017-02-11</v>
       </c>
       <c r="J29">
         <v>87</v>
@@ -1382,10 +1376,10 @@
       <c r="K29" t="str">
         <v>南紀寺町三丁目</v>
       </c>
-      <c r="N29">
+      <c r="L29">
         <v>135.8388703704222</v>
       </c>
-      <c r="O29">
+      <c r="M29">
         <v>34.669379495276935</v>
       </c>
     </row>
@@ -1406,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Minami-Kyobate_Nara</v>
+        <v>2017-02-11</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1417,10 +1411,10 @@
       <c r="K30" t="str">
         <v>南京終町</v>
       </c>
-      <c r="N30">
+      <c r="L30">
         <v>135.8289740302269</v>
       </c>
-      <c r="O30">
+      <c r="M30">
         <v>34.67087357674412</v>
       </c>
     </row>
@@ -1441,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Nijo-Oji-Minami_4_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1452,10 +1446,10 @@
       <c r="K31" t="str">
         <v>二条大路南四丁目</v>
       </c>
-      <c r="N31">
+      <c r="L31">
         <v>135.79199387424222</v>
       </c>
-      <c r="O31">
+      <c r="M31">
         <v>34.68573824951511</v>
       </c>
     </row>
@@ -1476,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Nijo-oji-Minami_5_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1487,10 +1481,10 @@
       <c r="K32" t="str">
         <v>二条大路南五丁目</v>
       </c>
-      <c r="N32">
+      <c r="L32">
         <v>135.78829225005643</v>
       </c>
-      <c r="O32">
+      <c r="M32">
         <v>34.68627882533369</v>
       </c>
     </row>
@@ -1511,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Ogawa-cho_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1522,10 +1516,10 @@
       <c r="K33" t="str">
         <v>小川町</v>
       </c>
-      <c r="N33">
+      <c r="L33">
         <v>135.82531287671557</v>
       </c>
-      <c r="O33">
+      <c r="M33">
         <v>34.680273997940546</v>
       </c>
     </row>
@@ -1546,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Omiya_4_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1557,10 +1551,10 @@
       <c r="K34" t="str">
         <v>大宮町四丁目</v>
       </c>
-      <c r="N34">
+      <c r="L34">
         <v>135.81160407287658</v>
       </c>
-      <c r="O34">
+      <c r="M34">
         <v>34.68313212807957</v>
       </c>
     </row>
@@ -1581,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Teramachi_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="J35">
         <v>105</v>
@@ -1589,10 +1583,10 @@
       <c r="K35" t="str">
         <v>小川町</v>
       </c>
-      <c r="N35">
+      <c r="L35">
         <v>135.8252665391214</v>
       </c>
-      <c r="O35">
+      <c r="M35">
         <v>34.68012157677416</v>
       </c>
     </row>
@@ -1613,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizo_Yokoi-2-chome_Nara</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1624,10 +1618,10 @@
       <c r="K36" t="str">
         <v>横井二丁目</v>
       </c>
-      <c r="N36">
+      <c r="L36">
         <v>135.83133177479004</v>
       </c>
-      <c r="O36">
+      <c r="M36">
         <v>34.6522002280933</v>
       </c>
     </row>
@@ -1648,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28AmagatsujiKita-machi,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1659,10 +1653,10 @@
       <c r="K37" t="str">
         <v>尼辻北町</v>
       </c>
-      <c r="N37">
+      <c r="L37">
         <v>135.7866062836272</v>
       </c>
-      <c r="O37">
+      <c r="M37">
         <v>34.68434539825944</v>
       </c>
     </row>
@@ -1683,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28AmagatsujiMinami-machi,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1694,10 +1688,10 @@
       <c r="K38" t="str">
         <v>尼辻南町</v>
       </c>
-      <c r="N38">
+      <c r="L38">
         <v>135.78605498839855</v>
       </c>
-      <c r="O38">
+      <c r="M38">
         <v>34.678538352146546</v>
       </c>
     </row>
@@ -1718,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Furuichi-cho_North_Most,_NARA%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="J39">
         <v>117</v>
@@ -1726,10 +1720,10 @@
       <c r="K39" t="str">
         <v>古市町</v>
       </c>
-      <c r="N39">
+      <c r="L39">
         <v>135.8353714813928</v>
       </c>
-      <c r="O39">
+      <c r="M39">
         <v>34.66505446759375</v>
       </c>
     </row>
@@ -1750,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Furuichi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1761,10 +1755,10 @@
       <c r="K40" t="str">
         <v>古市町</v>
       </c>
-      <c r="N40">
+      <c r="L40">
         <v>135.8326900240913</v>
       </c>
-      <c r="O40">
+      <c r="M40">
         <v>34.656209820318544</v>
       </c>
     </row>
@@ -1785,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Hachijo_1,_Nara%29</v>
+        <v>2017-09-20</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -1796,10 +1790,10 @@
       <c r="K41" t="str">
         <v>八条一丁目</v>
       </c>
-      <c r="N41">
+      <c r="L41">
         <v>135.80615106140868</v>
       </c>
-      <c r="O41">
+      <c r="M41">
         <v>34.66300195247887</v>
       </c>
     </row>
@@ -1820,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Hatanaka-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J42">
         <v>125</v>
@@ -1828,10 +1822,10 @@
       <c r="K42" t="str">
         <v>畑中町</v>
       </c>
-      <c r="N42">
+      <c r="L42">
         <v>135.82049875298688</v>
       </c>
-      <c r="O42">
+      <c r="M42">
         <v>34.68684230723819</v>
       </c>
     </row>
@@ -1852,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Horen-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -1863,10 +1857,10 @@
       <c r="K43" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N43">
+      <c r="L43">
         <v>135.82255483260863</v>
       </c>
-      <c r="O43">
+      <c r="M43">
         <v>34.69036292296275</v>
       </c>
     </row>
@@ -1887,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Karamomo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -1898,10 +1892,10 @@
       <c r="K44" t="str">
         <v>杏町</v>
       </c>
-      <c r="N44">
+      <c r="L44">
         <v>135.80179568209</v>
       </c>
-      <c r="O44">
+      <c r="M44">
         <v>34.6579939474629</v>
       </c>
     </row>
@@ -1922,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Kashiwagi-cho,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -1933,10 +1927,10 @@
       <c r="K45" t="str">
         <v>柏木町</v>
       </c>
-      <c r="N45">
+      <c r="L45">
         <v>135.79755864926838</v>
       </c>
-      <c r="O45">
+      <c r="M45">
         <v>34.675950457062584</v>
       </c>
     </row>
@@ -1957,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Kawakamicho,_Hill_Side%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -1968,10 +1962,10 @@
       <c r="K46" t="str">
         <v>川上町</v>
       </c>
-      <c r="N46">
+      <c r="L46">
         <v>135.83440520162307</v>
       </c>
-      <c r="O46">
+      <c r="M46">
         <v>34.6950274507515</v>
       </c>
     </row>
@@ -1992,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28MinamiKidera5,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="J47">
         <v>141</v>
@@ -2000,10 +1994,10 @@
       <c r="K47" t="str">
         <v>南紀寺町五丁目</v>
       </c>
-      <c r="N47">
+      <c r="L47">
         <v>135.8338216475946</v>
       </c>
-      <c r="O47">
+      <c r="M47">
         <v>34.66584365276317</v>
       </c>
     </row>
@@ -2024,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28MinamiUoya-cho,_Nara%29</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2035,10 +2029,10 @@
       <c r="K48" t="str">
         <v>南魚屋町</v>
       </c>
-      <c r="N48">
+      <c r="L48">
         <v>135.8255275308805</v>
       </c>
-      <c r="O48">
+      <c r="M48">
         <v>34.67727190464711</v>
       </c>
     </row>
@@ -2059,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Misasagi-cho,_Nara%29</v>
+        <v>2018-07-21</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2070,10 +2064,10 @@
       <c r="K49" t="str">
         <v>山陵町</v>
       </c>
-      <c r="N49">
+      <c r="L49">
         <v>135.7886920254685</v>
       </c>
-      <c r="O49">
+      <c r="M49">
         <v>34.697269362264954</v>
       </c>
     </row>
@@ -2094,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28NishiKistuji-cho,_Nishiki_Ichiba%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J50">
         <v>147</v>
@@ -2102,10 +2096,10 @@
       <c r="K50" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N50">
+      <c r="L50">
         <v>135.8274427284259</v>
       </c>
-      <c r="O50">
+      <c r="M50">
         <v>34.6758300476251</v>
       </c>
     </row>
@@ -2126,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Omori-cho,_Nara%29</v>
+        <v>2017-08-26</v>
       </c>
       <c r="J51">
         <v>150</v>
@@ -2134,10 +2128,10 @@
       <c r="K51" t="str">
         <v>大森町</v>
       </c>
-      <c r="N51">
+      <c r="L51">
         <v>135.822993</v>
       </c>
-      <c r="O51">
+      <c r="M51">
         <v>34.6771</v>
       </c>
     </row>
@@ -2158,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Saki-cho,_Nara%29</v>
+        <v>2018-07-21</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2169,10 +2163,10 @@
       <c r="K52" t="str">
         <v>佐紀町</v>
       </c>
-      <c r="N52">
+      <c r="L52">
         <v>135.7941250226736</v>
       </c>
-      <c r="O52">
+      <c r="M52">
         <v>34.69564134689243</v>
       </c>
     </row>
@@ -2193,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28SanjoKawanishi-cho,_Nara%29</v>
+        <v>2018-01-19</v>
       </c>
       <c r="J53">
         <v>155</v>
@@ -2201,10 +2195,10 @@
       <c r="K53" t="str">
         <v>四条大路一丁目</v>
       </c>
-      <c r="N53">
+      <c r="L53">
         <v>135.8057920415623</v>
       </c>
-      <c r="O53">
+      <c r="M53">
         <v>34.68154842456191</v>
       </c>
     </row>
@@ -2225,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Shibatsuji-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2236,10 +2230,10 @@
       <c r="K54" t="str">
         <v>芝辻町</v>
       </c>
-      <c r="N54">
+      <c r="L54">
         <v>135.83519612597811</v>
       </c>
-      <c r="O54">
+      <c r="M54">
         <v>34.68936257960344</v>
       </c>
     </row>
@@ -2260,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Shibatsuji-cho-2%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J55">
         <v>161</v>
@@ -2268,10 +2262,10 @@
       <c r="K55" t="str">
         <v>芝辻町二丁目</v>
       </c>
-      <c r="N55">
+      <c r="L55">
         <v>135.81210852960422</v>
       </c>
-      <c r="O55">
+      <c r="M55">
         <v>34.68536801515053</v>
       </c>
     </row>
@@ -2292,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28ShimoSanjo-cho,_Nara%29</v>
+        <v>2017-08-26</v>
       </c>
       <c r="J56">
         <v>165</v>
@@ -2300,10 +2294,10 @@
       <c r="K56" t="str">
         <v>三条町</v>
       </c>
-      <c r="N56">
+      <c r="L56">
         <v>135.82329646445578</v>
       </c>
-      <c r="O56">
+      <c r="M56">
         <v>34.680781820271974</v>
       </c>
     </row>
@@ -2330,7 +2324,7 @@
         <v>2016年から2020年の間に再建されている。きたまちまっぷ お地蔵さんに「柿の木地蔵」あり 現地では名称なし</v>
       </c>
       <c r="H57" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Shukuin-cho%29_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2341,10 +2335,10 @@
       <c r="K57" t="str">
         <v>坊屋敷町</v>
       </c>
-      <c r="N57">
+      <c r="L57">
         <v>135.8283598840451</v>
       </c>
-      <c r="O57">
+      <c r="M57">
         <v>34.68686978826853</v>
       </c>
     </row>
@@ -2365,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Tamon-cho%29_Nara</v>
+        <v>2020-08-08</v>
       </c>
       <c r="J58">
         <v>170</v>
@@ -2373,10 +2367,10 @@
       <c r="K58" t="str">
         <v>多門町</v>
       </c>
-      <c r="N58">
+      <c r="L58">
         <v>135.8301191441257</v>
       </c>
-      <c r="O58">
+      <c r="M58">
         <v>34.69211663822191</v>
       </c>
     </row>
@@ -2400,7 +2394,7 @@
         <v>きたまちまっぷ お地蔵さんに「大門地蔵」あり 現地では名称なし</v>
       </c>
       <c r="H59" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Tegai-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2411,10 +2405,10 @@
       <c r="K59" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N59">
+      <c r="L59">
         <v>135.83500808346966</v>
       </c>
-      <c r="O59">
+      <c r="M59">
         <v>34.69173517959188</v>
       </c>
     </row>
@@ -2435,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Tegai-cho,_North_East_Most%29_Nara</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2446,10 +2440,10 @@
       <c r="K60" t="str">
         <v>手貝町</v>
       </c>
-      <c r="N60">
+      <c r="L60">
         <v>135.8349848866247</v>
       </c>
-      <c r="O60">
+      <c r="M60">
         <v>34.69323240066945</v>
       </c>
     </row>
@@ -2470,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Tegai-cho,_small%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2481,10 +2475,10 @@
       <c r="K61" t="str">
         <v>手貝町</v>
       </c>
-      <c r="N61">
+      <c r="L61">
         <v>135.83458757896213</v>
       </c>
-      <c r="O61">
+      <c r="M61">
         <v>34.692999672730984</v>
       </c>
     </row>
@@ -2505,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_%28Tsubai-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2516,10 +2510,10 @@
       <c r="K62" t="str">
         <v>椿井町</v>
       </c>
-      <c r="N62">
+      <c r="L62">
         <v>135.82686668999767</v>
       </c>
-      <c r="O62">
+      <c r="M62">
         <v>34.68086733491679</v>
       </c>
     </row>
@@ -2540,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_1_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2551,10 +2545,10 @@
       <c r="K63" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N63">
+      <c r="L63">
         <v>135.81338122077656</v>
       </c>
-      <c r="O63">
+      <c r="M63">
         <v>34.65794544658002</v>
       </c>
     </row>
@@ -2575,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_2_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2586,10 +2580,10 @@
       <c r="K64" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N64">
+      <c r="L64">
         <v>135.81194704135893</v>
       </c>
-      <c r="O64">
+      <c r="M64">
         <v>34.65924956225792</v>
       </c>
     </row>
@@ -2610,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_2_%28Horen-cho%29_Nara</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2621,10 +2615,10 @@
       <c r="K65" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N65">
+      <c r="L65">
         <v>135.82816205292522</v>
       </c>
-      <c r="O65">
+      <c r="M65">
         <v>34.6894137130663</v>
       </c>
     </row>
@@ -2651,7 +2645,7 @@
         <v>白塗りの地蔵様</v>
       </c>
       <c r="H66" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_2_%28Karamomo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2662,10 +2656,10 @@
       <c r="K66" t="str">
         <v>杏町</v>
       </c>
-      <c r="N66">
+      <c r="L66">
         <v>135.79976368572173</v>
       </c>
-      <c r="O66">
+      <c r="M66">
         <v>34.65878459311256</v>
       </c>
     </row>
@@ -2686,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_3_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -2697,10 +2691,10 @@
       <c r="K67" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N67">
+      <c r="L67">
         <v>135.8119522071165</v>
       </c>
-      <c r="O67">
+      <c r="M67">
         <v>34.6595459355638</v>
       </c>
     </row>
@@ -2721,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_3_%28Horen-cho%29_Nara</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2732,10 +2726,10 @@
       <c r="K68" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N68">
+      <c r="L68">
         <v>135.82732055036035</v>
       </c>
-      <c r="O68">
+      <c r="M68">
         <v>34.68931266357353</v>
       </c>
     </row>
@@ -2756,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_3_%28Karamomo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -2767,10 +2761,10 @@
       <c r="K69" t="str">
         <v>杏町</v>
       </c>
-      <c r="N69">
+      <c r="L69">
         <v>135.8006140150546</v>
       </c>
-      <c r="O69">
+      <c r="M69">
         <v>34.658709926419895</v>
       </c>
     </row>
@@ -2791,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_4_%28Horen-cho%29_Nara</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -2802,10 +2796,10 @@
       <c r="K70" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N70">
+      <c r="L70">
         <v>135.82591294606996</v>
       </c>
-      <c r="O70">
+      <c r="M70">
         <v>34.68866902816618</v>
       </c>
     </row>
@@ -2826,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_Daianji4_%28Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -2837,10 +2831,10 @@
       <c r="K71" t="str">
         <v>大安寺四丁目</v>
       </c>
-      <c r="N71">
+      <c r="L71">
         <v>135.81261245550104</v>
       </c>
-      <c r="O71">
+      <c r="M71">
         <v>34.670122661461725</v>
       </c>
     </row>
@@ -2861,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_Daianji4_%28Nara,_On_Stream%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -2872,10 +2866,10 @@
       <c r="K72" t="str">
         <v>大安寺四丁目</v>
       </c>
-      <c r="N72">
+      <c r="L72">
         <v>135.81267186171263</v>
       </c>
-      <c r="O72">
+      <c r="M72">
         <v>34.67231859113181</v>
       </c>
     </row>
@@ -2896,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_in_Emperor_Sudo_Shrine_%28Nara_Kodono%29</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -2907,10 +2901,10 @@
       <c r="K73" t="str">
         <v>神殿町</v>
       </c>
-      <c r="N73">
+      <c r="L73">
         <v>135.82342362487947</v>
       </c>
-      <c r="O73">
+      <c r="M73">
         <v>34.65878574700685</v>
       </c>
     </row>
@@ -2931,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_in_front_of_Raigo-ji_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -2942,10 +2936,10 @@
       <c r="K74" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N74">
+      <c r="L74">
         <v>135.81893953989754</v>
       </c>
-      <c r="O74">
+      <c r="M74">
         <v>34.65809274017947</v>
       </c>
     </row>
@@ -2966,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_near_Gangouji_Shotoin_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -2977,10 +2971,10 @@
       <c r="K75" t="str">
         <v>西新屋町</v>
       </c>
-      <c r="N75">
+      <c r="L75">
         <v>135.82931606602978</v>
       </c>
-      <c r="O75">
+      <c r="M75">
         <v>34.6760811214168</v>
       </c>
     </row>
@@ -3001,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_near_prefectural_library_%28SanjoKawanishi-cho,_Nara%29</v>
+        <v>2018-01-19</v>
       </c>
       <c r="J76">
         <v>210</v>
@@ -3009,10 +3003,10 @@
       <c r="K76" t="str">
         <v>四条大路南町</v>
       </c>
-      <c r="N76">
+      <c r="L76">
         <v>135.8066322865759</v>
       </c>
-      <c r="O76">
+      <c r="M76">
         <v>34.6772643007766</v>
       </c>
     </row>
@@ -3033,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizodo_Saidaiji_Kobo_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -3044,10 +3038,10 @@
       <c r="K77" t="str">
         <v>西大寺小坊町</v>
       </c>
-      <c r="N77">
+      <c r="L77">
         <v>135.78047769317976</v>
       </c>
-      <c r="O77">
+      <c r="M77">
         <v>34.69499608399826</v>
       </c>
     </row>
@@ -3068,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizos_in_Hakayama_Kofun_%28Nara%29</v>
+        <v>2016-05-02</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3079,10 +3073,10 @@
       <c r="K78" t="str">
         <v>大安寺五丁目</v>
       </c>
-      <c r="N78">
+      <c r="L78">
         <v>135.8169175057488</v>
       </c>
-      <c r="O78">
+      <c r="M78">
         <v>34.67004343690885</v>
       </c>
     </row>
@@ -3103,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizos_in_Takabatake_%28Obanatani_River%29</v>
+        <v>2018-07-23</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3114,10 +3108,10 @@
       <c r="K79" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N79">
+      <c r="L79">
         <v>135.83333396223793</v>
       </c>
-      <c r="O79">
+      <c r="M79">
         <v>34.67854978063038</v>
       </c>
     </row>
@@ -3138,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizos_near_Kofukuji_NoboriOji-cho_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3149,10 +3143,10 @@
       <c r="K80" t="str">
         <v>登大路町</v>
       </c>
-      <c r="N80">
+      <c r="L80">
         <v>135.83030948850316</v>
       </c>
-      <c r="O80">
+      <c r="M80">
         <v>34.68220256841909</v>
       </c>
     </row>
@@ -3173,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizos_near_Yawata_Shrine_Higashikujo_Nara_%28North%29</v>
+        <v>2017-01-02</v>
       </c>
       <c r="J81">
         <v>224</v>
@@ -3181,10 +3175,10 @@
       <c r="K81" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N81">
+      <c r="L81">
         <v>135.81343058235007</v>
       </c>
-      <c r="O81">
+      <c r="M81">
         <v>34.66655182807656</v>
       </c>
     </row>
@@ -3205,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jizos_near_Yawata_Shrine_Higashikujo_Nara_%28South%29</v>
+        <v>2017-01-02</v>
       </c>
       <c r="J82">
         <v>226</v>
@@ -3213,10 +3207,10 @@
       <c r="K82" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N82">
+      <c r="L82">
         <v>135.81341863653577</v>
       </c>
-      <c r="O82">
+      <c r="M82">
         <v>34.66676253740939</v>
       </c>
     </row>
@@ -3237,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Jufuku_Jizo_Nara</v>
+        <v>2018-07-23</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -3248,10 +3242,10 @@
       <c r="K83" t="str">
         <v>花芝町</v>
       </c>
-      <c r="N83">
+      <c r="L83">
         <v>135.82897354665363</v>
       </c>
-      <c r="O83">
+      <c r="M83">
         <v>34.68673449213646</v>
       </c>
     </row>
@@ -3275,7 +3269,7 @@
         <v>Googleなどでは「おかげ灯篭地蔵尊」と記されている、正式名称かは不明。</v>
       </c>
       <c r="H84" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kainotsuka-cho_Jizo_%28Near_Big_Stone_Light%29_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -3286,10 +3280,10 @@
       <c r="K84" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N84">
+      <c r="L84">
         <v>135.8304553585215</v>
       </c>
-      <c r="O84">
+      <c r="M84">
         <v>34.66873916639889</v>
       </c>
     </row>
@@ -3310,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kainotsuka-cho_Jizo_%28With_Myogo%29_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3321,10 +3315,10 @@
       <c r="K85" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N85">
+      <c r="L85">
         <v>135.83021220966927</v>
       </c>
-      <c r="O85">
+      <c r="M85">
         <v>34.67068108311411</v>
       </c>
     </row>
@@ -3345,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kangiji_Jizo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -3356,10 +3350,10 @@
       <c r="K86" t="str">
         <v>二条町一丁目</v>
       </c>
-      <c r="N86">
+      <c r="L86">
         <v>135.7887542127548</v>
       </c>
-      <c r="O86">
+      <c r="M86">
         <v>34.69396785005364</v>
       </c>
     </row>
@@ -3380,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kawakami-cho_Jizodo_%28East_of_Nara_Juvenile_Prison%29</v>
+        <v>2016-08-19</v>
       </c>
       <c r="J87">
         <v>240</v>
@@ -3388,10 +3382,10 @@
       <c r="K87" t="str">
         <v>川上町</v>
       </c>
-      <c r="N87">
+      <c r="L87">
         <v>135.83476725431223</v>
       </c>
-      <c r="O87">
+      <c r="M87">
         <v>34.697237789711146</v>
       </c>
     </row>
@@ -3412,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kawakami-cho_Jizodo_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="J88">
         <v>242</v>
@@ -3420,10 +3414,10 @@
       <c r="K88" t="str">
         <v>川上町</v>
       </c>
-      <c r="N88">
+      <c r="L88">
         <v>135.83494802817935</v>
       </c>
-      <c r="O88">
+      <c r="M88">
         <v>34.69635432547387</v>
       </c>
     </row>
@@ -3444,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kawanaka_Jizo_%28Horen-cho%29_Nara</v>
+        <v>2020-08-08</v>
       </c>
       <c r="J89">
         <v>244</v>
@@ -3452,10 +3446,10 @@
       <c r="K89" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N89">
+      <c r="L89">
         <v>135.82950814865302</v>
       </c>
-      <c r="O89">
+      <c r="M89">
         <v>34.69157440452286</v>
       </c>
     </row>
@@ -3476,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kawanaka_Jizo_Nara</v>
+        <v>2020-08-08</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -3487,10 +3481,10 @@
       <c r="K90" t="str">
         <v>川久保町</v>
       </c>
-      <c r="N90">
+      <c r="L90">
         <v>135.83230241231846</v>
       </c>
-      <c r="O90">
+      <c r="M90">
         <v>34.689257507383815</v>
       </c>
     </row>
@@ -3511,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kawarado-cho_Jizodo_Nara</v>
+        <v>2021-07-23</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -3522,10 +3516,10 @@
       <c r="K91" t="str">
         <v>瓦堂町</v>
       </c>
-      <c r="N91">
+      <c r="L91">
         <v>135.82882914060798</v>
       </c>
-      <c r="O91">
+      <c r="M91">
         <v>34.67440063359438</v>
       </c>
     </row>
@@ -3546,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kidera-cho_Jizodo_%28Near_Kasuga_Driving_School%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -3557,10 +3551,10 @@
       <c r="K92" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N92">
+      <c r="L92">
         <v>135.83170179274697</v>
       </c>
-      <c r="O92">
+      <c r="M92">
         <v>34.66886870782569</v>
       </c>
     </row>
@@ -3581,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kitamuki_Jizo_%28Horen-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -3592,10 +3586,10 @@
       <c r="K93" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N93">
+      <c r="L93">
         <v>135.82068723981936</v>
       </c>
-      <c r="O93">
+      <c r="M93">
         <v>34.68927289305658</v>
       </c>
     </row>
@@ -3616,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kitamuki_Jizo_%28Imazaike-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J94">
         <v>260</v>
@@ -3624,10 +3618,10 @@
       <c r="K94" t="str">
         <v>今在家町</v>
       </c>
-      <c r="N94">
+      <c r="L94">
         <v>135.83456123269832</v>
       </c>
-      <c r="O94">
+      <c r="M94">
         <v>34.69418174384082</v>
       </c>
     </row>
@@ -3648,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kitamuki_Jizo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3659,10 +3653,10 @@
       <c r="K95" t="str">
         <v>西大寺国見町一丁目</v>
       </c>
-      <c r="N95">
+      <c r="L95">
         <v>135.783006330719</v>
       </c>
-      <c r="O95">
+      <c r="M95">
         <v>34.69394553112319</v>
       </c>
     </row>
@@ -3683,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kodakara_Jizo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J96">
         <v>265</v>
@@ -3691,10 +3685,10 @@
       <c r="K96" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N96">
+      <c r="L96">
         <v>135.82491389836545</v>
       </c>
-      <c r="O96">
+      <c r="M96">
         <v>34.674412102919554</v>
       </c>
     </row>
@@ -3715,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Komori_Jizo_%28NishiSasaboko-cho%29_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -3726,10 +3720,10 @@
       <c r="K97" t="str">
         <v>西笹鉾町</v>
       </c>
-      <c r="N97">
+      <c r="L97">
         <v>135.83057649899422</v>
       </c>
-      <c r="O97">
+      <c r="M97">
         <v>34.69041364999158</v>
       </c>
     </row>
@@ -3750,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Komori_Jizo_%28Takabatake-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J98">
         <v>269</v>
@@ -3758,10 +3752,10 @@
       <c r="K98" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N98">
+      <c r="L98">
         <v>135.8389034677207</v>
       </c>
-      <c r="O98">
+      <c r="M98">
         <v>34.676905146735194</v>
       </c>
     </row>
@@ -3782,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Koyasu_Jizo_NishiKitsuji</v>
+        <v>2017-02-11</v>
       </c>
       <c r="J99">
         <v>271</v>
@@ -3790,10 +3784,10 @@
       <c r="K99" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N99">
+      <c r="L99">
         <v>135.8262709236309</v>
       </c>
-      <c r="O99">
+      <c r="M99">
         <v>34.67423557486916</v>
       </c>
     </row>
@@ -3814,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Koyasu_Jizo_Saidaiji_Kobo_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -3825,10 +3819,10 @@
       <c r="K100" t="str">
         <v>西大寺小坊町</v>
       </c>
-      <c r="N100">
+      <c r="L100">
         <v>135.77982985285152</v>
       </c>
-      <c r="O100">
+      <c r="M100">
         <v>34.69527267612454</v>
       </c>
     </row>
@@ -3849,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Manki_Jizo_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -3860,10 +3854,10 @@
       <c r="K101" t="str">
         <v>般若寺町</v>
       </c>
-      <c r="N101">
+      <c r="L101">
         <v>135.8347011052156</v>
       </c>
-      <c r="O101">
+      <c r="M101">
         <v>34.69885399005493</v>
       </c>
     </row>
@@ -3884,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:ManNaoshi_Jizo_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -3895,10 +3889,10 @@
       <c r="K102" t="str">
         <v>杉ヶ町</v>
       </c>
-      <c r="N102">
+      <c r="L102">
         <v>135.8235095773134</v>
       </c>
-      <c r="O102">
+      <c r="M102">
         <v>34.67858134672326</v>
       </c>
     </row>
@@ -3919,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Mannawoshi_Jizo_%28Zoshi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -3930,10 +3924,10 @@
       <c r="K103" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N103">
+      <c r="L103">
         <v>135.84527095991243</v>
       </c>
-      <c r="O103">
+      <c r="M103">
         <v>34.69054330813597</v>
       </c>
     </row>
@@ -3954,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Meyasu_Jizo_%28ShijoOji-Minami-cho,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="J104">
         <v>287</v>
@@ -3962,10 +3956,10 @@
       <c r="K104" t="str">
         <v>四条大路南町</v>
       </c>
-      <c r="N104">
+      <c r="L104">
         <v>135.80387270785027</v>
       </c>
-      <c r="O104">
+      <c r="M104">
         <v>34.6739778700918</v>
       </c>
     </row>
@@ -3986,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiKyobate-cho_%28Fukudera%29_Jizo_Nara</v>
+        <v>2016-05-02</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -3997,10 +3991,10 @@
       <c r="K105" t="str">
         <v>南京終町五丁目</v>
       </c>
-      <c r="N105">
+      <c r="L105">
         <v>135.82912067127637</v>
       </c>
-      <c r="O105">
+      <c r="M105">
         <v>34.666923850099984</v>
       </c>
     </row>
@@ -4021,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiKyobate-cho_1_Jizodo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J106">
         <v>290</v>
@@ -4029,10 +4023,10 @@
       <c r="K106" t="str">
         <v>南京終町一丁目</v>
       </c>
-      <c r="N106">
+      <c r="L106">
         <v>135.82725986113604</v>
       </c>
-      <c r="O106">
+      <c r="M106">
         <v>34.6706631303175</v>
       </c>
     </row>
@@ -4053,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiKyobate-cho_Jizodo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4064,10 +4058,10 @@
       <c r="K107" t="str">
         <v>南京終町</v>
       </c>
-      <c r="N107">
+      <c r="L107">
         <v>135.8248529453652</v>
       </c>
-      <c r="O107">
+      <c r="M107">
         <v>34.67205425609947</v>
       </c>
     </row>
@@ -4088,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiNagai-cho_Jizo_near_Taishi-michi</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4099,10 +4093,10 @@
       <c r="K108" t="str">
         <v>南永井町</v>
       </c>
-      <c r="N108">
+      <c r="L108">
         <v>135.82659369583214</v>
       </c>
-      <c r="O108">
+      <c r="M108">
         <v>34.650305794758545</v>
       </c>
     </row>
@@ -4123,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiShin-machi_Jizodo_Nara</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4134,10 +4128,10 @@
       <c r="K109" t="str">
         <v>南新町</v>
       </c>
-      <c r="N109">
+      <c r="L109">
         <v>135.82554450885516</v>
       </c>
-      <c r="O109">
+      <c r="M109">
         <v>34.67677824060751</v>
       </c>
     </row>
@@ -4158,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nakasuji-cho_Jizodo_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4169,10 +4163,10 @@
       <c r="K110" t="str">
         <v>中筋町</v>
       </c>
-      <c r="N110">
+      <c r="L110">
         <v>135.82816449225976</v>
       </c>
-      <c r="O110">
+      <c r="M110">
         <v>34.68493452070414</v>
       </c>
     </row>
@@ -4193,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nara_Ganrin-in_Jizodo</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -4204,10 +4198,10 @@
       <c r="K111" t="str">
         <v>元林院町</v>
       </c>
-      <c r="N111">
+      <c r="L111">
         <v>135.82990033207318</v>
       </c>
-      <c r="O111">
+      <c r="M111">
         <v>34.680886726248985</v>
       </c>
     </row>
@@ -4228,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nara_Jizo_%28Kidera-cho,_Near_Hoju-ji%29</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4239,10 +4233,10 @@
       <c r="K112" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N112">
+      <c r="L112">
         <v>135.83285477740444</v>
       </c>
-      <c r="O112">
+      <c r="M112">
         <v>34.6723158751701</v>
       </c>
     </row>
@@ -4263,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nara_Kofukuji_South_Jizo</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4274,10 +4268,10 @@
       <c r="K113" t="str">
         <v>登大路町</v>
       </c>
-      <c r="N113">
+      <c r="L113">
         <v>135.83250282422077</v>
       </c>
-      <c r="O113">
+      <c r="M113">
         <v>34.68211815025362</v>
       </c>
     </row>
@@ -4298,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nataedaguchi_Jizo_Nara</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -4309,10 +4303,10 @@
       <c r="K114" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N114">
+      <c r="L114">
         <v>135.83768954252795</v>
       </c>
-      <c r="O114">
+      <c r="M114">
         <v>34.67569441260862</v>
       </c>
     </row>
@@ -4333,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKidera-cho_Jizo_%28Nara%29</v>
+        <v>2015-12-20</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -4344,10 +4338,10 @@
       <c r="K115" t="str">
         <v>西紀寺町</v>
       </c>
-      <c r="N115">
+      <c r="L115">
         <v>135.83267954045098</v>
       </c>
-      <c r="O115">
+      <c r="M115">
         <v>34.673972469903596</v>
       </c>
     </row>
@@ -4368,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKitsuji-cho_%28Kawaramachi%29_Jizodo_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="J116">
         <v>318</v>
@@ -4376,10 +4370,10 @@
       <c r="K116" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N116">
+      <c r="L116">
         <v>135.82555663597998</v>
       </c>
-      <c r="O116">
+      <c r="M116">
         <v>34.675187026689734</v>
       </c>
     </row>
@@ -4400,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKitsuji-cho_%28Watamachi%29_Jizodo_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -4411,10 +4405,10 @@
       <c r="K117" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N117">
+      <c r="L117">
         <v>135.82715438467272</v>
       </c>
-      <c r="O117">
+      <c r="M117">
         <v>34.67357783003546</v>
       </c>
     </row>
@@ -4435,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKitsuji-cho_Jizodo_%28Empty%29_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -4446,10 +4440,10 @@
       <c r="K118" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N118">
+      <c r="L118">
         <v>135.82132307654157</v>
       </c>
-      <c r="O118">
+      <c r="M118">
         <v>34.67478108835765</v>
       </c>
     </row>
@@ -4470,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKitsuji-cho_Jizodo_%28Under_Sakurai_Line_North%29_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -4481,10 +4475,10 @@
       <c r="K119" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N119">
+      <c r="L119">
         <v>135.81904386314287</v>
       </c>
-      <c r="O119">
+      <c r="M119">
         <v>34.67508916036809</v>
       </c>
     </row>
@@ -4505,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiKitsuji-cho_Jizodo_%28Under_Sakurai_Line_South%29_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4516,10 +4510,10 @@
       <c r="K120" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N120">
+      <c r="L120">
         <v>135.81901030175024</v>
       </c>
-      <c r="O120">
+      <c r="M120">
         <v>34.674859019725474</v>
       </c>
     </row>
@@ -4540,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nishinosaka-cho_Jizodo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -4551,10 +4545,10 @@
       <c r="K121" t="str">
         <v>油阪町</v>
       </c>
-      <c r="N121">
+      <c r="L121">
         <v>135.82165459760682</v>
       </c>
-      <c r="O121">
+      <c r="M121">
         <v>34.68362670613146</v>
       </c>
     </row>
@@ -4575,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:NishiShinya-cho_Jizodo_Nara</v>
+        <v>2018-07-23</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4586,10 +4580,10 @@
       <c r="K122" t="str">
         <v>中新屋町</v>
       </c>
-      <c r="N122">
+      <c r="L122">
         <v>135.83041147354956</v>
       </c>
-      <c r="O122">
+      <c r="M122">
         <v>34.67713929229051</v>
       </c>
     </row>
@@ -4610,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Omori-cho_Jizodo_Nara</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -4621,10 +4615,10 @@
       <c r="K123" t="str">
         <v>大森町</v>
       </c>
-      <c r="N123">
+      <c r="L123">
         <v>135.82422386496432</v>
       </c>
-      <c r="O123">
+      <c r="M123">
         <v>34.67650148826776</v>
       </c>
     </row>
@@ -4645,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sahogawa_Jizo_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J124">
         <v>348</v>
@@ -4653,10 +4647,10 @@
       <c r="K124" t="str">
         <v>川上町</v>
       </c>
-      <c r="N124">
+      <c r="L124">
         <v>135.83415928856923</v>
       </c>
-      <c r="O124">
+      <c r="M124">
         <v>34.69399906669179</v>
       </c>
     </row>
@@ -4677,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sanjo-cho_Jizodo_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -4688,10 +4682,10 @@
       <c r="K125" t="str">
         <v>三条町</v>
       </c>
-      <c r="N125">
+      <c r="L125">
         <v>135.82319151196873</v>
       </c>
-      <c r="O125">
+      <c r="M125">
         <v>34.6795413255154</v>
       </c>
     </row>
@@ -4712,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sawara_Jizo_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
@@ -4723,10 +4717,10 @@
       <c r="K126" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N126">
+      <c r="L126">
         <v>135.834507704515</v>
       </c>
-      <c r="O126">
+      <c r="M126">
         <v>34.67362988364395</v>
       </c>
     </row>
@@ -4747,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Shinmei_Jizo_Nara</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -4758,10 +4752,10 @@
       <c r="K127" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N127">
+      <c r="L127">
         <v>135.84768738018093</v>
       </c>
-      <c r="O127">
+      <c r="M127">
         <v>34.67268063084392</v>
       </c>
     </row>
@@ -4782,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Shinroku_Jizo_Nara</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
@@ -4793,10 +4787,10 @@
       <c r="K128" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N128">
+      <c r="L128">
         <v>135.85161597858985</v>
       </c>
-      <c r="O128">
+      <c r="M128">
         <v>34.67560449072052</v>
       </c>
     </row>
@@ -4820,7 +4814,7 @@
         <v>正確な位置は現地再確認必要</v>
       </c>
       <c r="H129" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Small_Jizodo_1_%28Zoshi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -4831,10 +4825,10 @@
       <c r="K129" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N129">
+      <c r="L129">
         <v>135.84367087116433</v>
       </c>
-      <c r="O129">
+      <c r="M129">
         <v>34.69008148884221</v>
       </c>
     </row>
@@ -4858,7 +4852,7 @@
         <v>正確な位置は現地再確認必要</v>
       </c>
       <c r="H130" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Small_Jizodo_2_%28Zoshi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -4869,10 +4863,10 @@
       <c r="K130" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N130">
+      <c r="L130">
         <v>135.84396798819904</v>
       </c>
-      <c r="O130">
+      <c r="M130">
         <v>34.69033471872129</v>
       </c>
     </row>
@@ -4893,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sugiga-cho_Park_Jizodo_%28North%29_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
@@ -4904,10 +4898,10 @@
       <c r="K131" t="str">
         <v>杉ヶ町</v>
       </c>
-      <c r="N131">
+      <c r="L131">
         <v>135.82154502953085</v>
       </c>
-      <c r="O131">
+      <c r="M131">
         <v>34.679541325515395</v>
       </c>
     </row>
@@ -4928,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sugiga-cho_Park_Jizodo_%28South%29_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -4939,10 +4933,10 @@
       <c r="K132" t="str">
         <v>杉ヶ町</v>
       </c>
-      <c r="N132">
+      <c r="L132">
         <v>135.82165163630742</v>
       </c>
-      <c r="O132">
+      <c r="M132">
         <v>34.67947963334333</v>
       </c>
     </row>
@@ -4963,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sukehigiri_Jizo_Saidaiji-Kita_1_Nara</v>
+        <v>2017-02-17</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -4974,10 +4968,10 @@
       <c r="K133" t="str">
         <v>西大寺北町一丁目</v>
       </c>
-      <c r="N133">
+      <c r="L133">
         <v>135.77974495303636</v>
       </c>
-      <c r="O133">
+      <c r="M133">
         <v>34.69671668466497</v>
       </c>
     </row>
@@ -4998,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Takabatake-cho_%28Fuku-in_north%29_Jizo_Nara</v>
+        <v>2016-09-23</v>
       </c>
       <c r="J134">
         <v>370</v>
@@ -5006,10 +5000,10 @@
       <c r="K134" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N134">
+      <c r="L134">
         <v>135.84634067930068</v>
       </c>
-      <c r="O134">
+      <c r="M134">
         <v>34.67706056248806</v>
       </c>
     </row>
@@ -5030,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Takabatake-cho_%28Kakuya-dera_west%29_Jizo_Nara</v>
+        <v>2016-09-23</v>
       </c>
       <c r="J135">
         <v>372</v>
@@ -5038,13 +5032,10 @@
       <c r="K135" t="str">
         <v>高畑町</v>
       </c>
-      <c r="L135" t="str">
-        <v>https://monumen.to/spots/6224</v>
-      </c>
-      <c r="N135">
+      <c r="L135">
         <v>135.84759219858032</v>
       </c>
-      <c r="O135">
+      <c r="M135">
         <v>34.67706953819354</v>
       </c>
     </row>
@@ -5065,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tsubaki_Jizo_Nara</v>
+        <v>2016-07-23</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -5076,13 +5067,10 @@
       <c r="K136" t="str">
         <v>高畑町</v>
       </c>
-      <c r="L136" t="str">
-        <v>https://monumen.to/spots/2141</v>
-      </c>
-      <c r="N136">
+      <c r="L136">
         <v>135.8395546943226</v>
       </c>
-      <c r="O136">
+      <c r="M136">
         <v>34.677205334253955</v>
       </c>
     </row>
@@ -5103,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tsumegaki_Jizo_Nara</v>
+        <v>2015-05-17</v>
       </c>
       <c r="J137">
         <v>376</v>
@@ -5111,10 +5099,10 @@
       <c r="K137" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N137">
+      <c r="L137">
         <v>135.8374627652941</v>
       </c>
-      <c r="O137">
+      <c r="M137">
         <v>34.6774970436741</v>
       </c>
     </row>
@@ -5135,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Jizo_%28Saki-cho,_Nara%29</v>
+        <v>2018-07-21</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -5146,10 +5134,10 @@
       <c r="K138" t="str">
         <v>佐紀町</v>
       </c>
-      <c r="N138">
+      <c r="L138">
         <v>135.79819962611538</v>
       </c>
-      <c r="O138">
+      <c r="M138">
         <v>34.696115169906165</v>
       </c>
     </row>
@@ -5170,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Jizo_Mitsumune-sho_%28Nara%29</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -5181,10 +5169,10 @@
       <c r="K139" t="str">
         <v>三棟町</v>
       </c>
-      <c r="N139">
+      <c r="L139">
         <v>135.8294821462211</v>
       </c>
-      <c r="O139">
+      <c r="M139">
         <v>34.67537758677317</v>
       </c>
     </row>
@@ -5205,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Jizos_%28Zoshi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -5216,10 +5204,10 @@
       <c r="K140" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N140">
+      <c r="L140">
         <v>135.8421734407937</v>
       </c>
-      <c r="O140">
+      <c r="M140">
         <v>34.689837592024354</v>
       </c>
     </row>
@@ -5240,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wooden_Jizo_Daianji5_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -5251,10 +5239,10 @@
       <c r="K141" t="str">
         <v>大安寺四丁目</v>
       </c>
-      <c r="N141">
+      <c r="L141">
         <v>135.81604096114165</v>
       </c>
-      <c r="O141">
+      <c r="M141">
         <v>34.67166546115711</v>
       </c>
     </row>
@@ -5275,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Yanagi_Jizo_Nara</v>
+        <v>2016-07-23</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -5286,10 +5274,10 @@
       <c r="K142" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N142">
+      <c r="L142">
         <v>135.8409911940616</v>
       </c>
-      <c r="O142">
+      <c r="M142">
         <v>34.67702426916523</v>
       </c>
     </row>
@@ -5310,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Yoroi_Jizo_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J143">
         <v>393</v>
@@ -5318,10 +5306,10 @@
       <c r="K143" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N143">
+      <c r="L143">
         <v>135.83714503462429</v>
       </c>
-      <c r="O143">
+      <c r="M143">
         <v>34.67616713957153</v>
       </c>
     </row>
@@ -5342,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Yuhi_Jizo_Nara</v>
+        <v>2016-02-19</v>
       </c>
       <c r="J144">
         <v>396</v>
@@ -5350,10 +5338,10 @@
       <c r="K144" t="str">
         <v>川上町</v>
       </c>
-      <c r="N144">
+      <c r="L144">
         <v>135.83550953806827</v>
       </c>
-      <c r="O144">
+      <c r="M144">
         <v>34.69667649209657</v>
       </c>
     </row>
@@ -5374,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Zoshi-cho_Jizo_%28Nara%29</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -5385,10 +5373,10 @@
       <c r="K145" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N145">
+      <c r="L145">
         <v>135.83979688275707</v>
       </c>
-      <c r="O145">
+      <c r="M145">
         <v>34.684796262395515</v>
       </c>
     </row>
@@ -5409,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:HandaBiraki-cho_Jizos_Nara.jpg</v>
+        <v>2016-08-19</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -5420,10 +5408,10 @@
       <c r="K146" t="str">
         <v>半田開町</v>
       </c>
-      <c r="N146">
+      <c r="L146">
         <v>135.82933240417984</v>
       </c>
-      <c r="O146">
+      <c r="M146">
         <v>34.6949596160865</v>
       </c>
     </row>
@@ -5444,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizo_%28Kango-cho,_Nara%29.jpg</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
@@ -5455,10 +5443,10 @@
       <c r="K147" t="str">
         <v>漢国町</v>
       </c>
-      <c r="N147">
+      <c r="L147">
         <v>135.825562</v>
       </c>
-      <c r="O147">
+      <c r="M147">
         <v>34.683428</v>
       </c>
     </row>
@@ -5479,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizo_%28NishiKitsuji,_Seiten-mae%29_Nara.jpg</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J148">
         <v>635</v>
@@ -5487,10 +5475,10 @@
       <c r="K148" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N148">
+      <c r="L148">
         <v>135.82637521690418</v>
       </c>
-      <c r="O148">
+      <c r="M148">
         <v>34.675478743218974</v>
       </c>
     </row>
@@ -5511,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizo_in_NishiShinya-cho_front_of_Koshindo.jpg</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -5522,10 +5510,10 @@
       <c r="K149" t="str">
         <v>西新屋町</v>
       </c>
-      <c r="N149">
+      <c r="L149">
         <v>135.82992719462743</v>
       </c>
-      <c r="O149">
+      <c r="M149">
         <v>34.676444221581185</v>
       </c>
     </row>
@@ -5546,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizo_Most_North_of_Kidera-cho_Nara.jpg</v>
+        <v>2015-11-29</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -5557,10 +5545,10 @@
       <c r="K150" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N150">
+      <c r="L150">
         <v>135.8345757337648</v>
       </c>
-      <c r="O150">
+      <c r="M150">
         <v>34.67483919500454</v>
       </c>
     </row>
@@ -5581,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizo_of_north_of_Nara_Womans_Univ.jpg</v>
+        <v>2016-07-17</v>
       </c>
       <c r="J151">
         <v>637</v>
@@ -5589,10 +5577,10 @@
       <c r="K151" t="str">
         <v>北魚屋東町</v>
       </c>
-      <c r="N151">
+      <c r="L151">
         <v>135.83051487412254</v>
       </c>
-      <c r="O151">
+      <c r="M151">
         <v>34.68902915885764</v>
       </c>
     </row>
@@ -5613,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizodo_Daianji4_Sugiyama_Kofun_Mae.jpg</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
@@ -5624,10 +5612,10 @@
       <c r="K152" t="str">
         <v>大安寺四丁目</v>
       </c>
-      <c r="N152">
+      <c r="L152">
         <v>135.8126608844779</v>
       </c>
-      <c r="O152">
+      <c r="M152">
         <v>34.67103184182323</v>
       </c>
     </row>
@@ -5648,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizodo_Takabatake-cho_%28Godo_Chosha%29_Nara.jpg</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J153">
         <v>639</v>
@@ -5656,10 +5644,10 @@
       <c r="K153" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N153">
+      <c r="L153">
         <v>135.84476361396065</v>
       </c>
-      <c r="O153">
+      <c r="M153">
         <v>34.67246049192435</v>
       </c>
     </row>
@@ -5680,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizos_%28Kitaichi-cho,_Nara%29.jpg</v>
+        <v>2018-06-22</v>
       </c>
       <c r="J154">
         <v>640</v>
@@ -5688,10 +5676,10 @@
       <c r="K154" t="str">
         <v>北市町</v>
       </c>
-      <c r="N154">
+      <c r="L154">
         <v>135.82261283925666</v>
       </c>
-      <c r="O154">
+      <c r="M154">
         <v>34.68827800792167</v>
       </c>
     </row>
@@ -5712,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizos_Near_House_%28Zoshi-cho,_Nara%29.jpg</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -5723,10 +5711,10 @@
       <c r="K155" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N155">
+      <c r="L155">
         <v>135.83797185056764</v>
       </c>
-      <c r="O155">
+      <c r="M155">
         <v>34.689476209478</v>
       </c>
     </row>
@@ -5747,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Jizos_Near_Small_Bridge_%28Zoshi-cho,_Nara%29.jpg</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -5758,10 +5746,10 @@
       <c r="K156" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N156">
+      <c r="L156">
         <v>135.84102544374616</v>
       </c>
-      <c r="O156">
+      <c r="M156">
         <v>34.68957299765887</v>
       </c>
     </row>
@@ -5782,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kainotsuka-cho_Jizo_%28Block_Wall%29_Nara.jpg</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J157">
         <v>643</v>
@@ -5790,10 +5778,10 @@
       <c r="K157" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N157">
+      <c r="L157">
         <v>135.82984233236277</v>
       </c>
-      <c r="O157">
+      <c r="M157">
         <v>34.67064966571754</v>
       </c>
     </row>
@@ -5814,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kainotsuka-cho_Jizo_%28Kaisho-mae%29_Nara.jpg</v>
+        <v>2019-07-23</v>
       </c>
       <c r="J158">
         <v>644</v>
@@ -5822,10 +5810,10 @@
       <c r="K158" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N158">
+      <c r="L158">
         <v>135.8316419976835</v>
       </c>
-      <c r="O158">
+      <c r="M158">
         <v>34.67142562205704</v>
       </c>
     </row>
@@ -5846,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kainotsuka-cho_Jizo_%28Kaisho-west%29_Nara.jpg</v>
+        <v>2019-07-23</v>
       </c>
       <c r="J159">
         <v>645</v>
@@ -5854,10 +5842,10 @@
       <c r="K159" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N159">
+      <c r="L159">
         <v>135.83107141646153</v>
       </c>
-      <c r="O159">
+      <c r="M159">
         <v>34.670923445487254</v>
       </c>
     </row>
@@ -5878,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kawakami-cho_Jizo_%28South_of_Nara_Juvenile_Prison%29.jpg</v>
+        <v>2016-08-19</v>
       </c>
       <c r="J160">
         <v>646</v>
@@ -5886,10 +5874,10 @@
       <c r="K160" t="str">
         <v>川上町</v>
       </c>
-      <c r="N160">
+      <c r="L160">
         <v>135.83425926964654</v>
       </c>
-      <c r="O160">
+      <c r="M160">
         <v>34.697068404441566</v>
       </c>
     </row>
@@ -5913,7 +5901,7 @@
         <v>きたまちまっぷ お地蔵さんに「笑顔地蔵」あり 現地では名称なし</v>
       </c>
       <c r="H161" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:KitaHandaNishi-machi_Jizodo_Nara.jpg</v>
+        <v>2020-08-08</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -5924,10 +5912,10 @@
       <c r="K161" t="str">
         <v>半田横町</v>
       </c>
-      <c r="N161">
+      <c r="L161">
         <v>135.83060643391482</v>
       </c>
-      <c r="O161">
+      <c r="M161">
         <v>34.68813420605085</v>
       </c>
     </row>
@@ -5948,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Byakugoji_cho_Jizos_1.jpg</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -5959,10 +5947,10 @@
       <c r="K162" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N162">
+      <c r="L162">
         <v>135.847519</v>
       </c>
-      <c r="O162">
+      <c r="M162">
         <v>34.672578</v>
       </c>
     </row>
@@ -5983,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Byakugoji_cho_Jizos_2.jpg</v>
+        <v>2015-05-04</v>
       </c>
       <c r="J163">
         <v>649</v>
@@ -5991,10 +5979,10 @@
       <c r="K163" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N163">
+      <c r="L163">
         <v>135.84660626333385</v>
       </c>
-      <c r="O163">
+      <c r="M163">
         <v>34.67123662050772</v>
       </c>
     </row>
@@ -6015,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Byakugoji_cho_Jizos_3.jpg</v>
+        <v>2015-05-04</v>
       </c>
       <c r="J164">
         <v>650</v>
@@ -6023,10 +6011,10 @@
       <c r="K164" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N164">
+      <c r="L164">
         <v>135.84524221062225</v>
       </c>
-      <c r="O164">
+      <c r="M164">
         <v>34.67078019681363</v>
       </c>
     </row>
@@ -6047,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Byakugoji_cho_Notogawa_Jizos_1.jpg</v>
+        <v>2015-05-04</v>
       </c>
       <c r="J165">
         <v>651</v>
@@ -6055,10 +6043,10 @@
       <c r="K165" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N165">
+      <c r="L165">
         <v>135.84303118694203</v>
       </c>
-      <c r="O165">
+      <c r="M165">
         <v>34.67117478349558</v>
       </c>
     </row>
@@ -6079,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Byakugoji_cho_Notogawa_Jizos_2.jpg</v>
+        <v>2015-05-04</v>
       </c>
       <c r="J166">
         <v>652</v>
@@ -6087,10 +6075,10 @@
       <c r="K166" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N166">
+      <c r="L166">
         <v>135.84248789175086</v>
       </c>
-      <c r="O166">
+      <c r="M166">
         <v>34.67108701475394</v>
       </c>
     </row>
@@ -6111,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Hanazono_cho_Jizos_in_Wall.jpg</v>
+        <v>2015-05-04</v>
       </c>
       <c r="J167">
         <v>653</v>
@@ -6119,10 +6107,10 @@
       <c r="K167" t="str">
         <v>花園町</v>
       </c>
-      <c r="N167">
+      <c r="L167">
         <v>135.82998080966559</v>
       </c>
-      <c r="O167">
+      <c r="M167">
         <v>34.674821949016675</v>
       </c>
     </row>
@@ -6143,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Irie_KyuKyo_Jizo.jpg</v>
+        <v>2015-12-18</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
@@ -6154,10 +6142,10 @@
       <c r="K168" t="str">
         <v>水門町</v>
       </c>
-      <c r="N168">
+      <c r="L168">
         <v>135.836594</v>
       </c>
-      <c r="O168">
+      <c r="M168">
         <v>34.687094</v>
       </c>
     </row>
@@ -6178,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Kidera_Jizo_in_Mansion.jpg</v>
+        <v>2020-08-09</v>
       </c>
       <c r="J169">
         <v>655</v>
@@ -6186,10 +6174,10 @@
       <c r="K169" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N169">
+      <c r="L169">
         <v>135.8345210443523</v>
       </c>
-      <c r="O169">
+      <c r="M169">
         <v>34.67092554673396</v>
       </c>
     </row>
@@ -6210,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Takabatake_Jizo_near_Araike.jpg</v>
+        <v>2015-05-06</v>
       </c>
       <c r="J170">
         <v>656</v>
@@ -6218,10 +6206,10 @@
       <c r="K170" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N170">
+      <c r="L170">
         <v>135.83503370219623</v>
       </c>
-      <c r="O170">
+      <c r="M170">
         <v>34.6794946022812</v>
       </c>
     </row>
@@ -6242,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Takabatake_Nokisaki_Jizo.jpg</v>
+        <v>2015-05-06</v>
       </c>
       <c r="J171">
         <v>657</v>
@@ -6250,10 +6238,10 @@
       <c r="K171" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N171">
+      <c r="L171">
         <v>135.83955105618517</v>
       </c>
-      <c r="O171">
+      <c r="M171">
         <v>34.67760525015502</v>
       </c>
     </row>
@@ -6274,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Several_Buddhas_Saidaiji_Kobo_Nara_%28Jizo%29.jpg</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I172" t="b">
         <v>0</v>
@@ -6285,10 +6273,10 @@
       <c r="K172" t="str">
         <v>西大寺小坊町</v>
       </c>
-      <c r="N172">
+      <c r="L172">
         <v>135.77983087226983</v>
       </c>
-      <c r="O172">
+      <c r="M172">
         <v>34.695243759718245</v>
       </c>
     </row>
@@ -6309,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Shibatsuji-cho_Jizodo_Nara.jpg</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J173">
         <v>659</v>
@@ -6317,10 +6305,10 @@
       <c r="K173" t="str">
         <v>芝辻町</v>
       </c>
-      <c r="N173">
+      <c r="L173">
         <v>135.82128457445097</v>
       </c>
-      <c r="O173">
+      <c r="M173">
         <v>34.6845997262644</v>
       </c>
     </row>
@@ -6347,7 +6335,7 @@
         <v>地蔵盆の写真に「掘出地蔵」の名前が見える</v>
       </c>
       <c r="H174" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Wayside_Jizo_In_Nara_Near_Asuka_JInja.jpg</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
@@ -6358,10 +6346,10 @@
       <c r="K174" t="str">
         <v>中辻町</v>
       </c>
-      <c r="N174">
+      <c r="L174">
         <v>135.8305975943025</v>
       </c>
-      <c r="O174">
+      <c r="M174">
         <v>34.672413260077356</v>
       </c>
     </row>
@@ -6382,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Wayside_Jizo_In_Nara_Near_Zuto.jpg</v>
+        <v>2016-07-22</v>
       </c>
       <c r="J175">
         <v>661</v>
@@ -6390,10 +6378,10 @@
       <c r="K175" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N175">
+      <c r="L175">
         <v>135.83924423992767</v>
       </c>
-      <c r="O175">
+      <c r="M175">
         <v>34.67675555121994</v>
       </c>
     </row>
@@ -6414,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Wayside_Jizo_In_Nara_Sugigamachi.jpg</v>
+        <v>2016-07-22</v>
       </c>
       <c r="J176">
         <v>662</v>
@@ -6422,10 +6410,10 @@
       <c r="K176" t="str">
         <v>大森町</v>
       </c>
-      <c r="N176">
+      <c r="L176">
         <v>135.8247089499564</v>
       </c>
-      <c r="O176">
+      <c r="M176">
         <v>34.67801688299019</v>
       </c>
     </row>
@@ -6446,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Amida_in_Nara_Kyobate_Jizo</v>
+        <v>2015-08-05</v>
       </c>
       <c r="I177" t="b">
         <v>0</v>
@@ -6457,10 +6445,10 @@
       <c r="K177" t="str">
         <v>北京終町</v>
       </c>
-      <c r="N177">
+      <c r="L177">
         <v>135.82800082846148</v>
       </c>
-      <c r="O177">
+      <c r="M177">
         <v>34.67185099863667</v>
       </c>
     </row>
@@ -6481,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Asahi_Myoken_%28Kitamukai-cho,_Nara%29</v>
+        <v>2017-08-26</v>
       </c>
       <c r="J178">
         <v>401</v>
@@ -6489,10 +6477,10 @@
       <c r="K178" t="str">
         <v>北向町</v>
       </c>
-      <c r="N178">
+      <c r="L178">
         <v>135.8249469661414</v>
       </c>
-      <c r="O178">
+      <c r="M178">
         <v>34.68095783574208</v>
       </c>
     </row>
@@ -6513,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Bishamondo_%28Hotokuji,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I179" t="b">
         <v>0</v>
@@ -6524,10 +6512,10 @@
       <c r="K179" t="str">
         <v>十輪院町</v>
       </c>
-      <c r="N179">
+      <c r="L179">
         <v>135.83277926969535</v>
       </c>
-      <c r="O179">
+      <c r="M179">
         <v>34.67611378339334</v>
       </c>
     </row>
@@ -6548,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Buddhism_stone_near_Yawata_Shrine_Higashikujo_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="J180">
         <v>407</v>
@@ -6556,10 +6544,10 @@
       <c r="K180" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N180">
+      <c r="L180">
         <v>135.81343058235007</v>
       </c>
-      <c r="O180">
+      <c r="M180">
         <v>34.666542002927606</v>
       </c>
     </row>
@@ -6580,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Buddhism_stone_Saidaiji_Minami_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -6591,10 +6579,10 @@
       <c r="K181" t="str">
         <v>西大寺芝町一丁目</v>
       </c>
-      <c r="N181">
+      <c r="L181">
         <v>135.7810888344493</v>
       </c>
-      <c r="O181">
+      <c r="M181">
         <v>34.693877552775255</v>
       </c>
     </row>
@@ -6615,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Daishido_%28AmagatsujiNaka-machi,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I182" t="b">
         <v>0</v>
@@ -6626,10 +6614,10 @@
       <c r="K182" t="str">
         <v>尼辻中町</v>
       </c>
-      <c r="N182">
+      <c r="L182">
         <v>135.78547161242687</v>
       </c>
-      <c r="O182">
+      <c r="M182">
         <v>34.68021703130968</v>
       </c>
     </row>
@@ -6650,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Daishido_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -6661,10 +6649,10 @@
       <c r="K183" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N183">
+      <c r="L183">
         <v>135.8127914286563</v>
       </c>
-      <c r="O183">
+      <c r="M183">
         <v>34.657858567837266</v>
       </c>
     </row>
@@ -6685,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Gorinto-Daianji1-Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
@@ -6696,10 +6684,10 @@
       <c r="K184" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N184">
+      <c r="L184">
         <v>135.81862123997405</v>
       </c>
-      <c r="O184">
+      <c r="M184">
         <v>34.66986970470087</v>
       </c>
     </row>
@@ -6720,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Incised_Stupa_Kidera</v>
+        <v>2017-02-11</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -6731,10 +6719,10 @@
       <c r="K185" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N185">
+      <c r="L185">
         <v>135.8334459747386</v>
       </c>
-      <c r="O185">
+      <c r="M185">
         <v>34.67074601912281</v>
       </c>
     </row>
@@ -6755,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kobo_Well_With_Amida_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
@@ -6766,10 +6754,10 @@
       <c r="K186" t="str">
         <v>二条町一丁目</v>
       </c>
-      <c r="N186">
+      <c r="L186">
         <v>135.7887265739609</v>
       </c>
-      <c r="O186">
+      <c r="M186">
         <v>34.693965415261516</v>
       </c>
     </row>
@@ -6790,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Koshindo_%28NishiShinya-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J187">
         <v>423</v>
@@ -6798,10 +6786,10 @@
       <c r="K187" t="str">
         <v>西新屋町</v>
       </c>
-      <c r="N187">
+      <c r="L187">
         <v>135.82984175928203</v>
       </c>
-      <c r="O187">
+      <c r="M187">
         <v>34.67653742376843</v>
       </c>
     </row>
@@ -6822,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiKainotsuka_Small_Temple_%28Nara%29</v>
+        <v>2016-05-05</v>
       </c>
       <c r="J188">
         <v>425</v>
@@ -6830,10 +6818,10 @@
       <c r="K188" t="str">
         <v>南肘塚町</v>
       </c>
-      <c r="N188">
+      <c r="L188">
         <v>135.83051841957047</v>
       </c>
-      <c r="O188">
+      <c r="M188">
         <v>34.664623788232866</v>
       </c>
     </row>
@@ -6854,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Mirokudo_%28Sanjo-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
@@ -6865,10 +6853,10 @@
       <c r="K189" t="str">
         <v>三条町</v>
       </c>
-      <c r="N189">
+      <c r="L189">
         <v>135.82202969552426</v>
       </c>
-      <c r="O189">
+      <c r="M189">
         <v>34.680712656324786</v>
       </c>
     </row>
@@ -6889,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Seiten-do_%28NishiKitsuji-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
@@ -6900,10 +6888,10 @@
       <c r="K190" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N190">
+      <c r="L190">
         <v>135.82641220463483</v>
       </c>
-      <c r="O190">
+      <c r="M190">
         <v>34.675468271361346</v>
       </c>
     </row>
@@ -6924,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Several_Buddhas_Saidaiji_Kobo_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -6935,10 +6923,10 @@
       <c r="K191" t="str">
         <v>西大寺小坊町</v>
       </c>
-      <c r="N191">
+      <c r="L191">
         <v>135.77983240139727</v>
       </c>
-      <c r="O191">
+      <c r="M191">
         <v>34.695215262380415</v>
       </c>
     </row>
@@ -6959,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Shoho_Rigen_Daishido_%28Nara%29</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
@@ -6970,10 +6958,10 @@
       <c r="K192" t="str">
         <v>餅飯殿町</v>
       </c>
-      <c r="N192">
+      <c r="L192">
         <v>135.8287301288505</v>
       </c>
-      <c r="O192">
+      <c r="M192">
         <v>34.68058724435863</v>
       </c>
     </row>
@@ -6994,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Shugyo_Daishi_Saidaiji_Kobo_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="I193" t="b">
         <v>0</v>
@@ -7005,10 +6993,10 @@
       <c r="K193" t="str">
         <v>西大寺小坊町</v>
       </c>
-      <c r="N193">
+      <c r="L193">
         <v>135.77984616354428</v>
       </c>
-      <c r="O193">
+      <c r="M193">
         <v>34.69528902017581</v>
       </c>
     </row>
@@ -7029,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Small_Temple_Daianji1_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
@@ -7040,10 +7028,10 @@
       <c r="K194" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N194">
+      <c r="L194">
         <v>135.81361654962123</v>
       </c>
-      <c r="O194">
+      <c r="M194">
         <v>34.668133263552974</v>
       </c>
     </row>
@@ -7064,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Vairocana_Daianji1_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
@@ -7075,10 +7063,10 @@
       <c r="K195" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N195">
+      <c r="L195">
         <v>135.81377313664638</v>
       </c>
-      <c r="O195">
+      <c r="M195">
         <v>34.668044042239124</v>
       </c>
     </row>
@@ -7099,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Amidado_%28Sugigacho,_Nara%29</v>
+        <v>2016-07-22</v>
       </c>
       <c r="J196">
         <v>445</v>
@@ -7107,10 +7095,10 @@
       <c r="K196" t="str">
         <v>杉ヶ町</v>
       </c>
-      <c r="N196">
+      <c r="L196">
         <v>135.82417596282133</v>
       </c>
-      <c r="O196">
+      <c r="M196">
         <v>34.677948568655516</v>
       </c>
     </row>
@@ -7131,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Yakushido,_Tanjo-ji_%28Nara%29</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I197" t="b">
         <v>0</v>
@@ -7142,10 +7130,10 @@
       <c r="K197" t="str">
         <v>三棟町</v>
       </c>
-      <c r="N197">
+      <c r="L197">
         <v>135.829200558297</v>
       </c>
-      <c r="O197">
+      <c r="M197">
         <v>34.67530015618678</v>
       </c>
     </row>
@@ -7166,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Horen-cho_Stone_Amida_in_Fuko-in_Nara.jpg</v>
+        <v>2016-08-19</v>
       </c>
       <c r="J198">
         <v>663</v>
@@ -7174,10 +7162,10 @@
       <c r="K198" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N198">
+      <c r="L198">
         <v>135.82945361351995</v>
       </c>
-      <c r="O198">
+      <c r="M198">
         <v>34.69135684574615</v>
       </c>
     </row>
@@ -7204,7 +7192,7 @@
         <v>2020/6/27の調査でなくなっているのを確認</v>
       </c>
       <c r="H199" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kainotsuka_Myogo_sekihi_%28Nara%29.jpg</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
@@ -7215,10 +7203,10 @@
       <c r="K199" t="str">
         <v>南肘塚町</v>
       </c>
-      <c r="N199">
+      <c r="L199">
         <v>135.83049901617082</v>
       </c>
-      <c r="O199">
+      <c r="M199">
         <v>34.66746647312437</v>
       </c>
     </row>
@@ -7239,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Kainotsuka-cho_Stoper_Relief_Nara.jpg</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J200">
         <v>665</v>
@@ -7247,10 +7235,10 @@
       <c r="K200" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N200">
+      <c r="L200">
         <v>135.83168322990784</v>
       </c>
-      <c r="O200">
+      <c r="M200">
         <v>34.67073618820156</v>
       </c>
     </row>
@@ -7271,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Myogo_Stone_%28Kitaichi-cho,_Nara%29.jpg</v>
+        <v>2018-06-22</v>
       </c>
       <c r="J201">
         <v>666</v>
@@ -7279,10 +7267,10 @@
       <c r="K201" t="str">
         <v>北市町</v>
       </c>
-      <c r="N201">
+      <c r="L201">
         <v>135.82267353690764</v>
       </c>
-      <c r="O201">
+      <c r="M201">
         <v>34.68813783705826</v>
       </c>
     </row>
@@ -7303,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Stone_Budda_NW_of_Tokuyu-ji.jpg</v>
+        <v>2016-07-16</v>
       </c>
       <c r="J202">
         <v>667</v>
@@ -7311,10 +7299,10 @@
       <c r="K202" t="str">
         <v>鳴川町</v>
       </c>
-      <c r="N202">
+      <c r="L202">
         <v>135.82799633167312</v>
       </c>
-      <c r="O202">
+      <c r="M202">
         <v>34.67594374151186</v>
       </c>
     </row>
@@ -7335,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nogami_Shrine_Statue_%28Nogami-cho,_NARA%29.jpg</v>
+        <v>2017-05-01</v>
       </c>
       <c r="I203" t="b">
         <v>0</v>
@@ -7346,10 +7334,10 @@
       <c r="K203" t="str">
         <v>西大寺野神町一丁目</v>
       </c>
-      <c r="N203">
+      <c r="L203">
         <v>135.7767698342907</v>
       </c>
-      <c r="O203">
+      <c r="M203">
         <v>34.69407903881739</v>
       </c>
     </row>
@@ -7370,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Akachi_Shrine_Nara</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I204" t="b">
         <v>0</v>
@@ -7381,10 +7369,10 @@
       <c r="K204" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N204">
+      <c r="L204">
         <v>135.85090411636395</v>
       </c>
-      <c r="O204">
+      <c r="M204">
         <v>34.67438426291783</v>
       </c>
     </row>
@@ -7405,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Aoi-Jinja_KitaNagai_Nara</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
@@ -7416,10 +7404,10 @@
       <c r="K205" t="str">
         <v>横井二丁目</v>
       </c>
-      <c r="N205">
+      <c r="L205">
         <v>135.82877321215284</v>
       </c>
-      <c r="O205">
+      <c r="M205">
         <v>34.65237562136019</v>
       </c>
     </row>
@@ -7440,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Benzaiten_%28Kidera-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I206" t="b">
         <v>0</v>
@@ -7451,10 +7439,10 @@
       <c r="K206" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N206">
+      <c r="L206">
         <v>135.8320568125924</v>
       </c>
-      <c r="O206">
+      <c r="M206">
         <v>34.67239167432793</v>
       </c>
     </row>
@@ -7475,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="H207" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Benzaiten_%28Suimon-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="J207">
         <v>462</v>
@@ -7483,10 +7471,10 @@
       <c r="K207" t="str">
         <v>水門町</v>
       </c>
-      <c r="N207">
+      <c r="L207">
         <v>135.83510286861357</v>
       </c>
-      <c r="O207">
+      <c r="M207">
         <v>34.68766329245781</v>
       </c>
     </row>
@@ -7507,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Benzaiten_Ogawa-cho_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="J208">
         <v>464</v>
@@ -7515,10 +7503,10 @@
       <c r="K208" t="str">
         <v>小川町</v>
       </c>
-      <c r="N208">
+      <c r="L208">
         <v>135.8258744883567</v>
       </c>
-      <c r="O208">
+      <c r="M208">
         <v>34.680366974714275</v>
       </c>
     </row>
@@ -7539,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Daifuku_Inari_Mochiido-cho_Nara</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I209" t="b">
         <v>0</v>
@@ -7550,10 +7538,10 @@
       <c r="K209" t="str">
         <v>餅飯殿町</v>
       </c>
-      <c r="N209">
+      <c r="L209">
         <v>135.828716</v>
       </c>
-      <c r="O209">
+      <c r="M209">
         <v>34.680017</v>
       </c>
     </row>
@@ -7574,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Fuku_Shrine_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I210" t="b">
         <v>0</v>
@@ -7585,10 +7573,10 @@
       <c r="K210" t="str">
         <v>南魚屋町</v>
       </c>
-      <c r="N210">
+      <c r="L210">
         <v>135.8248011161049</v>
       </c>
-      <c r="O210">
+      <c r="M210">
         <v>34.678453694484254</v>
       </c>
     </row>
@@ -7609,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Goryo_Shrine_Daianji1_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I211" t="b">
         <v>0</v>
@@ -7620,10 +7608,10 @@
       <c r="K211" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N211">
+      <c r="L211">
         <v>135.81401689582992</v>
       </c>
-      <c r="O211">
+      <c r="M211">
         <v>34.66888633009995</v>
       </c>
     </row>
@@ -7644,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hachioji_Shrine_%28Noincho%29_Nara</v>
+        <v>2015-05-02</v>
       </c>
       <c r="J212">
         <v>472</v>
@@ -7652,13 +7640,10 @@
       <c r="K212" t="str">
         <v>納院町</v>
       </c>
-      <c r="L212" t="str">
-        <v>https://monumen.to/spots/2190</v>
-      </c>
-      <c r="N212">
+      <c r="L212">
         <v>135.83152865995007</v>
       </c>
-      <c r="O212">
+      <c r="M212">
         <v>34.67542688186072</v>
       </c>
     </row>
@@ -7679,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:HachiojiShinomuro_Shrine_Nara</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>
@@ -7690,13 +7675,10 @@
       <c r="K213" t="str">
         <v>元林院町</v>
       </c>
-      <c r="L213" t="str">
-        <v>https://monumen.to/spots/2465</v>
-      </c>
-      <c r="N213">
+      <c r="L213">
         <v>135.82988456681093</v>
       </c>
-      <c r="O213">
+      <c r="M213">
         <v>34.680920632897916</v>
       </c>
     </row>
@@ -7717,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hakusan_Shrine_%28Gangouji-cho%29_Nara</v>
+        <v>2019-11-21</v>
       </c>
       <c r="I214" t="b">
         <v>0</v>
@@ -7728,10 +7710,10 @@
       <c r="K214" t="str">
         <v>元興寺町</v>
       </c>
-      <c r="N214">
+      <c r="L214">
         <v>135.8297576316205</v>
       </c>
-      <c r="O214">
+      <c r="M214">
         <v>34.6759233628114</v>
       </c>
     </row>
@@ -7752,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hakusan_Shrine_Nara</v>
+        <v>2015-12-20</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
@@ -7763,13 +7745,10 @@
       <c r="K215" t="str">
         <v>川之上突抜町</v>
       </c>
-      <c r="L215" t="str">
-        <v>https://monumen.to/spots/6304</v>
-      </c>
-      <c r="N215">
+      <c r="L215">
         <v>135.83218556465022</v>
       </c>
-      <c r="O215">
+      <c r="M215">
         <v>34.67404835166153</v>
       </c>
     </row>
@@ -7790,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hayabusa_Shrine_%28TsunofuriShinya-cho,_Nara%29</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I216" t="b">
         <v>0</v>
@@ -7801,10 +7780,10 @@
       <c r="K216" t="str">
         <v>角振新屋町</v>
       </c>
-      <c r="N216">
+      <c r="L216">
         <v>135.8276617293632</v>
       </c>
-      <c r="O216">
+      <c r="M216">
         <v>34.6818309640844</v>
       </c>
     </row>
@@ -7825,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hebizuka_Shrine_%28NishiKujo-cho_2,_Nara%29</v>
+        <v>2017-09-20</v>
       </c>
       <c r="I217" t="b">
         <v>0</v>
@@ -7836,10 +7815,10 @@
       <c r="K217" t="str">
         <v>西九条町二丁目</v>
       </c>
-      <c r="N217">
+      <c r="L217">
         <v>135.8045554880511</v>
       </c>
-      <c r="O217">
+      <c r="M217">
         <v>34.65715792266287</v>
       </c>
     </row>
@@ -7860,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Higashimuki_Benzaiten_Nara</v>
+        <v>2015-05-06</v>
       </c>
       <c r="J218">
         <v>491</v>
@@ -7868,10 +7847,10 @@
       <c r="K218" t="str">
         <v>東向中町</v>
       </c>
-      <c r="N218">
+      <c r="L218">
         <v>135.82908475687964</v>
       </c>
-      <c r="O218">
+      <c r="M218">
         <v>34.683221387075996</v>
       </c>
     </row>
@@ -7892,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Hinode_Shrine_%28Zoshi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I219" t="b">
         <v>0</v>
@@ -7903,10 +7882,10 @@
       <c r="K219" t="str">
         <v>川上町</v>
       </c>
-      <c r="N219">
+      <c r="L219">
         <v>135.84530550840483</v>
       </c>
-      <c r="O219">
+      <c r="M219">
         <v>34.690716996975134</v>
       </c>
     </row>
@@ -7927,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Igami_Shrine_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I220" t="b">
         <v>0</v>
@@ -7938,10 +7917,10 @@
       <c r="K220" t="str">
         <v>川之上突抜町</v>
       </c>
-      <c r="N220">
+      <c r="L220">
         <v>135.8312126478599</v>
       </c>
-      <c r="O220">
+      <c r="M220">
         <v>34.6738060184737</v>
       </c>
     </row>
@@ -7962,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Inari_Shrine_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2017-09-20</v>
       </c>
       <c r="I221" t="b">
         <v>0</v>
@@ -7973,10 +7952,10 @@
       <c r="K221" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N221">
+      <c r="L221">
         <v>135.812382256431</v>
       </c>
-      <c r="O221">
+      <c r="M221">
         <v>34.655827914114454</v>
       </c>
     </row>
@@ -7997,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Itsukushima_Shrine_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2017-09-20</v>
       </c>
       <c r="I222" t="b">
         <v>0</v>
@@ -8008,10 +7987,10 @@
       <c r="K222" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N222">
+      <c r="L222">
         <v>135.81902477489677</v>
       </c>
-      <c r="O222">
+      <c r="M222">
         <v>34.65597876280245</v>
       </c>
     </row>
@@ -8032,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Itsukushima-jinja_%28Kitaburo-cho,_Nara%29</v>
+        <v>2015-12-09</v>
       </c>
       <c r="I223" t="b">
         <v>0</v>
@@ -8043,10 +8022,10 @@
       <c r="K223" t="str">
         <v>北風呂町</v>
       </c>
-      <c r="N223">
+      <c r="L223">
         <v>135.82664926708995</v>
       </c>
-      <c r="O223">
+      <c r="M223">
         <v>34.67891834561762</v>
       </c>
     </row>
@@ -8067,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="H224" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kainotsuka-cho_Hachi-o_Small_Shrine_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="J224">
         <v>510</v>
@@ -8075,10 +8054,10 @@
       <c r="K224" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N224">
+      <c r="L224">
         <v>135.8316419976835</v>
       </c>
-      <c r="O224">
+      <c r="M224">
         <v>34.67140218389361</v>
       </c>
     </row>
@@ -8099,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:KasugaWakamiya_Shrine_%28Nakatsuji-cho%29_Nara</v>
+        <v>2015-08-05</v>
       </c>
       <c r="J225">
         <v>511</v>
@@ -8107,13 +8086,10 @@
       <c r="K225" t="str">
         <v>中辻町</v>
       </c>
-      <c r="M225" t="str">
-        <v>https://ja.wikipedia.org/wiki/%E6%98%A5%E6%97%A5%E8%8B%A5%E5%AE%AE%E7%A4%BE_(%E5%A5%88%E8%89%AF%E5%B8%82%E4%B8%AD%E8%BE%BB%E7%94%BA)</v>
-      </c>
-      <c r="N225">
+      <c r="L225">
         <v>135.83045734530575</v>
       </c>
-      <c r="O225">
+      <c r="M225">
         <v>34.67216294018543</v>
       </c>
     </row>
@@ -8134,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="H226" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Katte_Shrine_%28Aburasaka-cho,_Nara%29</v>
+        <v>2018-06-21</v>
       </c>
       <c r="I226" t="b">
         <v>0</v>
@@ -8145,10 +8121,10 @@
       <c r="K226" t="str">
         <v>油阪町</v>
       </c>
-      <c r="N226">
+      <c r="L226">
         <v>135.8239670944574</v>
       </c>
-      <c r="O226">
+      <c r="M226">
         <v>34.684578784854594</v>
       </c>
     </row>
@@ -8169,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kinpachi_Daimyojin_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I227" t="b">
         <v>0</v>
@@ -8180,10 +8156,10 @@
       <c r="K227" t="str">
         <v>南城戸町</v>
       </c>
-      <c r="N227">
+      <c r="L227">
         <v>135.82706646301796</v>
       </c>
-      <c r="O227">
+      <c r="M227">
         <v>34.67595546066888</v>
       </c>
     </row>
@@ -8204,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="H228" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kitaichi_Ebisu_%28Kitaichi-cho,_Nara%29</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I228" t="b">
         <v>0</v>
@@ -8215,10 +8191,10 @@
       <c r="K228" t="str">
         <v>北市町</v>
       </c>
-      <c r="N228">
+      <c r="L228">
         <v>135.8225340614543</v>
       </c>
-      <c r="O228">
+      <c r="M228">
         <v>34.68807412295097</v>
       </c>
     </row>
@@ -8239,7 +8215,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kojoro_Taishin_Sanjo_Honmachi_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I229" t="b">
         <v>0</v>
@@ -8250,10 +8226,10 @@
       <c r="K229" t="str">
         <v>三条町</v>
       </c>
-      <c r="N229">
+      <c r="L229">
         <v>135.8220148890275</v>
       </c>
-      <c r="O229">
+      <c r="M229">
         <v>34.68066476439897</v>
       </c>
     </row>
@@ -8274,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kompira_Daianji1_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I230" t="b">
         <v>0</v>
@@ -8285,10 +8261,10 @@
       <c r="K230" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N230">
+      <c r="L230">
         <v>135.813771</v>
       </c>
-      <c r="O230">
+      <c r="M230">
         <v>34.668087</v>
       </c>
     </row>
@@ -8309,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Koshinden_Teramachi_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="J231">
         <v>526</v>
@@ -8317,10 +8293,10 @@
       <c r="K231" t="str">
         <v>寺町</v>
       </c>
-      <c r="N231">
+      <c r="L231">
         <v>135.82494217596232</v>
       </c>
-      <c r="O231">
+      <c r="M231">
         <v>34.679992018562146</v>
       </c>
     </row>
@@ -8341,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kotai_Jingu_%28Wakido-cho%29_Nara</v>
+        <v>2019-12-20</v>
       </c>
       <c r="I232" t="b">
         <v>0</v>
@@ -8352,10 +8328,10 @@
       <c r="K232" t="str">
         <v>脇戸町</v>
       </c>
-      <c r="N232">
+      <c r="L232">
         <v>135.82931515649543</v>
       </c>
-      <c r="O232">
+      <c r="M232">
         <v>34.67814453518556</v>
       </c>
     </row>
@@ -8376,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kumataka_Daimyojin_Shrine_%28SanjoHinoki-cho,_Nara%29</v>
+        <v>2018-02-16</v>
       </c>
       <c r="I233" t="b">
         <v>0</v>
@@ -8387,10 +8363,10 @@
       <c r="K233" t="str">
         <v>三条桧町</v>
       </c>
-      <c r="N233">
+      <c r="L233">
         <v>135.8086914928053</v>
       </c>
-      <c r="O233">
+      <c r="M233">
         <v>34.678344799537534</v>
       </c>
     </row>
@@ -8411,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Kunugi_Shrine_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I234" t="b">
         <v>0</v>
@@ -8422,13 +8398,10 @@
       <c r="K234" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="M234" t="str">
-        <v>https://ja.wikipedia.org/wiki/%E6%A4%9A%E7%A5%9E%E7%A4%BE</v>
-      </c>
-      <c r="N234">
+      <c r="L234">
         <v>135.83053539754525</v>
       </c>
-      <c r="O234">
+      <c r="M234">
         <v>34.67069803852956</v>
       </c>
     </row>
@@ -8449,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Minamiichi_Inari_Nara</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
@@ -8460,10 +8433,10 @@
       <c r="K235" t="str">
         <v>南市町</v>
       </c>
-      <c r="N235">
+      <c r="L235">
         <v>135.82987365239862</v>
       </c>
-      <c r="O235">
+      <c r="M235">
         <v>34.680457905667204</v>
       </c>
     </row>
@@ -8484,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:MinamiShin-machi_Benzaiten_Nara</v>
+        <v>2017-08-26</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
@@ -8495,10 +8468,10 @@
       <c r="K236" t="str">
         <v>南新町</v>
       </c>
-      <c r="N236">
+      <c r="L236">
         <v>135.82554450885516</v>
       </c>
-      <c r="O236">
+      <c r="M236">
         <v>34.676797189382526</v>
       </c>
     </row>
@@ -8519,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Misome_Shrine_Nara</v>
+        <v>2016-09-24</v>
       </c>
       <c r="I237" t="b">
         <v>0</v>
@@ -8530,10 +8503,10 @@
       <c r="K237" t="str">
         <v>西御門町</v>
       </c>
-      <c r="N237">
+      <c r="L237">
         <v>135.82710799511307</v>
       </c>
-      <c r="O237">
+      <c r="M237">
         <v>34.68456415762949</v>
       </c>
     </row>
@@ -8554,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Mochiidono_Benzaiten_Shrine_%28Nara%29</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I238" t="b">
         <v>0</v>
@@ -8565,10 +8538,10 @@
       <c r="K238" t="str">
         <v>餅飯殿町</v>
       </c>
-      <c r="N238">
+      <c r="L238">
         <v>135.82871630945354</v>
       </c>
-      <c r="O238">
+      <c r="M238">
         <v>34.68056613941361</v>
       </c>
     </row>
@@ -8589,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Motoiwashimizu_Otabisho_%28HigashiKujo-cho,_Nara%29</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
@@ -8600,10 +8573,10 @@
       <c r="K239" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N239">
+      <c r="L239">
         <v>135.81278945445675</v>
       </c>
-      <c r="O239">
+      <c r="M239">
         <v>34.65780903879364</v>
       </c>
     </row>
@@ -8624,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nakasuji_Shrine_Nara</v>
+        <v>2017-03-05</v>
       </c>
       <c r="I240" t="b">
         <v>0</v>
@@ -8635,10 +8608,10 @@
       <c r="K240" t="str">
         <v>中筋町</v>
       </c>
-      <c r="N240">
+      <c r="L240">
         <v>135.8276696067542</v>
       </c>
-      <c r="O240">
+      <c r="M240">
         <v>34.68520886265426</v>
       </c>
     </row>
@@ -8659,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="H241" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nara_Tsubai_Ichiba_Gosha_Inari</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J241">
         <v>552</v>
@@ -8667,10 +8640,10 @@
       <c r="K241" t="str">
         <v>椿井町</v>
       </c>
-      <c r="N241">
+      <c r="L241">
         <v>135.827258</v>
       </c>
-      <c r="O241">
+      <c r="M241">
         <v>34.680511</v>
       </c>
     </row>
@@ -8691,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nara_Tsubai_Ichina_Rikimatsu_Inari</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
@@ -8702,10 +8675,10 @@
       <c r="K242" t="str">
         <v>椿井町</v>
       </c>
-      <c r="N242">
+      <c r="L242">
         <v>135.826894</v>
       </c>
-      <c r="O242">
+      <c r="M242">
         <v>34.680507</v>
       </c>
     </row>
@@ -8726,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nishiyama-Inari_Shrine_%28Nara%29</v>
+        <v>2016-05-05</v>
       </c>
       <c r="I243" t="b">
         <v>0</v>
@@ -8737,10 +8710,10 @@
       <c r="K243" t="str">
         <v>南永井町</v>
       </c>
-      <c r="N243">
+      <c r="L243">
         <v>135.8216369742724</v>
       </c>
-      <c r="O243">
+      <c r="M243">
         <v>34.6562284955677</v>
       </c>
     </row>
@@ -8761,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nogami_Shrine_%28Nogami-cho,_NARA%29</v>
+        <v>2017-05-01</v>
       </c>
       <c r="I244" t="b">
         <v>0</v>
@@ -8772,10 +8745,10 @@
       <c r="K244" t="str">
         <v>西大寺野神町一丁目</v>
       </c>
-      <c r="N244">
+      <c r="L244">
         <v>135.77676588589156</v>
       </c>
-      <c r="O244">
+      <c r="M244">
         <v>34.69411961862098</v>
       </c>
     </row>
@@ -8796,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Nogami_Tree_Sanjo-Soekawa_Nara</v>
+        <v>2017-02-18</v>
       </c>
       <c r="J245">
         <v>572</v>
@@ -8804,10 +8777,10 @@
       <c r="K245" t="str">
         <v>三条添川町</v>
       </c>
-      <c r="N245">
+      <c r="L245">
         <v>135.81187169899275</v>
       </c>
-      <c r="O245">
+      <c r="M245">
         <v>34.68148904547172</v>
       </c>
     </row>
@@ -8828,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Old_Isagawa-Awa_Shrine_%28NishiJodo-cho,_Nara%29</v>
+        <v>2018-02-15</v>
       </c>
       <c r="I246" t="b">
         <v>0</v>
@@ -8839,10 +8812,10 @@
       <c r="K246" t="str">
         <v>西城戸町</v>
       </c>
-      <c r="N246">
+      <c r="L246">
         <v>135.82676085611251</v>
       </c>
-      <c r="O246">
+      <c r="M246">
         <v>34.67927537045362</v>
       </c>
     </row>
@@ -8863,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:RyuCho_Taishin_Shrine_Nara</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I247" t="b">
         <v>0</v>
@@ -8874,10 +8847,10 @@
       <c r="K247" t="str">
         <v>高天市町</v>
       </c>
-      <c r="N247">
+      <c r="L247">
         <v>135.8255783192438</v>
       </c>
-      <c r="O247">
+      <c r="M247">
         <v>34.684850332961744</v>
       </c>
     </row>
@@ -8898,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sahogawa_Tenmangu_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I248" t="b">
         <v>0</v>
@@ -8909,10 +8882,10 @@
       <c r="K248" t="str">
         <v>西包永町</v>
       </c>
-      <c r="N248">
+      <c r="L248">
         <v>135.83031416648828</v>
       </c>
-      <c r="O248">
+      <c r="M248">
         <v>34.69180086668361</v>
       </c>
     </row>
@@ -8936,7 +8909,7 @@
         <v>境内に末吉大神、蛭子神社あり。</v>
       </c>
       <c r="H249" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sanpo_Kojin_Shrine</v>
+        <v>2018-06-22</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
@@ -8947,10 +8920,10 @@
       <c r="K249" t="str">
         <v>古市町</v>
       </c>
-      <c r="N249">
+      <c r="L249">
         <v>135.83578169169087</v>
       </c>
-      <c r="O249">
+      <c r="M249">
         <v>34.66482257396001</v>
       </c>
     </row>
@@ -8971,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Shirachi_Shrine_Nara</v>
+        <v>2018-09-21</v>
       </c>
       <c r="I250" t="b">
         <v>0</v>
@@ -8982,13 +8955,10 @@
       <c r="K250" t="str">
         <v>春日野町</v>
       </c>
-      <c r="L250" t="str">
-        <v>https://monumen.to/spots/6305</v>
-      </c>
-      <c r="N250">
+      <c r="L250">
         <v>135.85110663934816</v>
       </c>
-      <c r="O250">
+      <c r="M250">
         <v>34.675897701751374</v>
       </c>
     </row>
@@ -9012,7 +8982,7 @@
         <v>2020年6月現況、見当たらないが草木に隠れているためかは不明。秋などに再調査必要。</v>
       </c>
       <c r="H251" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Small_Shrine_near_Big_Tree_Kainotsuka_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I251" t="b">
         <v>0</v>
@@ -9023,10 +8993,10 @@
       <c r="K251" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N251">
+      <c r="L251">
         <v>135.83017522193853</v>
       </c>
-      <c r="O251">
+      <c r="M251">
         <v>34.664371931622405</v>
       </c>
     </row>
@@ -9047,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Small_Shrine_near_Yawata_Shrine_Higashikujo_Nara</v>
+        <v>2017-01-02</v>
       </c>
       <c r="J252">
         <v>594</v>
@@ -9055,10 +9025,10 @@
       <c r="K252" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N252">
+      <c r="L252">
         <v>135.8130027930545</v>
       </c>
-      <c r="O252">
+      <c r="M252">
         <v>34.66671991760648</v>
       </c>
     </row>
@@ -9079,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sugiichi_Taishin_Sugiga-cho_Nara</v>
+        <v>2016-07-22</v>
       </c>
       <c r="I253" t="b">
         <v>0</v>
@@ -9090,10 +9060,10 @@
       <c r="K253" t="str">
         <v>杉ヶ町</v>
       </c>
-      <c r="N253">
+      <c r="L253">
         <v>135.82300993977154</v>
       </c>
-      <c r="O253">
+      <c r="M253">
         <v>34.67858034944091</v>
       </c>
     </row>
@@ -9114,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Suihaku_Taishin_Nara</v>
+        <v>2020-06-27</v>
       </c>
       <c r="I254" t="b">
         <v>0</v>
@@ -9125,10 +9095,10 @@
       <c r="K254" t="str">
         <v>中筋町</v>
       </c>
-      <c r="N254">
+      <c r="L254">
         <v>135.82714135818082</v>
       </c>
-      <c r="O254">
+      <c r="M254">
         <v>34.68561580153925</v>
       </c>
     </row>
@@ -9149,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Suiko_Empress_Shrine</v>
+        <v>2017-01-02</v>
       </c>
       <c r="I255" t="b">
         <v>0</v>
@@ -9160,10 +9130,10 @@
       <c r="K255" t="str">
         <v>大安寺一丁目</v>
       </c>
-      <c r="N255">
+      <c r="L255">
         <v>135.81377184520701</v>
       </c>
-      <c r="O255">
+      <c r="M255">
         <v>34.66798827886917</v>
       </c>
     </row>
@@ -9184,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Sumiyoshi_Shrine_%28Imazushi-cho,_Nara%29</v>
+        <v>2017-08-27</v>
       </c>
       <c r="I256" t="b">
         <v>0</v>
@@ -9195,10 +9165,10 @@
       <c r="K256" t="str">
         <v>今辻子町</v>
       </c>
-      <c r="N256">
+      <c r="L256">
         <v>135.8235790264637</v>
       </c>
-      <c r="O256">
+      <c r="M256">
         <v>34.6828107124381</v>
       </c>
     </row>
@@ -9219,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tajikarao-Jinja_%28Nara%29</v>
+        <v>2015-05-17</v>
       </c>
       <c r="J257">
         <v>606</v>
@@ -9227,13 +9197,10 @@
       <c r="K257" t="str">
         <v>登大路町</v>
       </c>
-      <c r="M257" t="str">
-        <v>https://ja.wikipedia.org/wiki/%E6%89%8B%E5%8A%9B%E9%9B%84%E7%A5%9E%E7%A4%BE_(%E5%A5%88%E8%89%AF%E5%B8%82)</v>
-      </c>
-      <c r="N257">
+      <c r="L257">
         <v>135.82937622034692</v>
       </c>
-      <c r="O257">
+      <c r="M257">
         <v>34.68209693334671</v>
       </c>
     </row>
@@ -9254,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tamataki_Inari_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I258" t="b">
         <v>0</v>
@@ -9265,10 +9232,10 @@
       <c r="K258" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N258">
+      <c r="L258">
         <v>135.82644616058428</v>
       </c>
-      <c r="O258">
+      <c r="M258">
         <v>34.67545081826236</v>
       </c>
     </row>
@@ -9289,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tamatesu_Inari_%28Kawakami-cho%29_Nara</v>
+        <v>2016-11-04</v>
       </c>
       <c r="I259" t="b">
         <v>0</v>
@@ -9300,10 +9267,10 @@
       <c r="K259" t="str">
         <v>川上町</v>
       </c>
-      <c r="N259">
+      <c r="L259">
         <v>135.83191930847283</v>
       </c>
-      <c r="O259">
+      <c r="M259">
         <v>34.693466394430246</v>
       </c>
     </row>
@@ -9324,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tokikaze_Shrine_%28NishiKujo-cho_3,_Nara%29</v>
+        <v>2017-09-20</v>
       </c>
       <c r="I260" t="b">
         <v>0</v>
@@ -9335,10 +9302,10 @@
       <c r="K260" t="str">
         <v>西九条町三丁目</v>
       </c>
-      <c r="N260">
+      <c r="L260">
         <v>135.80300834367048</v>
       </c>
-      <c r="O260">
+      <c r="M260">
         <v>34.65773049964307</v>
       </c>
     </row>
@@ -9359,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Tsukihi-iwa</v>
+        <v>2015-12-17</v>
       </c>
       <c r="I261" t="b">
         <v>0</v>
@@ -9370,13 +9337,10 @@
       <c r="K261" t="str">
         <v>春日野町</v>
       </c>
-      <c r="M261" t="str">
-        <v>https://ja.wikipedia.org/wiki/%E6%9C%88%E6%97%A5%E7%A3%90</v>
-      </c>
-      <c r="N261">
+      <c r="L261">
         <v>135.852136</v>
       </c>
-      <c r="O261">
+      <c r="M261">
         <v>34.684631</v>
       </c>
     </row>
@@ -9397,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Shrine_%28Saki-cho,_Nara%29</v>
+        <v>2018-07-21</v>
       </c>
       <c r="I262" t="b">
         <v>0</v>
@@ -9408,10 +9372,10 @@
       <c r="K262" t="str">
         <v>佐紀町</v>
       </c>
-      <c r="N262">
+      <c r="L262">
         <v>135.79260267069665</v>
       </c>
-      <c r="O262">
+      <c r="M262">
         <v>34.69633893896788</v>
       </c>
     </row>
@@ -9432,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Shrine_in_Minami-Kidera_3_Nara</v>
+        <v>2017-02-11</v>
       </c>
       <c r="J263">
         <v>624</v>
@@ -9440,10 +9404,10 @@
       <c r="K263" t="str">
         <v>南紀寺町三丁目</v>
       </c>
-      <c r="N263">
+      <c r="L263">
         <v>135.8400127455786</v>
       </c>
-      <c r="O263">
+      <c r="M263">
         <v>34.66983530269319</v>
       </c>
     </row>
@@ -9464,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Wayside_Shrine_Mitsumune-sho_%28Nara%29</v>
+        <v>2017-03-18</v>
       </c>
       <c r="I264" t="b">
         <v>0</v>
@@ -9475,10 +9439,10 @@
       <c r="K264" t="str">
         <v>三棟町</v>
       </c>
-      <c r="N264">
+      <c r="L264">
         <v>135.8294821462211</v>
       </c>
-      <c r="O264">
+      <c r="M264">
         <v>34.67539551050971</v>
       </c>
     </row>
@@ -9499,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="str">
-        <v>https://commons.wikimedia.org/wiki/Category:Yoshimine_Daimyojin_%28MinamiHnadaNaka-machi%29_Nara</v>
+        <v>2016-08-19</v>
       </c>
       <c r="I265" t="b">
         <v>0</v>
@@ -9510,10 +9474,10 @@
       <c r="K265" t="str">
         <v>南半田中町</v>
       </c>
-      <c r="N265">
+      <c r="L265">
         <v>135.83241307233232</v>
       </c>
-      <c r="O265">
+      <c r="M265">
         <v>34.68741100731341</v>
       </c>
     </row>
@@ -9534,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nara_Hyoshi_Shrine.jpg</v>
+        <v>2015-05-24</v>
       </c>
       <c r="J266">
         <v>669</v>
@@ -9542,13 +9506,10 @@
       <c r="K266" t="str">
         <v>登大路町</v>
       </c>
-      <c r="L266" t="str">
-        <v>https://monumen.to/spots/2526</v>
-      </c>
-      <c r="N266">
+      <c r="L266">
         <v>135.835086</v>
       </c>
-      <c r="O266">
+      <c r="M266">
         <v>34.68447</v>
       </c>
     </row>
@@ -9569,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Nishinosaka-cho_Hakuryu_Taishin_Nara.jpg</v>
+        <v>2016-08-06</v>
       </c>
       <c r="I267" t="b">
         <v>0</v>
@@ -9580,10 +9541,10 @@
       <c r="K267" t="str">
         <v>西之阪町</v>
       </c>
-      <c r="N267">
+      <c r="L267">
         <v>135.82200403092997</v>
       </c>
-      <c r="O267">
+      <c r="M267">
         <v>34.68328295099536</v>
       </c>
     </row>
@@ -9604,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Sahohime_Shrine_Nara.jpg</v>
+        <v>2016-11-04</v>
       </c>
       <c r="J268">
         <v>671</v>
@@ -9612,10 +9573,10 @@
       <c r="K268" t="str">
         <v>川上町</v>
       </c>
-      <c r="N268">
+      <c r="L268">
         <v>135.83415272415508</v>
       </c>
-      <c r="O268">
+      <c r="M268">
         <v>34.69396875885307</v>
       </c>
     </row>
@@ -9636,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Small_Shrines_in_Imaichi_Nara.jpg</v>
+        <v>2020-08-09</v>
       </c>
       <c r="I269" t="b">
         <v>0</v>
@@ -9647,10 +9608,10 @@
       <c r="K269" t="str">
         <v>今市町</v>
       </c>
-      <c r="N269">
+      <c r="L269">
         <v>135.82426808874368</v>
       </c>
-      <c r="O269">
+      <c r="M269">
         <v>34.64511029421454</v>
       </c>
     </row>
@@ -9671,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Tsukihi_Jinja_Nara.jpg</v>
+        <v>2015-09-20</v>
       </c>
       <c r="J270">
         <v>673</v>
@@ -9679,13 +9640,10 @@
       <c r="K270" t="str">
         <v>下三条町</v>
       </c>
-      <c r="M270" t="str">
-        <v>https://ja.wikipedia.org/wiki/%E6%9C%88%E6%97%A5%E7%A5%9E%E7%A4%BE</v>
-      </c>
-      <c r="N270">
+      <c r="L270">
         <v>135.823222</v>
       </c>
-      <c r="O270">
+      <c r="M270">
         <v>34.681942</v>
       </c>
     </row>
@@ -9706,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="str">
-        <v>https://commons.wikimedia.org/wiki/File:Wayside_Shrine_In_Nara_NishiKitsuji.jpg</v>
+        <v>2016-07-22</v>
       </c>
       <c r="J271">
         <v>674</v>
@@ -9714,10 +9672,10 @@
       <c r="K271" t="str">
         <v>西木辻町</v>
       </c>
-      <c r="N271">
+      <c r="L271">
         <v>135.8254280884571</v>
       </c>
-      <c r="O271">
+      <c r="M271">
         <v>34.67490777571628</v>
       </c>
     </row>
@@ -9737,6 +9695,9 @@
       <c r="E272" t="b">
         <v>1</v>
       </c>
+      <c r="H272" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I272" t="b">
         <v>0</v>
       </c>
@@ -9746,10 +9707,10 @@
       <c r="K272" t="str">
         <v>西城戸町</v>
       </c>
-      <c r="N272">
+      <c r="L272">
         <v>135.82584622242427</v>
       </c>
-      <c r="O272">
+      <c r="M272">
         <v>34.67934231917728</v>
       </c>
     </row>
@@ -9769,16 +9730,19 @@
       <c r="E273" t="b">
         <v>1</v>
       </c>
+      <c r="H273" t="str">
+        <v>2019-07-23</v>
+      </c>
       <c r="J273">
         <v>679</v>
       </c>
       <c r="K273" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N273">
+      <c r="L273">
         <v>135.83459623252614</v>
       </c>
-      <c r="O273">
+      <c r="M273">
         <v>34.671867062945864</v>
       </c>
     </row>
@@ -9798,16 +9762,19 @@
       <c r="E274" t="b">
         <v>1</v>
       </c>
+      <c r="H274" t="str">
+        <v>2018-06-22</v>
+      </c>
       <c r="J274">
         <v>681</v>
       </c>
       <c r="K274" t="str">
         <v>古市町</v>
       </c>
-      <c r="N274">
+      <c r="L274">
         <v>135.833139420196</v>
       </c>
-      <c r="O274">
+      <c r="M274">
         <v>34.664248060080176</v>
       </c>
     </row>
@@ -9827,6 +9794,9 @@
       <c r="E275" t="b">
         <v>1</v>
       </c>
+      <c r="H275" t="str">
+        <v>2019-10-18</v>
+      </c>
       <c r="I275" t="b">
         <v>0</v>
       </c>
@@ -9836,10 +9806,10 @@
       <c r="K275" t="str">
         <v>中辻町</v>
       </c>
-      <c r="N275">
+      <c r="L275">
         <v>135.83004668912585</v>
       </c>
-      <c r="O275">
+      <c r="M275">
         <v>34.67194771097259</v>
       </c>
     </row>
@@ -9859,6 +9829,9 @@
       <c r="E276" t="b">
         <v>1</v>
       </c>
+      <c r="H276" t="str">
+        <v>2019-11-22</v>
+      </c>
       <c r="I276" t="b">
         <v>0</v>
       </c>
@@ -9868,10 +9841,10 @@
       <c r="K276" t="str">
         <v>登大路町</v>
       </c>
-      <c r="N276">
+      <c r="L276">
         <v>135.83023338122405</v>
       </c>
-      <c r="O276">
+      <c r="M276">
         <v>34.6814832293234</v>
       </c>
     </row>
@@ -9891,6 +9864,9 @@
       <c r="E277" t="b">
         <v>1</v>
       </c>
+      <c r="H277" t="str">
+        <v>2019-01-18</v>
+      </c>
       <c r="I277" t="b">
         <v>0</v>
       </c>
@@ -9900,10 +9876,10 @@
       <c r="K277" t="str">
         <v>登大路町</v>
       </c>
-      <c r="N277">
+      <c r="L277">
         <v>135.83150742865087</v>
       </c>
-      <c r="O277">
+      <c r="M277">
         <v>34.6812840652325</v>
       </c>
     </row>
@@ -9923,16 +9899,19 @@
       <c r="E278" t="b">
         <v>1</v>
       </c>
+      <c r="H278" t="str">
+        <v>2019-01-18</v>
+      </c>
       <c r="J278">
         <v>700</v>
       </c>
       <c r="K278" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N278">
+      <c r="L278">
         <v>135.83198034700285</v>
       </c>
-      <c r="O278">
+      <c r="M278">
         <v>34.68149503582339</v>
       </c>
     </row>
@@ -9952,6 +9931,9 @@
       <c r="E279" t="b">
         <v>1</v>
       </c>
+      <c r="H279" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I279" t="b">
         <v>0</v>
       </c>
@@ -9961,10 +9943,10 @@
       <c r="K279" t="str">
         <v>東笹鉾町</v>
       </c>
-      <c r="N279">
+      <c r="L279">
         <v>135.8333500572832</v>
       </c>
-      <c r="O279">
+      <c r="M279">
         <v>34.69030274490455</v>
       </c>
     </row>
@@ -9987,6 +9969,9 @@
       <c r="F280" t="str">
         <v/>
       </c>
+      <c r="H280" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I280" t="b">
         <v>0</v>
       </c>
@@ -9996,10 +9981,10 @@
       <c r="K280" t="str">
         <v>西九条町</v>
       </c>
-      <c r="N280">
+      <c r="L280">
         <v>135.80470017173593</v>
       </c>
-      <c r="O280">
+      <c r="M280">
         <v>34.65781918819022</v>
       </c>
     </row>
@@ -10022,6 +10007,9 @@
       <c r="F281" t="str">
         <v/>
       </c>
+      <c r="H281" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I281" t="b">
         <v>0</v>
       </c>
@@ -10031,10 +10019,10 @@
       <c r="K281" t="str">
         <v>西九条町</v>
       </c>
-      <c r="N281">
+      <c r="L281">
         <v>135.80613362697696</v>
       </c>
-      <c r="O281">
+      <c r="M281">
         <v>34.656729815211854</v>
       </c>
     </row>
@@ -10057,6 +10045,9 @@
       <c r="F282" t="str">
         <v/>
       </c>
+      <c r="H282" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I282" t="b">
         <v>0</v>
       </c>
@@ -10066,10 +10057,10 @@
       <c r="K282" t="str">
         <v>西九条町一丁目</v>
       </c>
-      <c r="N282">
+      <c r="L282">
         <v>135.80670444318415</v>
       </c>
-      <c r="O282">
+      <c r="M282">
         <v>34.659499195758</v>
       </c>
     </row>
@@ -10092,6 +10083,9 @@
       <c r="F283" t="str">
         <v/>
       </c>
+      <c r="H283" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I283" t="b">
         <v>0</v>
       </c>
@@ -10101,10 +10095,10 @@
       <c r="K283" t="str">
         <v>杏町</v>
       </c>
-      <c r="N283">
+      <c r="L283">
         <v>135.8061285051218</v>
       </c>
-      <c r="O283">
+      <c r="M283">
         <v>34.65805384189302</v>
       </c>
     </row>
@@ -10127,16 +10121,19 @@
       <c r="F284" t="str">
         <v/>
       </c>
+      <c r="H284" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="J284">
         <v>726</v>
       </c>
       <c r="K284" t="str">
         <v>西九条町五丁目</v>
       </c>
-      <c r="N284">
+      <c r="L284">
         <v>135.79557611002193</v>
       </c>
-      <c r="O284">
+      <c r="M284">
         <v>34.65802156694395</v>
       </c>
     </row>
@@ -10159,6 +10156,9 @@
       <c r="G285" t="str">
         <v>地蔵菩薩と掲げられているが明らかに不動明王。周辺には多くの地蔵。</v>
       </c>
+      <c r="H285" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I285" t="b">
         <v>0</v>
       </c>
@@ -10168,10 +10168,10 @@
       <c r="K285" t="str">
         <v>西九条町</v>
       </c>
-      <c r="N285">
+      <c r="L285">
         <v>135.8076121160955</v>
       </c>
-      <c r="O285">
+      <c r="M285">
         <v>34.65676364428679</v>
       </c>
     </row>
@@ -10194,16 +10194,19 @@
       <c r="G286" t="str">
         <v>大日如来石仏参道の地蔵</v>
       </c>
+      <c r="H286" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="J286">
         <v>733</v>
       </c>
       <c r="K286" t="str">
         <v>西九条町一丁目</v>
       </c>
-      <c r="N286">
+      <c r="L286">
         <v>135.80668424229953</v>
       </c>
-      <c r="O286">
+      <c r="M286">
         <v>34.65929530319516</v>
       </c>
     </row>
@@ -10226,6 +10229,9 @@
       <c r="G287" t="str">
         <v>平成20年命名</v>
       </c>
+      <c r="H287" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I287" t="b">
         <v>0</v>
       </c>
@@ -10235,10 +10241,10 @@
       <c r="K287" t="str">
         <v>三条桧町</v>
       </c>
-      <c r="N287">
+      <c r="L287">
         <v>135.80897135249643</v>
       </c>
-      <c r="O287">
+      <c r="M287">
         <v>34.67919674167629</v>
       </c>
     </row>
@@ -10258,6 +10264,9 @@
       <c r="E288" t="b">
         <v>1</v>
       </c>
+      <c r="H288" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I288" t="b">
         <v>0</v>
       </c>
@@ -10267,10 +10276,10 @@
       <c r="K288" t="str">
         <v>南京終町一丁目</v>
       </c>
-      <c r="N288">
+      <c r="L288">
         <v>135.82132984177832</v>
       </c>
-      <c r="O288">
+      <c r="M288">
         <v>34.66975077099327</v>
       </c>
     </row>
@@ -10293,6 +10302,9 @@
       <c r="G289" t="str">
         <v>祭礼時でなければ近づけない</v>
       </c>
+      <c r="H289" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I289" t="b">
         <v>0</v>
       </c>
@@ -10302,10 +10314,10 @@
       <c r="K289" t="str">
         <v>南京終町二丁目</v>
       </c>
-      <c r="N289">
+      <c r="L289">
         <v>135.82330009294498</v>
       </c>
-      <c r="O289">
+      <c r="M289">
         <v>34.66803494044919</v>
       </c>
     </row>
@@ -10328,6 +10340,9 @@
       <c r="G290" t="str">
         <v>文化二年</v>
       </c>
+      <c r="H290" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I290" t="b">
         <v>0</v>
       </c>
@@ -10337,10 +10352,10 @@
       <c r="K290" t="str">
         <v>杏町</v>
       </c>
-      <c r="N290">
+      <c r="L290">
         <v>135.8047598912728</v>
       </c>
-      <c r="O290">
+      <c r="M290">
         <v>34.6591942169501</v>
       </c>
     </row>
@@ -10360,6 +10375,9 @@
       <c r="E291" t="b">
         <v>1</v>
       </c>
+      <c r="H291" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I291" t="b">
         <v>0</v>
       </c>
@@ -10369,10 +10387,10 @@
       <c r="K291" t="str">
         <v>南京終町</v>
       </c>
-      <c r="N291">
+      <c r="L291">
         <v>135.8273684247001</v>
       </c>
-      <c r="O291">
+      <c r="M291">
         <v>34.66458043995839</v>
       </c>
     </row>
@@ -10392,6 +10410,9 @@
       <c r="E292" t="b">
         <v>1</v>
       </c>
+      <c r="H292" t="str">
+        <v>2020-06-27</v>
+      </c>
       <c r="I292" t="b">
         <v>0</v>
       </c>
@@ -10401,10 +10422,10 @@
       <c r="K292" t="str">
         <v>三条栄町</v>
       </c>
-      <c r="N292">
+      <c r="L292">
         <v>135.80815600807577</v>
       </c>
-      <c r="O292">
+      <c r="M292">
         <v>34.68149312846629</v>
       </c>
     </row>
@@ -10427,16 +10448,19 @@
       <c r="F293" t="str">
         <v/>
       </c>
+      <c r="H293" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I293" t="b">
         <v>0</v>
       </c>
       <c r="K293" t="str">
         <v>横井二丁目</v>
       </c>
-      <c r="N293">
+      <c r="L293">
         <v>135.8312528068074</v>
       </c>
-      <c r="O293">
+      <c r="M293">
         <v>34.65211253132068</v>
       </c>
     </row>
@@ -10459,6 +10483,9 @@
       <c r="F294" t="str">
         <v/>
       </c>
+      <c r="H294" t="str">
+        <v>2020-08-10</v>
+      </c>
       <c r="I294" t="b">
         <v>0</v>
       </c>
@@ -10468,10 +10495,10 @@
       <c r="K294" t="str">
         <v>山陵町</v>
       </c>
-      <c r="N294">
+      <c r="L294">
         <v>135.78672720335072</v>
       </c>
-      <c r="O294">
+      <c r="M294">
         <v>34.699004470011396</v>
       </c>
     </row>
@@ -10491,6 +10518,9 @@
       <c r="E295" t="b">
         <v>1</v>
       </c>
+      <c r="H295" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I295" t="b">
         <v>0</v>
       </c>
@@ -10500,10 +10530,10 @@
       <c r="K295" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N295">
+      <c r="L295">
         <v>135.83586048866528</v>
       </c>
-      <c r="O295">
+      <c r="M295">
         <v>34.69325457587535</v>
       </c>
     </row>
@@ -10523,6 +10553,9 @@
       <c r="E296" t="b">
         <v>1</v>
       </c>
+      <c r="H296" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I296" t="b">
         <v>0</v>
       </c>
@@ -10532,10 +10565,10 @@
       <c r="K296" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N296">
+      <c r="L296">
         <v>135.83605765290423</v>
       </c>
-      <c r="O296">
+      <c r="M296">
         <v>34.6931576857205</v>
       </c>
     </row>
@@ -10555,6 +10588,9 @@
       <c r="E297" t="b">
         <v>1</v>
       </c>
+      <c r="H297" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I297" t="b">
         <v>0</v>
       </c>
@@ -10564,10 +10600,10 @@
       <c r="K297" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N297">
+      <c r="L297">
         <v>135.8368554625522</v>
       </c>
-      <c r="O297">
+      <c r="M297">
         <v>34.692793327553396</v>
       </c>
     </row>
@@ -10587,6 +10623,9 @@
       <c r="E298" t="b">
         <v>1</v>
       </c>
+      <c r="H298" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I298" t="b">
         <v>0</v>
       </c>
@@ -10596,10 +10635,10 @@
       <c r="K298" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N298">
+      <c r="L298">
         <v>135.8376547976488</v>
       </c>
-      <c r="O298">
+      <c r="M298">
         <v>34.69325488943553</v>
       </c>
     </row>
@@ -10619,6 +10658,9 @@
       <c r="E299" t="b">
         <v>1</v>
       </c>
+      <c r="H299" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I299" t="b">
         <v>0</v>
       </c>
@@ -10628,10 +10670,10 @@
       <c r="K299" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N299">
+      <c r="L299">
         <v>135.83634291180323</v>
       </c>
-      <c r="O299">
+      <c r="M299">
         <v>34.69415542939317</v>
       </c>
     </row>
@@ -10654,6 +10696,9 @@
       <c r="G300" t="str">
         <v>Google StreetViewによると2015年まで手前に民家あり、個宅内の地蔵堂であった模様</v>
       </c>
+      <c r="H300" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I300" t="b">
         <v>0</v>
       </c>
@@ -10663,10 +10708,10 @@
       <c r="K300" t="str">
         <v>雑司町</v>
       </c>
-      <c r="N300">
+      <c r="L300">
         <v>135.83563662907474</v>
       </c>
-      <c r="O300">
+      <c r="M300">
         <v>34.69397889674046</v>
       </c>
     </row>
@@ -10686,6 +10731,9 @@
       <c r="E301" t="b">
         <v>1</v>
       </c>
+      <c r="H301" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I301" t="b">
         <v>0</v>
       </c>
@@ -10695,10 +10743,10 @@
       <c r="K301" t="str">
         <v>手貝町</v>
       </c>
-      <c r="N301">
+      <c r="L301">
         <v>135.83514390915832</v>
       </c>
-      <c r="O301">
+      <c r="M301">
         <v>34.692480705713265</v>
       </c>
     </row>
@@ -10718,6 +10766,9 @@
       <c r="E302" t="b">
         <v>1</v>
       </c>
+      <c r="H302" t="str">
+        <v>2019-07-23</v>
+      </c>
       <c r="I302" t="b">
         <v>0</v>
       </c>
@@ -10727,10 +10778,10 @@
       <c r="K302" t="str">
         <v>肘塚町</v>
       </c>
-      <c r="N302">
+      <c r="L302">
         <v>135.83057357751377</v>
       </c>
-      <c r="O302">
+      <c r="M302">
         <v>34.67010198777182</v>
       </c>
     </row>
@@ -10750,6 +10801,9 @@
       <c r="E303" t="b">
         <v>1</v>
       </c>
+      <c r="H303" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I303" t="b">
         <v>0</v>
       </c>
@@ -10759,10 +10813,10 @@
       <c r="K303" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N303">
+      <c r="L303">
         <v>135.84900727879847</v>
       </c>
-      <c r="O303">
+      <c r="M303">
         <v>34.67290193428538</v>
       </c>
     </row>
@@ -10782,6 +10836,9 @@
       <c r="E304" t="b">
         <v>1</v>
       </c>
+      <c r="H304" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I304" t="b">
         <v>0</v>
       </c>
@@ -10791,10 +10848,10 @@
       <c r="K304" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N304">
+      <c r="L304">
         <v>135.851567</v>
       </c>
-      <c r="O304">
+      <c r="M304">
         <v>34.67592</v>
       </c>
     </row>
@@ -10814,6 +10871,9 @@
       <c r="E305" t="b">
         <v>1</v>
       </c>
+      <c r="H305" t="str">
+        <v>2018-09-21</v>
+      </c>
       <c r="I305" t="b">
         <v>0</v>
       </c>
@@ -10823,10 +10883,10 @@
       <c r="K305" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N305">
+      <c r="L305">
         <v>135.84725053914525</v>
       </c>
-      <c r="O305">
+      <c r="M305">
         <v>34.677231182069605</v>
       </c>
     </row>
@@ -10846,6 +10906,9 @@
       <c r="E306" t="b">
         <v>1</v>
       </c>
+      <c r="H306" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I306" t="b">
         <v>0</v>
       </c>
@@ -10855,10 +10918,10 @@
       <c r="K306" t="str">
         <v>押上町</v>
       </c>
-      <c r="N306">
+      <c r="L306">
         <v>135.83477651832573</v>
       </c>
-      <c r="O306">
+      <c r="M306">
         <v>34.68834853082706</v>
       </c>
     </row>
@@ -10878,6 +10941,9 @@
       <c r="E307" t="b">
         <v>1</v>
       </c>
+      <c r="H307" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I307" t="b">
         <v>0</v>
       </c>
@@ -10887,10 +10953,10 @@
       <c r="K307" t="str">
         <v>東之阪町</v>
       </c>
-      <c r="N307">
+      <c r="L307">
         <v>135.835330642754</v>
       </c>
-      <c r="O307">
+      <c r="M307">
         <v>34.696368315778805</v>
       </c>
     </row>
@@ -10910,6 +10976,9 @@
       <c r="E308" t="b">
         <v>1</v>
       </c>
+      <c r="H308" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I308" t="b">
         <v>0</v>
       </c>
@@ -10919,10 +10988,10 @@
       <c r="K308" t="str">
         <v>東之阪町</v>
       </c>
-      <c r="N308">
+      <c r="L308">
         <v>135.83637039445463</v>
       </c>
-      <c r="O308">
+      <c r="M308">
         <v>34.69591200241732</v>
       </c>
     </row>
@@ -10942,6 +11011,9 @@
       <c r="E309" t="b">
         <v>1</v>
       </c>
+      <c r="H309" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I309" t="b">
         <v>0</v>
       </c>
@@ -10951,10 +11023,10 @@
       <c r="K309" t="str">
         <v>川上町</v>
       </c>
-      <c r="N309">
+      <c r="L309">
         <v>135.83678664640232</v>
       </c>
-      <c r="O309">
+      <c r="M309">
         <v>34.69655603889959</v>
       </c>
     </row>
@@ -10974,6 +11046,9 @@
       <c r="E310" t="b">
         <v>1</v>
       </c>
+      <c r="H310" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I310" t="b">
         <v>0</v>
       </c>
@@ -10983,10 +11058,10 @@
       <c r="K310" t="str">
         <v>川上町</v>
       </c>
-      <c r="N310">
+      <c r="L310">
         <v>135.8365723732478</v>
       </c>
-      <c r="O310">
+      <c r="M310">
         <v>34.695328610784244</v>
       </c>
     </row>
@@ -11006,6 +11081,9 @@
       <c r="E311" t="b">
         <v>1</v>
       </c>
+      <c r="H311" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I311" t="b">
         <v>0</v>
       </c>
@@ -11015,10 +11093,10 @@
       <c r="K311" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N311">
+      <c r="L311">
         <v>135.83519364844219</v>
       </c>
-      <c r="O311">
+      <c r="M311">
         <v>34.70166627626771</v>
       </c>
     </row>
@@ -11038,6 +11116,9 @@
       <c r="E312" t="b">
         <v>1</v>
       </c>
+      <c r="H312" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I312" t="b">
         <v>0</v>
       </c>
@@ -11047,10 +11128,10 @@
       <c r="K312" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N312">
+      <c r="L312">
         <v>135.83439627129343</v>
       </c>
-      <c r="O312">
+      <c r="M312">
         <v>34.70239112755573</v>
       </c>
     </row>
@@ -11070,6 +11151,9 @@
       <c r="E313" t="b">
         <v>1</v>
       </c>
+      <c r="H313" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I313" t="b">
         <v>0</v>
       </c>
@@ -11079,10 +11163,10 @@
       <c r="K313" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N313">
+      <c r="L313">
         <v>135.83531307938077</v>
       </c>
-      <c r="O313">
+      <c r="M313">
         <v>34.70225756479765</v>
       </c>
     </row>
@@ -11102,6 +11186,9 @@
       <c r="E314" t="b">
         <v>1</v>
       </c>
+      <c r="H314" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I314" t="b">
         <v>0</v>
       </c>
@@ -11111,10 +11198,10 @@
       <c r="K314" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N314">
+      <c r="L314">
         <v>135.83537147759705</v>
       </c>
-      <c r="O314">
+      <c r="M314">
         <v>34.70222110573703</v>
       </c>
     </row>
@@ -11134,6 +11221,9 @@
       <c r="E315" t="b">
         <v>1</v>
       </c>
+      <c r="H315" t="str">
+        <v>2017-06-17</v>
+      </c>
       <c r="I315" t="b">
         <v>0</v>
       </c>
@@ -11143,10 +11233,10 @@
       <c r="K315" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N315">
+      <c r="L315">
         <v>135.83473173172385</v>
       </c>
-      <c r="O315">
+      <c r="M315">
         <v>34.70484395122013</v>
       </c>
     </row>
@@ -11166,6 +11256,9 @@
       <c r="E316" t="b">
         <v>1</v>
       </c>
+      <c r="H316" t="str">
+        <v>2017-05-03</v>
+      </c>
       <c r="I316" t="b">
         <v>0</v>
       </c>
@@ -11175,10 +11268,10 @@
       <c r="K316" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N316">
+      <c r="L316">
         <v>135.82566</v>
       </c>
-      <c r="O316">
+      <c r="M316">
         <v>34.7017</v>
       </c>
     </row>
@@ -11198,6 +11291,9 @@
       <c r="E317" t="b">
         <v>1</v>
       </c>
+      <c r="H317" t="str">
+        <v>2017-05-03</v>
+      </c>
       <c r="I317" t="b">
         <v>0</v>
       </c>
@@ -11207,10 +11303,10 @@
       <c r="K317" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N317">
+      <c r="L317">
         <v>135.825701</v>
       </c>
-      <c r="O317">
+      <c r="M317">
         <v>34.70172</v>
       </c>
     </row>
@@ -11230,6 +11326,9 @@
       <c r="E318" t="b">
         <v>1</v>
       </c>
+      <c r="H318" t="str">
+        <v>2017-05-03</v>
+      </c>
       <c r="I318" t="b">
         <v>0</v>
       </c>
@@ -11239,10 +11338,10 @@
       <c r="K318" t="str">
         <v>奈良阪町</v>
       </c>
-      <c r="N318">
+      <c r="L318">
         <v>135.825772</v>
       </c>
-      <c r="O318">
+      <c r="M318">
         <v>34.701773</v>
       </c>
     </row>
@@ -11262,6 +11361,9 @@
       <c r="E319" t="b">
         <v>1</v>
       </c>
+      <c r="H319" t="str">
+        <v>2017-05-03</v>
+      </c>
       <c r="I319" t="b">
         <v>0</v>
       </c>
@@ -11271,10 +11373,10 @@
       <c r="K319" t="str">
         <v>法蓮佐保山１丁目</v>
       </c>
-      <c r="N319">
+      <c r="L319">
         <v>135.82477768989452</v>
       </c>
-      <c r="O319">
+      <c r="M319">
         <v>34.697402592682884</v>
       </c>
     </row>
@@ -11294,6 +11396,9 @@
       <c r="E320" t="b">
         <v>1</v>
       </c>
+      <c r="H320" t="str">
+        <v>2017-12-22</v>
+      </c>
       <c r="I320" t="b">
         <v>0</v>
       </c>
@@ -11303,10 +11408,10 @@
       <c r="K320" t="str">
         <v>法蓮佐保山４丁目</v>
       </c>
-      <c r="N320">
+      <c r="L320">
         <v>135.8269344721383</v>
       </c>
-      <c r="O320">
+      <c r="M320">
         <v>34.69422860312026</v>
       </c>
     </row>
@@ -11326,6 +11431,9 @@
       <c r="E321" t="b">
         <v>1</v>
       </c>
+      <c r="H321" t="str">
+        <v>2019-11-22</v>
+      </c>
       <c r="I321" t="b">
         <v>0</v>
       </c>
@@ -11335,10 +11443,10 @@
       <c r="K321" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N321">
+      <c r="L321">
         <v>135.82509383061432</v>
       </c>
-      <c r="O321">
+      <c r="M321">
         <v>34.693460358050025</v>
       </c>
     </row>
@@ -11358,6 +11466,9 @@
       <c r="E322" t="b">
         <v>1</v>
       </c>
+      <c r="H322" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I322" t="b">
         <v>0</v>
       </c>
@@ -11367,10 +11478,10 @@
       <c r="K322" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N322">
+      <c r="L322">
         <v>135.84080251171255</v>
       </c>
-      <c r="O322">
+      <c r="M322">
         <v>34.685009191644774</v>
       </c>
     </row>
@@ -11390,6 +11501,9 @@
       <c r="E323" t="b">
         <v>1</v>
       </c>
+      <c r="H323" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I323" t="b">
         <v>0</v>
       </c>
@@ -11399,10 +11513,10 @@
       <c r="K323" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N323">
+      <c r="L323">
         <v>135.84075333426728</v>
       </c>
-      <c r="O323">
+      <c r="M323">
         <v>34.68496586491881</v>
       </c>
     </row>
@@ -11422,6 +11536,9 @@
       <c r="E324" t="b">
         <v>1</v>
       </c>
+      <c r="H324" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I324" t="b">
         <v>0</v>
       </c>
@@ -11431,10 +11548,10 @@
       <c r="K324" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N324">
+      <c r="L324">
         <v>135.8447648087338</v>
       </c>
-      <c r="O324">
+      <c r="M324">
         <v>34.68308546316618</v>
       </c>
     </row>
@@ -11454,6 +11571,9 @@
       <c r="E325" t="b">
         <v>1</v>
       </c>
+      <c r="H325" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I325" t="b">
         <v>0</v>
       </c>
@@ -11463,10 +11583,10 @@
       <c r="K325" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N325">
+      <c r="L325">
         <v>135.844929904443</v>
       </c>
-      <c r="O325">
+      <c r="M325">
         <v>34.683642944637235</v>
       </c>
     </row>
@@ -11486,6 +11606,9 @@
       <c r="E326" t="b">
         <v>1</v>
       </c>
+      <c r="H326" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I326" t="b">
         <v>0</v>
       </c>
@@ -11495,10 +11618,10 @@
       <c r="K326" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N326">
+      <c r="L326">
         <v>135.845727</v>
       </c>
-      <c r="O326">
+      <c r="M326">
         <v>34.683508</v>
       </c>
     </row>
@@ -11518,6 +11641,9 @@
       <c r="E327" t="b">
         <v>1</v>
       </c>
+      <c r="H327" t="str">
+        <v>2020-02-21</v>
+      </c>
       <c r="I327" t="b">
         <v>0</v>
       </c>
@@ -11527,10 +11653,10 @@
       <c r="K327" t="str">
         <v>春日野町</v>
       </c>
-      <c r="N327">
+      <c r="L327">
         <v>135.84570269286914</v>
       </c>
-      <c r="O327">
+      <c r="M327">
         <v>34.683541847239766</v>
       </c>
     </row>
@@ -11553,6 +11679,9 @@
       <c r="F328" t="str">
         <v/>
       </c>
+      <c r="H328" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I328" t="b">
         <v>0</v>
       </c>
@@ -11562,10 +11691,10 @@
       <c r="K328" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N328">
+      <c r="L328">
         <v>135.84754928073835</v>
       </c>
-      <c r="O328">
+      <c r="M328">
         <v>34.67078979155528</v>
       </c>
     </row>
@@ -11588,6 +11717,9 @@
       <c r="F329" t="str">
         <v/>
       </c>
+      <c r="H329" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I329" t="b">
         <v>0</v>
       </c>
@@ -11597,10 +11729,10 @@
       <c r="K329" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N329">
+      <c r="L329">
         <v>135.84789377048335</v>
       </c>
-      <c r="O329">
+      <c r="M329">
         <v>34.67070690980285</v>
       </c>
     </row>
@@ -11623,6 +11755,9 @@
       <c r="F330" t="str">
         <v/>
       </c>
+      <c r="H330" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I330" t="b">
         <v>0</v>
       </c>
@@ -11632,10 +11767,10 @@
       <c r="K330" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N330">
+      <c r="L330">
         <v>135.84785983567264</v>
       </c>
-      <c r="O330">
+      <c r="M330">
         <v>34.67043035478401</v>
       </c>
     </row>
@@ -11658,6 +11793,9 @@
       <c r="F331" t="str">
         <v/>
       </c>
+      <c r="H331" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I331" t="b">
         <v>0</v>
       </c>
@@ -11667,10 +11805,10 @@
       <c r="K331" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N331">
+      <c r="L331">
         <v>135.84834316708103</v>
       </c>
-      <c r="O331">
+      <c r="M331">
         <v>34.66939916936628</v>
       </c>
     </row>
@@ -11693,6 +11831,9 @@
       <c r="F332" t="str">
         <v/>
       </c>
+      <c r="H332" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I332" t="b">
         <v>0</v>
       </c>
@@ -11702,10 +11843,10 @@
       <c r="K332" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N332">
+      <c r="L332">
         <v>135.84860251413832</v>
       </c>
-      <c r="O332">
+      <c r="M332">
         <v>34.66881504175446</v>
       </c>
     </row>
@@ -11728,6 +11869,9 @@
       <c r="F333" t="str">
         <v/>
       </c>
+      <c r="H333" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I333" t="b">
         <v>0</v>
       </c>
@@ -11737,10 +11881,10 @@
       <c r="K333" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N333">
+      <c r="L333">
         <v>135.84895920339244</v>
       </c>
-      <c r="O333">
+      <c r="M333">
         <v>34.6684885366044</v>
       </c>
     </row>
@@ -11763,6 +11907,9 @@
       <c r="F334" t="str">
         <v/>
       </c>
+      <c r="H334" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I334" t="b">
         <v>0</v>
       </c>
@@ -11772,10 +11919,10 @@
       <c r="K334" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N334">
+      <c r="L334">
         <v>135.8473986879056</v>
       </c>
-      <c r="O334">
+      <c r="M334">
         <v>34.66724174052072</v>
       </c>
     </row>
@@ -11798,6 +11945,9 @@
       <c r="F335" t="str">
         <v/>
       </c>
+      <c r="H335" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I335" t="b">
         <v>0</v>
       </c>
@@ -11807,10 +11957,10 @@
       <c r="K335" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N335">
+      <c r="L335">
         <v>135.8469632490892</v>
       </c>
-      <c r="O335">
+      <c r="M335">
         <v>34.670120443645054</v>
       </c>
     </row>
@@ -11833,6 +11983,9 @@
       <c r="F336" t="str">
         <v>飛鳥地蔵マップ48番</v>
       </c>
+      <c r="H336" t="str">
+        <v>2020-08-21</v>
+      </c>
       <c r="I336" t="b">
         <v>0</v>
       </c>
@@ -11842,10 +11995,10 @@
       <c r="K336" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N336">
+      <c r="L336">
         <v>135.84283375139358</v>
       </c>
-      <c r="O336">
+      <c r="M336">
         <v>34.67038267166967</v>
       </c>
     </row>
@@ -11868,6 +12021,9 @@
       <c r="F337" t="str">
         <v/>
       </c>
+      <c r="H337" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I337" t="b">
         <v>0</v>
       </c>
@@ -11877,10 +12033,10 @@
       <c r="K337" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N337">
+      <c r="L337">
         <v>135.8408033664085</v>
       </c>
-      <c r="O337">
+      <c r="M337">
         <v>34.67051806611405</v>
       </c>
     </row>
@@ -11903,6 +12059,9 @@
       <c r="F338" t="str">
         <v/>
       </c>
+      <c r="H338" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I338" t="b">
         <v>0</v>
       </c>
@@ -11912,10 +12071,10 @@
       <c r="K338" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N338">
+      <c r="L338">
         <v>135.84086510108708</v>
       </c>
-      <c r="O338">
+      <c r="M338">
         <v>34.66789758016633</v>
       </c>
     </row>
@@ -11935,6 +12094,9 @@
       <c r="E339" t="b">
         <v>1</v>
       </c>
+      <c r="H339" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I339" t="b">
         <v>0</v>
       </c>
@@ -11944,10 +12106,10 @@
       <c r="K339" t="str">
         <v>高畑町</v>
       </c>
-      <c r="N339">
+      <c r="L339">
         <v>135.84232953259038</v>
       </c>
-      <c r="O339">
+      <c r="M339">
         <v>34.67580500493541</v>
       </c>
     </row>
@@ -11970,6 +12132,9 @@
       <c r="F340" t="str">
         <v/>
       </c>
+      <c r="H340" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I340" t="b">
         <v>0</v>
       </c>
@@ -11979,10 +12144,10 @@
       <c r="K340" t="str">
         <v>十輪院町</v>
       </c>
-      <c r="N340">
+      <c r="L340">
         <v>135.83352880144903</v>
       </c>
-      <c r="O340">
+      <c r="M340">
         <v>34.67603375211848</v>
       </c>
     </row>
@@ -12005,6 +12170,9 @@
       <c r="F341" t="str">
         <v/>
       </c>
+      <c r="H341" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I341" t="b">
         <v>0</v>
       </c>
@@ -12014,10 +12182,10 @@
       <c r="K341" t="str">
         <v>紀寺新町</v>
       </c>
-      <c r="N341">
+      <c r="L341">
         <v>135.83376287877206</v>
       </c>
-      <c r="O341">
+      <c r="M341">
         <v>34.66993343171842</v>
       </c>
     </row>
@@ -12040,6 +12208,9 @@
       <c r="F342" t="str">
         <v/>
       </c>
+      <c r="H342" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I342" t="b">
         <v>0</v>
       </c>
@@ -12049,10 +12220,10 @@
       <c r="K342" t="str">
         <v>東紀寺町三丁目</v>
       </c>
-      <c r="N342">
+      <c r="L342">
         <v>135.83920581960174</v>
       </c>
-      <c r="O342">
+      <c r="M342">
         <v>34.67107159055</v>
       </c>
     </row>
@@ -12075,6 +12246,9 @@
       <c r="F343" t="str">
         <v/>
       </c>
+      <c r="H343" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I343" t="b">
         <v>0</v>
       </c>
@@ -12084,10 +12258,10 @@
       <c r="K343" t="str">
         <v>東紀寺町一丁目</v>
       </c>
-      <c r="N343">
+      <c r="L343">
         <v>135.83576878935907</v>
       </c>
-      <c r="O343">
+      <c r="M343">
         <v>34.670352469669396</v>
       </c>
     </row>
@@ -12116,10 +12290,10 @@
       <c r="K344" t="str">
         <v>押熊町</v>
       </c>
-      <c r="N344">
+      <c r="L344">
         <v>135.76817502240894</v>
       </c>
-      <c r="O344">
+      <c r="M344">
         <v>34.716933105795825</v>
       </c>
     </row>
@@ -12148,10 +12322,10 @@
       <c r="K345" t="str">
         <v>東九条町</v>
       </c>
-      <c r="N345">
+      <c r="L345">
         <v>135.81930736232255</v>
       </c>
-      <c r="O345">
+      <c r="M345">
         <v>34.66245802630265</v>
       </c>
     </row>
@@ -12169,21 +12343,27 @@
         <v>八島町 大通り脇の地蔵群</v>
       </c>
       <c r="E346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" t="str">
-        <v>Google StreetViewで発見。要現地調査。</v>
+        <v/>
+      </c>
+      <c r="H346" t="str">
+        <v>2020-08-09</v>
       </c>
       <c r="I346" t="b">
         <v>0</v>
       </c>
+      <c r="J346">
+        <v>1054</v>
+      </c>
       <c r="K346" t="str">
         <v>八島町</v>
       </c>
-      <c r="N346">
+      <c r="L346">
         <v>135.83979031981843</v>
       </c>
-      <c r="O346">
+      <c r="M346">
         <v>34.645010887005704</v>
       </c>
     </row>
@@ -12206,6 +12386,9 @@
       <c r="F347" t="str">
         <v/>
       </c>
+      <c r="H347" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I347" t="b">
         <v>0</v>
       </c>
@@ -12215,10 +12398,10 @@
       <c r="K347" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N347">
+      <c r="L347">
         <v>135.8495752663763</v>
       </c>
-      <c r="O347">
+      <c r="M347">
         <v>34.67084480686879</v>
       </c>
     </row>
@@ -12241,6 +12424,9 @@
       <c r="F348" t="str">
         <v/>
       </c>
+      <c r="H348" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I348" t="b">
         <v>0</v>
       </c>
@@ -12250,10 +12436,10 @@
       <c r="K348" t="str">
         <v>南永井町</v>
       </c>
-      <c r="N348">
+      <c r="L348">
         <v>135.8275737128649</v>
       </c>
-      <c r="O348">
+      <c r="M348">
         <v>34.6491563950206</v>
       </c>
     </row>
@@ -12276,6 +12462,9 @@
       <c r="F349" t="str">
         <v/>
       </c>
+      <c r="H349" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I349" t="b">
         <v>0</v>
       </c>
@@ -12285,10 +12474,10 @@
       <c r="K349" t="str">
         <v>今市町</v>
       </c>
-      <c r="N349">
+      <c r="L349">
         <v>135.821825143284</v>
       </c>
-      <c r="O349">
+      <c r="M349">
         <v>34.64564557257678</v>
       </c>
     </row>
@@ -12311,6 +12500,9 @@
       <c r="F350" t="str">
         <v>見初社脇のため、近くで確認できていない。取材する手段を検討要。</v>
       </c>
+      <c r="H350" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I350" t="b">
         <v>0</v>
       </c>
@@ -12320,10 +12512,10 @@
       <c r="K350" t="str">
         <v>西御門町</v>
       </c>
-      <c r="N350">
+      <c r="L350">
         <v>135.82708899706702</v>
       </c>
-      <c r="O350">
+      <c r="M350">
         <v>34.68462509152534</v>
       </c>
     </row>
@@ -12343,6 +12535,9 @@
       <c r="E351" t="b">
         <v>1</v>
       </c>
+      <c r="H351" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I351" t="b">
         <v>0</v>
       </c>
@@ -12352,10 +12547,10 @@
       <c r="K351" t="str">
         <v>内侍原町</v>
       </c>
-      <c r="N351">
+      <c r="L351">
         <v>135.8262120817532</v>
       </c>
-      <c r="O351">
+      <c r="M351">
         <v>34.686026814540156</v>
       </c>
     </row>
@@ -12375,6 +12570,9 @@
       <c r="E352" t="b">
         <v>1</v>
       </c>
+      <c r="H352" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I352" t="b">
         <v>0</v>
       </c>
@@ -12384,10 +12582,10 @@
       <c r="K352" t="str">
         <v>法蓮町</v>
       </c>
-      <c r="N352">
+      <c r="L352">
         <v>135.82812447987234</v>
       </c>
-      <c r="O352">
+      <c r="M352">
         <v>34.69181681043616</v>
       </c>
     </row>
@@ -12407,6 +12605,9 @@
       <c r="E353" t="b">
         <v>1</v>
       </c>
+      <c r="H353" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I353" t="b">
         <v>0</v>
       </c>
@@ -12416,10 +12617,10 @@
       <c r="K353" t="str">
         <v>多門町</v>
       </c>
-      <c r="N353">
+      <c r="L353">
         <v>135.83154234867237</v>
       </c>
-      <c r="O353">
+      <c r="M353">
         <v>34.6931987847617</v>
       </c>
     </row>
@@ -12439,6 +12640,9 @@
       <c r="E354" t="b">
         <v>1</v>
       </c>
+      <c r="H354" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I354" t="b">
         <v>0</v>
       </c>
@@ -12448,10 +12652,10 @@
       <c r="K354" t="str">
         <v>川上町</v>
       </c>
-      <c r="N354">
+      <c r="L354">
         <v>135.8330108259497</v>
       </c>
-      <c r="O354">
+      <c r="M354">
         <v>34.69349236868022</v>
       </c>
     </row>
@@ -12471,6 +12675,9 @@
       <c r="E355" t="b">
         <v>1</v>
       </c>
+      <c r="H355" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I355" t="b">
         <v>1</v>
       </c>
@@ -12480,10 +12687,10 @@
       <c r="K355" t="str">
         <v>川上町</v>
       </c>
-      <c r="N355">
+      <c r="L355">
         <v>135.83239319695244</v>
       </c>
-      <c r="O355">
+      <c r="M355">
         <v>34.692160653094525</v>
       </c>
     </row>
@@ -12503,6 +12710,9 @@
       <c r="E356" t="b">
         <v>1</v>
       </c>
+      <c r="H356" t="str">
+        <v>2020-08-08</v>
+      </c>
       <c r="I356" t="b">
         <v>0</v>
       </c>
@@ -12512,10 +12722,10 @@
       <c r="K356" t="str">
         <v>北半田中町</v>
       </c>
-      <c r="N356">
+      <c r="L356">
         <v>135.83223752483013</v>
       </c>
-      <c r="O356">
+      <c r="M356">
         <v>34.6881417051328</v>
       </c>
     </row>
@@ -12532,6 +12742,9 @@
       <c r="E357" t="b">
         <v>1</v>
       </c>
+      <c r="H357" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I357" t="b">
         <v>0</v>
       </c>
@@ -12541,10 +12754,10 @@
       <c r="K357" t="str">
         <v>紀寺町</v>
       </c>
-      <c r="N357">
+      <c r="L357">
         <v>135.83426331999502</v>
       </c>
-      <c r="O357">
+      <c r="M357">
         <v>34.675908465132586</v>
       </c>
     </row>
@@ -12564,6 +12777,9 @@
       <c r="E358" t="b">
         <v>1</v>
       </c>
+      <c r="H358" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I358" t="b">
         <v>0</v>
       </c>
@@ -12573,10 +12789,10 @@
       <c r="K358" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N358">
+      <c r="L358">
         <v>135.84739758619017</v>
       </c>
-      <c r="O358">
+      <c r="M358">
         <v>34.67245019774163</v>
       </c>
     </row>
@@ -12596,6 +12812,9 @@
       <c r="E359" t="b">
         <v>1</v>
       </c>
+      <c r="H359" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I359" t="b">
         <v>0</v>
       </c>
@@ -12605,10 +12824,10 @@
       <c r="K359" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N359">
+      <c r="L359">
         <v>135.84755822889036</v>
       </c>
-      <c r="O359">
+      <c r="M359">
         <v>34.670573989808425</v>
       </c>
     </row>
@@ -12628,6 +12847,9 @@
       <c r="E360" t="b">
         <v>1</v>
       </c>
+      <c r="H360" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I360" t="b">
         <v>0</v>
       </c>
@@ -12637,10 +12859,10 @@
       <c r="K360" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N360">
+      <c r="L360">
         <v>135.8490117871389</v>
       </c>
-      <c r="O360">
+      <c r="M360">
         <v>34.66881072052717</v>
       </c>
     </row>
@@ -12660,6 +12882,9 @@
       <c r="E361" t="b">
         <v>1</v>
       </c>
+      <c r="H361" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I361" t="b">
         <v>0</v>
       </c>
@@ -12669,10 +12894,10 @@
       <c r="K361" t="str">
         <v>白毫寺町</v>
       </c>
-      <c r="N361">
+      <c r="L361">
         <v>135.8471255923824</v>
       </c>
-      <c r="O361">
+      <c r="M361">
         <v>34.66880177331959</v>
       </c>
     </row>
@@ -12692,6 +12917,9 @@
       <c r="E362" t="b">
         <v>1</v>
       </c>
+      <c r="H362" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I362" t="b">
         <v>0</v>
       </c>
@@ -12701,10 +12929,10 @@
       <c r="K362" t="str">
         <v>藤原町</v>
       </c>
-      <c r="N362">
+      <c r="L362">
         <v>135.84054650490435</v>
       </c>
-      <c r="O362">
+      <c r="M362">
         <v>34.65215244359406</v>
       </c>
     </row>
@@ -12724,6 +12952,9 @@
       <c r="E363" t="b">
         <v>1</v>
       </c>
+      <c r="H363" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I363" t="b">
         <v>0</v>
       </c>
@@ -12733,10 +12964,10 @@
       <c r="K363" t="str">
         <v>横井五丁目</v>
       </c>
-      <c r="N363">
+      <c r="L363">
         <v>135.83143938088705</v>
       </c>
-      <c r="O363">
+      <c r="M363">
         <v>34.65077153164621</v>
       </c>
     </row>
@@ -12756,6 +12987,9 @@
       <c r="E364" t="b">
         <v>1</v>
       </c>
+      <c r="H364" t="str">
+        <v>2020-08-09</v>
+      </c>
       <c r="I364" t="b">
         <v>0</v>
       </c>
@@ -12765,10 +12999,10 @@
       <c r="K364" t="str">
         <v>今市町</v>
       </c>
-      <c r="N364">
+      <c r="L364">
         <v>135.82159167019745</v>
       </c>
-      <c r="O364">
+      <c r="M364">
         <v>34.64563042691521</v>
       </c>
     </row>
@@ -12788,6 +13022,9 @@
       <c r="E365" t="b">
         <v>1</v>
       </c>
+      <c r="H365" t="str">
+        <v>2018-10-19</v>
+      </c>
       <c r="I365" t="b">
         <v>0</v>
       </c>
@@ -12797,10 +13034,10 @@
       <c r="K365" t="str">
         <v>南袋町</v>
       </c>
-      <c r="N365">
+      <c r="L365">
         <v>135.82654453657048</v>
       </c>
-      <c r="O365">
+      <c r="M365">
         <v>34.67638368434264</v>
       </c>
     </row>
@@ -12820,6 +13057,9 @@
       <c r="E366" t="b">
         <v>1</v>
       </c>
+      <c r="H366" t="str">
+        <v>2021-09-16</v>
+      </c>
       <c r="I366" t="b">
         <v>0</v>
       </c>
@@ -12829,23 +13069,128 @@
       <c r="K366" t="str">
         <v>柳町</v>
       </c>
-      <c r="N366">
+      <c r="L366">
         <v>135.82471422522525</v>
       </c>
-      <c r="O366">
+      <c r="M366">
         <v>34.67889526059394</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>640</v>
+      </c>
+      <c r="B367" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C367" t="str">
+        <v>山村町の地蔵堂</v>
+      </c>
+      <c r="D367" t="str">
+        <v>山村町、用水路脇の地蔵堂</v>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
+      </c>
+      <c r="H367" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I367" t="b">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>1056</v>
+      </c>
+      <c r="K367" t="str">
+        <v>山村町</v>
+      </c>
+      <c r="L367">
+        <v>135.83820521932927</v>
+      </c>
+      <c r="M367">
+        <v>34.64257287640188</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>641</v>
+      </c>
+      <c r="B368" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C368" t="str">
+        <v>森常稲荷大明神 (ベンショ塚古墳)</v>
+      </c>
+      <c r="D368" t="str">
+        <v>古墳の上に神社が祀られています</v>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
+      </c>
+      <c r="H368" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I368" t="b">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>1064</v>
+      </c>
+      <c r="K368" t="str">
+        <v>山町</v>
+      </c>
+      <c r="L368">
+        <v>135.83383518639613</v>
+      </c>
+      <c r="M368">
+        <v>34.64212329488805</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>642</v>
+      </c>
+      <c r="B369" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C369" t="str">
+        <v>山町の地蔵堂</v>
+      </c>
+      <c r="D369" t="str">
+        <v>山町八坂神社脇の地蔵堂</v>
+      </c>
+      <c r="E369" t="b">
+        <v>1</v>
+      </c>
+      <c r="H369" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I369" t="b">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>1066</v>
+      </c>
+      <c r="K369" t="str">
+        <v>山町</v>
+      </c>
+      <c r="L369">
+        <v>135.83028484325604</v>
+      </c>
+      <c r="M369">
+        <v>34.6420962115865</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O366"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M369"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1048"/>
+  <dimension ref="A1:H1063"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -40098,9 +40443,399 @@
         <v>./small_thumbs/609/IMG_8433.jpg</v>
       </c>
     </row>
+    <row r="1049">
+      <c r="A1049">
+        <v>1052</v>
+      </c>
+      <c r="B1049">
+        <v>619</v>
+      </c>
+      <c r="C1049" t="str">
+        <v>八島町の地蔵群、左側</v>
+      </c>
+      <c r="D1049" t="str">
+        <v>./images/619/IMG_8188.jpg</v>
+      </c>
+      <c r="E1049" t="str">
+        <v>2020-08-09T15:54:34</v>
+      </c>
+      <c r="F1049" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1049" t="str">
+        <v>./mid_thumbs/619/IMG_8188.jpg</v>
+      </c>
+      <c r="H1049" t="str">
+        <v>./small_thumbs/619/IMG_8188.jpg</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050">
+        <v>1053</v>
+      </c>
+      <c r="B1050">
+        <v>619</v>
+      </c>
+      <c r="C1050" t="str">
+        <v>八島町の地蔵群、右側</v>
+      </c>
+      <c r="D1050" t="str">
+        <v>./images/619/IMG_8189.jpg</v>
+      </c>
+      <c r="E1050" t="str">
+        <v>2020-08-09T15:54:43</v>
+      </c>
+      <c r="F1050" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1050" t="str">
+        <v>./mid_thumbs/619/IMG_8189.jpg</v>
+      </c>
+      <c r="H1050" t="str">
+        <v>./small_thumbs/619/IMG_8189.jpg</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051">
+        <v>1054</v>
+      </c>
+      <c r="B1051">
+        <v>619</v>
+      </c>
+      <c r="C1051" t="str">
+        <v>八島町の地蔵群</v>
+      </c>
+      <c r="D1051" t="str">
+        <v>./images/619/IMG_8187.jpg</v>
+      </c>
+      <c r="E1051" t="str">
+        <v>2020-08-09T15:54:24</v>
+      </c>
+      <c r="F1051" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1051" t="str">
+        <v>./mid_thumbs/619/IMG_8187.jpg</v>
+      </c>
+      <c r="H1051" t="str">
+        <v>./small_thumbs/619/IMG_8187.jpg</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052">
+        <v>1055</v>
+      </c>
+      <c r="B1052">
+        <v>640</v>
+      </c>
+      <c r="C1052" t="str">
+        <v>山村町の地蔵堂</v>
+      </c>
+      <c r="D1052" t="str">
+        <v>./images/640/IMG_8185.jpg</v>
+      </c>
+      <c r="E1052" t="str">
+        <v>2020-08-09T15:46:31</v>
+      </c>
+      <c r="F1052" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1052" t="str">
+        <v>./mid_thumbs/640/IMG_8185.jpg</v>
+      </c>
+      <c r="H1052" t="str">
+        <v>./small_thumbs/640/IMG_8185.jpg</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053">
+        <v>1056</v>
+      </c>
+      <c r="B1053">
+        <v>640</v>
+      </c>
+      <c r="C1053" t="str">
+        <v>山村町の地蔵堂</v>
+      </c>
+      <c r="D1053" t="str">
+        <v>./images/640/IMG_8184.jpg</v>
+      </c>
+      <c r="E1053" t="str">
+        <v>2020-08-09T15:46:23</v>
+      </c>
+      <c r="F1053" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1053" t="str">
+        <v>./mid_thumbs/640/IMG_8184.jpg</v>
+      </c>
+      <c r="H1053" t="str">
+        <v>./small_thumbs/640/IMG_8184.jpg</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054">
+        <v>1057</v>
+      </c>
+      <c r="B1054">
+        <v>641</v>
+      </c>
+      <c r="C1054" t="str">
+        <v>森常稲荷大明神 麓</v>
+      </c>
+      <c r="D1054" t="str">
+        <v>./images/641/IMG_8177.jpg</v>
+      </c>
+      <c r="E1054" t="str">
+        <v>2020-08-09T15:37:10</v>
+      </c>
+      <c r="F1054" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1054" t="str">
+        <v>./mid_thumbs/641/IMG_8177.jpg</v>
+      </c>
+      <c r="H1054" t="str">
+        <v>./small_thumbs/641/IMG_8177.jpg</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055">
+        <v>1058</v>
+      </c>
+      <c r="B1055">
+        <v>641</v>
+      </c>
+      <c r="C1055" t="str">
+        <v>森常稲荷大明神 鳥居群</v>
+      </c>
+      <c r="D1055" t="str">
+        <v>./images/641/IMG_8178.jpg</v>
+      </c>
+      <c r="E1055" t="str">
+        <v>2020-08-09T15:37:32</v>
+      </c>
+      <c r="F1055" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1055" t="str">
+        <v>./mid_thumbs/641/IMG_8178.jpg</v>
+      </c>
+      <c r="H1055" t="str">
+        <v>./small_thumbs/641/IMG_8178.jpg</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056">
+        <v>1059</v>
+      </c>
+      <c r="B1056">
+        <v>641</v>
+      </c>
+      <c r="C1056" t="str">
+        <v>森常稲荷大明神 拝殿外観</v>
+      </c>
+      <c r="D1056" t="str">
+        <v>./images/641/IMG_8179.jpg</v>
+      </c>
+      <c r="E1056" t="str">
+        <v>2020-08-09T15:37:54</v>
+      </c>
+      <c r="F1056" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1056" t="str">
+        <v>./mid_thumbs/641/IMG_8179.jpg</v>
+      </c>
+      <c r="H1056" t="str">
+        <v>./small_thumbs/641/IMG_8179.jpg</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057">
+        <v>1060</v>
+      </c>
+      <c r="B1057">
+        <v>641</v>
+      </c>
+      <c r="C1057" t="str">
+        <v>森常稲荷大明神 拝殿内部</v>
+      </c>
+      <c r="D1057" t="str">
+        <v>./images/641/IMG_8180.jpg</v>
+      </c>
+      <c r="E1057" t="str">
+        <v>2020-08-09T15:38:01</v>
+      </c>
+      <c r="F1057" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1057" t="str">
+        <v>./mid_thumbs/641/IMG_8180.jpg</v>
+      </c>
+      <c r="H1057" t="str">
+        <v>./small_thumbs/641/IMG_8180.jpg</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058">
+        <v>1061</v>
+      </c>
+      <c r="B1058">
+        <v>641</v>
+      </c>
+      <c r="C1058" t="str">
+        <v>森常稲荷大明神 左の狐</v>
+      </c>
+      <c r="D1058" t="str">
+        <v>./images/641/IMG_8181.jpg</v>
+      </c>
+      <c r="E1058" t="str">
+        <v>2020-08-09T15:38:10</v>
+      </c>
+      <c r="F1058" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1058" t="str">
+        <v>./mid_thumbs/641/IMG_8181.jpg</v>
+      </c>
+      <c r="H1058" t="str">
+        <v>./small_thumbs/641/IMG_8181.jpg</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059">
+        <v>1062</v>
+      </c>
+      <c r="B1059">
+        <v>641</v>
+      </c>
+      <c r="C1059" t="str">
+        <v>森常稲荷大明神 右の狐</v>
+      </c>
+      <c r="D1059" t="str">
+        <v>./images/641/IMG_8182.jpg</v>
+      </c>
+      <c r="E1059" t="str">
+        <v>2020-08-09T15:38:12</v>
+      </c>
+      <c r="F1059" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1059" t="str">
+        <v>./mid_thumbs/641/IMG_8182.jpg</v>
+      </c>
+      <c r="H1059" t="str">
+        <v>./small_thumbs/641/IMG_8182.jpg</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060">
+        <v>1063</v>
+      </c>
+      <c r="B1060">
+        <v>641</v>
+      </c>
+      <c r="C1060" t="str">
+        <v>森常稲荷大明神 本殿</v>
+      </c>
+      <c r="D1060" t="str">
+        <v>./images/641/IMG_8183.jpg</v>
+      </c>
+      <c r="E1060" t="str">
+        <v>2020-08-09T15:38:18</v>
+      </c>
+      <c r="F1060" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1060" t="str">
+        <v>./mid_thumbs/641/IMG_8183.jpg</v>
+      </c>
+      <c r="H1060" t="str">
+        <v>./small_thumbs/641/IMG_8183.jpg</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061">
+        <v>1064</v>
+      </c>
+      <c r="B1061">
+        <v>641</v>
+      </c>
+      <c r="C1061" t="str">
+        <v>森常稲荷大明神遠景</v>
+      </c>
+      <c r="D1061" t="str">
+        <v>./images/641/IMG_8175.jpg</v>
+      </c>
+      <c r="E1061" t="str">
+        <v>2020-08-09T15:36:16</v>
+      </c>
+      <c r="F1061" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1061" t="str">
+        <v>./mid_thumbs/641/IMG_8175.jpg</v>
+      </c>
+      <c r="H1061" t="str">
+        <v>./small_thumbs/641/IMG_8175.jpg</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062">
+        <v>1065</v>
+      </c>
+      <c r="B1062">
+        <v>642</v>
+      </c>
+      <c r="C1062" t="str">
+        <v>山町の地蔵堂 内部</v>
+      </c>
+      <c r="D1062" t="str">
+        <v>./images/642/IMG_8173.jpg</v>
+      </c>
+      <c r="E1062" t="str">
+        <v>2020-08-09T15:31:18</v>
+      </c>
+      <c r="F1062" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1062" t="str">
+        <v>./mid_thumbs/642/IMG_8173.jpg</v>
+      </c>
+      <c r="H1062" t="str">
+        <v>./small_thumbs/642/IMG_8173.jpg</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063">
+        <v>1066</v>
+      </c>
+      <c r="B1063">
+        <v>642</v>
+      </c>
+      <c r="C1063" t="str">
+        <v>山町の地蔵堂</v>
+      </c>
+      <c r="D1063" t="str">
+        <v>./images/642/IMG_8172.jpg</v>
+      </c>
+      <c r="E1063" t="str">
+        <v>2020-08-09T15:31:11</v>
+      </c>
+      <c r="F1063" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1063" t="str">
+        <v>./mid_thumbs/642/IMG_8172.jpg</v>
+      </c>
+      <c r="H1063" t="str">
+        <v>./small_thumbs/642/IMG_8172.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1048"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1063"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13181,16 +13181,156 @@
         <v>34.6420962115865</v>
       </c>
     </row>
+    <row r="370">
+      <c r="A370">
+        <v>643</v>
+      </c>
+      <c r="B370" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C370" t="str">
+        <v>龍象寺境内脇地蔵</v>
+      </c>
+      <c r="D370" t="str">
+        <v>龍象寺の外部向けに開けた境内に2体の地蔵があります</v>
+      </c>
+      <c r="E370" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I370" t="b">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>1067</v>
+      </c>
+      <c r="K370" t="str">
+        <v>柴屋町</v>
+      </c>
+      <c r="L370">
+        <v>135.82732739010103</v>
+      </c>
+      <c r="M370">
+        <v>34.64302641526964</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>644</v>
+      </c>
+      <c r="B371" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C371" t="str">
+        <v>龍象寺境内小祠</v>
+      </c>
+      <c r="D371" t="str">
+        <v>龍象寺の外部向けに開けた境内に小祠があります</v>
+      </c>
+      <c r="E371" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I371" t="b">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>1068</v>
+      </c>
+      <c r="K371" t="str">
+        <v>柴屋町</v>
+      </c>
+      <c r="L371">
+        <v>135.82738863089708</v>
+      </c>
+      <c r="M371">
+        <v>34.64302071148857</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>645</v>
+      </c>
+      <c r="B372" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C372" t="str">
+        <v>南永井町地蔵堂</v>
+      </c>
+      <c r="D372" t="str">
+        <v>南永井町の雰囲気のある大きな地蔵</v>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I372" t="b">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>1070</v>
+      </c>
+      <c r="K372" t="str">
+        <v>南永井町</v>
+      </c>
+      <c r="L372">
+        <v>135.82014141819957</v>
+      </c>
+      <c r="M372">
+        <v>34.64911497780529</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>646</v>
+      </c>
+      <c r="B373" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C373" t="str">
+        <v>南永井町石塚</v>
+      </c>
+      <c r="D373" t="str">
+        <v>刻銘は読み取れず 脇には地蔵群あり</v>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I373" t="b">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>1073</v>
+      </c>
+      <c r="K373" t="str">
+        <v>南永井町</v>
+      </c>
+      <c r="L373">
+        <v>135.8200790219168</v>
+      </c>
+      <c r="M373">
+        <v>34.649117354206105</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M369"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M373"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1063"/>
+  <dimension ref="A1:H1070"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -40833,9 +40973,191 @@
         <v>./small_thumbs/642/IMG_8172.jpg</v>
       </c>
     </row>
+    <row r="1064">
+      <c r="A1064">
+        <v>1067</v>
+      </c>
+      <c r="B1064">
+        <v>643</v>
+      </c>
+      <c r="C1064" t="str">
+        <v>龍象寺境内脇地蔵</v>
+      </c>
+      <c r="D1064" t="str">
+        <v>./images/643/IMG_8159.jpg</v>
+      </c>
+      <c r="E1064" t="str">
+        <v>2020-08-09T15:09:47</v>
+      </c>
+      <c r="F1064" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1064" t="str">
+        <v>./mid_thumbs/643/IMG_8159.jpg</v>
+      </c>
+      <c r="H1064" t="str">
+        <v>./small_thumbs/643/IMG_8159.jpg</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065">
+        <v>1068</v>
+      </c>
+      <c r="B1065">
+        <v>644</v>
+      </c>
+      <c r="C1065" t="str">
+        <v>龍象寺境内小祠</v>
+      </c>
+      <c r="D1065" t="str">
+        <v>./images/644/IMG_8158.jpg</v>
+      </c>
+      <c r="E1065" t="str">
+        <v>2020-08-09T15:09:40</v>
+      </c>
+      <c r="F1065" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1065" t="str">
+        <v>./mid_thumbs/644/IMG_8158.jpg</v>
+      </c>
+      <c r="H1065" t="str">
+        <v>./small_thumbs/644/IMG_8158.jpg</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066">
+        <v>1069</v>
+      </c>
+      <c r="B1066">
+        <v>645</v>
+      </c>
+      <c r="C1066" t="str">
+        <v>南永井町地蔵堂内部の味のある地蔵</v>
+      </c>
+      <c r="D1066" t="str">
+        <v>./images/645/IMG_8200.jpg</v>
+      </c>
+      <c r="E1066" t="str">
+        <v>2020-08-09T17:11:18</v>
+      </c>
+      <c r="F1066" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1066" t="str">
+        <v>./mid_thumbs/645/IMG_8200.jpg</v>
+      </c>
+      <c r="H1066" t="str">
+        <v>./small_thumbs/645/IMG_8200.jpg</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067">
+        <v>1070</v>
+      </c>
+      <c r="B1067">
+        <v>645</v>
+      </c>
+      <c r="C1067" t="str">
+        <v>南永井町地蔵堂</v>
+      </c>
+      <c r="D1067" t="str">
+        <v>./images/645/IMG_8199.jpg</v>
+      </c>
+      <c r="E1067" t="str">
+        <v>2020-08-09T17:11:05</v>
+      </c>
+      <c r="F1067" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1067" t="str">
+        <v>./mid_thumbs/645/IMG_8199.jpg</v>
+      </c>
+      <c r="H1067" t="str">
+        <v>./small_thumbs/645/IMG_8199.jpg</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068">
+        <v>1071</v>
+      </c>
+      <c r="B1068">
+        <v>646</v>
+      </c>
+      <c r="C1068" t="str">
+        <v>南永井町石塚</v>
+      </c>
+      <c r="D1068" t="str">
+        <v>./images/646/IMG_8202.jpg</v>
+      </c>
+      <c r="E1068" t="str">
+        <v>2020-08-09T17:11:52</v>
+      </c>
+      <c r="F1068" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1068" t="str">
+        <v>./mid_thumbs/646/IMG_8202.jpg</v>
+      </c>
+      <c r="H1068" t="str">
+        <v>./small_thumbs/646/IMG_8202.jpg</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069">
+        <v>1072</v>
+      </c>
+      <c r="B1069">
+        <v>646</v>
+      </c>
+      <c r="C1069" t="str">
+        <v>南永井町石塚、少し左から</v>
+      </c>
+      <c r="D1069" t="str">
+        <v>./images/646/IMG_8203.jpg</v>
+      </c>
+      <c r="E1069" t="str">
+        <v>2020-08-09T17:11:59</v>
+      </c>
+      <c r="F1069" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1069" t="str">
+        <v>./mid_thumbs/646/IMG_8203.jpg</v>
+      </c>
+      <c r="H1069" t="str">
+        <v>./small_thumbs/646/IMG_8203.jpg</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070">
+        <v>1073</v>
+      </c>
+      <c r="B1070">
+        <v>646</v>
+      </c>
+      <c r="C1070" t="str">
+        <v>南永井町石塚と脇の地蔵群</v>
+      </c>
+      <c r="D1070" t="str">
+        <v>./images/646/IMG_8201.jpg</v>
+      </c>
+      <c r="E1070" t="str">
+        <v>2020-08-09T17:11:26</v>
+      </c>
+      <c r="F1070" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1070" t="str">
+        <v>./mid_thumbs/646/IMG_8201.jpg</v>
+      </c>
+      <c r="H1070" t="str">
+        <v>./small_thumbs/646/IMG_8201.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1063"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1070"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M373"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5090,8 +5090,14 @@
       <c r="E137" t="b">
         <v>1</v>
       </c>
+      <c r="G137" t="str">
+        <v>「弘法大師爪かき地蔵堂」 他に五輪塔残欠、石龕一尊像あり</v>
+      </c>
       <c r="H137" t="str">
         <v>2015-05-17</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
       </c>
       <c r="J137">
         <v>376</v>
@@ -13321,16 +13327,121 @@
         <v>34.649117354206105</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374">
+        <v>647</v>
+      </c>
+      <c r="B374" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C374" t="str">
+        <v>北之庄町石祠</v>
+      </c>
+      <c r="D374" t="str">
+        <v>北之庄町五徳池わきの石祠</v>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" t="str">
+        <v>2017-09-20</v>
+      </c>
+      <c r="I374" t="b">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>1074</v>
+      </c>
+      <c r="K374" t="str">
+        <v>北之庄町</v>
+      </c>
+      <c r="L374">
+        <v>135.8176155242334</v>
+      </c>
+      <c r="M374">
+        <v>34.65041058142508</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>648</v>
+      </c>
+      <c r="B375" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C375" t="str">
+        <v>北之庄町 生田稲荷大神</v>
+      </c>
+      <c r="D375" t="str">
+        <v>北之庄町 白山神社脇 生田稲荷大神</v>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
+      </c>
+      <c r="H375" t="str">
+        <v>2017-09-20</v>
+      </c>
+      <c r="I375" t="b">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>1077</v>
+      </c>
+      <c r="K375" t="str">
+        <v>北之庄町</v>
+      </c>
+      <c r="L375">
+        <v>135.81760743582632</v>
+      </c>
+      <c r="M375">
+        <v>34.65033548829776</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>649</v>
+      </c>
+      <c r="B376" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C376" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D376" t="str">
+        <v>八島町道脇の地蔵群</v>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" t="str">
+        <v>2020-08-09</v>
+      </c>
+      <c r="I376" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>1079</v>
+      </c>
+      <c r="K376" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="L376">
+        <v>135.841045328421</v>
+      </c>
+      <c r="M376">
+        <v>34.64801802391538</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M373"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M376"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1070"/>
+  <dimension ref="A1:H1076"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -41155,16 +41266,172 @@
         <v>./small_thumbs/646/IMG_8201.jpg</v>
       </c>
     </row>
+    <row r="1071">
+      <c r="A1071">
+        <v>1074</v>
+      </c>
+      <c r="B1071">
+        <v>647</v>
+      </c>
+      <c r="C1071" t="str">
+        <v>北之庄町石祠</v>
+      </c>
+      <c r="D1071" t="str">
+        <v>./images/647/IMG_3160.jpg</v>
+      </c>
+      <c r="E1071" t="str">
+        <v>2017-09-20T15:02:11</v>
+      </c>
+      <c r="F1071" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1071" t="str">
+        <v>./mid_thumbs/647/IMG_3160.jpg</v>
+      </c>
+      <c r="H1071" t="str">
+        <v>./small_thumbs/647/IMG_3160.jpg</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072">
+        <v>1075</v>
+      </c>
+      <c r="B1072">
+        <v>648</v>
+      </c>
+      <c r="C1072" t="str">
+        <v>北之庄町 生田稲荷大神</v>
+      </c>
+      <c r="D1072" t="str">
+        <v>./images/648/IMG_3158.jpg</v>
+      </c>
+      <c r="E1072" t="str">
+        <v>2017-09-20T15:00:33</v>
+      </c>
+      <c r="F1072" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1072" t="str">
+        <v>./mid_thumbs/648/IMG_3158.jpg</v>
+      </c>
+      <c r="H1072" t="str">
+        <v>./small_thumbs/648/IMG_3158.jpg</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073">
+        <v>1076</v>
+      </c>
+      <c r="B1073">
+        <v>648</v>
+      </c>
+      <c r="C1073" t="str">
+        <v>北之庄町 生田稲荷大神</v>
+      </c>
+      <c r="D1073" t="str">
+        <v>./images/648/IMG_3159.jpg</v>
+      </c>
+      <c r="E1073" t="str">
+        <v>2017-09-20T15:00:58</v>
+      </c>
+      <c r="F1073" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1073" t="str">
+        <v>./mid_thumbs/648/IMG_3159.jpg</v>
+      </c>
+      <c r="H1073" t="str">
+        <v>./small_thumbs/648/IMG_3159.jpg</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074">
+        <v>1077</v>
+      </c>
+      <c r="B1074">
+        <v>648</v>
+      </c>
+      <c r="C1074" t="str">
+        <v>北之庄町 生田稲荷大神</v>
+      </c>
+      <c r="D1074" t="str">
+        <v>./images/648/IMG_3157.jpg</v>
+      </c>
+      <c r="E1074" t="str">
+        <v>2017-09-20T15:00:21</v>
+      </c>
+      <c r="F1074" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1074" t="str">
+        <v>./mid_thumbs/648/IMG_3157.jpg</v>
+      </c>
+      <c r="H1074" t="str">
+        <v>./small_thumbs/648/IMG_3157.jpg</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075">
+        <v>1078</v>
+      </c>
+      <c r="B1075">
+        <v>649</v>
+      </c>
+      <c r="C1075" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1075" t="str">
+        <v>./images/649/IMG_8193.jpg</v>
+      </c>
+      <c r="E1075" t="str">
+        <v>2020-08-09T16:07:42</v>
+      </c>
+      <c r="F1075" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1075" t="str">
+        <v>./mid_thumbs/649/IMG_8193.jpg</v>
+      </c>
+      <c r="H1075" t="str">
+        <v>./small_thumbs/649/IMG_8193.jpg</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076">
+        <v>1079</v>
+      </c>
+      <c r="B1076">
+        <v>649</v>
+      </c>
+      <c r="C1076" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1076" t="str">
+        <v>./images/649/IMG_8192.jpg</v>
+      </c>
+      <c r="E1076" t="str">
+        <v>2020-08-09T16:07:36</v>
+      </c>
+      <c r="F1076" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1076" t="str">
+        <v>./mid_thumbs/649/IMG_8192.jpg</v>
+      </c>
+      <c r="H1076" t="str">
+        <v>./small_thumbs/649/IMG_8192.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1070"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1076"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -47178,16 +47445,30 @@
         <v>https://commons.wikimedia.org/wiki/File:Wayside_Shrine_In_Nara_NishiKitsuji.jpg</v>
       </c>
     </row>
+    <row r="355">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>136</v>
+      </c>
+      <c r="C355">
+        <v>8</v>
+      </c>
+      <c r="E355" t="str">
+        <v>飛鳥地区-343 52ページ</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E354"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E355"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -47349,9 +47630,29 @@
         <v>https://commons.wikimedia.org/</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>book</v>
+      </c>
+      <c r="C9" t="str">
+        <v>奈良市石造物調査報告書</v>
+      </c>
+      <c r="D9" t="str">
+        <v>奈良市石造物調査会</v>
+      </c>
+      <c r="E9" t="str">
+        <v>奈良市教育委員会</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1989</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M384"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="str">
-        <v>2016-07-23</v>
+        <v>2021-07-23</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="str">
-        <v>2016-05-05</v>
+        <v>2019-12-01</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="str">
-        <v>2017-06-17</v>
+        <v>2020-08-10</v>
       </c>
       <c r="I313" t="b">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="H314" t="str">
-        <v>2017-06-17</v>
+        <v>2020-08-10</v>
       </c>
       <c r="I314" t="b">
         <v>0</v>
@@ -13432,16 +13432,296 @@
         <v>34.64801802391538</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377">
+        <v>650</v>
+      </c>
+      <c r="B377" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C377" t="str">
+        <v>水門町の浮彫五輪塔群</v>
+      </c>
+      <c r="D377" t="str">
+        <v>東大寺福祉療育病院入り口で通りに背を向けて立つ石造物群</v>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" t="str">
+        <v>2021-07-23</v>
+      </c>
+      <c r="I377" t="b">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>1083</v>
+      </c>
+      <c r="K377" t="str">
+        <v>水門町</v>
+      </c>
+      <c r="L377">
+        <v>135.837357493827</v>
+      </c>
+      <c r="M377">
+        <v>34.686635924514825</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>651</v>
+      </c>
+      <c r="B378" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C378" t="str">
+        <v>雑司町 西塔院跡北側地蔵群</v>
+      </c>
+      <c r="D378" t="str">
+        <v>東大寺西塔院跡北側、川を渡ったところの地蔵群</v>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
+      </c>
+      <c r="H378" t="str">
+        <v>2021-07-23</v>
+      </c>
+      <c r="I378" t="b">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>1088</v>
+      </c>
+      <c r="K378" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="L378">
+        <v>135.83800764938584</v>
+      </c>
+      <c r="M378">
+        <v>34.68809356392647</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>652</v>
+      </c>
+      <c r="B379" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C379" t="str">
+        <v>雑司町 西塔院跡北西地蔵群</v>
+      </c>
+      <c r="D379" t="str">
+        <v>東大寺西塔院跡北西の地蔵群</v>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+      <c r="H379" t="str">
+        <v>2021-07-23</v>
+      </c>
+      <c r="I379" t="b">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>1092</v>
+      </c>
+      <c r="K379" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="L379">
+        <v>135.83732622052167</v>
+      </c>
+      <c r="M379">
+        <v>34.68813687315425</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>653</v>
+      </c>
+      <c r="B380" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C380" t="str">
+        <v>奈良阪町 地蔵堂</v>
+      </c>
+      <c r="D380" t="str">
+        <v>奈良阪南ちびっこ広場の地蔵堂</v>
+      </c>
+      <c r="E380" t="b">
+        <v>1</v>
+      </c>
+      <c r="H380" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I380" t="b">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>1094</v>
+      </c>
+      <c r="K380" t="str">
+        <v>奈良阪町</v>
+      </c>
+      <c r="L380">
+        <v>135.83446882798984</v>
+      </c>
+      <c r="M380">
+        <v>34.70113673762047</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>654</v>
+      </c>
+      <c r="B381" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C381" t="str">
+        <v>奈良阪町 地蔵群</v>
+      </c>
+      <c r="D381" t="str">
+        <v>奈良阪町 立江地蔵尊周辺の地蔵群</v>
+      </c>
+      <c r="E381" t="b">
+        <v>1</v>
+      </c>
+      <c r="H381" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I381" t="b">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>1103</v>
+      </c>
+      <c r="K381" t="str">
+        <v>奈良阪町</v>
+      </c>
+      <c r="L381">
+        <v>135.8353197910883</v>
+      </c>
+      <c r="M381">
+        <v>34.70221117179657</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>655</v>
+      </c>
+      <c r="B382" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C382" t="str">
+        <v>奈良坂町 配水池傍 地蔵尊</v>
+      </c>
+      <c r="D382" t="str">
+        <v>配水池入口傍の地蔵尊</v>
+      </c>
+      <c r="E382" t="b">
+        <v>1</v>
+      </c>
+      <c r="H382" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I382" t="b">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>1109</v>
+      </c>
+      <c r="K382" t="str">
+        <v>奈良坂町</v>
+      </c>
+      <c r="L382">
+        <v>135.8349955362906</v>
+      </c>
+      <c r="M382">
+        <v>34.70316921972281</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>656</v>
+      </c>
+      <c r="B383" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C383" t="str">
+        <v>奈良豆比古神社裏の地蔵堂</v>
+      </c>
+      <c r="D383" t="str">
+        <v>奈良阪町 奈良豆比古神社裏の地蔵堂</v>
+      </c>
+      <c r="E383" t="b">
+        <v>1</v>
+      </c>
+      <c r="H383" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I383" t="b">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>1111</v>
+      </c>
+      <c r="K383" t="str">
+        <v>奈良阪町</v>
+      </c>
+      <c r="L383">
+        <v>135.8340540452029</v>
+      </c>
+      <c r="M383">
+        <v>34.7040406548119</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>657</v>
+      </c>
+      <c r="B384" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C384" t="str">
+        <v>般若寺町墓地傍の地蔵群</v>
+      </c>
+      <c r="D384" t="str">
+        <v>般若寺町墓地傍の地蔵群</v>
+      </c>
+      <c r="E384" t="b">
+        <v>1</v>
+      </c>
+      <c r="H384" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I384" t="b">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>1116</v>
+      </c>
+      <c r="K384" t="str">
+        <v>般若寺町</v>
+      </c>
+      <c r="L384">
+        <v>135.83597817646427</v>
+      </c>
+      <c r="M384">
+        <v>34.69833556528876</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M376"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M384"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1076"/>
+  <dimension ref="A1:H1113"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -41422,9 +41702,971 @@
         <v>./small_thumbs/649/IMG_8192.jpg</v>
       </c>
     </row>
+    <row r="1077">
+      <c r="A1077">
+        <v>1080</v>
+      </c>
+      <c r="B1077">
+        <v>141</v>
+      </c>
+      <c r="C1077" t="str">
+        <v>柳地蔵尊 地蔵盆の時期 遠景</v>
+      </c>
+      <c r="D1077" t="str">
+        <v>./images/141/IMG_2379.jpg</v>
+      </c>
+      <c r="E1077" t="str">
+        <v>2021-07-23T14:26:45</v>
+      </c>
+      <c r="F1077" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1077" t="str">
+        <v>./mid_thumbs/141/IMG_2379.jpg</v>
+      </c>
+      <c r="H1077" t="str">
+        <v>./small_thumbs/141/IMG_2379.jpg</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078">
+        <v>1081</v>
+      </c>
+      <c r="B1078">
+        <v>141</v>
+      </c>
+      <c r="C1078" t="str">
+        <v>柳地蔵尊 地蔵盆の時期 近景</v>
+      </c>
+      <c r="D1078" t="str">
+        <v>./images/141/IMG_2380.jpg</v>
+      </c>
+      <c r="E1078" t="str">
+        <v>2021-07-23T14:26:55</v>
+      </c>
+      <c r="F1078" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1078" t="str">
+        <v>./mid_thumbs/141/IMG_2380.jpg</v>
+      </c>
+      <c r="H1078" t="str">
+        <v>./small_thumbs/141/IMG_2380.jpg</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079">
+        <v>1082</v>
+      </c>
+      <c r="B1079">
+        <v>650</v>
+      </c>
+      <c r="C1079" t="str">
+        <v>水門町の浮彫五輪塔群 通り側から</v>
+      </c>
+      <c r="D1079" t="str">
+        <v>./images/650/IMG_2323.jpg</v>
+      </c>
+      <c r="E1079" t="str">
+        <v>2021-07-23T11:11:37</v>
+      </c>
+      <c r="F1079" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1079" t="str">
+        <v>./mid_thumbs/650/IMG_2323.jpg</v>
+      </c>
+      <c r="H1079" t="str">
+        <v>./small_thumbs/650/IMG_2323.jpg</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080">
+        <v>1083</v>
+      </c>
+      <c r="B1080">
+        <v>650</v>
+      </c>
+      <c r="C1080" t="str">
+        <v>水門町の浮彫五輪塔群 表側から</v>
+      </c>
+      <c r="D1080" t="str">
+        <v>./images/650/IMG_2322.jpg</v>
+      </c>
+      <c r="E1080" t="str">
+        <v>2021-07-23T11:11:19</v>
+      </c>
+      <c r="F1080" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1080" t="str">
+        <v>./mid_thumbs/650/IMG_2322.jpg</v>
+      </c>
+      <c r="H1080" t="str">
+        <v>./small_thumbs/650/IMG_2322.jpg</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081">
+        <v>1084</v>
+      </c>
+      <c r="B1081">
+        <v>144</v>
+      </c>
+      <c r="C1081" t="str">
+        <v>地蔵堂内部の地蔵近景</v>
+      </c>
+      <c r="D1081" t="str">
+        <v>./images/144/IMG_5910.jpg</v>
+      </c>
+      <c r="E1081" t="str">
+        <v>2019-12-01T10:32:17</v>
+      </c>
+      <c r="F1081" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1081" t="str">
+        <v>./mid_thumbs/144/IMG_5910.jpg</v>
+      </c>
+      <c r="H1081" t="str">
+        <v>./small_thumbs/144/IMG_5910.jpg</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082">
+        <v>1085</v>
+      </c>
+      <c r="B1082">
+        <v>651</v>
+      </c>
+      <c r="C1082" t="str">
+        <v>雑司町 西塔院跡北側地蔵群 中央</v>
+      </c>
+      <c r="D1082" t="str">
+        <v>./images/651/IMG_2325.jpg</v>
+      </c>
+      <c r="E1082" t="str">
+        <v>2021-07-23T11:17:09</v>
+      </c>
+      <c r="F1082" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1082" t="str">
+        <v>./mid_thumbs/651/IMG_2325.jpg</v>
+      </c>
+      <c r="H1082" t="str">
+        <v>./small_thumbs/651/IMG_2325.jpg</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083">
+        <v>1086</v>
+      </c>
+      <c r="B1083">
+        <v>651</v>
+      </c>
+      <c r="C1083" t="str">
+        <v>雑司町 西塔院跡北側地蔵群 右側</v>
+      </c>
+      <c r="D1083" t="str">
+        <v>./images/651/IMG_2326.jpg</v>
+      </c>
+      <c r="E1083" t="str">
+        <v>2021-07-23T11:17:13</v>
+      </c>
+      <c r="F1083" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1083" t="str">
+        <v>./mid_thumbs/651/IMG_2326.jpg</v>
+      </c>
+      <c r="H1083" t="str">
+        <v>./small_thumbs/651/IMG_2326.jpg</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084">
+        <v>1087</v>
+      </c>
+      <c r="B1084">
+        <v>651</v>
+      </c>
+      <c r="C1084" t="str">
+        <v>雑司町 西塔院跡北側地蔵群 左側</v>
+      </c>
+      <c r="D1084" t="str">
+        <v>./images/651/IMG_2327.jpg</v>
+      </c>
+      <c r="E1084" t="str">
+        <v>2021-07-23T11:17:17</v>
+      </c>
+      <c r="F1084" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1084" t="str">
+        <v>./mid_thumbs/651/IMG_2327.jpg</v>
+      </c>
+      <c r="H1084" t="str">
+        <v>./small_thumbs/651/IMG_2327.jpg</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085">
+        <v>1088</v>
+      </c>
+      <c r="B1085">
+        <v>651</v>
+      </c>
+      <c r="C1085" t="str">
+        <v>雑司町 西塔院跡北側地蔵群</v>
+      </c>
+      <c r="D1085" t="str">
+        <v>./images/651/IMG_2324.jpg</v>
+      </c>
+      <c r="E1085" t="str">
+        <v>2021-07-23T11:16:59</v>
+      </c>
+      <c r="F1085" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1085" t="str">
+        <v>./mid_thumbs/651/IMG_2324.jpg</v>
+      </c>
+      <c r="H1085" t="str">
+        <v>./small_thumbs/651/IMG_2324.jpg</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086">
+        <v>1089</v>
+      </c>
+      <c r="B1086">
+        <v>652</v>
+      </c>
+      <c r="C1086" t="str">
+        <v>雑司町 西塔院跡北西地蔵群 左側</v>
+      </c>
+      <c r="D1086" t="str">
+        <v>./images/652/IMG_2329.jpg</v>
+      </c>
+      <c r="E1086" t="str">
+        <v>2021-07-23T11:18:15</v>
+      </c>
+      <c r="F1086" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1086" t="str">
+        <v>./mid_thumbs/652/IMG_2329.jpg</v>
+      </c>
+      <c r="H1086" t="str">
+        <v>./small_thumbs/652/IMG_2329.jpg</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087">
+        <v>1090</v>
+      </c>
+      <c r="B1087">
+        <v>652</v>
+      </c>
+      <c r="C1087" t="str">
+        <v>雑司町 西塔院跡北西地蔵群 右側</v>
+      </c>
+      <c r="D1087" t="str">
+        <v>./images/652/IMG_2330.jpg</v>
+      </c>
+      <c r="E1087" t="str">
+        <v>2021-07-23T11:18:20</v>
+      </c>
+      <c r="F1087" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1087" t="str">
+        <v>./mid_thumbs/652/IMG_2330.jpg</v>
+      </c>
+      <c r="H1087" t="str">
+        <v>./small_thumbs/652/IMG_2330.jpg</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088">
+        <v>1091</v>
+      </c>
+      <c r="B1088">
+        <v>652</v>
+      </c>
+      <c r="C1088" t="str">
+        <v>雑司町 西塔院跡北西地蔵群</v>
+      </c>
+      <c r="D1088" t="str">
+        <v>./images/652/IMG_3292.jpg</v>
+      </c>
+      <c r="E1088" t="str">
+        <v>2019-07-24T07:37:32</v>
+      </c>
+      <c r="F1088" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1088" t="str">
+        <v>./mid_thumbs/652/IMG_3292.jpg</v>
+      </c>
+      <c r="H1088" t="str">
+        <v>./small_thumbs/652/IMG_3292.jpg</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089">
+        <v>1092</v>
+      </c>
+      <c r="B1089">
+        <v>652</v>
+      </c>
+      <c r="C1089" t="str">
+        <v>雑司町 西塔院跡北西地蔵群</v>
+      </c>
+      <c r="D1089" t="str">
+        <v>./images/652/IMG_2328.jpg</v>
+      </c>
+      <c r="E1089" t="str">
+        <v>2021-07-23T11:18:08</v>
+      </c>
+      <c r="F1089" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1089" t="str">
+        <v>./mid_thumbs/652/IMG_2328.jpg</v>
+      </c>
+      <c r="H1089" t="str">
+        <v>./small_thumbs/652/IMG_2328.jpg</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090">
+        <v>1093</v>
+      </c>
+      <c r="B1090">
+        <v>653</v>
+      </c>
+      <c r="C1090" t="str">
+        <v>奈良阪町 地蔵堂 内部</v>
+      </c>
+      <c r="D1090" t="str">
+        <v>./images/653/IMG_8225.jpg</v>
+      </c>
+      <c r="E1090" t="str">
+        <v>2020-08-10T09:57:46</v>
+      </c>
+      <c r="F1090" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1090" t="str">
+        <v>./mid_thumbs/653/IMG_8225.jpg</v>
+      </c>
+      <c r="H1090" t="str">
+        <v>./small_thumbs/653/IMG_8225.jpg</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091">
+        <v>1094</v>
+      </c>
+      <c r="B1091">
+        <v>653</v>
+      </c>
+      <c r="C1091" t="str">
+        <v>奈良阪町 地蔵堂</v>
+      </c>
+      <c r="D1091" t="str">
+        <v>./images/653/IMG_8224.jpg</v>
+      </c>
+      <c r="E1091" t="str">
+        <v>2020-08-10T09:57:36</v>
+      </c>
+      <c r="F1091" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1091" t="str">
+        <v>./mid_thumbs/653/IMG_8224.jpg</v>
+      </c>
+      <c r="H1091" t="str">
+        <v>./small_thumbs/653/IMG_8224.jpg</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092">
+        <v>1095</v>
+      </c>
+      <c r="B1092">
+        <v>584</v>
+      </c>
+      <c r="C1092" t="str">
+        <v>児川地蔵尊</v>
+      </c>
+      <c r="D1092" t="str">
+        <v>./images/584/IMG_8226.jpg</v>
+      </c>
+      <c r="E1092" t="str">
+        <v>2020-08-10T10:00:09</v>
+      </c>
+      <c r="F1092" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1092" t="str">
+        <v>./mid_thumbs/584/IMG_8226.jpg</v>
+      </c>
+      <c r="H1092" t="str">
+        <v>./small_thumbs/584/IMG_8226.jpg</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093">
+        <v>1096</v>
+      </c>
+      <c r="B1093">
+        <v>584</v>
+      </c>
+      <c r="C1093" t="str">
+        <v>児川地蔵尊 内部</v>
+      </c>
+      <c r="D1093" t="str">
+        <v>./images/584/IMG_8227.jpg</v>
+      </c>
+      <c r="E1093" t="str">
+        <v>2020-08-10T10:00:24</v>
+      </c>
+      <c r="F1093" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1093" t="str">
+        <v>./mid_thumbs/584/IMG_8227.jpg</v>
+      </c>
+      <c r="H1093" t="str">
+        <v>./small_thumbs/584/IMG_8227.jpg</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094">
+        <v>1097</v>
+      </c>
+      <c r="B1094">
+        <v>586</v>
+      </c>
+      <c r="C1094" t="str">
+        <v>立江地蔵尊</v>
+      </c>
+      <c r="D1094" t="str">
+        <v>./images/586/IMG_8229.jpg</v>
+      </c>
+      <c r="E1094" t="str">
+        <v>2020-08-10T10:02:06</v>
+      </c>
+      <c r="F1094" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1094" t="str">
+        <v>./mid_thumbs/586/IMG_8229.jpg</v>
+      </c>
+      <c r="H1094" t="str">
+        <v>./small_thumbs/586/IMG_8229.jpg</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095">
+        <v>1098</v>
+      </c>
+      <c r="B1095">
+        <v>586</v>
+      </c>
+      <c r="C1095" t="str">
+        <v>立江地蔵尊 内部</v>
+      </c>
+      <c r="D1095" t="str">
+        <v>./images/586/IMG_8230.jpg</v>
+      </c>
+      <c r="E1095" t="str">
+        <v>2020-08-10T10:02:19</v>
+      </c>
+      <c r="F1095" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1095" t="str">
+        <v>./mid_thumbs/586/IMG_8230.jpg</v>
+      </c>
+      <c r="H1095" t="str">
+        <v>./small_thumbs/586/IMG_8230.jpg</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096">
+        <v>1099</v>
+      </c>
+      <c r="B1096">
+        <v>587</v>
+      </c>
+      <c r="C1096" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1096" t="str">
+        <v>./images/587/IMG_8233.jpg</v>
+      </c>
+      <c r="E1096" t="str">
+        <v>2020-08-10T10:03:00</v>
+      </c>
+      <c r="F1096" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1096" t="str">
+        <v>./mid_thumbs/587/IMG_8233.jpg</v>
+      </c>
+      <c r="H1096" t="str">
+        <v>./small_thumbs/587/IMG_8233.jpg</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097">
+        <v>1100</v>
+      </c>
+      <c r="B1097">
+        <v>587</v>
+      </c>
+      <c r="C1097" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1097" t="str">
+        <v>./images/587/IMG_8234.jpg</v>
+      </c>
+      <c r="E1097" t="str">
+        <v>2020-08-10T10:03:05</v>
+      </c>
+      <c r="F1097" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1097" t="str">
+        <v>./mid_thumbs/587/IMG_8234.jpg</v>
+      </c>
+      <c r="H1097" t="str">
+        <v>./small_thumbs/587/IMG_8234.jpg</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098">
+        <v>1101</v>
+      </c>
+      <c r="B1098">
+        <v>587</v>
+      </c>
+      <c r="C1098" t="str">
+        <v>地蔵堂 脇の地蔵群</v>
+      </c>
+      <c r="D1098" t="str">
+        <v>./images/587/IMG_8235.jpg</v>
+      </c>
+      <c r="E1098" t="str">
+        <v>2020-08-10T10:03:12</v>
+      </c>
+      <c r="F1098" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1098" t="str">
+        <v>./mid_thumbs/587/IMG_8235.jpg</v>
+      </c>
+      <c r="H1098" t="str">
+        <v>./small_thumbs/587/IMG_8235.jpg</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099">
+        <v>1102</v>
+      </c>
+      <c r="B1099">
+        <v>654</v>
+      </c>
+      <c r="C1099" t="str">
+        <v>奈良阪町 地蔵群</v>
+      </c>
+      <c r="D1099" t="str">
+        <v>./images/654/IMG_8232.jpg</v>
+      </c>
+      <c r="E1099" t="str">
+        <v>2020-08-10T10:02:41</v>
+      </c>
+      <c r="F1099" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1099" t="str">
+        <v>./mid_thumbs/654/IMG_8232.jpg</v>
+      </c>
+      <c r="H1099" t="str">
+        <v>./small_thumbs/654/IMG_8232.jpg</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100">
+        <v>1103</v>
+      </c>
+      <c r="B1100">
+        <v>654</v>
+      </c>
+      <c r="C1100" t="str">
+        <v>奈良阪町 地蔵群</v>
+      </c>
+      <c r="D1100" t="str">
+        <v>./images/654/IMG_8231.jpg</v>
+      </c>
+      <c r="E1100" t="str">
+        <v>2020-08-10T10:02:32</v>
+      </c>
+      <c r="F1100" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1100" t="str">
+        <v>./mid_thumbs/654/IMG_8231.jpg</v>
+      </c>
+      <c r="H1100" t="str">
+        <v>./small_thumbs/654/IMG_8231.jpg</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101">
+        <v>1104</v>
+      </c>
+      <c r="B1101">
+        <v>585</v>
+      </c>
+      <c r="C1101" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1101" t="str">
+        <v>./images/585/IMG_8236.jpg</v>
+      </c>
+      <c r="E1101" t="str">
+        <v>2020-08-10T10:05:21</v>
+      </c>
+      <c r="F1101" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1101" t="str">
+        <v>./mid_thumbs/585/IMG_8236.jpg</v>
+      </c>
+      <c r="H1101" t="str">
+        <v>./small_thumbs/585/IMG_8236.jpg</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102">
+        <v>1105</v>
+      </c>
+      <c r="B1102">
+        <v>585</v>
+      </c>
+      <c r="C1102" t="str">
+        <v>地蔵堂 内部右側</v>
+      </c>
+      <c r="D1102" t="str">
+        <v>./images/585/IMG_8237.jpg</v>
+      </c>
+      <c r="E1102" t="str">
+        <v>2020-08-10T10:05:34</v>
+      </c>
+      <c r="F1102" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1102" t="str">
+        <v>./mid_thumbs/585/IMG_8237.jpg</v>
+      </c>
+      <c r="H1102" t="str">
+        <v>./small_thumbs/585/IMG_8237.jpg</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103">
+        <v>1106</v>
+      </c>
+      <c r="B1103">
+        <v>585</v>
+      </c>
+      <c r="C1103" t="str">
+        <v>地蔵堂 内部左側</v>
+      </c>
+      <c r="D1103" t="str">
+        <v>./images/585/IMG_8238.jpg</v>
+      </c>
+      <c r="E1103" t="str">
+        <v>2020-08-10T10:05:42</v>
+      </c>
+      <c r="F1103" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1103" t="str">
+        <v>./mid_thumbs/585/IMG_8238.jpg</v>
+      </c>
+      <c r="H1103" t="str">
+        <v>./small_thumbs/585/IMG_8238.jpg</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104">
+        <v>1107</v>
+      </c>
+      <c r="B1104">
+        <v>585</v>
+      </c>
+      <c r="C1104" t="str">
+        <v>地蔵堂 内部正面</v>
+      </c>
+      <c r="D1104" t="str">
+        <v>./images/585/IMG_8239.jpg</v>
+      </c>
+      <c r="E1104" t="str">
+        <v>2020-08-10T10:05:48</v>
+      </c>
+      <c r="F1104" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1104" t="str">
+        <v>./mid_thumbs/585/IMG_8239.jpg</v>
+      </c>
+      <c r="H1104" t="str">
+        <v>./small_thumbs/585/IMG_8239.jpg</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105">
+        <v>1108</v>
+      </c>
+      <c r="B1105">
+        <v>655</v>
+      </c>
+      <c r="C1105" t="str">
+        <v>奈良坂町 配水池傍 地蔵尊 内部</v>
+      </c>
+      <c r="D1105" t="str">
+        <v>./images/655/IMG_8241.jpg</v>
+      </c>
+      <c r="E1105" t="str">
+        <v>2020-08-10T10:21:10</v>
+      </c>
+      <c r="F1105" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1105" t="str">
+        <v>./mid_thumbs/655/IMG_8241.jpg</v>
+      </c>
+      <c r="H1105" t="str">
+        <v>./small_thumbs/655/IMG_8241.jpg</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106">
+        <v>1109</v>
+      </c>
+      <c r="B1106">
+        <v>655</v>
+      </c>
+      <c r="C1106" t="str">
+        <v>奈良坂町 配水池傍 地蔵尊</v>
+      </c>
+      <c r="D1106" t="str">
+        <v>./images/655/IMG_8240.jpg</v>
+      </c>
+      <c r="E1106" t="str">
+        <v>2020-08-10T10:21:02</v>
+      </c>
+      <c r="F1106" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1106" t="str">
+        <v>./mid_thumbs/655/IMG_8240.jpg</v>
+      </c>
+      <c r="H1106" t="str">
+        <v>./small_thumbs/655/IMG_8240.jpg</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107">
+        <v>1110</v>
+      </c>
+      <c r="B1107">
+        <v>656</v>
+      </c>
+      <c r="C1107" t="str">
+        <v>奈良豆比古神社裏の地蔵堂傍の地蔵群</v>
+      </c>
+      <c r="D1107" t="str">
+        <v>./images/656/IMG_8247.jpg</v>
+      </c>
+      <c r="E1107" t="str">
+        <v>2020-08-10T10:47:32</v>
+      </c>
+      <c r="F1107" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1107" t="str">
+        <v>./mid_thumbs/656/IMG_8247.jpg</v>
+      </c>
+      <c r="H1107" t="str">
+        <v>./small_thumbs/656/IMG_8247.jpg</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108">
+        <v>1111</v>
+      </c>
+      <c r="B1108">
+        <v>656</v>
+      </c>
+      <c r="C1108" t="str">
+        <v>奈良豆比古神社裏の地蔵堂</v>
+      </c>
+      <c r="D1108" t="str">
+        <v>./images/656/IMG_8246.jpg</v>
+      </c>
+      <c r="E1108" t="str">
+        <v>2020-08-10T10:47:27</v>
+      </c>
+      <c r="F1108" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1108" t="str">
+        <v>./mid_thumbs/656/IMG_8246.jpg</v>
+      </c>
+      <c r="H1108" t="str">
+        <v>./small_thumbs/656/IMG_8246.jpg</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109">
+        <v>1112</v>
+      </c>
+      <c r="B1109">
+        <v>657</v>
+      </c>
+      <c r="C1109" t="str">
+        <v>般若寺町墓地傍の地蔵群 新しい六地蔵</v>
+      </c>
+      <c r="D1109" t="str">
+        <v>./images/657/IMG_8214.jpg</v>
+      </c>
+      <c r="E1109" t="str">
+        <v>2020-08-10T09:43:58</v>
+      </c>
+      <c r="F1109" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1109" t="str">
+        <v>./mid_thumbs/657/IMG_8214.jpg</v>
+      </c>
+      <c r="H1109" t="str">
+        <v>./small_thumbs/657/IMG_8214.jpg</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110">
+        <v>1113</v>
+      </c>
+      <c r="B1110">
+        <v>657</v>
+      </c>
+      <c r="C1110" t="str">
+        <v>般若寺町墓地傍の地蔵群 古い地蔵と三界万霊塔</v>
+      </c>
+      <c r="D1110" t="str">
+        <v>./images/657/IMG_8215.jpg</v>
+      </c>
+      <c r="E1110" t="str">
+        <v>2020-08-10T09:44:02</v>
+      </c>
+      <c r="F1110" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1110" t="str">
+        <v>./mid_thumbs/657/IMG_8215.jpg</v>
+      </c>
+      <c r="H1110" t="str">
+        <v>./small_thumbs/657/IMG_8215.jpg</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111">
+        <v>1114</v>
+      </c>
+      <c r="B1111">
+        <v>657</v>
+      </c>
+      <c r="C1111" t="str">
+        <v>般若寺町墓地傍の地蔵群 後ろ左側</v>
+      </c>
+      <c r="D1111" t="str">
+        <v>./images/657/IMG_8216.jpg</v>
+      </c>
+      <c r="E1111" t="str">
+        <v>2020-08-10T09:44:18</v>
+      </c>
+      <c r="F1111" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1111" t="str">
+        <v>./mid_thumbs/657/IMG_8216.jpg</v>
+      </c>
+      <c r="H1111" t="str">
+        <v>./small_thumbs/657/IMG_8216.jpg</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112">
+        <v>1115</v>
+      </c>
+      <c r="B1112">
+        <v>657</v>
+      </c>
+      <c r="C1112" t="str">
+        <v>般若寺町墓地傍の地蔵群 後ろ右側</v>
+      </c>
+      <c r="D1112" t="str">
+        <v>./images/657/IMG_8217.jpg</v>
+      </c>
+      <c r="E1112" t="str">
+        <v>2020-08-10T09:44:28</v>
+      </c>
+      <c r="F1112" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1112" t="str">
+        <v>./mid_thumbs/657/IMG_8217.jpg</v>
+      </c>
+      <c r="H1112" t="str">
+        <v>./small_thumbs/657/IMG_8217.jpg</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113">
+        <v>1116</v>
+      </c>
+      <c r="B1113">
+        <v>657</v>
+      </c>
+      <c r="C1113" t="str">
+        <v>般若寺町墓地傍の地蔵群</v>
+      </c>
+      <c r="D1113" t="str">
+        <v>./images/657/IMG_8213.jpg</v>
+      </c>
+      <c r="E1113" t="str">
+        <v>2020-08-10T09:43:53</v>
+      </c>
+      <c r="F1113" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1113" t="str">
+        <v>./mid_thumbs/657/IMG_8213.jpg</v>
+      </c>
+      <c r="H1113" t="str">
+        <v>./small_thumbs/657/IMG_8213.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1076"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1113"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M384"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="str">
-        <v>2017-06-17</v>
+        <v>2020-08-20</v>
       </c>
       <c r="I308" t="b">
         <v>0</v>
@@ -13712,16 +13712,471 @@
         <v>34.69833556528876</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385">
+        <v>658</v>
+      </c>
+      <c r="B385" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C385" t="str">
+        <v>東之阪町 地蔵堂</v>
+      </c>
+      <c r="D385" t="str">
+        <v>東之阪町の地蔵堂</v>
+      </c>
+      <c r="E385" t="b">
+        <v>1</v>
+      </c>
+      <c r="H385" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I385" t="b">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>1118</v>
+      </c>
+      <c r="K385" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L385">
+        <v>135.8356217045563</v>
+      </c>
+      <c r="M385">
+        <v>34.69511313154435</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>659</v>
+      </c>
+      <c r="B386" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C386" t="str">
+        <v>東之阪町露座の地蔵</v>
+      </c>
+      <c r="D386" t="str">
+        <v>東之阪町 露座の地蔵</v>
+      </c>
+      <c r="E386" t="b">
+        <v>1</v>
+      </c>
+      <c r="H386" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I386" t="b">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>1121</v>
+      </c>
+      <c r="K386" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L386">
+        <v>135.83611526676208</v>
+      </c>
+      <c r="M386">
+        <v>34.69544944720321</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>660</v>
+      </c>
+      <c r="B387" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C387" t="str">
+        <v>東之阪町 光蓮寺北側の地蔵堂</v>
+      </c>
+      <c r="D387" t="str">
+        <v>東之阪町 光蓮寺北側の地蔵堂</v>
+      </c>
+      <c r="E387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I387" t="b">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>1123</v>
+      </c>
+      <c r="K387" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L387">
+        <v>135.83569269638042</v>
+      </c>
+      <c r="M387">
+        <v>34.69591361615698</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>661</v>
+      </c>
+      <c r="B388" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C388" t="str">
+        <v>東之阪町 辻の地蔵堂</v>
+      </c>
+      <c r="D388" t="str">
+        <v>東之阪町 辻の地蔵堂</v>
+      </c>
+      <c r="E388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I388" t="b">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>1125</v>
+      </c>
+      <c r="K388" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L388">
+        <v>135.83606793887932</v>
+      </c>
+      <c r="M388">
+        <v>34.696008117301645</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>662</v>
+      </c>
+      <c r="B389" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C389" t="str">
+        <v>東之阪町 精肉店脇の地蔵</v>
+      </c>
+      <c r="D389" t="str">
+        <v>東之阪町 精肉店脇の地蔵</v>
+      </c>
+      <c r="E389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I389" t="b">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>1128</v>
+      </c>
+      <c r="K389" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L389">
+        <v>135.83532759557067</v>
+      </c>
+      <c r="M389">
+        <v>34.69543832935204</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>663</v>
+      </c>
+      <c r="B390" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C390" t="str">
+        <v>東之阪町 北端の地蔵堂</v>
+      </c>
+      <c r="D390" t="str">
+        <v>東之阪町 北端の地蔵堂</v>
+      </c>
+      <c r="E390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I390" t="b">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>1133</v>
+      </c>
+      <c r="K390" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L390">
+        <v>135.83627077266252</v>
+      </c>
+      <c r="M390">
+        <v>34.6966418280719</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>664</v>
+      </c>
+      <c r="B391" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C391" t="str">
+        <v>東之阪町 奈良街道沿いの地蔵</v>
+      </c>
+      <c r="D391" t="str">
+        <v>東之阪町 奈良街道沿いの地蔵</v>
+      </c>
+      <c r="E391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I391" t="b">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>1138</v>
+      </c>
+      <c r="K391" t="str">
+        <v>東之阪町</v>
+      </c>
+      <c r="L391">
+        <v>135.8350706727786</v>
+      </c>
+      <c r="M391">
+        <v>34.69575518752528</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>665</v>
+      </c>
+      <c r="B392" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C392" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵</v>
+      </c>
+      <c r="D392" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 (南側)</v>
+      </c>
+      <c r="E392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I392" t="b">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>1142</v>
+      </c>
+      <c r="K392" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L392">
+        <v>135.8346971205612</v>
+      </c>
+      <c r="M392">
+        <v>34.69545222666578</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>666</v>
+      </c>
+      <c r="B393" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C393" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵</v>
+      </c>
+      <c r="D393" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 (北側)</v>
+      </c>
+      <c r="E393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I393" t="b">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>1145</v>
+      </c>
+      <c r="K393" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L393">
+        <v>135.83473853245863</v>
+      </c>
+      <c r="M393">
+        <v>34.69547307263201</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>667</v>
+      </c>
+      <c r="B394" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C394" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂</v>
+      </c>
+      <c r="D394" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂</v>
+      </c>
+      <c r="E394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I394" t="b">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>1149</v>
+      </c>
+      <c r="K394" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L394">
+        <v>135.83477656379299</v>
+      </c>
+      <c r="M394">
+        <v>34.69636249563308</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>668</v>
+      </c>
+      <c r="B395" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C395" t="str">
+        <v>川上町 坂路地の三叉路の地蔵堂</v>
+      </c>
+      <c r="D395" t="str">
+        <v>川上町 坂路地の三叉路の地蔵堂</v>
+      </c>
+      <c r="E395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I395" t="b">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>1151</v>
+      </c>
+      <c r="K395" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L395">
+        <v>135.83464894753772</v>
+      </c>
+      <c r="M395">
+        <v>34.69668421425511</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>669</v>
+      </c>
+      <c r="B396" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C396" t="str">
+        <v>川上町 坂路地三叉路地蔵堂下の石造物</v>
+      </c>
+      <c r="D396" t="str">
+        <v>川上町 坂路地三叉路地蔵堂下の石造物</v>
+      </c>
+      <c r="E396" t="b">
+        <v>1</v>
+      </c>
+      <c r="H396" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I396" t="b">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>1153</v>
+      </c>
+      <c r="K396" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L396">
+        <v>135.83466416007147</v>
+      </c>
+      <c r="M396">
+        <v>34.69667379142518</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>670</v>
+      </c>
+      <c r="B397" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C397" t="str">
+        <v>川上町 坂路地西出口の地蔵堂</v>
+      </c>
+      <c r="D397" t="str">
+        <v>川上町 坂路地西出口の地蔵堂</v>
+      </c>
+      <c r="E397" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I397" t="b">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>1155</v>
+      </c>
+      <c r="K397" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="L397">
+        <v>135.83430751066933</v>
+      </c>
+      <c r="M397">
+        <v>34.69657929104064</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M384"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M397"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1113"/>
+  <dimension ref="A1:H1152"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -42664,9 +43119,1023 @@
         <v>./small_thumbs/657/IMG_8213.jpg</v>
       </c>
     </row>
+    <row r="1114">
+      <c r="A1114">
+        <v>1117</v>
+      </c>
+      <c r="B1114">
+        <v>658</v>
+      </c>
+      <c r="C1114" t="str">
+        <v>東之阪町 地蔵堂 内部</v>
+      </c>
+      <c r="D1114" t="str">
+        <v>./images/658/IMG_8300.jpg</v>
+      </c>
+      <c r="E1114" t="str">
+        <v>2020-08-10T11:39:09</v>
+      </c>
+      <c r="F1114" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1114" t="str">
+        <v>./mid_thumbs/658/IMG_8300.jpg</v>
+      </c>
+      <c r="H1114" t="str">
+        <v>./small_thumbs/658/IMG_8300.jpg</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115">
+        <v>1118</v>
+      </c>
+      <c r="B1115">
+        <v>658</v>
+      </c>
+      <c r="C1115" t="str">
+        <v>東之阪町 地蔵堂</v>
+      </c>
+      <c r="D1115" t="str">
+        <v>./images/658/IMG_8299.jpg</v>
+      </c>
+      <c r="E1115" t="str">
+        <v>2020-08-10T11:39:04</v>
+      </c>
+      <c r="F1115" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1115" t="str">
+        <v>./mid_thumbs/658/IMG_8299.jpg</v>
+      </c>
+      <c r="H1115" t="str">
+        <v>./small_thumbs/658/IMG_8299.jpg</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116">
+        <v>1119</v>
+      </c>
+      <c r="B1116">
+        <v>581</v>
+      </c>
+      <c r="C1116" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1116" t="str">
+        <v>./images/581/IMG_8306.jpg</v>
+      </c>
+      <c r="E1116" t="str">
+        <v>2020-08-10T11:43:34</v>
+      </c>
+      <c r="F1116" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1116" t="str">
+        <v>./mid_thumbs/581/IMG_8306.jpg</v>
+      </c>
+      <c r="H1116" t="str">
+        <v>./small_thumbs/581/IMG_8306.jpg</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117">
+        <v>1120</v>
+      </c>
+      <c r="B1117">
+        <v>581</v>
+      </c>
+      <c r="C1117" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1117" t="str">
+        <v>./images/581/IMG_8307.jpg</v>
+      </c>
+      <c r="E1117" t="str">
+        <v>2020-08-10T11:43:39</v>
+      </c>
+      <c r="F1117" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1117" t="str">
+        <v>./mid_thumbs/581/IMG_8307.jpg</v>
+      </c>
+      <c r="H1117" t="str">
+        <v>./small_thumbs/581/IMG_8307.jpg</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118">
+        <v>1121</v>
+      </c>
+      <c r="B1118">
+        <v>659</v>
+      </c>
+      <c r="C1118" t="str">
+        <v>東之阪町露座の地蔵</v>
+      </c>
+      <c r="D1118" t="str">
+        <v>./images/659/IMG_8304.jpg</v>
+      </c>
+      <c r="E1118" t="str">
+        <v>2020-08-10T11:42:01</v>
+      </c>
+      <c r="F1118" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1118" t="str">
+        <v>./mid_thumbs/659/IMG_8304.jpg</v>
+      </c>
+      <c r="H1118" t="str">
+        <v>./small_thumbs/659/IMG_8304.jpg</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119">
+        <v>1122</v>
+      </c>
+      <c r="B1119">
+        <v>660</v>
+      </c>
+      <c r="C1119" t="str">
+        <v>東之阪町 光蓮寺北側の地蔵堂 内部</v>
+      </c>
+      <c r="D1119" t="str">
+        <v>./images/660/IMG_8313.jpg</v>
+      </c>
+      <c r="E1119" t="str">
+        <v>2020-08-10T11:46:22</v>
+      </c>
+      <c r="F1119" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1119" t="str">
+        <v>./mid_thumbs/660/IMG_8313.jpg</v>
+      </c>
+      <c r="H1119" t="str">
+        <v>./small_thumbs/660/IMG_8313.jpg</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120">
+        <v>1123</v>
+      </c>
+      <c r="B1120">
+        <v>660</v>
+      </c>
+      <c r="C1120" t="str">
+        <v>東之阪町 光蓮寺北側の地蔵堂</v>
+      </c>
+      <c r="D1120" t="str">
+        <v>./images/660/IMG_8312.jpg</v>
+      </c>
+      <c r="E1120" t="str">
+        <v>2020-08-10T11:46:15</v>
+      </c>
+      <c r="F1120" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1120" t="str">
+        <v>./mid_thumbs/660/IMG_8312.jpg</v>
+      </c>
+      <c r="H1120" t="str">
+        <v>./small_thumbs/660/IMG_8312.jpg</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121">
+        <v>1124</v>
+      </c>
+      <c r="B1121">
+        <v>661</v>
+      </c>
+      <c r="C1121" t="str">
+        <v>東之阪町 辻の地蔵堂 内部</v>
+      </c>
+      <c r="D1121" t="str">
+        <v>./images/661/IMG_8310.jpg</v>
+      </c>
+      <c r="E1121" t="str">
+        <v>2020-08-10T11:45:24</v>
+      </c>
+      <c r="F1121" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1121" t="str">
+        <v>./mid_thumbs/661/IMG_8310.jpg</v>
+      </c>
+      <c r="H1121" t="str">
+        <v>./small_thumbs/661/IMG_8310.jpg</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122">
+        <v>1125</v>
+      </c>
+      <c r="B1122">
+        <v>661</v>
+      </c>
+      <c r="C1122" t="str">
+        <v>東之阪町 辻の地蔵堂</v>
+      </c>
+      <c r="D1122" t="str">
+        <v>./images/661/IMG_8309.jpg</v>
+      </c>
+      <c r="E1122" t="str">
+        <v>2020-08-10T11:45:13</v>
+      </c>
+      <c r="F1122" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1122" t="str">
+        <v>./mid_thumbs/661/IMG_8309.jpg</v>
+      </c>
+      <c r="H1122" t="str">
+        <v>./small_thumbs/661/IMG_8309.jpg</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123">
+        <v>1126</v>
+      </c>
+      <c r="B1123">
+        <v>662</v>
+      </c>
+      <c r="C1123" t="str">
+        <v>東之阪町 精肉店脇の地蔵 内部</v>
+      </c>
+      <c r="D1123" t="str">
+        <v>./images/662/IMG_8294.jpg</v>
+      </c>
+      <c r="E1123" t="str">
+        <v>2020-08-10T11:35:09</v>
+      </c>
+      <c r="F1123" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1123" t="str">
+        <v>./mid_thumbs/662/IMG_8294.jpg</v>
+      </c>
+      <c r="H1123" t="str">
+        <v>./small_thumbs/662/IMG_8294.jpg</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124">
+        <v>1127</v>
+      </c>
+      <c r="B1124">
+        <v>662</v>
+      </c>
+      <c r="C1124" t="str">
+        <v>東之阪町 精肉店脇の地蔵 内部</v>
+      </c>
+      <c r="D1124" t="str">
+        <v>./images/662/IMG_8295.jpg</v>
+      </c>
+      <c r="E1124" t="str">
+        <v>2020-08-10T11:35:12</v>
+      </c>
+      <c r="F1124" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1124" t="str">
+        <v>./mid_thumbs/662/IMG_8295.jpg</v>
+      </c>
+      <c r="H1124" t="str">
+        <v>./small_thumbs/662/IMG_8295.jpg</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125">
+        <v>1128</v>
+      </c>
+      <c r="B1125">
+        <v>662</v>
+      </c>
+      <c r="C1125" t="str">
+        <v>東之阪町 精肉店脇の地蔵</v>
+      </c>
+      <c r="D1125" t="str">
+        <v>./images/662/IMG_8293.jpg</v>
+      </c>
+      <c r="E1125" t="str">
+        <v>2020-08-10T11:35:02</v>
+      </c>
+      <c r="F1125" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1125" t="str">
+        <v>./mid_thumbs/662/IMG_8293.jpg</v>
+      </c>
+      <c r="H1125" t="str">
+        <v>./small_thumbs/662/IMG_8293.jpg</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126">
+        <v>1129</v>
+      </c>
+      <c r="B1126">
+        <v>663</v>
+      </c>
+      <c r="C1126" t="str">
+        <v>東之阪町 北端の地蔵堂 本尊</v>
+      </c>
+      <c r="D1126" t="str">
+        <v>./images/663/IMG_8318.jpg</v>
+      </c>
+      <c r="E1126" t="str">
+        <v>2020-08-10T11:57:23</v>
+      </c>
+      <c r="F1126" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1126" t="str">
+        <v>./mid_thumbs/663/IMG_8318.jpg</v>
+      </c>
+      <c r="H1126" t="str">
+        <v>./small_thumbs/663/IMG_8318.jpg</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127">
+        <v>1130</v>
+      </c>
+      <c r="B1127">
+        <v>663</v>
+      </c>
+      <c r="C1127" t="str">
+        <v>東之阪町 北端の地蔵堂 内部左側</v>
+      </c>
+      <c r="D1127" t="str">
+        <v>./images/663/IMG_8319.jpg</v>
+      </c>
+      <c r="E1127" t="str">
+        <v>2020-08-10T11:57:28</v>
+      </c>
+      <c r="F1127" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1127" t="str">
+        <v>./mid_thumbs/663/IMG_8319.jpg</v>
+      </c>
+      <c r="H1127" t="str">
+        <v>./small_thumbs/663/IMG_8319.jpg</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128">
+        <v>1131</v>
+      </c>
+      <c r="B1128">
+        <v>663</v>
+      </c>
+      <c r="C1128" t="str">
+        <v>東之阪町 北端の地蔵堂 内部右側</v>
+      </c>
+      <c r="D1128" t="str">
+        <v>./images/663/IMG_8320.jpg</v>
+      </c>
+      <c r="E1128" t="str">
+        <v>2020-08-10T11:57:37</v>
+      </c>
+      <c r="F1128" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1128" t="str">
+        <v>./mid_thumbs/663/IMG_8320.jpg</v>
+      </c>
+      <c r="H1128" t="str">
+        <v>./small_thumbs/663/IMG_8320.jpg</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129">
+        <v>1132</v>
+      </c>
+      <c r="B1129">
+        <v>663</v>
+      </c>
+      <c r="C1129" t="str">
+        <v>東之阪町 北端の地蔵堂 内部手前</v>
+      </c>
+      <c r="D1129" t="str">
+        <v>./images/663/IMG_8321.jpg</v>
+      </c>
+      <c r="E1129" t="str">
+        <v>2020-08-10T11:57:45</v>
+      </c>
+      <c r="F1129" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1129" t="str">
+        <v>./mid_thumbs/663/IMG_8321.jpg</v>
+      </c>
+      <c r="H1129" t="str">
+        <v>./small_thumbs/663/IMG_8321.jpg</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130">
+        <v>1133</v>
+      </c>
+      <c r="B1130">
+        <v>663</v>
+      </c>
+      <c r="C1130" t="str">
+        <v>東之阪町 北端の地蔵堂</v>
+      </c>
+      <c r="D1130" t="str">
+        <v>./images/663/IMG_8317.jpg</v>
+      </c>
+      <c r="E1130" t="str">
+        <v>2020-08-10T11:57:15</v>
+      </c>
+      <c r="F1130" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1130" t="str">
+        <v>./mid_thumbs/663/IMG_8317.jpg</v>
+      </c>
+      <c r="H1130" t="str">
+        <v>./small_thumbs/663/IMG_8317.jpg</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131">
+        <v>1134</v>
+      </c>
+      <c r="B1131">
+        <v>580</v>
+      </c>
+      <c r="C1131" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1131" t="str">
+        <v>./images/580/IMG_8315.jpg</v>
+      </c>
+      <c r="E1131" t="str">
+        <v>2020-08-10T11:54:54</v>
+      </c>
+      <c r="F1131" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1131" t="str">
+        <v>./mid_thumbs/580/IMG_8315.jpg</v>
+      </c>
+      <c r="H1131" t="str">
+        <v>./small_thumbs/580/IMG_8315.jpg</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132">
+        <v>1135</v>
+      </c>
+      <c r="B1132">
+        <v>580</v>
+      </c>
+      <c r="C1132" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1132" t="str">
+        <v>./images/580/IMG_8316.jpg</v>
+      </c>
+      <c r="E1132" t="str">
+        <v>2020-08-10T11:55:00</v>
+      </c>
+      <c r="F1132" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1132" t="str">
+        <v>./mid_thumbs/580/IMG_8316.jpg</v>
+      </c>
+      <c r="H1132" t="str">
+        <v>./small_thumbs/580/IMG_8316.jpg</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133">
+        <v>1136</v>
+      </c>
+      <c r="B1133">
+        <v>582</v>
+      </c>
+      <c r="C1133" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1133" t="str">
+        <v>./images/582/IMG_8323.jpg</v>
+      </c>
+      <c r="E1133" t="str">
+        <v>2020-08-10T11:58:49</v>
+      </c>
+      <c r="F1133" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1133" t="str">
+        <v>./mid_thumbs/582/IMG_8323.jpg</v>
+      </c>
+      <c r="H1133" t="str">
+        <v>./small_thumbs/582/IMG_8323.jpg</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134">
+        <v>1137</v>
+      </c>
+      <c r="B1134">
+        <v>582</v>
+      </c>
+      <c r="C1134" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1134" t="str">
+        <v>./images/582/IMG_8324.jpg</v>
+      </c>
+      <c r="E1134" t="str">
+        <v>2020-08-10T11:58:55</v>
+      </c>
+      <c r="F1134" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1134" t="str">
+        <v>./mid_thumbs/582/IMG_8324.jpg</v>
+      </c>
+      <c r="H1134" t="str">
+        <v>./small_thumbs/582/IMG_8324.jpg</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135">
+        <v>1138</v>
+      </c>
+      <c r="B1135">
+        <v>664</v>
+      </c>
+      <c r="C1135" t="str">
+        <v>東之阪町 奈良街道沿いの地蔵</v>
+      </c>
+      <c r="D1135" t="str">
+        <v>./images/664/IMG_8297.jpg</v>
+      </c>
+      <c r="E1135" t="str">
+        <v>2020-08-10T11:36:30</v>
+      </c>
+      <c r="F1135" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1135" t="str">
+        <v>./mid_thumbs/664/IMG_8297.jpg</v>
+      </c>
+      <c r="H1135" t="str">
+        <v>./small_thumbs/664/IMG_8297.jpg</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136">
+        <v>1139</v>
+      </c>
+      <c r="B1136">
+        <v>665</v>
+      </c>
+      <c r="C1136" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 内部左側</v>
+      </c>
+      <c r="D1136" t="str">
+        <v>./images/665/IMG_8284.jpg</v>
+      </c>
+      <c r="E1136" t="str">
+        <v>2020-08-10T11:21:32</v>
+      </c>
+      <c r="F1136" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1136" t="str">
+        <v>./mid_thumbs/665/IMG_8284.jpg</v>
+      </c>
+      <c r="H1136" t="str">
+        <v>./small_thumbs/665/IMG_8284.jpg</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137">
+        <v>1140</v>
+      </c>
+      <c r="B1137">
+        <v>665</v>
+      </c>
+      <c r="C1137" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 内部右側</v>
+      </c>
+      <c r="D1137" t="str">
+        <v>./images/665/IMG_8285.jpg</v>
+      </c>
+      <c r="E1137" t="str">
+        <v>2020-08-10T11:21:35</v>
+      </c>
+      <c r="F1137" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1137" t="str">
+        <v>./mid_thumbs/665/IMG_8285.jpg</v>
+      </c>
+      <c r="H1137" t="str">
+        <v>./small_thumbs/665/IMG_8285.jpg</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138">
+        <v>1141</v>
+      </c>
+      <c r="B1138">
+        <v>665</v>
+      </c>
+      <c r="C1138" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 坂道との位置関係</v>
+      </c>
+      <c r="D1138" t="str">
+        <v>./images/665/IMG_8287.jpg</v>
+      </c>
+      <c r="E1138" t="str">
+        <v>2020-08-10T11:22:53</v>
+      </c>
+      <c r="F1138" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1138" t="str">
+        <v>./mid_thumbs/665/IMG_8287.jpg</v>
+      </c>
+      <c r="H1138" t="str">
+        <v>./small_thumbs/665/IMG_8287.jpg</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139">
+        <v>1142</v>
+      </c>
+      <c r="B1139">
+        <v>665</v>
+      </c>
+      <c r="C1139" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵</v>
+      </c>
+      <c r="D1139" t="str">
+        <v>./images/665/IMG_8283.jpg</v>
+      </c>
+      <c r="E1139" t="str">
+        <v>2020-08-10T11:21:26</v>
+      </c>
+      <c r="F1139" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1139" t="str">
+        <v>./mid_thumbs/665/IMG_8283.jpg</v>
+      </c>
+      <c r="H1139" t="str">
+        <v>./small_thumbs/665/IMG_8283.jpg</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140">
+        <v>1143</v>
+      </c>
+      <c r="B1140">
+        <v>666</v>
+      </c>
+      <c r="C1140" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 内部</v>
+      </c>
+      <c r="D1140" t="str">
+        <v>./images/666/IMG_8289.jpg</v>
+      </c>
+      <c r="E1140" t="str">
+        <v>2020-08-10T11:23:51</v>
+      </c>
+      <c r="F1140" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1140" t="str">
+        <v>./mid_thumbs/666/IMG_8289.jpg</v>
+      </c>
+      <c r="H1140" t="str">
+        <v>./small_thumbs/666/IMG_8289.jpg</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141">
+        <v>1144</v>
+      </c>
+      <c r="B1141">
+        <v>666</v>
+      </c>
+      <c r="C1141" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵 坂道との位置関係</v>
+      </c>
+      <c r="D1141" t="str">
+        <v>./images/666/IMG_8291.jpg</v>
+      </c>
+      <c r="E1141" t="str">
+        <v>2020-08-10T11:24:20</v>
+      </c>
+      <c r="F1141" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1141" t="str">
+        <v>./mid_thumbs/666/IMG_8291.jpg</v>
+      </c>
+      <c r="H1141" t="str">
+        <v>./small_thumbs/666/IMG_8291.jpg</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142">
+        <v>1145</v>
+      </c>
+      <c r="B1142">
+        <v>666</v>
+      </c>
+      <c r="C1142" t="str">
+        <v>川上町 奈良街道からの細い坂道の地蔵</v>
+      </c>
+      <c r="D1142" t="str">
+        <v>./images/666/IMG_8288.jpg</v>
+      </c>
+      <c r="E1142" t="str">
+        <v>2020-08-10T11:23:46</v>
+      </c>
+      <c r="F1142" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1142" t="str">
+        <v>./mid_thumbs/666/IMG_8288.jpg</v>
+      </c>
+      <c r="H1142" t="str">
+        <v>./small_thumbs/666/IMG_8288.jpg</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143">
+        <v>1146</v>
+      </c>
+      <c r="B1143">
+        <v>667</v>
+      </c>
+      <c r="C1143" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂 道路側から</v>
+      </c>
+      <c r="D1143" t="str">
+        <v>./images/667/IMG_8274.jpg</v>
+      </c>
+      <c r="E1143" t="str">
+        <v>2020-08-10T11:16:17</v>
+      </c>
+      <c r="F1143" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1143" t="str">
+        <v>./mid_thumbs/667/IMG_8274.jpg</v>
+      </c>
+      <c r="H1143" t="str">
+        <v>./small_thumbs/667/IMG_8274.jpg</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144">
+        <v>1147</v>
+      </c>
+      <c r="B1144">
+        <v>667</v>
+      </c>
+      <c r="C1144" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂 内部</v>
+      </c>
+      <c r="D1144" t="str">
+        <v>./images/667/IMG_8275.jpg</v>
+      </c>
+      <c r="E1144" t="str">
+        <v>2020-08-10T11:16:24</v>
+      </c>
+      <c r="F1144" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1144" t="str">
+        <v>./mid_thumbs/667/IMG_8275.jpg</v>
+      </c>
+      <c r="H1144" t="str">
+        <v>./small_thumbs/667/IMG_8275.jpg</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145">
+        <v>1148</v>
+      </c>
+      <c r="B1145">
+        <v>667</v>
+      </c>
+      <c r="C1145" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂</v>
+      </c>
+      <c r="D1145" t="str">
+        <v>./images/667/IMG_8277.jpg</v>
+      </c>
+      <c r="E1145" t="str">
+        <v>2020-08-10T11:16:42</v>
+      </c>
+      <c r="F1145" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1145" t="str">
+        <v>./mid_thumbs/667/IMG_8277.jpg</v>
+      </c>
+      <c r="H1145" t="str">
+        <v>./small_thumbs/667/IMG_8277.jpg</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146">
+        <v>1149</v>
+      </c>
+      <c r="B1146">
+        <v>667</v>
+      </c>
+      <c r="C1146" t="str">
+        <v>川上町 坂の路地の個宅前地蔵堂 道路から</v>
+      </c>
+      <c r="D1146" t="str">
+        <v>./images/667/IMG_8276.jpg</v>
+      </c>
+      <c r="E1146" t="str">
+        <v>2020-08-10T11:16:31</v>
+      </c>
+      <c r="F1146" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1146" t="str">
+        <v>./mid_thumbs/667/IMG_8276.jpg</v>
+      </c>
+      <c r="H1146" t="str">
+        <v>./small_thumbs/667/IMG_8276.jpg</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147">
+        <v>1150</v>
+      </c>
+      <c r="B1147">
+        <v>668</v>
+      </c>
+      <c r="C1147" t="str">
+        <v>川上町 坂路地の三叉路の地蔵堂 内部</v>
+      </c>
+      <c r="D1147" t="str">
+        <v>./images/668/IMG_8270.jpg</v>
+      </c>
+      <c r="E1147" t="str">
+        <v>2020-08-10T11:14:29</v>
+      </c>
+      <c r="F1147" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1147" t="str">
+        <v>./mid_thumbs/668/IMG_8270.jpg</v>
+      </c>
+      <c r="H1147" t="str">
+        <v>./small_thumbs/668/IMG_8270.jpg</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148">
+        <v>1151</v>
+      </c>
+      <c r="B1148">
+        <v>668</v>
+      </c>
+      <c r="C1148" t="str">
+        <v>川上町 坂路地の三叉路の地蔵堂</v>
+      </c>
+      <c r="D1148" t="str">
+        <v>./images/668/IMG_8269.jpg</v>
+      </c>
+      <c r="E1148" t="str">
+        <v>2020-08-10T11:14:24</v>
+      </c>
+      <c r="F1148" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1148" t="str">
+        <v>./mid_thumbs/668/IMG_8269.jpg</v>
+      </c>
+      <c r="H1148" t="str">
+        <v>./small_thumbs/668/IMG_8269.jpg</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149">
+        <v>1152</v>
+      </c>
+      <c r="B1149">
+        <v>669</v>
+      </c>
+      <c r="C1149" t="str">
+        <v>川上町 坂路地三叉路地蔵堂下の石造物 地蔵堂との位置関係</v>
+      </c>
+      <c r="D1149" t="str">
+        <v>./images/669/IMG_8273.jpg</v>
+      </c>
+      <c r="E1149" t="str">
+        <v>2020-08-10T11:15:21</v>
+      </c>
+      <c r="F1149" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1149" t="str">
+        <v>./mid_thumbs/669/IMG_8273.jpg</v>
+      </c>
+      <c r="H1149" t="str">
+        <v>./small_thumbs/669/IMG_8273.jpg</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150">
+        <v>1153</v>
+      </c>
+      <c r="B1150">
+        <v>669</v>
+      </c>
+      <c r="C1150" t="str">
+        <v>川上町 坂路地三叉路地蔵堂下の石造物</v>
+      </c>
+      <c r="D1150" t="str">
+        <v>./images/669/IMG_8272.jpg</v>
+      </c>
+      <c r="E1150" t="str">
+        <v>2020-08-10T11:15:18</v>
+      </c>
+      <c r="F1150" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1150" t="str">
+        <v>./mid_thumbs/669/IMG_8272.jpg</v>
+      </c>
+      <c r="H1150" t="str">
+        <v>./small_thumbs/669/IMG_8272.jpg</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151">
+        <v>1154</v>
+      </c>
+      <c r="B1151">
+        <v>670</v>
+      </c>
+      <c r="C1151" t="str">
+        <v>川上町 坂路地西出口の地蔵堂 内部</v>
+      </c>
+      <c r="D1151" t="str">
+        <v>./images/670/IMG_8280.jpg</v>
+      </c>
+      <c r="E1151" t="str">
+        <v>2020-08-10T11:18:08</v>
+      </c>
+      <c r="F1151" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1151" t="str">
+        <v>./mid_thumbs/670/IMG_8280.jpg</v>
+      </c>
+      <c r="H1151" t="str">
+        <v>./small_thumbs/670/IMG_8280.jpg</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152">
+        <v>1155</v>
+      </c>
+      <c r="B1152">
+        <v>670</v>
+      </c>
+      <c r="C1152" t="str">
+        <v>川上町 坂路地西出口の地蔵堂</v>
+      </c>
+      <c r="D1152" t="str">
+        <v>./images/670/IMG_8279.jpg</v>
+      </c>
+      <c r="E1152" t="str">
+        <v>2020-08-10T11:18:00</v>
+      </c>
+      <c r="F1152" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1152" t="str">
+        <v>./mid_thumbs/670/IMG_8279.jpg</v>
+      </c>
+      <c r="H1152" t="str">
+        <v>./small_thumbs/670/IMG_8279.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1113"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1152"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -3743,14 +3743,20 @@
       <c r="E98" t="b">
         <v>1</v>
       </c>
+      <c r="G98" t="str">
+        <v>石龕阿弥陀・地蔵二尊像 もと頭塔にあったものという</v>
+      </c>
       <c r="H98" t="str">
         <v>2016-11-04</v>
       </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
       <c r="J98">
         <v>269</v>
       </c>
       <c r="K98" t="str">
-        <v>高畑町</v>
+        <v>高畑町 (上清水町)</v>
       </c>
       <c r="L98">
         <v>135.8389034677207</v>
@@ -6375,14 +6381,20 @@
       <c r="E175" t="b">
         <v>1</v>
       </c>
+      <c r="G175" t="str">
+        <v>一尊像</v>
+      </c>
       <c r="H175" t="str">
         <v>2016-07-22</v>
       </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
       <c r="J175">
         <v>661</v>
       </c>
       <c r="K175" t="str">
-        <v>高畑町</v>
+        <v>高畑町801 小川家前</v>
       </c>
       <c r="L175">
         <v>135.83924423992767</v>
@@ -44142,7 +44154,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -50170,9 +50182,37 @@
         <v>飛鳥地区-343 52ページ</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>175</v>
+      </c>
+      <c r="C356">
+        <v>8</v>
+      </c>
+      <c r="E356" t="str">
+        <v>飛鳥-344 52ページ</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>97</v>
+      </c>
+      <c r="C357">
+        <v>8</v>
+      </c>
+      <c r="E357" t="str">
+        <v>飛鳥-345 52ページ</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E355"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E357"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -11999,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="str">
-        <v>飛鳥地蔵マップ48番</v>
+        <v/>
       </c>
       <c r="H336" t="str">
         <v>2020-08-21</v>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M397"/>
+  <dimension ref="A1:M405"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -671,7 +671,7 @@
         <v>地蔵</v>
       </c>
       <c r="C9" t="str">
-        <v>地蔵堂</v>
+        <v>交通安全地蔵尊</v>
       </c>
       <c r="D9" t="str">
         <v>東紀寺町1</v>
@@ -680,7 +680,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="str">
-        <v>2016-08-06</v>
+        <v>2022-03-19</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>31</v>
@@ -4998,7 +5001,10 @@
         <v>1</v>
       </c>
       <c r="H134" t="str">
-        <v>2016-09-23</v>
+        <v>2022-04-23</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
       </c>
       <c r="J134">
         <v>370</v>
@@ -8493,7 +8499,7 @@
         <v>34.676797189382526</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" xml:space="preserve">
       <c r="A237">
         <v>237</v>
       </c>
@@ -8509,14 +8515,18 @@
       <c r="E237" t="b">
         <v>1</v>
       </c>
+      <c r="G237" t="str" xml:space="preserve">
+        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。
+現在の祭神は、奈良市史社寺編によると、天忍雲根命（あめのおしくもねのみこと）、底筒男神（そこつつのおのかみ）、金山彦神（かなやまひこのかみ）の三座ということです。天忍雲根命は春日若宮、底筒男神は住吉三神の一柱ですから、文曲星は金山彦神に変わったのでしょうか。北には会所もあり、木造観世音菩薩や地蔵立像が安置されているそうで、江戸期の観音堂の名残でしょうか。北西には石地蔵が祀られた地蔵堂もあります。</v>
+      </c>
       <c r="H237" t="str">
-        <v>2016-09-24</v>
+        <v>2022-05-19</v>
       </c>
       <c r="I237" t="b">
         <v>0</v>
       </c>
       <c r="J237">
-        <v>538</v>
+        <v>1157</v>
       </c>
       <c r="K237" t="str">
         <v>西御門町</v>
@@ -10890,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="str">
-        <v>2018-09-21</v>
+        <v>2022-04-23</v>
       </c>
       <c r="I305" t="b">
         <v>0</v>
@@ -12513,19 +12523,19 @@
         <v>西御門町 見初社脇の地蔵堂</v>
       </c>
       <c r="E350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F350" t="str">
-        <v>見初社脇のため、近くで確認できていない。取材する手段を検討要。</v>
+        <v/>
       </c>
       <c r="H350" t="str">
-        <v>2020-08-08</v>
+        <v>2022-05-19</v>
       </c>
       <c r="I350" t="b">
         <v>0</v>
       </c>
       <c r="J350">
-        <v>917</v>
+        <v>1161</v>
       </c>
       <c r="K350" t="str">
         <v>西御門町</v>
@@ -14179,16 +14189,296 @@
         <v>34.69657929104064</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398">
+        <v>671</v>
+      </c>
+      <c r="B398" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C398" t="str">
+        <v>間男地蔵尊</v>
+      </c>
+      <c r="D398" t="str">
+        <v>中町</v>
+      </c>
+      <c r="E398" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="I398" t="b">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>1166</v>
+      </c>
+      <c r="K398" t="str">
+        <v>中町</v>
+      </c>
+      <c r="L398">
+        <v>135.75424425492858</v>
+      </c>
+      <c r="M398">
+        <v>34.67304217326301</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>672</v>
+      </c>
+      <c r="B399" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C399" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D399" t="str">
+        <v>平松</v>
+      </c>
+      <c r="E399" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="I399" t="b">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>1171</v>
+      </c>
+      <c r="K399" t="str">
+        <v>平松</v>
+      </c>
+      <c r="L399">
+        <v>135.77155172392145</v>
+      </c>
+      <c r="M399">
+        <v>34.679287942375375</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>673</v>
+      </c>
+      <c r="B400" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C400" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D400" t="str">
+        <v>疋田町1丁目</v>
+      </c>
+      <c r="E400" t="b">
+        <v>1</v>
+      </c>
+      <c r="H400" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="I400" t="b">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>1175</v>
+      </c>
+      <c r="K400" t="str">
+        <v>疋田町1丁目</v>
+      </c>
+      <c r="L400">
+        <v>135.77241949832796</v>
+      </c>
+      <c r="M400">
+        <v>34.68859401896475</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>674</v>
+      </c>
+      <c r="B401" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C401" t="str">
+        <v>いぬい池脇地蔵尊</v>
+      </c>
+      <c r="D401" t="str">
+        <v>いぬい池堤上</v>
+      </c>
+      <c r="E401" t="b">
+        <v>1</v>
+      </c>
+      <c r="H401" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="I401" t="b">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>1182</v>
+      </c>
+      <c r="K401" t="str">
+        <v>秋篠町</v>
+      </c>
+      <c r="L401">
+        <v>135.77655600399697</v>
+      </c>
+      <c r="M401">
+        <v>34.70629227933661</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>675</v>
+      </c>
+      <c r="B402" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C402" t="str">
+        <v>いぬい池地蔵尊</v>
+      </c>
+      <c r="D402" t="str">
+        <v>いぬい池地蔵尊</v>
+      </c>
+      <c r="E402" t="b">
+        <v>1</v>
+      </c>
+      <c r="H402" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="I402" t="b">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>1185</v>
+      </c>
+      <c r="K402" t="str">
+        <v>秋篠町</v>
+      </c>
+      <c r="L402">
+        <v>135.7763536376334</v>
+      </c>
+      <c r="M402">
+        <v>34.70761470287734</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>676</v>
+      </c>
+      <c r="B403" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C403" t="str">
+        <v>西円寺前地蔵群</v>
+      </c>
+      <c r="D403" t="str">
+        <v>西円寺前地蔵群</v>
+      </c>
+      <c r="E403" t="b">
+        <v>1</v>
+      </c>
+      <c r="H403" t="str">
+        <v>2017-06-17</v>
+      </c>
+      <c r="I403" t="b">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>1190</v>
+      </c>
+      <c r="K403" t="str">
+        <v>宝来2丁目</v>
+      </c>
+      <c r="L403">
+        <v>135.7771562432109</v>
+      </c>
+      <c r="M403">
+        <v>34.681957605810226</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>677</v>
+      </c>
+      <c r="B404" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C404" t="str">
+        <v>歯痛地蔵菩薩</v>
+      </c>
+      <c r="D404" t="str">
+        <v>歯痛地蔵菩薩</v>
+      </c>
+      <c r="E404" t="b">
+        <v>1</v>
+      </c>
+      <c r="H404" t="str">
+        <v>2017-06-17</v>
+      </c>
+      <c r="I404" t="b">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>1194</v>
+      </c>
+      <c r="K404" t="str">
+        <v>宝来3丁目</v>
+      </c>
+      <c r="L404">
+        <v>135.77669663146992</v>
+      </c>
+      <c r="M404">
+        <v>34.68187016970239</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>678</v>
+      </c>
+      <c r="B405" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C405" t="str">
+        <v>乗明寺前地蔵堂</v>
+      </c>
+      <c r="D405" t="str">
+        <v>乗明寺前地蔵堂</v>
+      </c>
+      <c r="E405" t="b">
+        <v>1</v>
+      </c>
+      <c r="H405" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I405" t="b">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>1198</v>
+      </c>
+      <c r="K405" t="str">
+        <v>平松1丁目</v>
+      </c>
+      <c r="L405">
+        <v>135.77808404153876</v>
+      </c>
+      <c r="M405">
+        <v>34.67889164585498</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M397"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M405"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1152"/>
+  <dimension ref="A1:H1196"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -44145,9 +44435,1153 @@
         <v>./small_thumbs/670/IMG_8279.jpg</v>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153">
+        <v>1156</v>
+      </c>
+      <c r="B1153">
+        <v>8</v>
+      </c>
+      <c r="C1153" t="str">
+        <v>撤去された地蔵堂</v>
+      </c>
+      <c r="D1153" t="str">
+        <v>./images/8/IMG_6904.jpg</v>
+      </c>
+      <c r="E1153" t="str">
+        <v>2022-03-19T10:46:18</v>
+      </c>
+      <c r="F1153" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1153" t="str">
+        <v>./mid_thumbs/8/IMG_6904.jpg</v>
+      </c>
+      <c r="H1153" t="str">
+        <v>./small_thumbs/8/IMG_6904.jpg</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154">
+        <v>1157</v>
+      </c>
+      <c r="B1154">
+        <v>237</v>
+      </c>
+      <c r="C1154" t="str">
+        <v>見初社 地蔵盆の時の門</v>
+      </c>
+      <c r="D1154" t="str">
+        <v>./images/237/IMG_2440.jpg</v>
+      </c>
+      <c r="E1154" t="str">
+        <v>2021-07-24T11:54:42</v>
+      </c>
+      <c r="F1154" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1154" t="str">
+        <v>./mid_thumbs/237/IMG_2440.jpg</v>
+      </c>
+      <c r="H1154" t="str">
+        <v>./small_thumbs/237/IMG_2440.jpg</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155">
+        <v>1158</v>
+      </c>
+      <c r="B1155">
+        <v>237</v>
+      </c>
+      <c r="C1155" t="str">
+        <v>見初社 本殿</v>
+      </c>
+      <c r="D1155" t="str">
+        <v>./images/237/IMG_8214.jpg</v>
+      </c>
+      <c r="E1155" t="str">
+        <v>2022-05-19T15:31:25</v>
+      </c>
+      <c r="F1155" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1155" t="str">
+        <v>./mid_thumbs/237/IMG_8214.jpg</v>
+      </c>
+      <c r="H1155" t="str">
+        <v>./small_thumbs/237/IMG_8214.jpg</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156">
+        <v>1159</v>
+      </c>
+      <c r="B1156">
+        <v>237</v>
+      </c>
+      <c r="C1156" t="str">
+        <v>見初社 境内の石灯籠</v>
+      </c>
+      <c r="D1156" t="str">
+        <v>./images/237/IMG_8215.jpg</v>
+      </c>
+      <c r="E1156" t="str">
+        <v>2022-05-19T15:31:55</v>
+      </c>
+      <c r="F1156" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1156" t="str">
+        <v>./mid_thumbs/237/IMG_8215.jpg</v>
+      </c>
+      <c r="H1156" t="str">
+        <v>./small_thumbs/237/IMG_8215.jpg</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157">
+        <v>1160</v>
+      </c>
+      <c r="B1157">
+        <v>237</v>
+      </c>
+      <c r="C1157" t="str">
+        <v>見初社 境内奥の会所</v>
+      </c>
+      <c r="D1157" t="str">
+        <v>./images/237/IMG_8217.jpg</v>
+      </c>
+      <c r="E1157" t="str">
+        <v>2022-05-19T15:32:47</v>
+      </c>
+      <c r="F1157" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1157" t="str">
+        <v>./mid_thumbs/237/IMG_8217.jpg</v>
+      </c>
+      <c r="H1157" t="str">
+        <v>./small_thumbs/237/IMG_8217.jpg</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158">
+        <v>1161</v>
+      </c>
+      <c r="B1158">
+        <v>623</v>
+      </c>
+      <c r="C1158" t="str">
+        <v>見初社脇の地蔵堂</v>
+      </c>
+      <c r="D1158" t="str">
+        <v>./images/623/IMG_8216.jpg</v>
+      </c>
+      <c r="E1158" t="str">
+        <v>2022-05-19T15:32:22</v>
+      </c>
+      <c r="F1158" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1158" t="str">
+        <v>./mid_thumbs/623/IMG_8216.jpg</v>
+      </c>
+      <c r="H1158" t="str">
+        <v>./small_thumbs/623/IMG_8216.jpg</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159">
+        <v>1162</v>
+      </c>
+      <c r="B1159">
+        <v>623</v>
+      </c>
+      <c r="C1159" t="str">
+        <v>見初社脇の地蔵堂</v>
+      </c>
+      <c r="D1159" t="str">
+        <v>./images/623/IMG_8218.jpg</v>
+      </c>
+      <c r="E1159" t="str">
+        <v>2022-05-19T15:32:54</v>
+      </c>
+      <c r="F1159" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1159" t="str">
+        <v>./mid_thumbs/623/IMG_8218.jpg</v>
+      </c>
+      <c r="H1159" t="str">
+        <v>./small_thumbs/623/IMG_8218.jpg</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160">
+        <v>1163</v>
+      </c>
+      <c r="B1160">
+        <v>133</v>
+      </c>
+      <c r="C1160" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1160" t="str">
+        <v>./images/133/IMG_7901.jpg</v>
+      </c>
+      <c r="E1160" t="str">
+        <v>2022-04-23T13:51:16</v>
+      </c>
+      <c r="F1160" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1160" t="str">
+        <v>./mid_thumbs/133/IMG_7901.jpg</v>
+      </c>
+      <c r="H1160" t="str">
+        <v>./small_thumbs/133/IMG_7901.jpg</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161">
+        <v>1164</v>
+      </c>
+      <c r="B1161">
+        <v>133</v>
+      </c>
+      <c r="C1161" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1161" t="str">
+        <v>./images/133/IMG_7902.jpg</v>
+      </c>
+      <c r="E1161" t="str">
+        <v>2022-04-23T13:51:21</v>
+      </c>
+      <c r="F1161" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1161" t="str">
+        <v>./mid_thumbs/133/IMG_7902.jpg</v>
+      </c>
+      <c r="H1161" t="str">
+        <v>./small_thumbs/133/IMG_7902.jpg</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162">
+        <v>1165</v>
+      </c>
+      <c r="B1162">
+        <v>578</v>
+      </c>
+      <c r="C1162" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="D1162" t="str">
+        <v>./images/578/IMG_7900.jpg</v>
+      </c>
+      <c r="E1162" t="str">
+        <v>2022-04-23T13:49:42</v>
+      </c>
+      <c r="F1162" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1162" t="str">
+        <v>./mid_thumbs/578/IMG_7900.jpg</v>
+      </c>
+      <c r="H1162" t="str">
+        <v>./small_thumbs/578/IMG_7900.jpg</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163">
+        <v>1166</v>
+      </c>
+      <c r="B1163">
+        <v>671</v>
+      </c>
+      <c r="C1163" t="str">
+        <v>間男地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1163" t="str">
+        <v>./images/671/IMG_6987.jpg</v>
+      </c>
+      <c r="E1163" t="str">
+        <v>2022-03-19T16:31:13</v>
+      </c>
+      <c r="F1163" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1163" t="str">
+        <v>./mid_thumbs/671/IMG_6987.jpg</v>
+      </c>
+      <c r="H1163" t="str">
+        <v>./small_thumbs/671/IMG_6987.jpg</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164">
+        <v>1167</v>
+      </c>
+      <c r="B1164">
+        <v>671</v>
+      </c>
+      <c r="C1164" t="str">
+        <v>間男地蔵尊</v>
+      </c>
+      <c r="D1164" t="str">
+        <v>./images/671/IMG_6988.jpg</v>
+      </c>
+      <c r="E1164" t="str">
+        <v>2022-03-19T16:31:26</v>
+      </c>
+      <c r="F1164" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1164" t="str">
+        <v>./mid_thumbs/671/IMG_6988.jpg</v>
+      </c>
+      <c r="H1164" t="str">
+        <v>./small_thumbs/671/IMG_6988.jpg</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165">
+        <v>1168</v>
+      </c>
+      <c r="B1165">
+        <v>671</v>
+      </c>
+      <c r="C1165" t="str">
+        <v>間男地蔵尊 台座</v>
+      </c>
+      <c r="D1165" t="str">
+        <v>./images/671/IMG_6989.jpg</v>
+      </c>
+      <c r="E1165" t="str">
+        <v>2022-03-19T16:31:44</v>
+      </c>
+      <c r="F1165" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1165" t="str">
+        <v>./mid_thumbs/671/IMG_6989.jpg</v>
+      </c>
+      <c r="H1165" t="str">
+        <v>./small_thumbs/671/IMG_6989.jpg</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166">
+        <v>1169</v>
+      </c>
+      <c r="B1166">
+        <v>671</v>
+      </c>
+      <c r="C1166" t="str">
+        <v>間男地蔵尊 台座</v>
+      </c>
+      <c r="D1166" t="str">
+        <v>./images/671/IMG_6990.jpg</v>
+      </c>
+      <c r="E1166" t="str">
+        <v>2022-03-19T16:31:56</v>
+      </c>
+      <c r="F1166" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1166" t="str">
+        <v>./mid_thumbs/671/IMG_6990.jpg</v>
+      </c>
+      <c r="H1166" t="str">
+        <v>./small_thumbs/671/IMG_6990.jpg</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167">
+        <v>1170</v>
+      </c>
+      <c r="B1167">
+        <v>671</v>
+      </c>
+      <c r="C1167" t="str">
+        <v>間男地蔵尊 石灯籠</v>
+      </c>
+      <c r="D1167" t="str">
+        <v>./images/671/IMG_6991.jpg</v>
+      </c>
+      <c r="E1167" t="str">
+        <v>2022-03-19T16:32:19</v>
+      </c>
+      <c r="F1167" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1167" t="str">
+        <v>./mid_thumbs/671/IMG_6991.jpg</v>
+      </c>
+      <c r="H1167" t="str">
+        <v>./small_thumbs/671/IMG_6991.jpg</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168">
+        <v>1171</v>
+      </c>
+      <c r="B1168">
+        <v>672</v>
+      </c>
+      <c r="C1168" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1168" t="str">
+        <v>./images/672/IMG_6994.jpg</v>
+      </c>
+      <c r="E1168" t="str">
+        <v>2022-03-19T17:08:34</v>
+      </c>
+      <c r="F1168" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1168" t="str">
+        <v>./mid_thumbs/672/IMG_6994.jpg</v>
+      </c>
+      <c r="H1168" t="str">
+        <v>./small_thumbs/672/IMG_6994.jpg</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169">
+        <v>1172</v>
+      </c>
+      <c r="B1169">
+        <v>672</v>
+      </c>
+      <c r="C1169" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1169" t="str">
+        <v>./images/672/IMG_6995.jpg</v>
+      </c>
+      <c r="E1169" t="str">
+        <v>2022-03-19T17:08:42</v>
+      </c>
+      <c r="F1169" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1169" t="str">
+        <v>./mid_thumbs/672/IMG_6995.jpg</v>
+      </c>
+      <c r="H1169" t="str">
+        <v>./small_thumbs/672/IMG_6995.jpg</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170">
+        <v>1173</v>
+      </c>
+      <c r="B1170">
+        <v>672</v>
+      </c>
+      <c r="C1170" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1170" t="str">
+        <v>./images/672/IMG_6996.jpg</v>
+      </c>
+      <c r="E1170" t="str">
+        <v>2022-03-19T17:08:53</v>
+      </c>
+      <c r="F1170" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1170" t="str">
+        <v>./mid_thumbs/672/IMG_6996.jpg</v>
+      </c>
+      <c r="H1170" t="str">
+        <v>./small_thumbs/672/IMG_6996.jpg</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171">
+        <v>1174</v>
+      </c>
+      <c r="B1171">
+        <v>672</v>
+      </c>
+      <c r="C1171" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1171" t="str">
+        <v>./images/672/IMG_6997.jpg</v>
+      </c>
+      <c r="E1171" t="str">
+        <v>2022-03-19T17:09:00</v>
+      </c>
+      <c r="F1171" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1171" t="str">
+        <v>./mid_thumbs/672/IMG_6997.jpg</v>
+      </c>
+      <c r="H1171" t="str">
+        <v>./small_thumbs/672/IMG_6997.jpg</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172">
+        <v>1175</v>
+      </c>
+      <c r="B1172">
+        <v>673</v>
+      </c>
+      <c r="C1172" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1172" t="str">
+        <v>./images/673/IMG_6999.jpg</v>
+      </c>
+      <c r="E1172" t="str">
+        <v>2022-03-19T17:15:09</v>
+      </c>
+      <c r="F1172" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1172" t="str">
+        <v>./mid_thumbs/673/IMG_6999.jpg</v>
+      </c>
+      <c r="H1172" t="str">
+        <v>./small_thumbs/673/IMG_6999.jpg</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173">
+        <v>1176</v>
+      </c>
+      <c r="B1173">
+        <v>673</v>
+      </c>
+      <c r="C1173" t="str">
+        <v>地蔵堂 右奥</v>
+      </c>
+      <c r="D1173" t="str">
+        <v>./images/673/IMG_7001.jpg</v>
+      </c>
+      <c r="E1173" t="str">
+        <v>2022-03-19T17:15:15</v>
+      </c>
+      <c r="F1173" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1173" t="str">
+        <v>./mid_thumbs/673/IMG_7001.jpg</v>
+      </c>
+      <c r="H1173" t="str">
+        <v>./small_thumbs/673/IMG_7001.jpg</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174">
+        <v>1177</v>
+      </c>
+      <c r="B1174">
+        <v>673</v>
+      </c>
+      <c r="C1174" t="str">
+        <v>地蔵堂 左奥</v>
+      </c>
+      <c r="D1174" t="str">
+        <v>./images/673/IMG_7002.jpg</v>
+      </c>
+      <c r="E1174" t="str">
+        <v>2022-03-19T17:15:21</v>
+      </c>
+      <c r="F1174" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1174" t="str">
+        <v>./mid_thumbs/673/IMG_7002.jpg</v>
+      </c>
+      <c r="H1174" t="str">
+        <v>./small_thumbs/673/IMG_7002.jpg</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175">
+        <v>1178</v>
+      </c>
+      <c r="B1175">
+        <v>673</v>
+      </c>
+      <c r="C1175" t="str">
+        <v>地蔵堂 中央</v>
+      </c>
+      <c r="D1175" t="str">
+        <v>./images/673/IMG_7003.jpg</v>
+      </c>
+      <c r="E1175" t="str">
+        <v>2022-03-19T17:15:30</v>
+      </c>
+      <c r="F1175" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1175" t="str">
+        <v>./mid_thumbs/673/IMG_7003.jpg</v>
+      </c>
+      <c r="H1175" t="str">
+        <v>./small_thumbs/673/IMG_7003.jpg</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176">
+        <v>1179</v>
+      </c>
+      <c r="B1176">
+        <v>673</v>
+      </c>
+      <c r="C1176" t="str">
+        <v>地蔵堂 中央</v>
+      </c>
+      <c r="D1176" t="str">
+        <v>./images/673/IMG_7004.jpg</v>
+      </c>
+      <c r="E1176" t="str">
+        <v>2022-03-19T17:15:33</v>
+      </c>
+      <c r="F1176" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1176" t="str">
+        <v>./mid_thumbs/673/IMG_7004.jpg</v>
+      </c>
+      <c r="H1176" t="str">
+        <v>./small_thumbs/673/IMG_7004.jpg</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177">
+        <v>1180</v>
+      </c>
+      <c r="B1177">
+        <v>673</v>
+      </c>
+      <c r="C1177" t="str">
+        <v>地蔵堂 左奥</v>
+      </c>
+      <c r="D1177" t="str">
+        <v>./images/673/IMG_7005.jpg</v>
+      </c>
+      <c r="E1177" t="str">
+        <v>2022-03-19T17:15:39</v>
+      </c>
+      <c r="F1177" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1177" t="str">
+        <v>./mid_thumbs/673/IMG_7005.jpg</v>
+      </c>
+      <c r="H1177" t="str">
+        <v>./small_thumbs/673/IMG_7005.jpg</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178">
+        <v>1181</v>
+      </c>
+      <c r="B1178">
+        <v>674</v>
+      </c>
+      <c r="C1178" t="str">
+        <v>いぬい池脇地蔵尊 堤下から</v>
+      </c>
+      <c r="D1178" t="str">
+        <v>./images/674/IMG_7007.jpg</v>
+      </c>
+      <c r="E1178" t="str">
+        <v>2022-03-19T17:27:30</v>
+      </c>
+      <c r="F1178" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1178" t="str">
+        <v>./mid_thumbs/674/IMG_7007.jpg</v>
+      </c>
+      <c r="H1178" t="str">
+        <v>./small_thumbs/674/IMG_7007.jpg</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179">
+        <v>1182</v>
+      </c>
+      <c r="B1179">
+        <v>674</v>
+      </c>
+      <c r="C1179" t="str">
+        <v>いぬい池脇地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1179" t="str">
+        <v>./images/674/IMG_7008.jpg</v>
+      </c>
+      <c r="E1179" t="str">
+        <v>2022-03-19T17:27:42</v>
+      </c>
+      <c r="F1179" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1179" t="str">
+        <v>./mid_thumbs/674/IMG_7008.jpg</v>
+      </c>
+      <c r="H1179" t="str">
+        <v>./small_thumbs/674/IMG_7008.jpg</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180">
+        <v>1183</v>
+      </c>
+      <c r="B1180">
+        <v>674</v>
+      </c>
+      <c r="C1180" t="str">
+        <v>いぬい池脇地蔵尊</v>
+      </c>
+      <c r="D1180" t="str">
+        <v>./images/674/IMG_7009.jpg</v>
+      </c>
+      <c r="E1180" t="str">
+        <v>2022-03-19T17:27:49</v>
+      </c>
+      <c r="F1180" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1180" t="str">
+        <v>./mid_thumbs/674/IMG_7009.jpg</v>
+      </c>
+      <c r="H1180" t="str">
+        <v>./small_thumbs/674/IMG_7009.jpg</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181">
+        <v>1184</v>
+      </c>
+      <c r="B1181">
+        <v>674</v>
+      </c>
+      <c r="C1181" t="str">
+        <v>いぬい池脇地蔵尊 池との位置関係</v>
+      </c>
+      <c r="D1181" t="str">
+        <v>./images/674/IMG_7010.jpg</v>
+      </c>
+      <c r="E1181" t="str">
+        <v>2022-03-19T17:28:02</v>
+      </c>
+      <c r="F1181" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1181" t="str">
+        <v>./mid_thumbs/674/IMG_7010.jpg</v>
+      </c>
+      <c r="H1181" t="str">
+        <v>./small_thumbs/674/IMG_7010.jpg</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182">
+        <v>1185</v>
+      </c>
+      <c r="B1182">
+        <v>675</v>
+      </c>
+      <c r="C1182" t="str">
+        <v>いぬい池地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1182" t="str">
+        <v>./images/675/IMG_7011.jpg</v>
+      </c>
+      <c r="E1182" t="str">
+        <v>2022-03-19T17:29:09</v>
+      </c>
+      <c r="F1182" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1182" t="str">
+        <v>./mid_thumbs/675/IMG_7011.jpg</v>
+      </c>
+      <c r="H1182" t="str">
+        <v>./small_thumbs/675/IMG_7011.jpg</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183">
+        <v>1186</v>
+      </c>
+      <c r="B1183">
+        <v>675</v>
+      </c>
+      <c r="C1183" t="str">
+        <v>いぬい池地蔵尊 内部</v>
+      </c>
+      <c r="D1183" t="str">
+        <v>./images/675/IMG_7012.jpg</v>
+      </c>
+      <c r="E1183" t="str">
+        <v>2022-03-19T17:29:19</v>
+      </c>
+      <c r="F1183" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1183" t="str">
+        <v>./mid_thumbs/675/IMG_7012.jpg</v>
+      </c>
+      <c r="H1183" t="str">
+        <v>./small_thumbs/675/IMG_7012.jpg</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184">
+        <v>1187</v>
+      </c>
+      <c r="B1184">
+        <v>675</v>
+      </c>
+      <c r="C1184" t="str">
+        <v>いぬい池地蔵尊 左奥の如意輪観音</v>
+      </c>
+      <c r="D1184" t="str">
+        <v>./images/675/IMG_7013.jpg</v>
+      </c>
+      <c r="E1184" t="str">
+        <v>2022-03-19T17:29:40</v>
+      </c>
+      <c r="F1184" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1184" t="str">
+        <v>./mid_thumbs/675/IMG_7013.jpg</v>
+      </c>
+      <c r="H1184" t="str">
+        <v>./small_thumbs/675/IMG_7013.jpg</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185">
+        <v>1188</v>
+      </c>
+      <c r="B1185">
+        <v>675</v>
+      </c>
+      <c r="C1185" t="str">
+        <v>いぬい池地蔵尊</v>
+      </c>
+      <c r="D1185" t="str">
+        <v>./images/675/IMG_7014.jpg</v>
+      </c>
+      <c r="E1185" t="str">
+        <v>2022-03-19T17:30:18</v>
+      </c>
+      <c r="F1185" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1185" t="str">
+        <v>./mid_thumbs/675/IMG_7014.jpg</v>
+      </c>
+      <c r="H1185" t="str">
+        <v>./small_thumbs/675/IMG_7014.jpg</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186">
+        <v>1189</v>
+      </c>
+      <c r="B1186">
+        <v>675</v>
+      </c>
+      <c r="C1186" t="str">
+        <v>いぬい池地蔵尊 右奥</v>
+      </c>
+      <c r="D1186" t="str">
+        <v>./images/675/IMG_7015.jpg</v>
+      </c>
+      <c r="E1186" t="str">
+        <v>2022-03-19T17:30:22</v>
+      </c>
+      <c r="F1186" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1186" t="str">
+        <v>./mid_thumbs/675/IMG_7015.jpg</v>
+      </c>
+      <c r="H1186" t="str">
+        <v>./small_thumbs/675/IMG_7015.jpg</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187">
+        <v>1190</v>
+      </c>
+      <c r="B1187">
+        <v>676</v>
+      </c>
+      <c r="C1187" t="str">
+        <v>西円寺前地蔵群</v>
+      </c>
+      <c r="D1187" t="str">
+        <v>./images/676/IMG_2364.jpg</v>
+      </c>
+      <c r="E1187" t="str">
+        <v>2017-06-17T14:06:25</v>
+      </c>
+      <c r="F1187" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1187" t="str">
+        <v>./mid_thumbs/676/IMG_2364.jpg</v>
+      </c>
+      <c r="H1187" t="str">
+        <v>./small_thumbs/676/IMG_2364.jpg</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188">
+        <v>1191</v>
+      </c>
+      <c r="B1188">
+        <v>676</v>
+      </c>
+      <c r="C1188" t="str">
+        <v>西円寺前地蔵群 部分</v>
+      </c>
+      <c r="D1188" t="str">
+        <v>./images/676/IMG_2365.jpg</v>
+      </c>
+      <c r="E1188" t="str">
+        <v>2017-06-17T14:06:34</v>
+      </c>
+      <c r="F1188" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1188" t="str">
+        <v>./mid_thumbs/676/IMG_2365.jpg</v>
+      </c>
+      <c r="H1188" t="str">
+        <v>./small_thumbs/676/IMG_2365.jpg</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189">
+        <v>1192</v>
+      </c>
+      <c r="B1189">
+        <v>676</v>
+      </c>
+      <c r="C1189" t="str">
+        <v>西円寺門前</v>
+      </c>
+      <c r="D1189" t="str">
+        <v>./images/676/IMG_2366.jpg</v>
+      </c>
+      <c r="E1189" t="str">
+        <v>2017-06-17T14:06:47</v>
+      </c>
+      <c r="F1189" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1189" t="str">
+        <v>./mid_thumbs/676/IMG_2366.jpg</v>
+      </c>
+      <c r="H1189" t="str">
+        <v>./small_thumbs/676/IMG_2366.jpg</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190">
+        <v>1193</v>
+      </c>
+      <c r="B1190">
+        <v>677</v>
+      </c>
+      <c r="C1190" t="str">
+        <v>歯痛地蔵菩薩 石碑</v>
+      </c>
+      <c r="D1190" t="str">
+        <v>./images/677/IMG_2368.jpg</v>
+      </c>
+      <c r="E1190" t="str">
+        <v>2017-06-17T14:08:31</v>
+      </c>
+      <c r="F1190" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1190" t="str">
+        <v>./mid_thumbs/677/IMG_2368.jpg</v>
+      </c>
+      <c r="H1190" t="str">
+        <v>./small_thumbs/677/IMG_2368.jpg</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191">
+        <v>1194</v>
+      </c>
+      <c r="B1191">
+        <v>677</v>
+      </c>
+      <c r="C1191" t="str">
+        <v>歯痛地蔵菩薩 地蔵堂</v>
+      </c>
+      <c r="D1191" t="str">
+        <v>./images/677/IMG_2369.jpg</v>
+      </c>
+      <c r="E1191" t="str">
+        <v>2017-06-17T14:08:36</v>
+      </c>
+      <c r="F1191" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1191" t="str">
+        <v>./mid_thumbs/677/IMG_2369.jpg</v>
+      </c>
+      <c r="H1191" t="str">
+        <v>./small_thumbs/677/IMG_2369.jpg</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192">
+        <v>1195</v>
+      </c>
+      <c r="B1192">
+        <v>677</v>
+      </c>
+      <c r="C1192" t="str">
+        <v>歯痛地蔵菩薩</v>
+      </c>
+      <c r="D1192" t="str">
+        <v>./images/677/IMG_2370.jpg</v>
+      </c>
+      <c r="E1192" t="str">
+        <v>2017-06-17T14:08:49</v>
+      </c>
+      <c r="F1192" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1192" t="str">
+        <v>./mid_thumbs/677/IMG_2370.jpg</v>
+      </c>
+      <c r="H1192" t="str">
+        <v>./small_thumbs/677/IMG_2370.jpg</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193">
+        <v>1196</v>
+      </c>
+      <c r="B1193">
+        <v>677</v>
+      </c>
+      <c r="C1193" t="str">
+        <v>歯痛地蔵菩薩 右奥</v>
+      </c>
+      <c r="D1193" t="str">
+        <v>./images/677/IMG_2371.jpg</v>
+      </c>
+      <c r="E1193" t="str">
+        <v>2017-06-17T14:08:55</v>
+      </c>
+      <c r="F1193" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1193" t="str">
+        <v>./mid_thumbs/677/IMG_2371.jpg</v>
+      </c>
+      <c r="H1193" t="str">
+        <v>./small_thumbs/677/IMG_2371.jpg</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194">
+        <v>1197</v>
+      </c>
+      <c r="B1194">
+        <v>677</v>
+      </c>
+      <c r="C1194" t="str">
+        <v>歯痛地蔵菩薩</v>
+      </c>
+      <c r="D1194" t="str">
+        <v>./images/677/IMG_2372.jpg</v>
+      </c>
+      <c r="E1194" t="str">
+        <v>2017-06-17T14:09:00</v>
+      </c>
+      <c r="F1194" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1194" t="str">
+        <v>./mid_thumbs/677/IMG_2372.jpg</v>
+      </c>
+      <c r="H1194" t="str">
+        <v>./small_thumbs/677/IMG_2372.jpg</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195">
+        <v>1198</v>
+      </c>
+      <c r="B1195">
+        <v>678</v>
+      </c>
+      <c r="C1195" t="str">
+        <v>乗明寺前地蔵堂</v>
+      </c>
+      <c r="D1195" t="str">
+        <v>./images/678/IMG_1501.jpg</v>
+      </c>
+      <c r="E1195" t="str">
+        <v>2017-05-01T16:12:51</v>
+      </c>
+      <c r="F1195" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1195" t="str">
+        <v>./mid_thumbs/678/IMG_1501.jpg</v>
+      </c>
+      <c r="H1195" t="str">
+        <v>./small_thumbs/678/IMG_1501.jpg</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196">
+        <v>1199</v>
+      </c>
+      <c r="B1196">
+        <v>678</v>
+      </c>
+      <c r="C1196" t="str">
+        <v>乗明寺前地蔵堂 内部</v>
+      </c>
+      <c r="D1196" t="str">
+        <v>./images/678/IMG_1502.jpg</v>
+      </c>
+      <c r="E1196" t="str">
+        <v>2017-05-01T16:13:04</v>
+      </c>
+      <c r="F1196" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1196" t="str">
+        <v>./mid_thumbs/678/IMG_1502.jpg</v>
+      </c>
+      <c r="H1196" t="str">
+        <v>./small_thumbs/678/IMG_1502.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1152"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1196"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M411"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -14469,16 +14469,229 @@
         <v>34.67889164585498</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406">
+        <v>679</v>
+      </c>
+      <c r="B406" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C406" t="str">
+        <v>子安地蔵尊</v>
+      </c>
+      <c r="D406" t="str">
+        <v>子安地蔵尊</v>
+      </c>
+      <c r="E406" t="b">
+        <v>1</v>
+      </c>
+      <c r="H406" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I406" t="b">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>1200</v>
+      </c>
+      <c r="K406" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L406">
+        <v>135.78129532133363</v>
+      </c>
+      <c r="M406">
+        <v>34.66787074031425</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>680</v>
+      </c>
+      <c r="B407" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C407" t="str">
+        <v>観音寺 木蔵十一面観音立像</v>
+      </c>
+      <c r="D407" t="str">
+        <v>木蔵十一面観音立像</v>
+      </c>
+      <c r="E407" t="b">
+        <v>1</v>
+      </c>
+      <c r="H407" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I407" t="b">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>1202</v>
+      </c>
+      <c r="K407" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L407">
+        <v>135.78124387225816</v>
+      </c>
+      <c r="M407">
+        <v>34.66799486412816</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>681</v>
+      </c>
+      <c r="B408" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C408" t="str">
+        <v>高松大善神</v>
+      </c>
+      <c r="D408" t="str">
+        <v>高松大善神など</v>
+      </c>
+      <c r="E408" t="b">
+        <v>1</v>
+      </c>
+      <c r="F408" t="str">
+        <v>判読正確か不明</v>
+      </c>
+      <c r="H408" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I408" t="b">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>1204</v>
+      </c>
+      <c r="K408" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L408">
+        <v>135.7812430147736</v>
+      </c>
+      <c r="M408">
+        <v>34.668042821006466</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>682</v>
+      </c>
+      <c r="B409" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C409" t="str">
+        <v>不動明王石塚</v>
+      </c>
+      <c r="D409" t="str">
+        <v>不動明王石塚</v>
+      </c>
+      <c r="E409" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I409" t="b">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>1205</v>
+      </c>
+      <c r="K409" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L409">
+        <v>135.78124815968113</v>
+      </c>
+      <c r="M409">
+        <v>34.66805974695688</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>683</v>
+      </c>
+      <c r="B410" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C410" t="str">
+        <v>西波天神社参道脇名号石碑など</v>
+      </c>
+      <c r="D410" t="str">
+        <v>名号石碑など</v>
+      </c>
+      <c r="E410" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I410" t="b">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>1206</v>
+      </c>
+      <c r="K410" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L410">
+        <v>135.78127988661103</v>
+      </c>
+      <c r="M410">
+        <v>34.668058336461144</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>684</v>
+      </c>
+      <c r="B411" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C411" t="str">
+        <v>観音寺前地蔵群</v>
+      </c>
+      <c r="D411" t="str">
+        <v>観音寺前地蔵群</v>
+      </c>
+      <c r="E411" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" t="str">
+        <v>2017-12-22</v>
+      </c>
+      <c r="I411" t="b">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>1208</v>
+      </c>
+      <c r="K411" t="str">
+        <v>六条1丁目</v>
+      </c>
+      <c r="L411">
+        <v>135.78131761593306</v>
+      </c>
+      <c r="M411">
+        <v>34.66802025306719</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M405"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M411"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1196"/>
+  <dimension ref="A1:H1205"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -45579,9 +45792,243 @@
         <v>./small_thumbs/678/IMG_1502.jpg</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197">
+        <v>1200</v>
+      </c>
+      <c r="B1197">
+        <v>679</v>
+      </c>
+      <c r="C1197" t="str">
+        <v>子安地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1197" t="str">
+        <v>./images/679/IMG_4373.jpg</v>
+      </c>
+      <c r="E1197" t="str">
+        <v>2017-12-22T13:20:54</v>
+      </c>
+      <c r="F1197" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1197" t="str">
+        <v>./mid_thumbs/679/IMG_4373.jpg</v>
+      </c>
+      <c r="H1197" t="str">
+        <v>./small_thumbs/679/IMG_4373.jpg</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198">
+        <v>1201</v>
+      </c>
+      <c r="B1198">
+        <v>679</v>
+      </c>
+      <c r="C1198" t="str">
+        <v>子安地蔵尊</v>
+      </c>
+      <c r="D1198" t="str">
+        <v>./images/679/IMG_4374.jpg</v>
+      </c>
+      <c r="E1198" t="str">
+        <v>2017-12-22T13:21:00</v>
+      </c>
+      <c r="F1198" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1198" t="str">
+        <v>./mid_thumbs/679/IMG_4374.jpg</v>
+      </c>
+      <c r="H1198" t="str">
+        <v>./small_thumbs/679/IMG_4374.jpg</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199">
+        <v>1202</v>
+      </c>
+      <c r="B1199">
+        <v>680</v>
+      </c>
+      <c r="C1199" t="str">
+        <v>観音寺 木蔵十一面観音立像</v>
+      </c>
+      <c r="D1199" t="str">
+        <v>./images/680/IMG_4376.jpg</v>
+      </c>
+      <c r="E1199" t="str">
+        <v>2017-12-22T13:22:26</v>
+      </c>
+      <c r="F1199" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1199" t="str">
+        <v>./mid_thumbs/680/IMG_4376.jpg</v>
+      </c>
+      <c r="H1199" t="str">
+        <v>./small_thumbs/680/IMG_4376.jpg</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200">
+        <v>1203</v>
+      </c>
+      <c r="B1200">
+        <v>681</v>
+      </c>
+      <c r="C1200" t="str">
+        <v>高松大善神</v>
+      </c>
+      <c r="D1200" t="str">
+        <v>./images/681/IMG_4377.jpg</v>
+      </c>
+      <c r="E1200" t="str">
+        <v>2017-12-22T13:24:05</v>
+      </c>
+      <c r="F1200" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1200" t="str">
+        <v>./mid_thumbs/681/IMG_4377.jpg</v>
+      </c>
+      <c r="H1200" t="str">
+        <v>./small_thumbs/681/IMG_4377.jpg</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201">
+        <v>1204</v>
+      </c>
+      <c r="B1201">
+        <v>681</v>
+      </c>
+      <c r="C1201" t="str">
+        <v>高松大善神</v>
+      </c>
+      <c r="D1201" t="str">
+        <v>./images/681/IMG_4378.jpg</v>
+      </c>
+      <c r="E1201" t="str">
+        <v>2017-12-22T13:24:12</v>
+      </c>
+      <c r="F1201" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1201" t="str">
+        <v>./mid_thumbs/681/IMG_4378.jpg</v>
+      </c>
+      <c r="H1201" t="str">
+        <v>./small_thumbs/681/IMG_4378.jpg</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202">
+        <v>1205</v>
+      </c>
+      <c r="B1202">
+        <v>682</v>
+      </c>
+      <c r="C1202" t="str">
+        <v>不動明王石塚</v>
+      </c>
+      <c r="D1202" t="str">
+        <v>./images/682/IMG_4379.jpg</v>
+      </c>
+      <c r="E1202" t="str">
+        <v>2017-12-22T13:24:19</v>
+      </c>
+      <c r="F1202" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1202" t="str">
+        <v>./mid_thumbs/682/IMG_4379.jpg</v>
+      </c>
+      <c r="H1202" t="str">
+        <v>./small_thumbs/682/IMG_4379.jpg</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203">
+        <v>1206</v>
+      </c>
+      <c r="B1203">
+        <v>683</v>
+      </c>
+      <c r="C1203" t="str">
+        <v>西波天神社参道脇名号石碑など</v>
+      </c>
+      <c r="D1203" t="str">
+        <v>./images/683/IMG_4380.jpg</v>
+      </c>
+      <c r="E1203" t="str">
+        <v>2017-12-22T13:24:26</v>
+      </c>
+      <c r="F1203" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1203" t="str">
+        <v>./mid_thumbs/683/IMG_4380.jpg</v>
+      </c>
+      <c r="H1203" t="str">
+        <v>./small_thumbs/683/IMG_4380.jpg</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204">
+        <v>1207</v>
+      </c>
+      <c r="B1204">
+        <v>683</v>
+      </c>
+      <c r="C1204" t="str">
+        <v>西波天神社参道脇名号石碑など</v>
+      </c>
+      <c r="D1204" t="str">
+        <v>./images/683/IMG_4381.jpg</v>
+      </c>
+      <c r="E1204" t="str">
+        <v>2017-12-22T13:24:34</v>
+      </c>
+      <c r="F1204" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1204" t="str">
+        <v>./mid_thumbs/683/IMG_4381.jpg</v>
+      </c>
+      <c r="H1204" t="str">
+        <v>./small_thumbs/683/IMG_4381.jpg</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205">
+        <v>1208</v>
+      </c>
+      <c r="B1205">
+        <v>684</v>
+      </c>
+      <c r="C1205" t="str">
+        <v>観音寺前地蔵群</v>
+      </c>
+      <c r="D1205" t="str">
+        <v>./images/684/IMG_4387.jpg</v>
+      </c>
+      <c r="E1205" t="str">
+        <v>2017-12-22T13:31:35</v>
+      </c>
+      <c r="F1205" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1205" t="str">
+        <v>./mid_thumbs/684/IMG_4387.jpg</v>
+      </c>
+      <c r="H1205" t="str">
+        <v>./small_thumbs/684/IMG_4387.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1196"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1205"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M415"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -12307,13 +12307,19 @@
         <v>押熊町 蛭池地蔵尊</v>
       </c>
       <c r="E344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344" t="str">
-        <v>ブログ記事で発見。要現地調査。</v>
+        <v/>
+      </c>
+      <c r="H344" t="str">
+        <v>2020-08-10</v>
       </c>
       <c r="I344" t="b">
         <v>0</v>
+      </c>
+      <c r="J344">
+        <v>1213</v>
       </c>
       <c r="K344" t="str">
         <v>押熊町</v>
@@ -12339,13 +12345,19 @@
         <v>東九条町 地蔵堂</v>
       </c>
       <c r="E345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345" t="str">
-        <v>Google StreetViewで発見。要現地調査。</v>
+        <v/>
+      </c>
+      <c r="H345" t="str">
+        <v>2020-08-09</v>
       </c>
       <c r="I345" t="b">
         <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1215</v>
       </c>
       <c r="K345" t="str">
         <v>東九条町</v>
@@ -14682,16 +14694,141 @@
         <v>34.66802025306719</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412">
+        <v>685</v>
+      </c>
+      <c r="B412" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C412" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D412" t="str">
+        <v/>
+      </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+      <c r="F412" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I412" t="b">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>135.78701131361993</v>
+      </c>
+      <c r="M412">
+        <v>34.66740739011604</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>686</v>
+      </c>
+      <c r="B413" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C413" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+      <c r="F413" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I413" t="b">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>135.83180116376718</v>
+      </c>
+      <c r="M413">
+        <v>34.69389670321959</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>687</v>
+      </c>
+      <c r="B414" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C414" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D414" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="E414" t="b">
+        <v>1</v>
+      </c>
+      <c r="H414" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I414" t="b">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>1209</v>
+      </c>
+      <c r="K414" t="str">
+        <v>六条町</v>
+      </c>
+      <c r="L414">
+        <v>135.78807973942074</v>
+      </c>
+      <c r="M414">
+        <v>34.66848924179152</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>688</v>
+      </c>
+      <c r="B415" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C415" t="str">
+        <v>大通寺門前の地蔵</v>
+      </c>
+      <c r="D415" t="str">
+        <v>大通寺門前の地蔵</v>
+      </c>
+      <c r="E415" t="b">
+        <v>1</v>
+      </c>
+      <c r="H415" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I415" t="b">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>1211</v>
+      </c>
+      <c r="K415" t="str">
+        <v>六条町</v>
+      </c>
+      <c r="L415">
+        <v>135.7881311884962</v>
+      </c>
+      <c r="M415">
+        <v>34.66972199949083</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M411"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M415"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1205"/>
+  <dimension ref="A1:H1214"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -46026,9 +46163,243 @@
         <v>./small_thumbs/684/IMG_4387.jpg</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206">
+        <v>1209</v>
+      </c>
+      <c r="B1206">
+        <v>687</v>
+      </c>
+      <c r="C1206" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1206" t="str">
+        <v>./images/687/IMG_1531.jpg</v>
+      </c>
+      <c r="E1206" t="str">
+        <v>2017-05-01T16:50:29</v>
+      </c>
+      <c r="F1206" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1206" t="str">
+        <v>./mid_thumbs/687/IMG_1531.jpg</v>
+      </c>
+      <c r="H1206" t="str">
+        <v>./small_thumbs/687/IMG_1531.jpg</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207">
+        <v>1210</v>
+      </c>
+      <c r="B1207">
+        <v>687</v>
+      </c>
+      <c r="C1207" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1207" t="str">
+        <v>./images/687/IMG_1532.jpg</v>
+      </c>
+      <c r="E1207" t="str">
+        <v>2017-05-01T16:50:37</v>
+      </c>
+      <c r="F1207" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1207" t="str">
+        <v>./mid_thumbs/687/IMG_1532.jpg</v>
+      </c>
+      <c r="H1207" t="str">
+        <v>./small_thumbs/687/IMG_1532.jpg</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208">
+        <v>1211</v>
+      </c>
+      <c r="B1208">
+        <v>688</v>
+      </c>
+      <c r="C1208" t="str">
+        <v>大通寺門前の地蔵</v>
+      </c>
+      <c r="D1208" t="str">
+        <v>./images/688/IMG_1529.jpg</v>
+      </c>
+      <c r="E1208" t="str">
+        <v>2017-05-01T16:49:15</v>
+      </c>
+      <c r="F1208" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1208" t="str">
+        <v>./mid_thumbs/688/IMG_1529.jpg</v>
+      </c>
+      <c r="H1208" t="str">
+        <v>./small_thumbs/688/IMG_1529.jpg</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209">
+        <v>1212</v>
+      </c>
+      <c r="B1209">
+        <v>688</v>
+      </c>
+      <c r="C1209" t="str">
+        <v>大通寺門前の地蔵 内部</v>
+      </c>
+      <c r="D1209" t="str">
+        <v>./images/688/IMG_1530.jpg</v>
+      </c>
+      <c r="E1209" t="str">
+        <v>2017-05-01T16:49:22</v>
+      </c>
+      <c r="F1209" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1209" t="str">
+        <v>./mid_thumbs/688/IMG_1530.jpg</v>
+      </c>
+      <c r="H1209" t="str">
+        <v>./small_thumbs/688/IMG_1530.jpg</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210">
+        <v>1213</v>
+      </c>
+      <c r="B1210">
+        <v>617</v>
+      </c>
+      <c r="C1210" t="str">
+        <v>蛭池地蔵尊</v>
+      </c>
+      <c r="D1210" t="str">
+        <v>./images/617/IMG_8389.jpg</v>
+      </c>
+      <c r="E1210" t="str">
+        <v>2020-08-10T14:39:14</v>
+      </c>
+      <c r="F1210" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1210" t="str">
+        <v>./mid_thumbs/617/IMG_8389.jpg</v>
+      </c>
+      <c r="H1210" t="str">
+        <v>./small_thumbs/617/IMG_8389.jpg</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211">
+        <v>1214</v>
+      </c>
+      <c r="B1211">
+        <v>617</v>
+      </c>
+      <c r="C1211" t="str">
+        <v>蛭池地蔵尊 内部</v>
+      </c>
+      <c r="D1211" t="str">
+        <v>./images/617/IMG_8390.jpg</v>
+      </c>
+      <c r="E1211" t="str">
+        <v>2020-08-10T14:39:22</v>
+      </c>
+      <c r="F1211" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1211" t="str">
+        <v>./mid_thumbs/617/IMG_8390.jpg</v>
+      </c>
+      <c r="H1211" t="str">
+        <v>./small_thumbs/617/IMG_8390.jpg</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212">
+        <v>1215</v>
+      </c>
+      <c r="B1212">
+        <v>618</v>
+      </c>
+      <c r="C1212" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1212" t="str">
+        <v>./images/618/IMG_8205.jpg</v>
+      </c>
+      <c r="E1212" t="str">
+        <v>2020-08-09T17:35:04</v>
+      </c>
+      <c r="F1212" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1212" t="str">
+        <v>./mid_thumbs/618/IMG_8205.jpg</v>
+      </c>
+      <c r="H1212" t="str">
+        <v>./small_thumbs/618/IMG_8205.jpg</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213">
+        <v>1216</v>
+      </c>
+      <c r="B1213">
+        <v>618</v>
+      </c>
+      <c r="C1213" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1213" t="str">
+        <v>./images/618/IMG_8206.jpg</v>
+      </c>
+      <c r="E1213" t="str">
+        <v>2020-08-09T17:35:19</v>
+      </c>
+      <c r="F1213" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1213" t="str">
+        <v>./mid_thumbs/618/IMG_8206.jpg</v>
+      </c>
+      <c r="H1213" t="str">
+        <v>./small_thumbs/618/IMG_8206.jpg</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214">
+        <v>1217</v>
+      </c>
+      <c r="B1214">
+        <v>618</v>
+      </c>
+      <c r="C1214" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1214" t="str">
+        <v>./images/618/IMG_8207.jpg</v>
+      </c>
+      <c r="E1214" t="str">
+        <v>2020-08-09T17:35:33</v>
+      </c>
+      <c r="F1214" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1214" t="str">
+        <v>./mid_thumbs/618/IMG_8207.jpg</v>
+      </c>
+      <c r="H1214" t="str">
+        <v>./small_thumbs/618/IMG_8207.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1205"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1214"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M415"/>
+  <dimension ref="A1:M419"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -14819,16 +14819,159 @@
         <v>34.66972199949083</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416">
+        <v>689</v>
+      </c>
+      <c r="B416" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C416" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D416" t="str">
+        <v>法華寺新町地蔵堂</v>
+      </c>
+      <c r="E416" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I416" t="b">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>1218</v>
+      </c>
+      <c r="K416" t="str">
+        <v>法華寺新町</v>
+      </c>
+      <c r="L416">
+        <v>135.8040083731906</v>
+      </c>
+      <c r="M416">
+        <v>34.694161793263646</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>690</v>
+      </c>
+      <c r="B417" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C417" t="str">
+        <v>交通安全大日大聖不動</v>
+      </c>
+      <c r="D417" t="str">
+        <v>交通安全大日大聖不動</v>
+      </c>
+      <c r="E417" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I417" t="b">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>1220</v>
+      </c>
+      <c r="K417" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L417">
+        <v>135.80641618992323</v>
+      </c>
+      <c r="M417">
+        <v>34.69412795202871</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>691</v>
+      </c>
+      <c r="B418" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C418" t="str">
+        <v>寛照寺前地蔵</v>
+      </c>
+      <c r="D418" t="str">
+        <v>寛照寺前地蔵</v>
+      </c>
+      <c r="E418" t="b">
+        <v>1</v>
+      </c>
+      <c r="F418" t="str">
+        <v>正確な位置再確認必要</v>
+      </c>
+      <c r="H418" t="str">
+        <v>2017-05-19</v>
+      </c>
+      <c r="I418" t="b">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>1224</v>
+      </c>
+      <c r="K418" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L418">
+        <v>135.80456059326747</v>
+      </c>
+      <c r="M418">
+        <v>34.693030924501414</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>692</v>
+      </c>
+      <c r="B419" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C419" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D419" t="str">
+        <v>法華寺町 地蔵堂</v>
+      </c>
+      <c r="E419" t="b">
+        <v>1</v>
+      </c>
+      <c r="H419" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I419" t="b">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>1226</v>
+      </c>
+      <c r="K419" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L419">
+        <v>135.80271528642672</v>
+      </c>
+      <c r="M419">
+        <v>34.692872996462135</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M415"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M419"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1214"/>
+  <dimension ref="A1:H1224"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -46397,9 +46540,269 @@
         <v>./small_thumbs/618/IMG_8207.jpg</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215">
+        <v>1218</v>
+      </c>
+      <c r="B1215">
+        <v>689</v>
+      </c>
+      <c r="C1215" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1215" t="str">
+        <v>./images/689/IMG_8398.jpg</v>
+      </c>
+      <c r="E1215" t="str">
+        <v>2020-08-10T17:30:15</v>
+      </c>
+      <c r="F1215" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1215" t="str">
+        <v>./mid_thumbs/689/IMG_8398.jpg</v>
+      </c>
+      <c r="H1215" t="str">
+        <v>./small_thumbs/689/IMG_8398.jpg</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216">
+        <v>1219</v>
+      </c>
+      <c r="B1216">
+        <v>689</v>
+      </c>
+      <c r="C1216" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1216" t="str">
+        <v>./images/689/IMG_8399.jpg</v>
+      </c>
+      <c r="E1216" t="str">
+        <v>2020-08-10T17:30:21</v>
+      </c>
+      <c r="F1216" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1216" t="str">
+        <v>./mid_thumbs/689/IMG_8399.jpg</v>
+      </c>
+      <c r="H1216" t="str">
+        <v>./small_thumbs/689/IMG_8399.jpg</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217">
+        <v>1220</v>
+      </c>
+      <c r="B1217">
+        <v>690</v>
+      </c>
+      <c r="C1217" t="str">
+        <v>交通安全大日大聖不動 お堂</v>
+      </c>
+      <c r="D1217" t="str">
+        <v>./images/690/IMG_8328.jpg</v>
+      </c>
+      <c r="E1217" t="str">
+        <v>2020-08-10T12:48:53</v>
+      </c>
+      <c r="F1217" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1217" t="str">
+        <v>./mid_thumbs/690/IMG_8328.jpg</v>
+      </c>
+      <c r="H1217" t="str">
+        <v>./small_thumbs/690/IMG_8328.jpg</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218">
+        <v>1221</v>
+      </c>
+      <c r="B1218">
+        <v>690</v>
+      </c>
+      <c r="C1218" t="str">
+        <v>交通安全大日大聖不動 石碑</v>
+      </c>
+      <c r="D1218" t="str">
+        <v>./images/690/IMG_8329.jpg</v>
+      </c>
+      <c r="E1218" t="str">
+        <v>2020-08-10T12:48:59</v>
+      </c>
+      <c r="F1218" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1218" t="str">
+        <v>./mid_thumbs/690/IMG_8329.jpg</v>
+      </c>
+      <c r="H1218" t="str">
+        <v>./small_thumbs/690/IMG_8329.jpg</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219">
+        <v>1222</v>
+      </c>
+      <c r="B1219">
+        <v>690</v>
+      </c>
+      <c r="C1219" t="str">
+        <v>交通安全大日大聖不動</v>
+      </c>
+      <c r="D1219" t="str">
+        <v>./images/690/IMG_8330.jpg</v>
+      </c>
+      <c r="E1219" t="str">
+        <v>2020-08-10T12:49:04</v>
+      </c>
+      <c r="F1219" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1219" t="str">
+        <v>./mid_thumbs/690/IMG_8330.jpg</v>
+      </c>
+      <c r="H1219" t="str">
+        <v>./small_thumbs/690/IMG_8330.jpg</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220">
+        <v>1223</v>
+      </c>
+      <c r="B1220">
+        <v>690</v>
+      </c>
+      <c r="C1220" t="str">
+        <v>交通安全大日大聖不動 扁額</v>
+      </c>
+      <c r="D1220" t="str">
+        <v>./images/690/IMG_8331.jpg</v>
+      </c>
+      <c r="E1220" t="str">
+        <v>2020-08-10T12:49:09</v>
+      </c>
+      <c r="F1220" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1220" t="str">
+        <v>./mid_thumbs/690/IMG_8331.jpg</v>
+      </c>
+      <c r="H1220" t="str">
+        <v>./small_thumbs/690/IMG_8331.jpg</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221">
+        <v>1224</v>
+      </c>
+      <c r="B1221">
+        <v>691</v>
+      </c>
+      <c r="C1221" t="str">
+        <v>寛照寺前地蔵</v>
+      </c>
+      <c r="D1221" t="str">
+        <v>./images/691/IMG_2106.jpg</v>
+      </c>
+      <c r="E1221" t="str">
+        <v>2017-05-19T12:34:18</v>
+      </c>
+      <c r="F1221" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1221" t="str">
+        <v>./mid_thumbs/691/IMG_2106.jpg</v>
+      </c>
+      <c r="H1221" t="str">
+        <v>./small_thumbs/691/IMG_2106.jpg</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222">
+        <v>1225</v>
+      </c>
+      <c r="B1222">
+        <v>691</v>
+      </c>
+      <c r="C1222" t="str">
+        <v>寛照寺前地蔵 内部</v>
+      </c>
+      <c r="D1222" t="str">
+        <v>./images/691/IMG_2107.jpg</v>
+      </c>
+      <c r="E1222" t="str">
+        <v>2017-05-19T12:34:29</v>
+      </c>
+      <c r="F1222" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1222" t="str">
+        <v>./mid_thumbs/691/IMG_2107.jpg</v>
+      </c>
+      <c r="H1222" t="str">
+        <v>./small_thumbs/691/IMG_2107.jpg</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223">
+        <v>1226</v>
+      </c>
+      <c r="B1223">
+        <v>692</v>
+      </c>
+      <c r="C1223" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1223" t="str">
+        <v>./images/692/IMG_1690.jpg</v>
+      </c>
+      <c r="E1223" t="str">
+        <v>2017-05-02T14:11:10</v>
+      </c>
+      <c r="F1223" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1223" t="str">
+        <v>./mid_thumbs/692/IMG_1690.jpg</v>
+      </c>
+      <c r="H1223" t="str">
+        <v>./small_thumbs/692/IMG_1690.jpg</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224">
+        <v>1227</v>
+      </c>
+      <c r="B1224">
+        <v>692</v>
+      </c>
+      <c r="C1224" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1224" t="str">
+        <v>./images/692/IMG_1691.jpg</v>
+      </c>
+      <c r="E1224" t="str">
+        <v>2017-05-02T14:11:18</v>
+      </c>
+      <c r="F1224" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1224" t="str">
+        <v>./mid_thumbs/692/IMG_1691.jpg</v>
+      </c>
+      <c r="H1224" t="str">
+        <v>./small_thumbs/692/IMG_1691.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1214"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1224"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M419"/>
+  <dimension ref="A1:M420"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -14962,16 +14962,51 @@
         <v>34.692872996462135</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420">
+        <v>693</v>
+      </c>
+      <c r="B420" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C420" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D420" t="str">
+        <v>法華寺町 地蔵堂</v>
+      </c>
+      <c r="E420" t="b">
+        <v>1</v>
+      </c>
+      <c r="H420" t="str">
+        <v>2021-03-19</v>
+      </c>
+      <c r="I420" t="b">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>1228</v>
+      </c>
+      <c r="K420" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L420">
+        <v>135.8057302022501</v>
+      </c>
+      <c r="M420">
+        <v>34.69026573019082</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M419"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M420"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1224"/>
+  <dimension ref="A1:H1231"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -46800,9 +46835,191 @@
         <v>./small_thumbs/692/IMG_1691.jpg</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225">
+        <v>1228</v>
+      </c>
+      <c r="B1225">
+        <v>693</v>
+      </c>
+      <c r="C1225" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1225" t="str">
+        <v>./images/693/IMG_0307.jpg</v>
+      </c>
+      <c r="E1225" t="str">
+        <v>2021-03-19T14:33:23</v>
+      </c>
+      <c r="F1225" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1225" t="str">
+        <v>./mid_thumbs/693/IMG_0307.jpg</v>
+      </c>
+      <c r="H1225" t="str">
+        <v>./small_thumbs/693/IMG_0307.jpg</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226">
+        <v>1229</v>
+      </c>
+      <c r="B1226">
+        <v>693</v>
+      </c>
+      <c r="C1226" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1226" t="str">
+        <v>./images/693/IMG_0308.jpg</v>
+      </c>
+      <c r="E1226" t="str">
+        <v>2021-03-19T14:33:30</v>
+      </c>
+      <c r="F1226" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1226" t="str">
+        <v>./mid_thumbs/693/IMG_0308.jpg</v>
+      </c>
+      <c r="H1226" t="str">
+        <v>./small_thumbs/693/IMG_0308.jpg</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227">
+        <v>1230</v>
+      </c>
+      <c r="B1227">
+        <v>693</v>
+      </c>
+      <c r="C1227" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1227" t="str">
+        <v>./images/693/IMG_0309.jpg</v>
+      </c>
+      <c r="E1227" t="str">
+        <v>2021-03-19T14:33:32</v>
+      </c>
+      <c r="F1227" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1227" t="str">
+        <v>./mid_thumbs/693/IMG_0309.jpg</v>
+      </c>
+      <c r="H1227" t="str">
+        <v>./small_thumbs/693/IMG_0309.jpg</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228">
+        <v>1231</v>
+      </c>
+      <c r="B1228">
+        <v>693</v>
+      </c>
+      <c r="C1228" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1228" t="str">
+        <v>./images/693/IMG_2069.jpg</v>
+      </c>
+      <c r="E1228" t="str">
+        <v>2017-05-19T11:11:10</v>
+      </c>
+      <c r="F1228" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1228" t="str">
+        <v>./mid_thumbs/693/IMG_2069.jpg</v>
+      </c>
+      <c r="H1228" t="str">
+        <v>./small_thumbs/693/IMG_2069.jpg</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229">
+        <v>1232</v>
+      </c>
+      <c r="B1229">
+        <v>693</v>
+      </c>
+      <c r="C1229" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1229" t="str">
+        <v>./images/693/IMG_2070.jpg</v>
+      </c>
+      <c r="E1229" t="str">
+        <v>2017-05-19T11:11:18</v>
+      </c>
+      <c r="F1229" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1229" t="str">
+        <v>./mid_thumbs/693/IMG_2070.jpg</v>
+      </c>
+      <c r="H1229" t="str">
+        <v>./small_thumbs/693/IMG_2070.jpg</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230">
+        <v>1233</v>
+      </c>
+      <c r="B1230">
+        <v>693</v>
+      </c>
+      <c r="C1230" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1230" t="str">
+        <v>./images/693/IMG_2071.jpg</v>
+      </c>
+      <c r="E1230" t="str">
+        <v>2017-05-19T11:11:24</v>
+      </c>
+      <c r="F1230" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1230" t="str">
+        <v>./mid_thumbs/693/IMG_2071.jpg</v>
+      </c>
+      <c r="H1230" t="str">
+        <v>./small_thumbs/693/IMG_2071.jpg</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231">
+        <v>1234</v>
+      </c>
+      <c r="B1231">
+        <v>693</v>
+      </c>
+      <c r="C1231" t="str">
+        <v>地蔵堂 双体地蔵</v>
+      </c>
+      <c r="D1231" t="str">
+        <v>./images/693/IMG_2072.jpg</v>
+      </c>
+      <c r="E1231" t="str">
+        <v>2017-05-19T11:11:34</v>
+      </c>
+      <c r="F1231" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1231" t="str">
+        <v>./mid_thumbs/693/IMG_2072.jpg</v>
+      </c>
+      <c r="H1231" t="str">
+        <v>./small_thumbs/693/IMG_2072.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1224"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1231"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M420"/>
+  <dimension ref="A1:M432"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -14997,16 +14997,436 @@
         <v>34.69026573019082</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421">
+        <v>694</v>
+      </c>
+      <c r="B421" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C421" t="str">
+        <v>壁の地蔵堂</v>
+      </c>
+      <c r="D421" t="str">
+        <v>法華寺町 壁の地蔵堂</v>
+      </c>
+      <c r="E421" t="b">
+        <v>1</v>
+      </c>
+      <c r="H421" t="str">
+        <v>2017-05-19</v>
+      </c>
+      <c r="I421" t="b">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>1235</v>
+      </c>
+      <c r="K421" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L421">
+        <v>135.80500734273951</v>
+      </c>
+      <c r="M421">
+        <v>34.69080756608288</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>695</v>
+      </c>
+      <c r="B422" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C422" t="str">
+        <v>三叉路の地蔵堂</v>
+      </c>
+      <c r="D422" t="str">
+        <v>法華寺町 三叉路の地蔵堂</v>
+      </c>
+      <c r="E422" t="b">
+        <v>1</v>
+      </c>
+      <c r="H422" t="str">
+        <v>2017-05-19</v>
+      </c>
+      <c r="I422" t="b">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>1237</v>
+      </c>
+      <c r="K422" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L422">
+        <v>135.80458117289757</v>
+      </c>
+      <c r="M422">
+        <v>34.69155209992279</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>696</v>
+      </c>
+      <c r="B423" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C423" t="str">
+        <v>横笛地蔵堂</v>
+      </c>
+      <c r="D423" t="str">
+        <v>法華寺町 横笛地蔵堂</v>
+      </c>
+      <c r="E423" t="b">
+        <v>1</v>
+      </c>
+      <c r="H423" t="str">
+        <v>2017-05-19</v>
+      </c>
+      <c r="I423" t="b">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>1239</v>
+      </c>
+      <c r="K423" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L423">
+        <v>135.80475266981585</v>
+      </c>
+      <c r="M423">
+        <v>34.69144775278057</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>697</v>
+      </c>
+      <c r="B424" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C424" t="str">
+        <v>法華寺神社</v>
+      </c>
+      <c r="D424" t="str">
+        <v>法華寺町 法華寺神社</v>
+      </c>
+      <c r="E424" t="b">
+        <v>1</v>
+      </c>
+      <c r="H424" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I424" t="b">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>1243</v>
+      </c>
+      <c r="K424" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L424">
+        <v>135.80360364046336</v>
+      </c>
+      <c r="M424">
+        <v>34.691598633065425</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>698</v>
+      </c>
+      <c r="B425" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C425" t="str">
+        <v>和合地蔵尊</v>
+      </c>
+      <c r="D425" t="str">
+        <v>法華寺町 和合地蔵尊</v>
+      </c>
+      <c r="E425" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" t="str">
+        <v>2021-03-19</v>
+      </c>
+      <c r="I425" t="b">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>1245</v>
+      </c>
+      <c r="K425" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L425">
+        <v>135.80542493773552</v>
+      </c>
+      <c r="M425">
+        <v>34.691574308925944</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>699</v>
+      </c>
+      <c r="B426" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C426" t="str">
+        <v>御神木の祠</v>
+      </c>
+      <c r="D426" t="str">
+        <v>法華寺町 御神木の祠</v>
+      </c>
+      <c r="E426" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I426" t="b">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>1253</v>
+      </c>
+      <c r="K426" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L426">
+        <v>135.81144533705182</v>
+      </c>
+      <c r="M426">
+        <v>34.69157430892594</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>700</v>
+      </c>
+      <c r="B427" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C427" t="str">
+        <v>浮彫五輪塔</v>
+      </c>
+      <c r="D427" t="str">
+        <v>法蓮町 浮彫五輪塔</v>
+      </c>
+      <c r="E427" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" t="str">
+        <v>2017-05-03</v>
+      </c>
+      <c r="I427" t="b">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>1255</v>
+      </c>
+      <c r="K427" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L427">
+        <v>135.81263381069547</v>
+      </c>
+      <c r="M427">
+        <v>34.69368378453745</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>701</v>
+      </c>
+      <c r="B428" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C428" t="str">
+        <v>浮彫五輪塔群</v>
+      </c>
+      <c r="D428" t="str">
+        <v>法蓮町 浮彫五輪塔群</v>
+      </c>
+      <c r="E428" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" t="str">
+        <v>2017-05-03</v>
+      </c>
+      <c r="I428" t="b">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>1256</v>
+      </c>
+      <c r="K428" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L428">
+        <v>135.81344156118058</v>
+      </c>
+      <c r="M428">
+        <v>34.69368519459675</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>702</v>
+      </c>
+      <c r="B429" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C429" t="str">
+        <v>大日如来坐像</v>
+      </c>
+      <c r="D429" t="str">
+        <v>法蓮町 大日如来坐像</v>
+      </c>
+      <c r="E429" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" t="str">
+        <v>2017-05-03</v>
+      </c>
+      <c r="I429" t="b">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>1258</v>
+      </c>
+      <c r="K429" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L429">
+        <v>135.81784045713445</v>
+      </c>
+      <c r="M429">
+        <v>34.69406731978147</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>703</v>
+      </c>
+      <c r="B430" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C430" t="str">
+        <v>しあわせ地蔵尊</v>
+      </c>
+      <c r="D430" t="str">
+        <v>法蓮町 しあわせ地蔵尊</v>
+      </c>
+      <c r="E430" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" t="str">
+        <v>2017-05-03</v>
+      </c>
+      <c r="I430" t="b">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>1260</v>
+      </c>
+      <c r="K430" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L430">
+        <v>135.8196386023226</v>
+      </c>
+      <c r="M430">
+        <v>34.69446072357129</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>704</v>
+      </c>
+      <c r="B431" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C431" t="str">
+        <v>石祠</v>
+      </c>
+      <c r="D431" t="str">
+        <v>法蓮町 石祠</v>
+      </c>
+      <c r="E431" t="b">
+        <v>1</v>
+      </c>
+      <c r="H431" t="str">
+        <v>2017-12-27</v>
+      </c>
+      <c r="I431" t="b">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>1263</v>
+      </c>
+      <c r="K431" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L431">
+        <v>135.81968662145974</v>
+      </c>
+      <c r="M431">
+        <v>34.691663144878966</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>705</v>
+      </c>
+      <c r="B432" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C432" t="str">
+        <v>地蔵と六字名号</v>
+      </c>
+      <c r="D432" t="str">
+        <v>法蓮町 地蔵と六字名号</v>
+      </c>
+      <c r="E432" t="b">
+        <v>1</v>
+      </c>
+      <c r="H432" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I432" t="b">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>1264</v>
+      </c>
+      <c r="K432" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L432">
+        <v>135.8222659351107</v>
+      </c>
+      <c r="M432">
+        <v>34.69175198073665</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M420"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M432"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1231"/>
+  <dimension ref="A1:H1263"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -47017,9 +47437,841 @@
         <v>./small_thumbs/693/IMG_2072.jpg</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232">
+        <v>1235</v>
+      </c>
+      <c r="B1232">
+        <v>694</v>
+      </c>
+      <c r="C1232" t="str">
+        <v>壁の地蔵堂</v>
+      </c>
+      <c r="D1232" t="str">
+        <v>./images/694/IMG_2073.jpg</v>
+      </c>
+      <c r="E1232" t="str">
+        <v>2017-05-19T11:13:29</v>
+      </c>
+      <c r="F1232" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1232" t="str">
+        <v>./mid_thumbs/694/IMG_2073.jpg</v>
+      </c>
+      <c r="H1232" t="str">
+        <v>./small_thumbs/694/IMG_2073.jpg</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233">
+        <v>1236</v>
+      </c>
+      <c r="B1233">
+        <v>694</v>
+      </c>
+      <c r="C1233" t="str">
+        <v>壁の地蔵堂 内部</v>
+      </c>
+      <c r="D1233" t="str">
+        <v>./images/694/IMG_2074.jpg</v>
+      </c>
+      <c r="E1233" t="str">
+        <v>2017-05-19T11:13:59</v>
+      </c>
+      <c r="F1233" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1233" t="str">
+        <v>./mid_thumbs/694/IMG_2074.jpg</v>
+      </c>
+      <c r="H1233" t="str">
+        <v>./small_thumbs/694/IMG_2074.jpg</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234">
+        <v>1237</v>
+      </c>
+      <c r="B1234">
+        <v>695</v>
+      </c>
+      <c r="C1234" t="str">
+        <v>三叉路の地蔵堂</v>
+      </c>
+      <c r="D1234" t="str">
+        <v>./images/695/IMG_2081.jpg</v>
+      </c>
+      <c r="E1234" t="str">
+        <v>2017-05-19T11:18:45</v>
+      </c>
+      <c r="F1234" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1234" t="str">
+        <v>./mid_thumbs/695/IMG_2081.jpg</v>
+      </c>
+      <c r="H1234" t="str">
+        <v>./small_thumbs/695/IMG_2081.jpg</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235">
+        <v>1238</v>
+      </c>
+      <c r="B1235">
+        <v>695</v>
+      </c>
+      <c r="C1235" t="str">
+        <v>三叉路の地蔵堂 内部</v>
+      </c>
+      <c r="D1235" t="str">
+        <v>./images/695/IMG_2082.jpg</v>
+      </c>
+      <c r="E1235" t="str">
+        <v>2017-05-19T11:18:51</v>
+      </c>
+      <c r="F1235" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1235" t="str">
+        <v>./mid_thumbs/695/IMG_2082.jpg</v>
+      </c>
+      <c r="H1235" t="str">
+        <v>./small_thumbs/695/IMG_2082.jpg</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236">
+        <v>1239</v>
+      </c>
+      <c r="B1236">
+        <v>696</v>
+      </c>
+      <c r="C1236" t="str">
+        <v>横笛地蔵堂</v>
+      </c>
+      <c r="D1236" t="str">
+        <v>./images/696/IMG_1759.jpg</v>
+      </c>
+      <c r="E1236" t="str">
+        <v>2017-05-02T15:06:24</v>
+      </c>
+      <c r="F1236" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1236" t="str">
+        <v>./mid_thumbs/696/IMG_1759.jpg</v>
+      </c>
+      <c r="H1236" t="str">
+        <v>./small_thumbs/696/IMG_1759.jpg</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237">
+        <v>1240</v>
+      </c>
+      <c r="B1237">
+        <v>696</v>
+      </c>
+      <c r="C1237" t="str">
+        <v>横笛地蔵堂 案内板</v>
+      </c>
+      <c r="D1237" t="str">
+        <v>./images/696/IMG_1760.jpg</v>
+      </c>
+      <c r="E1237" t="str">
+        <v>2017-05-02T15:06:39</v>
+      </c>
+      <c r="F1237" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1237" t="str">
+        <v>./mid_thumbs/696/IMG_1760.jpg</v>
+      </c>
+      <c r="H1237" t="str">
+        <v>./small_thumbs/696/IMG_1760.jpg</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238">
+        <v>1241</v>
+      </c>
+      <c r="B1238">
+        <v>696</v>
+      </c>
+      <c r="C1238" t="str">
+        <v>横笛地蔵堂</v>
+      </c>
+      <c r="D1238" t="str">
+        <v>./images/696/IMG_2083.jpg</v>
+      </c>
+      <c r="E1238" t="str">
+        <v>2017-05-19T11:19:24</v>
+      </c>
+      <c r="F1238" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1238" t="str">
+        <v>./mid_thumbs/696/IMG_2083.jpg</v>
+      </c>
+      <c r="H1238" t="str">
+        <v>./small_thumbs/696/IMG_2083.jpg</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239">
+        <v>1242</v>
+      </c>
+      <c r="B1239">
+        <v>696</v>
+      </c>
+      <c r="C1239" t="str">
+        <v>横笛地蔵堂 入口</v>
+      </c>
+      <c r="D1239" t="str">
+        <v>./images/696/IMG_2084.jpg</v>
+      </c>
+      <c r="E1239" t="str">
+        <v>2017-05-19T11:19:33</v>
+      </c>
+      <c r="F1239" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1239" t="str">
+        <v>./mid_thumbs/696/IMG_2084.jpg</v>
+      </c>
+      <c r="H1239" t="str">
+        <v>./small_thumbs/696/IMG_2084.jpg</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240">
+        <v>1243</v>
+      </c>
+      <c r="B1240">
+        <v>697</v>
+      </c>
+      <c r="C1240" t="str">
+        <v>法華寺神社 鳥居</v>
+      </c>
+      <c r="D1240" t="str">
+        <v>./images/697/IMG_1693.jpg</v>
+      </c>
+      <c r="E1240" t="str">
+        <v>2017-05-02T14:14:58</v>
+      </c>
+      <c r="F1240" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1240" t="str">
+        <v>./mid_thumbs/697/IMG_1693.jpg</v>
+      </c>
+      <c r="H1240" t="str">
+        <v>./small_thumbs/697/IMG_1693.jpg</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241">
+        <v>1244</v>
+      </c>
+      <c r="B1241">
+        <v>697</v>
+      </c>
+      <c r="C1241" t="str">
+        <v>法華寺神社 本殿</v>
+      </c>
+      <c r="D1241" t="str">
+        <v>./images/697/IMG_1694.jpg</v>
+      </c>
+      <c r="E1241" t="str">
+        <v>2017-05-02T14:15:23</v>
+      </c>
+      <c r="F1241" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1241" t="str">
+        <v>./mid_thumbs/697/IMG_1694.jpg</v>
+      </c>
+      <c r="H1241" t="str">
+        <v>./small_thumbs/697/IMG_1694.jpg</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242">
+        <v>1245</v>
+      </c>
+      <c r="B1242">
+        <v>698</v>
+      </c>
+      <c r="C1242" t="str">
+        <v>和合地蔵尊</v>
+      </c>
+      <c r="D1242" t="str">
+        <v>./images/698/IMG_0311.jpg</v>
+      </c>
+      <c r="E1242" t="str">
+        <v>2021-03-19T14:35:52</v>
+      </c>
+      <c r="F1242" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1242" t="str">
+        <v>./mid_thumbs/698/IMG_0311.jpg</v>
+      </c>
+      <c r="H1242" t="str">
+        <v>./small_thumbs/698/IMG_0311.jpg</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243">
+        <v>1246</v>
+      </c>
+      <c r="B1243">
+        <v>698</v>
+      </c>
+      <c r="C1243" t="str">
+        <v>和合地蔵尊 内部</v>
+      </c>
+      <c r="D1243" t="str">
+        <v>./images/698/IMG_0312.jpg</v>
+      </c>
+      <c r="E1243" t="str">
+        <v>2021-03-19T14:35:59</v>
+      </c>
+      <c r="F1243" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1243" t="str">
+        <v>./mid_thumbs/698/IMG_0312.jpg</v>
+      </c>
+      <c r="H1243" t="str">
+        <v>./small_thumbs/698/IMG_0312.jpg</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244">
+        <v>1247</v>
+      </c>
+      <c r="B1244">
+        <v>698</v>
+      </c>
+      <c r="C1244" t="str">
+        <v>和合地蔵尊 扁額</v>
+      </c>
+      <c r="D1244" t="str">
+        <v>./images/698/IMG_0313.jpg</v>
+      </c>
+      <c r="E1244" t="str">
+        <v>2021-03-19T14:36:04</v>
+      </c>
+      <c r="F1244" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1244" t="str">
+        <v>./mid_thumbs/698/IMG_0313.jpg</v>
+      </c>
+      <c r="H1244" t="str">
+        <v>./small_thumbs/698/IMG_0313.jpg</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245">
+        <v>1248</v>
+      </c>
+      <c r="B1245">
+        <v>698</v>
+      </c>
+      <c r="C1245" t="str">
+        <v>和合地蔵尊</v>
+      </c>
+      <c r="D1245" t="str">
+        <v>./images/698/IMG_1761.jpg</v>
+      </c>
+      <c r="E1245" t="str">
+        <v>2017-05-02T15:09:48</v>
+      </c>
+      <c r="F1245" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1245" t="str">
+        <v>./mid_thumbs/698/IMG_1761.jpg</v>
+      </c>
+      <c r="H1245" t="str">
+        <v>./small_thumbs/698/IMG_1761.jpg</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246">
+        <v>1249</v>
+      </c>
+      <c r="B1246">
+        <v>698</v>
+      </c>
+      <c r="C1246" t="str">
+        <v>和合地蔵尊 内部</v>
+      </c>
+      <c r="D1246" t="str">
+        <v>./images/698/IMG_1762.jpg</v>
+      </c>
+      <c r="E1246" t="str">
+        <v>2017-05-02T15:09:56</v>
+      </c>
+      <c r="F1246" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1246" t="str">
+        <v>./mid_thumbs/698/IMG_1762.jpg</v>
+      </c>
+      <c r="H1246" t="str">
+        <v>./small_thumbs/698/IMG_1762.jpg</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247">
+        <v>1250</v>
+      </c>
+      <c r="B1247">
+        <v>698</v>
+      </c>
+      <c r="C1247" t="str">
+        <v>和合地蔵尊</v>
+      </c>
+      <c r="D1247" t="str">
+        <v>./images/698/IMG_2078.jpg</v>
+      </c>
+      <c r="E1247" t="str">
+        <v>2017-05-19T11:17:28</v>
+      </c>
+      <c r="F1247" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1247" t="str">
+        <v>./mid_thumbs/698/IMG_2078.jpg</v>
+      </c>
+      <c r="H1247" t="str">
+        <v>./small_thumbs/698/IMG_2078.jpg</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248">
+        <v>1251</v>
+      </c>
+      <c r="B1248">
+        <v>698</v>
+      </c>
+      <c r="C1248" t="str">
+        <v>和合地蔵尊 扁額</v>
+      </c>
+      <c r="D1248" t="str">
+        <v>./images/698/IMG_2079.jpg</v>
+      </c>
+      <c r="E1248" t="str">
+        <v>2017-05-19T11:17:36</v>
+      </c>
+      <c r="F1248" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1248" t="str">
+        <v>./mid_thumbs/698/IMG_2079.jpg</v>
+      </c>
+      <c r="H1248" t="str">
+        <v>./small_thumbs/698/IMG_2079.jpg</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249">
+        <v>1252</v>
+      </c>
+      <c r="B1249">
+        <v>698</v>
+      </c>
+      <c r="C1249" t="str">
+        <v>和合地蔵尊 内部</v>
+      </c>
+      <c r="D1249" t="str">
+        <v>./images/698/IMG_2080.jpg</v>
+      </c>
+      <c r="E1249" t="str">
+        <v>2017-05-19T11:17:42</v>
+      </c>
+      <c r="F1249" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1249" t="str">
+        <v>./mid_thumbs/698/IMG_2080.jpg</v>
+      </c>
+      <c r="H1249" t="str">
+        <v>./small_thumbs/698/IMG_2080.jpg</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250">
+        <v>1253</v>
+      </c>
+      <c r="B1250">
+        <v>699</v>
+      </c>
+      <c r="C1250" t="str">
+        <v>御神木の祠</v>
+      </c>
+      <c r="D1250" t="str">
+        <v>./images/699/IMG_8325.jpg</v>
+      </c>
+      <c r="E1250" t="str">
+        <v>2020-08-10T12:42:19</v>
+      </c>
+      <c r="F1250" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1250" t="str">
+        <v>./mid_thumbs/699/IMG_8325.jpg</v>
+      </c>
+      <c r="H1250" t="str">
+        <v>./small_thumbs/699/IMG_8325.jpg</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251">
+        <v>1254</v>
+      </c>
+      <c r="B1251">
+        <v>699</v>
+      </c>
+      <c r="C1251" t="str">
+        <v>御神木の祠 内部</v>
+      </c>
+      <c r="D1251" t="str">
+        <v>./images/699/IMG_8326.jpg</v>
+      </c>
+      <c r="E1251" t="str">
+        <v>2020-08-10T12:42:24</v>
+      </c>
+      <c r="F1251" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1251" t="str">
+        <v>./mid_thumbs/699/IMG_8326.jpg</v>
+      </c>
+      <c r="H1251" t="str">
+        <v>./small_thumbs/699/IMG_8326.jpg</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252">
+        <v>1255</v>
+      </c>
+      <c r="B1252">
+        <v>700</v>
+      </c>
+      <c r="C1252" t="str">
+        <v>浮彫五輪塔</v>
+      </c>
+      <c r="D1252" t="str">
+        <v>./images/700/IMG_1809.jpg</v>
+      </c>
+      <c r="E1252" t="str">
+        <v>2017-05-03T15:46:31</v>
+      </c>
+      <c r="F1252" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1252" t="str">
+        <v>./mid_thumbs/700/IMG_1809.jpg</v>
+      </c>
+      <c r="H1252" t="str">
+        <v>./small_thumbs/700/IMG_1809.jpg</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253">
+        <v>1256</v>
+      </c>
+      <c r="B1253">
+        <v>701</v>
+      </c>
+      <c r="C1253" t="str">
+        <v>浮彫五輪塔群</v>
+      </c>
+      <c r="D1253" t="str">
+        <v>./images/701/IMG_1830.jpg</v>
+      </c>
+      <c r="E1253" t="str">
+        <v>2017-05-03T16:07:50</v>
+      </c>
+      <c r="F1253" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1253" t="str">
+        <v>./mid_thumbs/701/IMG_1830.jpg</v>
+      </c>
+      <c r="H1253" t="str">
+        <v>./small_thumbs/701/IMG_1830.jpg</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254">
+        <v>1257</v>
+      </c>
+      <c r="B1254">
+        <v>701</v>
+      </c>
+      <c r="C1254" t="str">
+        <v>浮彫五輪塔群</v>
+      </c>
+      <c r="D1254" t="str">
+        <v>./images/701/IMG_1831.jpg</v>
+      </c>
+      <c r="E1254" t="str">
+        <v>2017-05-03T16:07:57</v>
+      </c>
+      <c r="F1254" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1254" t="str">
+        <v>./mid_thumbs/701/IMG_1831.jpg</v>
+      </c>
+      <c r="H1254" t="str">
+        <v>./small_thumbs/701/IMG_1831.jpg</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255">
+        <v>1258</v>
+      </c>
+      <c r="B1255">
+        <v>702</v>
+      </c>
+      <c r="C1255" t="str">
+        <v>大日如来坐像</v>
+      </c>
+      <c r="D1255" t="str">
+        <v>./images/702/IMG_1858.jpg</v>
+      </c>
+      <c r="E1255" t="str">
+        <v>2017-05-03T16:25:27</v>
+      </c>
+      <c r="F1255" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1255" t="str">
+        <v>./mid_thumbs/702/IMG_1858.jpg</v>
+      </c>
+      <c r="H1255" t="str">
+        <v>./small_thumbs/702/IMG_1858.jpg</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256">
+        <v>1259</v>
+      </c>
+      <c r="B1256">
+        <v>702</v>
+      </c>
+      <c r="C1256" t="str">
+        <v>大日如来坐像</v>
+      </c>
+      <c r="D1256" t="str">
+        <v>./images/702/IMG_1859.jpg</v>
+      </c>
+      <c r="E1256" t="str">
+        <v>2017-05-03T16:25:36</v>
+      </c>
+      <c r="F1256" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1256" t="str">
+        <v>./mid_thumbs/702/IMG_1859.jpg</v>
+      </c>
+      <c r="H1256" t="str">
+        <v>./small_thumbs/702/IMG_1859.jpg</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257">
+        <v>1260</v>
+      </c>
+      <c r="B1257">
+        <v>703</v>
+      </c>
+      <c r="C1257" t="str">
+        <v>しあわせ地蔵尊</v>
+      </c>
+      <c r="D1257" t="str">
+        <v>./images/703/IMG_1862.jpg</v>
+      </c>
+      <c r="E1257" t="str">
+        <v>2017-05-03T16:28:03</v>
+      </c>
+      <c r="F1257" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1257" t="str">
+        <v>./mid_thumbs/703/IMG_1862.jpg</v>
+      </c>
+      <c r="H1257" t="str">
+        <v>./small_thumbs/703/IMG_1862.jpg</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258">
+        <v>1261</v>
+      </c>
+      <c r="B1258">
+        <v>703</v>
+      </c>
+      <c r="C1258" t="str">
+        <v>しあわせ地蔵尊 内部</v>
+      </c>
+      <c r="D1258" t="str">
+        <v>./images/703/IMG_1863.jpg</v>
+      </c>
+      <c r="E1258" t="str">
+        <v>2017-05-03T16:28:13</v>
+      </c>
+      <c r="F1258" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1258" t="str">
+        <v>./mid_thumbs/703/IMG_1863.jpg</v>
+      </c>
+      <c r="H1258" t="str">
+        <v>./small_thumbs/703/IMG_1863.jpg</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259">
+        <v>1262</v>
+      </c>
+      <c r="B1259">
+        <v>703</v>
+      </c>
+      <c r="C1259" t="str">
+        <v>しあわせ地蔵尊 扁額</v>
+      </c>
+      <c r="D1259" t="str">
+        <v>./images/703/IMG_1864.jpg</v>
+      </c>
+      <c r="E1259" t="str">
+        <v>2017-05-03T16:28:18</v>
+      </c>
+      <c r="F1259" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1259" t="str">
+        <v>./mid_thumbs/703/IMG_1864.jpg</v>
+      </c>
+      <c r="H1259" t="str">
+        <v>./small_thumbs/703/IMG_1864.jpg</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260">
+        <v>1263</v>
+      </c>
+      <c r="B1260">
+        <v>704</v>
+      </c>
+      <c r="C1260" t="str">
+        <v>石祠</v>
+      </c>
+      <c r="D1260" t="str">
+        <v>./images/704/IMG_4457.jpg</v>
+      </c>
+      <c r="E1260" t="str">
+        <v>2017-12-22T15:50:06</v>
+      </c>
+      <c r="F1260" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1260" t="str">
+        <v>./mid_thumbs/704/IMG_4457.jpg</v>
+      </c>
+      <c r="H1260" t="str">
+        <v>./small_thumbs/704/IMG_4457.jpg</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261">
+        <v>1264</v>
+      </c>
+      <c r="B1261">
+        <v>705</v>
+      </c>
+      <c r="C1261" t="str">
+        <v>地蔵と六字名号</v>
+      </c>
+      <c r="D1261" t="str">
+        <v>./images/705/IMG_5692.jpg</v>
+      </c>
+      <c r="E1261" t="str">
+        <v>2019-11-22T11:07:40</v>
+      </c>
+      <c r="F1261" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1261" t="str">
+        <v>./mid_thumbs/705/IMG_5692.jpg</v>
+      </c>
+      <c r="H1261" t="str">
+        <v>./small_thumbs/705/IMG_5692.jpg</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262">
+        <v>1265</v>
+      </c>
+      <c r="B1262">
+        <v>705</v>
+      </c>
+      <c r="C1262" t="str">
+        <v>地蔵と六字名号</v>
+      </c>
+      <c r="D1262" t="str">
+        <v>./images/705/IMG_5694.jpg</v>
+      </c>
+      <c r="E1262" t="str">
+        <v>2019-11-22T11:08:35</v>
+      </c>
+      <c r="F1262" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1262" t="str">
+        <v>./mid_thumbs/705/IMG_5694.jpg</v>
+      </c>
+      <c r="H1262" t="str">
+        <v>./small_thumbs/705/IMG_5694.jpg</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263">
+        <v>1266</v>
+      </c>
+      <c r="B1263">
+        <v>705</v>
+      </c>
+      <c r="C1263" t="str">
+        <v>地蔵と六字名号</v>
+      </c>
+      <c r="D1263" t="str">
+        <v>./images/705/IMG_8401.jpg</v>
+      </c>
+      <c r="E1263" t="str">
+        <v>2020-08-10T17:38:28</v>
+      </c>
+      <c r="F1263" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1263" t="str">
+        <v>./mid_thumbs/705/IMG_8401.jpg</v>
+      </c>
+      <c r="H1263" t="str">
+        <v>./small_thumbs/705/IMG_8401.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1231"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1263"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M432"/>
+  <dimension ref="A1:M433"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15417,9 +15417,41 @@
         <v>34.69175198073665</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433">
+        <v>706</v>
+      </c>
+      <c r="B433" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C433" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D433" t="str">
+        <v>七条西町1丁目 地蔵尊</v>
+      </c>
+      <c r="E433" t="b">
+        <v>0</v>
+      </c>
+      <c r="F433" t="str">
+        <v>Google Mapsより</v>
+      </c>
+      <c r="I433" t="b">
+        <v>0</v>
+      </c>
+      <c r="K433" t="str">
+        <v>七条西町1丁目</v>
+      </c>
+      <c r="L433">
+        <v>135.77267588622078</v>
+      </c>
+      <c r="M433">
+        <v>34.66371319036685</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M432"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M433"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M433"/>
+  <dimension ref="A1:M435"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15449,16 +15449,86 @@
         <v>34.66371319036685</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434">
+        <v>707</v>
+      </c>
+      <c r="B434" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C434" t="str">
+        <v>佛願寺前如来堂</v>
+      </c>
+      <c r="D434" t="str">
+        <v>宝来4丁目 佛願寺前如来堂</v>
+      </c>
+      <c r="E434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="str">
+        <v>2017-06-17</v>
+      </c>
+      <c r="I434" t="b">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>1267</v>
+      </c>
+      <c r="K434" t="str">
+        <v>宝来4丁目</v>
+      </c>
+      <c r="L434">
+        <v>135.77232045885748</v>
+      </c>
+      <c r="M434">
+        <v>34.68236164404487</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435">
+        <v>708</v>
+      </c>
+      <c r="B435" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C435" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D435" t="str">
+        <v>菅原町 地蔵群</v>
+      </c>
+      <c r="E435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I435" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>1269</v>
+      </c>
+      <c r="K435" t="str">
+        <v>菅原町</v>
+      </c>
+      <c r="L435">
+        <v>135.775322512412</v>
+      </c>
+      <c r="M435">
+        <v>34.68550362628013</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M433"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M435"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1263"/>
+  <dimension ref="A1:H1266"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -48301,9 +48371,87 @@
         <v>./small_thumbs/705/IMG_8401.jpg</v>
       </c>
     </row>
+    <row r="1264">
+      <c r="A1264">
+        <v>1267</v>
+      </c>
+      <c r="B1264">
+        <v>707</v>
+      </c>
+      <c r="C1264" t="str">
+        <v>佛願寺前如来堂</v>
+      </c>
+      <c r="D1264" t="str">
+        <v>./images/707/IMG_2373.jpg</v>
+      </c>
+      <c r="E1264" t="str">
+        <v>2017-06-17T14:12:09</v>
+      </c>
+      <c r="F1264" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1264" t="str">
+        <v>./mid_thumbs/707/IMG_2373.jpg</v>
+      </c>
+      <c r="H1264" t="str">
+        <v>./small_thumbs/707/IMG_2373.jpg</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265">
+        <v>1268</v>
+      </c>
+      <c r="B1265">
+        <v>707</v>
+      </c>
+      <c r="C1265" t="str">
+        <v>佛願寺前如来堂 如来像</v>
+      </c>
+      <c r="D1265" t="str">
+        <v>./images/707/IMG_2374.jpg</v>
+      </c>
+      <c r="E1265" t="str">
+        <v>2017-06-17T14:12:19</v>
+      </c>
+      <c r="F1265" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1265" t="str">
+        <v>./mid_thumbs/707/IMG_2374.jpg</v>
+      </c>
+      <c r="H1265" t="str">
+        <v>./small_thumbs/707/IMG_2374.jpg</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266">
+        <v>1269</v>
+      </c>
+      <c r="B1266">
+        <v>708</v>
+      </c>
+      <c r="C1266" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1266" t="str">
+        <v>./images/708/IMG_8520.jpg</v>
+      </c>
+      <c r="E1266" t="str">
+        <v>2018-12-21T16:49:25</v>
+      </c>
+      <c r="F1266" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1266" t="str">
+        <v>./mid_thumbs/708/IMG_8520.jpg</v>
+      </c>
+      <c r="H1266" t="str">
+        <v>./small_thumbs/708/IMG_8520.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1263"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1266"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M435"/>
+  <dimension ref="A1:M441"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15519,16 +15519,226 @@
         <v>34.68550362628013</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436">
+        <v>709</v>
+      </c>
+      <c r="B436" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C436" t="str">
+        <v>下半身のみの地蔵</v>
+      </c>
+      <c r="D436" t="str">
+        <v>菅原町 下半身のみの地蔵</v>
+      </c>
+      <c r="E436" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I436" t="b">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>1271</v>
+      </c>
+      <c r="K436" t="str">
+        <v>菅原町</v>
+      </c>
+      <c r="L436">
+        <v>135.7779395553849</v>
+      </c>
+      <c r="M436">
+        <v>34.684756217615934</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>710</v>
+      </c>
+      <c r="B437" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C437" t="str">
+        <v>菅原天満宮遺跡天神堀</v>
+      </c>
+      <c r="D437" t="str">
+        <v>菅原町 菅原天満宮遺跡天神堀</v>
+      </c>
+      <c r="E437" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I437" t="b">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>1272</v>
+      </c>
+      <c r="K437" t="str">
+        <v>菅原町</v>
+      </c>
+      <c r="L437">
+        <v>135.77973427063475</v>
+      </c>
+      <c r="M437">
+        <v>34.68558189226882</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>711</v>
+      </c>
+      <c r="B438" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C438" t="str">
+        <v>しあわせ地蔵</v>
+      </c>
+      <c r="D438" t="str">
+        <v>菅原東1丁目 しあわせ地蔵</v>
+      </c>
+      <c r="E438" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I438" t="b">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>1273</v>
+      </c>
+      <c r="K438" t="str">
+        <v>菅原東1丁目</v>
+      </c>
+      <c r="L438">
+        <v>135.77990919749138</v>
+      </c>
+      <c r="M438">
+        <v>34.68418578514271</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>712</v>
+      </c>
+      <c r="B439" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C439" t="str">
+        <v>福徳地蔵菩薩</v>
+      </c>
+      <c r="D439" t="str">
+        <v>尼辻北町 福徳地蔵菩薩</v>
+      </c>
+      <c r="E439" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I439" t="b">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>1280</v>
+      </c>
+      <c r="K439" t="str">
+        <v>尼辻北町</v>
+      </c>
+      <c r="L439">
+        <v>135.78587428905138</v>
+      </c>
+      <c r="M439">
+        <v>34.681959368633926</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>713</v>
+      </c>
+      <c r="B440" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C440" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏</v>
+      </c>
+      <c r="D440" t="str">
+        <v>尼辻北町 古跡伏見崗 阿弥陀如来石仏</v>
+      </c>
+      <c r="E440" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I440" t="b">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>1284</v>
+      </c>
+      <c r="K440" t="str">
+        <v>尼辻北町</v>
+      </c>
+      <c r="L440">
+        <v>135.78587600402057</v>
+      </c>
+      <c r="M440">
+        <v>34.682001676393995</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>714</v>
+      </c>
+      <c r="B441" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C441" t="str">
+        <v>尼ヶ辻地蔵石仏</v>
+      </c>
+      <c r="D441" t="str">
+        <v>尼辻北町 尼ヶ辻地蔵石仏</v>
+      </c>
+      <c r="E441" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I441" t="b">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>1290</v>
+      </c>
+      <c r="K441" t="str">
+        <v>尼辻北町</v>
+      </c>
+      <c r="L441">
+        <v>135.7880265753758</v>
+      </c>
+      <c r="M441">
+        <v>34.681675906083825</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M435"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M441"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1266"/>
+  <dimension ref="A1:H1291"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -48449,9 +48659,659 @@
         <v>./small_thumbs/708/IMG_8520.jpg</v>
       </c>
     </row>
+    <row r="1267">
+      <c r="A1267">
+        <v>1270</v>
+      </c>
+      <c r="B1267">
+        <v>709</v>
+      </c>
+      <c r="C1267" t="str">
+        <v>下半身のみの地蔵</v>
+      </c>
+      <c r="D1267" t="str">
+        <v>./images/709/IMG_8518.jpg</v>
+      </c>
+      <c r="E1267" t="str">
+        <v>2018-12-21T16:45:24</v>
+      </c>
+      <c r="F1267" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1267" t="str">
+        <v>./mid_thumbs/709/IMG_8518.jpg</v>
+      </c>
+      <c r="H1267" t="str">
+        <v>./small_thumbs/709/IMG_8518.jpg</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268">
+        <v>1271</v>
+      </c>
+      <c r="B1268">
+        <v>709</v>
+      </c>
+      <c r="C1268" t="str">
+        <v>下半身のみの地蔵 地蔵堂</v>
+      </c>
+      <c r="D1268" t="str">
+        <v>./images/709/IMG_8519.jpg</v>
+      </c>
+      <c r="E1268" t="str">
+        <v>2018-12-21T16:45:28</v>
+      </c>
+      <c r="F1268" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1268" t="str">
+        <v>./mid_thumbs/709/IMG_8519.jpg</v>
+      </c>
+      <c r="H1268" t="str">
+        <v>./small_thumbs/709/IMG_8519.jpg</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269">
+        <v>1272</v>
+      </c>
+      <c r="B1269">
+        <v>710</v>
+      </c>
+      <c r="C1269" t="str">
+        <v>菅原天満宮遺跡天神堀</v>
+      </c>
+      <c r="D1269" t="str">
+        <v>./images/710/IMG_1434.jpg</v>
+      </c>
+      <c r="E1269" t="str">
+        <v>2017-05-01T14:47:02</v>
+      </c>
+      <c r="F1269" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1269" t="str">
+        <v>./mid_thumbs/710/IMG_1434.jpg</v>
+      </c>
+      <c r="H1269" t="str">
+        <v>./small_thumbs/710/IMG_1434.jpg</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270">
+        <v>1273</v>
+      </c>
+      <c r="B1270">
+        <v>711</v>
+      </c>
+      <c r="C1270" t="str">
+        <v>しあわせ地蔵 地蔵堂</v>
+      </c>
+      <c r="D1270" t="str">
+        <v>./images/711/IMG_1460.jpg</v>
+      </c>
+      <c r="E1270" t="str">
+        <v>2017-05-01T15:21:40</v>
+      </c>
+      <c r="F1270" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1270" t="str">
+        <v>./mid_thumbs/711/IMG_1460.jpg</v>
+      </c>
+      <c r="H1270" t="str">
+        <v>./small_thumbs/711/IMG_1460.jpg</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271">
+        <v>1274</v>
+      </c>
+      <c r="B1271">
+        <v>711</v>
+      </c>
+      <c r="C1271" t="str">
+        <v>しあわせ地蔵 お供え台</v>
+      </c>
+      <c r="D1271" t="str">
+        <v>./images/711/IMG_1461.jpg</v>
+      </c>
+      <c r="E1271" t="str">
+        <v>2017-05-01T15:21:47</v>
+      </c>
+      <c r="F1271" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1271" t="str">
+        <v>./mid_thumbs/711/IMG_1461.jpg</v>
+      </c>
+      <c r="H1271" t="str">
+        <v>./small_thumbs/711/IMG_1461.jpg</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272">
+        <v>1275</v>
+      </c>
+      <c r="B1272">
+        <v>711</v>
+      </c>
+      <c r="C1272" t="str">
+        <v>しあわせ地蔵 本尊</v>
+      </c>
+      <c r="D1272" t="str">
+        <v>./images/711/IMG_1462.jpg</v>
+      </c>
+      <c r="E1272" t="str">
+        <v>2017-05-01T15:21:59</v>
+      </c>
+      <c r="F1272" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1272" t="str">
+        <v>./mid_thumbs/711/IMG_1462.jpg</v>
+      </c>
+      <c r="H1272" t="str">
+        <v>./small_thumbs/711/IMG_1462.jpg</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273">
+        <v>1276</v>
+      </c>
+      <c r="B1273">
+        <v>711</v>
+      </c>
+      <c r="C1273" t="str">
+        <v>しあわせ地蔵 内部右側</v>
+      </c>
+      <c r="D1273" t="str">
+        <v>./images/711/IMG_1463.jpg</v>
+      </c>
+      <c r="E1273" t="str">
+        <v>2017-05-01T15:22:08</v>
+      </c>
+      <c r="F1273" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1273" t="str">
+        <v>./mid_thumbs/711/IMG_1463.jpg</v>
+      </c>
+      <c r="H1273" t="str">
+        <v>./small_thumbs/711/IMG_1463.jpg</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274">
+        <v>1277</v>
+      </c>
+      <c r="B1274">
+        <v>711</v>
+      </c>
+      <c r="C1274" t="str">
+        <v>しあわせ地蔵 内部左側</v>
+      </c>
+      <c r="D1274" t="str">
+        <v>./images/711/IMG_1464.jpg</v>
+      </c>
+      <c r="E1274" t="str">
+        <v>2017-05-01T15:22:17</v>
+      </c>
+      <c r="F1274" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1274" t="str">
+        <v>./mid_thumbs/711/IMG_1464.jpg</v>
+      </c>
+      <c r="H1274" t="str">
+        <v>./small_thumbs/711/IMG_1464.jpg</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275">
+        <v>1278</v>
+      </c>
+      <c r="B1275">
+        <v>711</v>
+      </c>
+      <c r="C1275" t="str">
+        <v>しあわせ地蔵 石造物残欠</v>
+      </c>
+      <c r="D1275" t="str">
+        <v>./images/711/IMG_1465.jpg</v>
+      </c>
+      <c r="E1275" t="str">
+        <v>2017-05-01T15:22:47</v>
+      </c>
+      <c r="F1275" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1275" t="str">
+        <v>./mid_thumbs/711/IMG_1465.jpg</v>
+      </c>
+      <c r="H1275" t="str">
+        <v>./small_thumbs/711/IMG_1465.jpg</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276">
+        <v>1279</v>
+      </c>
+      <c r="B1276">
+        <v>712</v>
+      </c>
+      <c r="C1276" t="str">
+        <v>福徳地蔵菩薩 銘板</v>
+      </c>
+      <c r="D1276" t="str">
+        <v>./images/712/IMG_2359.jpg</v>
+      </c>
+      <c r="E1276" t="str">
+        <v>2017-06-17T13:57:18</v>
+      </c>
+      <c r="F1276" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1276" t="str">
+        <v>./mid_thumbs/712/IMG_2359.jpg</v>
+      </c>
+      <c r="H1276" t="str">
+        <v>./small_thumbs/712/IMG_2359.jpg</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277">
+        <v>1280</v>
+      </c>
+      <c r="B1277">
+        <v>712</v>
+      </c>
+      <c r="C1277" t="str">
+        <v>福徳地蔵菩薩</v>
+      </c>
+      <c r="D1277" t="str">
+        <v>./images/712/IMG_2360.jpg</v>
+      </c>
+      <c r="E1277" t="str">
+        <v>2017-06-17T13:57:27</v>
+      </c>
+      <c r="F1277" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1277" t="str">
+        <v>./mid_thumbs/712/IMG_2360.jpg</v>
+      </c>
+      <c r="H1277" t="str">
+        <v>./small_thumbs/712/IMG_2360.jpg</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278">
+        <v>1281</v>
+      </c>
+      <c r="B1278">
+        <v>712</v>
+      </c>
+      <c r="C1278" t="str">
+        <v>福徳地蔵菩薩</v>
+      </c>
+      <c r="D1278" t="str">
+        <v>./images/712/IMG_8507.jpg</v>
+      </c>
+      <c r="E1278" t="str">
+        <v>2018-12-21T16:16:41</v>
+      </c>
+      <c r="F1278" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1278" t="str">
+        <v>./mid_thumbs/712/IMG_8507.jpg</v>
+      </c>
+      <c r="H1278" t="str">
+        <v>./small_thumbs/712/IMG_8507.jpg</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279">
+        <v>1282</v>
+      </c>
+      <c r="B1279">
+        <v>712</v>
+      </c>
+      <c r="C1279" t="str">
+        <v>福徳地蔵菩薩 銘板</v>
+      </c>
+      <c r="D1279" t="str">
+        <v>./images/712/IMG_8508.jpg</v>
+      </c>
+      <c r="E1279" t="str">
+        <v>2018-12-21T16:17:02</v>
+      </c>
+      <c r="F1279" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1279" t="str">
+        <v>./mid_thumbs/712/IMG_8508.jpg</v>
+      </c>
+      <c r="H1279" t="str">
+        <v>./small_thumbs/712/IMG_8508.jpg</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280">
+        <v>1283</v>
+      </c>
+      <c r="B1280">
+        <v>712</v>
+      </c>
+      <c r="C1280" t="str">
+        <v>福徳地蔵菩薩</v>
+      </c>
+      <c r="D1280" t="str">
+        <v>./images/712/IMG_8510.jpg</v>
+      </c>
+      <c r="E1280" t="str">
+        <v>2018-12-21T16:17:34</v>
+      </c>
+      <c r="F1280" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1280" t="str">
+        <v>./mid_thumbs/712/IMG_8510.jpg</v>
+      </c>
+      <c r="H1280" t="str">
+        <v>./small_thumbs/712/IMG_8510.jpg</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281">
+        <v>1284</v>
+      </c>
+      <c r="B1281">
+        <v>713</v>
+      </c>
+      <c r="C1281" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 お堂</v>
+      </c>
+      <c r="D1281" t="str">
+        <v>./images/713/IMG_2356.jpg</v>
+      </c>
+      <c r="E1281" t="str">
+        <v>2017-06-17T13:56:29</v>
+      </c>
+      <c r="F1281" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1281" t="str">
+        <v>./mid_thumbs/713/IMG_2356.jpg</v>
+      </c>
+      <c r="H1281" t="str">
+        <v>./small_thumbs/713/IMG_2356.jpg</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282">
+        <v>1285</v>
+      </c>
+      <c r="B1282">
+        <v>713</v>
+      </c>
+      <c r="C1282" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 本尊</v>
+      </c>
+      <c r="D1282" t="str">
+        <v>./images/713/IMG_2361.jpg</v>
+      </c>
+      <c r="E1282" t="str">
+        <v>2017-06-17T13:57:50</v>
+      </c>
+      <c r="F1282" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1282" t="str">
+        <v>./mid_thumbs/713/IMG_2361.jpg</v>
+      </c>
+      <c r="H1282" t="str">
+        <v>./small_thumbs/713/IMG_2361.jpg</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283">
+        <v>1286</v>
+      </c>
+      <c r="B1283">
+        <v>713</v>
+      </c>
+      <c r="C1283" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 お堂奥右側</v>
+      </c>
+      <c r="D1283" t="str">
+        <v>./images/713/IMG_2362.jpg</v>
+      </c>
+      <c r="E1283" t="str">
+        <v>2017-06-17T13:58:38</v>
+      </c>
+      <c r="F1283" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1283" t="str">
+        <v>./mid_thumbs/713/IMG_2362.jpg</v>
+      </c>
+      <c r="H1283" t="str">
+        <v>./small_thumbs/713/IMG_2362.jpg</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284">
+        <v>1287</v>
+      </c>
+      <c r="B1284">
+        <v>713</v>
+      </c>
+      <c r="C1284" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 お堂奥左側</v>
+      </c>
+      <c r="D1284" t="str">
+        <v>./images/713/IMG_2363.jpg</v>
+      </c>
+      <c r="E1284" t="str">
+        <v>2017-06-17T13:58:42</v>
+      </c>
+      <c r="F1284" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1284" t="str">
+        <v>./mid_thumbs/713/IMG_2363.jpg</v>
+      </c>
+      <c r="H1284" t="str">
+        <v>./small_thumbs/713/IMG_2363.jpg</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285">
+        <v>1288</v>
+      </c>
+      <c r="B1285">
+        <v>713</v>
+      </c>
+      <c r="C1285" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 お堂</v>
+      </c>
+      <c r="D1285" t="str">
+        <v>./images/713/IMG_8506.jpg</v>
+      </c>
+      <c r="E1285" t="str">
+        <v>2018-12-21T16:15:45</v>
+      </c>
+      <c r="F1285" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1285" t="str">
+        <v>./mid_thumbs/713/IMG_8506.jpg</v>
+      </c>
+      <c r="H1285" t="str">
+        <v>./small_thumbs/713/IMG_8506.jpg</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286">
+        <v>1289</v>
+      </c>
+      <c r="B1286">
+        <v>713</v>
+      </c>
+      <c r="C1286" t="str">
+        <v>古跡伏見崗 阿弥陀如来石仏 本尊</v>
+      </c>
+      <c r="D1286" t="str">
+        <v>./images/713/IMG_8509.jpg</v>
+      </c>
+      <c r="E1286" t="str">
+        <v>2018-12-21T16:17:12</v>
+      </c>
+      <c r="F1286" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1286" t="str">
+        <v>./mid_thumbs/713/IMG_8509.jpg</v>
+      </c>
+      <c r="H1286" t="str">
+        <v>./small_thumbs/713/IMG_8509.jpg</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287">
+        <v>1290</v>
+      </c>
+      <c r="B1287">
+        <v>714</v>
+      </c>
+      <c r="C1287" t="str">
+        <v>尼ヶ辻地蔵石仏 地蔵堂</v>
+      </c>
+      <c r="D1287" t="str">
+        <v>./images/714/IMG_2352.jpg</v>
+      </c>
+      <c r="E1287" t="str">
+        <v>2017-06-17T13:52:31</v>
+      </c>
+      <c r="F1287" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1287" t="str">
+        <v>./mid_thumbs/714/IMG_2352.jpg</v>
+      </c>
+      <c r="H1287" t="str">
+        <v>./small_thumbs/714/IMG_2352.jpg</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288">
+        <v>1291</v>
+      </c>
+      <c r="B1288">
+        <v>714</v>
+      </c>
+      <c r="C1288" t="str">
+        <v>尼ヶ辻地蔵石仏</v>
+      </c>
+      <c r="D1288" t="str">
+        <v>./images/714/IMG_2353.jpg</v>
+      </c>
+      <c r="E1288" t="str">
+        <v>2017-06-17T13:53:02</v>
+      </c>
+      <c r="F1288" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1288" t="str">
+        <v>./mid_thumbs/714/IMG_2353.jpg</v>
+      </c>
+      <c r="H1288" t="str">
+        <v>./small_thumbs/714/IMG_2353.jpg</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289">
+        <v>1292</v>
+      </c>
+      <c r="B1289">
+        <v>714</v>
+      </c>
+      <c r="C1289" t="str">
+        <v>尼ヶ辻地蔵石仏</v>
+      </c>
+      <c r="D1289" t="str">
+        <v>./images/714/IMG_2354.jpg</v>
+      </c>
+      <c r="E1289" t="str">
+        <v>2017-06-17T13:53:57</v>
+      </c>
+      <c r="F1289" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1289" t="str">
+        <v>./mid_thumbs/714/IMG_2354.jpg</v>
+      </c>
+      <c r="H1289" t="str">
+        <v>./small_thumbs/714/IMG_2354.jpg</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290">
+        <v>1293</v>
+      </c>
+      <c r="B1290">
+        <v>714</v>
+      </c>
+      <c r="C1290" t="str">
+        <v>尼ヶ辻地蔵石仏 地蔵堂</v>
+      </c>
+      <c r="D1290" t="str">
+        <v>./images/714/IMG_8502.jpg</v>
+      </c>
+      <c r="E1290" t="str">
+        <v>2018-12-21T16:11:03</v>
+      </c>
+      <c r="F1290" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1290" t="str">
+        <v>./mid_thumbs/714/IMG_8502.jpg</v>
+      </c>
+      <c r="H1290" t="str">
+        <v>./small_thumbs/714/IMG_8502.jpg</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291">
+        <v>1294</v>
+      </c>
+      <c r="B1291">
+        <v>714</v>
+      </c>
+      <c r="C1291" t="str">
+        <v>尼ヶ辻地蔵石仏</v>
+      </c>
+      <c r="D1291" t="str">
+        <v>./images/714/IMG_8503.jpg</v>
+      </c>
+      <c r="E1291" t="str">
+        <v>2018-12-21T16:11:34</v>
+      </c>
+      <c r="F1291" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1291" t="str">
+        <v>./mid_thumbs/714/IMG_8503.jpg</v>
+      </c>
+      <c r="H1291" t="str">
+        <v>./small_thumbs/714/IMG_8503.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1266"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1291"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M441"/>
+  <dimension ref="A1:M479"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1572,7 +1572,7 @@
         <v>地蔵堂</v>
       </c>
       <c r="D35" t="str">
-        <v>地蔵堂</v>
+        <v>寺町 地蔵堂</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1580,11 +1580,14 @@
       <c r="H35" t="str">
         <v>2017-02-18</v>
       </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>105</v>
       </c>
       <c r="K35" t="str">
-        <v>小川町</v>
+        <v>寺町</v>
       </c>
       <c r="L35">
         <v>135.8252665391214</v>
@@ -2601,7 +2604,7 @@
         <v>地蔵堂</v>
       </c>
       <c r="D65" t="str">
-        <v>法蓮町</v>
+        <v>北袋町 地蔵堂</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2616,7 +2619,7 @@
         <v>186</v>
       </c>
       <c r="K65" t="str">
-        <v>法蓮町</v>
+        <v>北袋町</v>
       </c>
       <c r="L65">
         <v>135.82816205292522</v>
@@ -10152,11 +10155,14 @@
       <c r="H284" t="str">
         <v>2020-06-27</v>
       </c>
+      <c r="I284" t="b">
+        <v>0</v>
+      </c>
       <c r="J284">
         <v>726</v>
       </c>
       <c r="K284" t="str">
-        <v>西九条町五丁目</v>
+        <v>杏町</v>
       </c>
       <c r="L284">
         <v>135.79557611002193</v>
@@ -14705,7 +14711,7 @@
         <v>地蔵尊</v>
       </c>
       <c r="D412" t="str">
-        <v/>
+        <v>六条町 地蔵尊</v>
       </c>
       <c r="E412" t="b">
         <v>0</v>
@@ -14715,6 +14721,9 @@
       </c>
       <c r="I412" t="b">
         <v>0</v>
+      </c>
+      <c r="K412" t="str">
+        <v>六条町</v>
       </c>
       <c r="L412">
         <v>135.78701131361993</v>
@@ -15729,9 +15738,1225 @@
         <v>34.681675906083825</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442">
+        <v>715</v>
+      </c>
+      <c r="B442" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C442" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D442" t="str">
+        <v>西ノ京町 地蔵尊</v>
+      </c>
+      <c r="E442" t="b">
+        <v>0</v>
+      </c>
+      <c r="F442" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I442" t="b">
+        <v>0</v>
+      </c>
+      <c r="K442" t="str">
+        <v>西ノ京町</v>
+      </c>
+      <c r="L442">
+        <v>135.78758806334997</v>
+      </c>
+      <c r="M442">
+        <v>34.67000375610401</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>716</v>
+      </c>
+      <c r="B443" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C443" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D443" t="str">
+        <v>六条町 地蔵尊</v>
+      </c>
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
+      <c r="F443" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I443" t="b">
+        <v>0</v>
+      </c>
+      <c r="K443" t="str">
+        <v>六条町</v>
+      </c>
+      <c r="L443">
+        <v>135.7877498361933</v>
+      </c>
+      <c r="M443">
+        <v>34.671547857075254</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>717</v>
+      </c>
+      <c r="B444" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C444" t="str">
+        <v>地蔵辻堂</v>
+      </c>
+      <c r="D444" t="str">
+        <v>六条町 地蔵辻堂</v>
+      </c>
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
+      <c r="F444" t="str">
+        <v>Google Mapsで発見、ただし画像では確認できない</v>
+      </c>
+      <c r="I444" t="b">
+        <v>0</v>
+      </c>
+      <c r="K444" t="str">
+        <v>六条町</v>
+      </c>
+      <c r="L444">
+        <v>135.78780451997136</v>
+      </c>
+      <c r="M444">
+        <v>34.67182144477959</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>718</v>
+      </c>
+      <c r="B445" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C445" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D445" t="str">
+        <v>五条町 地蔵尊</v>
+      </c>
+      <c r="E445" t="b">
+        <v>0</v>
+      </c>
+      <c r="F445" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I445" t="b">
+        <v>0</v>
+      </c>
+      <c r="K445" t="str">
+        <v>五条町</v>
+      </c>
+      <c r="L445">
+        <v>135.7873716067286</v>
+      </c>
+      <c r="M445">
+        <v>34.67339549346808</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>719</v>
+      </c>
+      <c r="B446" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C446" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D446" t="str">
+        <v>五条町 地蔵尊</v>
+      </c>
+      <c r="E446" t="b">
+        <v>0</v>
+      </c>
+      <c r="F446" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I446" t="b">
+        <v>0</v>
+      </c>
+      <c r="K446" t="str">
+        <v>五条町</v>
+      </c>
+      <c r="L446">
+        <v>135.7840951370283</v>
+      </c>
+      <c r="M446">
+        <v>34.67258598644996</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>720</v>
+      </c>
+      <c r="B447" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C447" t="str">
+        <v>西ノ京集会所地蔵尊</v>
+      </c>
+      <c r="D447" t="str">
+        <v>西ノ京町 西ノ京集会所地蔵尊</v>
+      </c>
+      <c r="E447" t="b">
+        <v>0</v>
+      </c>
+      <c r="F447" t="str">
+        <v>Google Mapsから取得</v>
+      </c>
+      <c r="I447" t="b">
+        <v>0</v>
+      </c>
+      <c r="K447" t="str">
+        <v>西ノ京町</v>
+      </c>
+      <c r="L447">
+        <v>135.78729413804305</v>
+      </c>
+      <c r="M447">
+        <v>34.67080954054164</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>721</v>
+      </c>
+      <c r="B448" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C448" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D448" t="str">
+        <v>杏町 地蔵尊</v>
+      </c>
+      <c r="E448" t="b">
+        <v>0</v>
+      </c>
+      <c r="F448" t="str">
+        <v>Google Mapsから取得</v>
+      </c>
+      <c r="I448" t="b">
+        <v>0</v>
+      </c>
+      <c r="K448" t="str">
+        <v>杏町</v>
+      </c>
+      <c r="L448">
+        <v>135.80039773835367</v>
+      </c>
+      <c r="M448">
+        <v>34.661907998463526</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>722</v>
+      </c>
+      <c r="B449" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C449" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D449" t="str">
+        <v>三条大路5丁目 地蔵尊</v>
+      </c>
+      <c r="E449" t="b">
+        <v>0</v>
+      </c>
+      <c r="F449" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I449" t="b">
+        <v>0</v>
+      </c>
+      <c r="K449" t="str">
+        <v>三条大路5丁目</v>
+      </c>
+      <c r="L449">
+        <v>135.7876040127853</v>
+      </c>
+      <c r="M449">
+        <v>34.68308272973851</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>723</v>
+      </c>
+      <c r="B450" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C450" t="str">
+        <v>出屋敷地蔵尊</v>
+      </c>
+      <c r="D450" t="str">
+        <v>四条大路3丁目 出屋敷地蔵尊</v>
+      </c>
+      <c r="E450" t="b">
+        <v>0</v>
+      </c>
+      <c r="F450" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I450" t="b">
+        <v>0</v>
+      </c>
+      <c r="K450" t="str">
+        <v>四条大路3丁目</v>
+      </c>
+      <c r="L450">
+        <v>135.79625544216785</v>
+      </c>
+      <c r="M450">
+        <v>34.68164189535085</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>724</v>
+      </c>
+      <c r="B451" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C451" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D451" t="str">
+        <v>大和田町 地蔵尊</v>
+      </c>
+      <c r="E451" t="b">
+        <v>0</v>
+      </c>
+      <c r="F451" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I451" t="b">
+        <v>0</v>
+      </c>
+      <c r="K451" t="str">
+        <v>大和田町</v>
+      </c>
+      <c r="L451">
+        <v>135.7586166745784</v>
+      </c>
+      <c r="M451">
+        <v>34.659953984494265</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>725</v>
+      </c>
+      <c r="B452" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C452" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D452" t="str">
+        <v>中町 地蔵尊</v>
+      </c>
+      <c r="E452" t="b">
+        <v>0</v>
+      </c>
+      <c r="F452" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I452" t="b">
+        <v>0</v>
+      </c>
+      <c r="K452" t="str">
+        <v>中町</v>
+      </c>
+      <c r="L452">
+        <v>135.7480696736393</v>
+      </c>
+      <c r="M452">
+        <v>34.67707513201993</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>726</v>
+      </c>
+      <c r="B453" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C453" t="str">
+        <v>下條地蔵塚</v>
+      </c>
+      <c r="D453" t="str">
+        <v>三碓4丁目 下條地蔵塚</v>
+      </c>
+      <c r="E453" t="b">
+        <v>0</v>
+      </c>
+      <c r="F453" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I453" t="b">
+        <v>0</v>
+      </c>
+      <c r="K453" t="str">
+        <v>三碓4丁目</v>
+      </c>
+      <c r="L453">
+        <v>135.73843392898206</v>
+      </c>
+      <c r="M453">
+        <v>34.687342182418725</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>727</v>
+      </c>
+      <c r="B454" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C454" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D454" t="str">
+        <v>大宮町2丁目 地蔵尊</v>
+      </c>
+      <c r="E454" t="b">
+        <v>0</v>
+      </c>
+      <c r="F454" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I454" t="b">
+        <v>0</v>
+      </c>
+      <c r="K454" t="str">
+        <v>大宮町2丁目</v>
+      </c>
+      <c r="L454">
+        <v>135.81665440510173</v>
+      </c>
+      <c r="M454">
+        <v>34.68318035886338</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>728</v>
+      </c>
+      <c r="B455" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C455" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D455" t="str">
+        <v>山陵町 地蔵尊</v>
+      </c>
+      <c r="E455" t="b">
+        <v>0</v>
+      </c>
+      <c r="F455" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I455" t="b">
+        <v>0</v>
+      </c>
+      <c r="K455" t="str">
+        <v>山陵町</v>
+      </c>
+      <c r="L455">
+        <v>135.78704576250942</v>
+      </c>
+      <c r="M455">
+        <v>34.70185413678643</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>729</v>
+      </c>
+      <c r="B456" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C456" t="str">
+        <v>大社大神</v>
+      </c>
+      <c r="D456" t="str">
+        <v>山陵町 大社大神</v>
+      </c>
+      <c r="E456" t="b">
+        <v>0</v>
+      </c>
+      <c r="F456" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I456" t="b">
+        <v>0</v>
+      </c>
+      <c r="K456" t="str">
+        <v>山陵町</v>
+      </c>
+      <c r="L456">
+        <v>135.78800013817354</v>
+      </c>
+      <c r="M456">
+        <v>34.702049502958765</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>730</v>
+      </c>
+      <c r="B457" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C457" t="str">
+        <v>地蔵堂 地蔵菩薩立像</v>
+      </c>
+      <c r="D457" t="str">
+        <v>法華寺町 地蔵堂 地蔵菩薩立像</v>
+      </c>
+      <c r="E457" t="b">
+        <v>0</v>
+      </c>
+      <c r="F457" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I457" t="b">
+        <v>0</v>
+      </c>
+      <c r="K457" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L457">
+        <v>135.8059243863396</v>
+      </c>
+      <c r="M457">
+        <v>34.69471350177452</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>731</v>
+      </c>
+      <c r="B458" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C458" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D458" t="str">
+        <v>あやめ池南3丁目 地蔵尊</v>
+      </c>
+      <c r="E458" t="b">
+        <v>0</v>
+      </c>
+      <c r="F458" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I458" t="b">
+        <v>0</v>
+      </c>
+      <c r="K458" t="str">
+        <v>あやめ池南3丁目</v>
+      </c>
+      <c r="L458">
+        <v>135.7691100158412</v>
+      </c>
+      <c r="M458">
+        <v>34.69641836074256</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>732</v>
+      </c>
+      <c r="B459" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C459" t="str">
+        <v>鷹塚山地蔵尊</v>
+      </c>
+      <c r="D459" t="str">
+        <v>西大寺高塚町 鷹塚山地蔵尊</v>
+      </c>
+      <c r="E459" t="b">
+        <v>0</v>
+      </c>
+      <c r="F459" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I459" t="b">
+        <v>0</v>
+      </c>
+      <c r="K459" t="str">
+        <v>西大寺高塚町</v>
+      </c>
+      <c r="L459">
+        <v>135.7674369838035</v>
+      </c>
+      <c r="M459">
+        <v>34.695477698908206</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>733</v>
+      </c>
+      <c r="B460" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C460" t="str">
+        <v>歌姫街道地蔵堂</v>
+      </c>
+      <c r="D460" t="str">
+        <v>佐紀町 歌姫街道地蔵堂</v>
+      </c>
+      <c r="E460" t="b">
+        <v>0</v>
+      </c>
+      <c r="F460" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I460" t="b">
+        <v>0</v>
+      </c>
+      <c r="K460" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L460">
+        <v>135.79547608087577</v>
+      </c>
+      <c r="M460">
+        <v>34.69978228165415</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>734</v>
+      </c>
+      <c r="B461" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C461" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D461" t="str">
+        <v>佐紀町 地蔵尊</v>
+      </c>
+      <c r="E461" t="b">
+        <v>0</v>
+      </c>
+      <c r="F461" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I461" t="b">
+        <v>0</v>
+      </c>
+      <c r="K461" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L461">
+        <v>135.7981092378287</v>
+      </c>
+      <c r="M461">
+        <v>34.70000443742519</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>735</v>
+      </c>
+      <c r="B462" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C462" t="str">
+        <v>天白大神</v>
+      </c>
+      <c r="D462" t="str">
+        <v>佐紀町 天白大神</v>
+      </c>
+      <c r="E462" t="b">
+        <v>0</v>
+      </c>
+      <c r="F462" t="str">
+        <v>Google mapsで発見</v>
+      </c>
+      <c r="I462" t="b">
+        <v>0</v>
+      </c>
+      <c r="K462" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L462">
+        <v>135.7955824420191</v>
+      </c>
+      <c r="M462">
+        <v>34.701995934860626</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>736</v>
+      </c>
+      <c r="B463" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C463" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D463" t="str">
+        <v>中町 地蔵尊</v>
+      </c>
+      <c r="E463" t="b">
+        <v>0</v>
+      </c>
+      <c r="F463" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I463" t="b">
+        <v>0</v>
+      </c>
+      <c r="K463" t="str">
+        <v>中町</v>
+      </c>
+      <c r="L463">
+        <v>135.74233671219463</v>
+      </c>
+      <c r="M463">
+        <v>34.674504624380795</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>737</v>
+      </c>
+      <c r="B464" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C464" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D464" t="str">
+        <v>法華寺町 地蔵尊</v>
+      </c>
+      <c r="E464" t="b">
+        <v>0</v>
+      </c>
+      <c r="F464" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I464" t="b">
+        <v>0</v>
+      </c>
+      <c r="K464" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L464">
+        <v>135.80467200783224</v>
+      </c>
+      <c r="M464">
+        <v>34.69936869219372</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>738</v>
+      </c>
+      <c r="B465" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C465" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D465" t="str">
+        <v>佐紀町 地蔵尊</v>
+      </c>
+      <c r="E465" t="b">
+        <v>0</v>
+      </c>
+      <c r="F465" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I465" t="b">
+        <v>0</v>
+      </c>
+      <c r="K465" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L465">
+        <v>135.80178205100182</v>
+      </c>
+      <c r="M465">
+        <v>34.70244417273023</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>739</v>
+      </c>
+      <c r="B466" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C466" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D466" t="str">
+        <v>今市町 地蔵尊</v>
+      </c>
+      <c r="E466" t="b">
+        <v>0</v>
+      </c>
+      <c r="F466" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I466" t="b">
+        <v>0</v>
+      </c>
+      <c r="K466" t="str">
+        <v>今市町</v>
+      </c>
+      <c r="L466">
+        <v>135.82706150759947</v>
+      </c>
+      <c r="M466">
+        <v>34.64260856643526</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>740</v>
+      </c>
+      <c r="B467" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C467" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D467" t="str">
+        <v>大宮町1丁目 地蔵尊</v>
+      </c>
+      <c r="E467" t="b">
+        <v>0</v>
+      </c>
+      <c r="F467" t="str">
+        <v>Google mapsで発見</v>
+      </c>
+      <c r="I467" t="b">
+        <v>0</v>
+      </c>
+      <c r="K467" t="str">
+        <v>大宮町1丁目</v>
+      </c>
+      <c r="L467">
+        <v>135.81901638904898</v>
+      </c>
+      <c r="M467">
+        <v>34.68440481712454</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>741</v>
+      </c>
+      <c r="B468" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C468" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D468" t="str">
+        <v>大安寺4丁目 地蔵堂</v>
+      </c>
+      <c r="E468" t="b">
+        <v>0</v>
+      </c>
+      <c r="F468" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I468" t="b">
+        <v>0</v>
+      </c>
+      <c r="K468" t="str">
+        <v>大安寺4丁目</v>
+      </c>
+      <c r="L468">
+        <v>135.81344632304942</v>
+      </c>
+      <c r="M468">
+        <v>34.66992053831136</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469">
+        <v>742</v>
+      </c>
+      <c r="B469" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C469" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D469" t="str">
+        <v>北向町 地蔵尊</v>
+      </c>
+      <c r="E469" t="b">
+        <v>0</v>
+      </c>
+      <c r="F469" t="str">
+        <v>Google Mapsで発見、駐車場の石築地に埋め込み</v>
+      </c>
+      <c r="I469" t="b">
+        <v>0</v>
+      </c>
+      <c r="K469" t="str">
+        <v>北向町</v>
+      </c>
+      <c r="L469">
+        <v>135.82525432637186</v>
+      </c>
+      <c r="M469">
+        <v>34.68114979839744</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>743</v>
+      </c>
+      <c r="B470" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C470" t="str">
+        <v>千体地蔵菩薩尊</v>
+      </c>
+      <c r="D470" t="str">
+        <v>餅飯殿町 千体地蔵菩薩尊</v>
+      </c>
+      <c r="E470" t="b">
+        <v>0</v>
+      </c>
+      <c r="F470" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I470" t="b">
+        <v>0</v>
+      </c>
+      <c r="K470" t="str">
+        <v>餅飯殿町</v>
+      </c>
+      <c r="L470">
+        <v>135.82873645605403</v>
+      </c>
+      <c r="M470">
+        <v>34.6805651264303</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471">
+        <v>744</v>
+      </c>
+      <c r="B471" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C471" t="str">
+        <v>首切地蔵</v>
+      </c>
+      <c r="D471" t="str">
+        <v>百毫寺町 首切地蔵</v>
+      </c>
+      <c r="E471" t="b">
+        <v>0</v>
+      </c>
+      <c r="F471" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I471" t="b">
+        <v>0</v>
+      </c>
+      <c r="K471" t="str">
+        <v>百毫寺町</v>
+      </c>
+      <c r="L471">
+        <v>135.8713431969235</v>
+      </c>
+      <c r="M471">
+        <v>34.67454087366348</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472">
+        <v>745</v>
+      </c>
+      <c r="B472" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C472" t="str">
+        <v>向山地蔵</v>
+      </c>
+      <c r="D472" t="str">
+        <v>山町 向山地蔵</v>
+      </c>
+      <c r="E472" t="b">
+        <v>0</v>
+      </c>
+      <c r="F472" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I472" t="b">
+        <v>0</v>
+      </c>
+      <c r="K472" t="str">
+        <v>山町</v>
+      </c>
+      <c r="L472">
+        <v>135.84342483412183</v>
+      </c>
+      <c r="M472">
+        <v>34.645126458732314</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473">
+        <v>746</v>
+      </c>
+      <c r="B473" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C473" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D473" t="str">
+        <v>山町 地蔵尊</v>
+      </c>
+      <c r="E473" t="b">
+        <v>0</v>
+      </c>
+      <c r="F473" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I473" t="b">
+        <v>0</v>
+      </c>
+      <c r="K473" t="str">
+        <v>山町</v>
+      </c>
+      <c r="L473">
+        <v>135.84810089159274</v>
+      </c>
+      <c r="M473">
+        <v>34.642499776629144</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474">
+        <v>747</v>
+      </c>
+      <c r="B474" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C474" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D474" t="str">
+        <v>学園大和町5丁目 地蔵尊</v>
+      </c>
+      <c r="E474" t="b">
+        <v>0</v>
+      </c>
+      <c r="F474" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I474" t="b">
+        <v>0</v>
+      </c>
+      <c r="K474" t="str">
+        <v>学園大和町5丁目</v>
+      </c>
+      <c r="L474">
+        <v>135.73818479477163</v>
+      </c>
+      <c r="M474">
+        <v>34.68934028765981</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475">
+        <v>748</v>
+      </c>
+      <c r="B475" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C475" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D475" t="str">
+        <v>佐紀町 地蔵尊</v>
+      </c>
+      <c r="E475" t="b">
+        <v>0</v>
+      </c>
+      <c r="F475" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I475" t="b">
+        <v>0</v>
+      </c>
+      <c r="K475" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L475">
+        <v>135.79117180830144</v>
+      </c>
+      <c r="M475">
+        <v>34.69493724682034</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476">
+        <v>749</v>
+      </c>
+      <c r="B476" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C476" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D476" t="str">
+        <v>南袋町 地蔵尊</v>
+      </c>
+      <c r="E476" t="b">
+        <v>0</v>
+      </c>
+      <c r="F476" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I476" t="b">
+        <v>0</v>
+      </c>
+      <c r="K476" t="str">
+        <v>南袋町</v>
+      </c>
+      <c r="L476">
+        <v>135.82675008983713</v>
+      </c>
+      <c r="M476">
+        <v>34.67712714024114</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477">
+        <v>750</v>
+      </c>
+      <c r="B477" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C477" t="str">
+        <v>なくなった？地蔵</v>
+      </c>
+      <c r="D477" t="str">
+        <v>雑司町 なくなった？地蔵</v>
+      </c>
+      <c r="E477" t="b">
+        <v>0</v>
+      </c>
+      <c r="F477" t="str">
+        <v>Google Mapsで発見したが、2021年ごろより見当たらない</v>
+      </c>
+      <c r="I477" t="b">
+        <v>1</v>
+      </c>
+      <c r="K477" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="L477">
+        <v>135.83564897215922</v>
+      </c>
+      <c r="M477">
+        <v>34.693311142287115</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478">
+        <v>751</v>
+      </c>
+      <c r="B478" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C478" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D478" t="str">
+        <v>山町 地蔵尊</v>
+      </c>
+      <c r="E478" t="b">
+        <v>0</v>
+      </c>
+      <c r="F478" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I478" t="b">
+        <v>0</v>
+      </c>
+      <c r="K478" t="str">
+        <v>山町</v>
+      </c>
+      <c r="L478">
+        <v>135.82826501747246</v>
+      </c>
+      <c r="M478">
+        <v>34.64351041266476</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479">
+        <v>752</v>
+      </c>
+      <c r="B479" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C479" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D479" t="str">
+        <v>南魚屋町 地蔵群</v>
+      </c>
+      <c r="E479" t="b">
+        <v>0</v>
+      </c>
+      <c r="F479" t="str">
+        <v>Google Mapsで発見</v>
+      </c>
+      <c r="I479" t="b">
+        <v>0</v>
+      </c>
+      <c r="K479" t="str">
+        <v>南魚屋町</v>
+      </c>
+      <c r="L479">
+        <v>135.82502339812325</v>
+      </c>
+      <c r="M479">
+        <v>34.678473826600865</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M441"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M479"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M479"/>
+  <dimension ref="A1:M491"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2158,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="H52" t="str">
-        <v>2018-07-21</v>
+        <v>2021-03-19</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>152</v>
+        <v>1350</v>
       </c>
       <c r="K52" t="str">
         <v>佐紀町</v>
@@ -5144,13 +5144,13 @@
         <v>1</v>
       </c>
       <c r="H138" t="str">
-        <v>2018-07-21</v>
+        <v>2021-03-19</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>379</v>
+        <v>1358</v>
       </c>
       <c r="K138" t="str">
         <v>佐紀町</v>
@@ -16162,19 +16162,25 @@
         <v>地蔵</v>
       </c>
       <c r="C455" t="str">
-        <v>地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D455" t="str">
-        <v>山陵町 地蔵尊</v>
+        <v>山陵町 地蔵堂</v>
       </c>
       <c r="E455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H455" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I455" t="b">
         <v>0</v>
+      </c>
+      <c r="J455">
+        <v>1320</v>
       </c>
       <c r="K455" t="str">
         <v>山陵町</v>
@@ -16200,13 +16206,19 @@
         <v>山陵町 大社大神</v>
       </c>
       <c r="E456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H456" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I456" t="b">
         <v>0</v>
+      </c>
+      <c r="J456">
+        <v>1330</v>
       </c>
       <c r="K456" t="str">
         <v>山陵町</v>
@@ -16328,13 +16340,19 @@
         <v>佐紀町 歌姫街道地蔵堂</v>
       </c>
       <c r="E460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H460" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I460" t="b">
         <v>0</v>
+      </c>
+      <c r="J460">
+        <v>1345</v>
       </c>
       <c r="K460" t="str">
         <v>佐紀町</v>
@@ -16392,13 +16410,19 @@
         <v>佐紀町 天白大神</v>
       </c>
       <c r="E462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" t="str">
-        <v>Google mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H462" t="str">
+        <v>2017-05-02</v>
       </c>
       <c r="I462" t="b">
         <v>0</v>
+      </c>
+      <c r="J462">
+        <v>1338</v>
       </c>
       <c r="K462" t="str">
         <v>佐紀町</v>
@@ -16808,13 +16832,19 @@
         <v>佐紀町 地蔵尊</v>
       </c>
       <c r="E475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F475" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H475" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I475" t="b">
         <v>0</v>
+      </c>
+      <c r="J475">
+        <v>1335</v>
       </c>
       <c r="K475" t="str">
         <v>佐紀町</v>
@@ -16954,16 +16984,439 @@
         <v>34.678473826600865</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480">
+        <v>753</v>
+      </c>
+      <c r="B480" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C480" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D480" t="str">
+        <v>西大寺野神町1丁目 地蔵堂</v>
+      </c>
+      <c r="E480" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I480" t="b">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>1295</v>
+      </c>
+      <c r="K480" t="str">
+        <v>西大寺野神町1丁目</v>
+      </c>
+      <c r="L480">
+        <v>135.77489281786012</v>
+      </c>
+      <c r="M480">
+        <v>34.69408280776752</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481">
+        <v>754</v>
+      </c>
+      <c r="B481" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C481" t="str">
+        <v>石塚と功労者記念碑</v>
+      </c>
+      <c r="D481" t="str">
+        <v>西大寺野神町1丁目 石塚と功労者記念碑</v>
+      </c>
+      <c r="E481" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I481" t="b">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>1299</v>
+      </c>
+      <c r="K481" t="str">
+        <v>西大寺野神町1丁目</v>
+      </c>
+      <c r="L481">
+        <v>135.77450653575954</v>
+      </c>
+      <c r="M481">
+        <v>34.69417354497826</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482">
+        <v>755</v>
+      </c>
+      <c r="B482" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C482" t="str">
+        <v>石碑群 詳細は不明</v>
+      </c>
+      <c r="D482" t="str">
+        <v>西大寺新池町</v>
+      </c>
+      <c r="E482" t="b">
+        <v>1</v>
+      </c>
+      <c r="F482" t="str">
+        <v>詳細について調査必要</v>
+      </c>
+      <c r="H482" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I482" t="b">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>1300</v>
+      </c>
+      <c r="K482" t="str">
+        <v>西大寺新池町</v>
+      </c>
+      <c r="L482">
+        <v>135.7739954749431</v>
+      </c>
+      <c r="M482">
+        <v>34.69470372244383</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483">
+        <v>756</v>
+      </c>
+      <c r="B483" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C483" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D483" t="str">
+        <v>西大寺新田町 地蔵堂</v>
+      </c>
+      <c r="E483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="str">
+        <v>2017-06-17</v>
+      </c>
+      <c r="I483" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>1303</v>
+      </c>
+      <c r="K483" t="str">
+        <v>西大寺新田町</v>
+      </c>
+      <c r="L483">
+        <v>135.7783412068523</v>
+      </c>
+      <c r="M483">
+        <v>34.694895487924754</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484">
+        <v>757</v>
+      </c>
+      <c r="B484" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C484" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D484" t="str">
+        <v>西大寺小坊町 小祠</v>
+      </c>
+      <c r="E484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="str">
+        <v>2017-05-04</v>
+      </c>
+      <c r="I484" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>1305</v>
+      </c>
+      <c r="K484" t="str">
+        <v>西大寺小坊町</v>
+      </c>
+      <c r="L484">
+        <v>135.77974062170549</v>
+      </c>
+      <c r="M484">
+        <v>34.695052002068856</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485">
+        <v>758</v>
+      </c>
+      <c r="B485" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C485" t="str">
+        <v>観世音菩薩堂</v>
+      </c>
+      <c r="D485" t="str">
+        <v>青野町1丁目 観世音菩薩堂</v>
+      </c>
+      <c r="E485" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I485" t="b">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>1307</v>
+      </c>
+      <c r="K485" t="str">
+        <v>青野町1丁目</v>
+      </c>
+      <c r="L485">
+        <v>135.77736024447975</v>
+      </c>
+      <c r="M485">
+        <v>34.6900208407046</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486">
+        <v>759</v>
+      </c>
+      <c r="B486" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C486" t="str">
+        <v>地蔵群の地蔵堂</v>
+      </c>
+      <c r="D486" t="str">
+        <v>青野町1丁目 地蔵群の地蔵堂</v>
+      </c>
+      <c r="E486" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I486" t="b">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>1310</v>
+      </c>
+      <c r="K486" t="str">
+        <v>青野町1丁目</v>
+      </c>
+      <c r="L486">
+        <v>135.77737739417154</v>
+      </c>
+      <c r="M486">
+        <v>34.69006737470808</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487">
+        <v>760</v>
+      </c>
+      <c r="B487" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C487" t="str">
+        <v>丸彫坐像地蔵の地蔵堂</v>
+      </c>
+      <c r="D487" t="str">
+        <v>青野町1丁目 丸彫坐像地蔵の地蔵堂</v>
+      </c>
+      <c r="E487" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" t="str">
+        <v>2017-05-01</v>
+      </c>
+      <c r="I487" t="b">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>1312</v>
+      </c>
+      <c r="K487" t="str">
+        <v>青野町1丁目</v>
+      </c>
+      <c r="L487">
+        <v>135.77732594509607</v>
+      </c>
+      <c r="M487">
+        <v>34.69005891398212</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488">
+        <v>761</v>
+      </c>
+      <c r="B488" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C488" t="str">
+        <v>三和地蔵尊</v>
+      </c>
+      <c r="D488" t="str">
+        <v>秋篠三和町 三和地蔵尊</v>
+      </c>
+      <c r="E488" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I488" t="b">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>1314</v>
+      </c>
+      <c r="K488" t="str">
+        <v>秋篠三和町</v>
+      </c>
+      <c r="L488">
+        <v>135.77761062998042</v>
+      </c>
+      <c r="M488">
+        <v>34.69968666062181</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489">
+        <v>762</v>
+      </c>
+      <c r="B489" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C489" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D489" t="str">
+        <v>山陵町 地蔵堂</v>
+      </c>
+      <c r="E489" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I489" t="b">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>1316</v>
+      </c>
+      <c r="K489" t="str">
+        <v>山陵町</v>
+      </c>
+      <c r="L489">
+        <v>135.78454939529408</v>
+      </c>
+      <c r="M489">
+        <v>34.6997106298879</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490">
+        <v>763</v>
+      </c>
+      <c r="B490" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C490" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D490" t="str">
+        <v>佐紀町 地蔵堂</v>
+      </c>
+      <c r="E490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="str">
+        <v>2021-03-19</v>
+      </c>
+      <c r="I490" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>1332</v>
+      </c>
+      <c r="K490" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L490">
+        <v>135.79069241490686</v>
+      </c>
+      <c r="M490">
+        <v>34.696346404994955</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491">
+        <v>764</v>
+      </c>
+      <c r="B491" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C491" t="str">
+        <v>愛宕神社</v>
+      </c>
+      <c r="D491" t="str">
+        <v>佐紀町 愛宕神社</v>
+      </c>
+      <c r="E491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I491" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>1357</v>
+      </c>
+      <c r="K491" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L491">
+        <v>135.79578671668125</v>
+      </c>
+      <c r="M491">
+        <v>34.69575911853237</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M479"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M491"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1291"/>
+  <dimension ref="A1:H1358"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -50534,9 +50987,1751 @@
         <v>./small_thumbs/714/IMG_8503.jpg</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292">
+        <v>1295</v>
+      </c>
+      <c r="B1292">
+        <v>753</v>
+      </c>
+      <c r="C1292" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1292" t="str">
+        <v>./images/753/IMG_1366.jpg</v>
+      </c>
+      <c r="E1292" t="str">
+        <v>2017-05-01T13:17:39</v>
+      </c>
+      <c r="F1292" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1292" t="str">
+        <v>./mid_thumbs/753/IMG_1366.jpg</v>
+      </c>
+      <c r="H1292" t="str">
+        <v>./small_thumbs/753/IMG_1366.jpg</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293">
+        <v>1296</v>
+      </c>
+      <c r="B1293">
+        <v>753</v>
+      </c>
+      <c r="C1293" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1293" t="str">
+        <v>./images/753/IMG_1367.jpg</v>
+      </c>
+      <c r="E1293" t="str">
+        <v>2017-05-01T13:17:52</v>
+      </c>
+      <c r="F1293" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1293" t="str">
+        <v>./mid_thumbs/753/IMG_1367.jpg</v>
+      </c>
+      <c r="H1293" t="str">
+        <v>./small_thumbs/753/IMG_1367.jpg</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294">
+        <v>1297</v>
+      </c>
+      <c r="B1294">
+        <v>754</v>
+      </c>
+      <c r="C1294" t="str">
+        <v>功労者記念碑 銘碑</v>
+      </c>
+      <c r="D1294" t="str">
+        <v>./images/754/IMG_1368.jpg</v>
+      </c>
+      <c r="E1294" t="str">
+        <v>2017-05-01T13:19:05</v>
+      </c>
+      <c r="F1294" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1294" t="str">
+        <v>./mid_thumbs/754/IMG_1368.jpg</v>
+      </c>
+      <c r="H1294" t="str">
+        <v>./small_thumbs/754/IMG_1368.jpg</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295">
+        <v>1298</v>
+      </c>
+      <c r="B1295">
+        <v>754</v>
+      </c>
+      <c r="C1295" t="str">
+        <v>功労者記念碑</v>
+      </c>
+      <c r="D1295" t="str">
+        <v>./images/754/IMG_1369.jpg</v>
+      </c>
+      <c r="E1295" t="str">
+        <v>2017-05-01T13:19:12</v>
+      </c>
+      <c r="F1295" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1295" t="str">
+        <v>./mid_thumbs/754/IMG_1369.jpg</v>
+      </c>
+      <c r="H1295" t="str">
+        <v>./small_thumbs/754/IMG_1369.jpg</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296">
+        <v>1299</v>
+      </c>
+      <c r="B1296">
+        <v>754</v>
+      </c>
+      <c r="C1296" t="str">
+        <v>石塚</v>
+      </c>
+      <c r="D1296" t="str">
+        <v>./images/754/IMG_1370.jpg</v>
+      </c>
+      <c r="E1296" t="str">
+        <v>2017-05-01T13:19:44</v>
+      </c>
+      <c r="F1296" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1296" t="str">
+        <v>./mid_thumbs/754/IMG_1370.jpg</v>
+      </c>
+      <c r="H1296" t="str">
+        <v>./small_thumbs/754/IMG_1370.jpg</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297">
+        <v>1300</v>
+      </c>
+      <c r="B1297">
+        <v>755</v>
+      </c>
+      <c r="C1297" t="str">
+        <v>石碑群 詳細は不明</v>
+      </c>
+      <c r="D1297" t="str">
+        <v>./images/755/IMG_1371.jpg</v>
+      </c>
+      <c r="E1297" t="str">
+        <v>2017-05-01T13:21:16</v>
+      </c>
+      <c r="F1297" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1297" t="str">
+        <v>./mid_thumbs/755/IMG_1371.jpg</v>
+      </c>
+      <c r="H1297" t="str">
+        <v>./small_thumbs/755/IMG_1371.jpg</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298">
+        <v>1301</v>
+      </c>
+      <c r="B1298">
+        <v>755</v>
+      </c>
+      <c r="C1298" t="str">
+        <v>石碑群 詳細は不明</v>
+      </c>
+      <c r="D1298" t="str">
+        <v>./images/755/IMG_1372.jpg</v>
+      </c>
+      <c r="E1298" t="str">
+        <v>2017-05-01T13:21:19</v>
+      </c>
+      <c r="F1298" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1298" t="str">
+        <v>./mid_thumbs/755/IMG_1372.jpg</v>
+      </c>
+      <c r="H1298" t="str">
+        <v>./small_thumbs/755/IMG_1372.jpg</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299">
+        <v>1302</v>
+      </c>
+      <c r="B1299">
+        <v>755</v>
+      </c>
+      <c r="C1299" t="str">
+        <v>石碑群 詳細は不明</v>
+      </c>
+      <c r="D1299" t="str">
+        <v>./images/755/IMG_1373.jpg</v>
+      </c>
+      <c r="E1299" t="str">
+        <v>2017-05-01T13:21:22</v>
+      </c>
+      <c r="F1299" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1299" t="str">
+        <v>./mid_thumbs/755/IMG_1373.jpg</v>
+      </c>
+      <c r="H1299" t="str">
+        <v>./small_thumbs/755/IMG_1373.jpg</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300">
+        <v>1303</v>
+      </c>
+      <c r="B1300">
+        <v>756</v>
+      </c>
+      <c r="C1300" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1300" t="str">
+        <v>./images/756/IMG_2394.jpg</v>
+      </c>
+      <c r="E1300" t="str">
+        <v>2017-06-17T14:42:43</v>
+      </c>
+      <c r="F1300" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1300" t="str">
+        <v>./mid_thumbs/756/IMG_2394.jpg</v>
+      </c>
+      <c r="H1300" t="str">
+        <v>./small_thumbs/756/IMG_2394.jpg</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301">
+        <v>1304</v>
+      </c>
+      <c r="B1301">
+        <v>756</v>
+      </c>
+      <c r="C1301" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1301" t="str">
+        <v>./images/756/IMG_2395.jpg</v>
+      </c>
+      <c r="E1301" t="str">
+        <v>2017-06-17T14:42:50</v>
+      </c>
+      <c r="F1301" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1301" t="str">
+        <v>./mid_thumbs/756/IMG_2395.jpg</v>
+      </c>
+      <c r="H1301" t="str">
+        <v>./small_thumbs/756/IMG_2395.jpg</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302">
+        <v>1305</v>
+      </c>
+      <c r="B1302">
+        <v>757</v>
+      </c>
+      <c r="C1302" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D1302" t="str">
+        <v>./images/757/IMG_2011.jpg</v>
+      </c>
+      <c r="E1302" t="str">
+        <v>2017-05-04T17:07:04</v>
+      </c>
+      <c r="F1302" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1302" t="str">
+        <v>./mid_thumbs/757/IMG_2011.jpg</v>
+      </c>
+      <c r="H1302" t="str">
+        <v>./small_thumbs/757/IMG_2011.jpg</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303">
+        <v>1306</v>
+      </c>
+      <c r="B1303">
+        <v>757</v>
+      </c>
+      <c r="C1303" t="str">
+        <v>小祠 内部</v>
+      </c>
+      <c r="D1303" t="str">
+        <v>./images/757/IMG_2012.jpg</v>
+      </c>
+      <c r="E1303" t="str">
+        <v>2017-05-04T17:07:22</v>
+      </c>
+      <c r="F1303" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1303" t="str">
+        <v>./mid_thumbs/757/IMG_2012.jpg</v>
+      </c>
+      <c r="H1303" t="str">
+        <v>./small_thumbs/757/IMG_2012.jpg</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304">
+        <v>1307</v>
+      </c>
+      <c r="B1304">
+        <v>758</v>
+      </c>
+      <c r="C1304" t="str">
+        <v>観世音菩薩堂</v>
+      </c>
+      <c r="D1304" t="str">
+        <v>./images/758/IMG_1413.jpg</v>
+      </c>
+      <c r="E1304" t="str">
+        <v>2017-05-01T14:36:34</v>
+      </c>
+      <c r="F1304" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1304" t="str">
+        <v>./mid_thumbs/758/IMG_1413.jpg</v>
+      </c>
+      <c r="H1304" t="str">
+        <v>./small_thumbs/758/IMG_1413.jpg</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305">
+        <v>1308</v>
+      </c>
+      <c r="B1305">
+        <v>758</v>
+      </c>
+      <c r="C1305" t="str">
+        <v>観世音菩薩堂 扁額</v>
+      </c>
+      <c r="D1305" t="str">
+        <v>./images/758/IMG_1414.jpg</v>
+      </c>
+      <c r="E1305" t="str">
+        <v>2017-05-01T14:36:44</v>
+      </c>
+      <c r="F1305" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1305" t="str">
+        <v>./mid_thumbs/758/IMG_1414.jpg</v>
+      </c>
+      <c r="H1305" t="str">
+        <v>./small_thumbs/758/IMG_1414.jpg</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306">
+        <v>1309</v>
+      </c>
+      <c r="B1306">
+        <v>758</v>
+      </c>
+      <c r="C1306" t="str">
+        <v>観世音菩薩堂 内部</v>
+      </c>
+      <c r="D1306" t="str">
+        <v>./images/758/IMG_1415.jpg</v>
+      </c>
+      <c r="E1306" t="str">
+        <v>2017-05-01T14:36:52</v>
+      </c>
+      <c r="F1306" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1306" t="str">
+        <v>./mid_thumbs/758/IMG_1415.jpg</v>
+      </c>
+      <c r="H1306" t="str">
+        <v>./small_thumbs/758/IMG_1415.jpg</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307">
+        <v>1310</v>
+      </c>
+      <c r="B1307">
+        <v>759</v>
+      </c>
+      <c r="C1307" t="str">
+        <v>地蔵群の地蔵堂</v>
+      </c>
+      <c r="D1307" t="str">
+        <v>./images/759/IMG_1416.jpg</v>
+      </c>
+      <c r="E1307" t="str">
+        <v>2017-05-01T14:37:00</v>
+      </c>
+      <c r="F1307" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1307" t="str">
+        <v>./mid_thumbs/759/IMG_1416.jpg</v>
+      </c>
+      <c r="H1307" t="str">
+        <v>./small_thumbs/759/IMG_1416.jpg</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308">
+        <v>1311</v>
+      </c>
+      <c r="B1308">
+        <v>759</v>
+      </c>
+      <c r="C1308" t="str">
+        <v>地蔵群の地蔵堂 内部</v>
+      </c>
+      <c r="D1308" t="str">
+        <v>./images/759/IMG_1419.jpg</v>
+      </c>
+      <c r="E1308" t="str">
+        <v>2017-05-01T14:37:32</v>
+      </c>
+      <c r="F1308" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1308" t="str">
+        <v>./mid_thumbs/759/IMG_1419.jpg</v>
+      </c>
+      <c r="H1308" t="str">
+        <v>./small_thumbs/759/IMG_1419.jpg</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309">
+        <v>1312</v>
+      </c>
+      <c r="B1309">
+        <v>760</v>
+      </c>
+      <c r="C1309" t="str">
+        <v>丸彫坐像地蔵の地蔵堂</v>
+      </c>
+      <c r="D1309" t="str">
+        <v>./images/760/IMG_1417.jpg</v>
+      </c>
+      <c r="E1309" t="str">
+        <v>2017-05-01T14:37:09</v>
+      </c>
+      <c r="F1309" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1309" t="str">
+        <v>./mid_thumbs/760/IMG_1417.jpg</v>
+      </c>
+      <c r="H1309" t="str">
+        <v>./small_thumbs/760/IMG_1417.jpg</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310">
+        <v>1313</v>
+      </c>
+      <c r="B1310">
+        <v>760</v>
+      </c>
+      <c r="C1310" t="str">
+        <v>丸彫坐像地蔵の地蔵堂 内部</v>
+      </c>
+      <c r="D1310" t="str">
+        <v>./images/760/IMG_1418.jpg</v>
+      </c>
+      <c r="E1310" t="str">
+        <v>2017-05-01T14:37:18</v>
+      </c>
+      <c r="F1310" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1310" t="str">
+        <v>./mid_thumbs/760/IMG_1418.jpg</v>
+      </c>
+      <c r="H1310" t="str">
+        <v>./small_thumbs/760/IMG_1418.jpg</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311">
+        <v>1314</v>
+      </c>
+      <c r="B1311">
+        <v>761</v>
+      </c>
+      <c r="C1311" t="str">
+        <v>三和地蔵尊</v>
+      </c>
+      <c r="D1311" t="str">
+        <v>./images/761/IMG_1565.jpg</v>
+      </c>
+      <c r="E1311" t="str">
+        <v>2017-05-02T11:30:09</v>
+      </c>
+      <c r="F1311" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1311" t="str">
+        <v>./mid_thumbs/761/IMG_1565.jpg</v>
+      </c>
+      <c r="H1311" t="str">
+        <v>./small_thumbs/761/IMG_1565.jpg</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312">
+        <v>1315</v>
+      </c>
+      <c r="B1312">
+        <v>761</v>
+      </c>
+      <c r="C1312" t="str">
+        <v>三和地蔵尊 内部</v>
+      </c>
+      <c r="D1312" t="str">
+        <v>./images/761/IMG_1566.jpg</v>
+      </c>
+      <c r="E1312" t="str">
+        <v>2017-05-02T11:31:03</v>
+      </c>
+      <c r="F1312" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1312" t="str">
+        <v>./mid_thumbs/761/IMG_1566.jpg</v>
+      </c>
+      <c r="H1312" t="str">
+        <v>./small_thumbs/761/IMG_1566.jpg</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313">
+        <v>1316</v>
+      </c>
+      <c r="B1313">
+        <v>762</v>
+      </c>
+      <c r="C1313" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1313" t="str">
+        <v>./images/762/IMG_8337.jpg</v>
+      </c>
+      <c r="E1313" t="str">
+        <v>2020-08-10T13:51:35</v>
+      </c>
+      <c r="F1313" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1313" t="str">
+        <v>./mid_thumbs/762/IMG_8337.jpg</v>
+      </c>
+      <c r="H1313" t="str">
+        <v>./small_thumbs/762/IMG_8337.jpg</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314">
+        <v>1317</v>
+      </c>
+      <c r="B1314">
+        <v>762</v>
+      </c>
+      <c r="C1314" t="str">
+        <v>地蔵堂 水子地蔵尊</v>
+      </c>
+      <c r="D1314" t="str">
+        <v>./images/762/IMG_8338.jpg</v>
+      </c>
+      <c r="E1314" t="str">
+        <v>2020-08-10T13:51:45</v>
+      </c>
+      <c r="F1314" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1314" t="str">
+        <v>./mid_thumbs/762/IMG_8338.jpg</v>
+      </c>
+      <c r="H1314" t="str">
+        <v>./small_thumbs/762/IMG_8338.jpg</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315">
+        <v>1318</v>
+      </c>
+      <c r="B1315">
+        <v>762</v>
+      </c>
+      <c r="C1315" t="str">
+        <v>地蔵堂 丸彫地蔵尊</v>
+      </c>
+      <c r="D1315" t="str">
+        <v>./images/762/IMG_8339.jpg</v>
+      </c>
+      <c r="E1315" t="str">
+        <v>2020-08-10T13:51:50</v>
+      </c>
+      <c r="F1315" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1315" t="str">
+        <v>./mid_thumbs/762/IMG_8339.jpg</v>
+      </c>
+      <c r="H1315" t="str">
+        <v>./small_thumbs/762/IMG_8339.jpg</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316">
+        <v>1319</v>
+      </c>
+      <c r="B1316">
+        <v>762</v>
+      </c>
+      <c r="C1316" t="str">
+        <v>地蔵堂 丸彫地蔵尊</v>
+      </c>
+      <c r="D1316" t="str">
+        <v>./images/762/IMG_8340.jpg</v>
+      </c>
+      <c r="E1316" t="str">
+        <v>2020-08-10T13:51:58</v>
+      </c>
+      <c r="F1316" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1316" t="str">
+        <v>./mid_thumbs/762/IMG_8340.jpg</v>
+      </c>
+      <c r="H1316" t="str">
+        <v>./small_thumbs/762/IMG_8340.jpg</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317">
+        <v>1320</v>
+      </c>
+      <c r="B1317">
+        <v>728</v>
+      </c>
+      <c r="C1317" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1317" t="str">
+        <v>./images/728/IMG_0342.jpg</v>
+      </c>
+      <c r="E1317" t="str">
+        <v>2021-03-19T15:19:23</v>
+      </c>
+      <c r="F1317" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1317" t="str">
+        <v>./mid_thumbs/728/IMG_0342.jpg</v>
+      </c>
+      <c r="H1317" t="str">
+        <v>./small_thumbs/728/IMG_0342.jpg</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318">
+        <v>1321</v>
+      </c>
+      <c r="B1318">
+        <v>728</v>
+      </c>
+      <c r="C1318" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1318" t="str">
+        <v>./images/728/IMG_0343.jpg</v>
+      </c>
+      <c r="E1318" t="str">
+        <v>2021-03-19T15:19:27</v>
+      </c>
+      <c r="F1318" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1318" t="str">
+        <v>./mid_thumbs/728/IMG_0343.jpg</v>
+      </c>
+      <c r="H1318" t="str">
+        <v>./small_thumbs/728/IMG_0343.jpg</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319">
+        <v>1322</v>
+      </c>
+      <c r="B1319">
+        <v>728</v>
+      </c>
+      <c r="C1319" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1319" t="str">
+        <v>./images/728/IMG_1638.jpg</v>
+      </c>
+      <c r="E1319" t="str">
+        <v>2017-05-02T13:03:11</v>
+      </c>
+      <c r="F1319" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1319" t="str">
+        <v>./mid_thumbs/728/IMG_1638.jpg</v>
+      </c>
+      <c r="H1319" t="str">
+        <v>./small_thumbs/728/IMG_1638.jpg</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320">
+        <v>1323</v>
+      </c>
+      <c r="B1320">
+        <v>728</v>
+      </c>
+      <c r="C1320" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1320" t="str">
+        <v>./images/728/IMG_1639.jpg</v>
+      </c>
+      <c r="E1320" t="str">
+        <v>2017-05-02T13:03:18</v>
+      </c>
+      <c r="F1320" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1320" t="str">
+        <v>./mid_thumbs/728/IMG_1639.jpg</v>
+      </c>
+      <c r="H1320" t="str">
+        <v>./small_thumbs/728/IMG_1639.jpg</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321">
+        <v>1324</v>
+      </c>
+      <c r="B1321">
+        <v>729</v>
+      </c>
+      <c r="C1321" t="str">
+        <v>大社大神 鳥居</v>
+      </c>
+      <c r="D1321" t="str">
+        <v>./images/729/IMG_0345.jpg</v>
+      </c>
+      <c r="E1321" t="str">
+        <v>2021-03-19T15:24:46</v>
+      </c>
+      <c r="F1321" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1321" t="str">
+        <v>./mid_thumbs/729/IMG_0345.jpg</v>
+      </c>
+      <c r="H1321" t="str">
+        <v>./small_thumbs/729/IMG_0345.jpg</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322">
+        <v>1325</v>
+      </c>
+      <c r="B1322">
+        <v>729</v>
+      </c>
+      <c r="C1322" t="str">
+        <v>大社大神</v>
+      </c>
+      <c r="D1322" t="str">
+        <v>./images/729/IMG_0346.jpg</v>
+      </c>
+      <c r="E1322" t="str">
+        <v>2021-03-19T15:24:56</v>
+      </c>
+      <c r="F1322" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1322" t="str">
+        <v>./mid_thumbs/729/IMG_0346.jpg</v>
+      </c>
+      <c r="H1322" t="str">
+        <v>./small_thumbs/729/IMG_0346.jpg</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323">
+        <v>1326</v>
+      </c>
+      <c r="B1323">
+        <v>729</v>
+      </c>
+      <c r="C1323" t="str">
+        <v>大社大神 参道入口</v>
+      </c>
+      <c r="D1323" t="str">
+        <v>./images/729/IMG_0347.jpg</v>
+      </c>
+      <c r="E1323" t="str">
+        <v>2021-03-19T15:25:55</v>
+      </c>
+      <c r="F1323" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1323" t="str">
+        <v>./mid_thumbs/729/IMG_0347.jpg</v>
+      </c>
+      <c r="H1323" t="str">
+        <v>./small_thumbs/729/IMG_0347.jpg</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324">
+        <v>1327</v>
+      </c>
+      <c r="B1324">
+        <v>729</v>
+      </c>
+      <c r="C1324" t="str">
+        <v>大社大神 参道入口</v>
+      </c>
+      <c r="D1324" t="str">
+        <v>./images/729/IMG_1640.jpg</v>
+      </c>
+      <c r="E1324" t="str">
+        <v>2017-05-02T13:04:36</v>
+      </c>
+      <c r="F1324" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1324" t="str">
+        <v>./mid_thumbs/729/IMG_1640.jpg</v>
+      </c>
+      <c r="H1324" t="str">
+        <v>./small_thumbs/729/IMG_1640.jpg</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325">
+        <v>1328</v>
+      </c>
+      <c r="B1325">
+        <v>729</v>
+      </c>
+      <c r="C1325" t="str">
+        <v>大社大神 神功皇后陵 飛地に号</v>
+      </c>
+      <c r="D1325" t="str">
+        <v>./images/729/IMG_1641.jpg</v>
+      </c>
+      <c r="E1325" t="str">
+        <v>2017-05-02T13:05:48</v>
+      </c>
+      <c r="F1325" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1325" t="str">
+        <v>./mid_thumbs/729/IMG_1641.jpg</v>
+      </c>
+      <c r="H1325" t="str">
+        <v>./small_thumbs/729/IMG_1641.jpg</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326">
+        <v>1329</v>
+      </c>
+      <c r="B1326">
+        <v>729</v>
+      </c>
+      <c r="C1326" t="str">
+        <v>大社大神 鳥居</v>
+      </c>
+      <c r="D1326" t="str">
+        <v>./images/729/IMG_1642.jpg</v>
+      </c>
+      <c r="E1326" t="str">
+        <v>2017-05-02T13:11:07</v>
+      </c>
+      <c r="F1326" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1326" t="str">
+        <v>./mid_thumbs/729/IMG_1642.jpg</v>
+      </c>
+      <c r="H1326" t="str">
+        <v>./small_thumbs/729/IMG_1642.jpg</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327">
+        <v>1330</v>
+      </c>
+      <c r="B1327">
+        <v>729</v>
+      </c>
+      <c r="C1327" t="str">
+        <v>大社大神</v>
+      </c>
+      <c r="D1327" t="str">
+        <v>./images/729/IMG_1643.jpg</v>
+      </c>
+      <c r="E1327" t="str">
+        <v>2017-05-02T13:11:21</v>
+      </c>
+      <c r="F1327" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1327" t="str">
+        <v>./mid_thumbs/729/IMG_1643.jpg</v>
+      </c>
+      <c r="H1327" t="str">
+        <v>./small_thumbs/729/IMG_1643.jpg</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328">
+        <v>1331</v>
+      </c>
+      <c r="B1328">
+        <v>763</v>
+      </c>
+      <c r="C1328" t="str">
+        <v>地蔵堂 参道</v>
+      </c>
+      <c r="D1328" t="str">
+        <v>./images/763/IMG_0329.jpg</v>
+      </c>
+      <c r="E1328" t="str">
+        <v>2021-03-19T15:03:08</v>
+      </c>
+      <c r="F1328" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1328" t="str">
+        <v>./mid_thumbs/763/IMG_0329.jpg</v>
+      </c>
+      <c r="H1328" t="str">
+        <v>./small_thumbs/763/IMG_0329.jpg</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329">
+        <v>1332</v>
+      </c>
+      <c r="B1329">
+        <v>763</v>
+      </c>
+      <c r="C1329" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1329" t="str">
+        <v>./images/763/IMG_0330.jpg</v>
+      </c>
+      <c r="E1329" t="str">
+        <v>2021-03-19T15:03:15</v>
+      </c>
+      <c r="F1329" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1329" t="str">
+        <v>./mid_thumbs/763/IMG_0330.jpg</v>
+      </c>
+      <c r="H1329" t="str">
+        <v>./small_thumbs/763/IMG_0330.jpg</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330">
+        <v>1333</v>
+      </c>
+      <c r="B1330">
+        <v>763</v>
+      </c>
+      <c r="C1330" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1330" t="str">
+        <v>./images/763/IMG_0331.jpg</v>
+      </c>
+      <c r="E1330" t="str">
+        <v>2021-03-19T15:03:21</v>
+      </c>
+      <c r="F1330" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1330" t="str">
+        <v>./mid_thumbs/763/IMG_0331.jpg</v>
+      </c>
+      <c r="H1330" t="str">
+        <v>./small_thumbs/763/IMG_0331.jpg</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331">
+        <v>1334</v>
+      </c>
+      <c r="B1331">
+        <v>763</v>
+      </c>
+      <c r="C1331" t="str">
+        <v>地蔵堂 東側外側</v>
+      </c>
+      <c r="D1331" t="str">
+        <v>./images/763/IMG_0332.jpg</v>
+      </c>
+      <c r="E1331" t="str">
+        <v>2021-03-19T15:03:25</v>
+      </c>
+      <c r="F1331" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1331" t="str">
+        <v>./mid_thumbs/763/IMG_0332.jpg</v>
+      </c>
+      <c r="H1331" t="str">
+        <v>./small_thumbs/763/IMG_0332.jpg</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332">
+        <v>1335</v>
+      </c>
+      <c r="B1332">
+        <v>748</v>
+      </c>
+      <c r="C1332" t="str">
+        <v>地蔵尊 石の覆い</v>
+      </c>
+      <c r="D1332" t="str">
+        <v>./images/748/IMG_0325.jpg</v>
+      </c>
+      <c r="E1332" t="str">
+        <v>2021-03-19T15:00:37</v>
+      </c>
+      <c r="F1332" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1332" t="str">
+        <v>./mid_thumbs/748/IMG_0325.jpg</v>
+      </c>
+      <c r="H1332" t="str">
+        <v>./small_thumbs/748/IMG_0325.jpg</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333">
+        <v>1336</v>
+      </c>
+      <c r="B1333">
+        <v>748</v>
+      </c>
+      <c r="C1333" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1333" t="str">
+        <v>./images/748/IMG_0326.jpg</v>
+      </c>
+      <c r="E1333" t="str">
+        <v>2021-03-19T15:00:44</v>
+      </c>
+      <c r="F1333" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1333" t="str">
+        <v>./mid_thumbs/748/IMG_0326.jpg</v>
+      </c>
+      <c r="H1333" t="str">
+        <v>./small_thumbs/748/IMG_0326.jpg</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334">
+        <v>1337</v>
+      </c>
+      <c r="B1334">
+        <v>748</v>
+      </c>
+      <c r="C1334" t="str">
+        <v>地蔵尊 引きの写真</v>
+      </c>
+      <c r="D1334" t="str">
+        <v>./images/748/IMG_0327.jpg</v>
+      </c>
+      <c r="E1334" t="str">
+        <v>2021-03-19T15:00:53</v>
+      </c>
+      <c r="F1334" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1334" t="str">
+        <v>./mid_thumbs/748/IMG_0327.jpg</v>
+      </c>
+      <c r="H1334" t="str">
+        <v>./small_thumbs/748/IMG_0327.jpg</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335">
+        <v>1338</v>
+      </c>
+      <c r="B1335">
+        <v>735</v>
+      </c>
+      <c r="C1335" t="str">
+        <v>天白大神 鳥居</v>
+      </c>
+      <c r="D1335" t="str">
+        <v>./images/735/IMG_1645.jpg</v>
+      </c>
+      <c r="E1335" t="str">
+        <v>2017-05-02T13:19:26</v>
+      </c>
+      <c r="F1335" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1335" t="str">
+        <v>./mid_thumbs/735/IMG_1645.jpg</v>
+      </c>
+      <c r="H1335" t="str">
+        <v>./small_thumbs/735/IMG_1645.jpg</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336">
+        <v>1339</v>
+      </c>
+      <c r="B1336">
+        <v>735</v>
+      </c>
+      <c r="C1336" t="str">
+        <v>天白大神 本殿</v>
+      </c>
+      <c r="D1336" t="str">
+        <v>./images/735/IMG_1646.jpg</v>
+      </c>
+      <c r="E1336" t="str">
+        <v>2017-05-02T13:19:34</v>
+      </c>
+      <c r="F1336" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1336" t="str">
+        <v>./mid_thumbs/735/IMG_1646.jpg</v>
+      </c>
+      <c r="H1336" t="str">
+        <v>./small_thumbs/735/IMG_1646.jpg</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337">
+        <v>1340</v>
+      </c>
+      <c r="B1337">
+        <v>735</v>
+      </c>
+      <c r="C1337" t="str">
+        <v>天白大神 扁額</v>
+      </c>
+      <c r="D1337" t="str">
+        <v>./images/735/IMG_1647.jpg</v>
+      </c>
+      <c r="E1337" t="str">
+        <v>2017-05-02T13:19:43</v>
+      </c>
+      <c r="F1337" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1337" t="str">
+        <v>./mid_thumbs/735/IMG_1647.jpg</v>
+      </c>
+      <c r="H1337" t="str">
+        <v>./small_thumbs/735/IMG_1647.jpg</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338">
+        <v>1341</v>
+      </c>
+      <c r="B1338">
+        <v>733</v>
+      </c>
+      <c r="C1338" t="str">
+        <v>歌姫街道地蔵堂 道路向かいから</v>
+      </c>
+      <c r="D1338" t="str">
+        <v>./images/733/IMG_0336.jpg</v>
+      </c>
+      <c r="E1338" t="str">
+        <v>2021-03-19T15:13:36</v>
+      </c>
+      <c r="F1338" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1338" t="str">
+        <v>./mid_thumbs/733/IMG_0336.jpg</v>
+      </c>
+      <c r="H1338" t="str">
+        <v>./small_thumbs/733/IMG_0336.jpg</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339">
+        <v>1342</v>
+      </c>
+      <c r="B1339">
+        <v>733</v>
+      </c>
+      <c r="C1339" t="str">
+        <v>歌姫街道地蔵堂 内部</v>
+      </c>
+      <c r="D1339" t="str">
+        <v>./images/733/IMG_0337.jpg</v>
+      </c>
+      <c r="E1339" t="str">
+        <v>2021-03-19T15:13:45</v>
+      </c>
+      <c r="F1339" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1339" t="str">
+        <v>./mid_thumbs/733/IMG_0337.jpg</v>
+      </c>
+      <c r="H1339" t="str">
+        <v>./small_thumbs/733/IMG_0337.jpg</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340">
+        <v>1343</v>
+      </c>
+      <c r="B1340">
+        <v>733</v>
+      </c>
+      <c r="C1340" t="str">
+        <v>歌姫街道地蔵堂 内部左 双体地蔵</v>
+      </c>
+      <c r="D1340" t="str">
+        <v>./images/733/IMG_0338.jpg</v>
+      </c>
+      <c r="E1340" t="str">
+        <v>2021-03-19T15:13:51</v>
+      </c>
+      <c r="F1340" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1340" t="str">
+        <v>./mid_thumbs/733/IMG_0338.jpg</v>
+      </c>
+      <c r="H1340" t="str">
+        <v>./small_thumbs/733/IMG_0338.jpg</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341">
+        <v>1344</v>
+      </c>
+      <c r="B1341">
+        <v>733</v>
+      </c>
+      <c r="C1341" t="str">
+        <v>歌姫街道地蔵堂 内部右 石碑</v>
+      </c>
+      <c r="D1341" t="str">
+        <v>./images/733/IMG_0339.jpg</v>
+      </c>
+      <c r="E1341" t="str">
+        <v>2021-03-19T15:13:55</v>
+      </c>
+      <c r="F1341" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1341" t="str">
+        <v>./mid_thumbs/733/IMG_0339.jpg</v>
+      </c>
+      <c r="H1341" t="str">
+        <v>./small_thumbs/733/IMG_0339.jpg</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342">
+        <v>1345</v>
+      </c>
+      <c r="B1342">
+        <v>733</v>
+      </c>
+      <c r="C1342" t="str">
+        <v>歌姫街道地蔵堂</v>
+      </c>
+      <c r="D1342" t="str">
+        <v>./images/733/IMG_0340.jpg</v>
+      </c>
+      <c r="E1342" t="str">
+        <v>2021-03-19T15:14:22</v>
+      </c>
+      <c r="F1342" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1342" t="str">
+        <v>./mid_thumbs/733/IMG_0340.jpg</v>
+      </c>
+      <c r="H1342" t="str">
+        <v>./small_thumbs/733/IMG_0340.jpg</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343">
+        <v>1346</v>
+      </c>
+      <c r="B1343">
+        <v>733</v>
+      </c>
+      <c r="C1343" t="str">
+        <v>歌姫街道地蔵堂</v>
+      </c>
+      <c r="D1343" t="str">
+        <v>./images/733/IMG_1669.jpg</v>
+      </c>
+      <c r="E1343" t="str">
+        <v>2017-05-02T13:40:04</v>
+      </c>
+      <c r="F1343" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1343" t="str">
+        <v>./mid_thumbs/733/IMG_1669.jpg</v>
+      </c>
+      <c r="H1343" t="str">
+        <v>./small_thumbs/733/IMG_1669.jpg</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344">
+        <v>1347</v>
+      </c>
+      <c r="B1344">
+        <v>733</v>
+      </c>
+      <c r="C1344" t="str">
+        <v>歌姫街道地蔵堂 内部</v>
+      </c>
+      <c r="D1344" t="str">
+        <v>./images/733/IMG_1670.jpg</v>
+      </c>
+      <c r="E1344" t="str">
+        <v>2017-05-02T13:40:12</v>
+      </c>
+      <c r="F1344" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1344" t="str">
+        <v>./mid_thumbs/733/IMG_1670.jpg</v>
+      </c>
+      <c r="H1344" t="str">
+        <v>./small_thumbs/733/IMG_1670.jpg</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345">
+        <v>1348</v>
+      </c>
+      <c r="B1345">
+        <v>733</v>
+      </c>
+      <c r="C1345" t="str">
+        <v>歌姫街道地蔵堂 裏、木と一緒に</v>
+      </c>
+      <c r="D1345" t="str">
+        <v>./images/733/IMG_1671.jpg</v>
+      </c>
+      <c r="E1345" t="str">
+        <v>2017-05-02T13:40:44</v>
+      </c>
+      <c r="F1345" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1345" t="str">
+        <v>./mid_thumbs/733/IMG_1671.jpg</v>
+      </c>
+      <c r="H1345" t="str">
+        <v>./small_thumbs/733/IMG_1671.jpg</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346">
+        <v>1349</v>
+      </c>
+      <c r="B1346">
+        <v>733</v>
+      </c>
+      <c r="C1346" t="str">
+        <v>歌姫街道地蔵堂 東道路向かいから</v>
+      </c>
+      <c r="D1346" t="str">
+        <v>./images/733/IMG_1672.jpg</v>
+      </c>
+      <c r="E1346" t="str">
+        <v>2017-05-02T13:41:00</v>
+      </c>
+      <c r="F1346" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1346" t="str">
+        <v>./mid_thumbs/733/IMG_1672.jpg</v>
+      </c>
+      <c r="H1346" t="str">
+        <v>./small_thumbs/733/IMG_1672.jpg</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347">
+        <v>1350</v>
+      </c>
+      <c r="B1347">
+        <v>51</v>
+      </c>
+      <c r="C1347" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1347" t="str">
+        <v>./images/51/IMG_0320.jpg</v>
+      </c>
+      <c r="E1347" t="str">
+        <v>2021-03-19T14:56:16</v>
+      </c>
+      <c r="F1347" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1347" t="str">
+        <v>./mid_thumbs/51/IMG_0320.jpg</v>
+      </c>
+      <c r="H1347" t="str">
+        <v>./small_thumbs/51/IMG_0320.jpg</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348">
+        <v>1351</v>
+      </c>
+      <c r="B1348">
+        <v>51</v>
+      </c>
+      <c r="C1348" t="str">
+        <v>地蔵堂 内部右側</v>
+      </c>
+      <c r="D1348" t="str">
+        <v>./images/51/IMG_0321.jpg</v>
+      </c>
+      <c r="E1348" t="str">
+        <v>2021-03-19T14:56:23</v>
+      </c>
+      <c r="F1348" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1348" t="str">
+        <v>./mid_thumbs/51/IMG_0321.jpg</v>
+      </c>
+      <c r="H1348" t="str">
+        <v>./small_thumbs/51/IMG_0321.jpg</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349">
+        <v>1352</v>
+      </c>
+      <c r="B1349">
+        <v>51</v>
+      </c>
+      <c r="C1349" t="str">
+        <v>地蔵堂 内部左側</v>
+      </c>
+      <c r="D1349" t="str">
+        <v>./images/51/IMG_0322.jpg</v>
+      </c>
+      <c r="E1349" t="str">
+        <v>2021-03-19T14:56:27</v>
+      </c>
+      <c r="F1349" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1349" t="str">
+        <v>./mid_thumbs/51/IMG_0322.jpg</v>
+      </c>
+      <c r="H1349" t="str">
+        <v>./small_thumbs/51/IMG_0322.jpg</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350">
+        <v>1353</v>
+      </c>
+      <c r="B1350">
+        <v>51</v>
+      </c>
+      <c r="C1350" t="str">
+        <v>地蔵堂 本尊拡大</v>
+      </c>
+      <c r="D1350" t="str">
+        <v>./images/51/IMG_0323.jpg</v>
+      </c>
+      <c r="E1350" t="str">
+        <v>2021-03-19T14:56:41</v>
+      </c>
+      <c r="F1350" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1350" t="str">
+        <v>./mid_thumbs/51/IMG_0323.jpg</v>
+      </c>
+      <c r="H1350" t="str">
+        <v>./small_thumbs/51/IMG_0323.jpg</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351">
+        <v>1354</v>
+      </c>
+      <c r="B1351">
+        <v>764</v>
+      </c>
+      <c r="C1351" t="str">
+        <v>愛宕神社 石塚</v>
+      </c>
+      <c r="D1351" t="str">
+        <v>./images/764/IMG_1684.jpg</v>
+      </c>
+      <c r="E1351" t="str">
+        <v>2017-05-02T13:55:47</v>
+      </c>
+      <c r="F1351" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1351" t="str">
+        <v>./mid_thumbs/764/IMG_1684.jpg</v>
+      </c>
+      <c r="H1351" t="str">
+        <v>./small_thumbs/764/IMG_1684.jpg</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352">
+        <v>1355</v>
+      </c>
+      <c r="B1352">
+        <v>764</v>
+      </c>
+      <c r="C1352" t="str">
+        <v>愛宕神社 北側、石灯籠</v>
+      </c>
+      <c r="D1352" t="str">
+        <v>./images/764/IMG_1685.jpg</v>
+      </c>
+      <c r="E1352" t="str">
+        <v>2017-05-02T13:55:54</v>
+      </c>
+      <c r="F1352" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1352" t="str">
+        <v>./mid_thumbs/764/IMG_1685.jpg</v>
+      </c>
+      <c r="H1352" t="str">
+        <v>./small_thumbs/764/IMG_1685.jpg</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353">
+        <v>1356</v>
+      </c>
+      <c r="B1353">
+        <v>764</v>
+      </c>
+      <c r="C1353" t="str">
+        <v>愛宕神社 奥</v>
+      </c>
+      <c r="D1353" t="str">
+        <v>./images/764/IMG_1686.jpg</v>
+      </c>
+      <c r="E1353" t="str">
+        <v>2017-05-02T13:55:59</v>
+      </c>
+      <c r="F1353" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1353" t="str">
+        <v>./mid_thumbs/764/IMG_1686.jpg</v>
+      </c>
+      <c r="H1353" t="str">
+        <v>./small_thumbs/764/IMG_1686.jpg</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354">
+        <v>1357</v>
+      </c>
+      <c r="B1354">
+        <v>764</v>
+      </c>
+      <c r="C1354" t="str">
+        <v>愛宕神社 全景</v>
+      </c>
+      <c r="D1354" t="str">
+        <v>./images/764/IMG_1687.jpg</v>
+      </c>
+      <c r="E1354" t="str">
+        <v>2017-05-02T13:56:12</v>
+      </c>
+      <c r="F1354" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1354" t="str">
+        <v>./mid_thumbs/764/IMG_1687.jpg</v>
+      </c>
+      <c r="H1354" t="str">
+        <v>./small_thumbs/764/IMG_1687.jpg</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355">
+        <v>1358</v>
+      </c>
+      <c r="B1355">
+        <v>137</v>
+      </c>
+      <c r="C1355" t="str">
+        <v>地蔵 全景</v>
+      </c>
+      <c r="D1355" t="str">
+        <v>./images/137/IMG_0315.jpg</v>
+      </c>
+      <c r="E1355" t="str">
+        <v>2021-03-19T14:51:06</v>
+      </c>
+      <c r="F1355" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1355" t="str">
+        <v>./mid_thumbs/137/IMG_0315.jpg</v>
+      </c>
+      <c r="H1355" t="str">
+        <v>./small_thumbs/137/IMG_0315.jpg</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356">
+        <v>1359</v>
+      </c>
+      <c r="B1356">
+        <v>137</v>
+      </c>
+      <c r="C1356" t="str">
+        <v>地蔵 右方</v>
+      </c>
+      <c r="D1356" t="str">
+        <v>./images/137/IMG_0316.jpg</v>
+      </c>
+      <c r="E1356" t="str">
+        <v>2021-03-19T14:51:13</v>
+      </c>
+      <c r="F1356" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1356" t="str">
+        <v>./mid_thumbs/137/IMG_0316.jpg</v>
+      </c>
+      <c r="H1356" t="str">
+        <v>./small_thumbs/137/IMG_0316.jpg</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357">
+        <v>1360</v>
+      </c>
+      <c r="B1357">
+        <v>137</v>
+      </c>
+      <c r="C1357" t="str">
+        <v>地蔵 中央</v>
+      </c>
+      <c r="D1357" t="str">
+        <v>./images/137/IMG_0317.jpg</v>
+      </c>
+      <c r="E1357" t="str">
+        <v>2021-03-19T14:51:27</v>
+      </c>
+      <c r="F1357" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1357" t="str">
+        <v>./mid_thumbs/137/IMG_0317.jpg</v>
+      </c>
+      <c r="H1357" t="str">
+        <v>./small_thumbs/137/IMG_0317.jpg</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358">
+        <v>1361</v>
+      </c>
+      <c r="B1358">
+        <v>137</v>
+      </c>
+      <c r="C1358" t="str">
+        <v>地蔵 左方</v>
+      </c>
+      <c r="D1358" t="str">
+        <v>./images/137/IMG_0318.jpg</v>
+      </c>
+      <c r="E1358" t="str">
+        <v>2021-03-19T14:51:31</v>
+      </c>
+      <c r="F1358" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1358" t="str">
+        <v>./mid_thumbs/137/IMG_0318.jpg</v>
+      </c>
+      <c r="H1358" t="str">
+        <v>./small_thumbs/137/IMG_0318.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1291"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1358"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M491"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -16136,10 +16136,13 @@
         <v>大宮町2丁目 地蔵尊</v>
       </c>
       <c r="E454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H454" t="str">
+        <v>2018-10-19</v>
       </c>
       <c r="I454" t="b">
         <v>0</v>
@@ -16584,6 +16587,9 @@
       <c r="I467" t="b">
         <v>0</v>
       </c>
+      <c r="J467">
+        <v>1375</v>
+      </c>
       <c r="K467" t="str">
         <v>大宮町1丁目</v>
       </c>
@@ -17407,16 +17413,191 @@
         <v>34.69575911853237</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492">
+        <v>765</v>
+      </c>
+      <c r="B492" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C492" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D492" t="str">
+        <v>秋篠町 地蔵堂</v>
+      </c>
+      <c r="E492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="str">
+        <v>2020-08-10</v>
+      </c>
+      <c r="I492" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>1362</v>
+      </c>
+      <c r="K492" t="str">
+        <v>秋篠町</v>
+      </c>
+      <c r="L492">
+        <v>135.77991116329272</v>
+      </c>
+      <c r="M492">
+        <v>34.70593905167548</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493">
+        <v>766</v>
+      </c>
+      <c r="B493" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C493" t="str">
+        <v>堅牢地神社</v>
+      </c>
+      <c r="D493" t="str">
+        <v>秋篠町 堅牢地神社</v>
+      </c>
+      <c r="E493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I493" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>1365</v>
+      </c>
+      <c r="K493" t="str">
+        <v>秋篠町</v>
+      </c>
+      <c r="L493">
+        <v>135.77736457911547</v>
+      </c>
+      <c r="M493">
+        <v>34.70373780416085</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494">
+        <v>767</v>
+      </c>
+      <c r="B494" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C494" t="str">
+        <v>平安寺 子安地蔵尊</v>
+      </c>
+      <c r="D494" t="str">
+        <v>歌姫町 平安寺 子安地蔵尊</v>
+      </c>
+      <c r="E494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I494" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>1368</v>
+      </c>
+      <c r="K494" t="str">
+        <v>歌姫町</v>
+      </c>
+      <c r="L494">
+        <v>135.79574288959836</v>
+      </c>
+      <c r="M494">
+        <v>34.703681672341965</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495">
+        <v>768</v>
+      </c>
+      <c r="B495" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C495" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D495" t="str">
+        <v>歌姫町 地蔵群</v>
+      </c>
+      <c r="E495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="str">
+        <v>2017-05-02</v>
+      </c>
+      <c r="I495" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>1374</v>
+      </c>
+      <c r="K495" t="str">
+        <v>歌姫町</v>
+      </c>
+      <c r="L495">
+        <v>135.79577056986113</v>
+      </c>
+      <c r="M495">
+        <v>34.70363919418344</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496">
+        <v>769</v>
+      </c>
+      <c r="B496" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C496" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D496" t="str">
+        <v>三条大路3丁目 小祠</v>
+      </c>
+      <c r="E496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="str">
+        <v>2018-12-21</v>
+      </c>
+      <c r="I496" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>1377</v>
+      </c>
+      <c r="K496" t="str">
+        <v>三条大路3丁目</v>
+      </c>
+      <c r="L496">
+        <v>135.79438565306754</v>
+      </c>
+      <c r="M496">
+        <v>34.6829755925681</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M491"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M496"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1358"/>
+  <dimension ref="A1:H1375"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -52729,9 +52910,451 @@
         <v>./small_thumbs/137/IMG_0318.jpg</v>
       </c>
     </row>
+    <row r="1359">
+      <c r="A1359">
+        <v>1362</v>
+      </c>
+      <c r="B1359">
+        <v>765</v>
+      </c>
+      <c r="C1359" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1359" t="str">
+        <v>./images/765/IMG_8344.jpg</v>
+      </c>
+      <c r="E1359" t="str">
+        <v>2020-08-10T14:03:53</v>
+      </c>
+      <c r="F1359" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1359" t="str">
+        <v>./mid_thumbs/765/IMG_8344.jpg</v>
+      </c>
+      <c r="H1359" t="str">
+        <v>./small_thumbs/765/IMG_8344.jpg</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360">
+        <v>1363</v>
+      </c>
+      <c r="B1360">
+        <v>765</v>
+      </c>
+      <c r="C1360" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1360" t="str">
+        <v>./images/765/IMG_8345.jpg</v>
+      </c>
+      <c r="E1360" t="str">
+        <v>2020-08-10T14:03:59</v>
+      </c>
+      <c r="F1360" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1360" t="str">
+        <v>./mid_thumbs/765/IMG_8345.jpg</v>
+      </c>
+      <c r="H1360" t="str">
+        <v>./small_thumbs/765/IMG_8345.jpg</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361">
+        <v>1364</v>
+      </c>
+      <c r="B1361">
+        <v>766</v>
+      </c>
+      <c r="C1361" t="str">
+        <v>堅牢地神社 参道</v>
+      </c>
+      <c r="D1361" t="str">
+        <v>./images/766/IMG_1612.jpg</v>
+      </c>
+      <c r="E1361" t="str">
+        <v>2017-05-02T12:19:07</v>
+      </c>
+      <c r="F1361" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1361" t="str">
+        <v>./mid_thumbs/766/IMG_1612.jpg</v>
+      </c>
+      <c r="H1361" t="str">
+        <v>./small_thumbs/766/IMG_1612.jpg</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362">
+        <v>1365</v>
+      </c>
+      <c r="B1362">
+        <v>766</v>
+      </c>
+      <c r="C1362" t="str">
+        <v>堅牢地神社</v>
+      </c>
+      <c r="D1362" t="str">
+        <v>./images/766/IMG_1613.jpg</v>
+      </c>
+      <c r="E1362" t="str">
+        <v>2017-05-02T12:19:37</v>
+      </c>
+      <c r="F1362" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1362" t="str">
+        <v>./mid_thumbs/766/IMG_1613.jpg</v>
+      </c>
+      <c r="H1362" t="str">
+        <v>./small_thumbs/766/IMG_1613.jpg</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363">
+        <v>1366</v>
+      </c>
+      <c r="B1363">
+        <v>766</v>
+      </c>
+      <c r="C1363" t="str">
+        <v>堅牢地神社 祠</v>
+      </c>
+      <c r="D1363" t="str">
+        <v>./images/766/IMG_1614.jpg</v>
+      </c>
+      <c r="E1363" t="str">
+        <v>2017-05-02T12:19:47</v>
+      </c>
+      <c r="F1363" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1363" t="str">
+        <v>./mid_thumbs/766/IMG_1614.jpg</v>
+      </c>
+      <c r="H1363" t="str">
+        <v>./small_thumbs/766/IMG_1614.jpg</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364">
+        <v>1367</v>
+      </c>
+      <c r="B1364">
+        <v>766</v>
+      </c>
+      <c r="C1364" t="str">
+        <v>堅牢地神社 石灯籠</v>
+      </c>
+      <c r="D1364" t="str">
+        <v>./images/766/IMG_1615.jpg</v>
+      </c>
+      <c r="E1364" t="str">
+        <v>2017-05-02T12:23:56</v>
+      </c>
+      <c r="F1364" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1364" t="str">
+        <v>./mid_thumbs/766/IMG_1615.jpg</v>
+      </c>
+      <c r="H1364" t="str">
+        <v>./small_thumbs/766/IMG_1615.jpg</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365">
+        <v>1368</v>
+      </c>
+      <c r="B1365">
+        <v>767</v>
+      </c>
+      <c r="C1365" t="str">
+        <v>平安寺 子安地蔵尊</v>
+      </c>
+      <c r="D1365" t="str">
+        <v>./images/767/IMG_1648.jpg</v>
+      </c>
+      <c r="E1365" t="str">
+        <v>2017-05-02T13:21:37</v>
+      </c>
+      <c r="F1365" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1365" t="str">
+        <v>./mid_thumbs/767/IMG_1648.jpg</v>
+      </c>
+      <c r="H1365" t="str">
+        <v>./small_thumbs/767/IMG_1648.jpg</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366">
+        <v>1369</v>
+      </c>
+      <c r="B1366">
+        <v>767</v>
+      </c>
+      <c r="C1366" t="str">
+        <v>平安寺 子安地蔵尊 本尊</v>
+      </c>
+      <c r="D1366" t="str">
+        <v>./images/767/IMG_1650.jpg</v>
+      </c>
+      <c r="E1366" t="str">
+        <v>2017-05-02T13:21:57</v>
+      </c>
+      <c r="F1366" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1366" t="str">
+        <v>./mid_thumbs/767/IMG_1650.jpg</v>
+      </c>
+      <c r="H1366" t="str">
+        <v>./small_thumbs/767/IMG_1650.jpg</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367">
+        <v>1370</v>
+      </c>
+      <c r="B1367">
+        <v>767</v>
+      </c>
+      <c r="C1367" t="str">
+        <v>平安寺 子安地蔵尊 扁額</v>
+      </c>
+      <c r="D1367" t="str">
+        <v>./images/767/IMG_1652.jpg</v>
+      </c>
+      <c r="E1367" t="str">
+        <v>2017-05-02T13:22:44</v>
+      </c>
+      <c r="F1367" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1367" t="str">
+        <v>./mid_thumbs/767/IMG_1652.jpg</v>
+      </c>
+      <c r="H1367" t="str">
+        <v>./small_thumbs/767/IMG_1652.jpg</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368">
+        <v>1371</v>
+      </c>
+      <c r="B1368">
+        <v>767</v>
+      </c>
+      <c r="C1368" t="str">
+        <v>平安寺 子安地蔵尊 山道の石碑</v>
+      </c>
+      <c r="D1368" t="str">
+        <v>./images/767/IMG_1653.jpg</v>
+      </c>
+      <c r="E1368" t="str">
+        <v>2017-05-02T13:22:52</v>
+      </c>
+      <c r="F1368" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1368" t="str">
+        <v>./mid_thumbs/767/IMG_1653.jpg</v>
+      </c>
+      <c r="H1368" t="str">
+        <v>./small_thumbs/767/IMG_1653.jpg</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369">
+        <v>1372</v>
+      </c>
+      <c r="B1369">
+        <v>767</v>
+      </c>
+      <c r="C1369" t="str">
+        <v>平安寺 子安地蔵尊 金属の灯籠？</v>
+      </c>
+      <c r="D1369" t="str">
+        <v>./images/767/IMG_1654.jpg</v>
+      </c>
+      <c r="E1369" t="str">
+        <v>2017-05-02T13:23:03</v>
+      </c>
+      <c r="F1369" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1369" t="str">
+        <v>./mid_thumbs/767/IMG_1654.jpg</v>
+      </c>
+      <c r="H1369" t="str">
+        <v>./small_thumbs/767/IMG_1654.jpg</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370">
+        <v>1373</v>
+      </c>
+      <c r="B1370">
+        <v>767</v>
+      </c>
+      <c r="C1370" t="str">
+        <v>平安寺 子安地蔵尊 お堂の脇の文字板</v>
+      </c>
+      <c r="D1370" t="str">
+        <v>./images/767/IMG_1655.jpg</v>
+      </c>
+      <c r="E1370" t="str">
+        <v>2017-05-02T13:23:13</v>
+      </c>
+      <c r="F1370" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1370" t="str">
+        <v>./mid_thumbs/767/IMG_1655.jpg</v>
+      </c>
+      <c r="H1370" t="str">
+        <v>./small_thumbs/767/IMG_1655.jpg</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371">
+        <v>1374</v>
+      </c>
+      <c r="B1371">
+        <v>768</v>
+      </c>
+      <c r="C1371" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1371" t="str">
+        <v>./images/768/IMG_1649.jpg</v>
+      </c>
+      <c r="E1371" t="str">
+        <v>2017-05-02T13:21:44</v>
+      </c>
+      <c r="F1371" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1371" t="str">
+        <v>./mid_thumbs/768/IMG_1649.jpg</v>
+      </c>
+      <c r="H1371" t="str">
+        <v>./small_thumbs/768/IMG_1649.jpg</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372">
+        <v>1375</v>
+      </c>
+      <c r="B1372">
+        <v>727</v>
+      </c>
+      <c r="C1372" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1372" t="str">
+        <v>./images/727/IMG_7814.jpg</v>
+      </c>
+      <c r="E1372" t="str">
+        <v>2018-10-19T11:38:31</v>
+      </c>
+      <c r="F1372" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1372" t="str">
+        <v>./mid_thumbs/727/IMG_7814.jpg</v>
+      </c>
+      <c r="H1372" t="str">
+        <v>./small_thumbs/727/IMG_7814.jpg</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373">
+        <v>1376</v>
+      </c>
+      <c r="B1373">
+        <v>727</v>
+      </c>
+      <c r="C1373" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1373" t="str">
+        <v>./images/727/IMG_7815.jpg</v>
+      </c>
+      <c r="E1373" t="str">
+        <v>2018-10-19T11:38:41</v>
+      </c>
+      <c r="F1373" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1373" t="str">
+        <v>./mid_thumbs/727/IMG_7815.jpg</v>
+      </c>
+      <c r="H1373" t="str">
+        <v>./small_thumbs/727/IMG_7815.jpg</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374">
+        <v>1377</v>
+      </c>
+      <c r="B1374">
+        <v>769</v>
+      </c>
+      <c r="C1374" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D1374" t="str">
+        <v>./images/769/IMG_8498.jpg</v>
+      </c>
+      <c r="E1374" t="str">
+        <v>2018-12-21T15:53:58</v>
+      </c>
+      <c r="F1374" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1374" t="str">
+        <v>./mid_thumbs/769/IMG_8498.jpg</v>
+      </c>
+      <c r="H1374" t="str">
+        <v>./small_thumbs/769/IMG_8498.jpg</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375">
+        <v>1378</v>
+      </c>
+      <c r="B1375">
+        <v>769</v>
+      </c>
+      <c r="C1375" t="str">
+        <v>小祠 内部</v>
+      </c>
+      <c r="D1375" t="str">
+        <v>./images/769/IMG_8499.jpg</v>
+      </c>
+      <c r="E1375" t="str">
+        <v>2018-12-21T15:54:05</v>
+      </c>
+      <c r="F1375" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1375" t="str">
+        <v>./mid_thumbs/769/IMG_8499.jpg</v>
+      </c>
+      <c r="H1375" t="str">
+        <v>./small_thumbs/769/IMG_8499.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1358"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1375"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M504"/>
+  <dimension ref="A1:M511"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17877,16 +17877,255 @@
         <v>34.69358962304381</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505">
+        <v>778</v>
+      </c>
+      <c r="B505" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C505" t="str">
+        <v>阿対の石仏</v>
+      </c>
+      <c r="D505" t="str">
+        <v>柳生下町 阿対の石仏</v>
+      </c>
+      <c r="E505" t="b">
+        <v>1</v>
+      </c>
+      <c r="H505" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I505" t="b">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>1406</v>
+      </c>
+      <c r="K505" t="str">
+        <v>柳生下町</v>
+      </c>
+      <c r="L505">
+        <v>135.95019403428716</v>
+      </c>
+      <c r="M505">
+        <v>34.742656274426224</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506">
+        <v>779</v>
+      </c>
+      <c r="B506" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C506" t="str">
+        <v>摩利支天像</v>
+      </c>
+      <c r="D506" t="str">
+        <v>柳生町 摩利支天像</v>
+      </c>
+      <c r="E506" t="b">
+        <v>1</v>
+      </c>
+      <c r="H506" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I506" t="b">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>1411</v>
+      </c>
+      <c r="K506" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L506">
+        <v>135.95204785935758</v>
+      </c>
+      <c r="M506">
+        <v>34.73010999217477</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507">
+        <v>780</v>
+      </c>
+      <c r="B507" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C507" t="str">
+        <v>歯痛地蔵</v>
+      </c>
+      <c r="D507" t="str">
+        <v>柳生町 歯痛地蔵</v>
+      </c>
+      <c r="E507" t="b">
+        <v>0</v>
+      </c>
+      <c r="F507" t="str">
+        <v>Google Mapsで発見、磨崖仏</v>
+      </c>
+      <c r="I507" t="b">
+        <v>0</v>
+      </c>
+      <c r="K507" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L507">
+        <v>135.95256920998924</v>
+      </c>
+      <c r="M507">
+        <v>34.72891477973801</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508">
+        <v>781</v>
+      </c>
+      <c r="B508" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C508" t="str">
+        <v>寝仏</v>
+      </c>
+      <c r="D508" t="str">
+        <v>柳生町 寝仏</v>
+      </c>
+      <c r="E508" t="b">
+        <v>0</v>
+      </c>
+      <c r="F508" t="str">
+        <v>Google Mapsで報告されている</v>
+      </c>
+      <c r="I508" t="b">
+        <v>0</v>
+      </c>
+      <c r="K508" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L508">
+        <v>135.95324490784733</v>
+      </c>
+      <c r="M508">
+        <v>34.726042252753814</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509">
+        <v>782</v>
+      </c>
+      <c r="B509" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C509" t="str">
+        <v>柳生六地蔵磨崖仏</v>
+      </c>
+      <c r="D509" t="str">
+        <v>柳生町 柳生六地蔵磨崖仏</v>
+      </c>
+      <c r="E509" t="b">
+        <v>1</v>
+      </c>
+      <c r="H509" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I509" t="b">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>1413</v>
+      </c>
+      <c r="K509" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L509">
+        <v>135.95328949704611</v>
+      </c>
+      <c r="M509">
+        <v>34.72583646435896</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510">
+        <v>783</v>
+      </c>
+      <c r="B510" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C510" t="str">
+        <v>疱瘡地蔵</v>
+      </c>
+      <c r="D510" t="str">
+        <v>柳生町 疱瘡地蔵</v>
+      </c>
+      <c r="E510" t="b">
+        <v>1</v>
+      </c>
+      <c r="H510" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I510" t="b">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>1416</v>
+      </c>
+      <c r="K510" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L510">
+        <v>135.95331693655305</v>
+      </c>
+      <c r="M510">
+        <v>34.7243339116494</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511">
+        <v>784</v>
+      </c>
+      <c r="B511" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C511" t="str">
+        <v>地蔵磨崖仏</v>
+      </c>
+      <c r="D511" t="str">
+        <v>柳生町 地蔵磨崖仏</v>
+      </c>
+      <c r="E511" t="b">
+        <v>1</v>
+      </c>
+      <c r="H511" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I511" t="b">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>1420</v>
+      </c>
+      <c r="K511" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L511">
+        <v>135.9533426610908</v>
+      </c>
+      <c r="M511">
+        <v>34.724371969137685</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M504"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M511"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1401"/>
+  <dimension ref="A1:H1417"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -54317,9 +54556,425 @@
         <v>./small_thumbs/777/IMG_0419.jpg</v>
       </c>
     </row>
+    <row r="1402">
+      <c r="A1402">
+        <v>1406</v>
+      </c>
+      <c r="B1402">
+        <v>778</v>
+      </c>
+      <c r="C1402" t="str">
+        <v>阿対の石仏 磨崖仏</v>
+      </c>
+      <c r="D1402" t="str">
+        <v>./images/778/IMG_0595.jpg</v>
+      </c>
+      <c r="E1402" t="str">
+        <v>2021-03-20T16:00:45</v>
+      </c>
+      <c r="F1402" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1402" t="str">
+        <v>./mid_thumbs/778/IMG_0595.jpg</v>
+      </c>
+      <c r="H1402" t="str">
+        <v>./small_thumbs/778/IMG_0595.jpg</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403">
+        <v>1407</v>
+      </c>
+      <c r="B1403">
+        <v>778</v>
+      </c>
+      <c r="C1403" t="str">
+        <v>阿対の石仏 石仏と祭壇</v>
+      </c>
+      <c r="D1403" t="str">
+        <v>./images/778/IMG_0596.jpg</v>
+      </c>
+      <c r="E1403" t="str">
+        <v>2021-03-20T16:00:50</v>
+      </c>
+      <c r="F1403" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1403" t="str">
+        <v>./mid_thumbs/778/IMG_0596.jpg</v>
+      </c>
+      <c r="H1403" t="str">
+        <v>./small_thumbs/778/IMG_0596.jpg</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404">
+        <v>1408</v>
+      </c>
+      <c r="B1404">
+        <v>778</v>
+      </c>
+      <c r="C1404" t="str">
+        <v>阿対の石仏 千羽鶴</v>
+      </c>
+      <c r="D1404" t="str">
+        <v>./images/778/IMG_0597.jpg</v>
+      </c>
+      <c r="E1404" t="str">
+        <v>2021-03-20T16:00:58</v>
+      </c>
+      <c r="F1404" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1404" t="str">
+        <v>./mid_thumbs/778/IMG_0597.jpg</v>
+      </c>
+      <c r="H1404" t="str">
+        <v>./small_thumbs/778/IMG_0597.jpg</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405">
+        <v>1409</v>
+      </c>
+      <c r="B1405">
+        <v>778</v>
+      </c>
+      <c r="C1405" t="str">
+        <v>阿対の石仏 全景</v>
+      </c>
+      <c r="D1405" t="str">
+        <v>./images/778/IMG_0598.jpg</v>
+      </c>
+      <c r="E1405" t="str">
+        <v>2021-03-20T16:01:01</v>
+      </c>
+      <c r="F1405" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1405" t="str">
+        <v>./mid_thumbs/778/IMG_0598.jpg</v>
+      </c>
+      <c r="H1405" t="str">
+        <v>./small_thumbs/778/IMG_0598.jpg</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406">
+        <v>1410</v>
+      </c>
+      <c r="B1406">
+        <v>778</v>
+      </c>
+      <c r="C1406" t="str">
+        <v>阿対の石仏 祭壇全体</v>
+      </c>
+      <c r="D1406" t="str">
+        <v>./images/778/IMG_0600.jpg</v>
+      </c>
+      <c r="E1406" t="str">
+        <v>2021-03-20T16:06:01</v>
+      </c>
+      <c r="F1406" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1406" t="str">
+        <v>./mid_thumbs/778/IMG_0600.jpg</v>
+      </c>
+      <c r="H1406" t="str">
+        <v>./small_thumbs/778/IMG_0600.jpg</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407">
+        <v>1411</v>
+      </c>
+      <c r="B1407">
+        <v>779</v>
+      </c>
+      <c r="C1407" t="str">
+        <v>摩利支天像 表</v>
+      </c>
+      <c r="D1407" t="str">
+        <v>./images/779/IMG_0704.jpg</v>
+      </c>
+      <c r="E1407" t="str">
+        <v>2021-03-20T17:26:18</v>
+      </c>
+      <c r="F1407" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1407" t="str">
+        <v>./mid_thumbs/779/IMG_0704.jpg</v>
+      </c>
+      <c r="H1407" t="str">
+        <v>./small_thumbs/779/IMG_0704.jpg</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408">
+        <v>1412</v>
+      </c>
+      <c r="B1408">
+        <v>779</v>
+      </c>
+      <c r="C1408" t="str">
+        <v>摩利支天像 裏</v>
+      </c>
+      <c r="D1408" t="str">
+        <v>./images/779/IMG_0705.jpg</v>
+      </c>
+      <c r="E1408" t="str">
+        <v>2021-03-20T17:26:27</v>
+      </c>
+      <c r="F1408" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1408" t="str">
+        <v>./mid_thumbs/779/IMG_0705.jpg</v>
+      </c>
+      <c r="H1408" t="str">
+        <v>./small_thumbs/779/IMG_0705.jpg</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409">
+        <v>1413</v>
+      </c>
+      <c r="B1409">
+        <v>782</v>
+      </c>
+      <c r="C1409" t="str">
+        <v>柳生六地蔵磨崖仏</v>
+      </c>
+      <c r="D1409" t="str">
+        <v>./images/782/IMG_0678.jpg</v>
+      </c>
+      <c r="E1409" t="str">
+        <v>2021-03-20T17:08:54</v>
+      </c>
+      <c r="F1409" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1409" t="str">
+        <v>./mid_thumbs/782/IMG_0678.jpg</v>
+      </c>
+      <c r="H1409" t="str">
+        <v>./small_thumbs/782/IMG_0678.jpg</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410">
+        <v>1414</v>
+      </c>
+      <c r="B1410">
+        <v>782</v>
+      </c>
+      <c r="C1410" t="str">
+        <v>柳生六地蔵磨崖仏</v>
+      </c>
+      <c r="D1410" t="str">
+        <v>./images/782/IMG_0680.jpg</v>
+      </c>
+      <c r="E1410" t="str">
+        <v>2021-03-20T17:09:48</v>
+      </c>
+      <c r="F1410" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1410" t="str">
+        <v>./mid_thumbs/782/IMG_0680.jpg</v>
+      </c>
+      <c r="H1410" t="str">
+        <v>./small_thumbs/782/IMG_0680.jpg</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411">
+        <v>1415</v>
+      </c>
+      <c r="B1411">
+        <v>782</v>
+      </c>
+      <c r="C1411" t="str">
+        <v>柳生六地蔵磨崖仏 拡大</v>
+      </c>
+      <c r="D1411" t="str">
+        <v>./images/782/IMG_0681.jpg</v>
+      </c>
+      <c r="E1411" t="str">
+        <v>2021-03-20T17:09:53</v>
+      </c>
+      <c r="F1411" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1411" t="str">
+        <v>./mid_thumbs/782/IMG_0681.jpg</v>
+      </c>
+      <c r="H1411" t="str">
+        <v>./small_thumbs/782/IMG_0681.jpg</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412">
+        <v>1416</v>
+      </c>
+      <c r="B1412">
+        <v>783</v>
+      </c>
+      <c r="C1412" t="str">
+        <v>疱瘡地蔵 地蔵堂</v>
+      </c>
+      <c r="D1412" t="str">
+        <v>./images/783/IMG_0690.jpg</v>
+      </c>
+      <c r="E1412" t="str">
+        <v>2021-03-20T17:13:10</v>
+      </c>
+      <c r="F1412" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1412" t="str">
+        <v>./mid_thumbs/783/IMG_0690.jpg</v>
+      </c>
+      <c r="H1412" t="str">
+        <v>./small_thumbs/783/IMG_0690.jpg</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413">
+        <v>1417</v>
+      </c>
+      <c r="B1413">
+        <v>783</v>
+      </c>
+      <c r="C1413" t="str">
+        <v>疱瘡地蔵</v>
+      </c>
+      <c r="D1413" t="str">
+        <v>./images/783/IMG_0691.jpg</v>
+      </c>
+      <c r="E1413" t="str">
+        <v>2021-03-20T17:13:17</v>
+      </c>
+      <c r="F1413" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1413" t="str">
+        <v>./mid_thumbs/783/IMG_0691.jpg</v>
+      </c>
+      <c r="H1413" t="str">
+        <v>./small_thumbs/783/IMG_0691.jpg</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414">
+        <v>1418</v>
+      </c>
+      <c r="B1414">
+        <v>783</v>
+      </c>
+      <c r="C1414" t="str">
+        <v>疱瘡地蔵 右足下</v>
+      </c>
+      <c r="D1414" t="str">
+        <v>./images/783/IMG_0692.jpg</v>
+      </c>
+      <c r="E1414" t="str">
+        <v>2021-03-20T17:13:24</v>
+      </c>
+      <c r="F1414" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1414" t="str">
+        <v>./mid_thumbs/783/IMG_0692.jpg</v>
+      </c>
+      <c r="H1414" t="str">
+        <v>./small_thumbs/783/IMG_0692.jpg</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415">
+        <v>1419</v>
+      </c>
+      <c r="B1415">
+        <v>783</v>
+      </c>
+      <c r="C1415" t="str">
+        <v>疱瘡地蔵 地蔵堂</v>
+      </c>
+      <c r="D1415" t="str">
+        <v>./images/783/IMG_0693.jpg</v>
+      </c>
+      <c r="E1415" t="str">
+        <v>2021-03-20T17:14:30</v>
+      </c>
+      <c r="F1415" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1415" t="str">
+        <v>./mid_thumbs/783/IMG_0693.jpg</v>
+      </c>
+      <c r="H1415" t="str">
+        <v>./small_thumbs/783/IMG_0693.jpg</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416">
+        <v>1420</v>
+      </c>
+      <c r="B1416">
+        <v>784</v>
+      </c>
+      <c r="C1416" t="str">
+        <v>地蔵磨崖仏</v>
+      </c>
+      <c r="D1416" t="str">
+        <v>./images/784/IMG_0687.jpg</v>
+      </c>
+      <c r="E1416" t="str">
+        <v>2021-03-20T17:12:29</v>
+      </c>
+      <c r="F1416" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1416" t="str">
+        <v>./mid_thumbs/784/IMG_0687.jpg</v>
+      </c>
+      <c r="H1416" t="str">
+        <v>./small_thumbs/784/IMG_0687.jpg</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417">
+        <v>1421</v>
+      </c>
+      <c r="B1417">
+        <v>784</v>
+      </c>
+      <c r="C1417" t="str">
+        <v>地蔵磨崖仏</v>
+      </c>
+      <c r="D1417" t="str">
+        <v>./images/784/IMG_0695.jpg</v>
+      </c>
+      <c r="E1417" t="str">
+        <v>2021-03-20T17:15:10</v>
+      </c>
+      <c r="F1417" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1417" t="str">
+        <v>./mid_thumbs/784/IMG_0695.jpg</v>
+      </c>
+      <c r="H1417" t="str">
+        <v>./small_thumbs/784/IMG_0695.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1401"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1417"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M511"/>
+  <dimension ref="A1:M513"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18116,16 +18116,86 @@
         <v>34.724371969137685</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512">
+        <v>785</v>
+      </c>
+      <c r="B512" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C512" t="str">
+        <v>空の石地蔵窟</v>
+      </c>
+      <c r="D512" t="str">
+        <v>柳生町 空の石地蔵窟</v>
+      </c>
+      <c r="E512" t="b">
+        <v>1</v>
+      </c>
+      <c r="H512" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I512" t="b">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>1422</v>
+      </c>
+      <c r="K512" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L512">
+        <v>135.95452770479625</v>
+      </c>
+      <c r="M512">
+        <v>34.726032386198625</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513">
+        <v>786</v>
+      </c>
+      <c r="B513" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C513" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D513" t="str">
+        <v>柳生町 小祠</v>
+      </c>
+      <c r="E513" t="b">
+        <v>1</v>
+      </c>
+      <c r="H513" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I513" t="b">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>1423</v>
+      </c>
+      <c r="K513" t="str">
+        <v>柳生町</v>
+      </c>
+      <c r="L513">
+        <v>135.95518796793175</v>
+      </c>
+      <c r="M513">
+        <v>34.72602251964226</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M511"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M513"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1417"/>
+  <dimension ref="A1:H1420"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -54972,9 +55042,87 @@
         <v>./small_thumbs/784/IMG_0695.jpg</v>
       </c>
     </row>
+    <row r="1418">
+      <c r="A1418">
+        <v>1422</v>
+      </c>
+      <c r="B1418">
+        <v>785</v>
+      </c>
+      <c r="C1418" t="str">
+        <v>空の石地蔵窟</v>
+      </c>
+      <c r="D1418" t="str">
+        <v>./images/785/IMG_0674.jpg</v>
+      </c>
+      <c r="E1418" t="str">
+        <v>2021-03-20T17:02:52</v>
+      </c>
+      <c r="F1418" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1418" t="str">
+        <v>./mid_thumbs/785/IMG_0674.jpg</v>
+      </c>
+      <c r="H1418" t="str">
+        <v>./small_thumbs/785/IMG_0674.jpg</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419">
+        <v>1423</v>
+      </c>
+      <c r="B1419">
+        <v>786</v>
+      </c>
+      <c r="C1419" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D1419" t="str">
+        <v>./images/786/IMG_0676.jpg</v>
+      </c>
+      <c r="E1419" t="str">
+        <v>2021-03-20T17:04:57</v>
+      </c>
+      <c r="F1419" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1419" t="str">
+        <v>./mid_thumbs/786/IMG_0676.jpg</v>
+      </c>
+      <c r="H1419" t="str">
+        <v>./small_thumbs/786/IMG_0676.jpg</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420">
+        <v>1424</v>
+      </c>
+      <c r="B1420">
+        <v>786</v>
+      </c>
+      <c r="C1420" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D1420" t="str">
+        <v>./images/786/IMG_0677.jpg</v>
+      </c>
+      <c r="E1420" t="str">
+        <v>2021-03-20T17:05:44</v>
+      </c>
+      <c r="F1420" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1420" t="str">
+        <v>./mid_thumbs/786/IMG_0677.jpg</v>
+      </c>
+      <c r="H1420" t="str">
+        <v>./small_thumbs/786/IMG_0677.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1417"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1420"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M513"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18186,16 +18186,366 @@
         <v>34.72602251964226</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514">
+        <v>787</v>
+      </c>
+      <c r="B514" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C514" t="str">
+        <v>北出磨崖仏</v>
+      </c>
+      <c r="D514" t="str">
+        <v>阪原町 北出磨崖仏</v>
+      </c>
+      <c r="E514" t="b">
+        <v>1</v>
+      </c>
+      <c r="H514" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I514" t="b">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>1425</v>
+      </c>
+      <c r="K514" t="str">
+        <v>阪原町</v>
+      </c>
+      <c r="L514">
+        <v>135.9407813693094</v>
+      </c>
+      <c r="M514">
+        <v>34.724072442135885</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515">
+        <v>788</v>
+      </c>
+      <c r="B515" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C515" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D515" t="str">
+        <v>阪原町 地蔵群</v>
+      </c>
+      <c r="E515" t="b">
+        <v>1</v>
+      </c>
+      <c r="H515" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I515" t="b">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>1426</v>
+      </c>
+      <c r="K515" t="str">
+        <v>阪原町</v>
+      </c>
+      <c r="L515">
+        <v>135.94056871313074</v>
+      </c>
+      <c r="M515">
+        <v>34.724247225082905</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516">
+        <v>789</v>
+      </c>
+      <c r="B516" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C516" t="str">
+        <v>足痛地蔵</v>
+      </c>
+      <c r="D516" t="str">
+        <v>阪原町 足痛地蔵</v>
+      </c>
+      <c r="E516" t="b">
+        <v>1</v>
+      </c>
+      <c r="H516" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I516" t="b">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>1427</v>
+      </c>
+      <c r="K516" t="str">
+        <v>阪原町</v>
+      </c>
+      <c r="L516">
+        <v>135.93880743977968</v>
+      </c>
+      <c r="M516">
+        <v>34.7246743141165</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517">
+        <v>790</v>
+      </c>
+      <c r="B517" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C517" t="str">
+        <v>十九夜講石碑</v>
+      </c>
+      <c r="D517" t="str">
+        <v>阪原町 十九夜講石碑</v>
+      </c>
+      <c r="E517" t="b">
+        <v>1</v>
+      </c>
+      <c r="H517" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I517" t="b">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>1430</v>
+      </c>
+      <c r="K517" t="str">
+        <v>阪原町</v>
+      </c>
+      <c r="L517">
+        <v>135.93824835982605</v>
+      </c>
+      <c r="M517">
+        <v>34.722723500025076</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518">
+        <v>791</v>
+      </c>
+      <c r="B518" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C518" t="str">
+        <v>藤井の森地蔵尊 石仏群</v>
+      </c>
+      <c r="D518" t="str">
+        <v>大柳生町 藤井の森地蔵尊とされているが薬師如来か？</v>
+      </c>
+      <c r="E518" t="b">
+        <v>1</v>
+      </c>
+      <c r="H518" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I518" t="b">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>1435</v>
+      </c>
+      <c r="K518" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L518">
+        <v>135.92736516539028</v>
+      </c>
+      <c r="M518">
+        <v>34.70549823889973</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519">
+        <v>792</v>
+      </c>
+      <c r="B519" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C519" t="str">
+        <v>元亀の地蔵石仏</v>
+      </c>
+      <c r="D519" t="str">
+        <v>大柳生町 元亀の地蔵石仏</v>
+      </c>
+      <c r="E519" t="b">
+        <v>1</v>
+      </c>
+      <c r="H519" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I519" t="b">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>1443</v>
+      </c>
+      <c r="K519" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L519">
+        <v>135.92860165817123</v>
+      </c>
+      <c r="M519">
+        <v>34.70667052752085</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520">
+        <v>793</v>
+      </c>
+      <c r="B520" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C520" t="str">
+        <v>多聞神社の弘法大師堂</v>
+      </c>
+      <c r="D520" t="str">
+        <v>大柳生町 多聞神社の弘法大師堂</v>
+      </c>
+      <c r="E520" t="b">
+        <v>1</v>
+      </c>
+      <c r="H520" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I520" t="b">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>1444</v>
+      </c>
+      <c r="K520" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L520">
+        <v>135.93329724379436</v>
+      </c>
+      <c r="M520">
+        <v>34.703733782796675</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521">
+        <v>794</v>
+      </c>
+      <c r="B521" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C521" t="str">
+        <v>多聞神社地蔵尊</v>
+      </c>
+      <c r="D521" t="str">
+        <v>大柳生町 多聞神社地蔵尊</v>
+      </c>
+      <c r="E521" t="b">
+        <v>1</v>
+      </c>
+      <c r="H521" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I521" t="b">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>1450</v>
+      </c>
+      <c r="K521" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L521">
+        <v>135.93331782342455</v>
+      </c>
+      <c r="M521">
+        <v>34.70375211133954</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522">
+        <v>795</v>
+      </c>
+      <c r="B522" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C522" t="str">
+        <v>多聞神社地蔵群</v>
+      </c>
+      <c r="D522" t="str">
+        <v>大柳生町 多聞神社地蔵群</v>
+      </c>
+      <c r="E522" t="b">
+        <v>1</v>
+      </c>
+      <c r="H522" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I522" t="b">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>1451</v>
+      </c>
+      <c r="K522" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L522">
+        <v>135.9332800941025</v>
+      </c>
+      <c r="M522">
+        <v>34.70371404436135</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523">
+        <v>796</v>
+      </c>
+      <c r="B523" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C523" t="str">
+        <v>阿弥陀種子と六字名号</v>
+      </c>
+      <c r="D523" t="str">
+        <v>大柳生町 阿弥陀種子と六字名号</v>
+      </c>
+      <c r="E523" t="b">
+        <v>1</v>
+      </c>
+      <c r="H523" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="I523" t="b">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>1452</v>
+      </c>
+      <c r="K523" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L523">
+        <v>135.9326952896111</v>
+      </c>
+      <c r="M523">
+        <v>34.70434003244524</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M513"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M523"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1420"/>
+  <dimension ref="A1:H1449"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -55120,9 +55470,763 @@
         <v>./small_thumbs/786/IMG_0677.jpg</v>
       </c>
     </row>
+    <row r="1421">
+      <c r="A1421">
+        <v>1425</v>
+      </c>
+      <c r="B1421">
+        <v>787</v>
+      </c>
+      <c r="C1421" t="str">
+        <v>北出磨崖仏</v>
+      </c>
+      <c r="D1421" t="str">
+        <v>./images/787/IMG_0559.jpg</v>
+      </c>
+      <c r="E1421" t="str">
+        <v>2021-03-20T15:15:17</v>
+      </c>
+      <c r="F1421" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1421" t="str">
+        <v>./mid_thumbs/787/IMG_0559.jpg</v>
+      </c>
+      <c r="H1421" t="str">
+        <v>./small_thumbs/787/IMG_0559.jpg</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422">
+        <v>1426</v>
+      </c>
+      <c r="B1422">
+        <v>788</v>
+      </c>
+      <c r="C1422" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1422" t="str">
+        <v>./images/788/IMG_0593.jpg</v>
+      </c>
+      <c r="E1422" t="str">
+        <v>2021-03-20T15:50:31</v>
+      </c>
+      <c r="F1422" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1422" t="str">
+        <v>./mid_thumbs/788/IMG_0593.jpg</v>
+      </c>
+      <c r="H1422" t="str">
+        <v>./small_thumbs/788/IMG_0593.jpg</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423">
+        <v>1427</v>
+      </c>
+      <c r="B1423">
+        <v>789</v>
+      </c>
+      <c r="C1423" t="str">
+        <v>足痛地蔵 地蔵堂</v>
+      </c>
+      <c r="D1423" t="str">
+        <v>./images/789/IMG_0563.jpg</v>
+      </c>
+      <c r="E1423" t="str">
+        <v>2021-03-20T15:21:54</v>
+      </c>
+      <c r="F1423" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1423" t="str">
+        <v>./mid_thumbs/789/IMG_0563.jpg</v>
+      </c>
+      <c r="H1423" t="str">
+        <v>./small_thumbs/789/IMG_0563.jpg</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424">
+        <v>1428</v>
+      </c>
+      <c r="B1424">
+        <v>789</v>
+      </c>
+      <c r="C1424" t="str">
+        <v>足痛地蔵 足元の石仏群</v>
+      </c>
+      <c r="D1424" t="str">
+        <v>./images/789/IMG_0564.jpg</v>
+      </c>
+      <c r="E1424" t="str">
+        <v>2021-03-20T15:22:05</v>
+      </c>
+      <c r="F1424" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1424" t="str">
+        <v>./mid_thumbs/789/IMG_0564.jpg</v>
+      </c>
+      <c r="H1424" t="str">
+        <v>./small_thumbs/789/IMG_0564.jpg</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425">
+        <v>1429</v>
+      </c>
+      <c r="B1425">
+        <v>789</v>
+      </c>
+      <c r="C1425" t="str">
+        <v>足痛地蔵 本尊</v>
+      </c>
+      <c r="D1425" t="str">
+        <v>./images/789/IMG_0565.jpg</v>
+      </c>
+      <c r="E1425" t="str">
+        <v>2021-03-20T15:22:12</v>
+      </c>
+      <c r="F1425" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1425" t="str">
+        <v>./mid_thumbs/789/IMG_0565.jpg</v>
+      </c>
+      <c r="H1425" t="str">
+        <v>./small_thumbs/789/IMG_0565.jpg</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426">
+        <v>1430</v>
+      </c>
+      <c r="B1426">
+        <v>790</v>
+      </c>
+      <c r="C1426" t="str">
+        <v>十九夜講石碑</v>
+      </c>
+      <c r="D1426" t="str">
+        <v>./images/790/IMG_0590.jpg</v>
+      </c>
+      <c r="E1426" t="str">
+        <v>2021-03-20T15:36:24</v>
+      </c>
+      <c r="F1426" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1426" t="str">
+        <v>./mid_thumbs/790/IMG_0590.jpg</v>
+      </c>
+      <c r="H1426" t="str">
+        <v>./small_thumbs/790/IMG_0590.jpg</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427">
+        <v>1431</v>
+      </c>
+      <c r="B1427">
+        <v>791</v>
+      </c>
+      <c r="C1427" t="str">
+        <v>藤井の森地蔵尊 石仏群 森</v>
+      </c>
+      <c r="D1427" t="str">
+        <v>./images/791/IMG_0472.jpg</v>
+      </c>
+      <c r="E1427" t="str">
+        <v>2021-03-20T13:42:59</v>
+      </c>
+      <c r="F1427" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1427" t="str">
+        <v>./mid_thumbs/791/IMG_0472.jpg</v>
+      </c>
+      <c r="H1427" t="str">
+        <v>./small_thumbs/791/IMG_0472.jpg</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428">
+        <v>1432</v>
+      </c>
+      <c r="B1428">
+        <v>791</v>
+      </c>
+      <c r="C1428" t="str">
+        <v>藤井の森地蔵尊 石仏群 道切り</v>
+      </c>
+      <c r="D1428" t="str">
+        <v>./images/791/IMG_0473.jpg</v>
+      </c>
+      <c r="E1428" t="str">
+        <v>2021-03-20T13:43:18</v>
+      </c>
+      <c r="F1428" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1428" t="str">
+        <v>./mid_thumbs/791/IMG_0473.jpg</v>
+      </c>
+      <c r="H1428" t="str">
+        <v>./small_thumbs/791/IMG_0473.jpg</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429">
+        <v>1433</v>
+      </c>
+      <c r="B1429">
+        <v>791</v>
+      </c>
+      <c r="C1429" t="str">
+        <v>藤井の森地蔵尊 石仏群 全体</v>
+      </c>
+      <c r="D1429" t="str">
+        <v>./images/791/IMG_0474.jpg</v>
+      </c>
+      <c r="E1429" t="str">
+        <v>2021-03-20T13:43:40</v>
+      </c>
+      <c r="F1429" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1429" t="str">
+        <v>./mid_thumbs/791/IMG_0474.jpg</v>
+      </c>
+      <c r="H1429" t="str">
+        <v>./small_thumbs/791/IMG_0474.jpg</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430">
+        <v>1434</v>
+      </c>
+      <c r="B1430">
+        <v>791</v>
+      </c>
+      <c r="C1430" t="str">
+        <v>藤井の森地蔵尊 石仏群 天照皇大神</v>
+      </c>
+      <c r="D1430" t="str">
+        <v>./images/791/IMG_0475.jpg</v>
+      </c>
+      <c r="E1430" t="str">
+        <v>2021-03-20T13:44:01</v>
+      </c>
+      <c r="F1430" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1430" t="str">
+        <v>./mid_thumbs/791/IMG_0475.jpg</v>
+      </c>
+      <c r="H1430" t="str">
+        <v>./small_thumbs/791/IMG_0475.jpg</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431">
+        <v>1435</v>
+      </c>
+      <c r="B1431">
+        <v>791</v>
+      </c>
+      <c r="C1431" t="str">
+        <v>藤井の森地蔵尊 石仏群 薬師の種子（バイ）か？</v>
+      </c>
+      <c r="D1431" t="str">
+        <v>./images/791/IMG_0476.jpg</v>
+      </c>
+      <c r="E1431" t="str">
+        <v>2021-03-20T13:44:12</v>
+      </c>
+      <c r="F1431" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1431" t="str">
+        <v>./mid_thumbs/791/IMG_0476.jpg</v>
+      </c>
+      <c r="H1431" t="str">
+        <v>./small_thumbs/791/IMG_0476.jpg</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432">
+        <v>1436</v>
+      </c>
+      <c r="B1432">
+        <v>791</v>
+      </c>
+      <c r="C1432" t="str">
+        <v>藤井の森地蔵尊 石仏群 六十六部回国供養か</v>
+      </c>
+      <c r="D1432" t="str">
+        <v>./images/791/IMG_0477.jpg</v>
+      </c>
+      <c r="E1432" t="str">
+        <v>2021-03-20T13:44:21</v>
+      </c>
+      <c r="F1432" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1432" t="str">
+        <v>./mid_thumbs/791/IMG_0477.jpg</v>
+      </c>
+      <c r="H1432" t="str">
+        <v>./small_thumbs/791/IMG_0477.jpg</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433">
+        <v>1437</v>
+      </c>
+      <c r="B1433">
+        <v>791</v>
+      </c>
+      <c r="C1433" t="str">
+        <v>藤井の森地蔵尊 石仏群 六十六部少し引いた絵</v>
+      </c>
+      <c r="D1433" t="str">
+        <v>./images/791/IMG_0478.jpg</v>
+      </c>
+      <c r="E1433" t="str">
+        <v>2021-03-20T13:44:29</v>
+      </c>
+      <c r="F1433" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1433" t="str">
+        <v>./mid_thumbs/791/IMG_0478.jpg</v>
+      </c>
+      <c r="H1433" t="str">
+        <v>./small_thumbs/791/IMG_0478.jpg</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434">
+        <v>1438</v>
+      </c>
+      <c r="B1434">
+        <v>791</v>
+      </c>
+      <c r="C1434" t="str">
+        <v>藤井の森地蔵尊 石仏群 台のような石</v>
+      </c>
+      <c r="D1434" t="str">
+        <v>./images/791/IMG_0479.jpg</v>
+      </c>
+      <c r="E1434" t="str">
+        <v>2021-03-20T13:44:34</v>
+      </c>
+      <c r="F1434" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1434" t="str">
+        <v>./mid_thumbs/791/IMG_0479.jpg</v>
+      </c>
+      <c r="H1434" t="str">
+        <v>./small_thumbs/791/IMG_0479.jpg</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435">
+        <v>1439</v>
+      </c>
+      <c r="B1435">
+        <v>791</v>
+      </c>
+      <c r="C1435" t="str">
+        <v>藤井の森地蔵尊 石仏群 全体</v>
+      </c>
+      <c r="D1435" t="str">
+        <v>./images/791/IMG_0480.jpg</v>
+      </c>
+      <c r="E1435" t="str">
+        <v>2021-03-20T13:44:44</v>
+      </c>
+      <c r="F1435" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1435" t="str">
+        <v>./mid_thumbs/791/IMG_0480.jpg</v>
+      </c>
+      <c r="H1435" t="str">
+        <v>./small_thumbs/791/IMG_0480.jpg</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436">
+        <v>1440</v>
+      </c>
+      <c r="B1436">
+        <v>792</v>
+      </c>
+      <c r="C1436" t="str">
+        <v>元亀の地蔵石仏 近くの新地蔵</v>
+      </c>
+      <c r="D1436" t="str">
+        <v>./images/792/IMG_0468.jpg</v>
+      </c>
+      <c r="E1436" t="str">
+        <v>2021-03-20T13:37:28</v>
+      </c>
+      <c r="F1436" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1436" t="str">
+        <v>./mid_thumbs/792/IMG_0468.jpg</v>
+      </c>
+      <c r="H1436" t="str">
+        <v>./small_thumbs/792/IMG_0468.jpg</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437">
+        <v>1441</v>
+      </c>
+      <c r="B1437">
+        <v>792</v>
+      </c>
+      <c r="C1437" t="str">
+        <v>元亀の地蔵石仏 石灯籠</v>
+      </c>
+      <c r="D1437" t="str">
+        <v>./images/792/IMG_0469.jpg</v>
+      </c>
+      <c r="E1437" t="str">
+        <v>2021-03-20T13:37:36</v>
+      </c>
+      <c r="F1437" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1437" t="str">
+        <v>./mid_thumbs/792/IMG_0469.jpg</v>
+      </c>
+      <c r="H1437" t="str">
+        <v>./small_thumbs/792/IMG_0469.jpg</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438">
+        <v>1442</v>
+      </c>
+      <c r="B1438">
+        <v>792</v>
+      </c>
+      <c r="C1438" t="str">
+        <v>元亀の地蔵石仏 裏</v>
+      </c>
+      <c r="D1438" t="str">
+        <v>./images/792/IMG_0470.jpg</v>
+      </c>
+      <c r="E1438" t="str">
+        <v>2021-03-20T13:37:45</v>
+      </c>
+      <c r="F1438" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1438" t="str">
+        <v>./mid_thumbs/792/IMG_0470.jpg</v>
+      </c>
+      <c r="H1438" t="str">
+        <v>./small_thumbs/792/IMG_0470.jpg</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439">
+        <v>1443</v>
+      </c>
+      <c r="B1439">
+        <v>792</v>
+      </c>
+      <c r="C1439" t="str">
+        <v>元亀の地蔵石仏 表</v>
+      </c>
+      <c r="D1439" t="str">
+        <v>./images/792/IMG_0471.jpg</v>
+      </c>
+      <c r="E1439" t="str">
+        <v>2021-03-20T13:38:01</v>
+      </c>
+      <c r="F1439" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1439" t="str">
+        <v>./mid_thumbs/792/IMG_0471.jpg</v>
+      </c>
+      <c r="H1439" t="str">
+        <v>./small_thumbs/792/IMG_0471.jpg</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440">
+        <v>1444</v>
+      </c>
+      <c r="B1440">
+        <v>793</v>
+      </c>
+      <c r="C1440" t="str">
+        <v>多聞神社の弘法大師堂</v>
+      </c>
+      <c r="D1440" t="str">
+        <v>./images/793/IMG_0530.jpg</v>
+      </c>
+      <c r="E1440" t="str">
+        <v>2021-03-20T14:35:47</v>
+      </c>
+      <c r="F1440" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1440" t="str">
+        <v>./mid_thumbs/793/IMG_0530.jpg</v>
+      </c>
+      <c r="H1440" t="str">
+        <v>./small_thumbs/793/IMG_0530.jpg</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441">
+        <v>1445</v>
+      </c>
+      <c r="B1441">
+        <v>793</v>
+      </c>
+      <c r="C1441" t="str">
+        <v>多聞神社の弘法大師堂 大師木像</v>
+      </c>
+      <c r="D1441" t="str">
+        <v>./images/793/IMG_0532.jpg</v>
+      </c>
+      <c r="E1441" t="str">
+        <v>2021-03-20T14:36:06</v>
+      </c>
+      <c r="F1441" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1441" t="str">
+        <v>./mid_thumbs/793/IMG_0532.jpg</v>
+      </c>
+      <c r="H1441" t="str">
+        <v>./small_thumbs/793/IMG_0532.jpg</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442">
+        <v>1446</v>
+      </c>
+      <c r="B1442">
+        <v>793</v>
+      </c>
+      <c r="C1442" t="str">
+        <v>多聞神社の弘法大師堂 大師木像</v>
+      </c>
+      <c r="D1442" t="str">
+        <v>./images/793/IMG_0533.jpg</v>
+      </c>
+      <c r="E1442" t="str">
+        <v>2021-03-20T14:36:23</v>
+      </c>
+      <c r="F1442" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1442" t="str">
+        <v>./mid_thumbs/793/IMG_0533.jpg</v>
+      </c>
+      <c r="H1442" t="str">
+        <v>./small_thumbs/793/IMG_0533.jpg</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443">
+        <v>1447</v>
+      </c>
+      <c r="B1443">
+        <v>793</v>
+      </c>
+      <c r="C1443" t="str">
+        <v>多聞神社の弘法大師堂　如意輪観音像</v>
+      </c>
+      <c r="D1443" t="str">
+        <v>./images/793/IMG_0534.jpg</v>
+      </c>
+      <c r="E1443" t="str">
+        <v>2021-03-20T14:36:30</v>
+      </c>
+      <c r="F1443" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1443" t="str">
+        <v>./mid_thumbs/793/IMG_0534.jpg</v>
+      </c>
+      <c r="H1443" t="str">
+        <v>./small_thumbs/793/IMG_0534.jpg</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444">
+        <v>1448</v>
+      </c>
+      <c r="B1444">
+        <v>793</v>
+      </c>
+      <c r="C1444" t="str">
+        <v>多聞神社の弘法大師堂 不動明王木像</v>
+      </c>
+      <c r="D1444" t="str">
+        <v>./images/793/IMG_0535.jpg</v>
+      </c>
+      <c r="E1444" t="str">
+        <v>2021-03-20T14:36:41</v>
+      </c>
+      <c r="F1444" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1444" t="str">
+        <v>./mid_thumbs/793/IMG_0535.jpg</v>
+      </c>
+      <c r="H1444" t="str">
+        <v>./small_thumbs/793/IMG_0535.jpg</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445">
+        <v>1449</v>
+      </c>
+      <c r="B1445">
+        <v>793</v>
+      </c>
+      <c r="C1445" t="str">
+        <v>多聞神社の弘法大師堂</v>
+      </c>
+      <c r="D1445" t="str">
+        <v>./images/793/IMG_0538.jpg</v>
+      </c>
+      <c r="E1445" t="str">
+        <v>2021-03-20T14:37:16</v>
+      </c>
+      <c r="F1445" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1445" t="str">
+        <v>./mid_thumbs/793/IMG_0538.jpg</v>
+      </c>
+      <c r="H1445" t="str">
+        <v>./small_thumbs/793/IMG_0538.jpg</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446">
+        <v>1450</v>
+      </c>
+      <c r="B1446">
+        <v>794</v>
+      </c>
+      <c r="C1446" t="str">
+        <v>多聞神社地蔵尊</v>
+      </c>
+      <c r="D1446" t="str">
+        <v>./images/794/IMG_0531.jpg</v>
+      </c>
+      <c r="E1446" t="str">
+        <v>2021-03-20T14:35:55</v>
+      </c>
+      <c r="F1446" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1446" t="str">
+        <v>./mid_thumbs/794/IMG_0531.jpg</v>
+      </c>
+      <c r="H1446" t="str">
+        <v>./small_thumbs/794/IMG_0531.jpg</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447">
+        <v>1451</v>
+      </c>
+      <c r="B1447">
+        <v>795</v>
+      </c>
+      <c r="C1447" t="str">
+        <v>多聞神社地蔵群</v>
+      </c>
+      <c r="D1447" t="str">
+        <v>./images/795/IMG_0536.jpg</v>
+      </c>
+      <c r="E1447" t="str">
+        <v>2021-03-20T14:36:48</v>
+      </c>
+      <c r="F1447" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1447" t="str">
+        <v>./mid_thumbs/795/IMG_0536.jpg</v>
+      </c>
+      <c r="H1447" t="str">
+        <v>./small_thumbs/795/IMG_0536.jpg</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448">
+        <v>1452</v>
+      </c>
+      <c r="B1448">
+        <v>796</v>
+      </c>
+      <c r="C1448" t="str">
+        <v>阿弥陀種子と六字名号</v>
+      </c>
+      <c r="D1448" t="str">
+        <v>./images/796/IMG_0548.jpg</v>
+      </c>
+      <c r="E1448" t="str">
+        <v>2021-03-20T14:50:05</v>
+      </c>
+      <c r="F1448" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1448" t="str">
+        <v>./mid_thumbs/796/IMG_0548.jpg</v>
+      </c>
+      <c r="H1448" t="str">
+        <v>./small_thumbs/796/IMG_0548.jpg</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449">
+        <v>1453</v>
+      </c>
+      <c r="B1449">
+        <v>796</v>
+      </c>
+      <c r="C1449" t="str">
+        <v>阿弥陀種子と六字名号</v>
+      </c>
+      <c r="D1449" t="str">
+        <v>./images/796/IMG_0550.jpg</v>
+      </c>
+      <c r="E1449" t="str">
+        <v>2021-03-20T14:50:36</v>
+      </c>
+      <c r="F1449" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1449" t="str">
+        <v>./mid_thumbs/796/IMG_0550.jpg</v>
+      </c>
+      <c r="H1449" t="str">
+        <v>./small_thumbs/796/IMG_0550.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1420"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1449"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M523"/>
+  <dimension ref="A1:M530"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18536,9 +18536,233 @@
         <v>34.70434003244524</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524">
+        <v>797</v>
+      </c>
+      <c r="B524" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C524" t="str">
+        <v>千体地蔵摩崖仏</v>
+      </c>
+      <c r="D524" t="str">
+        <v>丹生町 千体地蔵摩崖仏</v>
+      </c>
+      <c r="E524" t="b">
+        <v>0</v>
+      </c>
+      <c r="F524" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I524" t="b">
+        <v>0</v>
+      </c>
+      <c r="K524" t="str">
+        <v>丹生町</v>
+      </c>
+      <c r="L524">
+        <v>135.97087064836757</v>
+      </c>
+      <c r="M524">
+        <v>34.69970530234792</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525">
+        <v>798</v>
+      </c>
+      <c r="B525" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C525" t="str">
+        <v>山の神 石碑</v>
+      </c>
+      <c r="D525" t="str">
+        <v>丹生町 山の神 石碑</v>
+      </c>
+      <c r="E525" t="b">
+        <v>0</v>
+      </c>
+      <c r="F525" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I525" t="b">
+        <v>0</v>
+      </c>
+      <c r="K525" t="str">
+        <v>丹生町</v>
+      </c>
+      <c r="L525">
+        <v>135.97352294957972</v>
+      </c>
+      <c r="M525">
+        <v>34.69716762776938</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526">
+        <v>799</v>
+      </c>
+      <c r="B526" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C526" t="str">
+        <v>富士浅間社供養碑</v>
+      </c>
+      <c r="D526" t="str">
+        <v>丹生町 富士浅間社供養碑</v>
+      </c>
+      <c r="E526" t="b">
+        <v>0</v>
+      </c>
+      <c r="F526" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I526" t="b">
+        <v>0</v>
+      </c>
+      <c r="K526" t="str">
+        <v>丹生町</v>
+      </c>
+      <c r="L526">
+        <v>135.96547298274285</v>
+      </c>
+      <c r="M526">
+        <v>34.69478131378345</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527">
+        <v>800</v>
+      </c>
+      <c r="B527" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C527" t="str">
+        <v>阿弥陀摩崖仏</v>
+      </c>
+      <c r="D527" t="str">
+        <v>大柳生町 阿弥陀摩崖仏</v>
+      </c>
+      <c r="E527" t="b">
+        <v>0</v>
+      </c>
+      <c r="F527" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I527" t="b">
+        <v>0</v>
+      </c>
+      <c r="K527" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L527">
+        <v>135.93266820459283</v>
+      </c>
+      <c r="M527">
+        <v>34.715954457499464</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528">
+        <v>801</v>
+      </c>
+      <c r="B528" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C528" t="str">
+        <v>上出阿弥陀摩崖仏</v>
+      </c>
+      <c r="D528" t="str">
+        <v>大柳生町 上出阿弥陀摩崖仏</v>
+      </c>
+      <c r="E528" t="b">
+        <v>0</v>
+      </c>
+      <c r="F528" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I528" t="b">
+        <v>0</v>
+      </c>
+      <c r="K528" t="str">
+        <v>大柳生町</v>
+      </c>
+      <c r="L528">
+        <v>135.92342392668388</v>
+      </c>
+      <c r="M528">
+        <v>34.695198963550084</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529">
+        <v>802</v>
+      </c>
+      <c r="B529" t="str">
+        <v>石仏等</v>
+      </c>
+      <c r="C529" t="str">
+        <v>石仏</v>
+      </c>
+      <c r="D529" t="str">
+        <v>下狭川町 石仏</v>
+      </c>
+      <c r="E529" t="b">
+        <v>0</v>
+      </c>
+      <c r="F529" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I529" t="b">
+        <v>0</v>
+      </c>
+      <c r="K529" t="str">
+        <v>下狭川町</v>
+      </c>
+      <c r="L529">
+        <v>135.91725461202236</v>
+      </c>
+      <c r="M529">
+        <v>34.74226032118138</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530">
+        <v>803</v>
+      </c>
+      <c r="B530" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C530" t="str">
+        <v>腰痛地蔵尊</v>
+      </c>
+      <c r="D530" t="str">
+        <v>南庄町 腰痛地蔵尊</v>
+      </c>
+      <c r="E530" t="b">
+        <v>0</v>
+      </c>
+      <c r="F530" t="str">
+        <v>Google Mapsで発見、要調査</v>
+      </c>
+      <c r="I530" t="b">
+        <v>0</v>
+      </c>
+      <c r="K530" t="str">
+        <v>南庄町</v>
+      </c>
+      <c r="L530">
+        <v>135.8942524909838</v>
+      </c>
+      <c r="M530">
+        <v>34.71287222454223</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M523"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M530"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M530"/>
+  <dimension ref="A1:M537"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="str">
-        <v>2017-02-18</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3619,7 +3619,10 @@
         <v>1</v>
       </c>
       <c r="H94" t="str">
-        <v>2016-11-04</v>
+        <v>2022-06-15</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
       </c>
       <c r="J94">
         <v>260</v>
@@ -4686,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="str">
-        <v>2016-07-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -4826,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="F129" t="str">
-        <v>正確な位置は現地再確認必要</v>
+        <v/>
       </c>
       <c r="H129" t="str">
-        <v>2018-06-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -4841,10 +4844,10 @@
         <v>雑司町</v>
       </c>
       <c r="L129">
-        <v>135.84367087116433</v>
+        <v>135.84361111111113</v>
       </c>
       <c r="M129">
-        <v>34.69008148884221</v>
+        <v>34.69</v>
       </c>
     </row>
     <row r="130">
@@ -4864,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="F130" t="str">
-        <v>正確な位置は現地再確認必要</v>
+        <v/>
       </c>
       <c r="H130" t="str">
-        <v>2018-06-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -4879,10 +4882,10 @@
         <v>雑司町</v>
       </c>
       <c r="L130">
-        <v>135.84396798819904</v>
+        <v>135.8438888888889</v>
       </c>
       <c r="M130">
-        <v>34.69033471872129</v>
+        <v>34.69027777777777</v>
       </c>
     </row>
     <row r="131">
@@ -5138,16 +5141,16 @@
         <v>地蔵</v>
       </c>
       <c r="C138" t="str">
-        <v>地蔵</v>
+        <v>地蔵群</v>
       </c>
       <c r="D138" t="str">
-        <v>佐紀町</v>
+        <v>佐紀町 地蔵群</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="H138" t="str">
-        <v>2021-03-19</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="str">
-        <v>2018-06-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -5724,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="str">
-        <v>2018-06-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -6499,7 +6502,10 @@
         <v>1</v>
       </c>
       <c r="H178" t="str">
-        <v>2017-08-26</v>
+        <v>2022-06-15</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
       </c>
       <c r="J178">
         <v>401</v>
@@ -14745,20 +14751,32 @@
       <c r="C413" t="str">
         <v>地蔵尊</v>
       </c>
+      <c r="D413" t="str">
+        <v>法蓮町 地蔵尊</v>
+      </c>
       <c r="E413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413" t="str">
-        <v>Google Mapsで発見、要調査</v>
+        <v/>
+      </c>
+      <c r="H413" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I413" t="b">
         <v>0</v>
       </c>
+      <c r="J413">
+        <v>1476</v>
+      </c>
+      <c r="K413" t="str">
+        <v>法蓮町</v>
+      </c>
       <c r="L413">
-        <v>135.83180116376718</v>
+        <v>135.8318871807165</v>
       </c>
       <c r="M413">
-        <v>34.69389670321959</v>
+        <v>34.69392008605041</v>
       </c>
     </row>
     <row r="414">
@@ -14991,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="str">
-        <v>2021-03-19</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I420" t="b">
         <v>0</v>
@@ -15131,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="str">
-        <v>2017-05-02</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I424" t="b">
         <v>0</v>
@@ -15944,16 +15962,22 @@
         <v>地蔵尊</v>
       </c>
       <c r="D448" t="str">
-        <v>杏町 地蔵尊</v>
+        <v>杏中町 地蔵尊</v>
       </c>
       <c r="E448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F448" t="str">
-        <v>Google Mapsから取得</v>
+        <v/>
+      </c>
+      <c r="H448" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I448" t="b">
         <v>0</v>
+      </c>
+      <c r="J448">
+        <v>1553</v>
       </c>
       <c r="K448" t="str">
         <v>杏町</v>
@@ -15979,22 +16003,28 @@
         <v>三条大路5丁目 地蔵尊</v>
       </c>
       <c r="E449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H449" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I449" t="b">
         <v>0</v>
       </c>
+      <c r="J449">
+        <v>1546</v>
+      </c>
       <c r="K449" t="str">
         <v>三条大路5丁目</v>
       </c>
       <c r="L449">
-        <v>135.7876040127853</v>
+        <v>135.78753231672317</v>
       </c>
       <c r="M449">
-        <v>34.68308272973851</v>
+        <v>34.68308197155774</v>
       </c>
     </row>
     <row r="450">
@@ -16011,13 +16041,19 @@
         <v>四条大路3丁目 出屋敷地蔵尊</v>
       </c>
       <c r="E450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H450" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I450" t="b">
         <v>0</v>
+      </c>
+      <c r="J450">
+        <v>1539</v>
       </c>
       <c r="K450" t="str">
         <v>四条大路3丁目</v>
@@ -16250,13 +16286,19 @@
         <v>法華寺町 地蔵堂 地蔵菩薩立像</v>
       </c>
       <c r="E457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F457" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H457" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I457" t="b">
         <v>0</v>
+      </c>
+      <c r="J457">
+        <v>1511</v>
       </c>
       <c r="K457" t="str">
         <v>法華寺町</v>
@@ -16378,28 +16420,34 @@
         <v>地蔵</v>
       </c>
       <c r="C461" t="str">
-        <v>地蔵尊</v>
+        <v>地蔵群</v>
       </c>
       <c r="D461" t="str">
-        <v>佐紀町 地蔵尊</v>
+        <v>佐紀町 地蔵群</v>
       </c>
       <c r="E461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F461" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H461" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I461" t="b">
         <v>0</v>
       </c>
+      <c r="J461">
+        <v>1525</v>
+      </c>
       <c r="K461" t="str">
         <v>佐紀町</v>
       </c>
       <c r="L461">
-        <v>135.7981092378287</v>
+        <v>135.79801978856352</v>
       </c>
       <c r="M461">
-        <v>34.70000443742519</v>
+        <v>34.6999919345103</v>
       </c>
     </row>
     <row r="462">
@@ -16480,19 +16528,25 @@
         <v>地蔵</v>
       </c>
       <c r="C464" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵尊</v>
       </c>
       <c r="D464" t="str">
-        <v>法華寺町 地蔵尊</v>
+        <v>法華寺町 六地蔵尊</v>
       </c>
       <c r="E464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H464" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I464" t="b">
         <v>0</v>
+      </c>
+      <c r="J464">
+        <v>1515</v>
       </c>
       <c r="K464" t="str">
         <v>法華寺町</v>
@@ -16518,13 +16572,19 @@
         <v>佐紀町 地蔵尊</v>
       </c>
       <c r="E465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H465" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I465" t="b">
         <v>0</v>
+      </c>
+      <c r="J465">
+        <v>1520</v>
       </c>
       <c r="K465" t="str">
         <v>佐紀町</v>
@@ -16582,10 +16642,13 @@
         <v>大宮町1丁目 地蔵尊</v>
       </c>
       <c r="E467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F467" t="str">
-        <v>Google mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H467" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I467" t="b">
         <v>0</v>
@@ -16646,16 +16709,22 @@
         <v>地蔵尊</v>
       </c>
       <c r="D469" t="str">
-        <v>北向町 地蔵尊</v>
+        <v>北向町 地蔵尊 駐車場の石築地に埋め込み 2020年のGoogle StreetViewには映っているが、率川神社駐車場整備前はなかった記憶</v>
       </c>
       <c r="E469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F469" t="str">
-        <v>Google Mapsで発見、駐車場の石築地に埋め込み</v>
+        <v/>
+      </c>
+      <c r="H469" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I469" t="b">
         <v>0</v>
+      </c>
+      <c r="J469">
+        <v>1457</v>
       </c>
       <c r="K469" t="str">
         <v>北向町</v>
@@ -16885,13 +16954,19 @@
         <v>南袋町 地蔵尊</v>
       </c>
       <c r="E476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H476" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I476" t="b">
         <v>0</v>
+      </c>
+      <c r="J476">
+        <v>1468</v>
       </c>
       <c r="K476" t="str">
         <v>南袋町</v>
@@ -16972,22 +17047,28 @@
         <v>752</v>
       </c>
       <c r="B479" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C479" t="str">
-        <v>地蔵群</v>
+        <v>浮彫五輪塔、六字名号等</v>
       </c>
       <c r="D479" t="str">
-        <v>南魚屋町 地蔵群</v>
+        <v>南魚屋町 浮彫五輪塔、六字名号等</v>
       </c>
       <c r="E479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F479" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H479" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I479" t="b">
         <v>0</v>
+      </c>
+      <c r="J479">
+        <v>1465</v>
       </c>
       <c r="K479" t="str">
         <v>南魚屋町</v>
@@ -17599,86 +17680,86 @@
     </row>
     <row r="497">
       <c r="A497">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B497" t="str">
         <v>地蔵</v>
       </c>
       <c r="C497" t="str">
-        <v>道路に背を向けた地蔵群</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D497" t="str">
-        <v>押上町 道路に背を向けた地蔵群</v>
+        <v>北風呂町 地蔵堂</v>
       </c>
       <c r="E497" t="b">
         <v>1</v>
       </c>
       <c r="H497" t="str">
-        <v>2021-07-23</v>
+        <v>2017-10-20</v>
       </c>
       <c r="I497" t="b">
         <v>0</v>
       </c>
       <c r="J497">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="K497" t="str">
-        <v>押上町</v>
+        <v>北風呂町</v>
       </c>
       <c r="L497">
-        <v>135.83736783362238</v>
+        <v>135.82660857666383</v>
       </c>
       <c r="M497">
-        <v>34.68663483905462</v>
+        <v>34.67838706546818</v>
       </c>
     </row>
     <row r="498">
       <c r="A498">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B498" t="str">
         <v>地蔵</v>
       </c>
       <c r="C498" t="str">
-        <v>地蔵堂</v>
+        <v>交通安全地蔵尊</v>
       </c>
       <c r="D498" t="str">
-        <v>北風呂町 地蔵堂</v>
+        <v>中ノ川町 交通安全地蔵尊</v>
       </c>
       <c r="E498" t="b">
         <v>1</v>
       </c>
       <c r="H498" t="str">
-        <v>2017-10-20</v>
+        <v>2021-03-20</v>
       </c>
       <c r="I498" t="b">
         <v>0</v>
       </c>
       <c r="J498">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="K498" t="str">
-        <v>北風呂町</v>
+        <v>中ノ川町</v>
       </c>
       <c r="L498">
-        <v>135.82660857666383</v>
+        <v>135.87437046841205</v>
       </c>
       <c r="M498">
-        <v>34.67838706546818</v>
+        <v>34.70047536906061</v>
       </c>
     </row>
     <row r="499">
       <c r="A499">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B499" t="str">
         <v>地蔵</v>
       </c>
       <c r="C499" t="str">
-        <v>交通安全地蔵尊</v>
+        <v>安全地蔵尊</v>
       </c>
       <c r="D499" t="str">
-        <v>中ノ川町 交通安全地蔵尊</v>
+        <v>中ノ川町 安全地蔵尊</v>
       </c>
       <c r="E499" t="b">
         <v>1</v>
@@ -17690,30 +17771,30 @@
         <v>0</v>
       </c>
       <c r="J499">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="K499" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L499">
-        <v>135.87437046841205</v>
+        <v>135.86583506678798</v>
       </c>
       <c r="M499">
-        <v>34.70047536906061</v>
+        <v>34.7045302674754</v>
       </c>
     </row>
     <row r="500">
       <c r="A500">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B500" t="str">
         <v>地蔵</v>
       </c>
       <c r="C500" t="str">
-        <v>安全地蔵尊</v>
+        <v>中ノ川地蔵尊</v>
       </c>
       <c r="D500" t="str">
-        <v>中ノ川町 安全地蔵尊</v>
+        <v>中ノ川町 中ノ川地蔵尊</v>
       </c>
       <c r="E500" t="b">
         <v>1</v>
@@ -17725,30 +17806,30 @@
         <v>0</v>
       </c>
       <c r="J500">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="K500" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L500">
-        <v>135.86583506678798</v>
+        <v>135.86812969555487</v>
       </c>
       <c r="M500">
-        <v>34.7045302674754</v>
+        <v>34.7052605792409</v>
       </c>
     </row>
     <row r="501">
       <c r="A501">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B501" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C501" t="str">
-        <v>中ノ川地蔵尊</v>
+        <v>三社神社</v>
       </c>
       <c r="D501" t="str">
-        <v>中ノ川町 中ノ川地蔵尊</v>
+        <v>中ノ川町 三社神社</v>
       </c>
       <c r="E501" t="b">
         <v>1</v>
@@ -17760,30 +17841,30 @@
         <v>0</v>
       </c>
       <c r="J501">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="K501" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L501">
-        <v>135.86812969555487</v>
+        <v>135.8682428835209</v>
       </c>
       <c r="M501">
-        <v>34.7052605792409</v>
+        <v>34.70690869156066</v>
       </c>
     </row>
     <row r="502">
       <c r="A502">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B502" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C502" t="str">
-        <v>三社神社</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D502" t="str">
-        <v>中ノ川町 三社神社</v>
+        <v>平清水町 地蔵尊</v>
       </c>
       <c r="E502" t="b">
         <v>1</v>
@@ -17795,30 +17876,30 @@
         <v>0</v>
       </c>
       <c r="J502">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="K502" t="str">
-        <v>中ノ川町</v>
+        <v>平清水町</v>
       </c>
       <c r="L502">
-        <v>135.8682428835209</v>
+        <v>135.89415092296943</v>
       </c>
       <c r="M502">
-        <v>34.70690869156066</v>
+        <v>34.697329725111686</v>
       </c>
     </row>
     <row r="503">
       <c r="A503">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B503" t="str">
         <v>地蔵</v>
       </c>
       <c r="C503" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵</v>
       </c>
       <c r="D503" t="str">
-        <v>平清水町 地蔵尊</v>
+        <v>忍辱山町 六地蔵</v>
       </c>
       <c r="E503" t="b">
         <v>1</v>
@@ -17830,30 +17911,30 @@
         <v>0</v>
       </c>
       <c r="J503">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="K503" t="str">
-        <v>平清水町</v>
+        <v>忍辱山町</v>
       </c>
       <c r="L503">
-        <v>135.89415092296943</v>
+        <v>135.91322138028508</v>
       </c>
       <c r="M503">
-        <v>34.697329725111686</v>
+        <v>34.69358962304381</v>
       </c>
     </row>
     <row r="504">
       <c r="A504">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B504" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C504" t="str">
-        <v>六地蔵</v>
+        <v>阿対の石仏</v>
       </c>
       <c r="D504" t="str">
-        <v>忍辱山町 六地蔵</v>
+        <v>柳生下町 阿対の石仏</v>
       </c>
       <c r="E504" t="b">
         <v>1</v>
@@ -17865,30 +17946,30 @@
         <v>0</v>
       </c>
       <c r="J504">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="K504" t="str">
-        <v>忍辱山町</v>
+        <v>柳生下町</v>
       </c>
       <c r="L504">
-        <v>135.91322138028508</v>
+        <v>135.95019403428716</v>
       </c>
       <c r="M504">
-        <v>34.69358962304381</v>
+        <v>34.742656274426224</v>
       </c>
     </row>
     <row r="505">
       <c r="A505">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B505" t="str">
         <v>石仏等</v>
       </c>
       <c r="C505" t="str">
-        <v>阿対の石仏</v>
+        <v>摩利支天像</v>
       </c>
       <c r="D505" t="str">
-        <v>柳生下町 阿対の石仏</v>
+        <v>柳生町 摩利支天像</v>
       </c>
       <c r="E505" t="b">
         <v>1</v>
@@ -17900,71 +17981,68 @@
         <v>0</v>
       </c>
       <c r="J505">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="K505" t="str">
-        <v>柳生下町</v>
+        <v>柳生町</v>
       </c>
       <c r="L505">
-        <v>135.95019403428716</v>
+        <v>135.95204785935758</v>
       </c>
       <c r="M505">
-        <v>34.742656274426224</v>
+        <v>34.73010999217477</v>
       </c>
     </row>
     <row r="506">
       <c r="A506">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B506" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C506" t="str">
-        <v>摩利支天像</v>
+        <v>歯痛地蔵</v>
       </c>
       <c r="D506" t="str">
-        <v>柳生町 摩利支天像</v>
+        <v>柳生町 歯痛地蔵</v>
       </c>
       <c r="E506" t="b">
-        <v>1</v>
-      </c>
-      <c r="H506" t="str">
-        <v>2021-03-20</v>
+        <v>0</v>
+      </c>
+      <c r="F506" t="str">
+        <v>Google Mapsで発見、磨崖仏</v>
       </c>
       <c r="I506" t="b">
         <v>0</v>
       </c>
-      <c r="J506">
-        <v>1411</v>
-      </c>
       <c r="K506" t="str">
         <v>柳生町</v>
       </c>
       <c r="L506">
-        <v>135.95204785935758</v>
+        <v>135.95256920998924</v>
       </c>
       <c r="M506">
-        <v>34.73010999217477</v>
+        <v>34.72891477973801</v>
       </c>
     </row>
     <row r="507">
       <c r="A507">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B507" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C507" t="str">
-        <v>歯痛地蔵</v>
+        <v>寝仏</v>
       </c>
       <c r="D507" t="str">
-        <v>柳生町 歯痛地蔵</v>
+        <v>柳生町 寝仏</v>
       </c>
       <c r="E507" t="b">
         <v>0</v>
       </c>
       <c r="F507" t="str">
-        <v>Google Mapsで発見、磨崖仏</v>
+        <v>Google Mapsで報告されている</v>
       </c>
       <c r="I507" t="b">
         <v>0</v>
@@ -17973,56 +18051,59 @@
         <v>柳生町</v>
       </c>
       <c r="L507">
-        <v>135.95256920998924</v>
+        <v>135.95324490784733</v>
       </c>
       <c r="M507">
-        <v>34.72891477973801</v>
+        <v>34.726042252753814</v>
       </c>
     </row>
     <row r="508">
       <c r="A508">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B508" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C508" t="str">
-        <v>寝仏</v>
+        <v>柳生六地蔵磨崖仏</v>
       </c>
       <c r="D508" t="str">
-        <v>柳生町 寝仏</v>
+        <v>柳生町 柳生六地蔵磨崖仏</v>
       </c>
       <c r="E508" t="b">
-        <v>0</v>
-      </c>
-      <c r="F508" t="str">
-        <v>Google Mapsで報告されている</v>
+        <v>1</v>
+      </c>
+      <c r="H508" t="str">
+        <v>2021-03-20</v>
       </c>
       <c r="I508" t="b">
         <v>0</v>
       </c>
+      <c r="J508">
+        <v>1413</v>
+      </c>
       <c r="K508" t="str">
         <v>柳生町</v>
       </c>
       <c r="L508">
-        <v>135.95324490784733</v>
+        <v>135.95328949704611</v>
       </c>
       <c r="M508">
-        <v>34.726042252753814</v>
+        <v>34.72583646435896</v>
       </c>
     </row>
     <row r="509">
       <c r="A509">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B509" t="str">
         <v>地蔵</v>
       </c>
       <c r="C509" t="str">
-        <v>柳生六地蔵磨崖仏</v>
+        <v>疱瘡地蔵</v>
       </c>
       <c r="D509" t="str">
-        <v>柳生町 柳生六地蔵磨崖仏</v>
+        <v>柳生町 疱瘡地蔵</v>
       </c>
       <c r="E509" t="b">
         <v>1</v>
@@ -18034,30 +18115,30 @@
         <v>0</v>
       </c>
       <c r="J509">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="K509" t="str">
         <v>柳生町</v>
       </c>
       <c r="L509">
-        <v>135.95328949704611</v>
+        <v>135.95331693655305</v>
       </c>
       <c r="M509">
-        <v>34.72583646435896</v>
+        <v>34.7243339116494</v>
       </c>
     </row>
     <row r="510">
       <c r="A510">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B510" t="str">
         <v>地蔵</v>
       </c>
       <c r="C510" t="str">
-        <v>疱瘡地蔵</v>
+        <v>地蔵磨崖仏</v>
       </c>
       <c r="D510" t="str">
-        <v>柳生町 疱瘡地蔵</v>
+        <v>柳生町 地蔵磨崖仏</v>
       </c>
       <c r="E510" t="b">
         <v>1</v>
@@ -18069,30 +18150,30 @@
         <v>0</v>
       </c>
       <c r="J510">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="K510" t="str">
         <v>柳生町</v>
       </c>
       <c r="L510">
-        <v>135.95331693655305</v>
+        <v>135.9533426610908</v>
       </c>
       <c r="M510">
-        <v>34.7243339116494</v>
+        <v>34.724371969137685</v>
       </c>
     </row>
     <row r="511">
       <c r="A511">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B511" t="str">
         <v>地蔵</v>
       </c>
       <c r="C511" t="str">
-        <v>地蔵磨崖仏</v>
+        <v>空の石地蔵窟</v>
       </c>
       <c r="D511" t="str">
-        <v>柳生町 地蔵磨崖仏</v>
+        <v>柳生町 空の石地蔵窟</v>
       </c>
       <c r="E511" t="b">
         <v>1</v>
@@ -18104,30 +18185,30 @@
         <v>0</v>
       </c>
       <c r="J511">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K511" t="str">
         <v>柳生町</v>
       </c>
       <c r="L511">
-        <v>135.9533426610908</v>
+        <v>135.95452770479625</v>
       </c>
       <c r="M511">
-        <v>34.724371969137685</v>
+        <v>34.726032386198625</v>
       </c>
     </row>
     <row r="512">
       <c r="A512">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B512" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C512" t="str">
-        <v>空の石地蔵窟</v>
+        <v>小祠</v>
       </c>
       <c r="D512" t="str">
-        <v>柳生町 空の石地蔵窟</v>
+        <v>柳生町 小祠</v>
       </c>
       <c r="E512" t="b">
         <v>1</v>
@@ -18139,30 +18220,30 @@
         <v>0</v>
       </c>
       <c r="J512">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="K512" t="str">
         <v>柳生町</v>
       </c>
       <c r="L512">
-        <v>135.95452770479625</v>
+        <v>135.95518796793175</v>
       </c>
       <c r="M512">
-        <v>34.726032386198625</v>
+        <v>34.72602251964226</v>
       </c>
     </row>
     <row r="513">
       <c r="A513">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B513" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C513" t="str">
-        <v>小祠</v>
+        <v>北出磨崖仏</v>
       </c>
       <c r="D513" t="str">
-        <v>柳生町 小祠</v>
+        <v>阪原町 北出磨崖仏</v>
       </c>
       <c r="E513" t="b">
         <v>1</v>
@@ -18174,30 +18255,30 @@
         <v>0</v>
       </c>
       <c r="J513">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K513" t="str">
-        <v>柳生町</v>
+        <v>阪原町</v>
       </c>
       <c r="L513">
-        <v>135.95518796793175</v>
+        <v>135.9407813693094</v>
       </c>
       <c r="M513">
-        <v>34.72602251964226</v>
+        <v>34.724072442135885</v>
       </c>
     </row>
     <row r="514">
       <c r="A514">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B514" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C514" t="str">
-        <v>北出磨崖仏</v>
+        <v>地蔵群</v>
       </c>
       <c r="D514" t="str">
-        <v>阪原町 北出磨崖仏</v>
+        <v>阪原町 地蔵群</v>
       </c>
       <c r="E514" t="b">
         <v>1</v>
@@ -18209,30 +18290,30 @@
         <v>0</v>
       </c>
       <c r="J514">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="K514" t="str">
         <v>阪原町</v>
       </c>
       <c r="L514">
-        <v>135.9407813693094</v>
+        <v>135.94056871313074</v>
       </c>
       <c r="M514">
-        <v>34.724072442135885</v>
+        <v>34.724247225082905</v>
       </c>
     </row>
     <row r="515">
       <c r="A515">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B515" t="str">
         <v>地蔵</v>
       </c>
       <c r="C515" t="str">
-        <v>地蔵群</v>
+        <v>足痛地蔵</v>
       </c>
       <c r="D515" t="str">
-        <v>阪原町 地蔵群</v>
+        <v>阪原町 足痛地蔵</v>
       </c>
       <c r="E515" t="b">
         <v>1</v>
@@ -18244,30 +18325,30 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K515" t="str">
         <v>阪原町</v>
       </c>
       <c r="L515">
-        <v>135.94056871313074</v>
+        <v>135.93880743977968</v>
       </c>
       <c r="M515">
-        <v>34.724247225082905</v>
+        <v>34.7246743141165</v>
       </c>
     </row>
     <row r="516">
       <c r="A516">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B516" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C516" t="str">
-        <v>足痛地蔵</v>
+        <v>十九夜講石碑</v>
       </c>
       <c r="D516" t="str">
-        <v>阪原町 足痛地蔵</v>
+        <v>阪原町 十九夜講石碑</v>
       </c>
       <c r="E516" t="b">
         <v>1</v>
@@ -18279,30 +18360,30 @@
         <v>0</v>
       </c>
       <c r="J516">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="K516" t="str">
         <v>阪原町</v>
       </c>
       <c r="L516">
-        <v>135.93880743977968</v>
+        <v>135.93824835982605</v>
       </c>
       <c r="M516">
-        <v>34.7246743141165</v>
+        <v>34.722723500025076</v>
       </c>
     </row>
     <row r="517">
       <c r="A517">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B517" t="str">
         <v>石仏等</v>
       </c>
       <c r="C517" t="str">
-        <v>十九夜講石碑</v>
+        <v>藤井の森地蔵尊 石仏群</v>
       </c>
       <c r="D517" t="str">
-        <v>阪原町 十九夜講石碑</v>
+        <v>大柳生町 藤井の森地蔵尊とされているが薬師如来か？</v>
       </c>
       <c r="E517" t="b">
         <v>1</v>
@@ -18314,30 +18395,30 @@
         <v>0</v>
       </c>
       <c r="J517">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="K517" t="str">
-        <v>阪原町</v>
+        <v>大柳生町</v>
       </c>
       <c r="L517">
-        <v>135.93824835982605</v>
+        <v>135.92736516539028</v>
       </c>
       <c r="M517">
-        <v>34.722723500025076</v>
+        <v>34.70549823889973</v>
       </c>
     </row>
     <row r="518">
       <c r="A518">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B518" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C518" t="str">
-        <v>藤井の森地蔵尊 石仏群</v>
+        <v>元亀の地蔵石仏</v>
       </c>
       <c r="D518" t="str">
-        <v>大柳生町 藤井の森地蔵尊とされているが薬師如来か？</v>
+        <v>大柳生町 元亀の地蔵石仏</v>
       </c>
       <c r="E518" t="b">
         <v>1</v>
@@ -18349,30 +18430,30 @@
         <v>0</v>
       </c>
       <c r="J518">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="K518" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L518">
-        <v>135.92736516539028</v>
+        <v>135.92860165817123</v>
       </c>
       <c r="M518">
-        <v>34.70549823889973</v>
+        <v>34.70667052752085</v>
       </c>
     </row>
     <row r="519">
       <c r="A519">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B519" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C519" t="str">
-        <v>元亀の地蔵石仏</v>
+        <v>多聞神社の弘法大師堂</v>
       </c>
       <c r="D519" t="str">
-        <v>大柳生町 元亀の地蔵石仏</v>
+        <v>大柳生町 多聞神社の弘法大師堂</v>
       </c>
       <c r="E519" t="b">
         <v>1</v>
@@ -18384,30 +18465,30 @@
         <v>0</v>
       </c>
       <c r="J519">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="K519" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L519">
-        <v>135.92860165817123</v>
+        <v>135.93329724379436</v>
       </c>
       <c r="M519">
-        <v>34.70667052752085</v>
+        <v>34.703733782796675</v>
       </c>
     </row>
     <row r="520">
       <c r="A520">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B520" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C520" t="str">
-        <v>多聞神社の弘法大師堂</v>
+        <v>多聞神社地蔵尊</v>
       </c>
       <c r="D520" t="str">
-        <v>大柳生町 多聞神社の弘法大師堂</v>
+        <v>大柳生町 多聞神社地蔵尊</v>
       </c>
       <c r="E520" t="b">
         <v>1</v>
@@ -18419,30 +18500,30 @@
         <v>0</v>
       </c>
       <c r="J520">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="K520" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L520">
-        <v>135.93329724379436</v>
+        <v>135.93331782342455</v>
       </c>
       <c r="M520">
-        <v>34.703733782796675</v>
+        <v>34.70375211133954</v>
       </c>
     </row>
     <row r="521">
       <c r="A521">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B521" t="str">
         <v>地蔵</v>
       </c>
       <c r="C521" t="str">
-        <v>多聞神社地蔵尊</v>
+        <v>多聞神社地蔵群</v>
       </c>
       <c r="D521" t="str">
-        <v>大柳生町 多聞神社地蔵尊</v>
+        <v>大柳生町 多聞神社地蔵群</v>
       </c>
       <c r="E521" t="b">
         <v>1</v>
@@ -18454,30 +18535,30 @@
         <v>0</v>
       </c>
       <c r="J521">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="K521" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L521">
-        <v>135.93331782342455</v>
+        <v>135.9332800941025</v>
       </c>
       <c r="M521">
-        <v>34.70375211133954</v>
+        <v>34.70371404436135</v>
       </c>
     </row>
     <row r="522">
       <c r="A522">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B522" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C522" t="str">
-        <v>多聞神社地蔵群</v>
+        <v>阿弥陀種子と六字名号</v>
       </c>
       <c r="D522" t="str">
-        <v>大柳生町 多聞神社地蔵群</v>
+        <v>大柳生町 阿弥陀種子と六字名号</v>
       </c>
       <c r="E522" t="b">
         <v>1</v>
@@ -18489,65 +18570,62 @@
         <v>0</v>
       </c>
       <c r="J522">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="K522" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L522">
-        <v>135.9332800941025</v>
+        <v>135.9326952896111</v>
       </c>
       <c r="M522">
-        <v>34.70371404436135</v>
+        <v>34.70434003244524</v>
       </c>
     </row>
     <row r="523">
       <c r="A523">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B523" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C523" t="str">
-        <v>阿弥陀種子と六字名号</v>
+        <v>千体地蔵摩崖仏</v>
       </c>
       <c r="D523" t="str">
-        <v>大柳生町 阿弥陀種子と六字名号</v>
+        <v>丹生町 千体地蔵摩崖仏</v>
       </c>
       <c r="E523" t="b">
-        <v>1</v>
-      </c>
-      <c r="H523" t="str">
-        <v>2021-03-20</v>
+        <v>0</v>
+      </c>
+      <c r="F523" t="str">
+        <v>Google Mapsで発見、要調査</v>
       </c>
       <c r="I523" t="b">
         <v>0</v>
       </c>
-      <c r="J523">
-        <v>1452</v>
-      </c>
       <c r="K523" t="str">
-        <v>大柳生町</v>
+        <v>丹生町</v>
       </c>
       <c r="L523">
-        <v>135.9326952896111</v>
+        <v>135.97087064836757</v>
       </c>
       <c r="M523">
-        <v>34.70434003244524</v>
+        <v>34.69970530234792</v>
       </c>
     </row>
     <row r="524">
       <c r="A524">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B524" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C524" t="str">
-        <v>千体地蔵摩崖仏</v>
+        <v>山の神 石碑</v>
       </c>
       <c r="D524" t="str">
-        <v>丹生町 千体地蔵摩崖仏</v>
+        <v>丹生町 山の神 石碑</v>
       </c>
       <c r="E524" t="b">
         <v>0</v>
@@ -18562,24 +18640,24 @@
         <v>丹生町</v>
       </c>
       <c r="L524">
-        <v>135.97087064836757</v>
+        <v>135.97352294957972</v>
       </c>
       <c r="M524">
-        <v>34.69970530234792</v>
+        <v>34.69716762776938</v>
       </c>
     </row>
     <row r="525">
       <c r="A525">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B525" t="str">
         <v>小祠</v>
       </c>
       <c r="C525" t="str">
-        <v>山の神 石碑</v>
+        <v>富士浅間社供養碑</v>
       </c>
       <c r="D525" t="str">
-        <v>丹生町 山の神 石碑</v>
+        <v>丹生町 富士浅間社供養碑</v>
       </c>
       <c r="E525" t="b">
         <v>0</v>
@@ -18594,24 +18672,24 @@
         <v>丹生町</v>
       </c>
       <c r="L525">
-        <v>135.97352294957972</v>
+        <v>135.96547298274285</v>
       </c>
       <c r="M525">
-        <v>34.69716762776938</v>
+        <v>34.69478131378345</v>
       </c>
     </row>
     <row r="526">
       <c r="A526">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B526" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C526" t="str">
-        <v>富士浅間社供養碑</v>
+        <v>阿弥陀摩崖仏</v>
       </c>
       <c r="D526" t="str">
-        <v>丹生町 富士浅間社供養碑</v>
+        <v>大柳生町 阿弥陀摩崖仏</v>
       </c>
       <c r="E526" t="b">
         <v>0</v>
@@ -18623,27 +18701,27 @@
         <v>0</v>
       </c>
       <c r="K526" t="str">
-        <v>丹生町</v>
+        <v>大柳生町</v>
       </c>
       <c r="L526">
-        <v>135.96547298274285</v>
+        <v>135.93266820459283</v>
       </c>
       <c r="M526">
-        <v>34.69478131378345</v>
+        <v>34.715954457499464</v>
       </c>
     </row>
     <row r="527">
       <c r="A527">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B527" t="str">
         <v>石仏等</v>
       </c>
       <c r="C527" t="str">
-        <v>阿弥陀摩崖仏</v>
+        <v>上出阿弥陀摩崖仏</v>
       </c>
       <c r="D527" t="str">
-        <v>大柳生町 阿弥陀摩崖仏</v>
+        <v>大柳生町 上出阿弥陀摩崖仏</v>
       </c>
       <c r="E527" t="b">
         <v>0</v>
@@ -18658,24 +18736,24 @@
         <v>大柳生町</v>
       </c>
       <c r="L527">
-        <v>135.93266820459283</v>
+        <v>135.92342392668388</v>
       </c>
       <c r="M527">
-        <v>34.715954457499464</v>
+        <v>34.695198963550084</v>
       </c>
     </row>
     <row r="528">
       <c r="A528">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B528" t="str">
         <v>石仏等</v>
       </c>
       <c r="C528" t="str">
-        <v>上出阿弥陀摩崖仏</v>
+        <v>石仏</v>
       </c>
       <c r="D528" t="str">
-        <v>大柳生町 上出阿弥陀摩崖仏</v>
+        <v>下狭川町 石仏</v>
       </c>
       <c r="E528" t="b">
         <v>0</v>
@@ -18687,27 +18765,27 @@
         <v>0</v>
       </c>
       <c r="K528" t="str">
-        <v>大柳生町</v>
+        <v>下狭川町</v>
       </c>
       <c r="L528">
-        <v>135.92342392668388</v>
+        <v>135.91725461202236</v>
       </c>
       <c r="M528">
-        <v>34.695198963550084</v>
+        <v>34.74226032118138</v>
       </c>
     </row>
     <row r="529">
       <c r="A529">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B529" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C529" t="str">
-        <v>石仏</v>
+        <v>腰痛地蔵尊</v>
       </c>
       <c r="D529" t="str">
-        <v>下狭川町 石仏</v>
+        <v>南庄町 腰痛地蔵尊</v>
       </c>
       <c r="E529" t="b">
         <v>0</v>
@@ -18719,57 +18797,307 @@
         <v>0</v>
       </c>
       <c r="K529" t="str">
-        <v>下狭川町</v>
+        <v>南庄町</v>
       </c>
       <c r="L529">
-        <v>135.91725461202236</v>
+        <v>135.8942524909838</v>
       </c>
       <c r="M529">
-        <v>34.74226032118138</v>
+        <v>34.71287222454223</v>
       </c>
     </row>
     <row r="530">
       <c r="A530">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B530" t="str">
         <v>地蔵</v>
       </c>
       <c r="C530" t="str">
-        <v>腰痛地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D530" t="str">
-        <v>南庄町 腰痛地蔵尊</v>
+        <v>奧子守町 地蔵堂</v>
       </c>
       <c r="E530" t="b">
-        <v>0</v>
-      </c>
-      <c r="F530" t="str">
-        <v>Google Mapsで発見、要調査</v>
+        <v>1</v>
+      </c>
+      <c r="H530" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I530" t="b">
         <v>0</v>
       </c>
+      <c r="J530">
+        <v>1459</v>
+      </c>
       <c r="K530" t="str">
-        <v>南庄町</v>
+        <v>奧子守町</v>
       </c>
       <c r="L530">
-        <v>135.8942524909838</v>
+        <v>135.82450252341428</v>
       </c>
       <c r="M530">
-        <v>34.71287222454223</v>
+        <v>34.68053828483294</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531">
+        <v>805</v>
+      </c>
+      <c r="B531" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C531" t="str">
+        <v>子安神社</v>
+      </c>
+      <c r="D531" t="str">
+        <v>雑司町 子安神社</v>
+      </c>
+      <c r="E531" t="b">
+        <v>1</v>
+      </c>
+      <c r="H531" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I531" t="b">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>1482</v>
+      </c>
+      <c r="K531" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="L531">
+        <v>135.83871361554955</v>
+      </c>
+      <c r="M531">
+        <v>34.688921994186614</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532">
+        <v>806</v>
+      </c>
+      <c r="B532" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C532" t="str">
+        <v>地蔵、浮彫五輪塔群</v>
+      </c>
+      <c r="D532" t="str">
+        <v>雑司町 地蔵、浮彫五輪塔群</v>
+      </c>
+      <c r="E532" t="b">
+        <v>1</v>
+      </c>
+      <c r="H532" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I532" t="b">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>1486</v>
+      </c>
+      <c r="K532" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="L532">
+        <v>135.84102796646204</v>
+      </c>
+      <c r="M532">
+        <v>34.689684171581675</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533">
+        <v>807</v>
+      </c>
+      <c r="B533" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C533" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D533" t="str">
+        <v>法蓮町 地蔵堂</v>
+      </c>
+      <c r="E533" t="b">
+        <v>1</v>
+      </c>
+      <c r="H533" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I533" t="b">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>1496</v>
+      </c>
+      <c r="K533" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L533">
+        <v>135.82528865605892</v>
+      </c>
+      <c r="M533">
+        <v>34.689394057984416</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534">
+        <v>808</v>
+      </c>
+      <c r="B534" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C534" t="str">
+        <v>法蓮野神</v>
+      </c>
+      <c r="D534" t="str">
+        <v>法蓮町 法蓮野神</v>
+      </c>
+      <c r="E534" t="b">
+        <v>1</v>
+      </c>
+      <c r="H534" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I534" t="b">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>1499</v>
+      </c>
+      <c r="K534" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L534">
+        <v>135.82132879221513</v>
+      </c>
+      <c r="M534">
+        <v>34.68964012572095</v>
+      </c>
+    </row>
+    <row r="535" xml:space="preserve">
+      <c r="A535">
+        <v>809</v>
+      </c>
+      <c r="B535" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C535" t="str">
+        <v>六大地蔵尊</v>
+      </c>
+      <c r="D535" t="str" xml:space="preserve">
+        <v xml:space="preserve">歌姫町 六大地蔵尊
+地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません
+また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
+      </c>
+      <c r="E535" t="b">
+        <v>1</v>
+      </c>
+      <c r="H535" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I535" t="b">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>1521</v>
+      </c>
+      <c r="K535" t="str">
+        <v>歌姫町</v>
+      </c>
+      <c r="L535">
+        <v>135.7972154680167</v>
+      </c>
+      <c r="M535">
+        <v>34.70222808789911</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536">
+        <v>810</v>
+      </c>
+      <c r="B536" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C536" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D536" t="str">
+        <v>佐紀町 地蔵尊</v>
+      </c>
+      <c r="E536" t="b">
+        <v>1</v>
+      </c>
+      <c r="H536" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I536" t="b">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>1523</v>
+      </c>
+      <c r="K536" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="L536">
+        <v>135.79805580291637</v>
+      </c>
+      <c r="M536">
+        <v>34.70149845432795</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537">
+        <v>811</v>
+      </c>
+      <c r="B537" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C537" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D537" t="str">
+        <v>法華寺町 小祠</v>
+      </c>
+      <c r="E537" t="b">
+        <v>1</v>
+      </c>
+      <c r="H537" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I537" t="b">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>1535</v>
+      </c>
+      <c r="K537" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="L537">
+        <v>135.80645229203662</v>
+      </c>
+      <c r="M537">
+        <v>34.687945134271985</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M530"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M537"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1449"/>
+  <dimension ref="A1:H1549"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -28584,7 +28912,7 @@
         <v>137</v>
       </c>
       <c r="C378" t="str">
-        <v>佐紀町 地蔵</v>
+        <v>佐紀町 地蔵群</v>
       </c>
       <c r="D378" t="str">
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_1.jpg</v>
@@ -28610,7 +28938,7 @@
         <v>137</v>
       </c>
       <c r="C379" t="str">
-        <v>佐紀町 地蔵</v>
+        <v>佐紀町 地蔵群</v>
       </c>
       <c r="D379" t="str">
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_2.jpg</v>
@@ -28636,7 +28964,7 @@
         <v>137</v>
       </c>
       <c r="C380" t="str">
-        <v>佐紀町 地蔵 遠景</v>
+        <v>佐紀町 地蔵群 遠景</v>
       </c>
       <c r="D380" t="str">
         <v>./images/137/Wayside_Jizo_(Saki-cho,_Nara)_From_Faraway.jpg</v>
@@ -53960,7 +54288,7 @@
         <v>137</v>
       </c>
       <c r="C1354" t="str">
-        <v>地蔵 全景</v>
+        <v>地蔵群 全景</v>
       </c>
       <c r="D1354" t="str">
         <v>./images/137/IMG_0315.jpg</v>
@@ -53986,7 +54314,7 @@
         <v>137</v>
       </c>
       <c r="C1355" t="str">
-        <v>地蔵 右方</v>
+        <v>地蔵群 右方</v>
       </c>
       <c r="D1355" t="str">
         <v>./images/137/IMG_0316.jpg</v>
@@ -54012,7 +54340,7 @@
         <v>137</v>
       </c>
       <c r="C1356" t="str">
-        <v>地蔵 中央</v>
+        <v>地蔵群 中央</v>
       </c>
       <c r="D1356" t="str">
         <v>./images/137/IMG_0317.jpg</v>
@@ -54038,7 +54366,7 @@
         <v>137</v>
       </c>
       <c r="C1357" t="str">
-        <v>地蔵 左方</v>
+        <v>地蔵群 左方</v>
       </c>
       <c r="D1357" t="str">
         <v>./images/137/IMG_0318.jpg</v>
@@ -54500,1957 +54828,4557 @@
     </row>
     <row r="1375">
       <c r="A1375">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B1375">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="C1375" t="str">
-        <v>道路に背を向けた地蔵群 表側から</v>
+        <v>千体地蔵菩薩尊 地蔵盆</v>
       </c>
       <c r="D1375" t="str">
-        <v>./images/770/IMG_2322.jpg</v>
+        <v>./images/743/IMG_2352.jpg</v>
       </c>
       <c r="E1375" t="str">
-        <v>2021-07-23T11:11:19</v>
+        <v>2021-07-23T12:50:11</v>
       </c>
       <c r="F1375" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1375" t="str">
-        <v>./mid_thumbs/770/IMG_2322.jpg</v>
+        <v>./mid_thumbs/743/IMG_2352.jpg</v>
       </c>
       <c r="H1375" t="str">
-        <v>./small_thumbs/770/IMG_2322.jpg</v>
+        <v>./small_thumbs/743/IMG_2352.jpg</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B1376">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="C1376" t="str">
-        <v>道路に背を向けた地蔵群 道路側から</v>
+        <v>千体地蔵菩薩尊</v>
       </c>
       <c r="D1376" t="str">
-        <v>./images/770/IMG_2323.jpg</v>
+        <v>./images/743/IMG_9212.jpg</v>
       </c>
       <c r="E1376" t="str">
-        <v>2021-07-23T11:11:37</v>
+        <v>2016-11-04T13:40:52</v>
       </c>
       <c r="F1376" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1376" t="str">
-        <v>./mid_thumbs/770/IMG_2323.jpg</v>
+        <v>./mid_thumbs/743/IMG_9212.jpg</v>
       </c>
       <c r="H1376" t="str">
-        <v>./small_thumbs/770/IMG_2323.jpg</v>
+        <v>./small_thumbs/743/IMG_9212.jpg</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B1377">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C1377" t="str">
-        <v>千体地蔵菩薩尊 地蔵盆</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D1377" t="str">
-        <v>./images/743/IMG_2352.jpg</v>
+        <v>./images/771/IMG_3634.jpg</v>
       </c>
       <c r="E1377" t="str">
-        <v>2021-07-23T12:50:11</v>
+        <v>2017-10-20T09:58:38</v>
       </c>
       <c r="F1377" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1377" t="str">
-        <v>./mid_thumbs/743/IMG_2352.jpg</v>
+        <v>./mid_thumbs/771/IMG_3634.jpg</v>
       </c>
       <c r="H1377" t="str">
-        <v>./small_thumbs/743/IMG_2352.jpg</v>
+        <v>./small_thumbs/771/IMG_3634.jpg</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B1378">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C1378" t="str">
-        <v>千体地蔵菩薩尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D1378" t="str">
-        <v>./images/743/IMG_9212.jpg</v>
+        <v>./images/771/IMG_3635.jpg</v>
       </c>
       <c r="E1378" t="str">
-        <v>2016-11-04T13:40:52</v>
+        <v>2017-10-20T09:58:49</v>
       </c>
       <c r="F1378" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1378" t="str">
-        <v>./mid_thumbs/743/IMG_9212.jpg</v>
+        <v>./mid_thumbs/771/IMG_3635.jpg</v>
       </c>
       <c r="H1378" t="str">
-        <v>./small_thumbs/743/IMG_9212.jpg</v>
+        <v>./small_thumbs/771/IMG_3635.jpg</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B1379">
-        <v>771</v>
+        <v>16</v>
       </c>
       <c r="C1379" t="str">
-        <v>地蔵堂</v>
+        <v>今井町地蔵尊</v>
       </c>
       <c r="D1379" t="str">
-        <v>./images/771/IMG_3634.jpg</v>
+        <v>./images/16/IMG_0303.jpg</v>
       </c>
       <c r="E1379" t="str">
-        <v>2017-10-20T09:58:38</v>
+        <v>2021-03-19T14:15:56</v>
       </c>
       <c r="F1379" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1379" t="str">
-        <v>./mid_thumbs/771/IMG_3634.jpg</v>
+        <v>./mid_thumbs/16/IMG_0303.jpg</v>
       </c>
       <c r="H1379" t="str">
-        <v>./small_thumbs/771/IMG_3634.jpg</v>
+        <v>./small_thumbs/16/IMG_0303.jpg</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B1380">
-        <v>771</v>
+        <v>16</v>
       </c>
       <c r="C1380" t="str">
-        <v>地蔵堂</v>
+        <v>今井町地蔵尊 右奥</v>
       </c>
       <c r="D1380" t="str">
-        <v>./images/771/IMG_3635.jpg</v>
+        <v>./images/16/IMG_0304.jpg</v>
       </c>
       <c r="E1380" t="str">
-        <v>2017-10-20T09:58:49</v>
+        <v>2021-03-19T14:16:01</v>
       </c>
       <c r="F1380" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1380" t="str">
-        <v>./mid_thumbs/771/IMG_3635.jpg</v>
+        <v>./mid_thumbs/16/IMG_0304.jpg</v>
       </c>
       <c r="H1380" t="str">
-        <v>./small_thumbs/771/IMG_3635.jpg</v>
+        <v>./small_thumbs/16/IMG_0304.jpg</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B1381">
         <v>16</v>
       </c>
       <c r="C1381" t="str">
-        <v>今井町地蔵尊</v>
+        <v>今井町地蔵尊 左奥</v>
       </c>
       <c r="D1381" t="str">
-        <v>./images/16/IMG_0303.jpg</v>
+        <v>./images/16/IMG_0305.jpg</v>
       </c>
       <c r="E1381" t="str">
-        <v>2021-03-19T14:15:56</v>
+        <v>2021-03-19T14:16:04</v>
       </c>
       <c r="F1381" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1381" t="str">
-        <v>./mid_thumbs/16/IMG_0303.jpg</v>
+        <v>./mid_thumbs/16/IMG_0305.jpg</v>
       </c>
       <c r="H1381" t="str">
-        <v>./small_thumbs/16/IMG_0303.jpg</v>
+        <v>./small_thumbs/16/IMG_0305.jpg</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B1382">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C1382" t="str">
-        <v>今井町地蔵尊 右奥</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D1382" t="str">
-        <v>./images/16/IMG_0304.jpg</v>
+        <v>./images/55/IMG_3240.jpg</v>
       </c>
       <c r="E1382" t="str">
-        <v>2021-03-19T14:16:01</v>
+        <v>2019-07-23T15:15:44</v>
       </c>
       <c r="F1382" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1382" t="str">
-        <v>./mid_thumbs/16/IMG_0304.jpg</v>
+        <v>./mid_thumbs/55/IMG_3240.jpg</v>
       </c>
       <c r="H1382" t="str">
-        <v>./small_thumbs/16/IMG_0304.jpg</v>
+        <v>./small_thumbs/55/IMG_3240.jpg</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B1383">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C1383" t="str">
-        <v>今井町地蔵尊 左奥</v>
+        <v>地蔵堂 地蔵盆内部</v>
       </c>
       <c r="D1383" t="str">
-        <v>./images/16/IMG_0305.jpg</v>
+        <v>./images/55/IMG_3241.jpg</v>
       </c>
       <c r="E1383" t="str">
-        <v>2021-03-19T14:16:04</v>
+        <v>2019-07-23T15:15:59</v>
       </c>
       <c r="F1383" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1383" t="str">
-        <v>./mid_thumbs/16/IMG_0305.jpg</v>
+        <v>./mid_thumbs/55/IMG_3241.jpg</v>
       </c>
       <c r="H1383" t="str">
-        <v>./small_thumbs/16/IMG_0305.jpg</v>
+        <v>./small_thumbs/55/IMG_3241.jpg</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B1384">
         <v>55</v>
       </c>
       <c r="C1384" t="str">
-        <v>地蔵堂</v>
+        <v>地蔵堂 地蔵盆内部</v>
       </c>
       <c r="D1384" t="str">
-        <v>./images/55/IMG_3240.jpg</v>
+        <v>./images/55/IMG_3242.jpg</v>
       </c>
       <c r="E1384" t="str">
-        <v>2019-07-23T15:15:44</v>
+        <v>2019-07-23T15:16:12</v>
       </c>
       <c r="F1384" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1384" t="str">
-        <v>./mid_thumbs/55/IMG_3240.jpg</v>
+        <v>./mid_thumbs/55/IMG_3242.jpg</v>
       </c>
       <c r="H1384" t="str">
-        <v>./small_thumbs/55/IMG_3240.jpg</v>
+        <v>./small_thumbs/55/IMG_3242.jpg</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B1385">
-        <v>55</v>
+        <v>772</v>
       </c>
       <c r="C1385" t="str">
-        <v>地蔵堂 地蔵盆内部</v>
+        <v>交通安全地蔵尊</v>
       </c>
       <c r="D1385" t="str">
-        <v>./images/55/IMG_3241.jpg</v>
+        <v>./images/772/IMG_0403.jpg</v>
       </c>
       <c r="E1385" t="str">
-        <v>2019-07-23T15:15:59</v>
+        <v>2021-03-20T11:43:15</v>
       </c>
       <c r="F1385" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1385" t="str">
-        <v>./mid_thumbs/55/IMG_3241.jpg</v>
+        <v>./mid_thumbs/772/IMG_0403.jpg</v>
       </c>
       <c r="H1385" t="str">
-        <v>./small_thumbs/55/IMG_3241.jpg</v>
+        <v>./small_thumbs/772/IMG_0403.jpg</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B1386">
-        <v>55</v>
+        <v>773</v>
       </c>
       <c r="C1386" t="str">
-        <v>地蔵堂 地蔵盆内部</v>
+        <v>安全地蔵尊</v>
       </c>
       <c r="D1386" t="str">
-        <v>./images/55/IMG_3242.jpg</v>
+        <v>./images/773/IMG_0401.jpg</v>
       </c>
       <c r="E1386" t="str">
-        <v>2019-07-23T15:16:12</v>
+        <v>2021-03-20T11:39:07</v>
       </c>
       <c r="F1386" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1386" t="str">
-        <v>./mid_thumbs/55/IMG_3242.jpg</v>
+        <v>./mid_thumbs/773/IMG_0401.jpg</v>
       </c>
       <c r="H1386" t="str">
-        <v>./small_thumbs/55/IMG_3242.jpg</v>
+        <v>./small_thumbs/773/IMG_0401.jpg</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B1387">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C1387" t="str">
-        <v>交通安全地蔵尊</v>
+        <v>中ノ川地蔵尊</v>
       </c>
       <c r="D1387" t="str">
-        <v>./images/772/IMG_0403.jpg</v>
+        <v>./images/774/IMG_0391.jpg</v>
       </c>
       <c r="E1387" t="str">
-        <v>2021-03-20T11:43:15</v>
+        <v>2021-03-20T11:24:00</v>
       </c>
       <c r="F1387" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1387" t="str">
-        <v>./mid_thumbs/772/IMG_0403.jpg</v>
+        <v>./mid_thumbs/774/IMG_0391.jpg</v>
       </c>
       <c r="H1387" t="str">
-        <v>./small_thumbs/772/IMG_0403.jpg</v>
+        <v>./small_thumbs/774/IMG_0391.jpg</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B1388">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C1388" t="str">
-        <v>安全地蔵尊</v>
+        <v>中ノ川地蔵尊 本尊</v>
       </c>
       <c r="D1388" t="str">
-        <v>./images/773/IMG_0401.jpg</v>
+        <v>./images/774/IMG_0392.jpg</v>
       </c>
       <c r="E1388" t="str">
-        <v>2021-03-20T11:39:07</v>
+        <v>2021-03-20T11:24:07</v>
       </c>
       <c r="F1388" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1388" t="str">
-        <v>./mid_thumbs/773/IMG_0401.jpg</v>
+        <v>./mid_thumbs/774/IMG_0392.jpg</v>
       </c>
       <c r="H1388" t="str">
-        <v>./small_thumbs/773/IMG_0401.jpg</v>
+        <v>./small_thumbs/774/IMG_0392.jpg</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B1389">
         <v>774</v>
       </c>
       <c r="C1389" t="str">
-        <v>中ノ川地蔵尊</v>
+        <v>中ノ川地蔵尊 奥右側</v>
       </c>
       <c r="D1389" t="str">
-        <v>./images/774/IMG_0391.jpg</v>
+        <v>./images/774/IMG_0393.jpg</v>
       </c>
       <c r="E1389" t="str">
-        <v>2021-03-20T11:24:00</v>
+        <v>2021-03-20T11:24:12</v>
       </c>
       <c r="F1389" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1389" t="str">
-        <v>./mid_thumbs/774/IMG_0391.jpg</v>
+        <v>./mid_thumbs/774/IMG_0393.jpg</v>
       </c>
       <c r="H1389" t="str">
-        <v>./small_thumbs/774/IMG_0391.jpg</v>
+        <v>./small_thumbs/774/IMG_0393.jpg</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B1390">
         <v>774</v>
       </c>
       <c r="C1390" t="str">
-        <v>中ノ川地蔵尊 本尊</v>
+        <v>中ノ川地蔵尊 奥左側</v>
       </c>
       <c r="D1390" t="str">
-        <v>./images/774/IMG_0392.jpg</v>
+        <v>./images/774/IMG_0394.jpg</v>
       </c>
       <c r="E1390" t="str">
-        <v>2021-03-20T11:24:07</v>
+        <v>2021-03-20T11:24:19</v>
       </c>
       <c r="F1390" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1390" t="str">
-        <v>./mid_thumbs/774/IMG_0392.jpg</v>
+        <v>./mid_thumbs/774/IMG_0394.jpg</v>
       </c>
       <c r="H1390" t="str">
-        <v>./small_thumbs/774/IMG_0392.jpg</v>
+        <v>./small_thumbs/774/IMG_0394.jpg</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B1391">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1391" t="str">
-        <v>中ノ川地蔵尊 奥右側</v>
+        <v>三社神社 鳥居</v>
       </c>
       <c r="D1391" t="str">
-        <v>./images/774/IMG_0393.jpg</v>
+        <v>./images/775/IMG_0396.jpg</v>
       </c>
       <c r="E1391" t="str">
-        <v>2021-03-20T11:24:12</v>
+        <v>2021-03-20T11:28:49</v>
       </c>
       <c r="F1391" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1391" t="str">
-        <v>./mid_thumbs/774/IMG_0393.jpg</v>
+        <v>./mid_thumbs/775/IMG_0396.jpg</v>
       </c>
       <c r="H1391" t="str">
-        <v>./small_thumbs/774/IMG_0393.jpg</v>
+        <v>./small_thumbs/775/IMG_0396.jpg</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B1392">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1392" t="str">
-        <v>中ノ川地蔵尊 奥左側</v>
+        <v>三社神社 石灯籠</v>
       </c>
       <c r="D1392" t="str">
-        <v>./images/774/IMG_0394.jpg</v>
+        <v>./images/775/IMG_0397.jpg</v>
       </c>
       <c r="E1392" t="str">
-        <v>2021-03-20T11:24:19</v>
+        <v>2021-03-20T11:28:59</v>
       </c>
       <c r="F1392" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1392" t="str">
-        <v>./mid_thumbs/774/IMG_0394.jpg</v>
+        <v>./mid_thumbs/775/IMG_0397.jpg</v>
       </c>
       <c r="H1392" t="str">
-        <v>./small_thumbs/774/IMG_0394.jpg</v>
+        <v>./small_thumbs/775/IMG_0397.jpg</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B1393">
         <v>775</v>
       </c>
       <c r="C1393" t="str">
-        <v>三社神社 鳥居</v>
+        <v>三社神社 参道階段</v>
       </c>
       <c r="D1393" t="str">
-        <v>./images/775/IMG_0396.jpg</v>
+        <v>./images/775/IMG_0398.jpg</v>
       </c>
       <c r="E1393" t="str">
-        <v>2021-03-20T11:28:49</v>
+        <v>2021-03-20T11:29:02</v>
       </c>
       <c r="F1393" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1393" t="str">
-        <v>./mid_thumbs/775/IMG_0396.jpg</v>
+        <v>./mid_thumbs/775/IMG_0398.jpg</v>
       </c>
       <c r="H1393" t="str">
-        <v>./small_thumbs/775/IMG_0396.jpg</v>
+        <v>./small_thumbs/775/IMG_0398.jpg</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B1394">
         <v>775</v>
       </c>
       <c r="C1394" t="str">
-        <v>三社神社 石灯籠</v>
+        <v>三社神社 本殿</v>
       </c>
       <c r="D1394" t="str">
-        <v>./images/775/IMG_0397.jpg</v>
+        <v>./images/775/IMG_0400.jpg</v>
       </c>
       <c r="E1394" t="str">
-        <v>2021-03-20T11:28:59</v>
+        <v>2021-03-20T11:29:40</v>
       </c>
       <c r="F1394" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1394" t="str">
-        <v>./mid_thumbs/775/IMG_0397.jpg</v>
+        <v>./mid_thumbs/775/IMG_0400.jpg</v>
       </c>
       <c r="H1394" t="str">
-        <v>./small_thumbs/775/IMG_0397.jpg</v>
+        <v>./small_thumbs/775/IMG_0400.jpg</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B1395">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C1395" t="str">
-        <v>三社神社 参道階段</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D1395" t="str">
-        <v>./images/775/IMG_0398.jpg</v>
+        <v>./images/776/IMG_0406.jpg</v>
       </c>
       <c r="E1395" t="str">
-        <v>2021-03-20T11:29:02</v>
+        <v>2021-03-20T11:53:02</v>
       </c>
       <c r="F1395" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1395" t="str">
-        <v>./mid_thumbs/775/IMG_0398.jpg</v>
+        <v>./mid_thumbs/776/IMG_0406.jpg</v>
       </c>
       <c r="H1395" t="str">
-        <v>./small_thumbs/775/IMG_0398.jpg</v>
+        <v>./small_thumbs/776/IMG_0406.jpg</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B1396">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C1396" t="str">
-        <v>三社神社 本殿</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D1396" t="str">
-        <v>./images/775/IMG_0400.jpg</v>
+        <v>./images/776/IMG_0407.jpg</v>
       </c>
       <c r="E1396" t="str">
-        <v>2021-03-20T11:29:40</v>
+        <v>2021-03-20T11:53:08</v>
       </c>
       <c r="F1396" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1396" t="str">
-        <v>./mid_thumbs/775/IMG_0400.jpg</v>
+        <v>./mid_thumbs/776/IMG_0407.jpg</v>
       </c>
       <c r="H1396" t="str">
-        <v>./small_thumbs/775/IMG_0400.jpg</v>
+        <v>./small_thumbs/776/IMG_0407.jpg</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B1397">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C1397" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵 地蔵堂</v>
       </c>
       <c r="D1397" t="str">
-        <v>./images/776/IMG_0406.jpg</v>
+        <v>./images/777/IMG_0417.jpg</v>
       </c>
       <c r="E1397" t="str">
-        <v>2021-03-20T11:53:02</v>
+        <v>2021-03-20T12:13:43</v>
       </c>
       <c r="F1397" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1397" t="str">
-        <v>./mid_thumbs/776/IMG_0406.jpg</v>
+        <v>./mid_thumbs/777/IMG_0417.jpg</v>
       </c>
       <c r="H1397" t="str">
-        <v>./small_thumbs/776/IMG_0406.jpg</v>
+        <v>./small_thumbs/777/IMG_0417.jpg</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B1398">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C1398" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵 奥右</v>
       </c>
       <c r="D1398" t="str">
-        <v>./images/776/IMG_0407.jpg</v>
+        <v>./images/777/IMG_0418.jpg</v>
       </c>
       <c r="E1398" t="str">
-        <v>2021-03-20T11:53:08</v>
+        <v>2021-03-20T12:13:48</v>
       </c>
       <c r="F1398" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1398" t="str">
-        <v>./mid_thumbs/776/IMG_0407.jpg</v>
+        <v>./mid_thumbs/777/IMG_0418.jpg</v>
       </c>
       <c r="H1398" t="str">
-        <v>./small_thumbs/776/IMG_0407.jpg</v>
+        <v>./small_thumbs/777/IMG_0418.jpg</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B1399">
         <v>777</v>
       </c>
       <c r="C1399" t="str">
-        <v>六地蔵 地蔵堂</v>
+        <v>六地蔵 奥左</v>
       </c>
       <c r="D1399" t="str">
-        <v>./images/777/IMG_0417.jpg</v>
+        <v>./images/777/IMG_0419.jpg</v>
       </c>
       <c r="E1399" t="str">
-        <v>2021-03-20T12:13:43</v>
+        <v>2021-03-20T12:13:56</v>
       </c>
       <c r="F1399" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1399" t="str">
-        <v>./mid_thumbs/777/IMG_0417.jpg</v>
+        <v>./mid_thumbs/777/IMG_0419.jpg</v>
       </c>
       <c r="H1399" t="str">
-        <v>./small_thumbs/777/IMG_0417.jpg</v>
+        <v>./small_thumbs/777/IMG_0419.jpg</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B1400">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C1400" t="str">
-        <v>六地蔵 奥右</v>
+        <v>阿対の石仏 磨崖仏</v>
       </c>
       <c r="D1400" t="str">
-        <v>./images/777/IMG_0418.jpg</v>
+        <v>./images/778/IMG_0595.jpg</v>
       </c>
       <c r="E1400" t="str">
-        <v>2021-03-20T12:13:48</v>
+        <v>2021-03-20T16:00:45</v>
       </c>
       <c r="F1400" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1400" t="str">
-        <v>./mid_thumbs/777/IMG_0418.jpg</v>
+        <v>./mid_thumbs/778/IMG_0595.jpg</v>
       </c>
       <c r="H1400" t="str">
-        <v>./small_thumbs/777/IMG_0418.jpg</v>
+        <v>./small_thumbs/778/IMG_0595.jpg</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B1401">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C1401" t="str">
-        <v>六地蔵 奥左</v>
+        <v>阿対の石仏 石仏と祭壇</v>
       </c>
       <c r="D1401" t="str">
-        <v>./images/777/IMG_0419.jpg</v>
+        <v>./images/778/IMG_0596.jpg</v>
       </c>
       <c r="E1401" t="str">
-        <v>2021-03-20T12:13:56</v>
+        <v>2021-03-20T16:00:50</v>
       </c>
       <c r="F1401" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1401" t="str">
-        <v>./mid_thumbs/777/IMG_0419.jpg</v>
+        <v>./mid_thumbs/778/IMG_0596.jpg</v>
       </c>
       <c r="H1401" t="str">
-        <v>./small_thumbs/777/IMG_0419.jpg</v>
+        <v>./small_thumbs/778/IMG_0596.jpg</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B1402">
         <v>778</v>
       </c>
       <c r="C1402" t="str">
-        <v>阿対の石仏 磨崖仏</v>
+        <v>阿対の石仏 千羽鶴</v>
       </c>
       <c r="D1402" t="str">
-        <v>./images/778/IMG_0595.jpg</v>
+        <v>./images/778/IMG_0597.jpg</v>
       </c>
       <c r="E1402" t="str">
-        <v>2021-03-20T16:00:45</v>
+        <v>2021-03-20T16:00:58</v>
       </c>
       <c r="F1402" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1402" t="str">
-        <v>./mid_thumbs/778/IMG_0595.jpg</v>
+        <v>./mid_thumbs/778/IMG_0597.jpg</v>
       </c>
       <c r="H1402" t="str">
-        <v>./small_thumbs/778/IMG_0595.jpg</v>
+        <v>./small_thumbs/778/IMG_0597.jpg</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B1403">
         <v>778</v>
       </c>
       <c r="C1403" t="str">
-        <v>阿対の石仏 石仏と祭壇</v>
+        <v>阿対の石仏 全景</v>
       </c>
       <c r="D1403" t="str">
-        <v>./images/778/IMG_0596.jpg</v>
+        <v>./images/778/IMG_0598.jpg</v>
       </c>
       <c r="E1403" t="str">
-        <v>2021-03-20T16:00:50</v>
+        <v>2021-03-20T16:01:01</v>
       </c>
       <c r="F1403" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1403" t="str">
-        <v>./mid_thumbs/778/IMG_0596.jpg</v>
+        <v>./mid_thumbs/778/IMG_0598.jpg</v>
       </c>
       <c r="H1403" t="str">
-        <v>./small_thumbs/778/IMG_0596.jpg</v>
+        <v>./small_thumbs/778/IMG_0598.jpg</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B1404">
         <v>778</v>
       </c>
       <c r="C1404" t="str">
-        <v>阿対の石仏 千羽鶴</v>
+        <v>阿対の石仏 祭壇全体</v>
       </c>
       <c r="D1404" t="str">
-        <v>./images/778/IMG_0597.jpg</v>
+        <v>./images/778/IMG_0600.jpg</v>
       </c>
       <c r="E1404" t="str">
-        <v>2021-03-20T16:00:58</v>
+        <v>2021-03-20T16:06:01</v>
       </c>
       <c r="F1404" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1404" t="str">
-        <v>./mid_thumbs/778/IMG_0597.jpg</v>
+        <v>./mid_thumbs/778/IMG_0600.jpg</v>
       </c>
       <c r="H1404" t="str">
-        <v>./small_thumbs/778/IMG_0597.jpg</v>
+        <v>./small_thumbs/778/IMG_0600.jpg</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B1405">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C1405" t="str">
-        <v>阿対の石仏 全景</v>
+        <v>摩利支天像 表</v>
       </c>
       <c r="D1405" t="str">
-        <v>./images/778/IMG_0598.jpg</v>
+        <v>./images/779/IMG_0704.jpg</v>
       </c>
       <c r="E1405" t="str">
-        <v>2021-03-20T16:01:01</v>
+        <v>2021-03-20T17:26:18</v>
       </c>
       <c r="F1405" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1405" t="str">
-        <v>./mid_thumbs/778/IMG_0598.jpg</v>
+        <v>./mid_thumbs/779/IMG_0704.jpg</v>
       </c>
       <c r="H1405" t="str">
-        <v>./small_thumbs/778/IMG_0598.jpg</v>
+        <v>./small_thumbs/779/IMG_0704.jpg</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B1406">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C1406" t="str">
-        <v>阿対の石仏 祭壇全体</v>
+        <v>摩利支天像 裏</v>
       </c>
       <c r="D1406" t="str">
-        <v>./images/778/IMG_0600.jpg</v>
+        <v>./images/779/IMG_0705.jpg</v>
       </c>
       <c r="E1406" t="str">
-        <v>2021-03-20T16:06:01</v>
+        <v>2021-03-20T17:26:27</v>
       </c>
       <c r="F1406" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1406" t="str">
-        <v>./mid_thumbs/778/IMG_0600.jpg</v>
+        <v>./mid_thumbs/779/IMG_0705.jpg</v>
       </c>
       <c r="H1406" t="str">
-        <v>./small_thumbs/778/IMG_0600.jpg</v>
+        <v>./small_thumbs/779/IMG_0705.jpg</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B1407">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C1407" t="str">
-        <v>摩利支天像 表</v>
+        <v>柳生六地蔵磨崖仏</v>
       </c>
       <c r="D1407" t="str">
-        <v>./images/779/IMG_0704.jpg</v>
+        <v>./images/782/IMG_0678.jpg</v>
       </c>
       <c r="E1407" t="str">
-        <v>2021-03-20T17:26:18</v>
+        <v>2021-03-20T17:08:54</v>
       </c>
       <c r="F1407" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1407" t="str">
-        <v>./mid_thumbs/779/IMG_0704.jpg</v>
+        <v>./mid_thumbs/782/IMG_0678.jpg</v>
       </c>
       <c r="H1407" t="str">
-        <v>./small_thumbs/779/IMG_0704.jpg</v>
+        <v>./small_thumbs/782/IMG_0678.jpg</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B1408">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C1408" t="str">
-        <v>摩利支天像 裏</v>
+        <v>柳生六地蔵磨崖仏</v>
       </c>
       <c r="D1408" t="str">
-        <v>./images/779/IMG_0705.jpg</v>
+        <v>./images/782/IMG_0680.jpg</v>
       </c>
       <c r="E1408" t="str">
-        <v>2021-03-20T17:26:27</v>
+        <v>2021-03-20T17:09:48</v>
       </c>
       <c r="F1408" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1408" t="str">
-        <v>./mid_thumbs/779/IMG_0705.jpg</v>
+        <v>./mid_thumbs/782/IMG_0680.jpg</v>
       </c>
       <c r="H1408" t="str">
-        <v>./small_thumbs/779/IMG_0705.jpg</v>
+        <v>./small_thumbs/782/IMG_0680.jpg</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B1409">
         <v>782</v>
       </c>
       <c r="C1409" t="str">
-        <v>柳生六地蔵磨崖仏</v>
+        <v>柳生六地蔵磨崖仏 拡大</v>
       </c>
       <c r="D1409" t="str">
-        <v>./images/782/IMG_0678.jpg</v>
+        <v>./images/782/IMG_0681.jpg</v>
       </c>
       <c r="E1409" t="str">
-        <v>2021-03-20T17:08:54</v>
+        <v>2021-03-20T17:09:53</v>
       </c>
       <c r="F1409" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1409" t="str">
-        <v>./mid_thumbs/782/IMG_0678.jpg</v>
+        <v>./mid_thumbs/782/IMG_0681.jpg</v>
       </c>
       <c r="H1409" t="str">
-        <v>./small_thumbs/782/IMG_0678.jpg</v>
+        <v>./small_thumbs/782/IMG_0681.jpg</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B1410">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C1410" t="str">
-        <v>柳生六地蔵磨崖仏</v>
+        <v>疱瘡地蔵 地蔵堂</v>
       </c>
       <c r="D1410" t="str">
-        <v>./images/782/IMG_0680.jpg</v>
+        <v>./images/783/IMG_0690.jpg</v>
       </c>
       <c r="E1410" t="str">
-        <v>2021-03-20T17:09:48</v>
+        <v>2021-03-20T17:13:10</v>
       </c>
       <c r="F1410" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1410" t="str">
-        <v>./mid_thumbs/782/IMG_0680.jpg</v>
+        <v>./mid_thumbs/783/IMG_0690.jpg</v>
       </c>
       <c r="H1410" t="str">
-        <v>./small_thumbs/782/IMG_0680.jpg</v>
+        <v>./small_thumbs/783/IMG_0690.jpg</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B1411">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C1411" t="str">
-        <v>柳生六地蔵磨崖仏 拡大</v>
+        <v>疱瘡地蔵</v>
       </c>
       <c r="D1411" t="str">
-        <v>./images/782/IMG_0681.jpg</v>
+        <v>./images/783/IMG_0691.jpg</v>
       </c>
       <c r="E1411" t="str">
-        <v>2021-03-20T17:09:53</v>
+        <v>2021-03-20T17:13:17</v>
       </c>
       <c r="F1411" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1411" t="str">
-        <v>./mid_thumbs/782/IMG_0681.jpg</v>
+        <v>./mid_thumbs/783/IMG_0691.jpg</v>
       </c>
       <c r="H1411" t="str">
-        <v>./small_thumbs/782/IMG_0681.jpg</v>
+        <v>./small_thumbs/783/IMG_0691.jpg</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B1412">
         <v>783</v>
       </c>
       <c r="C1412" t="str">
-        <v>疱瘡地蔵 地蔵堂</v>
+        <v>疱瘡地蔵 右足下</v>
       </c>
       <c r="D1412" t="str">
-        <v>./images/783/IMG_0690.jpg</v>
+        <v>./images/783/IMG_0692.jpg</v>
       </c>
       <c r="E1412" t="str">
-        <v>2021-03-20T17:13:10</v>
+        <v>2021-03-20T17:13:24</v>
       </c>
       <c r="F1412" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1412" t="str">
-        <v>./mid_thumbs/783/IMG_0690.jpg</v>
+        <v>./mid_thumbs/783/IMG_0692.jpg</v>
       </c>
       <c r="H1412" t="str">
-        <v>./small_thumbs/783/IMG_0690.jpg</v>
+        <v>./small_thumbs/783/IMG_0692.jpg</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B1413">
         <v>783</v>
       </c>
       <c r="C1413" t="str">
-        <v>疱瘡地蔵</v>
+        <v>疱瘡地蔵 地蔵堂</v>
       </c>
       <c r="D1413" t="str">
-        <v>./images/783/IMG_0691.jpg</v>
+        <v>./images/783/IMG_0693.jpg</v>
       </c>
       <c r="E1413" t="str">
-        <v>2021-03-20T17:13:17</v>
+        <v>2021-03-20T17:14:30</v>
       </c>
       <c r="F1413" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1413" t="str">
-        <v>./mid_thumbs/783/IMG_0691.jpg</v>
+        <v>./mid_thumbs/783/IMG_0693.jpg</v>
       </c>
       <c r="H1413" t="str">
-        <v>./small_thumbs/783/IMG_0691.jpg</v>
+        <v>./small_thumbs/783/IMG_0693.jpg</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B1414">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C1414" t="str">
-        <v>疱瘡地蔵 右足下</v>
+        <v>地蔵磨崖仏</v>
       </c>
       <c r="D1414" t="str">
-        <v>./images/783/IMG_0692.jpg</v>
+        <v>./images/784/IMG_0687.jpg</v>
       </c>
       <c r="E1414" t="str">
-        <v>2021-03-20T17:13:24</v>
+        <v>2021-03-20T17:12:29</v>
       </c>
       <c r="F1414" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1414" t="str">
-        <v>./mid_thumbs/783/IMG_0692.jpg</v>
+        <v>./mid_thumbs/784/IMG_0687.jpg</v>
       </c>
       <c r="H1414" t="str">
-        <v>./small_thumbs/783/IMG_0692.jpg</v>
+        <v>./small_thumbs/784/IMG_0687.jpg</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B1415">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C1415" t="str">
-        <v>疱瘡地蔵 地蔵堂</v>
+        <v>地蔵磨崖仏</v>
       </c>
       <c r="D1415" t="str">
-        <v>./images/783/IMG_0693.jpg</v>
+        <v>./images/784/IMG_0695.jpg</v>
       </c>
       <c r="E1415" t="str">
-        <v>2021-03-20T17:14:30</v>
+        <v>2021-03-20T17:15:10</v>
       </c>
       <c r="F1415" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1415" t="str">
-        <v>./mid_thumbs/783/IMG_0693.jpg</v>
+        <v>./mid_thumbs/784/IMG_0695.jpg</v>
       </c>
       <c r="H1415" t="str">
-        <v>./small_thumbs/783/IMG_0693.jpg</v>
+        <v>./small_thumbs/784/IMG_0695.jpg</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B1416">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C1416" t="str">
-        <v>地蔵磨崖仏</v>
+        <v>空の石地蔵窟</v>
       </c>
       <c r="D1416" t="str">
-        <v>./images/784/IMG_0687.jpg</v>
+        <v>./images/785/IMG_0674.jpg</v>
       </c>
       <c r="E1416" t="str">
-        <v>2021-03-20T17:12:29</v>
+        <v>2021-03-20T17:02:52</v>
       </c>
       <c r="F1416" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1416" t="str">
-        <v>./mid_thumbs/784/IMG_0687.jpg</v>
+        <v>./mid_thumbs/785/IMG_0674.jpg</v>
       </c>
       <c r="H1416" t="str">
-        <v>./small_thumbs/784/IMG_0687.jpg</v>
+        <v>./small_thumbs/785/IMG_0674.jpg</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B1417">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C1417" t="str">
-        <v>地蔵磨崖仏</v>
+        <v>小祠</v>
       </c>
       <c r="D1417" t="str">
-        <v>./images/784/IMG_0695.jpg</v>
+        <v>./images/786/IMG_0676.jpg</v>
       </c>
       <c r="E1417" t="str">
-        <v>2021-03-20T17:15:10</v>
+        <v>2021-03-20T17:04:57</v>
       </c>
       <c r="F1417" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1417" t="str">
-        <v>./mid_thumbs/784/IMG_0695.jpg</v>
+        <v>./mid_thumbs/786/IMG_0676.jpg</v>
       </c>
       <c r="H1417" t="str">
-        <v>./small_thumbs/784/IMG_0695.jpg</v>
+        <v>./small_thumbs/786/IMG_0676.jpg</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B1418">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C1418" t="str">
-        <v>空の石地蔵窟</v>
+        <v>小祠</v>
       </c>
       <c r="D1418" t="str">
-        <v>./images/785/IMG_0674.jpg</v>
+        <v>./images/786/IMG_0677.jpg</v>
       </c>
       <c r="E1418" t="str">
-        <v>2021-03-20T17:02:52</v>
+        <v>2021-03-20T17:05:44</v>
       </c>
       <c r="F1418" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1418" t="str">
-        <v>./mid_thumbs/785/IMG_0674.jpg</v>
+        <v>./mid_thumbs/786/IMG_0677.jpg</v>
       </c>
       <c r="H1418" t="str">
-        <v>./small_thumbs/785/IMG_0674.jpg</v>
+        <v>./small_thumbs/786/IMG_0677.jpg</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B1419">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C1419" t="str">
-        <v>小祠</v>
+        <v>北出磨崖仏</v>
       </c>
       <c r="D1419" t="str">
-        <v>./images/786/IMG_0676.jpg</v>
+        <v>./images/787/IMG_0559.jpg</v>
       </c>
       <c r="E1419" t="str">
-        <v>2021-03-20T17:04:57</v>
+        <v>2021-03-20T15:15:17</v>
       </c>
       <c r="F1419" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1419" t="str">
-        <v>./mid_thumbs/786/IMG_0676.jpg</v>
+        <v>./mid_thumbs/787/IMG_0559.jpg</v>
       </c>
       <c r="H1419" t="str">
-        <v>./small_thumbs/786/IMG_0676.jpg</v>
+        <v>./small_thumbs/787/IMG_0559.jpg</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B1420">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C1420" t="str">
-        <v>小祠</v>
+        <v>地蔵群</v>
       </c>
       <c r="D1420" t="str">
-        <v>./images/786/IMG_0677.jpg</v>
+        <v>./images/788/IMG_0593.jpg</v>
       </c>
       <c r="E1420" t="str">
-        <v>2021-03-20T17:05:44</v>
+        <v>2021-03-20T15:50:31</v>
       </c>
       <c r="F1420" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1420" t="str">
-        <v>./mid_thumbs/786/IMG_0677.jpg</v>
+        <v>./mid_thumbs/788/IMG_0593.jpg</v>
       </c>
       <c r="H1420" t="str">
-        <v>./small_thumbs/786/IMG_0677.jpg</v>
+        <v>./small_thumbs/788/IMG_0593.jpg</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B1421">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C1421" t="str">
-        <v>北出磨崖仏</v>
+        <v>足痛地蔵 地蔵堂</v>
       </c>
       <c r="D1421" t="str">
-        <v>./images/787/IMG_0559.jpg</v>
+        <v>./images/789/IMG_0563.jpg</v>
       </c>
       <c r="E1421" t="str">
-        <v>2021-03-20T15:15:17</v>
+        <v>2021-03-20T15:21:54</v>
       </c>
       <c r="F1421" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1421" t="str">
-        <v>./mid_thumbs/787/IMG_0559.jpg</v>
+        <v>./mid_thumbs/789/IMG_0563.jpg</v>
       </c>
       <c r="H1421" t="str">
-        <v>./small_thumbs/787/IMG_0559.jpg</v>
+        <v>./small_thumbs/789/IMG_0563.jpg</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B1422">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C1422" t="str">
-        <v>地蔵群</v>
+        <v>足痛地蔵 足元の石仏群</v>
       </c>
       <c r="D1422" t="str">
-        <v>./images/788/IMG_0593.jpg</v>
+        <v>./images/789/IMG_0564.jpg</v>
       </c>
       <c r="E1422" t="str">
-        <v>2021-03-20T15:50:31</v>
+        <v>2021-03-20T15:22:05</v>
       </c>
       <c r="F1422" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1422" t="str">
-        <v>./mid_thumbs/788/IMG_0593.jpg</v>
+        <v>./mid_thumbs/789/IMG_0564.jpg</v>
       </c>
       <c r="H1422" t="str">
-        <v>./small_thumbs/788/IMG_0593.jpg</v>
+        <v>./small_thumbs/789/IMG_0564.jpg</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B1423">
         <v>789</v>
       </c>
       <c r="C1423" t="str">
-        <v>足痛地蔵 地蔵堂</v>
+        <v>足痛地蔵 本尊</v>
       </c>
       <c r="D1423" t="str">
-        <v>./images/789/IMG_0563.jpg</v>
+        <v>./images/789/IMG_0565.jpg</v>
       </c>
       <c r="E1423" t="str">
-        <v>2021-03-20T15:21:54</v>
+        <v>2021-03-20T15:22:12</v>
       </c>
       <c r="F1423" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1423" t="str">
-        <v>./mid_thumbs/789/IMG_0563.jpg</v>
+        <v>./mid_thumbs/789/IMG_0565.jpg</v>
       </c>
       <c r="H1423" t="str">
-        <v>./small_thumbs/789/IMG_0563.jpg</v>
+        <v>./small_thumbs/789/IMG_0565.jpg</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B1424">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C1424" t="str">
-        <v>足痛地蔵 足元の石仏群</v>
+        <v>十九夜講石碑</v>
       </c>
       <c r="D1424" t="str">
-        <v>./images/789/IMG_0564.jpg</v>
+        <v>./images/790/IMG_0590.jpg</v>
       </c>
       <c r="E1424" t="str">
-        <v>2021-03-20T15:22:05</v>
+        <v>2021-03-20T15:36:24</v>
       </c>
       <c r="F1424" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1424" t="str">
-        <v>./mid_thumbs/789/IMG_0564.jpg</v>
+        <v>./mid_thumbs/790/IMG_0590.jpg</v>
       </c>
       <c r="H1424" t="str">
-        <v>./small_thumbs/789/IMG_0564.jpg</v>
+        <v>./small_thumbs/790/IMG_0590.jpg</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B1425">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C1425" t="str">
-        <v>足痛地蔵 本尊</v>
+        <v>藤井の森地蔵尊 石仏群 森</v>
       </c>
       <c r="D1425" t="str">
-        <v>./images/789/IMG_0565.jpg</v>
+        <v>./images/791/IMG_0472.jpg</v>
       </c>
       <c r="E1425" t="str">
-        <v>2021-03-20T15:22:12</v>
+        <v>2021-03-20T13:42:59</v>
       </c>
       <c r="F1425" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1425" t="str">
-        <v>./mid_thumbs/789/IMG_0565.jpg</v>
+        <v>./mid_thumbs/791/IMG_0472.jpg</v>
       </c>
       <c r="H1425" t="str">
-        <v>./small_thumbs/789/IMG_0565.jpg</v>
+        <v>./small_thumbs/791/IMG_0472.jpg</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B1426">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C1426" t="str">
-        <v>十九夜講石碑</v>
+        <v>藤井の森地蔵尊 石仏群 道切り</v>
       </c>
       <c r="D1426" t="str">
-        <v>./images/790/IMG_0590.jpg</v>
+        <v>./images/791/IMG_0473.jpg</v>
       </c>
       <c r="E1426" t="str">
-        <v>2021-03-20T15:36:24</v>
+        <v>2021-03-20T13:43:18</v>
       </c>
       <c r="F1426" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1426" t="str">
-        <v>./mid_thumbs/790/IMG_0590.jpg</v>
+        <v>./mid_thumbs/791/IMG_0473.jpg</v>
       </c>
       <c r="H1426" t="str">
-        <v>./small_thumbs/790/IMG_0590.jpg</v>
+        <v>./small_thumbs/791/IMG_0473.jpg</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B1427">
         <v>791</v>
       </c>
       <c r="C1427" t="str">
-        <v>藤井の森地蔵尊 石仏群 森</v>
+        <v>藤井の森地蔵尊 石仏群 全体</v>
       </c>
       <c r="D1427" t="str">
-        <v>./images/791/IMG_0472.jpg</v>
+        <v>./images/791/IMG_0474.jpg</v>
       </c>
       <c r="E1427" t="str">
-        <v>2021-03-20T13:42:59</v>
+        <v>2021-03-20T13:43:40</v>
       </c>
       <c r="F1427" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1427" t="str">
-        <v>./mid_thumbs/791/IMG_0472.jpg</v>
+        <v>./mid_thumbs/791/IMG_0474.jpg</v>
       </c>
       <c r="H1427" t="str">
-        <v>./small_thumbs/791/IMG_0472.jpg</v>
+        <v>./small_thumbs/791/IMG_0474.jpg</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B1428">
         <v>791</v>
       </c>
       <c r="C1428" t="str">
-        <v>藤井の森地蔵尊 石仏群 道切り</v>
+        <v>藤井の森地蔵尊 石仏群 天照皇大神</v>
       </c>
       <c r="D1428" t="str">
-        <v>./images/791/IMG_0473.jpg</v>
+        <v>./images/791/IMG_0475.jpg</v>
       </c>
       <c r="E1428" t="str">
-        <v>2021-03-20T13:43:18</v>
+        <v>2021-03-20T13:44:01</v>
       </c>
       <c r="F1428" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1428" t="str">
-        <v>./mid_thumbs/791/IMG_0473.jpg</v>
+        <v>./mid_thumbs/791/IMG_0475.jpg</v>
       </c>
       <c r="H1428" t="str">
-        <v>./small_thumbs/791/IMG_0473.jpg</v>
+        <v>./small_thumbs/791/IMG_0475.jpg</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B1429">
         <v>791</v>
       </c>
       <c r="C1429" t="str">
-        <v>藤井の森地蔵尊 石仏群 全体</v>
+        <v>藤井の森地蔵尊 石仏群 薬師の種子（バイ）か？</v>
       </c>
       <c r="D1429" t="str">
-        <v>./images/791/IMG_0474.jpg</v>
+        <v>./images/791/IMG_0476.jpg</v>
       </c>
       <c r="E1429" t="str">
-        <v>2021-03-20T13:43:40</v>
+        <v>2021-03-20T13:44:12</v>
       </c>
       <c r="F1429" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1429" t="str">
-        <v>./mid_thumbs/791/IMG_0474.jpg</v>
+        <v>./mid_thumbs/791/IMG_0476.jpg</v>
       </c>
       <c r="H1429" t="str">
-        <v>./small_thumbs/791/IMG_0474.jpg</v>
+        <v>./small_thumbs/791/IMG_0476.jpg</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B1430">
         <v>791</v>
       </c>
       <c r="C1430" t="str">
-        <v>藤井の森地蔵尊 石仏群 天照皇大神</v>
+        <v>藤井の森地蔵尊 石仏群 六十六部回国供養か</v>
       </c>
       <c r="D1430" t="str">
-        <v>./images/791/IMG_0475.jpg</v>
+        <v>./images/791/IMG_0477.jpg</v>
       </c>
       <c r="E1430" t="str">
-        <v>2021-03-20T13:44:01</v>
+        <v>2021-03-20T13:44:21</v>
       </c>
       <c r="F1430" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1430" t="str">
-        <v>./mid_thumbs/791/IMG_0475.jpg</v>
+        <v>./mid_thumbs/791/IMG_0477.jpg</v>
       </c>
       <c r="H1430" t="str">
-        <v>./small_thumbs/791/IMG_0475.jpg</v>
+        <v>./small_thumbs/791/IMG_0477.jpg</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B1431">
         <v>791</v>
       </c>
       <c r="C1431" t="str">
-        <v>藤井の森地蔵尊 石仏群 薬師の種子（バイ）か？</v>
+        <v>藤井の森地蔵尊 石仏群 六十六部少し引いた絵</v>
       </c>
       <c r="D1431" t="str">
-        <v>./images/791/IMG_0476.jpg</v>
+        <v>./images/791/IMG_0478.jpg</v>
       </c>
       <c r="E1431" t="str">
-        <v>2021-03-20T13:44:12</v>
+        <v>2021-03-20T13:44:29</v>
       </c>
       <c r="F1431" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1431" t="str">
-        <v>./mid_thumbs/791/IMG_0476.jpg</v>
+        <v>./mid_thumbs/791/IMG_0478.jpg</v>
       </c>
       <c r="H1431" t="str">
-        <v>./small_thumbs/791/IMG_0476.jpg</v>
+        <v>./small_thumbs/791/IMG_0478.jpg</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B1432">
         <v>791</v>
       </c>
       <c r="C1432" t="str">
-        <v>藤井の森地蔵尊 石仏群 六十六部回国供養か</v>
+        <v>藤井の森地蔵尊 石仏群 台のような石</v>
       </c>
       <c r="D1432" t="str">
-        <v>./images/791/IMG_0477.jpg</v>
+        <v>./images/791/IMG_0479.jpg</v>
       </c>
       <c r="E1432" t="str">
-        <v>2021-03-20T13:44:21</v>
+        <v>2021-03-20T13:44:34</v>
       </c>
       <c r="F1432" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1432" t="str">
-        <v>./mid_thumbs/791/IMG_0477.jpg</v>
+        <v>./mid_thumbs/791/IMG_0479.jpg</v>
       </c>
       <c r="H1432" t="str">
-        <v>./small_thumbs/791/IMG_0477.jpg</v>
+        <v>./small_thumbs/791/IMG_0479.jpg</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B1433">
         <v>791</v>
       </c>
       <c r="C1433" t="str">
-        <v>藤井の森地蔵尊 石仏群 六十六部少し引いた絵</v>
+        <v>藤井の森地蔵尊 石仏群 全体</v>
       </c>
       <c r="D1433" t="str">
-        <v>./images/791/IMG_0478.jpg</v>
+        <v>./images/791/IMG_0480.jpg</v>
       </c>
       <c r="E1433" t="str">
-        <v>2021-03-20T13:44:29</v>
+        <v>2021-03-20T13:44:44</v>
       </c>
       <c r="F1433" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1433" t="str">
-        <v>./mid_thumbs/791/IMG_0478.jpg</v>
+        <v>./mid_thumbs/791/IMG_0480.jpg</v>
       </c>
       <c r="H1433" t="str">
-        <v>./small_thumbs/791/IMG_0478.jpg</v>
+        <v>./small_thumbs/791/IMG_0480.jpg</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B1434">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C1434" t="str">
-        <v>藤井の森地蔵尊 石仏群 台のような石</v>
+        <v>元亀の地蔵石仏 近くの新地蔵</v>
       </c>
       <c r="D1434" t="str">
-        <v>./images/791/IMG_0479.jpg</v>
+        <v>./images/792/IMG_0468.jpg</v>
       </c>
       <c r="E1434" t="str">
-        <v>2021-03-20T13:44:34</v>
+        <v>2021-03-20T13:37:28</v>
       </c>
       <c r="F1434" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1434" t="str">
-        <v>./mid_thumbs/791/IMG_0479.jpg</v>
+        <v>./mid_thumbs/792/IMG_0468.jpg</v>
       </c>
       <c r="H1434" t="str">
-        <v>./small_thumbs/791/IMG_0479.jpg</v>
+        <v>./small_thumbs/792/IMG_0468.jpg</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B1435">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C1435" t="str">
-        <v>藤井の森地蔵尊 石仏群 全体</v>
+        <v>元亀の地蔵石仏 石灯籠</v>
       </c>
       <c r="D1435" t="str">
-        <v>./images/791/IMG_0480.jpg</v>
+        <v>./images/792/IMG_0469.jpg</v>
       </c>
       <c r="E1435" t="str">
-        <v>2021-03-20T13:44:44</v>
+        <v>2021-03-20T13:37:36</v>
       </c>
       <c r="F1435" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1435" t="str">
-        <v>./mid_thumbs/791/IMG_0480.jpg</v>
+        <v>./mid_thumbs/792/IMG_0469.jpg</v>
       </c>
       <c r="H1435" t="str">
-        <v>./small_thumbs/791/IMG_0480.jpg</v>
+        <v>./small_thumbs/792/IMG_0469.jpg</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B1436">
         <v>792</v>
       </c>
       <c r="C1436" t="str">
-        <v>元亀の地蔵石仏 近くの新地蔵</v>
+        <v>元亀の地蔵石仏 裏</v>
       </c>
       <c r="D1436" t="str">
-        <v>./images/792/IMG_0468.jpg</v>
+        <v>./images/792/IMG_0470.jpg</v>
       </c>
       <c r="E1436" t="str">
-        <v>2021-03-20T13:37:28</v>
+        <v>2021-03-20T13:37:45</v>
       </c>
       <c r="F1436" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1436" t="str">
-        <v>./mid_thumbs/792/IMG_0468.jpg</v>
+        <v>./mid_thumbs/792/IMG_0470.jpg</v>
       </c>
       <c r="H1436" t="str">
-        <v>./small_thumbs/792/IMG_0468.jpg</v>
+        <v>./small_thumbs/792/IMG_0470.jpg</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B1437">
         <v>792</v>
       </c>
       <c r="C1437" t="str">
-        <v>元亀の地蔵石仏 石灯籠</v>
+        <v>元亀の地蔵石仏 表</v>
       </c>
       <c r="D1437" t="str">
-        <v>./images/792/IMG_0469.jpg</v>
+        <v>./images/792/IMG_0471.jpg</v>
       </c>
       <c r="E1437" t="str">
-        <v>2021-03-20T13:37:36</v>
+        <v>2021-03-20T13:38:01</v>
       </c>
       <c r="F1437" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1437" t="str">
-        <v>./mid_thumbs/792/IMG_0469.jpg</v>
+        <v>./mid_thumbs/792/IMG_0471.jpg</v>
       </c>
       <c r="H1437" t="str">
-        <v>./small_thumbs/792/IMG_0469.jpg</v>
+        <v>./small_thumbs/792/IMG_0471.jpg</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B1438">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C1438" t="str">
-        <v>元亀の地蔵石仏 裏</v>
+        <v>多聞神社の弘法大師堂</v>
       </c>
       <c r="D1438" t="str">
-        <v>./images/792/IMG_0470.jpg</v>
+        <v>./images/793/IMG_0530.jpg</v>
       </c>
       <c r="E1438" t="str">
-        <v>2021-03-20T13:37:45</v>
+        <v>2021-03-20T14:35:47</v>
       </c>
       <c r="F1438" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1438" t="str">
-        <v>./mid_thumbs/792/IMG_0470.jpg</v>
+        <v>./mid_thumbs/793/IMG_0530.jpg</v>
       </c>
       <c r="H1438" t="str">
-        <v>./small_thumbs/792/IMG_0470.jpg</v>
+        <v>./small_thumbs/793/IMG_0530.jpg</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B1439">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C1439" t="str">
-        <v>元亀の地蔵石仏 表</v>
+        <v>多聞神社の弘法大師堂 大師木像</v>
       </c>
       <c r="D1439" t="str">
-        <v>./images/792/IMG_0471.jpg</v>
+        <v>./images/793/IMG_0532.jpg</v>
       </c>
       <c r="E1439" t="str">
-        <v>2021-03-20T13:38:01</v>
+        <v>2021-03-20T14:36:06</v>
       </c>
       <c r="F1439" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1439" t="str">
-        <v>./mid_thumbs/792/IMG_0471.jpg</v>
+        <v>./mid_thumbs/793/IMG_0532.jpg</v>
       </c>
       <c r="H1439" t="str">
-        <v>./small_thumbs/792/IMG_0471.jpg</v>
+        <v>./small_thumbs/793/IMG_0532.jpg</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B1440">
         <v>793</v>
       </c>
       <c r="C1440" t="str">
-        <v>多聞神社の弘法大師堂</v>
+        <v>多聞神社の弘法大師堂 大師木像</v>
       </c>
       <c r="D1440" t="str">
-        <v>./images/793/IMG_0530.jpg</v>
+        <v>./images/793/IMG_0533.jpg</v>
       </c>
       <c r="E1440" t="str">
-        <v>2021-03-20T14:35:47</v>
+        <v>2021-03-20T14:36:23</v>
       </c>
       <c r="F1440" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1440" t="str">
-        <v>./mid_thumbs/793/IMG_0530.jpg</v>
+        <v>./mid_thumbs/793/IMG_0533.jpg</v>
       </c>
       <c r="H1440" t="str">
-        <v>./small_thumbs/793/IMG_0530.jpg</v>
+        <v>./small_thumbs/793/IMG_0533.jpg</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B1441">
         <v>793</v>
       </c>
       <c r="C1441" t="str">
-        <v>多聞神社の弘法大師堂 大師木像</v>
+        <v>多聞神社の弘法大師堂　如意輪観音像</v>
       </c>
       <c r="D1441" t="str">
-        <v>./images/793/IMG_0532.jpg</v>
+        <v>./images/793/IMG_0534.jpg</v>
       </c>
       <c r="E1441" t="str">
-        <v>2021-03-20T14:36:06</v>
+        <v>2021-03-20T14:36:30</v>
       </c>
       <c r="F1441" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1441" t="str">
-        <v>./mid_thumbs/793/IMG_0532.jpg</v>
+        <v>./mid_thumbs/793/IMG_0534.jpg</v>
       </c>
       <c r="H1441" t="str">
-        <v>./small_thumbs/793/IMG_0532.jpg</v>
+        <v>./small_thumbs/793/IMG_0534.jpg</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B1442">
         <v>793</v>
       </c>
       <c r="C1442" t="str">
-        <v>多聞神社の弘法大師堂 大師木像</v>
+        <v>多聞神社の弘法大師堂 不動明王木像</v>
       </c>
       <c r="D1442" t="str">
-        <v>./images/793/IMG_0533.jpg</v>
+        <v>./images/793/IMG_0535.jpg</v>
       </c>
       <c r="E1442" t="str">
-        <v>2021-03-20T14:36:23</v>
+        <v>2021-03-20T14:36:41</v>
       </c>
       <c r="F1442" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1442" t="str">
-        <v>./mid_thumbs/793/IMG_0533.jpg</v>
+        <v>./mid_thumbs/793/IMG_0535.jpg</v>
       </c>
       <c r="H1442" t="str">
-        <v>./small_thumbs/793/IMG_0533.jpg</v>
+        <v>./small_thumbs/793/IMG_0535.jpg</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B1443">
         <v>793</v>
       </c>
       <c r="C1443" t="str">
-        <v>多聞神社の弘法大師堂　如意輪観音像</v>
+        <v>多聞神社の弘法大師堂</v>
       </c>
       <c r="D1443" t="str">
-        <v>./images/793/IMG_0534.jpg</v>
+        <v>./images/793/IMG_0538.jpg</v>
       </c>
       <c r="E1443" t="str">
-        <v>2021-03-20T14:36:30</v>
+        <v>2021-03-20T14:37:16</v>
       </c>
       <c r="F1443" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1443" t="str">
-        <v>./mid_thumbs/793/IMG_0534.jpg</v>
+        <v>./mid_thumbs/793/IMG_0538.jpg</v>
       </c>
       <c r="H1443" t="str">
-        <v>./small_thumbs/793/IMG_0534.jpg</v>
+        <v>./small_thumbs/793/IMG_0538.jpg</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B1444">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C1444" t="str">
-        <v>多聞神社の弘法大師堂 不動明王木像</v>
+        <v>多聞神社地蔵尊</v>
       </c>
       <c r="D1444" t="str">
-        <v>./images/793/IMG_0535.jpg</v>
+        <v>./images/794/IMG_0531.jpg</v>
       </c>
       <c r="E1444" t="str">
-        <v>2021-03-20T14:36:41</v>
+        <v>2021-03-20T14:35:55</v>
       </c>
       <c r="F1444" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1444" t="str">
-        <v>./mid_thumbs/793/IMG_0535.jpg</v>
+        <v>./mid_thumbs/794/IMG_0531.jpg</v>
       </c>
       <c r="H1444" t="str">
-        <v>./small_thumbs/793/IMG_0535.jpg</v>
+        <v>./small_thumbs/794/IMG_0531.jpg</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B1445">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C1445" t="str">
-        <v>多聞神社の弘法大師堂</v>
+        <v>多聞神社地蔵群</v>
       </c>
       <c r="D1445" t="str">
-        <v>./images/793/IMG_0538.jpg</v>
+        <v>./images/795/IMG_0536.jpg</v>
       </c>
       <c r="E1445" t="str">
-        <v>2021-03-20T14:37:16</v>
+        <v>2021-03-20T14:36:48</v>
       </c>
       <c r="F1445" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1445" t="str">
-        <v>./mid_thumbs/793/IMG_0538.jpg</v>
+        <v>./mid_thumbs/795/IMG_0536.jpg</v>
       </c>
       <c r="H1445" t="str">
-        <v>./small_thumbs/793/IMG_0538.jpg</v>
+        <v>./small_thumbs/795/IMG_0536.jpg</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B1446">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C1446" t="str">
-        <v>多聞神社地蔵尊</v>
+        <v>阿弥陀種子と六字名号</v>
       </c>
       <c r="D1446" t="str">
-        <v>./images/794/IMG_0531.jpg</v>
+        <v>./images/796/IMG_0548.jpg</v>
       </c>
       <c r="E1446" t="str">
-        <v>2021-03-20T14:35:55</v>
+        <v>2021-03-20T14:50:05</v>
       </c>
       <c r="F1446" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1446" t="str">
-        <v>./mid_thumbs/794/IMG_0531.jpg</v>
+        <v>./mid_thumbs/796/IMG_0548.jpg</v>
       </c>
       <c r="H1446" t="str">
-        <v>./small_thumbs/794/IMG_0531.jpg</v>
+        <v>./small_thumbs/796/IMG_0548.jpg</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B1447">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C1447" t="str">
-        <v>多聞神社地蔵群</v>
+        <v>阿弥陀種子と六字名号</v>
       </c>
       <c r="D1447" t="str">
-        <v>./images/795/IMG_0536.jpg</v>
+        <v>./images/796/IMG_0550.jpg</v>
       </c>
       <c r="E1447" t="str">
-        <v>2021-03-20T14:36:48</v>
+        <v>2021-03-20T14:50:36</v>
       </c>
       <c r="F1447" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1447" t="str">
-        <v>./mid_thumbs/795/IMG_0536.jpg</v>
+        <v>./mid_thumbs/796/IMG_0550.jpg</v>
       </c>
       <c r="H1447" t="str">
-        <v>./small_thumbs/795/IMG_0536.jpg</v>
+        <v>./small_thumbs/796/IMG_0550.jpg</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B1448">
-        <v>796</v>
+        <v>178</v>
       </c>
       <c r="C1448" t="str">
-        <v>阿弥陀種子と六字名号</v>
+        <v>朝日妙見大菩薩 七面大天女 鬼子母大善神 内部</v>
       </c>
       <c r="D1448" t="str">
-        <v>./images/796/IMG_0548.jpg</v>
+        <v>./images/178/IMG_8368.jpg</v>
       </c>
       <c r="E1448" t="str">
-        <v>2021-03-20T14:50:05</v>
+        <v>2022-06-15T06:54:57</v>
       </c>
       <c r="F1448" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1448" t="str">
-        <v>./mid_thumbs/796/IMG_0548.jpg</v>
+        <v>./mid_thumbs/178/IMG_8368.jpg</v>
       </c>
       <c r="H1448" t="str">
-        <v>./small_thumbs/796/IMG_0548.jpg</v>
+        <v>./small_thumbs/178/IMG_8368.jpg</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B1449">
-        <v>796</v>
+        <v>178</v>
       </c>
       <c r="C1449" t="str">
-        <v>阿弥陀種子と六字名号</v>
+        <v>朝日妙見大菩薩 七面大天女 鬼子母大善神 扁額</v>
       </c>
       <c r="D1449" t="str">
-        <v>./images/796/IMG_0550.jpg</v>
+        <v>./images/178/IMG_8369.jpg</v>
       </c>
       <c r="E1449" t="str">
-        <v>2021-03-20T14:50:36</v>
+        <v>2022-06-15T06:55:26</v>
       </c>
       <c r="F1449" t="str">
         <v>Kohei Otsuka</v>
       </c>
       <c r="G1449" t="str">
-        <v>./mid_thumbs/796/IMG_0550.jpg</v>
+        <v>./mid_thumbs/178/IMG_8369.jpg</v>
       </c>
       <c r="H1449" t="str">
-        <v>./small_thumbs/796/IMG_0550.jpg</v>
+        <v>./small_thumbs/178/IMG_8369.jpg</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450">
+        <v>1456</v>
+      </c>
+      <c r="B1450">
+        <v>178</v>
+      </c>
+      <c r="C1450" t="str">
+        <v>朝日妙見大菩薩 七面大天女 鬼子母大善神</v>
+      </c>
+      <c r="D1450" t="str">
+        <v>./images/178/IMG_8370.jpg</v>
+      </c>
+      <c r="E1450" t="str">
+        <v>2022-06-15T06:55:37</v>
+      </c>
+      <c r="F1450" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1450" t="str">
+        <v>./mid_thumbs/178/IMG_8370.jpg</v>
+      </c>
+      <c r="H1450" t="str">
+        <v>./small_thumbs/178/IMG_8370.jpg</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451">
+        <v>1457</v>
+      </c>
+      <c r="B1451">
+        <v>742</v>
+      </c>
+      <c r="C1451" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1451" t="str">
+        <v>./images/742/IMG_8365.jpg</v>
+      </c>
+      <c r="E1451" t="str">
+        <v>2022-06-15T06:52:54</v>
+      </c>
+      <c r="F1451" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1451" t="str">
+        <v>./mid_thumbs/742/IMG_8365.jpg</v>
+      </c>
+      <c r="H1451" t="str">
+        <v>./small_thumbs/742/IMG_8365.jpg</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452">
+        <v>1458</v>
+      </c>
+      <c r="B1452">
+        <v>742</v>
+      </c>
+      <c r="C1452" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1452" t="str">
+        <v>./images/742/IMG_8366.jpg</v>
+      </c>
+      <c r="E1452" t="str">
+        <v>2022-06-15T06:53:02</v>
+      </c>
+      <c r="F1452" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1452" t="str">
+        <v>./mid_thumbs/742/IMG_8366.jpg</v>
+      </c>
+      <c r="H1452" t="str">
+        <v>./small_thumbs/742/IMG_8366.jpg</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453">
+        <v>1459</v>
+      </c>
+      <c r="B1453">
+        <v>804</v>
+      </c>
+      <c r="C1453" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1453" t="str">
+        <v>./images/804/IMG_8371.jpg</v>
+      </c>
+      <c r="E1453" t="str">
+        <v>2022-06-15T06:57:16</v>
+      </c>
+      <c r="F1453" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1453" t="str">
+        <v>./mid_thumbs/804/IMG_8371.jpg</v>
+      </c>
+      <c r="H1453" t="str">
+        <v>./small_thumbs/804/IMG_8371.jpg</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454">
+        <v>1460</v>
+      </c>
+      <c r="B1454">
+        <v>804</v>
+      </c>
+      <c r="C1454" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1454" t="str">
+        <v>./images/804/IMG_8372.jpg</v>
+      </c>
+      <c r="E1454" t="str">
+        <v>2022-06-15T06:57:30</v>
+      </c>
+      <c r="F1454" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1454" t="str">
+        <v>./mid_thumbs/804/IMG_8372.jpg</v>
+      </c>
+      <c r="H1454" t="str">
+        <v>./small_thumbs/804/IMG_8372.jpg</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455">
+        <v>1461</v>
+      </c>
+      <c r="B1455">
+        <v>804</v>
+      </c>
+      <c r="C1455" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1455" t="str">
+        <v>./images/804/IMG_8373.jpg</v>
+      </c>
+      <c r="E1455" t="str">
+        <v>2022-06-15T06:57:43</v>
+      </c>
+      <c r="F1455" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1455" t="str">
+        <v>./mid_thumbs/804/IMG_8373.jpg</v>
+      </c>
+      <c r="H1455" t="str">
+        <v>./small_thumbs/804/IMG_8373.jpg</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456">
+        <v>1462</v>
+      </c>
+      <c r="B1456">
+        <v>804</v>
+      </c>
+      <c r="C1456" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1456" t="str">
+        <v>./images/804/IMG_8374.jpg</v>
+      </c>
+      <c r="E1456" t="str">
+        <v>2022-06-15T06:57:56</v>
+      </c>
+      <c r="F1456" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1456" t="str">
+        <v>./mid_thumbs/804/IMG_8374.jpg</v>
+      </c>
+      <c r="H1456" t="str">
+        <v>./small_thumbs/804/IMG_8374.jpg</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457">
+        <v>1463</v>
+      </c>
+      <c r="B1457">
+        <v>124</v>
+      </c>
+      <c r="C1457" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1457" t="str">
+        <v>./images/124/IMG_8376.jpg</v>
+      </c>
+      <c r="E1457" t="str">
+        <v>2022-06-15T07:04:38</v>
+      </c>
+      <c r="F1457" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1457" t="str">
+        <v>./mid_thumbs/124/IMG_8376.jpg</v>
+      </c>
+      <c r="H1457" t="str">
+        <v>./small_thumbs/124/IMG_8376.jpg</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458">
+        <v>1464</v>
+      </c>
+      <c r="B1458">
+        <v>124</v>
+      </c>
+      <c r="C1458" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1458" t="str">
+        <v>./images/124/IMG_8377.jpg</v>
+      </c>
+      <c r="E1458" t="str">
+        <v>2022-06-15T07:04:50</v>
+      </c>
+      <c r="F1458" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1458" t="str">
+        <v>./mid_thumbs/124/IMG_8377.jpg</v>
+      </c>
+      <c r="H1458" t="str">
+        <v>./small_thumbs/124/IMG_8377.jpg</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459">
+        <v>1465</v>
+      </c>
+      <c r="B1459">
+        <v>752</v>
+      </c>
+      <c r="C1459" t="str">
+        <v>浮彫五輪塔、六字名号等</v>
+      </c>
+      <c r="D1459" t="str">
+        <v>./images/752/IMG_8378.jpg</v>
+      </c>
+      <c r="E1459" t="str">
+        <v>2022-06-15T07:09:25</v>
+      </c>
+      <c r="F1459" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1459" t="str">
+        <v>./mid_thumbs/752/IMG_8378.jpg</v>
+      </c>
+      <c r="H1459" t="str">
+        <v>./small_thumbs/752/IMG_8378.jpg</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460">
+        <v>1466</v>
+      </c>
+      <c r="B1460">
+        <v>752</v>
+      </c>
+      <c r="C1460" t="str">
+        <v>浮彫五輪塔、六字名号等</v>
+      </c>
+      <c r="D1460" t="str">
+        <v>./images/752/IMG_8379.jpg</v>
+      </c>
+      <c r="E1460" t="str">
+        <v>2022-06-15T07:09:35</v>
+      </c>
+      <c r="F1460" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1460" t="str">
+        <v>./mid_thumbs/752/IMG_8379.jpg</v>
+      </c>
+      <c r="H1460" t="str">
+        <v>./small_thumbs/752/IMG_8379.jpg</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461">
+        <v>1467</v>
+      </c>
+      <c r="B1461">
+        <v>752</v>
+      </c>
+      <c r="C1461" t="str">
+        <v>浮彫五輪塔、六字名号等</v>
+      </c>
+      <c r="D1461" t="str">
+        <v>./images/752/IMG_8380.jpg</v>
+      </c>
+      <c r="E1461" t="str">
+        <v>2022-06-15T07:09:42</v>
+      </c>
+      <c r="F1461" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1461" t="str">
+        <v>./mid_thumbs/752/IMG_8380.jpg</v>
+      </c>
+      <c r="H1461" t="str">
+        <v>./small_thumbs/752/IMG_8380.jpg</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462">
+        <v>1468</v>
+      </c>
+      <c r="B1462">
+        <v>749</v>
+      </c>
+      <c r="C1462" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1462" t="str">
+        <v>./images/749/IMG_8382.jpg</v>
+      </c>
+      <c r="E1462" t="str">
+        <v>2022-06-15T07:19:55</v>
+      </c>
+      <c r="F1462" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1462" t="str">
+        <v>./mid_thumbs/749/IMG_8382.jpg</v>
+      </c>
+      <c r="H1462" t="str">
+        <v>./small_thumbs/749/IMG_8382.jpg</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463">
+        <v>1469</v>
+      </c>
+      <c r="B1463">
+        <v>749</v>
+      </c>
+      <c r="C1463" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1463" t="str">
+        <v>./images/749/IMG_8383.jpg</v>
+      </c>
+      <c r="E1463" t="str">
+        <v>2022-06-15T07:20:04</v>
+      </c>
+      <c r="F1463" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1463" t="str">
+        <v>./mid_thumbs/749/IMG_8383.jpg</v>
+      </c>
+      <c r="H1463" t="str">
+        <v>./small_thumbs/749/IMG_8383.jpg</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464">
+        <v>1470</v>
+      </c>
+      <c r="B1464">
+        <v>749</v>
+      </c>
+      <c r="C1464" t="str">
+        <v>地蔵尊 内部左</v>
+      </c>
+      <c r="D1464" t="str">
+        <v>./images/749/IMG_8384.jpg</v>
+      </c>
+      <c r="E1464" t="str">
+        <v>2022-06-15T07:20:13</v>
+      </c>
+      <c r="F1464" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1464" t="str">
+        <v>./mid_thumbs/749/IMG_8384.jpg</v>
+      </c>
+      <c r="H1464" t="str">
+        <v>./small_thumbs/749/IMG_8384.jpg</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465">
+        <v>1471</v>
+      </c>
+      <c r="B1465">
+        <v>749</v>
+      </c>
+      <c r="C1465" t="str">
+        <v>地蔵尊 内部右</v>
+      </c>
+      <c r="D1465" t="str">
+        <v>./images/749/IMG_8385.jpg</v>
+      </c>
+      <c r="E1465" t="str">
+        <v>2022-06-15T07:20:16</v>
+      </c>
+      <c r="F1465" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1465" t="str">
+        <v>./mid_thumbs/749/IMG_8385.jpg</v>
+      </c>
+      <c r="H1465" t="str">
+        <v>./small_thumbs/749/IMG_8385.jpg</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466">
+        <v>1472</v>
+      </c>
+      <c r="B1466">
+        <v>749</v>
+      </c>
+      <c r="C1466" t="str">
+        <v>地蔵尊 地蔵堂裏側</v>
+      </c>
+      <c r="D1466" t="str">
+        <v>./images/749/IMG_8386.jpg</v>
+      </c>
+      <c r="E1466" t="str">
+        <v>2022-06-15T07:20:29</v>
+      </c>
+      <c r="F1466" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1466" t="str">
+        <v>./mid_thumbs/749/IMG_8386.jpg</v>
+      </c>
+      <c r="H1466" t="str">
+        <v>./small_thumbs/749/IMG_8386.jpg</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467">
+        <v>1473</v>
+      </c>
+      <c r="B1467">
+        <v>740</v>
+      </c>
+      <c r="C1467" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1467" t="str">
+        <v>./images/740/IMG_8388.jpg</v>
+      </c>
+      <c r="E1467" t="str">
+        <v>2022-06-15T08:35:12</v>
+      </c>
+      <c r="F1467" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1467" t="str">
+        <v>./mid_thumbs/740/IMG_8388.jpg</v>
+      </c>
+      <c r="H1467" t="str">
+        <v>./small_thumbs/740/IMG_8388.jpg</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468">
+        <v>1474</v>
+      </c>
+      <c r="B1468">
+        <v>740</v>
+      </c>
+      <c r="C1468" t="str">
+        <v>地蔵尊 台</v>
+      </c>
+      <c r="D1468" t="str">
+        <v>./images/740/IMG_8389.jpg</v>
+      </c>
+      <c r="E1468" t="str">
+        <v>2022-06-15T08:35:34</v>
+      </c>
+      <c r="F1468" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1468" t="str">
+        <v>./mid_thumbs/740/IMG_8389.jpg</v>
+      </c>
+      <c r="H1468" t="str">
+        <v>./small_thumbs/740/IMG_8389.jpg</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469">
+        <v>1475</v>
+      </c>
+      <c r="B1469">
+        <v>740</v>
+      </c>
+      <c r="C1469" t="str">
+        <v>地蔵尊 像拡大</v>
+      </c>
+      <c r="D1469" t="str">
+        <v>./images/740/IMG_8390.jpg</v>
+      </c>
+      <c r="E1469" t="str">
+        <v>2022-06-15T08:35:40</v>
+      </c>
+      <c r="F1469" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1469" t="str">
+        <v>./mid_thumbs/740/IMG_8390.jpg</v>
+      </c>
+      <c r="H1469" t="str">
+        <v>./small_thumbs/740/IMG_8390.jpg</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470">
+        <v>1476</v>
+      </c>
+      <c r="B1470">
+        <v>686</v>
+      </c>
+      <c r="C1470" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1470" t="str">
+        <v>./images/686/IMG_8394.jpg</v>
+      </c>
+      <c r="E1470" t="str">
+        <v>2022-06-15T09:28:33</v>
+      </c>
+      <c r="F1470" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1470" t="str">
+        <v>./mid_thumbs/686/IMG_8394.jpg</v>
+      </c>
+      <c r="H1470" t="str">
+        <v>./small_thumbs/686/IMG_8394.jpg</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471">
+        <v>1477</v>
+      </c>
+      <c r="B1471">
+        <v>686</v>
+      </c>
+      <c r="C1471" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1471" t="str">
+        <v>./images/686/IMG_8395.jpg</v>
+      </c>
+      <c r="E1471" t="str">
+        <v>2022-06-15T09:28:42</v>
+      </c>
+      <c r="F1471" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1471" t="str">
+        <v>./mid_thumbs/686/IMG_8395.jpg</v>
+      </c>
+      <c r="H1471" t="str">
+        <v>./small_thumbs/686/IMG_8395.jpg</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472">
+        <v>1478</v>
+      </c>
+      <c r="B1472">
+        <v>686</v>
+      </c>
+      <c r="C1472" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1472" t="str">
+        <v>./images/686/IMG_8396.jpg</v>
+      </c>
+      <c r="E1472" t="str">
+        <v>2022-06-15T09:28:46</v>
+      </c>
+      <c r="F1472" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1472" t="str">
+        <v>./mid_thumbs/686/IMG_8396.jpg</v>
+      </c>
+      <c r="H1472" t="str">
+        <v>./small_thumbs/686/IMG_8396.jpg</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473">
+        <v>1479</v>
+      </c>
+      <c r="B1473">
+        <v>93</v>
+      </c>
+      <c r="C1473" t="str">
+        <v>北向地蔵尊</v>
+      </c>
+      <c r="D1473" t="str">
+        <v>./images/93/IMG_8398.jpg</v>
+      </c>
+      <c r="E1473" t="str">
+        <v>2022-06-15T09:32:48</v>
+      </c>
+      <c r="F1473" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1473" t="str">
+        <v>./mid_thumbs/93/IMG_8398.jpg</v>
+      </c>
+      <c r="H1473" t="str">
+        <v>./small_thumbs/93/IMG_8398.jpg</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474">
+        <v>1480</v>
+      </c>
+      <c r="B1474">
+        <v>93</v>
+      </c>
+      <c r="C1474" t="str">
+        <v>北向地蔵尊 内部</v>
+      </c>
+      <c r="D1474" t="str">
+        <v>./images/93/IMG_8399.jpg</v>
+      </c>
+      <c r="E1474" t="str">
+        <v>2022-06-15T09:32:57</v>
+      </c>
+      <c r="F1474" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1474" t="str">
+        <v>./mid_thumbs/93/IMG_8399.jpg</v>
+      </c>
+      <c r="H1474" t="str">
+        <v>./small_thumbs/93/IMG_8399.jpg</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475">
+        <v>1481</v>
+      </c>
+      <c r="B1475">
+        <v>93</v>
+      </c>
+      <c r="C1475" t="str">
+        <v>北向地蔵尊 内部</v>
+      </c>
+      <c r="D1475" t="str">
+        <v>./images/93/IMG_8400.jpg</v>
+      </c>
+      <c r="E1475" t="str">
+        <v>2022-06-15T09:33:03</v>
+      </c>
+      <c r="F1475" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1475" t="str">
+        <v>./mid_thumbs/93/IMG_8400.jpg</v>
+      </c>
+      <c r="H1475" t="str">
+        <v>./small_thumbs/93/IMG_8400.jpg</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476">
+        <v>1482</v>
+      </c>
+      <c r="B1476">
+        <v>805</v>
+      </c>
+      <c r="C1476" t="str">
+        <v>子安神社</v>
+      </c>
+      <c r="D1476" t="str">
+        <v>./images/805/IMG_8404.jpg</v>
+      </c>
+      <c r="E1476" t="str">
+        <v>2022-06-15T09:46:26</v>
+      </c>
+      <c r="F1476" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1476" t="str">
+        <v>./mid_thumbs/805/IMG_8404.jpg</v>
+      </c>
+      <c r="H1476" t="str">
+        <v>./small_thumbs/805/IMG_8404.jpg</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477">
+        <v>1483</v>
+      </c>
+      <c r="B1477">
+        <v>805</v>
+      </c>
+      <c r="C1477" t="str">
+        <v>子安神社 鳥居</v>
+      </c>
+      <c r="D1477" t="str">
+        <v>./images/805/IMG_8406.jpg</v>
+      </c>
+      <c r="E1477" t="str">
+        <v>2022-06-15T09:47:12</v>
+      </c>
+      <c r="F1477" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1477" t="str">
+        <v>./mid_thumbs/805/IMG_8406.jpg</v>
+      </c>
+      <c r="H1477" t="str">
+        <v>./small_thumbs/805/IMG_8406.jpg</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478">
+        <v>1484</v>
+      </c>
+      <c r="B1478">
+        <v>805</v>
+      </c>
+      <c r="C1478" t="str">
+        <v>子安神社 石灯籠</v>
+      </c>
+      <c r="D1478" t="str">
+        <v>./images/805/IMG_8407.jpg</v>
+      </c>
+      <c r="E1478" t="str">
+        <v>2022-06-15T09:47:24</v>
+      </c>
+      <c r="F1478" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1478" t="str">
+        <v>./mid_thumbs/805/IMG_8407.jpg</v>
+      </c>
+      <c r="H1478" t="str">
+        <v>./small_thumbs/805/IMG_8407.jpg</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479">
+        <v>1485</v>
+      </c>
+      <c r="B1479">
+        <v>805</v>
+      </c>
+      <c r="C1479" t="str">
+        <v>子安神社 本殿</v>
+      </c>
+      <c r="D1479" t="str">
+        <v>./images/805/IMG_8408.jpg</v>
+      </c>
+      <c r="E1479" t="str">
+        <v>2022-06-15T09:47:33</v>
+      </c>
+      <c r="F1479" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1479" t="str">
+        <v>./mid_thumbs/805/IMG_8408.jpg</v>
+      </c>
+      <c r="H1479" t="str">
+        <v>./small_thumbs/805/IMG_8408.jpg</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480">
+        <v>1486</v>
+      </c>
+      <c r="B1480">
+        <v>806</v>
+      </c>
+      <c r="C1480" t="str">
+        <v>地蔵、浮彫五輪塔群</v>
+      </c>
+      <c r="D1480" t="str">
+        <v>./images/806/IMG_8411.jpg</v>
+      </c>
+      <c r="E1480" t="str">
+        <v>2022-06-15T09:56:40</v>
+      </c>
+      <c r="F1480" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1480" t="str">
+        <v>./mid_thumbs/806/IMG_8411.jpg</v>
+      </c>
+      <c r="H1480" t="str">
+        <v>./small_thumbs/806/IMG_8411.jpg</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481">
+        <v>1487</v>
+      </c>
+      <c r="B1481">
+        <v>806</v>
+      </c>
+      <c r="C1481" t="str">
+        <v>地蔵、浮彫五輪塔群 右方</v>
+      </c>
+      <c r="D1481" t="str">
+        <v>./images/806/IMG_8412.jpg</v>
+      </c>
+      <c r="E1481" t="str">
+        <v>2022-06-15T09:56:47</v>
+      </c>
+      <c r="F1481" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1481" t="str">
+        <v>./mid_thumbs/806/IMG_8412.jpg</v>
+      </c>
+      <c r="H1481" t="str">
+        <v>./small_thumbs/806/IMG_8412.jpg</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482">
+        <v>1488</v>
+      </c>
+      <c r="B1482">
+        <v>806</v>
+      </c>
+      <c r="C1482" t="str">
+        <v>地蔵、浮彫五輪塔群 左方</v>
+      </c>
+      <c r="D1482" t="str">
+        <v>./images/806/IMG_8413.jpg</v>
+      </c>
+      <c r="E1482" t="str">
+        <v>2022-06-15T09:56:56</v>
+      </c>
+      <c r="F1482" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1482" t="str">
+        <v>./mid_thumbs/806/IMG_8413.jpg</v>
+      </c>
+      <c r="H1482" t="str">
+        <v>./small_thumbs/806/IMG_8413.jpg</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483">
+        <v>1489</v>
+      </c>
+      <c r="B1483">
+        <v>139</v>
+      </c>
+      <c r="C1483" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1483" t="str">
+        <v>./images/139/IMG_8417.jpg</v>
+      </c>
+      <c r="E1483" t="str">
+        <v>2022-06-15T10:04:06</v>
+      </c>
+      <c r="F1483" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1483" t="str">
+        <v>./mid_thumbs/139/IMG_8417.jpg</v>
+      </c>
+      <c r="H1483" t="str">
+        <v>./small_thumbs/139/IMG_8417.jpg</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484">
+        <v>1490</v>
+      </c>
+      <c r="B1484">
+        <v>139</v>
+      </c>
+      <c r="C1484" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1484" t="str">
+        <v>./images/139/IMG_8418.jpg</v>
+      </c>
+      <c r="E1484" t="str">
+        <v>2022-06-15T10:04:13</v>
+      </c>
+      <c r="F1484" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1484" t="str">
+        <v>./mid_thumbs/139/IMG_8418.jpg</v>
+      </c>
+      <c r="H1484" t="str">
+        <v>./small_thumbs/139/IMG_8418.jpg</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485">
+        <v>1491</v>
+      </c>
+      <c r="B1485">
+        <v>139</v>
+      </c>
+      <c r="C1485" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1485" t="str">
+        <v>./images/139/IMG_8419.jpg</v>
+      </c>
+      <c r="E1485" t="str">
+        <v>2022-06-15T10:04:24</v>
+      </c>
+      <c r="F1485" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1485" t="str">
+        <v>./mid_thumbs/139/IMG_8419.jpg</v>
+      </c>
+      <c r="H1485" t="str">
+        <v>./small_thumbs/139/IMG_8419.jpg</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486">
+        <v>1492</v>
+      </c>
+      <c r="B1486">
+        <v>128</v>
+      </c>
+      <c r="C1486" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1486" t="str">
+        <v>./images/128/IMG_8424.jpg</v>
+      </c>
+      <c r="E1486" t="str">
+        <v>2022-06-15T10:07:26</v>
+      </c>
+      <c r="F1486" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1486" t="str">
+        <v>./mid_thumbs/128/IMG_8424.jpg</v>
+      </c>
+      <c r="H1486" t="str">
+        <v>./small_thumbs/128/IMG_8424.jpg</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487">
+        <v>1493</v>
+      </c>
+      <c r="B1487">
+        <v>128</v>
+      </c>
+      <c r="C1487" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1487" t="str">
+        <v>./images/128/IMG_8425.jpg</v>
+      </c>
+      <c r="E1487" t="str">
+        <v>2022-06-15T10:07:33</v>
+      </c>
+      <c r="F1487" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1487" t="str">
+        <v>./mid_thumbs/128/IMG_8425.jpg</v>
+      </c>
+      <c r="H1487" t="str">
+        <v>./small_thumbs/128/IMG_8425.jpg</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488">
+        <v>1494</v>
+      </c>
+      <c r="B1488">
+        <v>129</v>
+      </c>
+      <c r="C1488" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1488" t="str">
+        <v>./images/129/IMG_8427.jpg</v>
+      </c>
+      <c r="E1488" t="str">
+        <v>2022-06-15T10:08:57</v>
+      </c>
+      <c r="F1488" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1488" t="str">
+        <v>./mid_thumbs/129/IMG_8427.jpg</v>
+      </c>
+      <c r="H1488" t="str">
+        <v>./small_thumbs/129/IMG_8427.jpg</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489">
+        <v>1495</v>
+      </c>
+      <c r="B1489">
+        <v>155</v>
+      </c>
+      <c r="C1489" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1489" t="str">
+        <v>./images/155/IMG_8442.jpg</v>
+      </c>
+      <c r="E1489" t="str">
+        <v>2022-06-15T10:31:49</v>
+      </c>
+      <c r="F1489" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1489" t="str">
+        <v>./mid_thumbs/155/IMG_8442.jpg</v>
+      </c>
+      <c r="H1489" t="str">
+        <v>./small_thumbs/155/IMG_8442.jpg</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490">
+        <v>1496</v>
+      </c>
+      <c r="B1490">
+        <v>807</v>
+      </c>
+      <c r="C1490" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1490" t="str">
+        <v>./images/807/IMG_8445.jpg</v>
+      </c>
+      <c r="E1490" t="str">
+        <v>2022-06-15T10:46:28</v>
+      </c>
+      <c r="F1490" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1490" t="str">
+        <v>./mid_thumbs/807/IMG_8445.jpg</v>
+      </c>
+      <c r="H1490" t="str">
+        <v>./small_thumbs/807/IMG_8445.jpg</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491">
+        <v>1497</v>
+      </c>
+      <c r="B1491">
+        <v>807</v>
+      </c>
+      <c r="C1491" t="str">
+        <v>地蔵堂 内部左</v>
+      </c>
+      <c r="D1491" t="str">
+        <v>./images/807/IMG_8446.jpg</v>
+      </c>
+      <c r="E1491" t="str">
+        <v>2022-06-15T10:46:41</v>
+      </c>
+      <c r="F1491" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1491" t="str">
+        <v>./mid_thumbs/807/IMG_8446.jpg</v>
+      </c>
+      <c r="H1491" t="str">
+        <v>./small_thumbs/807/IMG_8446.jpg</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492">
+        <v>1498</v>
+      </c>
+      <c r="B1492">
+        <v>807</v>
+      </c>
+      <c r="C1492" t="str">
+        <v>地蔵堂 内部右</v>
+      </c>
+      <c r="D1492" t="str">
+        <v>./images/807/IMG_8447.jpg</v>
+      </c>
+      <c r="E1492" t="str">
+        <v>2022-06-15T10:46:52</v>
+      </c>
+      <c r="F1492" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1492" t="str">
+        <v>./mid_thumbs/807/IMG_8447.jpg</v>
+      </c>
+      <c r="H1492" t="str">
+        <v>./small_thumbs/807/IMG_8447.jpg</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493">
+        <v>1499</v>
+      </c>
+      <c r="B1493">
+        <v>808</v>
+      </c>
+      <c r="C1493" t="str">
+        <v>法蓮野神 野神の神木</v>
+      </c>
+      <c r="D1493" t="str">
+        <v>./images/808/IMG_8449.jpg</v>
+      </c>
+      <c r="E1493" t="str">
+        <v>2022-06-15T10:56:00</v>
+      </c>
+      <c r="F1493" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1493" t="str">
+        <v>./mid_thumbs/808/IMG_8449.jpg</v>
+      </c>
+      <c r="H1493" t="str">
+        <v>./small_thumbs/808/IMG_8449.jpg</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494">
+        <v>1500</v>
+      </c>
+      <c r="B1494">
+        <v>808</v>
+      </c>
+      <c r="C1494" t="str">
+        <v>法蓮野神 石碑</v>
+      </c>
+      <c r="D1494" t="str">
+        <v>./images/808/IMG_8450.jpg</v>
+      </c>
+      <c r="E1494" t="str">
+        <v>2022-06-15T10:56:15</v>
+      </c>
+      <c r="F1494" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1494" t="str">
+        <v>./mid_thumbs/808/IMG_8450.jpg</v>
+      </c>
+      <c r="H1494" t="str">
+        <v>./small_thumbs/808/IMG_8450.jpg</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495">
+        <v>1501</v>
+      </c>
+      <c r="B1495">
+        <v>808</v>
+      </c>
+      <c r="C1495" t="str">
+        <v>法蓮野神 石碑</v>
+      </c>
+      <c r="D1495" t="str">
+        <v>./images/808/IMG_8452.jpg</v>
+      </c>
+      <c r="E1495" t="str">
+        <v>2022-06-15T10:56:57</v>
+      </c>
+      <c r="F1495" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1495" t="str">
+        <v>./mid_thumbs/808/IMG_8452.jpg</v>
+      </c>
+      <c r="H1495" t="str">
+        <v>./small_thumbs/808/IMG_8452.jpg</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496">
+        <v>1502</v>
+      </c>
+      <c r="B1496">
+        <v>697</v>
+      </c>
+      <c r="C1496" t="str">
+        <v>法華寺神社 鳥居</v>
+      </c>
+      <c r="D1496" t="str">
+        <v>./images/697/IMG_8457.jpg</v>
+      </c>
+      <c r="E1496" t="str">
+        <v>2022-06-15T11:29:55</v>
+      </c>
+      <c r="F1496" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1496" t="str">
+        <v>./mid_thumbs/697/IMG_8457.jpg</v>
+      </c>
+      <c r="H1496" t="str">
+        <v>./small_thumbs/697/IMG_8457.jpg</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497">
+        <v>1503</v>
+      </c>
+      <c r="B1497">
+        <v>697</v>
+      </c>
+      <c r="C1497" t="str">
+        <v>法華寺神社 社名石碑</v>
+      </c>
+      <c r="D1497" t="str">
+        <v>./images/697/IMG_8458.jpg</v>
+      </c>
+      <c r="E1497" t="str">
+        <v>2022-06-15T11:33:07</v>
+      </c>
+      <c r="F1497" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1497" t="str">
+        <v>./mid_thumbs/697/IMG_8458.jpg</v>
+      </c>
+      <c r="H1497" t="str">
+        <v>./small_thumbs/697/IMG_8458.jpg</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498">
+        <v>1504</v>
+      </c>
+      <c r="B1498">
+        <v>730</v>
+      </c>
+      <c r="C1498" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔</v>
+      </c>
+      <c r="D1498" t="str">
+        <v>./images/730/IMG_8459.jpg</v>
+      </c>
+      <c r="E1498" t="str">
+        <v>2022-06-15T11:38:24</v>
+      </c>
+      <c r="F1498" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1498" t="str">
+        <v>./mid_thumbs/730/IMG_8459.jpg</v>
+      </c>
+      <c r="H1498" t="str">
+        <v>./small_thumbs/730/IMG_8459.jpg</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499">
+        <v>1505</v>
+      </c>
+      <c r="B1499">
+        <v>730</v>
+      </c>
+      <c r="C1499" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔</v>
+      </c>
+      <c r="D1499" t="str">
+        <v>./images/730/IMG_8460.jpg</v>
+      </c>
+      <c r="E1499" t="str">
+        <v>2022-06-15T11:38:46</v>
+      </c>
+      <c r="F1499" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1499" t="str">
+        <v>./mid_thumbs/730/IMG_8460.jpg</v>
+      </c>
+      <c r="H1499" t="str">
+        <v>./small_thumbs/730/IMG_8460.jpg</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500">
+        <v>1506</v>
+      </c>
+      <c r="B1500">
+        <v>730</v>
+      </c>
+      <c r="C1500" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔</v>
+      </c>
+      <c r="D1500" t="str">
+        <v>./images/730/IMG_8461.jpg</v>
+      </c>
+      <c r="E1500" t="str">
+        <v>2022-06-15T11:38:53</v>
+      </c>
+      <c r="F1500" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1500" t="str">
+        <v>./mid_thumbs/730/IMG_8461.jpg</v>
+      </c>
+      <c r="H1500" t="str">
+        <v>./small_thumbs/730/IMG_8461.jpg</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501">
+        <v>1507</v>
+      </c>
+      <c r="B1501">
+        <v>730</v>
+      </c>
+      <c r="C1501" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔 単体地蔵</v>
+      </c>
+      <c r="D1501" t="str">
+        <v>./images/730/IMG_8462.jpg</v>
+      </c>
+      <c r="E1501" t="str">
+        <v>2022-06-15T11:39:23</v>
+      </c>
+      <c r="F1501" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1501" t="str">
+        <v>./mid_thumbs/730/IMG_8462.jpg</v>
+      </c>
+      <c r="H1501" t="str">
+        <v>./small_thumbs/730/IMG_8462.jpg</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502">
+        <v>1508</v>
+      </c>
+      <c r="B1502">
+        <v>730</v>
+      </c>
+      <c r="C1502" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔 双体地蔵</v>
+      </c>
+      <c r="D1502" t="str">
+        <v>./images/730/IMG_8463.jpg</v>
+      </c>
+      <c r="E1502" t="str">
+        <v>2022-06-15T11:39:34</v>
+      </c>
+      <c r="F1502" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1502" t="str">
+        <v>./mid_thumbs/730/IMG_8463.jpg</v>
+      </c>
+      <c r="H1502" t="str">
+        <v>./small_thumbs/730/IMG_8463.jpg</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503">
+        <v>1509</v>
+      </c>
+      <c r="B1503">
+        <v>730</v>
+      </c>
+      <c r="C1503" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地入口三界萬靈塔 双体地蔵</v>
+      </c>
+      <c r="D1503" t="str">
+        <v>./images/730/IMG_8464.jpg</v>
+      </c>
+      <c r="E1503" t="str">
+        <v>2022-06-15T11:39:49</v>
+      </c>
+      <c r="F1503" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1503" t="str">
+        <v>./mid_thumbs/730/IMG_8464.jpg</v>
+      </c>
+      <c r="H1503" t="str">
+        <v>./small_thumbs/730/IMG_8464.jpg</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504">
+        <v>1510</v>
+      </c>
+      <c r="B1504">
+        <v>730</v>
+      </c>
+      <c r="C1504" t="str">
+        <v>地蔵堂 地蔵菩薩立像 墓地内六地蔵</v>
+      </c>
+      <c r="D1504" t="str">
+        <v>./images/730/IMG_8465.jpg</v>
+      </c>
+      <c r="E1504" t="str">
+        <v>2022-06-15T11:40:13</v>
+      </c>
+      <c r="F1504" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1504" t="str">
+        <v>./mid_thumbs/730/IMG_8465.jpg</v>
+      </c>
+      <c r="H1504" t="str">
+        <v>./small_thumbs/730/IMG_8465.jpg</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505">
+        <v>1511</v>
+      </c>
+      <c r="B1505">
+        <v>730</v>
+      </c>
+      <c r="C1505" t="str">
+        <v>地蔵堂 地蔵菩薩立像 地蔵堂</v>
+      </c>
+      <c r="D1505" t="str">
+        <v>./images/730/IMG_8466.jpg</v>
+      </c>
+      <c r="E1505" t="str">
+        <v>2022-06-15T11:40:36</v>
+      </c>
+      <c r="F1505" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1505" t="str">
+        <v>./mid_thumbs/730/IMG_8466.jpg</v>
+      </c>
+      <c r="H1505" t="str">
+        <v>./small_thumbs/730/IMG_8466.jpg</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506">
+        <v>1512</v>
+      </c>
+      <c r="B1506">
+        <v>730</v>
+      </c>
+      <c r="C1506" t="str">
+        <v>地蔵堂 地蔵菩薩立像 地蔵堂入口</v>
+      </c>
+      <c r="D1506" t="str">
+        <v>./images/730/IMG_8467.jpg</v>
+      </c>
+      <c r="E1506" t="str">
+        <v>2022-06-15T11:40:45</v>
+      </c>
+      <c r="F1506" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1506" t="str">
+        <v>./mid_thumbs/730/IMG_8467.jpg</v>
+      </c>
+      <c r="H1506" t="str">
+        <v>./small_thumbs/730/IMG_8467.jpg</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507">
+        <v>1513</v>
+      </c>
+      <c r="B1507">
+        <v>730</v>
+      </c>
+      <c r="C1507" t="str">
+        <v>地蔵堂 地蔵菩薩立像 地蔵堂内如来像</v>
+      </c>
+      <c r="D1507" t="str">
+        <v>./images/730/IMG_8468.jpg</v>
+      </c>
+      <c r="E1507" t="str">
+        <v>2022-06-15T11:40:57</v>
+      </c>
+      <c r="F1507" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1507" t="str">
+        <v>./mid_thumbs/730/IMG_8468.jpg</v>
+      </c>
+      <c r="H1507" t="str">
+        <v>./small_thumbs/730/IMG_8468.jpg</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508">
+        <v>1514</v>
+      </c>
+      <c r="B1508">
+        <v>730</v>
+      </c>
+      <c r="C1508" t="str">
+        <v>地蔵堂 地蔵菩薩立像 地蔵堂内遠方より</v>
+      </c>
+      <c r="D1508" t="str">
+        <v>./images/730/IMG_8469.jpg</v>
+      </c>
+      <c r="E1508" t="str">
+        <v>2022-06-15T11:41:23</v>
+      </c>
+      <c r="F1508" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1508" t="str">
+        <v>./mid_thumbs/730/IMG_8469.jpg</v>
+      </c>
+      <c r="H1508" t="str">
+        <v>./small_thumbs/730/IMG_8469.jpg</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509">
+        <v>1515</v>
+      </c>
+      <c r="B1509">
+        <v>737</v>
+      </c>
+      <c r="C1509" t="str">
+        <v>六地蔵尊</v>
+      </c>
+      <c r="D1509" t="str">
+        <v>./images/737/IMG_8470.jpg</v>
+      </c>
+      <c r="E1509" t="str">
+        <v>2022-06-15T11:49:13</v>
+      </c>
+      <c r="F1509" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1509" t="str">
+        <v>./mid_thumbs/737/IMG_8470.jpg</v>
+      </c>
+      <c r="H1509" t="str">
+        <v>./small_thumbs/737/IMG_8470.jpg</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510">
+        <v>1516</v>
+      </c>
+      <c r="B1510">
+        <v>737</v>
+      </c>
+      <c r="C1510" t="str">
+        <v>六地蔵尊</v>
+      </c>
+      <c r="D1510" t="str">
+        <v>./images/737/IMG_8471.jpg</v>
+      </c>
+      <c r="E1510" t="str">
+        <v>2022-06-15T11:49:33</v>
+      </c>
+      <c r="F1510" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1510" t="str">
+        <v>./mid_thumbs/737/IMG_8471.jpg</v>
+      </c>
+      <c r="H1510" t="str">
+        <v>./small_thumbs/737/IMG_8471.jpg</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511">
+        <v>1517</v>
+      </c>
+      <c r="B1511">
+        <v>738</v>
+      </c>
+      <c r="C1511" t="str">
+        <v>地蔵尊 地蔵堂遠景</v>
+      </c>
+      <c r="D1511" t="str">
+        <v>./images/738/IMG_8472.jpg</v>
+      </c>
+      <c r="E1511" t="str">
+        <v>2022-06-15T11:55:51</v>
+      </c>
+      <c r="F1511" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1511" t="str">
+        <v>./mid_thumbs/738/IMG_8472.jpg</v>
+      </c>
+      <c r="H1511" t="str">
+        <v>./small_thumbs/738/IMG_8472.jpg</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512">
+        <v>1518</v>
+      </c>
+      <c r="B1512">
+        <v>738</v>
+      </c>
+      <c r="C1512" t="str">
+        <v>地蔵尊 地蔵堂内部</v>
+      </c>
+      <c r="D1512" t="str">
+        <v>./images/738/IMG_8473.jpg</v>
+      </c>
+      <c r="E1512" t="str">
+        <v>2022-06-15T11:55:59</v>
+      </c>
+      <c r="F1512" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1512" t="str">
+        <v>./mid_thumbs/738/IMG_8473.jpg</v>
+      </c>
+      <c r="H1512" t="str">
+        <v>./small_thumbs/738/IMG_8473.jpg</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513">
+        <v>1519</v>
+      </c>
+      <c r="B1513">
+        <v>738</v>
+      </c>
+      <c r="C1513" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1513" t="str">
+        <v>./images/738/IMG_8474.jpg</v>
+      </c>
+      <c r="E1513" t="str">
+        <v>2022-06-15T11:56:10</v>
+      </c>
+      <c r="F1513" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1513" t="str">
+        <v>./mid_thumbs/738/IMG_8474.jpg</v>
+      </c>
+      <c r="H1513" t="str">
+        <v>./small_thumbs/738/IMG_8474.jpg</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514">
+        <v>1520</v>
+      </c>
+      <c r="B1514">
+        <v>738</v>
+      </c>
+      <c r="C1514" t="str">
+        <v>地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1514" t="str">
+        <v>./images/738/IMG_8476.jpg</v>
+      </c>
+      <c r="E1514" t="str">
+        <v>2022-06-15T11:57:02</v>
+      </c>
+      <c r="F1514" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1514" t="str">
+        <v>./mid_thumbs/738/IMG_8476.jpg</v>
+      </c>
+      <c r="H1514" t="str">
+        <v>./small_thumbs/738/IMG_8476.jpg</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515">
+        <v>1521</v>
+      </c>
+      <c r="B1515">
+        <v>809</v>
+      </c>
+      <c r="C1515" t="str">
+        <v>六大地蔵尊</v>
+      </c>
+      <c r="D1515" t="str">
+        <v>./images/809/IMG_8477.jpg</v>
+      </c>
+      <c r="E1515" t="str">
+        <v>2022-06-15T12:01:01</v>
+      </c>
+      <c r="F1515" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1515" t="str">
+        <v>./mid_thumbs/809/IMG_8477.jpg</v>
+      </c>
+      <c r="H1515" t="str">
+        <v>./small_thumbs/809/IMG_8477.jpg</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516">
+        <v>1522</v>
+      </c>
+      <c r="B1516">
+        <v>809</v>
+      </c>
+      <c r="C1516" t="str">
+        <v>六大地蔵尊 石仏群</v>
+      </c>
+      <c r="D1516" t="str">
+        <v>./images/809/IMG_8478.jpg</v>
+      </c>
+      <c r="E1516" t="str">
+        <v>2022-06-15T12:01:09</v>
+      </c>
+      <c r="F1516" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1516" t="str">
+        <v>./mid_thumbs/809/IMG_8478.jpg</v>
+      </c>
+      <c r="H1516" t="str">
+        <v>./small_thumbs/809/IMG_8478.jpg</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517">
+        <v>1523</v>
+      </c>
+      <c r="B1517">
+        <v>810</v>
+      </c>
+      <c r="C1517" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1517" t="str">
+        <v>./images/810/IMG_8480.jpg</v>
+      </c>
+      <c r="E1517" t="str">
+        <v>2022-06-15T12:09:46</v>
+      </c>
+      <c r="F1517" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1517" t="str">
+        <v>./mid_thumbs/810/IMG_8480.jpg</v>
+      </c>
+      <c r="H1517" t="str">
+        <v>./small_thumbs/810/IMG_8480.jpg</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518">
+        <v>1524</v>
+      </c>
+      <c r="B1518">
+        <v>810</v>
+      </c>
+      <c r="C1518" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1518" t="str">
+        <v>./images/810/IMG_8481.jpg</v>
+      </c>
+      <c r="E1518" t="str">
+        <v>2022-06-15T12:10:01</v>
+      </c>
+      <c r="F1518" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1518" t="str">
+        <v>./mid_thumbs/810/IMG_8481.jpg</v>
+      </c>
+      <c r="H1518" t="str">
+        <v>./small_thumbs/810/IMG_8481.jpg</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519">
+        <v>1525</v>
+      </c>
+      <c r="B1519">
+        <v>734</v>
+      </c>
+      <c r="C1519" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1519" t="str">
+        <v>./images/734/IMG_8483.jpg</v>
+      </c>
+      <c r="E1519" t="str">
+        <v>2022-06-15T12:13:03</v>
+      </c>
+      <c r="F1519" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1519" t="str">
+        <v>./mid_thumbs/734/IMG_8483.jpg</v>
+      </c>
+      <c r="H1519" t="str">
+        <v>./small_thumbs/734/IMG_8483.jpg</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520">
+        <v>1526</v>
+      </c>
+      <c r="B1520">
+        <v>734</v>
+      </c>
+      <c r="C1520" t="str">
+        <v>地蔵群 後列</v>
+      </c>
+      <c r="D1520" t="str">
+        <v>./images/734/IMG_8484.jpg</v>
+      </c>
+      <c r="E1520" t="str">
+        <v>2022-06-15T12:13:10</v>
+      </c>
+      <c r="F1520" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1520" t="str">
+        <v>./mid_thumbs/734/IMG_8484.jpg</v>
+      </c>
+      <c r="H1520" t="str">
+        <v>./small_thumbs/734/IMG_8484.jpg</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521">
+        <v>1527</v>
+      </c>
+      <c r="B1521">
+        <v>734</v>
+      </c>
+      <c r="C1521" t="str">
+        <v>地蔵群 地蔵種子の石碑</v>
+      </c>
+      <c r="D1521" t="str">
+        <v>./images/734/IMG_8485.jpg</v>
+      </c>
+      <c r="E1521" t="str">
+        <v>2022-06-15T12:13:26</v>
+      </c>
+      <c r="F1521" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1521" t="str">
+        <v>./mid_thumbs/734/IMG_8485.jpg</v>
+      </c>
+      <c r="H1521" t="str">
+        <v>./small_thumbs/734/IMG_8485.jpg</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522">
+        <v>1528</v>
+      </c>
+      <c r="B1522">
+        <v>734</v>
+      </c>
+      <c r="C1522" t="str">
+        <v>地蔵群 前後列全体</v>
+      </c>
+      <c r="D1522" t="str">
+        <v>./images/734/IMG_8486.jpg</v>
+      </c>
+      <c r="E1522" t="str">
+        <v>2022-06-15T12:13:33</v>
+      </c>
+      <c r="F1522" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1522" t="str">
+        <v>./mid_thumbs/734/IMG_8486.jpg</v>
+      </c>
+      <c r="H1522" t="str">
+        <v>./small_thumbs/734/IMG_8486.jpg</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523">
+        <v>1529</v>
+      </c>
+      <c r="B1523">
+        <v>137</v>
+      </c>
+      <c r="C1523" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1523" t="str">
+        <v>./images/137/IMG_8489.jpg</v>
+      </c>
+      <c r="E1523" t="str">
+        <v>2022-06-15T12:18:24</v>
+      </c>
+      <c r="F1523" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1523" t="str">
+        <v>./mid_thumbs/137/IMG_8489.jpg</v>
+      </c>
+      <c r="H1523" t="str">
+        <v>./small_thumbs/137/IMG_8489.jpg</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524">
+        <v>1530</v>
+      </c>
+      <c r="B1524">
+        <v>693</v>
+      </c>
+      <c r="C1524" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1524" t="str">
+        <v>./images/693/IMG_8490.jpg</v>
+      </c>
+      <c r="E1524" t="str">
+        <v>2022-06-15T12:25:03</v>
+      </c>
+      <c r="F1524" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1524" t="str">
+        <v>./mid_thumbs/693/IMG_8490.jpg</v>
+      </c>
+      <c r="H1524" t="str">
+        <v>./small_thumbs/693/IMG_8490.jpg</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525">
+        <v>1531</v>
+      </c>
+      <c r="B1525">
+        <v>693</v>
+      </c>
+      <c r="C1525" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1525" t="str">
+        <v>./images/693/IMG_8491.jpg</v>
+      </c>
+      <c r="E1525" t="str">
+        <v>2022-06-15T12:25:14</v>
+      </c>
+      <c r="F1525" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1525" t="str">
+        <v>./mid_thumbs/693/IMG_8491.jpg</v>
+      </c>
+      <c r="H1525" t="str">
+        <v>./small_thumbs/693/IMG_8491.jpg</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526">
+        <v>1532</v>
+      </c>
+      <c r="B1526">
+        <v>693</v>
+      </c>
+      <c r="C1526" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1526" t="str">
+        <v>./images/693/IMG_8492.jpg</v>
+      </c>
+      <c r="E1526" t="str">
+        <v>2022-06-15T12:25:17</v>
+      </c>
+      <c r="F1526" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1526" t="str">
+        <v>./mid_thumbs/693/IMG_8492.jpg</v>
+      </c>
+      <c r="H1526" t="str">
+        <v>./small_thumbs/693/IMG_8492.jpg</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527">
+        <v>1533</v>
+      </c>
+      <c r="B1527">
+        <v>693</v>
+      </c>
+      <c r="C1527" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1527" t="str">
+        <v>./images/693/IMG_8493.jpg</v>
+      </c>
+      <c r="E1527" t="str">
+        <v>2022-06-15T12:25:23</v>
+      </c>
+      <c r="F1527" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1527" t="str">
+        <v>./mid_thumbs/693/IMG_8493.jpg</v>
+      </c>
+      <c r="H1527" t="str">
+        <v>./small_thumbs/693/IMG_8493.jpg</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528">
+        <v>1534</v>
+      </c>
+      <c r="B1528">
+        <v>693</v>
+      </c>
+      <c r="C1528" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1528" t="str">
+        <v>./images/693/IMG_8494.jpg</v>
+      </c>
+      <c r="E1528" t="str">
+        <v>2022-06-15T12:25:38</v>
+      </c>
+      <c r="F1528" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1528" t="str">
+        <v>./mid_thumbs/693/IMG_8494.jpg</v>
+      </c>
+      <c r="H1528" t="str">
+        <v>./small_thumbs/693/IMG_8494.jpg</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529">
+        <v>1535</v>
+      </c>
+      <c r="B1529">
+        <v>811</v>
+      </c>
+      <c r="C1529" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="D1529" t="str">
+        <v>./images/811/IMG_8497.jpg</v>
+      </c>
+      <c r="E1529" t="str">
+        <v>2022-06-15T12:29:09</v>
+      </c>
+      <c r="F1529" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1529" t="str">
+        <v>./mid_thumbs/811/IMG_8497.jpg</v>
+      </c>
+      <c r="H1529" t="str">
+        <v>./small_thumbs/811/IMG_8497.jpg</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530">
+        <v>1536</v>
+      </c>
+      <c r="B1530">
+        <v>811</v>
+      </c>
+      <c r="C1530" t="str">
+        <v>小祠 近写</v>
+      </c>
+      <c r="D1530" t="str">
+        <v>./images/811/IMG_8498.jpg</v>
+      </c>
+      <c r="E1530" t="str">
+        <v>2022-06-15T12:29:24</v>
+      </c>
+      <c r="F1530" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1530" t="str">
+        <v>./mid_thumbs/811/IMG_8498.jpg</v>
+      </c>
+      <c r="H1530" t="str">
+        <v>./small_thumbs/811/IMG_8498.jpg</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531">
+        <v>1537</v>
+      </c>
+      <c r="B1531">
+        <v>811</v>
+      </c>
+      <c r="C1531" t="str">
+        <v>小祠 内部</v>
+      </c>
+      <c r="D1531" t="str">
+        <v>./images/811/IMG_8499.jpg</v>
+      </c>
+      <c r="E1531" t="str">
+        <v>2022-06-15T12:29:47</v>
+      </c>
+      <c r="F1531" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1531" t="str">
+        <v>./mid_thumbs/811/IMG_8499.jpg</v>
+      </c>
+      <c r="H1531" t="str">
+        <v>./small_thumbs/811/IMG_8499.jpg</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532">
+        <v>1538</v>
+      </c>
+      <c r="B1532">
+        <v>811</v>
+      </c>
+      <c r="C1532" t="str">
+        <v>小祠 後面</v>
+      </c>
+      <c r="D1532" t="str">
+        <v>./images/811/IMG_8500.jpg</v>
+      </c>
+      <c r="E1532" t="str">
+        <v>2022-06-15T12:29:58</v>
+      </c>
+      <c r="F1532" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1532" t="str">
+        <v>./mid_thumbs/811/IMG_8500.jpg</v>
+      </c>
+      <c r="H1532" t="str">
+        <v>./small_thumbs/811/IMG_8500.jpg</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533">
+        <v>1539</v>
+      </c>
+      <c r="B1533">
+        <v>723</v>
+      </c>
+      <c r="C1533" t="str">
+        <v>出屋敷地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1533" t="str">
+        <v>./images/723/IMG_8503.jpg</v>
+      </c>
+      <c r="E1533" t="str">
+        <v>2022-06-15T13:28:47</v>
+      </c>
+      <c r="F1533" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1533" t="str">
+        <v>./mid_thumbs/723/IMG_8503.jpg</v>
+      </c>
+      <c r="H1533" t="str">
+        <v>./small_thumbs/723/IMG_8503.jpg</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534">
+        <v>1540</v>
+      </c>
+      <c r="B1534">
+        <v>723</v>
+      </c>
+      <c r="C1534" t="str">
+        <v>出屋敷地蔵尊 本尊</v>
+      </c>
+      <c r="D1534" t="str">
+        <v>./images/723/IMG_8504.jpg</v>
+      </c>
+      <c r="E1534" t="str">
+        <v>2022-06-15T13:28:57</v>
+      </c>
+      <c r="F1534" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1534" t="str">
+        <v>./mid_thumbs/723/IMG_8504.jpg</v>
+      </c>
+      <c r="H1534" t="str">
+        <v>./small_thumbs/723/IMG_8504.jpg</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535">
+        <v>1541</v>
+      </c>
+      <c r="B1535">
+        <v>723</v>
+      </c>
+      <c r="C1535" t="str">
+        <v>出屋敷地蔵尊 内部右</v>
+      </c>
+      <c r="D1535" t="str">
+        <v>./images/723/IMG_8505.jpg</v>
+      </c>
+      <c r="E1535" t="str">
+        <v>2022-06-15T13:29:09</v>
+      </c>
+      <c r="F1535" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1535" t="str">
+        <v>./mid_thumbs/723/IMG_8505.jpg</v>
+      </c>
+      <c r="H1535" t="str">
+        <v>./small_thumbs/723/IMG_8505.jpg</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536">
+        <v>1542</v>
+      </c>
+      <c r="B1536">
+        <v>723</v>
+      </c>
+      <c r="C1536" t="str">
+        <v>出屋敷地蔵尊 内部左</v>
+      </c>
+      <c r="D1536" t="str">
+        <v>./images/723/IMG_8506.jpg</v>
+      </c>
+      <c r="E1536" t="str">
+        <v>2022-06-15T13:29:16</v>
+      </c>
+      <c r="F1536" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1536" t="str">
+        <v>./mid_thumbs/723/IMG_8506.jpg</v>
+      </c>
+      <c r="H1536" t="str">
+        <v>./small_thumbs/723/IMG_8506.jpg</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537">
+        <v>1543</v>
+      </c>
+      <c r="B1537">
+        <v>723</v>
+      </c>
+      <c r="C1537" t="str">
+        <v>出屋敷地蔵尊 祭壇</v>
+      </c>
+      <c r="D1537" t="str">
+        <v>./images/723/IMG_8507.jpg</v>
+      </c>
+      <c r="E1537" t="str">
+        <v>2022-06-15T13:29:23</v>
+      </c>
+      <c r="F1537" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1537" t="str">
+        <v>./mid_thumbs/723/IMG_8507.jpg</v>
+      </c>
+      <c r="H1537" t="str">
+        <v>./small_thumbs/723/IMG_8507.jpg</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538">
+        <v>1544</v>
+      </c>
+      <c r="B1538">
+        <v>723</v>
+      </c>
+      <c r="C1538" t="str">
+        <v>出屋敷地蔵尊 側面</v>
+      </c>
+      <c r="D1538" t="str">
+        <v>./images/723/IMG_8508.jpg</v>
+      </c>
+      <c r="E1538" t="str">
+        <v>2022-06-15T13:29:35</v>
+      </c>
+      <c r="F1538" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1538" t="str">
+        <v>./mid_thumbs/723/IMG_8508.jpg</v>
+      </c>
+      <c r="H1538" t="str">
+        <v>./small_thumbs/723/IMG_8508.jpg</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539">
+        <v>1545</v>
+      </c>
+      <c r="B1539">
+        <v>723</v>
+      </c>
+      <c r="C1539" t="str">
+        <v>出屋敷地蔵尊 皇紀2600年記念石碑</v>
+      </c>
+      <c r="D1539" t="str">
+        <v>./images/723/IMG_8510.jpg</v>
+      </c>
+      <c r="E1539" t="str">
+        <v>2022-06-15T13:30:00</v>
+      </c>
+      <c r="F1539" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1539" t="str">
+        <v>./mid_thumbs/723/IMG_8510.jpg</v>
+      </c>
+      <c r="H1539" t="str">
+        <v>./small_thumbs/723/IMG_8510.jpg</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540">
+        <v>1546</v>
+      </c>
+      <c r="B1540">
+        <v>722</v>
+      </c>
+      <c r="C1540" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1540" t="str">
+        <v>./images/722/IMG_8511.jpg</v>
+      </c>
+      <c r="E1540" t="str">
+        <v>2022-06-15T13:40:29</v>
+      </c>
+      <c r="F1540" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1540" t="str">
+        <v>./mid_thumbs/722/IMG_8511.jpg</v>
+      </c>
+      <c r="H1540" t="str">
+        <v>./small_thumbs/722/IMG_8511.jpg</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541">
+        <v>1547</v>
+      </c>
+      <c r="B1541">
+        <v>722</v>
+      </c>
+      <c r="C1541" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1541" t="str">
+        <v>./images/722/IMG_8512.jpg</v>
+      </c>
+      <c r="E1541" t="str">
+        <v>2022-06-15T13:40:42</v>
+      </c>
+      <c r="F1541" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1541" t="str">
+        <v>./mid_thumbs/722/IMG_8512.jpg</v>
+      </c>
+      <c r="H1541" t="str">
+        <v>./small_thumbs/722/IMG_8512.jpg</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542">
+        <v>1548</v>
+      </c>
+      <c r="B1542">
+        <v>722</v>
+      </c>
+      <c r="C1542" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1542" t="str">
+        <v>./images/722/IMG_8513.jpg</v>
+      </c>
+      <c r="E1542" t="str">
+        <v>2022-06-15T13:40:57</v>
+      </c>
+      <c r="F1542" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1542" t="str">
+        <v>./mid_thumbs/722/IMG_8513.jpg</v>
+      </c>
+      <c r="H1542" t="str">
+        <v>./small_thumbs/722/IMG_8513.jpg</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543">
+        <v>1549</v>
+      </c>
+      <c r="B1543">
+        <v>722</v>
+      </c>
+      <c r="C1543" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1543" t="str">
+        <v>./images/722/IMG_8514.jpg</v>
+      </c>
+      <c r="E1543" t="str">
+        <v>2022-06-15T13:41:10</v>
+      </c>
+      <c r="F1543" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1543" t="str">
+        <v>./mid_thumbs/722/IMG_8514.jpg</v>
+      </c>
+      <c r="H1543" t="str">
+        <v>./small_thumbs/722/IMG_8514.jpg</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544">
+        <v>1550</v>
+      </c>
+      <c r="B1544">
+        <v>722</v>
+      </c>
+      <c r="C1544" t="str">
+        <v>地蔵尊 側面</v>
+      </c>
+      <c r="D1544" t="str">
+        <v>./images/722/IMG_8515.jpg</v>
+      </c>
+      <c r="E1544" t="str">
+        <v>2022-06-15T13:41:19</v>
+      </c>
+      <c r="F1544" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1544" t="str">
+        <v>./mid_thumbs/722/IMG_8515.jpg</v>
+      </c>
+      <c r="H1544" t="str">
+        <v>./small_thumbs/722/IMG_8515.jpg</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545">
+        <v>1551</v>
+      </c>
+      <c r="B1545">
+        <v>31</v>
+      </c>
+      <c r="C1545" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1545" t="str">
+        <v>./images/31/IMG_8516.jpg</v>
+      </c>
+      <c r="E1545" t="str">
+        <v>2022-06-15T13:45:32</v>
+      </c>
+      <c r="F1545" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1545" t="str">
+        <v>./mid_thumbs/31/IMG_8516.jpg</v>
+      </c>
+      <c r="H1545" t="str">
+        <v>./small_thumbs/31/IMG_8516.jpg</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546">
+        <v>1552</v>
+      </c>
+      <c r="B1546">
+        <v>31</v>
+      </c>
+      <c r="C1546" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1546" t="str">
+        <v>./images/31/IMG_8517.jpg</v>
+      </c>
+      <c r="E1546" t="str">
+        <v>2022-06-15T13:45:44</v>
+      </c>
+      <c r="F1546" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1546" t="str">
+        <v>./mid_thumbs/31/IMG_8517.jpg</v>
+      </c>
+      <c r="H1546" t="str">
+        <v>./small_thumbs/31/IMG_8517.jpg</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547">
+        <v>1553</v>
+      </c>
+      <c r="B1547">
+        <v>721</v>
+      </c>
+      <c r="C1547" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1547" t="str">
+        <v>./images/721/IMG_8528.jpg</v>
+      </c>
+      <c r="E1547" t="str">
+        <v>2022-06-16T12:17:52</v>
+      </c>
+      <c r="F1547" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1547" t="str">
+        <v>./mid_thumbs/721/IMG_8528.jpg</v>
+      </c>
+      <c r="H1547" t="str">
+        <v>./small_thumbs/721/IMG_8528.jpg</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548">
+        <v>1554</v>
+      </c>
+      <c r="B1548">
+        <v>721</v>
+      </c>
+      <c r="C1548" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1548" t="str">
+        <v>./images/721/IMG_8529.jpg</v>
+      </c>
+      <c r="E1548" t="str">
+        <v>2022-06-16T12:18:03</v>
+      </c>
+      <c r="F1548" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1548" t="str">
+        <v>./mid_thumbs/721/IMG_8529.jpg</v>
+      </c>
+      <c r="H1548" t="str">
+        <v>./small_thumbs/721/IMG_8529.jpg</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549">
+        <v>1555</v>
+      </c>
+      <c r="B1549">
+        <v>721</v>
+      </c>
+      <c r="C1549" t="str">
+        <v>地蔵尊 側面</v>
+      </c>
+      <c r="D1549" t="str">
+        <v>./images/721/IMG_8530.jpg</v>
+      </c>
+      <c r="E1549" t="str">
+        <v>2022-06-16T12:18:15</v>
+      </c>
+      <c r="F1549" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1549" t="str">
+        <v>./mid_thumbs/721/IMG_8530.jpg</v>
+      </c>
+      <c r="H1549" t="str">
+        <v>./small_thumbs/721/IMG_8530.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1449"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1549"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M537"/>
+  <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -14723,22 +14723,28 @@
         <v>六条町 地蔵尊</v>
       </c>
       <c r="E412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F412" t="str">
-        <v>Google Mapsで発見、要調査</v>
+        <v/>
+      </c>
+      <c r="H412" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I412" t="b">
         <v>0</v>
       </c>
+      <c r="J412">
+        <v>1556</v>
+      </c>
       <c r="K412" t="str">
         <v>六条町</v>
       </c>
       <c r="L412">
-        <v>135.78701131361993</v>
+        <v>135.786999933002</v>
       </c>
       <c r="M412">
-        <v>34.66740739011604</v>
+        <v>34.66742491520113</v>
       </c>
     </row>
     <row r="413">
@@ -15452,22 +15458,28 @@
         <v>706</v>
       </c>
       <c r="B433" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C433" t="str">
-        <v>地蔵尊</v>
+        <v>阿弥陀如来板碑</v>
       </c>
       <c r="D433" t="str">
-        <v>七条西町1丁目 地蔵尊</v>
+        <v>七条西町1丁目 阿弥陀如来板碑 キリークの種子が見える</v>
       </c>
       <c r="E433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F433" t="str">
-        <v>Google Mapsより</v>
+        <v/>
+      </c>
+      <c r="H433" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I433" t="b">
         <v>0</v>
+      </c>
+      <c r="J433">
+        <v>1586</v>
       </c>
       <c r="K433" t="str">
         <v>七条西町1丁目</v>
@@ -15773,13 +15785,19 @@
         <v>西ノ京町 地蔵尊</v>
       </c>
       <c r="E442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F442" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H442" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I442" t="b">
         <v>0</v>
+      </c>
+      <c r="J442">
+        <v>1562</v>
       </c>
       <c r="K442" t="str">
         <v>西ノ京町</v>
@@ -15805,59 +15823,71 @@
         <v>六条町 地蔵尊</v>
       </c>
       <c r="E443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H443" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I443" t="b">
         <v>0</v>
       </c>
+      <c r="J443">
+        <v>1570</v>
+      </c>
       <c r="K443" t="str">
         <v>六条町</v>
       </c>
       <c r="L443">
-        <v>135.7877498361933</v>
+        <v>135.7877150064575</v>
       </c>
       <c r="M443">
-        <v>34.671547857075254</v>
+        <v>34.671567486304454</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B444" t="str">
         <v>地蔵</v>
       </c>
       <c r="C444" t="str">
-        <v>地蔵辻堂</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D444" t="str">
-        <v>六条町 地蔵辻堂</v>
+        <v>五条町 地蔵尊</v>
       </c>
       <c r="E444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F444" t="str">
-        <v>Google Mapsで発見、ただし画像では確認できない</v>
+        <v/>
+      </c>
+      <c r="H444" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I444" t="b">
         <v>0</v>
       </c>
+      <c r="J444">
+        <v>1578</v>
+      </c>
       <c r="K444" t="str">
-        <v>六条町</v>
+        <v>五条町</v>
       </c>
       <c r="L444">
-        <v>135.78780451997136</v>
+        <v>135.7873716067286</v>
       </c>
       <c r="M444">
-        <v>34.67182144477959</v>
+        <v>34.67339549346808</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B445" t="str">
         <v>地蔵</v>
@@ -15869,91 +15899,109 @@
         <v>五条町 地蔵尊</v>
       </c>
       <c r="E445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F445" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H445" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I445" t="b">
         <v>0</v>
       </c>
+      <c r="J445">
+        <v>1574</v>
+      </c>
       <c r="K445" t="str">
         <v>五条町</v>
       </c>
       <c r="L445">
-        <v>135.7873716067286</v>
+        <v>135.7840951370283</v>
       </c>
       <c r="M445">
-        <v>34.67339549346808</v>
+        <v>34.67258598644996</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B446" t="str">
         <v>地蔵</v>
       </c>
       <c r="C446" t="str">
-        <v>地蔵尊</v>
+        <v>西ノ京集会所地蔵尊</v>
       </c>
       <c r="D446" t="str">
-        <v>五条町 地蔵尊</v>
+        <v>西ノ京町 西ノ京集会所地蔵尊</v>
       </c>
       <c r="E446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F446" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H446" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I446" t="b">
         <v>0</v>
       </c>
+      <c r="J446">
+        <v>1567</v>
+      </c>
       <c r="K446" t="str">
-        <v>五条町</v>
+        <v>西ノ京町</v>
       </c>
       <c r="L446">
-        <v>135.7840951370283</v>
+        <v>135.78732286940124</v>
       </c>
       <c r="M446">
-        <v>34.67258598644996</v>
+        <v>34.67078057309207</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B447" t="str">
         <v>地蔵</v>
       </c>
       <c r="C447" t="str">
-        <v>西ノ京集会所地蔵尊</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D447" t="str">
-        <v>西ノ京町 西ノ京集会所地蔵尊</v>
+        <v>杏中町 地蔵尊</v>
       </c>
       <c r="E447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447" t="str">
-        <v>Google Mapsから取得</v>
+        <v/>
+      </c>
+      <c r="H447" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I447" t="b">
         <v>0</v>
       </c>
+      <c r="J447">
+        <v>1553</v>
+      </c>
       <c r="K447" t="str">
-        <v>西ノ京町</v>
+        <v>杏町</v>
       </c>
       <c r="L447">
-        <v>135.78729413804305</v>
+        <v>135.80039773835367</v>
       </c>
       <c r="M447">
-        <v>34.67080954054164</v>
+        <v>34.661907998463526</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B448" t="str">
         <v>地蔵</v>
@@ -15962,7 +16010,7 @@
         <v>地蔵尊</v>
       </c>
       <c r="D448" t="str">
-        <v>杏中町 地蔵尊</v>
+        <v>三条大路5丁目 地蔵尊</v>
       </c>
       <c r="E448" t="b">
         <v>1</v>
@@ -15971,36 +16019,36 @@
         <v/>
       </c>
       <c r="H448" t="str">
-        <v>2022-06-16</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I448" t="b">
         <v>0</v>
       </c>
       <c r="J448">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="K448" t="str">
-        <v>杏町</v>
+        <v>三条大路5丁目</v>
       </c>
       <c r="L448">
-        <v>135.80039773835367</v>
+        <v>135.78753231672317</v>
       </c>
       <c r="M448">
-        <v>34.661907998463526</v>
+        <v>34.68308197155774</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B449" t="str">
         <v>地蔵</v>
       </c>
       <c r="C449" t="str">
-        <v>地蔵尊</v>
+        <v>出屋敷地蔵尊</v>
       </c>
       <c r="D449" t="str">
-        <v>三条大路5丁目 地蔵尊</v>
+        <v>四条大路3丁目 出屋敷地蔵尊</v>
       </c>
       <c r="E449" t="b">
         <v>1</v>
@@ -16015,30 +16063,30 @@
         <v>0</v>
       </c>
       <c r="J449">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="K449" t="str">
-        <v>三条大路5丁目</v>
+        <v>四条大路3丁目</v>
       </c>
       <c r="L449">
-        <v>135.78753231672317</v>
+        <v>135.79625544216785</v>
       </c>
       <c r="M449">
-        <v>34.68308197155774</v>
+        <v>34.68164189535085</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B450" t="str">
         <v>地蔵</v>
       </c>
       <c r="C450" t="str">
-        <v>出屋敷地蔵尊</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D450" t="str">
-        <v>四条大路3丁目 出屋敷地蔵尊</v>
+        <v>大和田町 地蔵尊</v>
       </c>
       <c r="E450" t="b">
         <v>1</v>
@@ -16047,68 +16095,74 @@
         <v/>
       </c>
       <c r="H450" t="str">
-        <v>2022-06-15</v>
+        <v>2022-06-16</v>
       </c>
       <c r="I450" t="b">
         <v>0</v>
       </c>
       <c r="J450">
-        <v>1539</v>
+        <v>1590</v>
       </c>
       <c r="K450" t="str">
-        <v>四条大路3丁目</v>
+        <v>大和田町</v>
       </c>
       <c r="L450">
-        <v>135.79625544216785</v>
+        <v>135.7586166745784</v>
       </c>
       <c r="M450">
-        <v>34.68164189535085</v>
+        <v>34.659953984494265</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B451" t="str">
         <v>地蔵</v>
       </c>
       <c r="C451" t="str">
-        <v>地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D451" t="str">
-        <v>大和田町 地蔵尊</v>
+        <v>中町 地蔵堂</v>
       </c>
       <c r="E451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H451" t="str">
+        <v>2022-06-16</v>
       </c>
       <c r="I451" t="b">
         <v>0</v>
       </c>
+      <c r="J451">
+        <v>1599</v>
+      </c>
       <c r="K451" t="str">
-        <v>大和田町</v>
+        <v>中町</v>
       </c>
       <c r="L451">
-        <v>135.7586166745784</v>
+        <v>135.7480696736393</v>
       </c>
       <c r="M451">
-        <v>34.659953984494265</v>
+        <v>34.67707513201993</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B452" t="str">
         <v>地蔵</v>
       </c>
       <c r="C452" t="str">
-        <v>地蔵尊</v>
+        <v>下條地蔵塚</v>
       </c>
       <c r="D452" t="str">
-        <v>中町 地蔵尊</v>
+        <v>三碓4丁目 下條地蔵塚</v>
       </c>
       <c r="E452" t="b">
         <v>0</v>
@@ -16120,59 +16174,62 @@
         <v>0</v>
       </c>
       <c r="K452" t="str">
-        <v>中町</v>
+        <v>三碓4丁目</v>
       </c>
       <c r="L452">
-        <v>135.7480696736393</v>
+        <v>135.73843392898206</v>
       </c>
       <c r="M452">
-        <v>34.67707513201993</v>
+        <v>34.687342182418725</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B453" t="str">
         <v>地蔵</v>
       </c>
       <c r="C453" t="str">
-        <v>下條地蔵塚</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D453" t="str">
-        <v>三碓4丁目 下條地蔵塚</v>
+        <v>大宮町2丁目 地蔵尊</v>
       </c>
       <c r="E453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F453" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H453" t="str">
+        <v>2018-10-19</v>
       </c>
       <c r="I453" t="b">
         <v>0</v>
       </c>
       <c r="K453" t="str">
-        <v>三碓4丁目</v>
+        <v>大宮町2丁目</v>
       </c>
       <c r="L453">
-        <v>135.73843392898206</v>
+        <v>135.81665440510173</v>
       </c>
       <c r="M453">
-        <v>34.687342182418725</v>
+        <v>34.68318035886338</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B454" t="str">
         <v>地蔵</v>
       </c>
       <c r="C454" t="str">
-        <v>地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D454" t="str">
-        <v>大宮町2丁目 地蔵尊</v>
+        <v>山陵町 地蔵堂</v>
       </c>
       <c r="E454" t="b">
         <v>1</v>
@@ -16181,33 +16238,36 @@
         <v/>
       </c>
       <c r="H454" t="str">
-        <v>2018-10-19</v>
+        <v>2021-03-19</v>
       </c>
       <c r="I454" t="b">
         <v>0</v>
       </c>
+      <c r="J454">
+        <v>1320</v>
+      </c>
       <c r="K454" t="str">
-        <v>大宮町2丁目</v>
+        <v>山陵町</v>
       </c>
       <c r="L454">
-        <v>135.81665440510173</v>
+        <v>135.78704576250942</v>
       </c>
       <c r="M454">
-        <v>34.68318035886338</v>
+        <v>34.70185413678643</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B455" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C455" t="str">
-        <v>地蔵堂</v>
+        <v>大社大神</v>
       </c>
       <c r="D455" t="str">
-        <v>山陵町 地蔵堂</v>
+        <v>山陵町 大社大神</v>
       </c>
       <c r="E455" t="b">
         <v>1</v>
@@ -16222,30 +16282,30 @@
         <v>0</v>
       </c>
       <c r="J455">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="K455" t="str">
         <v>山陵町</v>
       </c>
       <c r="L455">
-        <v>135.78704576250942</v>
+        <v>135.78800013817354</v>
       </c>
       <c r="M455">
-        <v>34.70185413678643</v>
+        <v>34.702049502958765</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B456" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C456" t="str">
-        <v>大社大神</v>
+        <v>地蔵堂 地蔵菩薩立像</v>
       </c>
       <c r="D456" t="str">
-        <v>山陵町 大社大神</v>
+        <v>法華寺町 地蔵堂 地蔵菩薩立像</v>
       </c>
       <c r="E456" t="b">
         <v>1</v>
@@ -16254,74 +16314,68 @@
         <v/>
       </c>
       <c r="H456" t="str">
-        <v>2021-03-19</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I456" t="b">
         <v>0</v>
       </c>
       <c r="J456">
-        <v>1330</v>
+        <v>1511</v>
       </c>
       <c r="K456" t="str">
-        <v>山陵町</v>
+        <v>法華寺町</v>
       </c>
       <c r="L456">
-        <v>135.78800013817354</v>
+        <v>135.8059243863396</v>
       </c>
       <c r="M456">
-        <v>34.702049502958765</v>
+        <v>34.69471350177452</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B457" t="str">
         <v>地蔵</v>
       </c>
       <c r="C457" t="str">
-        <v>地蔵堂 地蔵菩薩立像</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D457" t="str">
-        <v>法華寺町 地蔵堂 地蔵菩薩立像</v>
+        <v>あやめ池南3丁目 地蔵尊</v>
       </c>
       <c r="E457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457" t="str">
-        <v/>
-      </c>
-      <c r="H457" t="str">
-        <v>2022-06-15</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I457" t="b">
         <v>0</v>
       </c>
-      <c r="J457">
-        <v>1511</v>
-      </c>
       <c r="K457" t="str">
-        <v>法華寺町</v>
+        <v>あやめ池南3丁目</v>
       </c>
       <c r="L457">
-        <v>135.8059243863396</v>
+        <v>135.7691100158412</v>
       </c>
       <c r="M457">
-        <v>34.69471350177452</v>
+        <v>34.69641836074256</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B458" t="str">
         <v>地蔵</v>
       </c>
       <c r="C458" t="str">
-        <v>地蔵尊</v>
+        <v>鷹塚山地蔵尊</v>
       </c>
       <c r="D458" t="str">
-        <v>あやめ池南3丁目 地蔵尊</v>
+        <v>西大寺高塚町 鷹塚山地蔵尊</v>
       </c>
       <c r="E458" t="b">
         <v>0</v>
@@ -16333,59 +16387,65 @@
         <v>0</v>
       </c>
       <c r="K458" t="str">
-        <v>あやめ池南3丁目</v>
+        <v>西大寺高塚町</v>
       </c>
       <c r="L458">
-        <v>135.7691100158412</v>
+        <v>135.7674369838035</v>
       </c>
       <c r="M458">
-        <v>34.69641836074256</v>
+        <v>34.695477698908206</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B459" t="str">
         <v>地蔵</v>
       </c>
       <c r="C459" t="str">
-        <v>鷹塚山地蔵尊</v>
+        <v>歌姫街道地蔵堂</v>
       </c>
       <c r="D459" t="str">
-        <v>西大寺高塚町 鷹塚山地蔵尊</v>
+        <v>佐紀町 歌姫街道地蔵堂</v>
       </c>
       <c r="E459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F459" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H459" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I459" t="b">
         <v>0</v>
       </c>
+      <c r="J459">
+        <v>1345</v>
+      </c>
       <c r="K459" t="str">
-        <v>西大寺高塚町</v>
+        <v>佐紀町</v>
       </c>
       <c r="L459">
-        <v>135.7674369838035</v>
+        <v>135.79547608087577</v>
       </c>
       <c r="M459">
-        <v>34.695477698908206</v>
+        <v>34.69978228165415</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B460" t="str">
         <v>地蔵</v>
       </c>
       <c r="C460" t="str">
-        <v>歌姫街道地蔵堂</v>
+        <v>地蔵群</v>
       </c>
       <c r="D460" t="str">
-        <v>佐紀町 歌姫街道地蔵堂</v>
+        <v>佐紀町 地蔵群</v>
       </c>
       <c r="E460" t="b">
         <v>1</v>
@@ -16394,36 +16454,36 @@
         <v/>
       </c>
       <c r="H460" t="str">
-        <v>2021-03-19</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I460" t="b">
         <v>0</v>
       </c>
       <c r="J460">
-        <v>1345</v>
+        <v>1525</v>
       </c>
       <c r="K460" t="str">
         <v>佐紀町</v>
       </c>
       <c r="L460">
-        <v>135.79547608087577</v>
+        <v>135.79801978856352</v>
       </c>
       <c r="M460">
-        <v>34.69978228165415</v>
+        <v>34.6999919345103</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B461" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C461" t="str">
-        <v>地蔵群</v>
+        <v>天白大神</v>
       </c>
       <c r="D461" t="str">
-        <v>佐紀町 地蔵群</v>
+        <v>佐紀町 天白大神</v>
       </c>
       <c r="E461" t="b">
         <v>1</v>
@@ -16432,106 +16492,106 @@
         <v/>
       </c>
       <c r="H461" t="str">
-        <v>2022-06-15</v>
+        <v>2017-05-02</v>
       </c>
       <c r="I461" t="b">
         <v>0</v>
       </c>
       <c r="J461">
-        <v>1525</v>
+        <v>1338</v>
       </c>
       <c r="K461" t="str">
         <v>佐紀町</v>
       </c>
       <c r="L461">
-        <v>135.79801978856352</v>
+        <v>135.7955824420191</v>
       </c>
       <c r="M461">
-        <v>34.6999919345103</v>
+        <v>34.701995934860626</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B462" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C462" t="str">
-        <v>天白大神</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D462" t="str">
-        <v>佐紀町 天白大神</v>
+        <v>中町 地蔵尊</v>
       </c>
       <c r="E462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F462" t="str">
-        <v/>
-      </c>
-      <c r="H462" t="str">
-        <v>2017-05-02</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I462" t="b">
         <v>0</v>
       </c>
-      <c r="J462">
-        <v>1338</v>
-      </c>
       <c r="K462" t="str">
-        <v>佐紀町</v>
+        <v>中町</v>
       </c>
       <c r="L462">
-        <v>135.7955824420191</v>
+        <v>135.74233671219463</v>
       </c>
       <c r="M462">
-        <v>34.701995934860626</v>
+        <v>34.674504624380795</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B463" t="str">
         <v>地蔵</v>
       </c>
       <c r="C463" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵尊</v>
       </c>
       <c r="D463" t="str">
-        <v>中町 地蔵尊</v>
+        <v>法華寺町 六地蔵尊</v>
       </c>
       <c r="E463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H463" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I463" t="b">
         <v>0</v>
       </c>
+      <c r="J463">
+        <v>1515</v>
+      </c>
       <c r="K463" t="str">
-        <v>中町</v>
+        <v>法華寺町</v>
       </c>
       <c r="L463">
-        <v>135.74233671219463</v>
+        <v>135.80467200783224</v>
       </c>
       <c r="M463">
-        <v>34.674504624380795</v>
+        <v>34.69936869219372</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B464" t="str">
         <v>地蔵</v>
       </c>
       <c r="C464" t="str">
-        <v>六地蔵尊</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D464" t="str">
-        <v>法華寺町 六地蔵尊</v>
+        <v>佐紀町 地蔵尊</v>
       </c>
       <c r="E464" t="b">
         <v>1</v>
@@ -16546,21 +16606,21 @@
         <v>0</v>
       </c>
       <c r="J464">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="K464" t="str">
-        <v>法華寺町</v>
+        <v>佐紀町</v>
       </c>
       <c r="L464">
-        <v>135.80467200783224</v>
+        <v>135.80178205100182</v>
       </c>
       <c r="M464">
-        <v>34.69936869219372</v>
+        <v>34.70244417273023</v>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B465" t="str">
         <v>地蔵</v>
@@ -16569,36 +16629,30 @@
         <v>地蔵尊</v>
       </c>
       <c r="D465" t="str">
-        <v>佐紀町 地蔵尊</v>
+        <v>今市町 地蔵尊</v>
       </c>
       <c r="E465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="str">
-        <v/>
-      </c>
-      <c r="H465" t="str">
-        <v>2022-06-15</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I465" t="b">
         <v>0</v>
       </c>
-      <c r="J465">
-        <v>1520</v>
-      </c>
       <c r="K465" t="str">
-        <v>佐紀町</v>
+        <v>今市町</v>
       </c>
       <c r="L465">
-        <v>135.80178205100182</v>
+        <v>135.82706150759947</v>
       </c>
       <c r="M465">
-        <v>34.70244417273023</v>
+        <v>34.64260856643526</v>
       </c>
     </row>
     <row r="466">
       <c r="A466">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B466" t="str">
         <v>地蔵</v>
@@ -16607,109 +16661,115 @@
         <v>地蔵尊</v>
       </c>
       <c r="D466" t="str">
-        <v>今市町 地蔵尊</v>
+        <v>大宮町1丁目 地蔵尊</v>
       </c>
       <c r="E466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H466" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I466" t="b">
         <v>0</v>
       </c>
+      <c r="J466">
+        <v>1375</v>
+      </c>
       <c r="K466" t="str">
-        <v>今市町</v>
+        <v>大宮町1丁目</v>
       </c>
       <c r="L466">
-        <v>135.82706150759947</v>
+        <v>135.81901638904898</v>
       </c>
       <c r="M466">
-        <v>34.64260856643526</v>
+        <v>34.68440481712454</v>
       </c>
     </row>
     <row r="467">
       <c r="A467">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B467" t="str">
         <v>地蔵</v>
       </c>
       <c r="C467" t="str">
-        <v>地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D467" t="str">
-        <v>大宮町1丁目 地蔵尊</v>
+        <v>大安寺4丁目 地蔵堂</v>
       </c>
       <c r="E467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F467" t="str">
-        <v/>
-      </c>
-      <c r="H467" t="str">
-        <v>2022-06-15</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I467" t="b">
         <v>0</v>
       </c>
-      <c r="J467">
-        <v>1375</v>
-      </c>
       <c r="K467" t="str">
-        <v>大宮町1丁目</v>
+        <v>大安寺4丁目</v>
       </c>
       <c r="L467">
-        <v>135.81901638904898</v>
+        <v>135.81344632304942</v>
       </c>
       <c r="M467">
-        <v>34.68440481712454</v>
+        <v>34.66992053831136</v>
       </c>
     </row>
     <row r="468">
       <c r="A468">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B468" t="str">
         <v>地蔵</v>
       </c>
       <c r="C468" t="str">
-        <v>地蔵堂</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D468" t="str">
-        <v>大安寺4丁目 地蔵堂</v>
+        <v>北向町 地蔵尊 駐車場の石築地に埋め込み 2020年のGoogle StreetViewには映っているが、率川神社駐車場整備前はなかった記憶</v>
       </c>
       <c r="E468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H468" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I468" t="b">
         <v>0</v>
       </c>
+      <c r="J468">
+        <v>1457</v>
+      </c>
       <c r="K468" t="str">
-        <v>大安寺4丁目</v>
+        <v>北向町</v>
       </c>
       <c r="L468">
-        <v>135.81344632304942</v>
+        <v>135.82525432637186</v>
       </c>
       <c r="M468">
-        <v>34.66992053831136</v>
+        <v>34.68114979839744</v>
       </c>
     </row>
     <row r="469">
       <c r="A469">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B469" t="str">
         <v>地蔵</v>
       </c>
       <c r="C469" t="str">
-        <v>地蔵尊</v>
+        <v>千体地蔵菩薩尊</v>
       </c>
       <c r="D469" t="str">
-        <v>北向町 地蔵尊 駐車場の石築地に埋め込み 2020年のGoogle StreetViewには映っているが、率川神社駐車場整備前はなかった記憶</v>
+        <v>餅飯殿町 千体地蔵菩薩尊</v>
       </c>
       <c r="E469" t="b">
         <v>1</v>
@@ -16718,74 +16778,68 @@
         <v/>
       </c>
       <c r="H469" t="str">
-        <v>2022-06-15</v>
+        <v>2021-07-23</v>
       </c>
       <c r="I469" t="b">
         <v>0</v>
       </c>
       <c r="J469">
-        <v>1457</v>
+        <v>1381</v>
       </c>
       <c r="K469" t="str">
-        <v>北向町</v>
+        <v>餅飯殿町</v>
       </c>
       <c r="L469">
-        <v>135.82525432637186</v>
+        <v>135.82873645605403</v>
       </c>
       <c r="M469">
-        <v>34.68114979839744</v>
+        <v>34.6805651264303</v>
       </c>
     </row>
     <row r="470">
       <c r="A470">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B470" t="str">
         <v>地蔵</v>
       </c>
       <c r="C470" t="str">
-        <v>千体地蔵菩薩尊</v>
+        <v>首切地蔵</v>
       </c>
       <c r="D470" t="str">
-        <v>餅飯殿町 千体地蔵菩薩尊</v>
+        <v>百毫寺町 首切地蔵</v>
       </c>
       <c r="E470" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F470" t="str">
-        <v/>
-      </c>
-      <c r="H470" t="str">
-        <v>2021-07-23</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I470" t="b">
         <v>0</v>
       </c>
-      <c r="J470">
-        <v>1381</v>
-      </c>
       <c r="K470" t="str">
-        <v>餅飯殿町</v>
+        <v>百毫寺町</v>
       </c>
       <c r="L470">
-        <v>135.82873645605403</v>
+        <v>135.8713431969235</v>
       </c>
       <c r="M470">
-        <v>34.6805651264303</v>
+        <v>34.67454087366348</v>
       </c>
     </row>
     <row r="471">
       <c r="A471">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B471" t="str">
         <v>地蔵</v>
       </c>
       <c r="C471" t="str">
-        <v>首切地蔵</v>
+        <v>向山地蔵</v>
       </c>
       <c r="D471" t="str">
-        <v>百毫寺町 首切地蔵</v>
+        <v>山町 向山地蔵</v>
       </c>
       <c r="E471" t="b">
         <v>0</v>
@@ -16797,27 +16851,27 @@
         <v>0</v>
       </c>
       <c r="K471" t="str">
-        <v>百毫寺町</v>
+        <v>山町</v>
       </c>
       <c r="L471">
-        <v>135.8713431969235</v>
+        <v>135.84342483412183</v>
       </c>
       <c r="M471">
-        <v>34.67454087366348</v>
+        <v>34.645126458732314</v>
       </c>
     </row>
     <row r="472">
       <c r="A472">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B472" t="str">
         <v>地蔵</v>
       </c>
       <c r="C472" t="str">
-        <v>向山地蔵</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D472" t="str">
-        <v>山町 向山地蔵</v>
+        <v>山町 地蔵尊</v>
       </c>
       <c r="E472" t="b">
         <v>0</v>
@@ -16832,15 +16886,15 @@
         <v>山町</v>
       </c>
       <c r="L472">
-        <v>135.84342483412183</v>
+        <v>135.84810089159274</v>
       </c>
       <c r="M472">
-        <v>34.645126458732314</v>
+        <v>34.642499776629144</v>
       </c>
     </row>
     <row r="473">
       <c r="A473">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B473" t="str">
         <v>地蔵</v>
@@ -16849,7 +16903,7 @@
         <v>地蔵尊</v>
       </c>
       <c r="D473" t="str">
-        <v>山町 地蔵尊</v>
+        <v>学園大和町5丁目 地蔵尊</v>
       </c>
       <c r="E473" t="b">
         <v>0</v>
@@ -16861,18 +16915,18 @@
         <v>0</v>
       </c>
       <c r="K473" t="str">
-        <v>山町</v>
+        <v>学園大和町5丁目</v>
       </c>
       <c r="L473">
-        <v>135.84810089159274</v>
+        <v>135.73818479477163</v>
       </c>
       <c r="M473">
-        <v>34.642499776629144</v>
+        <v>34.68934028765981</v>
       </c>
     </row>
     <row r="474">
       <c r="A474">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B474" t="str">
         <v>地蔵</v>
@@ -16881,30 +16935,36 @@
         <v>地蔵尊</v>
       </c>
       <c r="D474" t="str">
-        <v>学園大和町5丁目 地蔵尊</v>
+        <v>佐紀町 地蔵尊</v>
       </c>
       <c r="E474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F474" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H474" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="I474" t="b">
         <v>0</v>
       </c>
+      <c r="J474">
+        <v>1335</v>
+      </c>
       <c r="K474" t="str">
-        <v>学園大和町5丁目</v>
+        <v>佐紀町</v>
       </c>
       <c r="L474">
-        <v>135.73818479477163</v>
+        <v>135.79117180830144</v>
       </c>
       <c r="M474">
-        <v>34.68934028765981</v>
+        <v>34.69493724682034</v>
       </c>
     </row>
     <row r="475">
       <c r="A475">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B475" t="str">
         <v>地蔵</v>
@@ -16913,7 +16973,7 @@
         <v>地蔵尊</v>
       </c>
       <c r="D475" t="str">
-        <v>佐紀町 地蔵尊</v>
+        <v>南袋町 地蔵尊</v>
       </c>
       <c r="E475" t="b">
         <v>1</v>
@@ -16922,176 +16982,173 @@
         <v/>
       </c>
       <c r="H475" t="str">
-        <v>2021-03-19</v>
+        <v>2022-06-15</v>
       </c>
       <c r="I475" t="b">
         <v>0</v>
       </c>
       <c r="J475">
-        <v>1335</v>
+        <v>1468</v>
       </c>
       <c r="K475" t="str">
-        <v>佐紀町</v>
+        <v>南袋町</v>
       </c>
       <c r="L475">
-        <v>135.79117180830144</v>
+        <v>135.82675008983713</v>
       </c>
       <c r="M475">
-        <v>34.69493724682034</v>
+        <v>34.67712714024114</v>
       </c>
     </row>
     <row r="476">
       <c r="A476">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B476" t="str">
         <v>地蔵</v>
       </c>
       <c r="C476" t="str">
-        <v>地蔵尊</v>
+        <v>なくなった？地蔵</v>
       </c>
       <c r="D476" t="str">
-        <v>南袋町 地蔵尊</v>
+        <v>雑司町 なくなった？地蔵</v>
       </c>
       <c r="E476" t="b">
+        <v>0</v>
+      </c>
+      <c r="F476" t="str">
+        <v>Google Mapsで発見したが、2021年ごろより見当たらない</v>
+      </c>
+      <c r="I476" t="b">
         <v>1</v>
       </c>
-      <c r="F476" t="str">
-        <v/>
-      </c>
-      <c r="H476" t="str">
-        <v>2022-06-15</v>
-      </c>
-      <c r="I476" t="b">
-        <v>0</v>
-      </c>
-      <c r="J476">
-        <v>1468</v>
-      </c>
       <c r="K476" t="str">
-        <v>南袋町</v>
+        <v>雑司町</v>
       </c>
       <c r="L476">
-        <v>135.82675008983713</v>
+        <v>135.83564897215922</v>
       </c>
       <c r="M476">
-        <v>34.67712714024114</v>
+        <v>34.693311142287115</v>
       </c>
     </row>
     <row r="477">
       <c r="A477">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B477" t="str">
         <v>地蔵</v>
       </c>
       <c r="C477" t="str">
-        <v>なくなった？地蔵</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D477" t="str">
-        <v>雑司町 なくなった？地蔵</v>
+        <v>山町 地蔵尊</v>
       </c>
       <c r="E477" t="b">
         <v>0</v>
       </c>
       <c r="F477" t="str">
-        <v>Google Mapsで発見したが、2021年ごろより見当たらない</v>
+        <v>Google Mapsで発見</v>
       </c>
       <c r="I477" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K477" t="str">
-        <v>雑司町</v>
+        <v>山町</v>
       </c>
       <c r="L477">
-        <v>135.83564897215922</v>
+        <v>135.82826501747246</v>
       </c>
       <c r="M477">
-        <v>34.693311142287115</v>
+        <v>34.64351041266476</v>
       </c>
     </row>
     <row r="478">
       <c r="A478">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B478" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C478" t="str">
-        <v>地蔵尊</v>
+        <v>浮彫五輪塔、六字名号等</v>
       </c>
       <c r="D478" t="str">
-        <v>山町 地蔵尊</v>
+        <v>南魚屋町 浮彫五輪塔、六字名号等</v>
       </c>
       <c r="E478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F478" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
+      </c>
+      <c r="H478" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I478" t="b">
         <v>0</v>
       </c>
+      <c r="J478">
+        <v>1465</v>
+      </c>
       <c r="K478" t="str">
-        <v>山町</v>
+        <v>南魚屋町</v>
       </c>
       <c r="L478">
-        <v>135.82826501747246</v>
+        <v>135.82502339812325</v>
       </c>
       <c r="M478">
-        <v>34.64351041266476</v>
+        <v>34.678473826600865</v>
       </c>
     </row>
     <row r="479">
       <c r="A479">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B479" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C479" t="str">
-        <v>浮彫五輪塔、六字名号等</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D479" t="str">
-        <v>南魚屋町 浮彫五輪塔、六字名号等</v>
+        <v>西大寺野神町1丁目 地蔵堂</v>
       </c>
       <c r="E479" t="b">
         <v>1</v>
       </c>
-      <c r="F479" t="str">
-        <v/>
-      </c>
       <c r="H479" t="str">
-        <v>2022-06-15</v>
+        <v>2017-05-01</v>
       </c>
       <c r="I479" t="b">
         <v>0</v>
       </c>
       <c r="J479">
-        <v>1465</v>
+        <v>1295</v>
       </c>
       <c r="K479" t="str">
-        <v>南魚屋町</v>
+        <v>西大寺野神町1丁目</v>
       </c>
       <c r="L479">
-        <v>135.82502339812325</v>
+        <v>135.77489281786012</v>
       </c>
       <c r="M479">
-        <v>34.678473826600865</v>
+        <v>34.69408280776752</v>
       </c>
     </row>
     <row r="480">
       <c r="A480">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B480" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C480" t="str">
-        <v>地蔵堂</v>
+        <v>石塚と功労者記念碑</v>
       </c>
       <c r="D480" t="str">
-        <v>西大寺野神町1丁目 地蔵堂</v>
+        <v>西大寺野神町1丁目 石塚と功労者記念碑</v>
       </c>
       <c r="E480" t="b">
         <v>1</v>
@@ -17103,34 +17160,37 @@
         <v>0</v>
       </c>
       <c r="J480">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="K480" t="str">
         <v>西大寺野神町1丁目</v>
       </c>
       <c r="L480">
-        <v>135.77489281786012</v>
+        <v>135.77450653575954</v>
       </c>
       <c r="M480">
-        <v>34.69408280776752</v>
+        <v>34.69417354497826</v>
       </c>
     </row>
     <row r="481">
       <c r="A481">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B481" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C481" t="str">
-        <v>石塚と功労者記念碑</v>
+        <v>石碑群 詳細は不明</v>
       </c>
       <c r="D481" t="str">
-        <v>西大寺野神町1丁目 石塚と功労者記念碑</v>
+        <v>西大寺新池町</v>
       </c>
       <c r="E481" t="b">
         <v>1</v>
       </c>
+      <c r="F481" t="str">
+        <v>詳細について調査必要</v>
+      </c>
       <c r="H481" t="str">
         <v>2017-05-01</v>
       </c>
@@ -17138,138 +17198,135 @@
         <v>0</v>
       </c>
       <c r="J481">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K481" t="str">
-        <v>西大寺野神町1丁目</v>
+        <v>西大寺新池町</v>
       </c>
       <c r="L481">
-        <v>135.77450653575954</v>
+        <v>135.7739954749431</v>
       </c>
       <c r="M481">
-        <v>34.69417354497826</v>
+        <v>34.69470372244383</v>
       </c>
     </row>
     <row r="482">
       <c r="A482">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B482" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C482" t="str">
-        <v>石碑群 詳細は不明</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D482" t="str">
-        <v>西大寺新池町</v>
+        <v>西大寺新田町 地蔵堂</v>
       </c>
       <c r="E482" t="b">
         <v>1</v>
       </c>
-      <c r="F482" t="str">
-        <v>詳細について調査必要</v>
-      </c>
       <c r="H482" t="str">
-        <v>2017-05-01</v>
+        <v>2017-06-17</v>
       </c>
       <c r="I482" t="b">
         <v>0</v>
       </c>
       <c r="J482">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="K482" t="str">
-        <v>西大寺新池町</v>
+        <v>西大寺新田町</v>
       </c>
       <c r="L482">
-        <v>135.7739954749431</v>
+        <v>135.7783412068523</v>
       </c>
       <c r="M482">
-        <v>34.69470372244383</v>
+        <v>34.694895487924754</v>
       </c>
     </row>
     <row r="483">
       <c r="A483">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B483" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C483" t="str">
-        <v>地蔵堂</v>
+        <v>小祠</v>
       </c>
       <c r="D483" t="str">
-        <v>西大寺新田町 地蔵堂</v>
+        <v>西大寺小坊町 小祠</v>
       </c>
       <c r="E483" t="b">
         <v>1</v>
       </c>
       <c r="H483" t="str">
-        <v>2017-06-17</v>
+        <v>2017-05-04</v>
       </c>
       <c r="I483" t="b">
         <v>0</v>
       </c>
       <c r="J483">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="K483" t="str">
-        <v>西大寺新田町</v>
+        <v>西大寺小坊町</v>
       </c>
       <c r="L483">
-        <v>135.7783412068523</v>
+        <v>135.77974062170549</v>
       </c>
       <c r="M483">
-        <v>34.694895487924754</v>
+        <v>34.695052002068856</v>
       </c>
     </row>
     <row r="484">
       <c r="A484">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B484" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C484" t="str">
-        <v>小祠</v>
+        <v>観世音菩薩堂</v>
       </c>
       <c r="D484" t="str">
-        <v>西大寺小坊町 小祠</v>
+        <v>青野町1丁目 観世音菩薩堂</v>
       </c>
       <c r="E484" t="b">
         <v>1</v>
       </c>
       <c r="H484" t="str">
-        <v>2017-05-04</v>
+        <v>2017-05-01</v>
       </c>
       <c r="I484" t="b">
         <v>0</v>
       </c>
       <c r="J484">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="K484" t="str">
-        <v>西大寺小坊町</v>
+        <v>青野町1丁目</v>
       </c>
       <c r="L484">
-        <v>135.77974062170549</v>
+        <v>135.77736024447975</v>
       </c>
       <c r="M484">
-        <v>34.695052002068856</v>
+        <v>34.6900208407046</v>
       </c>
     </row>
     <row r="485">
       <c r="A485">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B485" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C485" t="str">
-        <v>観世音菩薩堂</v>
+        <v>地蔵群の地蔵堂</v>
       </c>
       <c r="D485" t="str">
-        <v>青野町1丁目 観世音菩薩堂</v>
+        <v>青野町1丁目 地蔵群の地蔵堂</v>
       </c>
       <c r="E485" t="b">
         <v>1</v>
@@ -17281,30 +17338,30 @@
         <v>0</v>
       </c>
       <c r="J485">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="K485" t="str">
         <v>青野町1丁目</v>
       </c>
       <c r="L485">
-        <v>135.77736024447975</v>
+        <v>135.77737739417154</v>
       </c>
       <c r="M485">
-        <v>34.6900208407046</v>
+        <v>34.69006737470808</v>
       </c>
     </row>
     <row r="486">
       <c r="A486">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B486" t="str">
         <v>地蔵</v>
       </c>
       <c r="C486" t="str">
-        <v>地蔵群の地蔵堂</v>
+        <v>丸彫坐像地蔵の地蔵堂</v>
       </c>
       <c r="D486" t="str">
-        <v>青野町1丁目 地蔵群の地蔵堂</v>
+        <v>青野町1丁目 丸彫坐像地蔵の地蔵堂</v>
       </c>
       <c r="E486" t="b">
         <v>1</v>
@@ -17316,91 +17373,91 @@
         <v>0</v>
       </c>
       <c r="J486">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="K486" t="str">
         <v>青野町1丁目</v>
       </c>
       <c r="L486">
-        <v>135.77737739417154</v>
+        <v>135.77732594509607</v>
       </c>
       <c r="M486">
-        <v>34.69006737470808</v>
+        <v>34.69005891398212</v>
       </c>
     </row>
     <row r="487">
       <c r="A487">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B487" t="str">
         <v>地蔵</v>
       </c>
       <c r="C487" t="str">
-        <v>丸彫坐像地蔵の地蔵堂</v>
+        <v>三和地蔵尊</v>
       </c>
       <c r="D487" t="str">
-        <v>青野町1丁目 丸彫坐像地蔵の地蔵堂</v>
+        <v>秋篠三和町 三和地蔵尊</v>
       </c>
       <c r="E487" t="b">
         <v>1</v>
       </c>
       <c r="H487" t="str">
-        <v>2017-05-01</v>
+        <v>2017-05-02</v>
       </c>
       <c r="I487" t="b">
         <v>0</v>
       </c>
       <c r="J487">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="K487" t="str">
-        <v>青野町1丁目</v>
+        <v>秋篠三和町</v>
       </c>
       <c r="L487">
-        <v>135.77732594509607</v>
+        <v>135.77761062998042</v>
       </c>
       <c r="M487">
-        <v>34.69005891398212</v>
+        <v>34.69968666062181</v>
       </c>
     </row>
     <row r="488">
       <c r="A488">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B488" t="str">
         <v>地蔵</v>
       </c>
       <c r="C488" t="str">
-        <v>三和地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D488" t="str">
-        <v>秋篠三和町 三和地蔵尊</v>
+        <v>山陵町 地蔵堂</v>
       </c>
       <c r="E488" t="b">
         <v>1</v>
       </c>
       <c r="H488" t="str">
-        <v>2017-05-02</v>
+        <v>2020-08-10</v>
       </c>
       <c r="I488" t="b">
         <v>0</v>
       </c>
       <c r="J488">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="K488" t="str">
-        <v>秋篠三和町</v>
+        <v>山陵町</v>
       </c>
       <c r="L488">
-        <v>135.77761062998042</v>
+        <v>135.78454939529408</v>
       </c>
       <c r="M488">
-        <v>34.69968666062181</v>
+        <v>34.6997106298879</v>
       </c>
     </row>
     <row r="489">
       <c r="A489">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B489" t="str">
         <v>地蔵</v>
@@ -17409,147 +17466,147 @@
         <v>地蔵堂</v>
       </c>
       <c r="D489" t="str">
-        <v>山陵町 地蔵堂</v>
+        <v>佐紀町 地蔵堂</v>
       </c>
       <c r="E489" t="b">
         <v>1</v>
       </c>
       <c r="H489" t="str">
-        <v>2020-08-10</v>
+        <v>2021-03-19</v>
       </c>
       <c r="I489" t="b">
         <v>0</v>
       </c>
       <c r="J489">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="K489" t="str">
-        <v>山陵町</v>
+        <v>佐紀町</v>
       </c>
       <c r="L489">
-        <v>135.78454939529408</v>
+        <v>135.79069241490686</v>
       </c>
       <c r="M489">
-        <v>34.6997106298879</v>
+        <v>34.696346404994955</v>
       </c>
     </row>
     <row r="490">
       <c r="A490">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B490" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C490" t="str">
-        <v>地蔵堂</v>
+        <v>愛宕神社</v>
       </c>
       <c r="D490" t="str">
-        <v>佐紀町 地蔵堂</v>
+        <v>佐紀町 愛宕神社</v>
       </c>
       <c r="E490" t="b">
         <v>1</v>
       </c>
       <c r="H490" t="str">
-        <v>2021-03-19</v>
+        <v>2017-05-02</v>
       </c>
       <c r="I490" t="b">
         <v>0</v>
       </c>
       <c r="J490">
-        <v>1332</v>
+        <v>1357</v>
       </c>
       <c r="K490" t="str">
         <v>佐紀町</v>
       </c>
       <c r="L490">
-        <v>135.79069241490686</v>
+        <v>135.79578671668125</v>
       </c>
       <c r="M490">
-        <v>34.696346404994955</v>
+        <v>34.69575911853237</v>
       </c>
     </row>
     <row r="491">
       <c r="A491">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B491" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C491" t="str">
-        <v>愛宕神社</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D491" t="str">
-        <v>佐紀町 愛宕神社</v>
+        <v>秋篠町 地蔵堂</v>
       </c>
       <c r="E491" t="b">
         <v>1</v>
       </c>
       <c r="H491" t="str">
-        <v>2017-05-02</v>
+        <v>2020-08-10</v>
       </c>
       <c r="I491" t="b">
         <v>0</v>
       </c>
       <c r="J491">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="K491" t="str">
-        <v>佐紀町</v>
+        <v>秋篠町</v>
       </c>
       <c r="L491">
-        <v>135.79578671668125</v>
+        <v>135.77991116329272</v>
       </c>
       <c r="M491">
-        <v>34.69575911853237</v>
+        <v>34.70593905167548</v>
       </c>
     </row>
     <row r="492">
       <c r="A492">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B492" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C492" t="str">
-        <v>地蔵堂</v>
+        <v>堅牢地神社</v>
       </c>
       <c r="D492" t="str">
-        <v>秋篠町 地蔵堂</v>
+        <v>秋篠町 堅牢地神社</v>
       </c>
       <c r="E492" t="b">
         <v>1</v>
       </c>
       <c r="H492" t="str">
-        <v>2020-08-10</v>
+        <v>2017-05-02</v>
       </c>
       <c r="I492" t="b">
         <v>0</v>
       </c>
       <c r="J492">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="K492" t="str">
         <v>秋篠町</v>
       </c>
       <c r="L492">
-        <v>135.77991116329272</v>
+        <v>135.77736457911547</v>
       </c>
       <c r="M492">
-        <v>34.70593905167548</v>
+        <v>34.70373780416085</v>
       </c>
     </row>
     <row r="493">
       <c r="A493">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B493" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C493" t="str">
-        <v>堅牢地神社</v>
+        <v>平安寺 子安地蔵尊</v>
       </c>
       <c r="D493" t="str">
-        <v>秋篠町 堅牢地神社</v>
+        <v>歌姫町 平安寺 子安地蔵尊</v>
       </c>
       <c r="E493" t="b">
         <v>1</v>
@@ -17561,30 +17618,30 @@
         <v>0</v>
       </c>
       <c r="J493">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="K493" t="str">
-        <v>秋篠町</v>
+        <v>歌姫町</v>
       </c>
       <c r="L493">
-        <v>135.77736457911547</v>
+        <v>135.79574288959836</v>
       </c>
       <c r="M493">
-        <v>34.70373780416085</v>
+        <v>34.703681672341965</v>
       </c>
     </row>
     <row r="494">
       <c r="A494">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B494" t="str">
         <v>地蔵</v>
       </c>
       <c r="C494" t="str">
-        <v>平安寺 子安地蔵尊</v>
+        <v>地蔵群</v>
       </c>
       <c r="D494" t="str">
-        <v>歌姫町 平安寺 子安地蔵尊</v>
+        <v>歌姫町 地蔵群</v>
       </c>
       <c r="E494" t="b">
         <v>1</v>
@@ -17596,135 +17653,135 @@
         <v>0</v>
       </c>
       <c r="J494">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="K494" t="str">
         <v>歌姫町</v>
       </c>
       <c r="L494">
-        <v>135.79574288959836</v>
+        <v>135.79577056986113</v>
       </c>
       <c r="M494">
-        <v>34.703681672341965</v>
+        <v>34.70363919418344</v>
       </c>
     </row>
     <row r="495">
       <c r="A495">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B495" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C495" t="str">
-        <v>地蔵群</v>
+        <v>小祠</v>
       </c>
       <c r="D495" t="str">
-        <v>歌姫町 地蔵群</v>
+        <v>三条大路3丁目 小祠</v>
       </c>
       <c r="E495" t="b">
         <v>1</v>
       </c>
       <c r="H495" t="str">
-        <v>2017-05-02</v>
+        <v>2018-12-21</v>
       </c>
       <c r="I495" t="b">
         <v>0</v>
       </c>
       <c r="J495">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="K495" t="str">
-        <v>歌姫町</v>
+        <v>三条大路3丁目</v>
       </c>
       <c r="L495">
-        <v>135.79577056986113</v>
+        <v>135.79438565306754</v>
       </c>
       <c r="M495">
-        <v>34.70363919418344</v>
+        <v>34.6829755925681</v>
       </c>
     </row>
     <row r="496">
       <c r="A496">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B496" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C496" t="str">
-        <v>小祠</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D496" t="str">
-        <v>三条大路3丁目 小祠</v>
+        <v>北風呂町 地蔵堂</v>
       </c>
       <c r="E496" t="b">
         <v>1</v>
       </c>
       <c r="H496" t="str">
-        <v>2018-12-21</v>
+        <v>2017-10-20</v>
       </c>
       <c r="I496" t="b">
         <v>0</v>
       </c>
       <c r="J496">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="K496" t="str">
-        <v>三条大路3丁目</v>
+        <v>北風呂町</v>
       </c>
       <c r="L496">
-        <v>135.79438565306754</v>
+        <v>135.82660857666383</v>
       </c>
       <c r="M496">
-        <v>34.6829755925681</v>
+        <v>34.67838706546818</v>
       </c>
     </row>
     <row r="497">
       <c r="A497">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B497" t="str">
         <v>地蔵</v>
       </c>
       <c r="C497" t="str">
-        <v>地蔵堂</v>
+        <v>交通安全地蔵尊</v>
       </c>
       <c r="D497" t="str">
-        <v>北風呂町 地蔵堂</v>
+        <v>中ノ川町 交通安全地蔵尊</v>
       </c>
       <c r="E497" t="b">
         <v>1</v>
       </c>
       <c r="H497" t="str">
-        <v>2017-10-20</v>
+        <v>2021-03-20</v>
       </c>
       <c r="I497" t="b">
         <v>0</v>
       </c>
       <c r="J497">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="K497" t="str">
-        <v>北風呂町</v>
+        <v>中ノ川町</v>
       </c>
       <c r="L497">
-        <v>135.82660857666383</v>
+        <v>135.87437046841205</v>
       </c>
       <c r="M497">
-        <v>34.67838706546818</v>
+        <v>34.70047536906061</v>
       </c>
     </row>
     <row r="498">
       <c r="A498">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B498" t="str">
         <v>地蔵</v>
       </c>
       <c r="C498" t="str">
-        <v>交通安全地蔵尊</v>
+        <v>安全地蔵尊</v>
       </c>
       <c r="D498" t="str">
-        <v>中ノ川町 交通安全地蔵尊</v>
+        <v>中ノ川町 安全地蔵尊</v>
       </c>
       <c r="E498" t="b">
         <v>1</v>
@@ -17736,30 +17793,30 @@
         <v>0</v>
       </c>
       <c r="J498">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="K498" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L498">
-        <v>135.87437046841205</v>
+        <v>135.86583506678798</v>
       </c>
       <c r="M498">
-        <v>34.70047536906061</v>
+        <v>34.7045302674754</v>
       </c>
     </row>
     <row r="499">
       <c r="A499">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B499" t="str">
         <v>地蔵</v>
       </c>
       <c r="C499" t="str">
-        <v>安全地蔵尊</v>
+        <v>中ノ川地蔵尊</v>
       </c>
       <c r="D499" t="str">
-        <v>中ノ川町 安全地蔵尊</v>
+        <v>中ノ川町 中ノ川地蔵尊</v>
       </c>
       <c r="E499" t="b">
         <v>1</v>
@@ -17771,30 +17828,30 @@
         <v>0</v>
       </c>
       <c r="J499">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="K499" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L499">
-        <v>135.86583506678798</v>
+        <v>135.86812969555487</v>
       </c>
       <c r="M499">
-        <v>34.7045302674754</v>
+        <v>34.7052605792409</v>
       </c>
     </row>
     <row r="500">
       <c r="A500">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B500" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C500" t="str">
-        <v>中ノ川地蔵尊</v>
+        <v>三社神社</v>
       </c>
       <c r="D500" t="str">
-        <v>中ノ川町 中ノ川地蔵尊</v>
+        <v>中ノ川町 三社神社</v>
       </c>
       <c r="E500" t="b">
         <v>1</v>
@@ -17806,30 +17863,30 @@
         <v>0</v>
       </c>
       <c r="J500">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="K500" t="str">
         <v>中ノ川町</v>
       </c>
       <c r="L500">
-        <v>135.86812969555487</v>
+        <v>135.8682428835209</v>
       </c>
       <c r="M500">
-        <v>34.7052605792409</v>
+        <v>34.70690869156066</v>
       </c>
     </row>
     <row r="501">
       <c r="A501">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B501" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C501" t="str">
-        <v>三社神社</v>
+        <v>地蔵尊</v>
       </c>
       <c r="D501" t="str">
-        <v>中ノ川町 三社神社</v>
+        <v>平清水町 地蔵尊</v>
       </c>
       <c r="E501" t="b">
         <v>1</v>
@@ -17841,30 +17898,30 @@
         <v>0</v>
       </c>
       <c r="J501">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="K501" t="str">
-        <v>中ノ川町</v>
+        <v>平清水町</v>
       </c>
       <c r="L501">
-        <v>135.8682428835209</v>
+        <v>135.89415092296943</v>
       </c>
       <c r="M501">
-        <v>34.70690869156066</v>
+        <v>34.697329725111686</v>
       </c>
     </row>
     <row r="502">
       <c r="A502">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B502" t="str">
         <v>地蔵</v>
       </c>
       <c r="C502" t="str">
-        <v>地蔵尊</v>
+        <v>六地蔵</v>
       </c>
       <c r="D502" t="str">
-        <v>平清水町 地蔵尊</v>
+        <v>忍辱山町 六地蔵</v>
       </c>
       <c r="E502" t="b">
         <v>1</v>
@@ -17876,30 +17933,30 @@
         <v>0</v>
       </c>
       <c r="J502">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="K502" t="str">
-        <v>平清水町</v>
+        <v>忍辱山町</v>
       </c>
       <c r="L502">
-        <v>135.89415092296943</v>
+        <v>135.91322138028508</v>
       </c>
       <c r="M502">
-        <v>34.697329725111686</v>
+        <v>34.69358962304381</v>
       </c>
     </row>
     <row r="503">
       <c r="A503">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B503" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C503" t="str">
-        <v>六地蔵</v>
+        <v>阿対の石仏</v>
       </c>
       <c r="D503" t="str">
-        <v>忍辱山町 六地蔵</v>
+        <v>柳生下町 阿対の石仏</v>
       </c>
       <c r="E503" t="b">
         <v>1</v>
@@ -17911,30 +17968,30 @@
         <v>0</v>
       </c>
       <c r="J503">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="K503" t="str">
-        <v>忍辱山町</v>
+        <v>柳生下町</v>
       </c>
       <c r="L503">
-        <v>135.91322138028508</v>
+        <v>135.95019403428716</v>
       </c>
       <c r="M503">
-        <v>34.69358962304381</v>
+        <v>34.742656274426224</v>
       </c>
     </row>
     <row r="504">
       <c r="A504">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B504" t="str">
         <v>石仏等</v>
       </c>
       <c r="C504" t="str">
-        <v>阿対の石仏</v>
+        <v>摩利支天像</v>
       </c>
       <c r="D504" t="str">
-        <v>柳生下町 阿対の石仏</v>
+        <v>柳生町 摩利支天像</v>
       </c>
       <c r="E504" t="b">
         <v>1</v>
@@ -17946,71 +18003,68 @@
         <v>0</v>
       </c>
       <c r="J504">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="K504" t="str">
-        <v>柳生下町</v>
+        <v>柳生町</v>
       </c>
       <c r="L504">
-        <v>135.95019403428716</v>
+        <v>135.95204785935758</v>
       </c>
       <c r="M504">
-        <v>34.742656274426224</v>
+        <v>34.73010999217477</v>
       </c>
     </row>
     <row r="505">
       <c r="A505">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B505" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C505" t="str">
-        <v>摩利支天像</v>
+        <v>歯痛地蔵</v>
       </c>
       <c r="D505" t="str">
-        <v>柳生町 摩利支天像</v>
+        <v>柳生町 歯痛地蔵</v>
       </c>
       <c r="E505" t="b">
-        <v>1</v>
-      </c>
-      <c r="H505" t="str">
-        <v>2021-03-20</v>
+        <v>0</v>
+      </c>
+      <c r="F505" t="str">
+        <v>Google Mapsで発見、磨崖仏</v>
       </c>
       <c r="I505" t="b">
         <v>0</v>
       </c>
-      <c r="J505">
-        <v>1411</v>
-      </c>
       <c r="K505" t="str">
         <v>柳生町</v>
       </c>
       <c r="L505">
-        <v>135.95204785935758</v>
+        <v>135.95256920998924</v>
       </c>
       <c r="M505">
-        <v>34.73010999217477</v>
+        <v>34.72891477973801</v>
       </c>
     </row>
     <row r="506">
       <c r="A506">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B506" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C506" t="str">
-        <v>歯痛地蔵</v>
+        <v>寝仏</v>
       </c>
       <c r="D506" t="str">
-        <v>柳生町 歯痛地蔵</v>
+        <v>柳生町 寝仏</v>
       </c>
       <c r="E506" t="b">
         <v>0</v>
       </c>
       <c r="F506" t="str">
-        <v>Google Mapsで発見、磨崖仏</v>
+        <v>Google Mapsで報告されている</v>
       </c>
       <c r="I506" t="b">
         <v>0</v>
@@ -18019,56 +18073,59 @@
         <v>柳生町</v>
       </c>
       <c r="L506">
-        <v>135.95256920998924</v>
+        <v>135.95324490784733</v>
       </c>
       <c r="M506">
-        <v>34.72891477973801</v>
+        <v>34.726042252753814</v>
       </c>
     </row>
     <row r="507">
       <c r="A507">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B507" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C507" t="str">
-        <v>寝仏</v>
+        <v>柳生六地蔵磨崖仏</v>
       </c>
       <c r="D507" t="str">
-        <v>柳生町 寝仏</v>
+        <v>柳生町 柳生六地蔵磨崖仏</v>
       </c>
       <c r="E507" t="b">
-        <v>0</v>
-      </c>
-      <c r="F507" t="str">
-        <v>Google Mapsで報告されている</v>
+        <v>1</v>
+      </c>
+      <c r="H507" t="str">
+        <v>2021-03-20</v>
       </c>
       <c r="I507" t="b">
         <v>0</v>
       </c>
+      <c r="J507">
+        <v>1413</v>
+      </c>
       <c r="K507" t="str">
         <v>柳生町</v>
       </c>
       <c r="L507">
-        <v>135.95324490784733</v>
+        <v>135.95328949704611</v>
       </c>
       <c r="M507">
-        <v>34.726042252753814</v>
+        <v>34.72583646435896</v>
       </c>
     </row>
     <row r="508">
       <c r="A508">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B508" t="str">
         <v>地蔵</v>
       </c>
       <c r="C508" t="str">
-        <v>柳生六地蔵磨崖仏</v>
+        <v>疱瘡地蔵</v>
       </c>
       <c r="D508" t="str">
-        <v>柳生町 柳生六地蔵磨崖仏</v>
+        <v>柳生町 疱瘡地蔵</v>
       </c>
       <c r="E508" t="b">
         <v>1</v>
@@ -18080,30 +18137,30 @@
         <v>0</v>
       </c>
       <c r="J508">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="K508" t="str">
         <v>柳生町</v>
       </c>
       <c r="L508">
-        <v>135.95328949704611</v>
+        <v>135.95331693655305</v>
       </c>
       <c r="M508">
-        <v>34.72583646435896</v>
+        <v>34.7243339116494</v>
       </c>
     </row>
     <row r="509">
       <c r="A509">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B509" t="str">
         <v>地蔵</v>
       </c>
       <c r="C509" t="str">
-        <v>疱瘡地蔵</v>
+        <v>地蔵磨崖仏</v>
       </c>
       <c r="D509" t="str">
-        <v>柳生町 疱瘡地蔵</v>
+        <v>柳生町 地蔵磨崖仏</v>
       </c>
       <c r="E509" t="b">
         <v>1</v>
@@ -18115,30 +18172,30 @@
         <v>0</v>
       </c>
       <c r="J509">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="K509" t="str">
         <v>柳生町</v>
       </c>
       <c r="L509">
-        <v>135.95331693655305</v>
+        <v>135.9533426610908</v>
       </c>
       <c r="M509">
-        <v>34.7243339116494</v>
+        <v>34.724371969137685</v>
       </c>
     </row>
     <row r="510">
       <c r="A510">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B510" t="str">
         <v>地蔵</v>
       </c>
       <c r="C510" t="str">
-        <v>地蔵磨崖仏</v>
+        <v>空の石地蔵窟</v>
       </c>
       <c r="D510" t="str">
-        <v>柳生町 地蔵磨崖仏</v>
+        <v>柳生町 空の石地蔵窟</v>
       </c>
       <c r="E510" t="b">
         <v>1</v>
@@ -18150,30 +18207,30 @@
         <v>0</v>
       </c>
       <c r="J510">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K510" t="str">
         <v>柳生町</v>
       </c>
       <c r="L510">
-        <v>135.9533426610908</v>
+        <v>135.95452770479625</v>
       </c>
       <c r="M510">
-        <v>34.724371969137685</v>
+        <v>34.726032386198625</v>
       </c>
     </row>
     <row r="511">
       <c r="A511">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B511" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C511" t="str">
-        <v>空の石地蔵窟</v>
+        <v>小祠</v>
       </c>
       <c r="D511" t="str">
-        <v>柳生町 空の石地蔵窟</v>
+        <v>柳生町 小祠</v>
       </c>
       <c r="E511" t="b">
         <v>1</v>
@@ -18185,30 +18242,30 @@
         <v>0</v>
       </c>
       <c r="J511">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="K511" t="str">
         <v>柳生町</v>
       </c>
       <c r="L511">
-        <v>135.95452770479625</v>
+        <v>135.95518796793175</v>
       </c>
       <c r="M511">
-        <v>34.726032386198625</v>
+        <v>34.72602251964226</v>
       </c>
     </row>
     <row r="512">
       <c r="A512">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B512" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C512" t="str">
-        <v>小祠</v>
+        <v>北出磨崖仏</v>
       </c>
       <c r="D512" t="str">
-        <v>柳生町 小祠</v>
+        <v>阪原町 北出磨崖仏</v>
       </c>
       <c r="E512" t="b">
         <v>1</v>
@@ -18220,30 +18277,30 @@
         <v>0</v>
       </c>
       <c r="J512">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K512" t="str">
-        <v>柳生町</v>
+        <v>阪原町</v>
       </c>
       <c r="L512">
-        <v>135.95518796793175</v>
+        <v>135.9407813693094</v>
       </c>
       <c r="M512">
-        <v>34.72602251964226</v>
+        <v>34.724072442135885</v>
       </c>
     </row>
     <row r="513">
       <c r="A513">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B513" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C513" t="str">
-        <v>北出磨崖仏</v>
+        <v>地蔵群</v>
       </c>
       <c r="D513" t="str">
-        <v>阪原町 北出磨崖仏</v>
+        <v>阪原町 地蔵群</v>
       </c>
       <c r="E513" t="b">
         <v>1</v>
@@ -18255,30 +18312,30 @@
         <v>0</v>
       </c>
       <c r="J513">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="K513" t="str">
         <v>阪原町</v>
       </c>
       <c r="L513">
-        <v>135.9407813693094</v>
+        <v>135.94056871313074</v>
       </c>
       <c r="M513">
-        <v>34.724072442135885</v>
+        <v>34.724247225082905</v>
       </c>
     </row>
     <row r="514">
       <c r="A514">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B514" t="str">
         <v>地蔵</v>
       </c>
       <c r="C514" t="str">
-        <v>地蔵群</v>
+        <v>足痛地蔵</v>
       </c>
       <c r="D514" t="str">
-        <v>阪原町 地蔵群</v>
+        <v>阪原町 足痛地蔵</v>
       </c>
       <c r="E514" t="b">
         <v>1</v>
@@ -18290,30 +18347,30 @@
         <v>0</v>
       </c>
       <c r="J514">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K514" t="str">
         <v>阪原町</v>
       </c>
       <c r="L514">
-        <v>135.94056871313074</v>
+        <v>135.93880743977968</v>
       </c>
       <c r="M514">
-        <v>34.724247225082905</v>
+        <v>34.7246743141165</v>
       </c>
     </row>
     <row r="515">
       <c r="A515">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B515" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C515" t="str">
-        <v>足痛地蔵</v>
+        <v>十九夜講石碑</v>
       </c>
       <c r="D515" t="str">
-        <v>阪原町 足痛地蔵</v>
+        <v>阪原町 十九夜講石碑</v>
       </c>
       <c r="E515" t="b">
         <v>1</v>
@@ -18325,30 +18382,30 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="K515" t="str">
         <v>阪原町</v>
       </c>
       <c r="L515">
-        <v>135.93880743977968</v>
+        <v>135.93824835982605</v>
       </c>
       <c r="M515">
-        <v>34.7246743141165</v>
+        <v>34.722723500025076</v>
       </c>
     </row>
     <row r="516">
       <c r="A516">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B516" t="str">
         <v>石仏等</v>
       </c>
       <c r="C516" t="str">
-        <v>十九夜講石碑</v>
+        <v>藤井の森地蔵尊 石仏群</v>
       </c>
       <c r="D516" t="str">
-        <v>阪原町 十九夜講石碑</v>
+        <v>大柳生町 藤井の森地蔵尊とされているが薬師如来か？</v>
       </c>
       <c r="E516" t="b">
         <v>1</v>
@@ -18360,30 +18417,30 @@
         <v>0</v>
       </c>
       <c r="J516">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="K516" t="str">
-        <v>阪原町</v>
+        <v>大柳生町</v>
       </c>
       <c r="L516">
-        <v>135.93824835982605</v>
+        <v>135.92736516539028</v>
       </c>
       <c r="M516">
-        <v>34.722723500025076</v>
+        <v>34.70549823889973</v>
       </c>
     </row>
     <row r="517">
       <c r="A517">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B517" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C517" t="str">
-        <v>藤井の森地蔵尊 石仏群</v>
+        <v>元亀の地蔵石仏</v>
       </c>
       <c r="D517" t="str">
-        <v>大柳生町 藤井の森地蔵尊とされているが薬師如来か？</v>
+        <v>大柳生町 元亀の地蔵石仏</v>
       </c>
       <c r="E517" t="b">
         <v>1</v>
@@ -18395,30 +18452,30 @@
         <v>0</v>
       </c>
       <c r="J517">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="K517" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L517">
-        <v>135.92736516539028</v>
+        <v>135.92860165817123</v>
       </c>
       <c r="M517">
-        <v>34.70549823889973</v>
+        <v>34.70667052752085</v>
       </c>
     </row>
     <row r="518">
       <c r="A518">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B518" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C518" t="str">
-        <v>元亀の地蔵石仏</v>
+        <v>多聞神社の弘法大師堂</v>
       </c>
       <c r="D518" t="str">
-        <v>大柳生町 元亀の地蔵石仏</v>
+        <v>大柳生町 多聞神社の弘法大師堂</v>
       </c>
       <c r="E518" t="b">
         <v>1</v>
@@ -18430,30 +18487,30 @@
         <v>0</v>
       </c>
       <c r="J518">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="K518" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L518">
-        <v>135.92860165817123</v>
+        <v>135.93329724379436</v>
       </c>
       <c r="M518">
-        <v>34.70667052752085</v>
+        <v>34.703733782796675</v>
       </c>
     </row>
     <row r="519">
       <c r="A519">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B519" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C519" t="str">
-        <v>多聞神社の弘法大師堂</v>
+        <v>多聞神社地蔵尊</v>
       </c>
       <c r="D519" t="str">
-        <v>大柳生町 多聞神社の弘法大師堂</v>
+        <v>大柳生町 多聞神社地蔵尊</v>
       </c>
       <c r="E519" t="b">
         <v>1</v>
@@ -18465,30 +18522,30 @@
         <v>0</v>
       </c>
       <c r="J519">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="K519" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L519">
-        <v>135.93329724379436</v>
+        <v>135.93331782342455</v>
       </c>
       <c r="M519">
-        <v>34.703733782796675</v>
+        <v>34.70375211133954</v>
       </c>
     </row>
     <row r="520">
       <c r="A520">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B520" t="str">
         <v>地蔵</v>
       </c>
       <c r="C520" t="str">
-        <v>多聞神社地蔵尊</v>
+        <v>多聞神社地蔵群</v>
       </c>
       <c r="D520" t="str">
-        <v>大柳生町 多聞神社地蔵尊</v>
+        <v>大柳生町 多聞神社地蔵群</v>
       </c>
       <c r="E520" t="b">
         <v>1</v>
@@ -18500,30 +18557,30 @@
         <v>0</v>
       </c>
       <c r="J520">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="K520" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L520">
-        <v>135.93331782342455</v>
+        <v>135.9332800941025</v>
       </c>
       <c r="M520">
-        <v>34.70375211133954</v>
+        <v>34.70371404436135</v>
       </c>
     </row>
     <row r="521">
       <c r="A521">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B521" t="str">
-        <v>地蔵</v>
+        <v>石仏等</v>
       </c>
       <c r="C521" t="str">
-        <v>多聞神社地蔵群</v>
+        <v>阿弥陀種子と六字名号</v>
       </c>
       <c r="D521" t="str">
-        <v>大柳生町 多聞神社地蔵群</v>
+        <v>大柳生町 阿弥陀種子と六字名号</v>
       </c>
       <c r="E521" t="b">
         <v>1</v>
@@ -18535,65 +18592,62 @@
         <v>0</v>
       </c>
       <c r="J521">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="K521" t="str">
         <v>大柳生町</v>
       </c>
       <c r="L521">
-        <v>135.9332800941025</v>
+        <v>135.9326952896111</v>
       </c>
       <c r="M521">
-        <v>34.70371404436135</v>
+        <v>34.70434003244524</v>
       </c>
     </row>
     <row r="522">
       <c r="A522">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B522" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C522" t="str">
-        <v>阿弥陀種子と六字名号</v>
+        <v>千体地蔵摩崖仏</v>
       </c>
       <c r="D522" t="str">
-        <v>大柳生町 阿弥陀種子と六字名号</v>
+        <v>丹生町 千体地蔵摩崖仏</v>
       </c>
       <c r="E522" t="b">
-        <v>1</v>
-      </c>
-      <c r="H522" t="str">
-        <v>2021-03-20</v>
+        <v>0</v>
+      </c>
+      <c r="F522" t="str">
+        <v>Google Mapsで発見、要調査</v>
       </c>
       <c r="I522" t="b">
         <v>0</v>
       </c>
-      <c r="J522">
-        <v>1452</v>
-      </c>
       <c r="K522" t="str">
-        <v>大柳生町</v>
+        <v>丹生町</v>
       </c>
       <c r="L522">
-        <v>135.9326952896111</v>
+        <v>135.97087064836757</v>
       </c>
       <c r="M522">
-        <v>34.70434003244524</v>
+        <v>34.69970530234792</v>
       </c>
     </row>
     <row r="523">
       <c r="A523">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B523" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C523" t="str">
-        <v>千体地蔵摩崖仏</v>
+        <v>山の神 石碑</v>
       </c>
       <c r="D523" t="str">
-        <v>丹生町 千体地蔵摩崖仏</v>
+        <v>丹生町 山の神 石碑</v>
       </c>
       <c r="E523" t="b">
         <v>0</v>
@@ -18608,24 +18662,24 @@
         <v>丹生町</v>
       </c>
       <c r="L523">
-        <v>135.97087064836757</v>
+        <v>135.97352294957972</v>
       </c>
       <c r="M523">
-        <v>34.69970530234792</v>
+        <v>34.69716762776938</v>
       </c>
     </row>
     <row r="524">
       <c r="A524">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B524" t="str">
         <v>小祠</v>
       </c>
       <c r="C524" t="str">
-        <v>山の神 石碑</v>
+        <v>富士浅間社供養碑</v>
       </c>
       <c r="D524" t="str">
-        <v>丹生町 山の神 石碑</v>
+        <v>丹生町 富士浅間社供養碑</v>
       </c>
       <c r="E524" t="b">
         <v>0</v>
@@ -18640,24 +18694,24 @@
         <v>丹生町</v>
       </c>
       <c r="L524">
-        <v>135.97352294957972</v>
+        <v>135.96547298274285</v>
       </c>
       <c r="M524">
-        <v>34.69716762776938</v>
+        <v>34.69478131378345</v>
       </c>
     </row>
     <row r="525">
       <c r="A525">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B525" t="str">
-        <v>小祠</v>
+        <v>石仏等</v>
       </c>
       <c r="C525" t="str">
-        <v>富士浅間社供養碑</v>
+        <v>阿弥陀摩崖仏</v>
       </c>
       <c r="D525" t="str">
-        <v>丹生町 富士浅間社供養碑</v>
+        <v>大柳生町 阿弥陀摩崖仏</v>
       </c>
       <c r="E525" t="b">
         <v>0</v>
@@ -18669,27 +18723,27 @@
         <v>0</v>
       </c>
       <c r="K525" t="str">
-        <v>丹生町</v>
+        <v>大柳生町</v>
       </c>
       <c r="L525">
-        <v>135.96547298274285</v>
+        <v>135.93266820459283</v>
       </c>
       <c r="M525">
-        <v>34.69478131378345</v>
+        <v>34.715954457499464</v>
       </c>
     </row>
     <row r="526">
       <c r="A526">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B526" t="str">
         <v>石仏等</v>
       </c>
       <c r="C526" t="str">
-        <v>阿弥陀摩崖仏</v>
+        <v>上出阿弥陀摩崖仏</v>
       </c>
       <c r="D526" t="str">
-        <v>大柳生町 阿弥陀摩崖仏</v>
+        <v>大柳生町 上出阿弥陀摩崖仏</v>
       </c>
       <c r="E526" t="b">
         <v>0</v>
@@ -18704,24 +18758,24 @@
         <v>大柳生町</v>
       </c>
       <c r="L526">
-        <v>135.93266820459283</v>
+        <v>135.92342392668388</v>
       </c>
       <c r="M526">
-        <v>34.715954457499464</v>
+        <v>34.695198963550084</v>
       </c>
     </row>
     <row r="527">
       <c r="A527">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B527" t="str">
         <v>石仏等</v>
       </c>
       <c r="C527" t="str">
-        <v>上出阿弥陀摩崖仏</v>
+        <v>石仏</v>
       </c>
       <c r="D527" t="str">
-        <v>大柳生町 上出阿弥陀摩崖仏</v>
+        <v>下狭川町 石仏</v>
       </c>
       <c r="E527" t="b">
         <v>0</v>
@@ -18733,27 +18787,27 @@
         <v>0</v>
       </c>
       <c r="K527" t="str">
-        <v>大柳生町</v>
+        <v>下狭川町</v>
       </c>
       <c r="L527">
-        <v>135.92342392668388</v>
+        <v>135.91725461202236</v>
       </c>
       <c r="M527">
-        <v>34.695198963550084</v>
+        <v>34.74226032118138</v>
       </c>
     </row>
     <row r="528">
       <c r="A528">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B528" t="str">
-        <v>石仏等</v>
+        <v>地蔵</v>
       </c>
       <c r="C528" t="str">
-        <v>石仏</v>
+        <v>腰痛地蔵尊</v>
       </c>
       <c r="D528" t="str">
-        <v>下狭川町 石仏</v>
+        <v>南庄町 腰痛地蔵尊</v>
       </c>
       <c r="E528" t="b">
         <v>0</v>
@@ -18765,59 +18819,62 @@
         <v>0</v>
       </c>
       <c r="K528" t="str">
-        <v>下狭川町</v>
+        <v>南庄町</v>
       </c>
       <c r="L528">
-        <v>135.91725461202236</v>
+        <v>135.8942524909838</v>
       </c>
       <c r="M528">
-        <v>34.74226032118138</v>
+        <v>34.71287222454223</v>
       </c>
     </row>
     <row r="529">
       <c r="A529">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B529" t="str">
         <v>地蔵</v>
       </c>
       <c r="C529" t="str">
-        <v>腰痛地蔵尊</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D529" t="str">
-        <v>南庄町 腰痛地蔵尊</v>
+        <v>奧子守町 地蔵堂</v>
       </c>
       <c r="E529" t="b">
-        <v>0</v>
-      </c>
-      <c r="F529" t="str">
-        <v>Google Mapsで発見、要調査</v>
+        <v>1</v>
+      </c>
+      <c r="H529" t="str">
+        <v>2022-06-15</v>
       </c>
       <c r="I529" t="b">
         <v>0</v>
       </c>
+      <c r="J529">
+        <v>1459</v>
+      </c>
       <c r="K529" t="str">
-        <v>南庄町</v>
+        <v>奧子守町</v>
       </c>
       <c r="L529">
-        <v>135.8942524909838</v>
+        <v>135.82450252341428</v>
       </c>
       <c r="M529">
-        <v>34.71287222454223</v>
+        <v>34.68053828483294</v>
       </c>
     </row>
     <row r="530">
       <c r="A530">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B530" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C530" t="str">
-        <v>地蔵堂</v>
+        <v>子安神社</v>
       </c>
       <c r="D530" t="str">
-        <v>奧子守町 地蔵堂</v>
+        <v>雑司町 子安神社</v>
       </c>
       <c r="E530" t="b">
         <v>1</v>
@@ -18829,30 +18886,30 @@
         <v>0</v>
       </c>
       <c r="J530">
-        <v>1459</v>
+        <v>1482</v>
       </c>
       <c r="K530" t="str">
-        <v>奧子守町</v>
+        <v>雑司町</v>
       </c>
       <c r="L530">
-        <v>135.82450252341428</v>
+        <v>135.83871361554955</v>
       </c>
       <c r="M530">
-        <v>34.68053828483294</v>
+        <v>34.688921994186614</v>
       </c>
     </row>
     <row r="531">
       <c r="A531">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B531" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C531" t="str">
-        <v>子安神社</v>
+        <v>地蔵、浮彫五輪塔群</v>
       </c>
       <c r="D531" t="str">
-        <v>雑司町 子安神社</v>
+        <v>雑司町 地蔵、浮彫五輪塔群</v>
       </c>
       <c r="E531" t="b">
         <v>1</v>
@@ -18864,30 +18921,30 @@
         <v>0</v>
       </c>
       <c r="J531">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="K531" t="str">
         <v>雑司町</v>
       </c>
       <c r="L531">
-        <v>135.83871361554955</v>
+        <v>135.84102796646204</v>
       </c>
       <c r="M531">
-        <v>34.688921994186614</v>
+        <v>34.689684171581675</v>
       </c>
     </row>
     <row r="532">
       <c r="A532">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B532" t="str">
         <v>地蔵</v>
       </c>
       <c r="C532" t="str">
-        <v>地蔵、浮彫五輪塔群</v>
+        <v>地蔵堂</v>
       </c>
       <c r="D532" t="str">
-        <v>雑司町 地蔵、浮彫五輪塔群</v>
+        <v>法蓮町 地蔵堂</v>
       </c>
       <c r="E532" t="b">
         <v>1</v>
@@ -18899,30 +18956,30 @@
         <v>0</v>
       </c>
       <c r="J532">
-        <v>1486</v>
+        <v>1496</v>
       </c>
       <c r="K532" t="str">
-        <v>雑司町</v>
+        <v>法蓮町</v>
       </c>
       <c r="L532">
-        <v>135.84102796646204</v>
+        <v>135.82528865605892</v>
       </c>
       <c r="M532">
-        <v>34.689684171581675</v>
+        <v>34.689394057984416</v>
       </c>
     </row>
     <row r="533">
       <c r="A533">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B533" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C533" t="str">
-        <v>地蔵堂</v>
+        <v>法蓮野神</v>
       </c>
       <c r="D533" t="str">
-        <v>法蓮町 地蔵堂</v>
+        <v>法蓮町 法蓮野神</v>
       </c>
       <c r="E533" t="b">
         <v>1</v>
@@ -18934,68 +18991,68 @@
         <v>0</v>
       </c>
       <c r="J533">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="K533" t="str">
         <v>法蓮町</v>
       </c>
       <c r="L533">
-        <v>135.82528865605892</v>
+        <v>135.82132879221513</v>
       </c>
       <c r="M533">
-        <v>34.689394057984416</v>
-      </c>
-    </row>
-    <row r="534">
+        <v>34.68964012572095</v>
+      </c>
+    </row>
+    <row r="534" xml:space="preserve">
       <c r="A534">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B534" t="str">
-        <v>小祠</v>
+        <v>地蔵</v>
       </c>
       <c r="C534" t="str">
-        <v>法蓮野神</v>
-      </c>
-      <c r="D534" t="str">
-        <v>法蓮町 法蓮野神</v>
-      </c>
-      <c r="E534" t="b">
-        <v>1</v>
-      </c>
-      <c r="H534" t="str">
-        <v>2022-06-15</v>
-      </c>
-      <c r="I534" t="b">
-        <v>0</v>
-      </c>
-      <c r="J534">
-        <v>1499</v>
-      </c>
-      <c r="K534" t="str">
-        <v>法蓮町</v>
-      </c>
-      <c r="L534">
-        <v>135.82132879221513</v>
-      </c>
-      <c r="M534">
-        <v>34.68964012572095</v>
-      </c>
-    </row>
-    <row r="535" xml:space="preserve">
-      <c r="A535">
-        <v>809</v>
-      </c>
-      <c r="B535" t="str">
-        <v>地蔵</v>
-      </c>
-      <c r="C535" t="str">
         <v>六大地蔵尊</v>
       </c>
-      <c r="D535" t="str" xml:space="preserve">
+      <c r="D534" t="str" xml:space="preserve">
         <v xml:space="preserve">歌姫町 六大地蔵尊
 地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません
 また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
       </c>
+      <c r="E534" t="b">
+        <v>1</v>
+      </c>
+      <c r="H534" t="str">
+        <v>2022-06-15</v>
+      </c>
+      <c r="I534" t="b">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>1521</v>
+      </c>
+      <c r="K534" t="str">
+        <v>歌姫町</v>
+      </c>
+      <c r="L534">
+        <v>135.7972154680167</v>
+      </c>
+      <c r="M534">
+        <v>34.70222808789911</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535">
+        <v>810</v>
+      </c>
+      <c r="B535" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C535" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D535" t="str">
+        <v>佐紀町 地蔵尊</v>
+      </c>
       <c r="E535" t="b">
         <v>1</v>
       </c>
@@ -19006,30 +19063,30 @@
         <v>0</v>
       </c>
       <c r="J535">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="K535" t="str">
-        <v>歌姫町</v>
+        <v>佐紀町</v>
       </c>
       <c r="L535">
-        <v>135.7972154680167</v>
+        <v>135.79805580291637</v>
       </c>
       <c r="M535">
-        <v>34.70222808789911</v>
+        <v>34.70149845432795</v>
       </c>
     </row>
     <row r="536">
       <c r="A536">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B536" t="str">
-        <v>地蔵</v>
+        <v>小祠</v>
       </c>
       <c r="C536" t="str">
-        <v>地蔵尊</v>
+        <v>小祠</v>
       </c>
       <c r="D536" t="str">
-        <v>佐紀町 地蔵尊</v>
+        <v>法華寺町 小祠</v>
       </c>
       <c r="E536" t="b">
         <v>1</v>
@@ -19041,63 +19098,133 @@
         <v>0</v>
       </c>
       <c r="J536">
-        <v>1523</v>
+        <v>1535</v>
       </c>
       <c r="K536" t="str">
-        <v>佐紀町</v>
+        <v>法華寺町</v>
       </c>
       <c r="L536">
-        <v>135.79805580291637</v>
+        <v>135.80645229203662</v>
       </c>
       <c r="M536">
-        <v>34.70149845432795</v>
+        <v>34.687945134271985</v>
       </c>
     </row>
     <row r="537">
       <c r="A537">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B537" t="str">
         <v>小祠</v>
       </c>
       <c r="C537" t="str">
-        <v>小祠</v>
+        <v>石塚とそのお堂</v>
       </c>
       <c r="D537" t="str">
-        <v>法華寺町 小祠</v>
+        <v>西ノ京町 石塚とそのお堂</v>
       </c>
       <c r="E537" t="b">
         <v>1</v>
       </c>
       <c r="H537" t="str">
-        <v>2022-06-15</v>
+        <v>2022-06-16</v>
       </c>
       <c r="I537" t="b">
         <v>0</v>
       </c>
       <c r="J537">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="K537" t="str">
-        <v>法華寺町</v>
+        <v>西ノ京町</v>
       </c>
       <c r="L537">
-        <v>135.80645229203662</v>
+        <v>135.78685784098624</v>
       </c>
       <c r="M537">
-        <v>34.687945134271985</v>
+        <v>34.66840309364758</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538">
+        <v>813</v>
+      </c>
+      <c r="B538" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C538" t="str">
+        <v>若宮社</v>
+      </c>
+      <c r="D538" t="str">
+        <v>六条2丁目 若宮社</v>
+      </c>
+      <c r="E538" t="b">
+        <v>1</v>
+      </c>
+      <c r="H538" t="str">
+        <v>2022-06-16</v>
+      </c>
+      <c r="I538" t="b">
+        <v>0</v>
+      </c>
+      <c r="J538">
+        <v>1581</v>
+      </c>
+      <c r="K538" t="str">
+        <v>六条2丁目</v>
+      </c>
+      <c r="L538">
+        <v>135.77274090696</v>
+      </c>
+      <c r="M538">
+        <v>34.669583115114726</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539">
+        <v>814</v>
+      </c>
+      <c r="B539" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C539" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D539" t="str">
+        <v>大和田町 地蔵堂</v>
+      </c>
+      <c r="E539" t="b">
+        <v>1</v>
+      </c>
+      <c r="H539" t="str">
+        <v>2022-06-16</v>
+      </c>
+      <c r="I539" t="b">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>1595</v>
+      </c>
+      <c r="K539" t="str">
+        <v>大和田町</v>
+      </c>
+      <c r="L539">
+        <v>135.75562527779752</v>
+      </c>
+      <c r="M539">
+        <v>34.66331932345693</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M537"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M539"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1549"/>
+  <dimension ref="A1:H1599"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -59376,9 +59503,1309 @@
         <v>./small_thumbs/721/IMG_8530.jpg</v>
       </c>
     </row>
+    <row r="1550">
+      <c r="A1550">
+        <v>1556</v>
+      </c>
+      <c r="B1550">
+        <v>685</v>
+      </c>
+      <c r="C1550" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1550" t="str">
+        <v>./images/685/IMG_8533.jpg</v>
+      </c>
+      <c r="E1550" t="str">
+        <v>2022-06-16T12:47:14</v>
+      </c>
+      <c r="F1550" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1550" t="str">
+        <v>./mid_thumbs/685/IMG_8533.jpg</v>
+      </c>
+      <c r="H1550" t="str">
+        <v>./small_thumbs/685/IMG_8533.jpg</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551">
+        <v>1557</v>
+      </c>
+      <c r="B1551">
+        <v>685</v>
+      </c>
+      <c r="C1551" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1551" t="str">
+        <v>./images/685/IMG_8534.jpg</v>
+      </c>
+      <c r="E1551" t="str">
+        <v>2022-06-16T12:47:23</v>
+      </c>
+      <c r="F1551" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1551" t="str">
+        <v>./mid_thumbs/685/IMG_8534.jpg</v>
+      </c>
+      <c r="H1551" t="str">
+        <v>./small_thumbs/685/IMG_8534.jpg</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552">
+        <v>1558</v>
+      </c>
+      <c r="B1552">
+        <v>685</v>
+      </c>
+      <c r="C1552" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1552" t="str">
+        <v>./images/685/IMG_8535.jpg</v>
+      </c>
+      <c r="E1552" t="str">
+        <v>2022-06-16T12:47:32</v>
+      </c>
+      <c r="F1552" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1552" t="str">
+        <v>./mid_thumbs/685/IMG_8535.jpg</v>
+      </c>
+      <c r="H1552" t="str">
+        <v>./small_thumbs/685/IMG_8535.jpg</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553">
+        <v>1559</v>
+      </c>
+      <c r="B1553">
+        <v>812</v>
+      </c>
+      <c r="C1553" t="str">
+        <v>石塚とそのお堂</v>
+      </c>
+      <c r="D1553" t="str">
+        <v>./images/812/IMG_8539.jpg</v>
+      </c>
+      <c r="E1553" t="str">
+        <v>2022-06-16T12:56:47</v>
+      </c>
+      <c r="F1553" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1553" t="str">
+        <v>./mid_thumbs/812/IMG_8539.jpg</v>
+      </c>
+      <c r="H1553" t="str">
+        <v>./small_thumbs/812/IMG_8539.jpg</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554">
+        <v>1560</v>
+      </c>
+      <c r="B1554">
+        <v>812</v>
+      </c>
+      <c r="C1554" t="str">
+        <v>石塚とそのお堂 内部</v>
+      </c>
+      <c r="D1554" t="str">
+        <v>./images/812/IMG_8540.jpg</v>
+      </c>
+      <c r="E1554" t="str">
+        <v>2022-06-16T12:57:03</v>
+      </c>
+      <c r="F1554" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1554" t="str">
+        <v>./mid_thumbs/812/IMG_8540.jpg</v>
+      </c>
+      <c r="H1554" t="str">
+        <v>./small_thumbs/812/IMG_8540.jpg</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555">
+        <v>1561</v>
+      </c>
+      <c r="B1555">
+        <v>812</v>
+      </c>
+      <c r="C1555" t="str">
+        <v>石塚とそのお堂</v>
+      </c>
+      <c r="D1555" t="str">
+        <v>./images/812/IMG_8541.jpg</v>
+      </c>
+      <c r="E1555" t="str">
+        <v>2022-06-16T12:57:18</v>
+      </c>
+      <c r="F1555" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1555" t="str">
+        <v>./mid_thumbs/812/IMG_8541.jpg</v>
+      </c>
+      <c r="H1555" t="str">
+        <v>./small_thumbs/812/IMG_8541.jpg</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556">
+        <v>1562</v>
+      </c>
+      <c r="B1556">
+        <v>715</v>
+      </c>
+      <c r="C1556" t="str">
+        <v>地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1556" t="str">
+        <v>./images/715/IMG_8543.jpg</v>
+      </c>
+      <c r="E1556" t="str">
+        <v>2022-06-16T13:00:50</v>
+      </c>
+      <c r="F1556" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1556" t="str">
+        <v>./mid_thumbs/715/IMG_8543.jpg</v>
+      </c>
+      <c r="H1556" t="str">
+        <v>./small_thumbs/715/IMG_8543.jpg</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557">
+        <v>1563</v>
+      </c>
+      <c r="B1557">
+        <v>715</v>
+      </c>
+      <c r="C1557" t="str">
+        <v>地蔵尊 傍の石像物</v>
+      </c>
+      <c r="D1557" t="str">
+        <v>./images/715/IMG_8544.jpg</v>
+      </c>
+      <c r="E1557" t="str">
+        <v>2022-06-16T13:01:10</v>
+      </c>
+      <c r="F1557" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1557" t="str">
+        <v>./mid_thumbs/715/IMG_8544.jpg</v>
+      </c>
+      <c r="H1557" t="str">
+        <v>./small_thumbs/715/IMG_8544.jpg</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558">
+        <v>1564</v>
+      </c>
+      <c r="B1558">
+        <v>715</v>
+      </c>
+      <c r="C1558" t="str">
+        <v>地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1558" t="str">
+        <v>./images/715/IMG_8545.jpg</v>
+      </c>
+      <c r="E1558" t="str">
+        <v>2022-06-16T13:01:16</v>
+      </c>
+      <c r="F1558" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1558" t="str">
+        <v>./mid_thumbs/715/IMG_8545.jpg</v>
+      </c>
+      <c r="H1558" t="str">
+        <v>./small_thumbs/715/IMG_8545.jpg</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559">
+        <v>1565</v>
+      </c>
+      <c r="B1559">
+        <v>715</v>
+      </c>
+      <c r="C1559" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1559" t="str">
+        <v>./images/715/IMG_8546.jpg</v>
+      </c>
+      <c r="E1559" t="str">
+        <v>2022-06-16T13:01:32</v>
+      </c>
+      <c r="F1559" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1559" t="str">
+        <v>./mid_thumbs/715/IMG_8546.jpg</v>
+      </c>
+      <c r="H1559" t="str">
+        <v>./small_thumbs/715/IMG_8546.jpg</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560">
+        <v>1566</v>
+      </c>
+      <c r="B1560">
+        <v>715</v>
+      </c>
+      <c r="C1560" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1560" t="str">
+        <v>./images/715/IMG_8547.jpg</v>
+      </c>
+      <c r="E1560" t="str">
+        <v>2022-06-16T13:01:59</v>
+      </c>
+      <c r="F1560" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1560" t="str">
+        <v>./mid_thumbs/715/IMG_8547.jpg</v>
+      </c>
+      <c r="H1560" t="str">
+        <v>./small_thumbs/715/IMG_8547.jpg</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561">
+        <v>1567</v>
+      </c>
+      <c r="B1561">
+        <v>720</v>
+      </c>
+      <c r="C1561" t="str">
+        <v>西ノ京集会所地蔵尊</v>
+      </c>
+      <c r="D1561" t="str">
+        <v>./images/720/IMG_8550.jpg</v>
+      </c>
+      <c r="E1561" t="str">
+        <v>2022-06-16T13:04:56</v>
+      </c>
+      <c r="F1561" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1561" t="str">
+        <v>./mid_thumbs/720/IMG_8550.jpg</v>
+      </c>
+      <c r="H1561" t="str">
+        <v>./small_thumbs/720/IMG_8550.jpg</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562">
+        <v>1568</v>
+      </c>
+      <c r="B1562">
+        <v>720</v>
+      </c>
+      <c r="C1562" t="str">
+        <v>西ノ京集会所地蔵尊 内部</v>
+      </c>
+      <c r="D1562" t="str">
+        <v>./images/720/IMG_8551.jpg</v>
+      </c>
+      <c r="E1562" t="str">
+        <v>2022-06-16T13:05:04</v>
+      </c>
+      <c r="F1562" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1562" t="str">
+        <v>./mid_thumbs/720/IMG_8551.jpg</v>
+      </c>
+      <c r="H1562" t="str">
+        <v>./small_thumbs/720/IMG_8551.jpg</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563">
+        <v>1569</v>
+      </c>
+      <c r="B1563">
+        <v>720</v>
+      </c>
+      <c r="C1563" t="str">
+        <v>西ノ京集会所地蔵尊 脇の石造物</v>
+      </c>
+      <c r="D1563" t="str">
+        <v>./images/720/IMG_8552.jpg</v>
+      </c>
+      <c r="E1563" t="str">
+        <v>2022-06-16T13:05:20</v>
+      </c>
+      <c r="F1563" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1563" t="str">
+        <v>./mid_thumbs/720/IMG_8552.jpg</v>
+      </c>
+      <c r="H1563" t="str">
+        <v>./small_thumbs/720/IMG_8552.jpg</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564">
+        <v>1570</v>
+      </c>
+      <c r="B1564">
+        <v>716</v>
+      </c>
+      <c r="C1564" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1564" t="str">
+        <v>./images/716/IMG_8553.jpg</v>
+      </c>
+      <c r="E1564" t="str">
+        <v>2022-06-16T13:15:06</v>
+      </c>
+      <c r="F1564" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1564" t="str">
+        <v>./mid_thumbs/716/IMG_8553.jpg</v>
+      </c>
+      <c r="H1564" t="str">
+        <v>./small_thumbs/716/IMG_8553.jpg</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565">
+        <v>1571</v>
+      </c>
+      <c r="B1565">
+        <v>716</v>
+      </c>
+      <c r="C1565" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1565" t="str">
+        <v>./images/716/IMG_8554.jpg</v>
+      </c>
+      <c r="E1565" t="str">
+        <v>2022-06-16T13:15:24</v>
+      </c>
+      <c r="F1565" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1565" t="str">
+        <v>./mid_thumbs/716/IMG_8554.jpg</v>
+      </c>
+      <c r="H1565" t="str">
+        <v>./small_thumbs/716/IMG_8554.jpg</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566">
+        <v>1572</v>
+      </c>
+      <c r="B1566">
+        <v>716</v>
+      </c>
+      <c r="C1566" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1566" t="str">
+        <v>./images/716/IMG_8555.jpg</v>
+      </c>
+      <c r="E1566" t="str">
+        <v>2022-06-16T13:15:31</v>
+      </c>
+      <c r="F1566" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1566" t="str">
+        <v>./mid_thumbs/716/IMG_8555.jpg</v>
+      </c>
+      <c r="H1566" t="str">
+        <v>./small_thumbs/716/IMG_8555.jpg</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567">
+        <v>1573</v>
+      </c>
+      <c r="B1567">
+        <v>716</v>
+      </c>
+      <c r="C1567" t="str">
+        <v>地蔵尊 側面</v>
+      </c>
+      <c r="D1567" t="str">
+        <v>./images/716/IMG_8556.jpg</v>
+      </c>
+      <c r="E1567" t="str">
+        <v>2022-06-16T13:15:40</v>
+      </c>
+      <c r="F1567" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1567" t="str">
+        <v>./mid_thumbs/716/IMG_8556.jpg</v>
+      </c>
+      <c r="H1567" t="str">
+        <v>./small_thumbs/716/IMG_8556.jpg</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568">
+        <v>1574</v>
+      </c>
+      <c r="B1568">
+        <v>719</v>
+      </c>
+      <c r="C1568" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1568" t="str">
+        <v>./images/719/IMG_8558.jpg</v>
+      </c>
+      <c r="E1568" t="str">
+        <v>2022-06-16T13:22:31</v>
+      </c>
+      <c r="F1568" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1568" t="str">
+        <v>./mid_thumbs/719/IMG_8558.jpg</v>
+      </c>
+      <c r="H1568" t="str">
+        <v>./small_thumbs/719/IMG_8558.jpg</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569">
+        <v>1575</v>
+      </c>
+      <c r="B1569">
+        <v>719</v>
+      </c>
+      <c r="C1569" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1569" t="str">
+        <v>./images/719/IMG_8559.jpg</v>
+      </c>
+      <c r="E1569" t="str">
+        <v>2022-06-16T13:22:39</v>
+      </c>
+      <c r="F1569" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1569" t="str">
+        <v>./mid_thumbs/719/IMG_8559.jpg</v>
+      </c>
+      <c r="H1569" t="str">
+        <v>./small_thumbs/719/IMG_8559.jpg</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570">
+        <v>1576</v>
+      </c>
+      <c r="B1570">
+        <v>719</v>
+      </c>
+      <c r="C1570" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1570" t="str">
+        <v>./images/719/IMG_8560.jpg</v>
+      </c>
+      <c r="E1570" t="str">
+        <v>2022-06-16T13:22:56</v>
+      </c>
+      <c r="F1570" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1570" t="str">
+        <v>./mid_thumbs/719/IMG_8560.jpg</v>
+      </c>
+      <c r="H1570" t="str">
+        <v>./small_thumbs/719/IMG_8560.jpg</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571">
+        <v>1577</v>
+      </c>
+      <c r="B1571">
+        <v>719</v>
+      </c>
+      <c r="C1571" t="str">
+        <v>地蔵尊 内部 奉納絵</v>
+      </c>
+      <c r="D1571" t="str">
+        <v>./images/719/IMG_8561.jpg</v>
+      </c>
+      <c r="E1571" t="str">
+        <v>2022-06-16T13:23:02</v>
+      </c>
+      <c r="F1571" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1571" t="str">
+        <v>./mid_thumbs/719/IMG_8561.jpg</v>
+      </c>
+      <c r="H1571" t="str">
+        <v>./small_thumbs/719/IMG_8561.jpg</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572">
+        <v>1578</v>
+      </c>
+      <c r="B1572">
+        <v>718</v>
+      </c>
+      <c r="C1572" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1572" t="str">
+        <v>./images/718/IMG_8563.jpg</v>
+      </c>
+      <c r="E1572" t="str">
+        <v>2022-06-16T13:32:39</v>
+      </c>
+      <c r="F1572" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1572" t="str">
+        <v>./mid_thumbs/718/IMG_8563.jpg</v>
+      </c>
+      <c r="H1572" t="str">
+        <v>./small_thumbs/718/IMG_8563.jpg</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573">
+        <v>1579</v>
+      </c>
+      <c r="B1573">
+        <v>718</v>
+      </c>
+      <c r="C1573" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1573" t="str">
+        <v>./images/718/IMG_8564.jpg</v>
+      </c>
+      <c r="E1573" t="str">
+        <v>2022-06-16T13:32:45</v>
+      </c>
+      <c r="F1573" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1573" t="str">
+        <v>./mid_thumbs/718/IMG_8564.jpg</v>
+      </c>
+      <c r="H1573" t="str">
+        <v>./small_thumbs/718/IMG_8564.jpg</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574">
+        <v>1580</v>
+      </c>
+      <c r="B1574">
+        <v>718</v>
+      </c>
+      <c r="C1574" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1574" t="str">
+        <v>./images/718/IMG_8565.jpg</v>
+      </c>
+      <c r="E1574" t="str">
+        <v>2022-06-16T13:32:54</v>
+      </c>
+      <c r="F1574" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1574" t="str">
+        <v>./mid_thumbs/718/IMG_8565.jpg</v>
+      </c>
+      <c r="H1574" t="str">
+        <v>./small_thumbs/718/IMG_8565.jpg</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575">
+        <v>1581</v>
+      </c>
+      <c r="B1575">
+        <v>813</v>
+      </c>
+      <c r="C1575" t="str">
+        <v>若宮社 鳥居</v>
+      </c>
+      <c r="D1575" t="str">
+        <v>./images/813/IMG_8571.jpg</v>
+      </c>
+      <c r="E1575" t="str">
+        <v>2022-06-16T14:32:10</v>
+      </c>
+      <c r="F1575" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1575" t="str">
+        <v>./mid_thumbs/813/IMG_8571.jpg</v>
+      </c>
+      <c r="H1575" t="str">
+        <v>./small_thumbs/813/IMG_8571.jpg</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576">
+        <v>1582</v>
+      </c>
+      <c r="B1576">
+        <v>813</v>
+      </c>
+      <c r="C1576" t="str">
+        <v>若宮社 本殿</v>
+      </c>
+      <c r="D1576" t="str">
+        <v>./images/813/IMG_8572.jpg</v>
+      </c>
+      <c r="E1576" t="str">
+        <v>2022-06-16T14:32:18</v>
+      </c>
+      <c r="F1576" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1576" t="str">
+        <v>./mid_thumbs/813/IMG_8572.jpg</v>
+      </c>
+      <c r="H1576" t="str">
+        <v>./small_thumbs/813/IMG_8572.jpg</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577">
+        <v>1583</v>
+      </c>
+      <c r="B1577">
+        <v>813</v>
+      </c>
+      <c r="C1577" t="str">
+        <v>若宮社 ご神体の石</v>
+      </c>
+      <c r="D1577" t="str">
+        <v>./images/813/IMG_8573.jpg</v>
+      </c>
+      <c r="E1577" t="str">
+        <v>2022-06-16T14:32:34</v>
+      </c>
+      <c r="F1577" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1577" t="str">
+        <v>./mid_thumbs/813/IMG_8573.jpg</v>
+      </c>
+      <c r="H1577" t="str">
+        <v>./small_thumbs/813/IMG_8573.jpg</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578">
+        <v>1584</v>
+      </c>
+      <c r="B1578">
+        <v>813</v>
+      </c>
+      <c r="C1578" t="str">
+        <v>若宮社 石灯籠</v>
+      </c>
+      <c r="D1578" t="str">
+        <v>./images/813/IMG_8574.jpg</v>
+      </c>
+      <c r="E1578" t="str">
+        <v>2022-06-16T14:32:47</v>
+      </c>
+      <c r="F1578" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1578" t="str">
+        <v>./mid_thumbs/813/IMG_8574.jpg</v>
+      </c>
+      <c r="H1578" t="str">
+        <v>./small_thumbs/813/IMG_8574.jpg</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579">
+        <v>1585</v>
+      </c>
+      <c r="B1579">
+        <v>813</v>
+      </c>
+      <c r="C1579" t="str">
+        <v>若宮社 鳥居</v>
+      </c>
+      <c r="D1579" t="str">
+        <v>./images/813/IMG_8575.jpg</v>
+      </c>
+      <c r="E1579" t="str">
+        <v>2022-06-16T14:33:10</v>
+      </c>
+      <c r="F1579" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1579" t="str">
+        <v>./mid_thumbs/813/IMG_8575.jpg</v>
+      </c>
+      <c r="H1579" t="str">
+        <v>./small_thumbs/813/IMG_8575.jpg</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580">
+        <v>1586</v>
+      </c>
+      <c r="B1580">
+        <v>706</v>
+      </c>
+      <c r="C1580" t="str">
+        <v>阿弥陀如来板碑</v>
+      </c>
+      <c r="D1580" t="str">
+        <v>./images/706/IMG_8577.jpg</v>
+      </c>
+      <c r="E1580" t="str">
+        <v>2022-06-16T14:42:18</v>
+      </c>
+      <c r="F1580" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1580" t="str">
+        <v>./mid_thumbs/706/IMG_8577.jpg</v>
+      </c>
+      <c r="H1580" t="str">
+        <v>./small_thumbs/706/IMG_8577.jpg</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581">
+        <v>1587</v>
+      </c>
+      <c r="B1581">
+        <v>706</v>
+      </c>
+      <c r="C1581" t="str">
+        <v>阿弥陀如来板碑 内部</v>
+      </c>
+      <c r="D1581" t="str">
+        <v>./images/706/IMG_8578.jpg</v>
+      </c>
+      <c r="E1581" t="str">
+        <v>2022-06-16T14:42:46</v>
+      </c>
+      <c r="F1581" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1581" t="str">
+        <v>./mid_thumbs/706/IMG_8578.jpg</v>
+      </c>
+      <c r="H1581" t="str">
+        <v>./small_thumbs/706/IMG_8578.jpg</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582">
+        <v>1588</v>
+      </c>
+      <c r="B1582">
+        <v>706</v>
+      </c>
+      <c r="C1582" t="str">
+        <v>阿弥陀如来板碑 内部</v>
+      </c>
+      <c r="D1582" t="str">
+        <v>./images/706/IMG_8579.jpg</v>
+      </c>
+      <c r="E1582" t="str">
+        <v>2022-06-16T14:47:21</v>
+      </c>
+      <c r="F1582" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1582" t="str">
+        <v>./mid_thumbs/706/IMG_8579.jpg</v>
+      </c>
+      <c r="H1582" t="str">
+        <v>./small_thumbs/706/IMG_8579.jpg</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583">
+        <v>1589</v>
+      </c>
+      <c r="B1583">
+        <v>706</v>
+      </c>
+      <c r="C1583" t="str">
+        <v>阿弥陀如来板碑</v>
+      </c>
+      <c r="D1583" t="str">
+        <v>./images/706/IMG_8580.jpg</v>
+      </c>
+      <c r="E1583" t="str">
+        <v>2022-06-16T14:47:33</v>
+      </c>
+      <c r="F1583" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1583" t="str">
+        <v>./mid_thumbs/706/IMG_8580.jpg</v>
+      </c>
+      <c r="H1583" t="str">
+        <v>./small_thumbs/706/IMG_8580.jpg</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584">
+        <v>1590</v>
+      </c>
+      <c r="B1584">
+        <v>724</v>
+      </c>
+      <c r="C1584" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1584" t="str">
+        <v>./images/724/IMG_8581.jpg</v>
+      </c>
+      <c r="E1584" t="str">
+        <v>2022-06-16T14:58:45</v>
+      </c>
+      <c r="F1584" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1584" t="str">
+        <v>./mid_thumbs/724/IMG_8581.jpg</v>
+      </c>
+      <c r="H1584" t="str">
+        <v>./small_thumbs/724/IMG_8581.jpg</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585">
+        <v>1591</v>
+      </c>
+      <c r="B1585">
+        <v>724</v>
+      </c>
+      <c r="C1585" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1585" t="str">
+        <v>./images/724/IMG_8582.jpg</v>
+      </c>
+      <c r="E1585" t="str">
+        <v>2022-06-16T14:59:04</v>
+      </c>
+      <c r="F1585" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1585" t="str">
+        <v>./mid_thumbs/724/IMG_8582.jpg</v>
+      </c>
+      <c r="H1585" t="str">
+        <v>./small_thumbs/724/IMG_8582.jpg</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586">
+        <v>1592</v>
+      </c>
+      <c r="B1586">
+        <v>724</v>
+      </c>
+      <c r="C1586" t="str">
+        <v>地蔵尊 掲げられた歌</v>
+      </c>
+      <c r="D1586" t="str">
+        <v>./images/724/IMG_8583.jpg</v>
+      </c>
+      <c r="E1586" t="str">
+        <v>2022-06-16T14:59:16</v>
+      </c>
+      <c r="F1586" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1586" t="str">
+        <v>./mid_thumbs/724/IMG_8583.jpg</v>
+      </c>
+      <c r="H1586" t="str">
+        <v>./small_thumbs/724/IMG_8583.jpg</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587">
+        <v>1593</v>
+      </c>
+      <c r="B1587">
+        <v>724</v>
+      </c>
+      <c r="C1587" t="str">
+        <v>地蔵尊 掲げられた歌</v>
+      </c>
+      <c r="D1587" t="str">
+        <v>./images/724/IMG_8584.jpg</v>
+      </c>
+      <c r="E1587" t="str">
+        <v>2022-06-16T14:59:23</v>
+      </c>
+      <c r="F1587" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1587" t="str">
+        <v>./mid_thumbs/724/IMG_8584.jpg</v>
+      </c>
+      <c r="H1587" t="str">
+        <v>./small_thumbs/724/IMG_8584.jpg</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588">
+        <v>1594</v>
+      </c>
+      <c r="B1588">
+        <v>724</v>
+      </c>
+      <c r="C1588" t="str">
+        <v>地蔵尊 内部</v>
+      </c>
+      <c r="D1588" t="str">
+        <v>./images/724/IMG_8585.jpg</v>
+      </c>
+      <c r="E1588" t="str">
+        <v>2022-06-16T14:59:35</v>
+      </c>
+      <c r="F1588" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1588" t="str">
+        <v>./mid_thumbs/724/IMG_8585.jpg</v>
+      </c>
+      <c r="H1588" t="str">
+        <v>./small_thumbs/724/IMG_8585.jpg</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589">
+        <v>1595</v>
+      </c>
+      <c r="B1589">
+        <v>814</v>
+      </c>
+      <c r="C1589" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1589" t="str">
+        <v>./images/814/IMG_8592.jpg</v>
+      </c>
+      <c r="E1589" t="str">
+        <v>2022-06-16T15:12:52</v>
+      </c>
+      <c r="F1589" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1589" t="str">
+        <v>./mid_thumbs/814/IMG_8592.jpg</v>
+      </c>
+      <c r="H1589" t="str">
+        <v>./small_thumbs/814/IMG_8592.jpg</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590">
+        <v>1596</v>
+      </c>
+      <c r="B1590">
+        <v>814</v>
+      </c>
+      <c r="C1590" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1590" t="str">
+        <v>./images/814/IMG_8593.jpg</v>
+      </c>
+      <c r="E1590" t="str">
+        <v>2022-06-16T15:13:05</v>
+      </c>
+      <c r="F1590" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1590" t="str">
+        <v>./mid_thumbs/814/IMG_8593.jpg</v>
+      </c>
+      <c r="H1590" t="str">
+        <v>./small_thumbs/814/IMG_8593.jpg</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591">
+        <v>1597</v>
+      </c>
+      <c r="B1591">
+        <v>814</v>
+      </c>
+      <c r="C1591" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1591" t="str">
+        <v>./images/814/IMG_8594.jpg</v>
+      </c>
+      <c r="E1591" t="str">
+        <v>2022-06-16T15:13:12</v>
+      </c>
+      <c r="F1591" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1591" t="str">
+        <v>./mid_thumbs/814/IMG_8594.jpg</v>
+      </c>
+      <c r="H1591" t="str">
+        <v>./small_thumbs/814/IMG_8594.jpg</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592">
+        <v>1598</v>
+      </c>
+      <c r="B1592">
+        <v>814</v>
+      </c>
+      <c r="C1592" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1592" t="str">
+        <v>./images/814/IMG_8595.jpg</v>
+      </c>
+      <c r="E1592" t="str">
+        <v>2022-06-16T15:13:22</v>
+      </c>
+      <c r="F1592" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1592" t="str">
+        <v>./mid_thumbs/814/IMG_8595.jpg</v>
+      </c>
+      <c r="H1592" t="str">
+        <v>./small_thumbs/814/IMG_8595.jpg</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593">
+        <v>1599</v>
+      </c>
+      <c r="B1593">
+        <v>725</v>
+      </c>
+      <c r="C1593" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1593" t="str">
+        <v>./images/725/IMG_8631.jpg</v>
+      </c>
+      <c r="E1593" t="str">
+        <v>2022-06-16T16:06:36</v>
+      </c>
+      <c r="F1593" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1593" t="str">
+        <v>./mid_thumbs/725/IMG_8631.jpg</v>
+      </c>
+      <c r="H1593" t="str">
+        <v>./small_thumbs/725/IMG_8631.jpg</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594">
+        <v>1600</v>
+      </c>
+      <c r="B1594">
+        <v>725</v>
+      </c>
+      <c r="C1594" t="str">
+        <v>地蔵堂 内部右</v>
+      </c>
+      <c r="D1594" t="str">
+        <v>./images/725/IMG_8632.jpg</v>
+      </c>
+      <c r="E1594" t="str">
+        <v>2022-06-16T16:06:42</v>
+      </c>
+      <c r="F1594" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1594" t="str">
+        <v>./mid_thumbs/725/IMG_8632.jpg</v>
+      </c>
+      <c r="H1594" t="str">
+        <v>./small_thumbs/725/IMG_8632.jpg</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595">
+        <v>1601</v>
+      </c>
+      <c r="B1595">
+        <v>725</v>
+      </c>
+      <c r="C1595" t="str">
+        <v>地蔵堂 内部左</v>
+      </c>
+      <c r="D1595" t="str">
+        <v>./images/725/IMG_8633.jpg</v>
+      </c>
+      <c r="E1595" t="str">
+        <v>2022-06-16T16:06:48</v>
+      </c>
+      <c r="F1595" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1595" t="str">
+        <v>./mid_thumbs/725/IMG_8633.jpg</v>
+      </c>
+      <c r="H1595" t="str">
+        <v>./small_thumbs/725/IMG_8633.jpg</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596">
+        <v>1602</v>
+      </c>
+      <c r="B1596">
+        <v>725</v>
+      </c>
+      <c r="C1596" t="str">
+        <v>地蔵堂 後面</v>
+      </c>
+      <c r="D1596" t="str">
+        <v>./images/725/IMG_8634.jpg</v>
+      </c>
+      <c r="E1596" t="str">
+        <v>2022-06-16T16:06:59</v>
+      </c>
+      <c r="F1596" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1596" t="str">
+        <v>./mid_thumbs/725/IMG_8634.jpg</v>
+      </c>
+      <c r="H1596" t="str">
+        <v>./small_thumbs/725/IMG_8634.jpg</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597">
+        <v>1603</v>
+      </c>
+      <c r="B1597">
+        <v>725</v>
+      </c>
+      <c r="C1597" t="str">
+        <v>地蔵堂 内部右</v>
+      </c>
+      <c r="D1597" t="str">
+        <v>./images/725/IMG_8635.jpg</v>
+      </c>
+      <c r="E1597" t="str">
+        <v>2022-06-16T16:07:23</v>
+      </c>
+      <c r="F1597" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1597" t="str">
+        <v>./mid_thumbs/725/IMG_8635.jpg</v>
+      </c>
+      <c r="H1597" t="str">
+        <v>./small_thumbs/725/IMG_8635.jpg</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598">
+        <v>1604</v>
+      </c>
+      <c r="B1598">
+        <v>725</v>
+      </c>
+      <c r="C1598" t="str">
+        <v>地蔵堂 内部左</v>
+      </c>
+      <c r="D1598" t="str">
+        <v>./images/725/IMG_8636.jpg</v>
+      </c>
+      <c r="E1598" t="str">
+        <v>2022-06-16T16:07:33</v>
+      </c>
+      <c r="F1598" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1598" t="str">
+        <v>./mid_thumbs/725/IMG_8636.jpg</v>
+      </c>
+      <c r="H1598" t="str">
+        <v>./small_thumbs/725/IMG_8636.jpg</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599">
+        <v>1605</v>
+      </c>
+      <c r="B1599">
+        <v>725</v>
+      </c>
+      <c r="C1599" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1599" t="str">
+        <v>./images/725/IMG_8637.jpg</v>
+      </c>
+      <c r="E1599" t="str">
+        <v>2022-06-16T16:07:57</v>
+      </c>
+      <c r="F1599" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1599" t="str">
+        <v>./mid_thumbs/725/IMG_8637.jpg</v>
+      </c>
+      <c r="H1599" t="str">
+        <v>./small_thumbs/725/IMG_8637.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1549"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1599"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M539"/>
+  <dimension ref="A1:M540"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -817,7 +817,7 @@
         <v>きたまちまっぷ お地蔵さんに「東向北地蔵」あり 現地では名称なし</v>
       </c>
       <c r="H13" t="str">
-        <v>2018-07-23</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="str">
-        <v>2016-08-19</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="str">
-        <v>2019-07-23</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="str">
-        <v>2016-11-04</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2368,7 +2368,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="str">
-        <v>2020-08-08</v>
+        <v>2022-07-23</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
       </c>
       <c r="J58">
         <v>170</v>
@@ -3240,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="str">
-        <v>2018-07-23</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -3415,7 +3418,10 @@
         <v>1</v>
       </c>
       <c r="H88" t="str">
-        <v>2016-08-19</v>
+        <v>2022-07-23</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
       </c>
       <c r="J88">
         <v>242</v>
@@ -3447,7 +3453,10 @@
         <v>1</v>
       </c>
       <c r="H89" t="str">
-        <v>2020-08-08</v>
+        <v>2022-07-23</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
       </c>
       <c r="J89">
         <v>244</v>
@@ -3479,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="str">
-        <v>2020-08-08</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -3619,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="str">
-        <v>2022-06-15</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4587,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="str">
-        <v>2018-07-23</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4657,7 +4666,10 @@
         <v>1</v>
       </c>
       <c r="H124" t="str">
-        <v>2016-11-04</v>
+        <v>2022-07-23</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
       </c>
       <c r="J124">
         <v>348</v>
@@ -12556,7 +12568,7 @@
         <v/>
       </c>
       <c r="H350" t="str">
-        <v>2022-05-19</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I350" t="b">
         <v>0</v>
@@ -12661,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="str">
-        <v>2020-08-08</v>
+        <v>2022-07-23</v>
       </c>
       <c r="I353" t="b">
         <v>0</v>
@@ -19215,16 +19227,51 @@
         <v>34.66331932345693</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540">
+        <v>815</v>
+      </c>
+      <c r="B540" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C540" t="str">
+        <v>南市町会所地蔵堂</v>
+      </c>
+      <c r="D540" t="str">
+        <v>南市町会所地蔵堂 地蔵盆の日には開け放たれるが、それ以外の日でも拝観可能とのこと</v>
+      </c>
+      <c r="E540" t="b">
+        <v>1</v>
+      </c>
+      <c r="H540" t="str">
+        <v>2022-07-23</v>
+      </c>
+      <c r="I540" t="b">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>1608</v>
+      </c>
+      <c r="K540" t="str">
+        <v>南市町</v>
+      </c>
+      <c r="L540">
+        <v>135.82967778510223</v>
+      </c>
+      <c r="M540">
+        <v>34.680416926366675</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M539"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M540"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1599"/>
+  <dimension ref="A1:H1619"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -60803,9 +60850,529 @@
         <v>./small_thumbs/725/IMG_8637.jpg</v>
       </c>
     </row>
+    <row r="1600">
+      <c r="A1600">
+        <v>1606</v>
+      </c>
+      <c r="B1600">
+        <v>17</v>
+      </c>
+      <c r="C1600" t="str">
+        <v>率川地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1600" t="str">
+        <v>./images/17/IMG_9231.jpg</v>
+      </c>
+      <c r="E1600" t="str">
+        <v>2022-07-23T19:17:57</v>
+      </c>
+      <c r="F1600" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1600" t="str">
+        <v>./mid_thumbs/17/IMG_9231.jpg</v>
+      </c>
+      <c r="H1600" t="str">
+        <v>./small_thumbs/17/IMG_9231.jpg</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601">
+        <v>1607</v>
+      </c>
+      <c r="B1601">
+        <v>121</v>
+      </c>
+      <c r="C1601" t="str">
+        <v>菊岡漢方薬局地蔵堂 令和4年地蔵盆</v>
+      </c>
+      <c r="D1601" t="str">
+        <v>./images/121/IMG_9218.jpg</v>
+      </c>
+      <c r="E1601" t="str">
+        <v>2022-07-23T17:18:43</v>
+      </c>
+      <c r="F1601" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1601" t="str">
+        <v>./mid_thumbs/121/IMG_9218.jpg</v>
+      </c>
+      <c r="H1601" t="str">
+        <v>./small_thumbs/121/IMG_9218.jpg</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602">
+        <v>1608</v>
+      </c>
+      <c r="B1602">
+        <v>815</v>
+      </c>
+      <c r="C1602" t="str">
+        <v>南市町会所地蔵堂</v>
+      </c>
+      <c r="D1602" t="str">
+        <v>./images/815/IMG_9209.jpg</v>
+      </c>
+      <c r="E1602" t="str">
+        <v>2022-07-23T17:08:10</v>
+      </c>
+      <c r="F1602" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1602" t="str">
+        <v>./mid_thumbs/815/IMG_9209.jpg</v>
+      </c>
+      <c r="H1602" t="str">
+        <v>./small_thumbs/815/IMG_9209.jpg</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603">
+        <v>1609</v>
+      </c>
+      <c r="B1603">
+        <v>815</v>
+      </c>
+      <c r="C1603" t="str">
+        <v>南市町会所地蔵堂 内部</v>
+      </c>
+      <c r="D1603" t="str">
+        <v>./images/815/IMG_9210.jpg</v>
+      </c>
+      <c r="E1603" t="str">
+        <v>2022-07-23T17:08:21</v>
+      </c>
+      <c r="F1603" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1603" t="str">
+        <v>./mid_thumbs/815/IMG_9210.jpg</v>
+      </c>
+      <c r="H1603" t="str">
+        <v>./small_thumbs/815/IMG_9210.jpg</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604">
+        <v>1610</v>
+      </c>
+      <c r="B1604">
+        <v>815</v>
+      </c>
+      <c r="C1604" t="str">
+        <v>南市町会所地蔵堂 地蔵堂の欄間の龍</v>
+      </c>
+      <c r="D1604" t="str">
+        <v>./images/815/IMG_9211.jpg</v>
+      </c>
+      <c r="E1604" t="str">
+        <v>2022-07-23T17:08:32</v>
+      </c>
+      <c r="F1604" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1604" t="str">
+        <v>./mid_thumbs/815/IMG_9211.jpg</v>
+      </c>
+      <c r="H1604" t="str">
+        <v>./small_thumbs/815/IMG_9211.jpg</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605">
+        <v>1611</v>
+      </c>
+      <c r="B1605">
+        <v>815</v>
+      </c>
+      <c r="C1605" t="str">
+        <v>南市町会所地蔵堂 表の門</v>
+      </c>
+      <c r="D1605" t="str">
+        <v>./images/815/IMG_9216.jpg</v>
+      </c>
+      <c r="E1605" t="str">
+        <v>2022-07-23T17:11:59</v>
+      </c>
+      <c r="F1605" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1605" t="str">
+        <v>./mid_thumbs/815/IMG_9216.jpg</v>
+      </c>
+      <c r="H1605" t="str">
+        <v>./small_thumbs/815/IMG_9216.jpg</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606">
+        <v>1612</v>
+      </c>
+      <c r="B1606">
+        <v>87</v>
+      </c>
+      <c r="C1606" t="str">
+        <v>地蔵堂 川上町 令和4年地蔵盆</v>
+      </c>
+      <c r="D1606" t="str">
+        <v>./images/87/IMG_9193.jpg</v>
+      </c>
+      <c r="E1606" t="str">
+        <v>2022-07-23T14:47:40</v>
+      </c>
+      <c r="F1606" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1606" t="str">
+        <v>./mid_thumbs/87/IMG_9193.jpg</v>
+      </c>
+      <c r="H1606" t="str">
+        <v>./small_thumbs/87/IMG_9193.jpg</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607">
+        <v>1613</v>
+      </c>
+      <c r="B1607">
+        <v>93</v>
+      </c>
+      <c r="C1607" t="str">
+        <v>北向地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1607" t="str">
+        <v>./images/93/IMG_9192.jpg</v>
+      </c>
+      <c r="E1607" t="str">
+        <v>2022-07-23T14:42:06</v>
+      </c>
+      <c r="F1607" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1607" t="str">
+        <v>./mid_thumbs/93/IMG_9192.jpg</v>
+      </c>
+      <c r="H1607" t="str">
+        <v>./small_thumbs/93/IMG_9192.jpg</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608">
+        <v>1614</v>
+      </c>
+      <c r="B1608">
+        <v>123</v>
+      </c>
+      <c r="C1608" t="str">
+        <v>佐保川地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1608" t="str">
+        <v>./images/123/IMG_9191.jpg</v>
+      </c>
+      <c r="E1608" t="str">
+        <v>2022-07-23T14:39:55</v>
+      </c>
+      <c r="F1608" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1608" t="str">
+        <v>./mid_thumbs/123/IMG_9191.jpg</v>
+      </c>
+      <c r="H1608" t="str">
+        <v>./small_thumbs/123/IMG_9191.jpg</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609">
+        <v>1615</v>
+      </c>
+      <c r="B1609">
+        <v>45</v>
+      </c>
+      <c r="C1609" t="str">
+        <v>川上町 丘の中腹 地蔵堂 令和4年地蔵盆 内部</v>
+      </c>
+      <c r="D1609" t="str">
+        <v>./images/45/IMG_9188.jpg</v>
+      </c>
+      <c r="E1609" t="str">
+        <v>2022-07-23T14:33:38</v>
+      </c>
+      <c r="F1609" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1609" t="str">
+        <v>./mid_thumbs/45/IMG_9188.jpg</v>
+      </c>
+      <c r="H1609" t="str">
+        <v>./small_thumbs/45/IMG_9188.jpg</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610">
+        <v>1616</v>
+      </c>
+      <c r="B1610">
+        <v>45</v>
+      </c>
+      <c r="C1610" t="str">
+        <v>川上町 丘の中腹 地蔵堂 令和4年地蔵盆</v>
+      </c>
+      <c r="D1610" t="str">
+        <v>./images/45/IMG_9189.jpg</v>
+      </c>
+      <c r="E1610" t="str">
+        <v>2022-07-23T14:34:31</v>
+      </c>
+      <c r="F1610" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1610" t="str">
+        <v>./mid_thumbs/45/IMG_9189.jpg</v>
+      </c>
+      <c r="H1610" t="str">
+        <v>./small_thumbs/45/IMG_9189.jpg</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611">
+        <v>1617</v>
+      </c>
+      <c r="B1611">
+        <v>626</v>
+      </c>
+      <c r="C1611" t="str">
+        <v>多門町 地蔵群 令和4年地蔵盆</v>
+      </c>
+      <c r="D1611" t="str">
+        <v>./images/626/IMG_9187.jpg</v>
+      </c>
+      <c r="E1611" t="str">
+        <v>2022-07-23T14:25:38</v>
+      </c>
+      <c r="F1611" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1611" t="str">
+        <v>./mid_thumbs/626/IMG_9187.jpg</v>
+      </c>
+      <c r="H1611" t="str">
+        <v>./small_thumbs/626/IMG_9187.jpg</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612">
+        <v>1618</v>
+      </c>
+      <c r="B1612">
+        <v>57</v>
+      </c>
+      <c r="C1612" t="str">
+        <v>多門町 地蔵堂 令和4年地蔵盆</v>
+      </c>
+      <c r="D1612" t="str">
+        <v>./images/57/IMG_9186.jpg</v>
+      </c>
+      <c r="E1612" t="str">
+        <v>2022-07-23T14:21:44</v>
+      </c>
+      <c r="F1612" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1612" t="str">
+        <v>./mid_thumbs/57/IMG_9186.jpg</v>
+      </c>
+      <c r="H1612" t="str">
+        <v>./small_thumbs/57/IMG_9186.jpg</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613">
+        <v>1619</v>
+      </c>
+      <c r="B1613">
+        <v>88</v>
+      </c>
+      <c r="C1613" t="str">
+        <v>川中地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1613" t="str">
+        <v>./images/88/IMG_9185.jpg</v>
+      </c>
+      <c r="E1613" t="str">
+        <v>2022-07-23T14:19:15</v>
+      </c>
+      <c r="F1613" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1613" t="str">
+        <v>./mid_thumbs/88/IMG_9185.jpg</v>
+      </c>
+      <c r="H1613" t="str">
+        <v>./small_thumbs/88/IMG_9185.jpg</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614">
+        <v>1620</v>
+      </c>
+      <c r="B1614">
+        <v>15</v>
+      </c>
+      <c r="C1614" t="str">
+        <v>普光院北 地蔵群 令和4年地蔵盆</v>
+      </c>
+      <c r="D1614" t="str">
+        <v>./images/15/IMG_9184.jpg</v>
+      </c>
+      <c r="E1614" t="str">
+        <v>2022-07-23T14:18:19</v>
+      </c>
+      <c r="F1614" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1614" t="str">
+        <v>./mid_thumbs/15/IMG_9184.jpg</v>
+      </c>
+      <c r="H1614" t="str">
+        <v>./small_thumbs/15/IMG_9184.jpg</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615">
+        <v>1621</v>
+      </c>
+      <c r="B1615">
+        <v>89</v>
+      </c>
+      <c r="C1615" t="str">
+        <v>川中地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1615" t="str">
+        <v>./images/89/IMG_9167.jpg</v>
+      </c>
+      <c r="E1615" t="str">
+        <v>2022-07-23T13:49:09</v>
+      </c>
+      <c r="F1615" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1615" t="str">
+        <v>./mid_thumbs/89/IMG_9167.jpg</v>
+      </c>
+      <c r="H1615" t="str">
+        <v>./small_thumbs/89/IMG_9167.jpg</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616">
+        <v>1622</v>
+      </c>
+      <c r="B1616">
+        <v>82</v>
+      </c>
+      <c r="C1616" t="str">
+        <v>十福地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1616" t="str">
+        <v>./images/82/IMG_9165.jpg</v>
+      </c>
+      <c r="E1616" t="str">
+        <v>2022-07-23T13:34:08</v>
+      </c>
+      <c r="F1616" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1616" t="str">
+        <v>./mid_thumbs/82/IMG_9165.jpg</v>
+      </c>
+      <c r="H1616" t="str">
+        <v>./small_thumbs/82/IMG_9165.jpg</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617">
+        <v>1623</v>
+      </c>
+      <c r="B1617">
+        <v>82</v>
+      </c>
+      <c r="C1617" t="str">
+        <v>十福地蔵尊 令和4年地蔵盆 内部</v>
+      </c>
+      <c r="D1617" t="str">
+        <v>./images/82/IMG_9166.jpg</v>
+      </c>
+      <c r="E1617" t="str">
+        <v>2022-07-23T13:34:42</v>
+      </c>
+      <c r="F1617" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1617" t="str">
+        <v>./mid_thumbs/82/IMG_9166.jpg</v>
+      </c>
+      <c r="H1617" t="str">
+        <v>./small_thumbs/82/IMG_9166.jpg</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618">
+        <v>1624</v>
+      </c>
+      <c r="B1618">
+        <v>12</v>
+      </c>
+      <c r="C1618" t="str">
+        <v>東向北地蔵尊 令和4年地蔵盆</v>
+      </c>
+      <c r="D1618" t="str">
+        <v>./images/12/IMG_9164.jpg</v>
+      </c>
+      <c r="E1618" t="str">
+        <v>2022-07-23T13:30:51</v>
+      </c>
+      <c r="F1618" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1618" t="str">
+        <v>./mid_thumbs/12/IMG_9164.jpg</v>
+      </c>
+      <c r="H1618" t="str">
+        <v>./small_thumbs/12/IMG_9164.jpg</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619">
+        <v>1625</v>
+      </c>
+      <c r="B1619">
+        <v>623</v>
+      </c>
+      <c r="C1619" t="str">
+        <v>見初社地蔵堂 令和4年地蔵盆</v>
+      </c>
+      <c r="D1619" t="str">
+        <v>./images/623/IMG_9163.jpg</v>
+      </c>
+      <c r="E1619" t="str">
+        <v>2022-07-23T13:19:10</v>
+      </c>
+      <c r="F1619" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1619" t="str">
+        <v>./mid_thumbs/623/IMG_9163.jpg</v>
+      </c>
+      <c r="H1619" t="str">
+        <v>./small_thumbs/623/IMG_9163.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1599"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1619"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M540"/>
+  <dimension ref="A1:M544"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6327,7 +6327,7 @@
         <v>地蔵</v>
       </c>
       <c r="C173" t="str">
-        <v>地蔵堂</v>
+        <v>芝辻町地蔵堂</v>
       </c>
       <c r="D173" t="str">
         <v>芝辻町</v>
@@ -6336,7 +6336,10 @@
         <v>1</v>
       </c>
       <c r="H173" t="str">
-        <v>2016-08-06</v>
+        <v>2022-08-23</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
       </c>
       <c r="J173">
         <v>659</v>
@@ -16994,7 +16997,7 @@
         <v/>
       </c>
       <c r="H475" t="str">
-        <v>2022-06-15</v>
+        <v>2022-08-23</v>
       </c>
       <c r="I475" t="b">
         <v>0</v>
@@ -19262,16 +19265,156 @@
         <v>34.680416926366675</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541">
+        <v>816</v>
+      </c>
+      <c r="B541" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C541" t="str">
+        <v>太田大明神</v>
+      </c>
+      <c r="D541" t="str">
+        <v>正一位太田大明神</v>
+      </c>
+      <c r="E541" t="b">
+        <v>1</v>
+      </c>
+      <c r="H541" t="str">
+        <v>2022-08-23</v>
+      </c>
+      <c r="I541" t="b">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>1626</v>
+      </c>
+      <c r="K541" t="str">
+        <v>芝辻町</v>
+      </c>
+      <c r="L541">
+        <v>135.82162587275087</v>
+      </c>
+      <c r="M541">
+        <v>34.68653881714533</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542">
+        <v>817</v>
+      </c>
+      <c r="B542" t="str">
+        <v>庚申</v>
+      </c>
+      <c r="C542" t="str">
+        <v>太田大明神境内庚申塔</v>
+      </c>
+      <c r="D542" t="str">
+        <v>太田大明神境内の庚申塔</v>
+      </c>
+      <c r="E542" t="b">
+        <v>1</v>
+      </c>
+      <c r="H542" t="str">
+        <v>2022-08-23</v>
+      </c>
+      <c r="I542" t="b">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>1633</v>
+      </c>
+      <c r="K542" t="str">
+        <v>芝辻町</v>
+      </c>
+      <c r="L542">
+        <v>135.8216271774503</v>
+      </c>
+      <c r="M542">
+        <v>34.68656349026994</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543">
+        <v>818</v>
+      </c>
+      <c r="B543" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C543" t="str">
+        <v>本子守町地蔵尊</v>
+      </c>
+      <c r="D543" t="str">
+        <v>本子守町</v>
+      </c>
+      <c r="E543" t="b">
+        <v>1</v>
+      </c>
+      <c r="H543" t="str">
+        <v>2022-08-23</v>
+      </c>
+      <c r="I543" t="b">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>1637</v>
+      </c>
+      <c r="K543" t="str">
+        <v>本子守町</v>
+      </c>
+      <c r="L543">
+        <v>135.8259587303023</v>
+      </c>
+      <c r="M543">
+        <v>34.680974538429055</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544">
+        <v>819</v>
+      </c>
+      <c r="B544" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C544" t="str">
+        <v>伝香寺駐車場地蔵尊</v>
+      </c>
+      <c r="D544" t="str">
+        <v>小川町 伝香寺境内</v>
+      </c>
+      <c r="E544" t="b">
+        <v>1</v>
+      </c>
+      <c r="H544" t="str">
+        <v>2021-07-23</v>
+      </c>
+      <c r="I544" t="b">
+        <v>0</v>
+      </c>
+      <c r="J544">
+        <v>1639</v>
+      </c>
+      <c r="K544" t="str">
+        <v>小川町</v>
+      </c>
+      <c r="L544">
+        <v>135.82593916059838</v>
+      </c>
+      <c r="M544">
+        <v>34.680783570150766</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M540"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M544"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1619"/>
+  <dimension ref="A1:H1637"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -61370,9 +61513,477 @@
         <v>./small_thumbs/623/IMG_9163.jpg</v>
       </c>
     </row>
+    <row r="1620">
+      <c r="A1620">
+        <v>1626</v>
+      </c>
+      <c r="B1620">
+        <v>816</v>
+      </c>
+      <c r="C1620" t="str">
+        <v>太田大明神 鳥居</v>
+      </c>
+      <c r="D1620" t="str">
+        <v>./images/816/IMG_0379.jpg</v>
+      </c>
+      <c r="E1620" t="str">
+        <v>2022-08-23T12:40:55</v>
+      </c>
+      <c r="F1620" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1620" t="str">
+        <v>./mid_thumbs/816/IMG_0379.jpg</v>
+      </c>
+      <c r="H1620" t="str">
+        <v>./small_thumbs/816/IMG_0379.jpg</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621">
+        <v>1627</v>
+      </c>
+      <c r="B1621">
+        <v>816</v>
+      </c>
+      <c r="C1621" t="str">
+        <v>太田大明神 祠</v>
+      </c>
+      <c r="D1621" t="str">
+        <v>./images/816/IMG_0380.jpg</v>
+      </c>
+      <c r="E1621" t="str">
+        <v>2022-08-23T12:41:09</v>
+      </c>
+      <c r="F1621" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1621" t="str">
+        <v>./mid_thumbs/816/IMG_0380.jpg</v>
+      </c>
+      <c r="H1621" t="str">
+        <v>./small_thumbs/816/IMG_0380.jpg</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622">
+        <v>1628</v>
+      </c>
+      <c r="B1622">
+        <v>816</v>
+      </c>
+      <c r="C1622" t="str">
+        <v>太田大明神 鳥居</v>
+      </c>
+      <c r="D1622" t="str">
+        <v>./images/816/IMG_2327.jpg</v>
+      </c>
+      <c r="E1622" t="str">
+        <v>2017-06-17T12:45:05</v>
+      </c>
+      <c r="F1622" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1622" t="str">
+        <v>./mid_thumbs/816/IMG_2327.jpg</v>
+      </c>
+      <c r="H1622" t="str">
+        <v>./small_thumbs/816/IMG_2327.jpg</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623">
+        <v>1629</v>
+      </c>
+      <c r="B1623">
+        <v>816</v>
+      </c>
+      <c r="C1623" t="str">
+        <v>太田大明神 社名石碑</v>
+      </c>
+      <c r="D1623" t="str">
+        <v>./images/816/IMG_2328.jpg</v>
+      </c>
+      <c r="E1623" t="str">
+        <v>2017-06-17T12:45:11</v>
+      </c>
+      <c r="F1623" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1623" t="str">
+        <v>./mid_thumbs/816/IMG_2328.jpg</v>
+      </c>
+      <c r="H1623" t="str">
+        <v>./small_thumbs/816/IMG_2328.jpg</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624">
+        <v>1630</v>
+      </c>
+      <c r="B1624">
+        <v>816</v>
+      </c>
+      <c r="C1624" t="str">
+        <v>太田大明神 石狐左側</v>
+      </c>
+      <c r="D1624" t="str">
+        <v>./images/816/IMG_2329.jpg</v>
+      </c>
+      <c r="E1624" t="str">
+        <v>2017-06-17T12:45:41</v>
+      </c>
+      <c r="F1624" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1624" t="str">
+        <v>./mid_thumbs/816/IMG_2329.jpg</v>
+      </c>
+      <c r="H1624" t="str">
+        <v>./small_thumbs/816/IMG_2329.jpg</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625">
+        <v>1631</v>
+      </c>
+      <c r="B1625">
+        <v>816</v>
+      </c>
+      <c r="C1625" t="str">
+        <v>太田大明神 石狐右側</v>
+      </c>
+      <c r="D1625" t="str">
+        <v>./images/816/IMG_2330.jpg</v>
+      </c>
+      <c r="E1625" t="str">
+        <v>2017-06-17T12:45:44</v>
+      </c>
+      <c r="F1625" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1625" t="str">
+        <v>./mid_thumbs/816/IMG_2330.jpg</v>
+      </c>
+      <c r="H1625" t="str">
+        <v>./small_thumbs/816/IMG_2330.jpg</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626">
+        <v>1632</v>
+      </c>
+      <c r="B1626">
+        <v>816</v>
+      </c>
+      <c r="C1626" t="str">
+        <v>太田大明神 祠</v>
+      </c>
+      <c r="D1626" t="str">
+        <v>./images/816/IMG_2331.jpg</v>
+      </c>
+      <c r="E1626" t="str">
+        <v>2017-06-17T12:45:50</v>
+      </c>
+      <c r="F1626" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1626" t="str">
+        <v>./mid_thumbs/816/IMG_2331.jpg</v>
+      </c>
+      <c r="H1626" t="str">
+        <v>./small_thumbs/816/IMG_2331.jpg</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627">
+        <v>1633</v>
+      </c>
+      <c r="B1627">
+        <v>817</v>
+      </c>
+      <c r="C1627" t="str">
+        <v>太田大明神境内庚申塔</v>
+      </c>
+      <c r="D1627" t="str">
+        <v>./images/817/IMG_0381.jpg</v>
+      </c>
+      <c r="E1627" t="str">
+        <v>2022-08-23T12:41:15</v>
+      </c>
+      <c r="F1627" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1627" t="str">
+        <v>./mid_thumbs/817/IMG_0381.jpg</v>
+      </c>
+      <c r="H1627" t="str">
+        <v>./small_thumbs/817/IMG_0381.jpg</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628">
+        <v>1634</v>
+      </c>
+      <c r="B1628">
+        <v>817</v>
+      </c>
+      <c r="C1628" t="str">
+        <v>太田大明神境内庚申塔</v>
+      </c>
+      <c r="D1628" t="str">
+        <v>./images/817/IMG_2332.jpg</v>
+      </c>
+      <c r="E1628" t="str">
+        <v>2017-06-17T12:46:01</v>
+      </c>
+      <c r="F1628" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1628" t="str">
+        <v>./mid_thumbs/817/IMG_2332.jpg</v>
+      </c>
+      <c r="H1628" t="str">
+        <v>./small_thumbs/817/IMG_2332.jpg</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629">
+        <v>1635</v>
+      </c>
+      <c r="B1629">
+        <v>173</v>
+      </c>
+      <c r="C1629" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1629" t="str">
+        <v>./images/173/IMG_0383.jpg</v>
+      </c>
+      <c r="E1629" t="str">
+        <v>2022-08-23T12:52:12</v>
+      </c>
+      <c r="F1629" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1629" t="str">
+        <v>./mid_thumbs/173/IMG_0383.jpg</v>
+      </c>
+      <c r="H1629" t="str">
+        <v>./small_thumbs/173/IMG_0383.jpg</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630">
+        <v>1636</v>
+      </c>
+      <c r="B1630">
+        <v>173</v>
+      </c>
+      <c r="C1630" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1630" t="str">
+        <v>./images/173/IMG_0384.jpg</v>
+      </c>
+      <c r="E1630" t="str">
+        <v>2022-08-23T12:52:17</v>
+      </c>
+      <c r="F1630" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1630" t="str">
+        <v>./mid_thumbs/173/IMG_0384.jpg</v>
+      </c>
+      <c r="H1630" t="str">
+        <v>./small_thumbs/173/IMG_0384.jpg</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631">
+        <v>1637</v>
+      </c>
+      <c r="B1631">
+        <v>818</v>
+      </c>
+      <c r="C1631" t="str">
+        <v>本子守町地蔵尊</v>
+      </c>
+      <c r="D1631" t="str">
+        <v>./images/818/IMG_0472.jpg</v>
+      </c>
+      <c r="E1631" t="str">
+        <v>2022-08-23T14:43:43</v>
+      </c>
+      <c r="F1631" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1631" t="str">
+        <v>./mid_thumbs/818/IMG_0472.jpg</v>
+      </c>
+      <c r="H1631" t="str">
+        <v>./small_thumbs/818/IMG_0472.jpg</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632">
+        <v>1638</v>
+      </c>
+      <c r="B1632">
+        <v>818</v>
+      </c>
+      <c r="C1632" t="str">
+        <v>本子守町地蔵尊 引き</v>
+      </c>
+      <c r="D1632" t="str">
+        <v>./images/818/IMG_0473.jpg</v>
+      </c>
+      <c r="E1632" t="str">
+        <v>2022-08-23T14:43:50</v>
+      </c>
+      <c r="F1632" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1632" t="str">
+        <v>./mid_thumbs/818/IMG_0473.jpg</v>
+      </c>
+      <c r="H1632" t="str">
+        <v>./small_thumbs/818/IMG_0473.jpg</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633">
+        <v>1639</v>
+      </c>
+      <c r="B1633">
+        <v>819</v>
+      </c>
+      <c r="C1633" t="str">
+        <v>伝香寺駐車場地蔵尊</v>
+      </c>
+      <c r="D1633" t="str">
+        <v>./images/819/IMG_2230.jpg</v>
+      </c>
+      <c r="E1633" t="str">
+        <v>2017-06-17T09:11:48</v>
+      </c>
+      <c r="F1633" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1633" t="str">
+        <v>./mid_thumbs/819/IMG_2230.jpg</v>
+      </c>
+      <c r="H1633" t="str">
+        <v>./small_thumbs/819/IMG_2230.jpg</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634">
+        <v>1640</v>
+      </c>
+      <c r="B1634">
+        <v>819</v>
+      </c>
+      <c r="C1634" t="str">
+        <v>伝香寺駐車場地蔵尊</v>
+      </c>
+      <c r="D1634" t="str">
+        <v>./images/819/IMG_2400.jpg</v>
+      </c>
+      <c r="E1634" t="str">
+        <v>2021-07-23T15:50:09</v>
+      </c>
+      <c r="F1634" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1634" t="str">
+        <v>./mid_thumbs/819/IMG_2400.jpg</v>
+      </c>
+      <c r="H1634" t="str">
+        <v>./small_thumbs/819/IMG_2400.jpg</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635">
+        <v>1641</v>
+      </c>
+      <c r="B1635">
+        <v>749</v>
+      </c>
+      <c r="C1635" t="str">
+        <v>地蔵尊</v>
+      </c>
+      <c r="D1635" t="str">
+        <v>./images/749/IMG_0479.jpg</v>
+      </c>
+      <c r="E1635" t="str">
+        <v>2022-08-23T14:57:03</v>
+      </c>
+      <c r="F1635" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1635" t="str">
+        <v>./mid_thumbs/749/IMG_0479.jpg</v>
+      </c>
+      <c r="H1635" t="str">
+        <v>./small_thumbs/749/IMG_0479.jpg</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636">
+        <v>1642</v>
+      </c>
+      <c r="B1636">
+        <v>749</v>
+      </c>
+      <c r="C1636" t="str">
+        <v>地蔵尊 内部左</v>
+      </c>
+      <c r="D1636" t="str">
+        <v>./images/749/IMG_0480.jpg</v>
+      </c>
+      <c r="E1636" t="str">
+        <v>2022-08-23T14:57:08</v>
+      </c>
+      <c r="F1636" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1636" t="str">
+        <v>./mid_thumbs/749/IMG_0480.jpg</v>
+      </c>
+      <c r="H1636" t="str">
+        <v>./small_thumbs/749/IMG_0480.jpg</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637">
+        <v>1643</v>
+      </c>
+      <c r="B1637">
+        <v>749</v>
+      </c>
+      <c r="C1637" t="str">
+        <v>地蔵尊 内部右</v>
+      </c>
+      <c r="D1637" t="str">
+        <v>./images/749/IMG_0481.jpg</v>
+      </c>
+      <c r="E1637" t="str">
+        <v>2022-08-23T14:57:10</v>
+      </c>
+      <c r="F1637" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1637" t="str">
+        <v>./mid_thumbs/749/IMG_0481.jpg</v>
+      </c>
+      <c r="H1637" t="str">
+        <v>./small_thumbs/749/IMG_0481.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1619"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1637"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -442,7 +442,7 @@
         <v>総高</v>
       </c>
       <c r="T1" t="str">
-        <v>像高</v>
+        <v>部分高</v>
       </c>
       <c r="U1" t="str">
         <v>幅</v>
@@ -10193,7 +10193,7 @@
         <v>西御門町</v>
       </c>
       <c r="L237" t="str" xml:space="preserve">
-        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d_
+        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d__x000d_
 現在の祭神は、奈良市史社寺編によると、天忍雲根命（あめのおしくもねのみこと）、底筒男神（そこつつのおのかみ）、金山彦神（かなやまひこのかみ）の三座ということです。天忍雲根命は春日若宮、底筒男神は住吉三神の一柱ですから、文曲星は金山彦神に変わったのでしょうか。北には会所もあり、木造観世音菩薩や地蔵立像が安置されているそうで、江戸期の観音堂の名残でしょうか。北西には石地蔵が祀られた地蔵堂もあります。</v>
       </c>
       <c r="O237" t="str">
@@ -22506,8 +22506,8 @@
         <v>歌姫町</v>
       </c>
       <c r="O534" t="str" xml:space="preserve">
-        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d_
-地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d_
+        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d__x000d_
+地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d__x000d_
 また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
       </c>
       <c r="P534" t="str">

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -7712,7 +7712,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C177" t="str">
         <v>本尊阿弥陀三尊</v>
@@ -7753,7 +7753,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C178" t="str">
         <v>朝日妙見大菩薩 七面大天女 鬼子母大善神</v>
@@ -7794,7 +7794,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C179" t="str">
         <v>法徳寺毘沙門堂</v>
@@ -7835,7 +7835,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C180" t="str">
         <v>仏教石碑のお堂</v>
@@ -7876,7 +7876,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C181" t="str">
         <v>仏教石碑</v>
@@ -7917,7 +7917,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C182" t="str">
         <v>大師堂</v>
@@ -7958,7 +7958,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C183" t="str">
         <v>大師堂</v>
@@ -7999,7 +7999,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C184" t="str">
         <v>五輪塔堂</v>
@@ -8040,7 +8040,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C185" t="str">
         <v>線刻の五輪塔</v>
@@ -8081,7 +8081,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C186" t="str">
         <v>弘法井戸</v>
@@ -8122,7 +8122,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C187" t="str">
         <v>庚申堂</v>
@@ -8163,7 +8163,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C188" t="str">
         <v>石仏を祀るお堂</v>
@@ -8204,7 +8204,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C189" t="str">
         <v>弥勒堂</v>
@@ -8245,7 +8245,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C190" t="str">
         <v>聖天堂</v>
@@ -8286,7 +8286,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C191" t="str">
         <v>いくつかの尊像</v>
@@ -8327,7 +8327,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C192" t="str">
         <v>聖寶理源大師堂</v>
@@ -8368,7 +8368,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C193" t="str">
         <v>修行大師尊像</v>
@@ -8409,7 +8409,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C194" t="str">
         <v>石碑？のお堂</v>
@@ -8450,7 +8450,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C195" t="str">
         <v>石造大日如来</v>
@@ -8491,7 +8491,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C196" t="str">
         <v>阿弥陀堂</v>
@@ -8532,7 +8532,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C197" t="str">
         <v>北向庚申堂（或いは誕生寺薬師堂）</v>
@@ -8573,7 +8573,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C198" t="str">
         <v>石の阿弥陀</v>
@@ -8614,7 +8614,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C199" t="str">
         <v>名号石碑</v>
@@ -8661,7 +8661,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C200" t="str">
         <v>卒都婆レリーフ</v>
@@ -8702,7 +8702,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C201" t="str">
         <v>名号石碑</v>
@@ -8743,7 +8743,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C202" t="str">
         <v>石仏</v>
@@ -8784,7 +8784,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C203" t="str">
         <v>十一面観音石仏</v>
@@ -10193,7 +10193,7 @@
         <v>西御門町</v>
       </c>
       <c r="L237" t="str" xml:space="preserve">
-        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d__x000d_
+        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d__x000d__x000d_
 現在の祭神は、奈良市史社寺編によると、天忍雲根命（あめのおしくもねのみこと）、底筒男神（そこつつのおのかみ）、金山彦神（かなやまひこのかみ）の三座ということです。天忍雲根命は春日若宮、底筒男神は住吉三神の一柱ですから、文曲星は金山彦神に変わったのでしょうか。北には会所もあり、木造観世音菩薩や地蔵立像が安置されているそうで、江戸期の観音堂の名残でしょうか。北西には石地蔵が祀られた地蔵堂もあります。</v>
       </c>
       <c r="O237" t="str">
@@ -12039,7 +12039,7 @@
         <v>554</v>
       </c>
       <c r="B282" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C282" t="str">
         <v>大日如来石仏</v>
@@ -12171,7 +12171,7 @@
         <v>557</v>
       </c>
       <c r="B285" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C285" t="str">
         <v>地蔵菩薩と掲げられた不動明王</v>
@@ -12388,7 +12388,7 @@
         <v>562</v>
       </c>
       <c r="B290" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C290" t="str">
         <v>名号石碑</v>
@@ -12432,7 +12432,7 @@
         <v>563</v>
       </c>
       <c r="B291" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C291" t="str">
         <v>名号石碑の御堂</v>
@@ -13627,7 +13627,7 @@
         <v>593</v>
       </c>
       <c r="B320" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C320" t="str">
         <v>浮彫五輪塔</v>
@@ -13668,7 +13668,7 @@
         <v>594</v>
       </c>
       <c r="B321" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C321" t="str">
         <v>浮彫五輪塔</v>
@@ -14043,7 +14043,7 @@
         <v>603</v>
       </c>
       <c r="B330" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C330" t="str">
         <v>浮彫五輪塔など</v>
@@ -14788,7 +14788,7 @@
         <v>620</v>
       </c>
       <c r="B347" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C347" t="str">
         <v>薬師瑠璃光如来 石仏</v>
@@ -15248,7 +15248,7 @@
         <v>631</v>
       </c>
       <c r="B358" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C358" t="str">
         <v>名号石碑など群</v>
@@ -15289,7 +15289,7 @@
         <v>632</v>
       </c>
       <c r="B359" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C359" t="str">
         <v>名号石碑など</v>
@@ -16027,7 +16027,7 @@
         <v>650</v>
       </c>
       <c r="B377" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C377" t="str">
         <v>水門町の浮彫五輪塔群</v>
@@ -16806,7 +16806,7 @@
         <v>669</v>
       </c>
       <c r="B396" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C396" t="str">
         <v>川上町 坂路地三叉路地蔵堂下の石造物</v>
@@ -17257,7 +17257,7 @@
         <v>680</v>
       </c>
       <c r="B407" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C407" t="str">
         <v>観音寺 木蔵十一面観音立像</v>
@@ -17342,7 +17342,7 @@
         <v>682</v>
       </c>
       <c r="B409" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C409" t="str">
         <v>不動明王石塚</v>
@@ -17383,7 +17383,7 @@
         <v>683</v>
       </c>
       <c r="B410" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C410" t="str">
         <v>西波天神社参道脇名号石碑など</v>
@@ -17676,7 +17676,7 @@
         <v>690</v>
       </c>
       <c r="B417" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C417" t="str">
         <v>交通安全大日大聖不動</v>
@@ -18089,7 +18089,7 @@
         <v>700</v>
       </c>
       <c r="B427" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C427" t="str">
         <v>浮彫五輪塔</v>
@@ -18130,7 +18130,7 @@
         <v>701</v>
       </c>
       <c r="B428" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C428" t="str">
         <v>浮彫五輪塔群</v>
@@ -18171,7 +18171,7 @@
         <v>702</v>
       </c>
       <c r="B429" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C429" t="str">
         <v>大日如来坐像</v>
@@ -18335,7 +18335,7 @@
         <v>706</v>
       </c>
       <c r="B433" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C433" t="str">
         <v>阿弥陀如来板碑</v>
@@ -18379,7 +18379,7 @@
         <v>707</v>
       </c>
       <c r="B434" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C434" t="str">
         <v>佛願寺前如来堂</v>
@@ -18625,7 +18625,7 @@
         <v>713</v>
       </c>
       <c r="B440" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C440" t="str">
         <v>古跡伏見崗 阿弥陀如来石仏</v>
@@ -20216,7 +20216,7 @@
         <v>752</v>
       </c>
       <c r="B478" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C478" t="str">
         <v>浮彫五輪塔、六字名号等</v>
@@ -20342,7 +20342,7 @@
         <v>755</v>
       </c>
       <c r="B481" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C481" t="str">
         <v>石碑群 詳細は不明</v>
@@ -20468,7 +20468,7 @@
         <v>758</v>
       </c>
       <c r="B484" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C484" t="str">
         <v>観世音菩薩堂</v>
@@ -21247,7 +21247,7 @@
         <v>778</v>
       </c>
       <c r="B503" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C503" t="str">
         <v>阿対の石仏</v>
@@ -21288,7 +21288,7 @@
         <v>779</v>
       </c>
       <c r="B504" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C504" t="str">
         <v>摩利支天像</v>
@@ -21367,7 +21367,7 @@
         <v>781</v>
       </c>
       <c r="B506" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C506" t="str">
         <v>寝仏</v>
@@ -21610,7 +21610,7 @@
         <v>787</v>
       </c>
       <c r="B512" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C512" t="str">
         <v>北出磨崖仏</v>
@@ -21733,7 +21733,7 @@
         <v>790</v>
       </c>
       <c r="B515" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C515" t="str">
         <v>十九夜講石碑</v>
@@ -21774,7 +21774,7 @@
         <v>791</v>
       </c>
       <c r="B516" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C516" t="str">
         <v>藤井の森地蔵尊 石仏群</v>
@@ -21856,7 +21856,7 @@
         <v>793</v>
       </c>
       <c r="B518" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C518" t="str">
         <v>多聞神社の弘法大師堂</v>
@@ -21979,7 +21979,7 @@
         <v>796</v>
       </c>
       <c r="B521" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C521" t="str">
         <v>阿弥陀種子と六字名号</v>
@@ -22134,7 +22134,7 @@
         <v>800</v>
       </c>
       <c r="B525" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C525" t="str">
         <v>阿弥陀摩崖仏</v>
@@ -22172,7 +22172,7 @@
         <v>801</v>
       </c>
       <c r="B526" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C526" t="str">
         <v>上出阿弥陀摩崖仏</v>
@@ -22210,7 +22210,7 @@
         <v>802</v>
       </c>
       <c r="B527" t="str">
-        <v>石仏等</v>
+        <v>その他石仏</v>
       </c>
       <c r="C527" t="str">
         <v>石仏</v>
@@ -22506,8 +22506,8 @@
         <v>歌姫町</v>
       </c>
       <c r="O534" t="str" xml:space="preserve">
-        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d__x000d_
-地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d__x000d_
+        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d__x000d__x000d_
+地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d__x000d__x000d_
 また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
       </c>
       <c r="P534" t="str">

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE544"/>
+  <dimension ref="A1:AE551"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -10193,7 +10193,7 @@
         <v>西御門町</v>
       </c>
       <c r="L237" t="str" xml:space="preserve">
-        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d__x000d__x000d_
+        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。
 現在の祭神は、奈良市史社寺編によると、天忍雲根命（あめのおしくもねのみこと）、底筒男神（そこつつのおのかみ）、金山彦神（かなやまひこのかみ）の三座ということです。天忍雲根命は春日若宮、底筒男神は住吉三神の一柱ですから、文曲星は金山彦神に変わったのでしょうか。北には会所もあり、木造観世音菩薩や地蔵立像が安置されているそうで、江戸期の観音堂の名残でしょうか。北西には石地蔵が祀られた地蔵堂もあります。</v>
       </c>
       <c r="O237" t="str">
@@ -10510,7 +10510,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="str">
-        <v>小祠</v>
+        <v>野神</v>
       </c>
       <c r="C245" t="str">
         <v>三條村野神</v>
@@ -12344,7 +12344,7 @@
         <v>561</v>
       </c>
       <c r="B289" t="str">
-        <v>小祠</v>
+        <v>野神</v>
       </c>
       <c r="C289" t="str">
         <v>京終葛城野神</v>
@@ -22450,7 +22450,7 @@
         <v>808</v>
       </c>
       <c r="B533" t="str">
-        <v>小祠</v>
+        <v>野神</v>
       </c>
       <c r="C533" t="str">
         <v>法蓮野神</v>
@@ -22506,8 +22506,8 @@
         <v>歌姫町</v>
       </c>
       <c r="O534" t="str" xml:space="preserve">
-        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d__x000d__x000d_
-地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d__x000d__x000d_
+        <v xml:space="preserve">歌姫町 六大地蔵尊
+地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません
 また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
       </c>
       <c r="P534" t="str">
@@ -22939,9 +22939,236 @@
         <v>34.680783570150766</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545">
+        <v>820</v>
+      </c>
+      <c r="B545" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C545" t="str">
+        <v>野神古墳</v>
+      </c>
+      <c r="F545" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G545" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I545" t="str">
+        <v>南京終町</v>
+      </c>
+      <c r="Q545" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB545" t="str">
+        <v>要現地調査</v>
+      </c>
+      <c r="AD545">
+        <v>135.81936634330282</v>
+      </c>
+      <c r="AE545">
+        <v>34.66799855200332</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546">
+        <v>821</v>
+      </c>
+      <c r="B546" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C546" t="str">
+        <v>法蓮不退寺野神</v>
+      </c>
+      <c r="F546" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G546" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I546" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="Q546" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB546" t="str">
+        <v>要現地調査</v>
+      </c>
+      <c r="AD546">
+        <v>135.81228981509977</v>
+      </c>
+      <c r="AE546">
+        <v>34.694366070878736</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547">
+        <v>822</v>
+      </c>
+      <c r="B547" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C547" t="str">
+        <v>法蓮不退寺野神脇の地蔵群</v>
+      </c>
+      <c r="F547" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G547" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="J547" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="Q547" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB547" t="str">
+        <v>要現地調査、Google Mapsで発見</v>
+      </c>
+      <c r="AD547">
+        <v>135.81235026954099</v>
+      </c>
+      <c r="AE547">
+        <v>34.694366070878736</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548">
+        <v>823</v>
+      </c>
+      <c r="B548" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C548" t="str">
+        <v>法蓮佐保田野神</v>
+      </c>
+      <c r="F548" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G548" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I548" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="Q548" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB548" t="str">
+        <v>要現地調査、Google Mapsで発見</v>
+      </c>
+      <c r="AD548">
+        <v>135.8165400981756</v>
+      </c>
+      <c r="AE548">
+        <v>34.695894505270715</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549">
+        <v>824</v>
+      </c>
+      <c r="B549" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C549" t="str">
+        <v>芝辻野神</v>
+      </c>
+      <c r="F549" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G549" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I549" t="str">
+        <v>芝辻町</v>
+      </c>
+      <c r="Q549" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB549" t="str">
+        <v>要現地調査</v>
+      </c>
+      <c r="AD549">
+        <v>135.81349008765136</v>
+      </c>
+      <c r="AE549">
+        <v>34.6867628294488</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550">
+        <v>825</v>
+      </c>
+      <c r="B550" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C550" t="str">
+        <v>油阪野神</v>
+      </c>
+      <c r="F550" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G550" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I550" t="str">
+        <v>油阪町</v>
+      </c>
+      <c r="Q550" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB550" t="str">
+        <v>大和の野神行事で紹介、要現地調査　Google Mapsでは見当たらない、消失？</v>
+      </c>
+      <c r="AC550" t="str">
+        <v>消失?</v>
+      </c>
+      <c r="AD550">
+        <v>135.81186285560847</v>
+      </c>
+      <c r="AE550">
+        <v>34.68344460654432</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551">
+        <v>826</v>
+      </c>
+      <c r="B551" t="str">
+        <v>野神</v>
+      </c>
+      <c r="C551" t="str">
+        <v>紀寺野神</v>
+      </c>
+      <c r="F551" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G551" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="I551" t="str">
+        <v>紀寺町</v>
+      </c>
+      <c r="Q551" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB551" t="str">
+        <v>小字データベースからあいまい位置特定、要現地調査</v>
+      </c>
+      <c r="AD551">
+        <v>135.83498919831064</v>
+      </c>
+      <c r="AE551">
+        <v>34.66932272092568</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE544"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE551"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -9,6 +9,28 @@
     <sheet name="books" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11612,9 +11634,7 @@
         <v>西御門町</v>
       </c>
       <c r="L237" t="str" xml:space="preserve">
-        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。_x000d_
-_x000d_
-_x000d_
+        <v xml:space="preserve">元要記によると、神亀2年（725年）7月22日に平城七御門が整備され、それぞれに北斗七星の七星が祀られた時に、西御門町には文曲星と豊斟渟尊（とよくむぬのみこと）を祀って桑の木が植えられたとされています。その文曲星の社が途切れず存続したのか廃亡再興を繰り返したのかはわかりませんが、寛政年間（1800年頃）に記された平城坊目考には、現在（書かれた時代から見ての現在なので江戸時代です）三座の神を祀った小社とその北側に会所があるところがその文曲星の社の遺跡だと伝わっていたと書かれており、その時の祭神は左が春日神、中が文曲星、右が住吉神だったそうです。当時の町の古老が言うには、春日大社が御笠山に鎮座した神護景雲2年（768年）、空に瑞雲がたったのを初めて目撃した（見初めた）場所がここだったので、今も見初（みそめ）神社と呼ぶということだったようです。伝説とはいえ、実に40年以上春日大社より古い由緒を持つ神社という事で驚きです。会所には観音堂が付属していたと、また別の地誌である奈良坊目拙解（享保15年、1730年成立とされる）には記録されています。
 現在の祭神は、奈良市史社寺編によると、天忍雲根命（あめのおしくもねのみこと）、底筒男神（そこつつのおのかみ）、金山彦神（かなやまひこのかみ）の三座ということです。天忍雲根命は春日若宮、底筒男神は住吉三神の一柱ですから、文曲星は金山彦神に変わったのでしょうか。北には会所もあり、木造観世音菩薩や地蔵立像が安置されているそうで、江戸期の観音堂の名残でしょうか。北西には石地蔵が祀られた地蔵堂もあります。</v>
       </c>
       <c r="O237" t="str">
@@ -25757,12 +25777,8 @@
         <v>歌姫町</v>
       </c>
       <c r="O534" t="str" xml:space="preserve">
-        <v xml:space="preserve">歌姫町 六大地蔵尊_x000d_
-_x000d_
-_x000d_
-地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません_x000d_
-_x000d_
-_x000d_
+        <v xml:space="preserve">歌姫町 六大地蔵尊
+地元の90歳のお婆さんに、「ろくたいじぞう」様だと教えてもらいました 「たい」が「体」か「大」かはよくわかりません
 また、道の向こうとこちらで佐紀町と歌姫町が分かれるうち、佐紀町側の守り地蔵だと伺った気がしますが、地図によると墓地は歌姫町に属するので、それもよくわかりません</v>
       </c>
       <c r="P534" t="str">
@@ -26744,8 +26760,8 @@
         <v>石造</v>
       </c>
       <c r="Y555" t="str" xml:space="preserve">
-        <v xml:space="preserve">大峯_x000d_
-　　八拾八度供養碑_x000d_
+        <v xml:space="preserve">大峯
+　　八拾八度供養碑
 山上</v>
       </c>
       <c r="AD555">
@@ -26940,9 +26956,9 @@
         <v>北椿尾町</v>
       </c>
       <c r="L559" t="str" xml:space="preserve">
-        <v xml:space="preserve">地蔵石仏は鎌倉時代作とされる_x000d_
-頭部は室戸台風で折損_x000d_
-隣の六字名号碑は高さ128cm、慶長12（1607）作_x000d_
+        <v xml:space="preserve">地蔵石仏は鎌倉時代作とされる
+頭部は室戸台風で折損
+隣の六字名号碑は高さ128cm、慶長12（1607）作
 地蔵祭毎年7月23日</v>
       </c>
       <c r="P559" t="str">

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE575"/>
+  <dimension ref="A1:AE576"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -27756,16 +27756,63 @@
         <v>34.684501950691335</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576">
+        <v>851</v>
+      </c>
+      <c r="B576" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C576" t="str">
+        <v>押熊町地蔵堂</v>
+      </c>
+      <c r="D576" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F576" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G576" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H576" t="str">
+        <v>平城</v>
+      </c>
+      <c r="I576" t="str">
+        <v>押熊町</v>
+      </c>
+      <c r="O576" t="str">
+        <v>押熊町 地蔵堂</v>
+      </c>
+      <c r="P576" t="str">
+        <v>2023-01-24</v>
+      </c>
+      <c r="Q576" t="b">
+        <v>1</v>
+      </c>
+      <c r="R576">
+        <v>1748</v>
+      </c>
+      <c r="X576" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD576">
+        <v>135.77028847387305</v>
+      </c>
+      <c r="AE576">
+        <v>34.715620055120674</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE575"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE576"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1741"/>
+  <dimension ref="A1:H1744"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -73036,9 +73083,87 @@
         <v>./small_thumbs/850/IMG-1217.jpg</v>
       </c>
     </row>
+    <row r="1742">
+      <c r="A1742">
+        <v>1748</v>
+      </c>
+      <c r="B1742">
+        <v>851</v>
+      </c>
+      <c r="C1742" t="str">
+        <v>押熊町地蔵堂</v>
+      </c>
+      <c r="D1742" t="str">
+        <v>./images/851/326726577_1341106456674500_4986541293026295792_n.jpg</v>
+      </c>
+      <c r="E1742" t="str">
+        <v>2023-01-24T15:59:00</v>
+      </c>
+      <c r="F1742" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1742" t="str">
+        <v>./mid_thumbs/851/326726577_1341106456674500_4986541293026295792_n.jpg</v>
+      </c>
+      <c r="H1742" t="str">
+        <v>./small_thumbs/851/326726577_1341106456674500_4986541293026295792_n.jpg</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743">
+        <v>1749</v>
+      </c>
+      <c r="B1743">
+        <v>851</v>
+      </c>
+      <c r="C1743" t="str">
+        <v>押熊町地蔵堂</v>
+      </c>
+      <c r="D1743" t="str">
+        <v>./images/851/326762735_680220623727378_3201076521492951477_n.jpg</v>
+      </c>
+      <c r="E1743" t="str">
+        <v>2023-01-24T15:59:00</v>
+      </c>
+      <c r="F1743" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1743" t="str">
+        <v>./mid_thumbs/851/326762735_680220623727378_3201076521492951477_n.jpg</v>
+      </c>
+      <c r="H1743" t="str">
+        <v>./small_thumbs/851/326762735_680220623727378_3201076521492951477_n.jpg</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744">
+        <v>1750</v>
+      </c>
+      <c r="B1744">
+        <v>851</v>
+      </c>
+      <c r="C1744" t="str">
+        <v>押熊町地蔵堂 内部</v>
+      </c>
+      <c r="D1744" t="str">
+        <v>./images/851/327036517_1212205186347542_1456052015830501280_n.jpg</v>
+      </c>
+      <c r="E1744" t="str">
+        <v>2023-01-24T15:59:00</v>
+      </c>
+      <c r="F1744" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1744" t="str">
+        <v>./mid_thumbs/851/327036517_1212205186347542_1456052015830501280_n.jpg</v>
+      </c>
+      <c r="H1744" t="str">
+        <v>./small_thumbs/851/327036517_1212205186347542_1456052015830501280_n.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1741"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1744"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE576"/>
+  <dimension ref="A1:AE585"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1046,7 +1046,7 @@
         <v>東向北町</v>
       </c>
       <c r="P13" t="str">
-        <v>2022-07-23</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>地蔵</v>
       </c>
       <c r="C46" t="str">
-        <v>地蔵堂</v>
+        <v>橋北地蔵尊</v>
       </c>
       <c r="F46" t="str">
         <v>奈良県</v>
@@ -2606,7 +2606,7 @@
         <v>川上町 丘の中腹</v>
       </c>
       <c r="P46" t="str">
-        <v>2022-07-23</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q46" t="b">
         <v>1</v>
@@ -3226,7 +3226,7 @@
         <v>手貝町 転害門脇</v>
       </c>
       <c r="P59" t="str">
-        <v>2016-11-04</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q59" t="b">
         <v>1</v>
@@ -3236,6 +3236,9 @@
       </c>
       <c r="W59" t="str">
         <v/>
+      </c>
+      <c r="X59" t="str">
+        <v>石造</v>
       </c>
       <c r="AC59" t="str">
         <v/>
@@ -4360,7 +4363,7 @@
         <v>花芝町</v>
       </c>
       <c r="P83" t="str">
-        <v>2022-07-23</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q83" t="b">
         <v>1</v>
@@ -6293,7 +6296,7 @@
         <v>川上町</v>
       </c>
       <c r="P124" t="str">
-        <v>2022-07-23</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q124" t="b">
         <v>1</v>
@@ -7242,7 +7245,7 @@
         <v>興善院町</v>
       </c>
       <c r="P144" t="str">
-        <v>2016-02-19</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q144" t="b">
         <v>1</v>
@@ -20747,7 +20750,7 @@
         <v>法蓮町 浮彫五輪塔群</v>
       </c>
       <c r="P428" t="str">
-        <v>2017-05-03</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q428" t="b">
         <v>1</v>
@@ -26381,7 +26384,7 @@
         <v>法蓮町</v>
       </c>
       <c r="P547" t="str">
-        <v>2022-10-01</v>
+        <v>2023-07-23</v>
       </c>
       <c r="Q547" t="b">
         <v>1</v>
@@ -27803,16 +27806,442 @@
         <v>34.715620055120674</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577">
+        <v>852</v>
+      </c>
+      <c r="B577" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C577" t="str">
+        <v>恋ノ窪地蔵尊（吉原地蔵尊）</v>
+      </c>
+      <c r="D577" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F577" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G577" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H577" t="str">
+        <v>大安寺</v>
+      </c>
+      <c r="I577" t="str">
+        <v>恋の窪２丁目</v>
+      </c>
+      <c r="O577" t="str">
+        <v>恋ノ窪地蔵尊（吉原地蔵尊）</v>
+      </c>
+      <c r="P577" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="Q577" t="b">
+        <v>1</v>
+      </c>
+      <c r="R577">
+        <v>1753</v>
+      </c>
+      <c r="X577" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD577">
+        <v>135.80825020325707</v>
+      </c>
+      <c r="AE577">
+        <v>34.67419542400422</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578">
+        <v>853</v>
+      </c>
+      <c r="B578" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C578" t="str">
+        <v>大日地蔵菩薩</v>
+      </c>
+      <c r="D578" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F578" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G578" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H578" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I578" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="L578" t="str">
+        <v/>
+      </c>
+      <c r="O578" t="str">
+        <v>大日地蔵菩薩</v>
+      </c>
+      <c r="P578" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="Q578" t="b">
+        <v>1</v>
+      </c>
+      <c r="R578">
+        <v>1757</v>
+      </c>
+      <c r="X578" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD578">
+        <v>135.8178877018412</v>
+      </c>
+      <c r="AE578">
+        <v>34.69398748871348</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579">
+        <v>854</v>
+      </c>
+      <c r="B579" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C579" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="D579" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F579" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G579" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H579" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I579" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="O579" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="P579" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="Q579" t="b">
+        <v>1</v>
+      </c>
+      <c r="R579">
+        <v>1762</v>
+      </c>
+      <c r="X579" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD579">
+        <v>135.81137160953628</v>
+      </c>
+      <c r="AE579">
+        <v>34.69694759352076</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580">
+        <v>855</v>
+      </c>
+      <c r="B580" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C580" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D580" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F580" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G580" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H580" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I580" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="O580" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="P580" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="Q580" t="b">
+        <v>1</v>
+      </c>
+      <c r="R580">
+        <v>1766</v>
+      </c>
+      <c r="X580" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD580">
+        <v>135.8131608815159</v>
+      </c>
+      <c r="AE580">
+        <v>34.69588772600773</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581">
+        <v>856</v>
+      </c>
+      <c r="B581" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C581" t="str">
+        <v>川上町掘り起こし地蔵</v>
+      </c>
+      <c r="D581" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F581" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G581" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H581" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I581" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="O581" t="str">
+        <v>川上町の住宅造成で掘り起こされた地蔵</v>
+      </c>
+      <c r="P581" t="str">
+        <v>2023-07-23</v>
+      </c>
+      <c r="Q581" t="b">
+        <v>1</v>
+      </c>
+      <c r="R581">
+        <v>1773</v>
+      </c>
+      <c r="X581" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD581">
+        <v>135.83244423586274</v>
+      </c>
+      <c r="AE581">
+        <v>34.69376795026089</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582">
+        <v>857</v>
+      </c>
+      <c r="B582" t="str">
+        <v>五輪塔</v>
+      </c>
+      <c r="C582" t="str">
+        <v>持宝院五輪塔、浮彫五輪塔</v>
+      </c>
+      <c r="D582" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F582" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G582" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H582" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I582" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="O582" t="str">
+        <v>持宝院の五輪塔、浮彫五輪塔</v>
+      </c>
+      <c r="P582" t="str">
+        <v>2023-07-23</v>
+      </c>
+      <c r="Q582" t="b">
+        <v>1</v>
+      </c>
+      <c r="R582">
+        <v>1780</v>
+      </c>
+      <c r="X582" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD582">
+        <v>135.84185441918297</v>
+      </c>
+      <c r="AE582">
+        <v>34.690904105412685</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583">
+        <v>858</v>
+      </c>
+      <c r="B583" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C583" t="str">
+        <v>正倉院東方地蔵群</v>
+      </c>
+      <c r="D583" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F583" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G583" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H583" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I583" t="str">
+        <v>雑司町</v>
+      </c>
+      <c r="O583" t="str">
+        <v>正倉院東方の地蔵群</v>
+      </c>
+      <c r="P583" t="str">
+        <v>2023-07-23</v>
+      </c>
+      <c r="Q583" t="b">
+        <v>1</v>
+      </c>
+      <c r="R583">
+        <v>1781</v>
+      </c>
+      <c r="X583" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD583">
+        <v>135.83979521032842</v>
+      </c>
+      <c r="AE583">
+        <v>34.69097419529438</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584">
+        <v>859</v>
+      </c>
+      <c r="B584" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C584" t="str">
+        <v>西大寺赤田町地蔵堂１</v>
+      </c>
+      <c r="D584" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F584" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G584" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H584" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I584" t="str">
+        <v>西大寺赤田町１丁目</v>
+      </c>
+      <c r="O584" t="str">
+        <v>西大寺赤田町地蔵堂１</v>
+      </c>
+      <c r="P584" t="str">
+        <v>2023-05-10</v>
+      </c>
+      <c r="Q584" t="b">
+        <v>1</v>
+      </c>
+      <c r="R584">
+        <v>1786</v>
+      </c>
+      <c r="X584" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD584">
+        <v>135.77458414421153</v>
+      </c>
+      <c r="AE584">
+        <v>34.698455605276955</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585">
+        <v>860</v>
+      </c>
+      <c r="B585" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C585" t="str">
+        <v>西大寺赤田町地蔵堂２</v>
+      </c>
+      <c r="D585" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F585" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G585" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H585" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I585" t="str">
+        <v>西大寺赤田町１丁目</v>
+      </c>
+      <c r="O585" t="str">
+        <v>西大寺赤田町地蔵堂２</v>
+      </c>
+      <c r="P585" t="str">
+        <v>2023-05-10</v>
+      </c>
+      <c r="Q585" t="b">
+        <v>1</v>
+      </c>
+      <c r="R585">
+        <v>1788</v>
+      </c>
+      <c r="X585" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD585">
+        <v>135.77456575841816</v>
+      </c>
+      <c r="AE585">
+        <v>34.69844736015697</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE576"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE585"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1744"/>
+  <dimension ref="A1:H1784"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -31361,7 +31790,7 @@
         <v>45</v>
       </c>
       <c r="C137" t="str">
-        <v>川上町 地蔵堂（丘の中腹）遠景</v>
+        <v>橋北地蔵尊遠景</v>
       </c>
       <c r="D137" t="str">
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_From_Far.jpg</v>
@@ -31387,7 +31816,7 @@
         <v>45</v>
       </c>
       <c r="C138" t="str">
-        <v>川上町 地蔵堂（丘の中腹）内部</v>
+        <v>橋北地蔵尊内部</v>
       </c>
       <c r="D138" t="str">
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_Inside_1.jpg</v>
@@ -31413,7 +31842,7 @@
         <v>45</v>
       </c>
       <c r="C139" t="str">
-        <v>川上町 地蔵堂（丘の中腹）内部</v>
+        <v>橋北地蔵尊内部</v>
       </c>
       <c r="D139" t="str">
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara_Inside_2.jpg</v>
@@ -31439,7 +31868,7 @@
         <v>45</v>
       </c>
       <c r="C140" t="str">
-        <v>川上町 地蔵堂（丘の中腹）</v>
+        <v>橋北地蔵尊</v>
       </c>
       <c r="D140" t="str">
         <v>./images/45/Jizodo_(Kawakamicho,_Hill_Side)_Nara.jpg</v>
@@ -69633,7 +70062,7 @@
         <v>45</v>
       </c>
       <c r="C1609" t="str">
-        <v>川上町 丘の中腹 地蔵堂 令和4年地蔵盆 内部</v>
+        <v>橋北地蔵尊 令和4年地蔵盆 内部</v>
       </c>
       <c r="D1609" t="str">
         <v>./images/45/IMG_9188.jpg</v>
@@ -69659,7 +70088,7 @@
         <v>45</v>
       </c>
       <c r="C1610" t="str">
-        <v>川上町 丘の中腹 地蔵堂 令和4年地蔵盆</v>
+        <v>橋北地蔵尊 令和4年地蔵盆</v>
       </c>
       <c r="D1610" t="str">
         <v>./images/45/IMG_9189.jpg</v>
@@ -73161,9 +73590,1049 @@
         <v>./small_thumbs/851/327036517_1212205186347542_1456052015830501280_n.jpg</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745">
+        <v>1751</v>
+      </c>
+      <c r="B1745">
+        <v>75</v>
+      </c>
+      <c r="C1745" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1745" t="str">
+        <v>./images/75/61934.jpg</v>
+      </c>
+      <c r="E1745" t="str">
+        <v>2023-07-26T00:00:00</v>
+      </c>
+      <c r="F1745" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1745" t="str">
+        <v>./mid_thumbs/75/61934.jpg</v>
+      </c>
+      <c r="H1745" t="str">
+        <v>./small_thumbs/75/61934.jpg</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746">
+        <v>1752</v>
+      </c>
+      <c r="B1746">
+        <v>75</v>
+      </c>
+      <c r="C1746" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1746" t="str">
+        <v>./images/75/61935.jpg</v>
+      </c>
+      <c r="E1746" t="str">
+        <v>2023-07-26T00:00:00</v>
+      </c>
+      <c r="F1746" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1746" t="str">
+        <v>./mid_thumbs/75/61935.jpg</v>
+      </c>
+      <c r="H1746" t="str">
+        <v>./small_thumbs/75/61935.jpg</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747">
+        <v>1753</v>
+      </c>
+      <c r="B1747">
+        <v>852</v>
+      </c>
+      <c r="C1747" t="str">
+        <v>恋ノ窪地蔵尊（吉原地蔵尊）</v>
+      </c>
+      <c r="D1747" t="str">
+        <v>./images/852/61927.jpg</v>
+      </c>
+      <c r="E1747" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1747" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1747" t="str">
+        <v>./mid_thumbs/852/61927.jpg</v>
+      </c>
+      <c r="H1747" t="str">
+        <v>./small_thumbs/852/61927.jpg</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748">
+        <v>1754</v>
+      </c>
+      <c r="B1748">
+        <v>852</v>
+      </c>
+      <c r="C1748" t="str">
+        <v>恋ノ窪地蔵尊（吉原地蔵尊）</v>
+      </c>
+      <c r="D1748" t="str">
+        <v>./images/852/61928.jpg</v>
+      </c>
+      <c r="E1748" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1748" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1748" t="str">
+        <v>./mid_thumbs/852/61928.jpg</v>
+      </c>
+      <c r="H1748" t="str">
+        <v>./small_thumbs/852/61928.jpg</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749">
+        <v>1755</v>
+      </c>
+      <c r="B1749">
+        <v>852</v>
+      </c>
+      <c r="C1749" t="str">
+        <v>恋ノ窪地蔵尊（吉原地蔵尊）</v>
+      </c>
+      <c r="D1749" t="str">
+        <v>./images/852/61929.jpg</v>
+      </c>
+      <c r="E1749" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1749" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1749" t="str">
+        <v>./mid_thumbs/852/61929.jpg</v>
+      </c>
+      <c r="H1749" t="str">
+        <v>./small_thumbs/852/61929.jpg</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750">
+        <v>1756</v>
+      </c>
+      <c r="B1750">
+        <v>853</v>
+      </c>
+      <c r="C1750" t="str">
+        <v>大日地蔵菩薩 地蔵堂内部</v>
+      </c>
+      <c r="D1750" t="str">
+        <v>./images/853/IMG_8030.jpg</v>
+      </c>
+      <c r="E1750" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1750" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1750" t="str">
+        <v>./mid_thumbs/853/IMG_8030.jpg</v>
+      </c>
+      <c r="H1750" t="str">
+        <v>./small_thumbs/853/IMG_8030.jpg</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751">
+        <v>1757</v>
+      </c>
+      <c r="B1751">
+        <v>853</v>
+      </c>
+      <c r="C1751" t="str">
+        <v>大日地蔵菩薩 地蔵堂</v>
+      </c>
+      <c r="D1751" t="str">
+        <v>./images/853/IMG_8031.jpg</v>
+      </c>
+      <c r="E1751" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1751" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1751" t="str">
+        <v>./mid_thumbs/853/IMG_8031.jpg</v>
+      </c>
+      <c r="H1751" t="str">
+        <v>./small_thumbs/853/IMG_8031.jpg</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752">
+        <v>1758</v>
+      </c>
+      <c r="B1752">
+        <v>853</v>
+      </c>
+      <c r="C1752" t="str">
+        <v>大日地蔵菩薩 地蔵堂</v>
+      </c>
+      <c r="D1752" t="str">
+        <v>./images/853/IMG_8032.jpg</v>
+      </c>
+      <c r="E1752" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1752" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1752" t="str">
+        <v>./mid_thumbs/853/IMG_8032.jpg</v>
+      </c>
+      <c r="H1752" t="str">
+        <v>./small_thumbs/853/IMG_8032.jpg</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753">
+        <v>1759</v>
+      </c>
+      <c r="B1753">
+        <v>853</v>
+      </c>
+      <c r="C1753" t="str">
+        <v>大日地蔵菩薩 扁額</v>
+      </c>
+      <c r="D1753" t="str">
+        <v>./images/853/IMG_8033.jpg</v>
+      </c>
+      <c r="E1753" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1753" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1753" t="str">
+        <v>./mid_thumbs/853/IMG_8033.jpg</v>
+      </c>
+      <c r="H1753" t="str">
+        <v>./small_thumbs/853/IMG_8033.jpg</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754">
+        <v>1760</v>
+      </c>
+      <c r="B1754">
+        <v>853</v>
+      </c>
+      <c r="C1754" t="str">
+        <v>大日地蔵菩薩 地蔵堂</v>
+      </c>
+      <c r="D1754" t="str">
+        <v>./images/853/IMG_8034.jpg</v>
+      </c>
+      <c r="E1754" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1754" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1754" t="str">
+        <v>./mid_thumbs/853/IMG_8034.jpg</v>
+      </c>
+      <c r="H1754" t="str">
+        <v>./small_thumbs/853/IMG_8034.jpg</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755">
+        <v>1761</v>
+      </c>
+      <c r="B1755">
+        <v>854</v>
+      </c>
+      <c r="C1755" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="D1755" t="str">
+        <v>./images/854/IMG_8036.jpg</v>
+      </c>
+      <c r="E1755" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1755" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1755" t="str">
+        <v>./mid_thumbs/854/IMG_8036.jpg</v>
+      </c>
+      <c r="H1755" t="str">
+        <v>./small_thumbs/854/IMG_8036.jpg</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756">
+        <v>1762</v>
+      </c>
+      <c r="B1756">
+        <v>854</v>
+      </c>
+      <c r="C1756" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="D1756" t="str">
+        <v>./images/854/IMG_8037.jpg</v>
+      </c>
+      <c r="E1756" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1756" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1756" t="str">
+        <v>./mid_thumbs/854/IMG_8037.jpg</v>
+      </c>
+      <c r="H1756" t="str">
+        <v>./small_thumbs/854/IMG_8037.jpg</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757">
+        <v>1763</v>
+      </c>
+      <c r="B1757">
+        <v>855</v>
+      </c>
+      <c r="C1757" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1757" t="str">
+        <v>./images/855/IMG_8039.jpg</v>
+      </c>
+      <c r="E1757" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1757" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1757" t="str">
+        <v>./mid_thumbs/855/IMG_8039.jpg</v>
+      </c>
+      <c r="H1757" t="str">
+        <v>./small_thumbs/855/IMG_8039.jpg</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758">
+        <v>1764</v>
+      </c>
+      <c r="B1758">
+        <v>855</v>
+      </c>
+      <c r="C1758" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1758" t="str">
+        <v>./images/855/IMG_8040.jpg</v>
+      </c>
+      <c r="E1758" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1758" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1758" t="str">
+        <v>./mid_thumbs/855/IMG_8040.jpg</v>
+      </c>
+      <c r="H1758" t="str">
+        <v>./small_thumbs/855/IMG_8040.jpg</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759">
+        <v>1765</v>
+      </c>
+      <c r="B1759">
+        <v>855</v>
+      </c>
+      <c r="C1759" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1759" t="str">
+        <v>./images/855/IMG_8041.jpg</v>
+      </c>
+      <c r="E1759" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1759" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1759" t="str">
+        <v>./mid_thumbs/855/IMG_8041.jpg</v>
+      </c>
+      <c r="H1759" t="str">
+        <v>./small_thumbs/855/IMG_8041.jpg</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760">
+        <v>1766</v>
+      </c>
+      <c r="B1760">
+        <v>855</v>
+      </c>
+      <c r="C1760" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1760" t="str">
+        <v>./images/855/IMG_8042.jpg</v>
+      </c>
+      <c r="E1760" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1760" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1760" t="str">
+        <v>./mid_thumbs/855/IMG_8042.jpg</v>
+      </c>
+      <c r="H1760" t="str">
+        <v>./small_thumbs/855/IMG_8042.jpg</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761">
+        <v>1767</v>
+      </c>
+      <c r="B1761">
+        <v>855</v>
+      </c>
+      <c r="C1761" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1761" t="str">
+        <v>./images/855/IMG_8043.jpg</v>
+      </c>
+      <c r="E1761" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1761" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1761" t="str">
+        <v>./mid_thumbs/855/IMG_8043.jpg</v>
+      </c>
+      <c r="H1761" t="str">
+        <v>./small_thumbs/855/IMG_8043.jpg</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762">
+        <v>1768</v>
+      </c>
+      <c r="B1762">
+        <v>855</v>
+      </c>
+      <c r="C1762" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1762" t="str">
+        <v>./images/855/IMG_8044.jpg</v>
+      </c>
+      <c r="E1762" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1762" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1762" t="str">
+        <v>./mid_thumbs/855/IMG_8044.jpg</v>
+      </c>
+      <c r="H1762" t="str">
+        <v>./small_thumbs/855/IMG_8044.jpg</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763">
+        <v>1769</v>
+      </c>
+      <c r="B1763">
+        <v>855</v>
+      </c>
+      <c r="C1763" t="str">
+        <v>佐保田念仏講墓地地蔵群</v>
+      </c>
+      <c r="D1763" t="str">
+        <v>./images/855/IMG_8045.jpg</v>
+      </c>
+      <c r="E1763" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1763" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1763" t="str">
+        <v>./mid_thumbs/855/IMG_8045.jpg</v>
+      </c>
+      <c r="H1763" t="str">
+        <v>./small_thumbs/855/IMG_8045.jpg</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764">
+        <v>1770</v>
+      </c>
+      <c r="B1764">
+        <v>701</v>
+      </c>
+      <c r="C1764" t="str">
+        <v>浮彫五輪塔群</v>
+      </c>
+      <c r="D1764" t="str">
+        <v>./images/701/IMG_8047.jpg</v>
+      </c>
+      <c r="E1764" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1764" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1764" t="str">
+        <v>./mid_thumbs/701/IMG_8047.jpg</v>
+      </c>
+      <c r="H1764" t="str">
+        <v>./small_thumbs/701/IMG_8047.jpg</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765">
+        <v>1771</v>
+      </c>
+      <c r="B1765">
+        <v>701</v>
+      </c>
+      <c r="C1765" t="str">
+        <v>浮彫五輪塔群</v>
+      </c>
+      <c r="D1765" t="str">
+        <v>./images/701/IMG_8048.jpg</v>
+      </c>
+      <c r="E1765" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1765" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1765" t="str">
+        <v>./mid_thumbs/701/IMG_8048.jpg</v>
+      </c>
+      <c r="H1765" t="str">
+        <v>./small_thumbs/701/IMG_8048.jpg</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766">
+        <v>1772</v>
+      </c>
+      <c r="B1766">
+        <v>822</v>
+      </c>
+      <c r="C1766" t="str">
+        <v>法蓮不退寺野神脇の地蔵群</v>
+      </c>
+      <c r="D1766" t="str">
+        <v>./images/822/IMG_8050.jpg</v>
+      </c>
+      <c r="E1766" t="str">
+        <v>2023-08-02T00:00:00</v>
+      </c>
+      <c r="F1766" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1766" t="str">
+        <v>./mid_thumbs/822/IMG_8050.jpg</v>
+      </c>
+      <c r="H1766" t="str">
+        <v>./small_thumbs/822/IMG_8050.jpg</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767">
+        <v>1773</v>
+      </c>
+      <c r="B1767">
+        <v>856</v>
+      </c>
+      <c r="C1767" t="str">
+        <v>川上町掘り起こし地蔵</v>
+      </c>
+      <c r="D1767" t="str">
+        <v>./images/856/IMG_7943.jpg</v>
+      </c>
+      <c r="E1767" t="str">
+        <v>2023-07-23T14:52:41</v>
+      </c>
+      <c r="F1767" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1767" t="str">
+        <v>./mid_thumbs/856/IMG_7943.jpg</v>
+      </c>
+      <c r="H1767" t="str">
+        <v>./small_thumbs/856/IMG_7943.jpg</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768">
+        <v>1774</v>
+      </c>
+      <c r="B1768">
+        <v>856</v>
+      </c>
+      <c r="C1768" t="str">
+        <v>川上町掘り起こし地蔵</v>
+      </c>
+      <c r="D1768" t="str">
+        <v>./images/856/IMG_7944.jpg</v>
+      </c>
+      <c r="E1768" t="str">
+        <v>2023-07-23T14:52:47</v>
+      </c>
+      <c r="F1768" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1768" t="str">
+        <v>./mid_thumbs/856/IMG_7944.jpg</v>
+      </c>
+      <c r="H1768" t="str">
+        <v>./small_thumbs/856/IMG_7944.jpg</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769">
+        <v>1775</v>
+      </c>
+      <c r="B1769">
+        <v>143</v>
+      </c>
+      <c r="C1769" t="str">
+        <v>夕日地蔵 地蔵盆</v>
+      </c>
+      <c r="D1769" t="str">
+        <v>./images/143/IMG_7938.jpg</v>
+      </c>
+      <c r="E1769" t="str">
+        <v>2023-07-23T14:27:06</v>
+      </c>
+      <c r="F1769" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1769" t="str">
+        <v>./mid_thumbs/143/IMG_7938.jpg</v>
+      </c>
+      <c r="H1769" t="str">
+        <v>./small_thumbs/143/IMG_7938.jpg</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770">
+        <v>1776</v>
+      </c>
+      <c r="B1770">
+        <v>123</v>
+      </c>
+      <c r="C1770" t="str">
+        <v>佐保川地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1770" t="str">
+        <v>./images/123/IMG_7939.jpg</v>
+      </c>
+      <c r="E1770" t="str">
+        <v>2023-07-23T14:37:00</v>
+      </c>
+      <c r="F1770" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1770" t="str">
+        <v>./mid_thumbs/123/IMG_7939.jpg</v>
+      </c>
+      <c r="H1770" t="str">
+        <v>./small_thumbs/123/IMG_7939.jpg</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771">
+        <v>1777</v>
+      </c>
+      <c r="B1771">
+        <v>123</v>
+      </c>
+      <c r="C1771" t="str">
+        <v>佐保川地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1771" t="str">
+        <v>./images/123/IMG_7940.jpg</v>
+      </c>
+      <c r="E1771" t="str">
+        <v>2023-07-23T14:37:03</v>
+      </c>
+      <c r="F1771" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1771" t="str">
+        <v>./mid_thumbs/123/IMG_7940.jpg</v>
+      </c>
+      <c r="H1771" t="str">
+        <v>./small_thumbs/123/IMG_7940.jpg</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772">
+        <v>1778</v>
+      </c>
+      <c r="B1772">
+        <v>45</v>
+      </c>
+      <c r="C1772" t="str">
+        <v>橋北地蔵尊 地蔵盆内部</v>
+      </c>
+      <c r="D1772" t="str">
+        <v>./images/45/IMG_7941.jpg</v>
+      </c>
+      <c r="E1772" t="str">
+        <v>2023-07-23T14:42:28</v>
+      </c>
+      <c r="F1772" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1772" t="str">
+        <v>./mid_thumbs/45/IMG_7941.jpg</v>
+      </c>
+      <c r="H1772" t="str">
+        <v>./small_thumbs/45/IMG_7941.jpg</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773">
+        <v>1779</v>
+      </c>
+      <c r="B1773">
+        <v>45</v>
+      </c>
+      <c r="C1773" t="str">
+        <v>橋北地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1773" t="str">
+        <v>./images/45/IMG_7942.jpg</v>
+      </c>
+      <c r="E1773" t="str">
+        <v>2023-07-23T14:43:09</v>
+      </c>
+      <c r="F1773" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1773" t="str">
+        <v>./mid_thumbs/45/IMG_7942.jpg</v>
+      </c>
+      <c r="H1773" t="str">
+        <v>./small_thumbs/45/IMG_7942.jpg</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774">
+        <v>1780</v>
+      </c>
+      <c r="B1774">
+        <v>857</v>
+      </c>
+      <c r="C1774" t="str">
+        <v>持宝院五輪塔、浮彫五輪塔</v>
+      </c>
+      <c r="D1774" t="str">
+        <v>./images/857/IMG_7932.jpg</v>
+      </c>
+      <c r="E1774" t="str">
+        <v>2023-07-23T13:47:57</v>
+      </c>
+      <c r="F1774" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1774" t="str">
+        <v>./mid_thumbs/857/IMG_7932.jpg</v>
+      </c>
+      <c r="H1774" t="str">
+        <v>./small_thumbs/857/IMG_7932.jpg</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775">
+        <v>1781</v>
+      </c>
+      <c r="B1775">
+        <v>858</v>
+      </c>
+      <c r="C1775" t="str">
+        <v>正倉院東方地蔵群</v>
+      </c>
+      <c r="D1775" t="str">
+        <v>./images/858/IMG_7933.jpg</v>
+      </c>
+      <c r="E1775" t="str">
+        <v>2023-07-23T13:50:33</v>
+      </c>
+      <c r="F1775" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1775" t="str">
+        <v>./mid_thumbs/858/IMG_7933.jpg</v>
+      </c>
+      <c r="H1775" t="str">
+        <v>./small_thumbs/858/IMG_7933.jpg</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776">
+        <v>1782</v>
+      </c>
+      <c r="B1776">
+        <v>58</v>
+      </c>
+      <c r="C1776" t="str">
+        <v>大門地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1776" t="str">
+        <v>./images/58/IMG_7929.jpg</v>
+      </c>
+      <c r="E1776" t="str">
+        <v>2023-07-23T13:02:03</v>
+      </c>
+      <c r="F1776" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1776" t="str">
+        <v>./mid_thumbs/58/IMG_7929.jpg</v>
+      </c>
+      <c r="H1776" t="str">
+        <v>./small_thumbs/58/IMG_7929.jpg</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777">
+        <v>1783</v>
+      </c>
+      <c r="B1777">
+        <v>82</v>
+      </c>
+      <c r="C1777" t="str">
+        <v>十福地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1777" t="str">
+        <v>./images/82/IMG_7954.jpg</v>
+      </c>
+      <c r="E1777" t="str">
+        <v>2023-07-23T16:21:37</v>
+      </c>
+      <c r="F1777" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1777" t="str">
+        <v>./mid_thumbs/82/IMG_7954.jpg</v>
+      </c>
+      <c r="H1777" t="str">
+        <v>./small_thumbs/82/IMG_7954.jpg</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778">
+        <v>1784</v>
+      </c>
+      <c r="B1778">
+        <v>82</v>
+      </c>
+      <c r="C1778" t="str">
+        <v>十福地蔵尊 地蔵盆供物</v>
+      </c>
+      <c r="D1778" t="str">
+        <v>./images/82/IMG_7955.jpg</v>
+      </c>
+      <c r="E1778" t="str">
+        <v>2023-07-23T16:21:45</v>
+      </c>
+      <c r="F1778" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1778" t="str">
+        <v>./mid_thumbs/82/IMG_7955.jpg</v>
+      </c>
+      <c r="H1778" t="str">
+        <v>./small_thumbs/82/IMG_7955.jpg</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779">
+        <v>1785</v>
+      </c>
+      <c r="B1779">
+        <v>12</v>
+      </c>
+      <c r="C1779" t="str">
+        <v>東向北地蔵尊 地蔵盆</v>
+      </c>
+      <c r="D1779" t="str">
+        <v>./images/12/IMG_7957.jpg</v>
+      </c>
+      <c r="E1779" t="str">
+        <v>2023-07-23T16:27:58</v>
+      </c>
+      <c r="F1779" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1779" t="str">
+        <v>./mid_thumbs/12/IMG_7957.jpg</v>
+      </c>
+      <c r="H1779" t="str">
+        <v>./small_thumbs/12/IMG_7957.jpg</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780">
+        <v>1786</v>
+      </c>
+      <c r="B1780">
+        <v>859</v>
+      </c>
+      <c r="C1780" t="str">
+        <v>西大寺赤田町地蔵堂１</v>
+      </c>
+      <c r="D1780" t="str">
+        <v>./images/859/344300461_3415341435347227_6027728242804109744_n.jpg</v>
+      </c>
+      <c r="E1780" t="str">
+        <v>2023-05-10T01:36:14</v>
+      </c>
+      <c r="F1780" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1780" t="str">
+        <v>./mid_thumbs/859/344300461_3415341435347227_6027728242804109744_n.jpg</v>
+      </c>
+      <c r="H1780" t="str">
+        <v>./small_thumbs/859/344300461_3415341435347227_6027728242804109744_n.jpg</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781">
+        <v>1787</v>
+      </c>
+      <c r="B1781">
+        <v>859</v>
+      </c>
+      <c r="C1781" t="str">
+        <v>西大寺赤田町地蔵堂１</v>
+      </c>
+      <c r="D1781" t="str">
+        <v>./images/859/345871364_622424796433445_2780874164980509545_n.jpg</v>
+      </c>
+      <c r="E1781" t="str">
+        <v>2023-05-10T01:36:14</v>
+      </c>
+      <c r="F1781" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1781" t="str">
+        <v>./mid_thumbs/859/345871364_622424796433445_2780874164980509545_n.jpg</v>
+      </c>
+      <c r="H1781" t="str">
+        <v>./small_thumbs/859/345871364_622424796433445_2780874164980509545_n.jpg</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782">
+        <v>1788</v>
+      </c>
+      <c r="B1782">
+        <v>860</v>
+      </c>
+      <c r="C1782" t="str">
+        <v>西大寺赤田町地蔵堂２</v>
+      </c>
+      <c r="D1782" t="str">
+        <v>./images/860/345993944_255222507041078_2092380315280962758_n.jpg</v>
+      </c>
+      <c r="E1782" t="str">
+        <v>2023-05-10T01:39:16</v>
+      </c>
+      <c r="F1782" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1782" t="str">
+        <v>./mid_thumbs/860/345993944_255222507041078_2092380315280962758_n.jpg</v>
+      </c>
+      <c r="H1782" t="str">
+        <v>./small_thumbs/860/345993944_255222507041078_2092380315280962758_n.jpg</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783">
+        <v>1789</v>
+      </c>
+      <c r="B1783">
+        <v>860</v>
+      </c>
+      <c r="C1783" t="str">
+        <v>西大寺赤田町地蔵堂２</v>
+      </c>
+      <c r="D1783" t="str">
+        <v>./images/860/346106944_3484881208418093_669085364674185231_n.jpg</v>
+      </c>
+      <c r="E1783" t="str">
+        <v>2023-05-10T01:39:16</v>
+      </c>
+      <c r="F1783" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1783" t="str">
+        <v>./mid_thumbs/860/346106944_3484881208418093_669085364674185231_n.jpg</v>
+      </c>
+      <c r="H1783" t="str">
+        <v>./small_thumbs/860/346106944_3484881208418093_669085364674185231_n.jpg</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784">
+        <v>1790</v>
+      </c>
+      <c r="B1784">
+        <v>10</v>
+      </c>
+      <c r="C1784" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1784" t="str">
+        <v>./images/10/336521203_760938945294855_8695039677405354475_n.jpg</v>
+      </c>
+      <c r="E1784" t="str">
+        <v>2023-03-16T01:42:53</v>
+      </c>
+      <c r="F1784" t="str">
+        <v>Takeo Hidaka</v>
+      </c>
+      <c r="G1784" t="str">
+        <v>./mid_thumbs/10/336521203_760938945294855_8695039677405354475_n.jpg</v>
+      </c>
+      <c r="H1784" t="str">
+        <v>./small_thumbs/10/336521203_760938945294855_8695039677405354475_n.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1744"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1784"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -4034,7 +4034,7 @@
         <v>三条川西町 (県立図書情報館そば)</v>
       </c>
       <c r="P76" t="str">
-        <v>2018-01-19</v>
+        <v>2023-07-26</v>
       </c>
       <c r="Q76" t="b">
         <v>1</v>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE585"/>
+  <dimension ref="A1:AE589"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1089,11 +1089,14 @@
       <c r="I14" t="str">
         <v>芝辻町１丁目</v>
       </c>
+      <c r="L14" t="str">
+        <v>読み方は「ひらきのしば」</v>
+      </c>
       <c r="O14" t="str">
         <v>芝辻町１</v>
       </c>
       <c r="P14" t="str">
-        <v>2016-11-04</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
@@ -1103,6 +1106,9 @@
       </c>
       <c r="W14" t="str">
         <v/>
+      </c>
+      <c r="X14" t="str">
+        <v>石造</v>
       </c>
       <c r="AC14" t="str">
         <v/>
@@ -1378,7 +1384,7 @@
         <v>芝辻町３</v>
       </c>
       <c r="P20" t="str">
-        <v>2016-11-04</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q20" t="b">
         <v>1</v>
@@ -2415,10 +2421,10 @@
         <v>畑中町</v>
       </c>
       <c r="O42" t="str">
-        <v>畑中町</v>
+        <v>畑中町 県立大西隣</v>
       </c>
       <c r="P42" t="str">
-        <v>2016-11-04</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q42" t="b">
         <v>1</v>
@@ -3076,7 +3082,7 @@
         <v>下三条町</v>
       </c>
       <c r="P56" t="str">
-        <v>2019-07-23</v>
+        <v>2023-08-14</v>
       </c>
       <c r="Q56" t="b">
         <v>1</v>
@@ -3508,16 +3514,16 @@
         <v>法蓮町</v>
       </c>
       <c r="O65" t="str">
-        <v>北袋町 地蔵堂</v>
+        <v>法連町 地蔵堂</v>
       </c>
       <c r="P65" t="str">
-        <v>2018-06-22</v>
+        <v>2023-08-19</v>
       </c>
       <c r="Q65" t="b">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>186</v>
+        <v>1827</v>
       </c>
       <c r="W65" t="str">
         <v/>
@@ -3752,7 +3758,7 @@
         <v>法蓮町</v>
       </c>
       <c r="P70" t="str">
-        <v>2018-06-22</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q70" t="b">
         <v>1</v>
@@ -13530,7 +13536,7 @@
         <v>衣掛の柳そば 九重塔ふもとの地蔵</v>
       </c>
       <c r="P277" t="str">
-        <v>2019-01-18</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q277" t="b">
         <v>1</v>
@@ -20515,7 +20521,7 @@
         <v>法華寺町 横笛地蔵堂</v>
       </c>
       <c r="P423" t="str">
-        <v>2017-05-19</v>
+        <v>2023-08-16</v>
       </c>
       <c r="Q423" t="b">
         <v>1</v>
@@ -20609,7 +20615,7 @@
         <v>法華寺町 和合地蔵尊</v>
       </c>
       <c r="P425" t="str">
-        <v>2021-03-19</v>
+        <v>2023-08-16</v>
       </c>
       <c r="Q425" t="b">
         <v>1</v>
@@ -25689,7 +25695,7 @@
         <v>法蓮町 地蔵堂</v>
       </c>
       <c r="P532" t="str">
-        <v>2022-06-15</v>
+        <v>2023-08-14</v>
       </c>
       <c r="Q532" t="b">
         <v>1</v>
@@ -26466,7 +26472,7 @@
         <v>芝辻町３丁目</v>
       </c>
       <c r="P549" t="str">
-        <v>2016-11-04</v>
+        <v>2023-08-09</v>
       </c>
       <c r="Q549" t="b">
         <v>1</v>
@@ -28232,16 +28238,195 @@
         <v>34.69844736015697</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586">
+        <v>861</v>
+      </c>
+      <c r="B586" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C586" t="str">
+        <v>成願延命地蔵尊</v>
+      </c>
+      <c r="D586" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F586" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G586" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H586" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I586" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="O586" t="str">
+        <v>極楽寺 成願延命地蔵尊</v>
+      </c>
+      <c r="P586" t="str">
+        <v>2023-08-14</v>
+      </c>
+      <c r="Q586" t="b">
+        <v>1</v>
+      </c>
+      <c r="R586">
+        <v>1793</v>
+      </c>
+      <c r="X586" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD586">
+        <v>135.80351514942438</v>
+      </c>
+      <c r="AE586">
+        <v>34.69152903173374</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587">
+        <v>862</v>
+      </c>
+      <c r="B587" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C587" t="str">
+        <v>狭岡神社脇地蔵群</v>
+      </c>
+      <c r="D587" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F587" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G587" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H587" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I587" t="str">
+        <v>法連町</v>
+      </c>
+      <c r="P587" t="str">
+        <v>2023-08-14</v>
+      </c>
+      <c r="Q587" t="b">
+        <v>1</v>
+      </c>
+      <c r="R587">
+        <v>1839</v>
+      </c>
+      <c r="X587" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD587">
+        <v>135.81614039325163</v>
+      </c>
+      <c r="AE587">
+        <v>34.694449031068984</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588">
+        <v>863</v>
+      </c>
+      <c r="B588" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C588" t="str">
+        <v>笠付地蔵尊</v>
+      </c>
+      <c r="D588" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F588" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G588" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H588" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I588" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="P588" t="str">
+        <v>2023-08-14</v>
+      </c>
+      <c r="Q588" t="b">
+        <v>1</v>
+      </c>
+      <c r="R588">
+        <v>1848</v>
+      </c>
+      <c r="X588" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD588">
+        <v>135.8038609269884</v>
+      </c>
+      <c r="AE588">
+        <v>34.70364321473434</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589">
+        <v>864</v>
+      </c>
+      <c r="B589" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C589" t="str">
+        <v>秋篠寺北地蔵</v>
+      </c>
+      <c r="D589" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F589" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G589" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H589" t="str">
+        <v>平城</v>
+      </c>
+      <c r="I589" t="str">
+        <v>秋篠町</v>
+      </c>
+      <c r="Q589" t="b">
+        <v>0</v>
+      </c>
+      <c r="X589" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AB589" t="str">
+        <v>ストリートビューで確認</v>
+      </c>
+      <c r="AC589" t="str">
+        <v>要調査</v>
+      </c>
+      <c r="AD589">
+        <v>135.77612625896663</v>
+      </c>
+      <c r="AE589">
+        <v>34.70416187469589</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE585"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE589"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1784"/>
+  <dimension ref="A1:H1843"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -33064,7 +33249,7 @@
         <v>64</v>
       </c>
       <c r="C186" t="str">
-        <v>法蓮町 地蔵堂 内部</v>
+        <v>法蓮町 地蔵堂 改修前 内部</v>
       </c>
       <c r="D186" t="str">
         <v>./images/64/Jizodo_2_(Horen-cho)_Nara_Inside.jpg</v>
@@ -33090,7 +33275,7 @@
         <v>64</v>
       </c>
       <c r="C187" t="str">
-        <v>法蓮町 地蔵堂</v>
+        <v>法蓮町 地蔵堂 改修前</v>
       </c>
       <c r="D187" t="str">
         <v>./images/64/Jizodo_2_(Horen-cho)_Nara.jpg</v>
@@ -74630,9 +74815,1543 @@
         <v>./small_thumbs/10/336521203_760938945294855_8695039677405354475_n.jpg</v>
       </c>
     </row>
+    <row r="1785">
+      <c r="A1785">
+        <v>1791</v>
+      </c>
+      <c r="B1785">
+        <v>696</v>
+      </c>
+      <c r="C1785" t="str">
+        <v>横笛地蔵堂</v>
+      </c>
+      <c r="D1785" t="str">
+        <v>./images/696/13742.jpg</v>
+      </c>
+      <c r="E1785" t="str">
+        <v>2023-08-16T00:00:00</v>
+      </c>
+      <c r="F1785" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1785" t="str">
+        <v>./mid_thumbs/696/13742.jpg</v>
+      </c>
+      <c r="H1785" t="str">
+        <v>./small_thumbs/696/13742.jpg</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786">
+        <v>1792</v>
+      </c>
+      <c r="B1786">
+        <v>696</v>
+      </c>
+      <c r="C1786" t="str">
+        <v>横笛地蔵堂 堂内</v>
+      </c>
+      <c r="D1786" t="str">
+        <v>./images/696/13745.jpg</v>
+      </c>
+      <c r="E1786" t="str">
+        <v>2023-08-16T00:00:00</v>
+      </c>
+      <c r="F1786" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1786" t="str">
+        <v>./mid_thumbs/696/13745.jpg</v>
+      </c>
+      <c r="H1786" t="str">
+        <v>./small_thumbs/696/13745.jpg</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787">
+        <v>1793</v>
+      </c>
+      <c r="B1787">
+        <v>861</v>
+      </c>
+      <c r="C1787" t="str">
+        <v>成願延命地蔵尊 極楽寺門前</v>
+      </c>
+      <c r="D1787" t="str">
+        <v>./images/861/13340.jpg</v>
+      </c>
+      <c r="E1787" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1787" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1787" t="str">
+        <v>./mid_thumbs/861/13340.jpg</v>
+      </c>
+      <c r="H1787" t="str">
+        <v>./small_thumbs/861/13340.jpg</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788">
+        <v>1794</v>
+      </c>
+      <c r="B1788">
+        <v>861</v>
+      </c>
+      <c r="C1788" t="str">
+        <v>成願延命地蔵尊 地蔵堂正面</v>
+      </c>
+      <c r="D1788" t="str">
+        <v>./images/861/13341.jpg</v>
+      </c>
+      <c r="E1788" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1788" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1788" t="str">
+        <v>./mid_thumbs/861/13341.jpg</v>
+      </c>
+      <c r="H1788" t="str">
+        <v>./small_thumbs/861/13341.jpg</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789">
+        <v>1795</v>
+      </c>
+      <c r="B1789">
+        <v>861</v>
+      </c>
+      <c r="C1789" t="str">
+        <v>成願延命地蔵尊 地蔵尊堂内</v>
+      </c>
+      <c r="D1789" t="str">
+        <v>./images/861/13342.jpg</v>
+      </c>
+      <c r="E1789" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1789" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1789" t="str">
+        <v>./mid_thumbs/861/13342.jpg</v>
+      </c>
+      <c r="H1789" t="str">
+        <v>./small_thumbs/861/13342.jpg</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790">
+        <v>1796</v>
+      </c>
+      <c r="B1790">
+        <v>861</v>
+      </c>
+      <c r="C1790" t="str">
+        <v>成願延命地蔵尊 主尊</v>
+      </c>
+      <c r="D1790" t="str">
+        <v>./images/861/13343.jpg</v>
+      </c>
+      <c r="E1790" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1790" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1790" t="str">
+        <v>./mid_thumbs/861/13343.jpg</v>
+      </c>
+      <c r="H1790" t="str">
+        <v>./small_thumbs/861/13343.jpg</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791">
+        <v>1797</v>
+      </c>
+      <c r="B1791">
+        <v>861</v>
+      </c>
+      <c r="C1791" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1791" t="str">
+        <v>./images/861/13344.jpg</v>
+      </c>
+      <c r="E1791" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1791" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1791" t="str">
+        <v>./mid_thumbs/861/13344.jpg</v>
+      </c>
+      <c r="H1791" t="str">
+        <v>./small_thumbs/861/13344.jpg</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792">
+        <v>1798</v>
+      </c>
+      <c r="B1792">
+        <v>861</v>
+      </c>
+      <c r="C1792" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1792" t="str">
+        <v>./images/861/13345.jpg</v>
+      </c>
+      <c r="E1792" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1792" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1792" t="str">
+        <v>./mid_thumbs/861/13345.jpg</v>
+      </c>
+      <c r="H1792" t="str">
+        <v>./small_thumbs/861/13345.jpg</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793">
+        <v>1799</v>
+      </c>
+      <c r="B1793">
+        <v>861</v>
+      </c>
+      <c r="C1793" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1793" t="str">
+        <v>./images/861/13346.jpg</v>
+      </c>
+      <c r="E1793" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1793" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1793" t="str">
+        <v>./mid_thumbs/861/13346.jpg</v>
+      </c>
+      <c r="H1793" t="str">
+        <v>./small_thumbs/861/13346.jpg</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794">
+        <v>1800</v>
+      </c>
+      <c r="B1794">
+        <v>861</v>
+      </c>
+      <c r="C1794" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1794" t="str">
+        <v>./images/861/13347.jpg</v>
+      </c>
+      <c r="E1794" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1794" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1794" t="str">
+        <v>./mid_thumbs/861/13347.jpg</v>
+      </c>
+      <c r="H1794" t="str">
+        <v>./small_thumbs/861/13347.jpg</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795">
+        <v>1801</v>
+      </c>
+      <c r="B1795">
+        <v>861</v>
+      </c>
+      <c r="C1795" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1795" t="str">
+        <v>./images/861/13348.jpg</v>
+      </c>
+      <c r="E1795" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1795" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1795" t="str">
+        <v>./mid_thumbs/861/13348.jpg</v>
+      </c>
+      <c r="H1795" t="str">
+        <v>./small_thumbs/861/13348.jpg</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796">
+        <v>1802</v>
+      </c>
+      <c r="B1796">
+        <v>861</v>
+      </c>
+      <c r="C1796" t="str">
+        <v>成願延命地蔵尊 堂内地蔵群</v>
+      </c>
+      <c r="D1796" t="str">
+        <v>./images/861/13349.jpg</v>
+      </c>
+      <c r="E1796" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1796" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1796" t="str">
+        <v>./mid_thumbs/861/13349.jpg</v>
+      </c>
+      <c r="H1796" t="str">
+        <v>./small_thumbs/861/13349.jpg</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797">
+        <v>1803</v>
+      </c>
+      <c r="B1797">
+        <v>861</v>
+      </c>
+      <c r="C1797" t="str">
+        <v>成願延命地蔵尊 堂内</v>
+      </c>
+      <c r="D1797" t="str">
+        <v>./images/861/13350.jpg</v>
+      </c>
+      <c r="E1797" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1797" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1797" t="str">
+        <v>./mid_thumbs/861/13350.jpg</v>
+      </c>
+      <c r="H1797" t="str">
+        <v>./small_thumbs/861/13350.jpg</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798">
+        <v>1804</v>
+      </c>
+      <c r="B1798">
+        <v>861</v>
+      </c>
+      <c r="C1798" t="str">
+        <v>成願延命地蔵尊 堂内</v>
+      </c>
+      <c r="D1798" t="str">
+        <v>./images/861/13351.jpg</v>
+      </c>
+      <c r="E1798" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1798" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1798" t="str">
+        <v>./mid_thumbs/861/13351.jpg</v>
+      </c>
+      <c r="H1798" t="str">
+        <v>./small_thumbs/861/13351.jpg</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799">
+        <v>1805</v>
+      </c>
+      <c r="B1799">
+        <v>861</v>
+      </c>
+      <c r="C1799" t="str">
+        <v>成願延命地蔵尊 堂内側方</v>
+      </c>
+      <c r="D1799" t="str">
+        <v>./images/861/13353.jpg</v>
+      </c>
+      <c r="E1799" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1799" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1799" t="str">
+        <v>./mid_thumbs/861/13353.jpg</v>
+      </c>
+      <c r="H1799" t="str">
+        <v>./small_thumbs/861/13353.jpg</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800">
+        <v>1806</v>
+      </c>
+      <c r="B1800">
+        <v>861</v>
+      </c>
+      <c r="C1800" t="str">
+        <v>成願延命地蔵尊 主尊中心</v>
+      </c>
+      <c r="D1800" t="str">
+        <v>./images/861/13354.jpg</v>
+      </c>
+      <c r="E1800" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1800" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1800" t="str">
+        <v>./mid_thumbs/861/13354.jpg</v>
+      </c>
+      <c r="H1800" t="str">
+        <v>./small_thumbs/861/13354.jpg</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801">
+        <v>1807</v>
+      </c>
+      <c r="B1801">
+        <v>861</v>
+      </c>
+      <c r="C1801" t="str">
+        <v>成願延命地蔵尊 寄進者</v>
+      </c>
+      <c r="D1801" t="str">
+        <v>./images/861/13355.jpg</v>
+      </c>
+      <c r="E1801" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1801" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1801" t="str">
+        <v>./mid_thumbs/861/13355.jpg</v>
+      </c>
+      <c r="H1801" t="str">
+        <v>./small_thumbs/861/13355.jpg</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802">
+        <v>1808</v>
+      </c>
+      <c r="B1802">
+        <v>861</v>
+      </c>
+      <c r="C1802" t="str">
+        <v>成願延命地蔵尊 極楽寺門前</v>
+      </c>
+      <c r="D1802" t="str">
+        <v>./images/861/13356.jpg</v>
+      </c>
+      <c r="E1802" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1802" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1802" t="str">
+        <v>./mid_thumbs/861/13356.jpg</v>
+      </c>
+      <c r="H1802" t="str">
+        <v>./small_thumbs/861/13356.jpg</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803">
+        <v>1809</v>
+      </c>
+      <c r="B1803">
+        <v>13</v>
+      </c>
+      <c r="C1803" t="str">
+        <v>開之芝地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1803" t="str">
+        <v>./images/13/13136.jpg</v>
+      </c>
+      <c r="E1803" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1803" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1803" t="str">
+        <v>./mid_thumbs/13/13136.jpg</v>
+      </c>
+      <c r="H1803" t="str">
+        <v>./small_thumbs/13/13136.jpg</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804">
+        <v>1810</v>
+      </c>
+      <c r="B1804">
+        <v>13</v>
+      </c>
+      <c r="C1804" t="str">
+        <v>開之芝地蔵尊 堂内</v>
+      </c>
+      <c r="D1804" t="str">
+        <v>./images/13/13137.jpg</v>
+      </c>
+      <c r="E1804" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1804" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1804" t="str">
+        <v>./mid_thumbs/13/13137.jpg</v>
+      </c>
+      <c r="H1804" t="str">
+        <v>./small_thumbs/13/13137.jpg</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805">
+        <v>1811</v>
+      </c>
+      <c r="B1805">
+        <v>698</v>
+      </c>
+      <c r="C1805" t="str">
+        <v>和合地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D1805" t="str">
+        <v>./images/698/13731.jpg</v>
+      </c>
+      <c r="E1805" t="str">
+        <v>2023-08-16T00:00:00</v>
+      </c>
+      <c r="F1805" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1805" t="str">
+        <v>./mid_thumbs/698/13731.jpg</v>
+      </c>
+      <c r="H1805" t="str">
+        <v>./small_thumbs/698/13731.jpg</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806">
+        <v>1812</v>
+      </c>
+      <c r="B1806">
+        <v>698</v>
+      </c>
+      <c r="C1806" t="str">
+        <v>和合地蔵尊 堂内</v>
+      </c>
+      <c r="D1806" t="str">
+        <v>./images/698/13732.jpg</v>
+      </c>
+      <c r="E1806" t="str">
+        <v>2023-08-16T00:00:00</v>
+      </c>
+      <c r="F1806" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1806" t="str">
+        <v>./mid_thumbs/698/13732.jpg</v>
+      </c>
+      <c r="H1806" t="str">
+        <v>./small_thumbs/698/13732.jpg</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807">
+        <v>1813</v>
+      </c>
+      <c r="B1807">
+        <v>698</v>
+      </c>
+      <c r="C1807" t="str">
+        <v>和合地蔵尊 主尊</v>
+      </c>
+      <c r="D1807" t="str">
+        <v>./images/698/13734.jpg</v>
+      </c>
+      <c r="E1807" t="str">
+        <v>2023-08-16T00:00:00</v>
+      </c>
+      <c r="F1807" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1807" t="str">
+        <v>./mid_thumbs/698/13734.jpg</v>
+      </c>
+      <c r="H1807" t="str">
+        <v>./small_thumbs/698/13734.jpg</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808">
+        <v>1814</v>
+      </c>
+      <c r="B1808">
+        <v>55</v>
+      </c>
+      <c r="C1808" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1808" t="str">
+        <v>./images/55/63107.jpg</v>
+      </c>
+      <c r="E1808" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1808" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1808" t="str">
+        <v>./mid_thumbs/55/63107.jpg</v>
+      </c>
+      <c r="H1808" t="str">
+        <v>./small_thumbs/55/63107.jpg</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809">
+        <v>1815</v>
+      </c>
+      <c r="B1809">
+        <v>55</v>
+      </c>
+      <c r="C1809" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1809" t="str">
+        <v>./images/55/63108.jpg</v>
+      </c>
+      <c r="E1809" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1809" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1809" t="str">
+        <v>./mid_thumbs/55/63108.jpg</v>
+      </c>
+      <c r="H1809" t="str">
+        <v>./small_thumbs/55/63108.jpg</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810">
+        <v>1816</v>
+      </c>
+      <c r="B1810">
+        <v>55</v>
+      </c>
+      <c r="C1810" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1810" t="str">
+        <v>./images/55/63109.jpg</v>
+      </c>
+      <c r="E1810" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1810" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1810" t="str">
+        <v>./mid_thumbs/55/63109.jpg</v>
+      </c>
+      <c r="H1810" t="str">
+        <v>./small_thumbs/55/63109.jpg</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811">
+        <v>1817</v>
+      </c>
+      <c r="B1811">
+        <v>41</v>
+      </c>
+      <c r="C1811" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1811" t="str">
+        <v>./images/41/13129.jpg</v>
+      </c>
+      <c r="E1811" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1811" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1811" t="str">
+        <v>./mid_thumbs/41/13129.jpg</v>
+      </c>
+      <c r="H1811" t="str">
+        <v>./small_thumbs/41/13129.jpg</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812">
+        <v>1818</v>
+      </c>
+      <c r="B1812">
+        <v>41</v>
+      </c>
+      <c r="C1812" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1812" t="str">
+        <v>./images/41/13130.jpg</v>
+      </c>
+      <c r="E1812" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1812" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1812" t="str">
+        <v>./mid_thumbs/41/13130.jpg</v>
+      </c>
+      <c r="H1812" t="str">
+        <v>./small_thumbs/41/13130.jpg</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813">
+        <v>1819</v>
+      </c>
+      <c r="B1813">
+        <v>41</v>
+      </c>
+      <c r="C1813" t="str">
+        <v>地蔵堂 主尊</v>
+      </c>
+      <c r="D1813" t="str">
+        <v>./images/41/13131.jpg</v>
+      </c>
+      <c r="E1813" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1813" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1813" t="str">
+        <v>./mid_thumbs/41/13131.jpg</v>
+      </c>
+      <c r="H1813" t="str">
+        <v>./small_thumbs/41/13131.jpg</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814">
+        <v>1820</v>
+      </c>
+      <c r="B1814">
+        <v>41</v>
+      </c>
+      <c r="C1814" t="str">
+        <v>地蔵堂 主尊</v>
+      </c>
+      <c r="D1814" t="str">
+        <v>./images/41/13132.jpg</v>
+      </c>
+      <c r="E1814" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1814" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1814" t="str">
+        <v>./mid_thumbs/41/13132.jpg</v>
+      </c>
+      <c r="H1814" t="str">
+        <v>./small_thumbs/41/13132.jpg</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815">
+        <v>1821</v>
+      </c>
+      <c r="B1815">
+        <v>41</v>
+      </c>
+      <c r="C1815" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1815" t="str">
+        <v>./images/41/13133.jpg</v>
+      </c>
+      <c r="E1815" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1815" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1815" t="str">
+        <v>./mid_thumbs/41/13133.jpg</v>
+      </c>
+      <c r="H1815" t="str">
+        <v>./small_thumbs/41/13133.jpg</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816">
+        <v>1822</v>
+      </c>
+      <c r="B1816">
+        <v>824</v>
+      </c>
+      <c r="C1816" t="str">
+        <v>芝辻野神</v>
+      </c>
+      <c r="D1816" t="str">
+        <v>./images/824/13144.jpg</v>
+      </c>
+      <c r="E1816" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1816" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1816" t="str">
+        <v>./mid_thumbs/824/13144.jpg</v>
+      </c>
+      <c r="H1816" t="str">
+        <v>./small_thumbs/824/13144.jpg</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817">
+        <v>1823</v>
+      </c>
+      <c r="B1817">
+        <v>19</v>
+      </c>
+      <c r="C1817" t="str">
+        <v>地蔵 遠景</v>
+      </c>
+      <c r="D1817" t="str">
+        <v>./images/19/13140.jpg</v>
+      </c>
+      <c r="E1817" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1817" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1817" t="str">
+        <v>./mid_thumbs/19/13140.jpg</v>
+      </c>
+      <c r="H1817" t="str">
+        <v>./small_thumbs/19/13140.jpg</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818">
+        <v>1824</v>
+      </c>
+      <c r="B1818">
+        <v>19</v>
+      </c>
+      <c r="C1818" t="str">
+        <v>地蔵 主尊</v>
+      </c>
+      <c r="D1818" t="str">
+        <v>./images/19/13141.jpg</v>
+      </c>
+      <c r="E1818" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1818" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1818" t="str">
+        <v>./mid_thumbs/19/13141.jpg</v>
+      </c>
+      <c r="H1818" t="str">
+        <v>./small_thumbs/19/13141.jpg</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819">
+        <v>1825</v>
+      </c>
+      <c r="B1819">
+        <v>19</v>
+      </c>
+      <c r="C1819" t="str">
+        <v>地蔵 板碑残欠</v>
+      </c>
+      <c r="D1819" t="str">
+        <v>./images/19/13143.jpg</v>
+      </c>
+      <c r="E1819" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1819" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1819" t="str">
+        <v>./mid_thumbs/19/13143.jpg</v>
+      </c>
+      <c r="H1819" t="str">
+        <v>./small_thumbs/19/13143.jpg</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820">
+        <v>1826</v>
+      </c>
+      <c r="B1820">
+        <v>64</v>
+      </c>
+      <c r="C1820" t="str">
+        <v>地蔵堂 遠景</v>
+      </c>
+      <c r="D1820" t="str">
+        <v>./images/64/14182.jpg</v>
+      </c>
+      <c r="E1820" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1820" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1820" t="str">
+        <v>./mid_thumbs/64/14182.jpg</v>
+      </c>
+      <c r="H1820" t="str">
+        <v>./small_thumbs/64/14182.jpg</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821">
+        <v>1827</v>
+      </c>
+      <c r="B1821">
+        <v>64</v>
+      </c>
+      <c r="C1821" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1821" t="str">
+        <v>./images/64/14183.jpg</v>
+      </c>
+      <c r="E1821" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1821" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1821" t="str">
+        <v>./mid_thumbs/64/14183.jpg</v>
+      </c>
+      <c r="H1821" t="str">
+        <v>./small_thumbs/64/14183.jpg</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822">
+        <v>1828</v>
+      </c>
+      <c r="B1822">
+        <v>64</v>
+      </c>
+      <c r="C1822" t="str">
+        <v>地蔵堂 開扉</v>
+      </c>
+      <c r="D1822" t="str">
+        <v>./images/64/14184.jpg</v>
+      </c>
+      <c r="E1822" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1822" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1822" t="str">
+        <v>./mid_thumbs/64/14184.jpg</v>
+      </c>
+      <c r="H1822" t="str">
+        <v>./small_thumbs/64/14184.jpg</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823">
+        <v>1829</v>
+      </c>
+      <c r="B1823">
+        <v>64</v>
+      </c>
+      <c r="C1823" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1823" t="str">
+        <v>./images/64/14185.jpg</v>
+      </c>
+      <c r="E1823" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1823" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1823" t="str">
+        <v>./mid_thumbs/64/14185.jpg</v>
+      </c>
+      <c r="H1823" t="str">
+        <v>./small_thumbs/64/14185.jpg</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824">
+        <v>1830</v>
+      </c>
+      <c r="B1824">
+        <v>64</v>
+      </c>
+      <c r="C1824" t="str">
+        <v>地蔵堂 主尊</v>
+      </c>
+      <c r="D1824" t="str">
+        <v>./images/64/14186.jpg</v>
+      </c>
+      <c r="E1824" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1824" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1824" t="str">
+        <v>./mid_thumbs/64/14186.jpg</v>
+      </c>
+      <c r="H1824" t="str">
+        <v>./small_thumbs/64/14186.jpg</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825">
+        <v>1831</v>
+      </c>
+      <c r="B1825">
+        <v>64</v>
+      </c>
+      <c r="C1825" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1825" t="str">
+        <v>./images/64/14187.jpg</v>
+      </c>
+      <c r="E1825" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1825" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1825" t="str">
+        <v>./mid_thumbs/64/14187.jpg</v>
+      </c>
+      <c r="H1825" t="str">
+        <v>./small_thumbs/64/14187.jpg</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826">
+        <v>1832</v>
+      </c>
+      <c r="B1826">
+        <v>64</v>
+      </c>
+      <c r="C1826" t="str">
+        <v>地蔵堂 解説</v>
+      </c>
+      <c r="D1826" t="str">
+        <v>./images/64/14188.jpg</v>
+      </c>
+      <c r="E1826" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1826" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1826" t="str">
+        <v>./mid_thumbs/64/14188.jpg</v>
+      </c>
+      <c r="H1826" t="str">
+        <v>./small_thumbs/64/14188.jpg</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827">
+        <v>1833</v>
+      </c>
+      <c r="B1827">
+        <v>64</v>
+      </c>
+      <c r="C1827" t="str">
+        <v>地蔵堂 周辺</v>
+      </c>
+      <c r="D1827" t="str">
+        <v>./images/64/14189.jpg</v>
+      </c>
+      <c r="E1827" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1827" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1827" t="str">
+        <v>./mid_thumbs/64/14189.jpg</v>
+      </c>
+      <c r="H1827" t="str">
+        <v>./small_thumbs/64/14189.jpg</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828">
+        <v>1834</v>
+      </c>
+      <c r="B1828">
+        <v>64</v>
+      </c>
+      <c r="C1828" t="str">
+        <v>地蔵堂 周辺</v>
+      </c>
+      <c r="D1828" t="str">
+        <v>./images/64/14190.jpg</v>
+      </c>
+      <c r="E1828" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1828" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1828" t="str">
+        <v>./mid_thumbs/64/14190.jpg</v>
+      </c>
+      <c r="H1828" t="str">
+        <v>./small_thumbs/64/14190.jpg</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829">
+        <v>1835</v>
+      </c>
+      <c r="B1829">
+        <v>64</v>
+      </c>
+      <c r="C1829" t="str">
+        <v>地蔵堂 周辺</v>
+      </c>
+      <c r="D1829" t="str">
+        <v>./images/64/14191.jpg</v>
+      </c>
+      <c r="E1829" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1829" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1829" t="str">
+        <v>./mid_thumbs/64/14191.jpg</v>
+      </c>
+      <c r="H1829" t="str">
+        <v>./small_thumbs/64/14191.jpg</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830">
+        <v>1836</v>
+      </c>
+      <c r="B1830">
+        <v>807</v>
+      </c>
+      <c r="C1830" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1830" t="str">
+        <v>./images/807/63103.jpg</v>
+      </c>
+      <c r="E1830" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1830" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1830" t="str">
+        <v>./mid_thumbs/807/63103.jpg</v>
+      </c>
+      <c r="H1830" t="str">
+        <v>./small_thumbs/807/63103.jpg</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831">
+        <v>1837</v>
+      </c>
+      <c r="B1831">
+        <v>807</v>
+      </c>
+      <c r="C1831" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1831" t="str">
+        <v>./images/807/63104.jpg</v>
+      </c>
+      <c r="E1831" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1831" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1831" t="str">
+        <v>./mid_thumbs/807/63104.jpg</v>
+      </c>
+      <c r="H1831" t="str">
+        <v>./small_thumbs/807/63104.jpg</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832">
+        <v>1838</v>
+      </c>
+      <c r="B1832">
+        <v>807</v>
+      </c>
+      <c r="C1832" t="str">
+        <v>地蔵堂 内部</v>
+      </c>
+      <c r="D1832" t="str">
+        <v>./images/807/63105.jpg</v>
+      </c>
+      <c r="E1832" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1832" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1832" t="str">
+        <v>./mid_thumbs/807/63105.jpg</v>
+      </c>
+      <c r="H1832" t="str">
+        <v>./small_thumbs/807/63105.jpg</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833">
+        <v>1839</v>
+      </c>
+      <c r="B1833">
+        <v>862</v>
+      </c>
+      <c r="C1833" t="str">
+        <v>狭岡神社脇地蔵群</v>
+      </c>
+      <c r="D1833" t="str">
+        <v>./images/862/13491.jpg</v>
+      </c>
+      <c r="E1833" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1833" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1833" t="str">
+        <v>./mid_thumbs/862/13491.jpg</v>
+      </c>
+      <c r="H1833" t="str">
+        <v>./small_thumbs/862/13491.jpg</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834">
+        <v>1840</v>
+      </c>
+      <c r="B1834">
+        <v>862</v>
+      </c>
+      <c r="C1834" t="str">
+        <v>狭岡神社脇地蔵群 台座上</v>
+      </c>
+      <c r="D1834" t="str">
+        <v>./images/862/13492.jpg</v>
+      </c>
+      <c r="E1834" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1834" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1834" t="str">
+        <v>./mid_thumbs/862/13492.jpg</v>
+      </c>
+      <c r="H1834" t="str">
+        <v>./small_thumbs/862/13492.jpg</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835">
+        <v>1841</v>
+      </c>
+      <c r="B1835">
+        <v>862</v>
+      </c>
+      <c r="C1835" t="str">
+        <v>狭岡神社脇地蔵群 台座脇</v>
+      </c>
+      <c r="D1835" t="str">
+        <v>./images/862/13493.jpg</v>
+      </c>
+      <c r="E1835" t="str">
+        <v>2023-08-14T00:00:00</v>
+      </c>
+      <c r="F1835" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1835" t="str">
+        <v>./mid_thumbs/862/13493.jpg</v>
+      </c>
+      <c r="H1835" t="str">
+        <v>./small_thumbs/862/13493.jpg</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836">
+        <v>1842</v>
+      </c>
+      <c r="B1836">
+        <v>69</v>
+      </c>
+      <c r="C1836" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1836" t="str">
+        <v>./images/69/13010.jpg</v>
+      </c>
+      <c r="E1836" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1836" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1836" t="str">
+        <v>./mid_thumbs/69/13010.jpg</v>
+      </c>
+      <c r="H1836" t="str">
+        <v>./small_thumbs/69/13010.jpg</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837">
+        <v>1843</v>
+      </c>
+      <c r="B1837">
+        <v>69</v>
+      </c>
+      <c r="C1837" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1837" t="str">
+        <v>./images/69/13011.jpg</v>
+      </c>
+      <c r="E1837" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1837" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1837" t="str">
+        <v>./mid_thumbs/69/13011.jpg</v>
+      </c>
+      <c r="H1837" t="str">
+        <v>./small_thumbs/69/13011.jpg</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838">
+        <v>1844</v>
+      </c>
+      <c r="B1838">
+        <v>69</v>
+      </c>
+      <c r="C1838" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1838" t="str">
+        <v>./images/69/13012.jpg</v>
+      </c>
+      <c r="E1838" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1838" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1838" t="str">
+        <v>./mid_thumbs/69/13012.jpg</v>
+      </c>
+      <c r="H1838" t="str">
+        <v>./small_thumbs/69/13012.jpg</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839">
+        <v>1845</v>
+      </c>
+      <c r="B1839">
+        <v>69</v>
+      </c>
+      <c r="C1839" t="str">
+        <v>地蔵堂 堂内</v>
+      </c>
+      <c r="D1839" t="str">
+        <v>./images/69/13013.jpg</v>
+      </c>
+      <c r="E1839" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1839" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1839" t="str">
+        <v>./mid_thumbs/69/13013.jpg</v>
+      </c>
+      <c r="H1839" t="str">
+        <v>./small_thumbs/69/13013.jpg</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840">
+        <v>1846</v>
+      </c>
+      <c r="B1840">
+        <v>863</v>
+      </c>
+      <c r="C1840" t="str">
+        <v>笠付地蔵尊 西方から</v>
+      </c>
+      <c r="D1840" t="str">
+        <v>./images/863/63076.jpg</v>
+      </c>
+      <c r="E1840" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1840" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1840" t="str">
+        <v>./mid_thumbs/863/63076.jpg</v>
+      </c>
+      <c r="H1840" t="str">
+        <v>./small_thumbs/863/63076.jpg</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841">
+        <v>1847</v>
+      </c>
+      <c r="B1841">
+        <v>863</v>
+      </c>
+      <c r="C1841" t="str">
+        <v>笠付地蔵尊 東方から</v>
+      </c>
+      <c r="D1841" t="str">
+        <v>./images/863/63077.jpg</v>
+      </c>
+      <c r="E1841" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1841" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1841" t="str">
+        <v>./mid_thumbs/863/63077.jpg</v>
+      </c>
+      <c r="H1841" t="str">
+        <v>./small_thumbs/863/63077.jpg</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842">
+        <v>1848</v>
+      </c>
+      <c r="B1842">
+        <v>863</v>
+      </c>
+      <c r="C1842" t="str">
+        <v>笠付地蔵尊</v>
+      </c>
+      <c r="D1842" t="str">
+        <v>./images/863/63078.jpg</v>
+      </c>
+      <c r="E1842" t="str">
+        <v>2023-08-09T00:00:00</v>
+      </c>
+      <c r="F1842" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1842" t="str">
+        <v>./mid_thumbs/863/63078.jpg</v>
+      </c>
+      <c r="H1842" t="str">
+        <v>./small_thumbs/863/63078.jpg</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843">
+        <v>1849</v>
+      </c>
+      <c r="B1843">
+        <v>549</v>
+      </c>
+      <c r="C1843" t="str">
+        <v>采女地蔵</v>
+      </c>
+      <c r="D1843" t="str">
+        <v>./images/549/13017.jpg</v>
+      </c>
+      <c r="E1843" t="str">
+        <v>2023/08/09</v>
+      </c>
+      <c r="F1843" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1843" t="str">
+        <v>./mid_thumbs/549/13017.jpg</v>
+      </c>
+      <c r="H1843" t="str">
+        <v>./small_thumbs/549/13017.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1784"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1843"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE589"/>
+  <dimension ref="A1:AE591"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7392,7 +7392,7 @@
         <v>漢国町</v>
       </c>
       <c r="P147" t="str">
-        <v>2020-06-27</v>
+        <v>2023-08-19</v>
       </c>
       <c r="Q147" t="b">
         <v>1</v>
@@ -28032,13 +28032,13 @@
         <v>川上町の住宅造成で掘り起こされた地蔵</v>
       </c>
       <c r="P581" t="str">
-        <v>2023-07-23</v>
+        <v>2023-08-19</v>
       </c>
       <c r="Q581" t="b">
         <v>1</v>
       </c>
       <c r="R581">
-        <v>1773</v>
+        <v>1854</v>
       </c>
       <c r="X581" t="str">
         <v>石造</v>
@@ -28417,16 +28417,110 @@
         <v>34.70416187469589</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590">
+        <v>865</v>
+      </c>
+      <c r="B590" t="str">
+        <v>地蔵,道標</v>
+      </c>
+      <c r="C590" t="str">
+        <v>高天道標</v>
+      </c>
+      <c r="D590" t="str">
+        <v>文政5</v>
+      </c>
+      <c r="E590" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F590" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G590" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H590" t="str">
+        <v>椿井</v>
+      </c>
+      <c r="I590" t="str">
+        <v>高天町</v>
+      </c>
+      <c r="P590" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q590" t="b">
+        <v>1</v>
+      </c>
+      <c r="R590">
+        <v>1850</v>
+      </c>
+      <c r="W590" t="str">
+        <v>柱型 地蔵浮彫</v>
+      </c>
+      <c r="X590" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD590">
+        <v>135.82600648115778</v>
+      </c>
+      <c r="AE590">
+        <v>34.68419232126982</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591">
+        <v>866</v>
+      </c>
+      <c r="B591" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C591" t="str">
+        <v>佐保山地蔵堂</v>
+      </c>
+      <c r="D591" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F591" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G591" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H591" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I591" t="str">
+        <v>法蓮佐保山</v>
+      </c>
+      <c r="P591" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q591" t="b">
+        <v>1</v>
+      </c>
+      <c r="R591">
+        <v>1855</v>
+      </c>
+      <c r="X591" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD591">
+        <v>135.83111237436728</v>
+      </c>
+      <c r="AE591">
+        <v>34.7018085585712</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE589"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE591"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1843"/>
+  <dimension ref="A1:H1852"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -74355,7 +74449,7 @@
         <v>856</v>
       </c>
       <c r="C1767" t="str">
-        <v>川上町掘り起こし地蔵</v>
+        <v>川上町掘り起こし地蔵 遠景</v>
       </c>
       <c r="D1767" t="str">
         <v>./images/856/IMG_7943.jpg</v>
@@ -74381,7 +74475,7 @@
         <v>856</v>
       </c>
       <c r="C1768" t="str">
-        <v>川上町掘り起こし地蔵</v>
+        <v>川上町掘り起こし地蔵 きたまち六地蔵イベント中</v>
       </c>
       <c r="D1768" t="str">
         <v>./images/856/IMG_7944.jpg</v>
@@ -76337,7 +76431,7 @@
         <v>./images/549/13017.jpg</v>
       </c>
       <c r="E1843" t="str">
-        <v>2023/08/09</v>
+        <v>2023-08-09T00:00:00</v>
       </c>
       <c r="F1843" t="str">
         <v>J.Onoue</v>
@@ -76349,9 +76443,243 @@
         <v>./small_thumbs/549/13017.jpg</v>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844">
+        <v>1850</v>
+      </c>
+      <c r="B1844">
+        <v>865</v>
+      </c>
+      <c r="C1844" t="str">
+        <v>高天道標 東南方</v>
+      </c>
+      <c r="D1844" t="str">
+        <v>./images/865/IMG_8138.jpg</v>
+      </c>
+      <c r="E1844" t="str">
+        <v>2023-08-19T10:58:52</v>
+      </c>
+      <c r="F1844" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1844" t="str">
+        <v>./mid_thumbs/865/IMG_8138.jpg</v>
+      </c>
+      <c r="H1844" t="str">
+        <v>./small_thumbs/865/IMG_8138.jpg</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845">
+        <v>1851</v>
+      </c>
+      <c r="B1845">
+        <v>865</v>
+      </c>
+      <c r="C1845" t="str">
+        <v>高天道標 西方</v>
+      </c>
+      <c r="D1845" t="str">
+        <v>./images/865/IMG_8139.jpg</v>
+      </c>
+      <c r="E1845" t="str">
+        <v>2023-08-19T10:58:59</v>
+      </c>
+      <c r="F1845" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1845" t="str">
+        <v>./mid_thumbs/865/IMG_8139.jpg</v>
+      </c>
+      <c r="H1845" t="str">
+        <v>./small_thumbs/865/IMG_8139.jpg</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846">
+        <v>1852</v>
+      </c>
+      <c r="B1846">
+        <v>865</v>
+      </c>
+      <c r="C1846" t="str">
+        <v>高天道標 北方</v>
+      </c>
+      <c r="D1846" t="str">
+        <v>./images/865/IMG_8140.jpg</v>
+      </c>
+      <c r="E1846" t="str">
+        <v>2023-08-19T10:59:20</v>
+      </c>
+      <c r="F1846" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1846" t="str">
+        <v>./mid_thumbs/865/IMG_8140.jpg</v>
+      </c>
+      <c r="H1846" t="str">
+        <v>./small_thumbs/865/IMG_8140.jpg</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847">
+        <v>1853</v>
+      </c>
+      <c r="B1847">
+        <v>146</v>
+      </c>
+      <c r="C1847" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="D1847" t="str">
+        <v>./images/146/IMG_8141.jpg</v>
+      </c>
+      <c r="E1847" t="str">
+        <v>2023-08-19T11:07:10</v>
+      </c>
+      <c r="F1847" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1847" t="str">
+        <v>./mid_thumbs/146/IMG_8141.jpg</v>
+      </c>
+      <c r="H1847" t="str">
+        <v>./small_thumbs/146/IMG_8141.jpg</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848">
+        <v>1854</v>
+      </c>
+      <c r="B1848">
+        <v>856</v>
+      </c>
+      <c r="C1848" t="str">
+        <v>川上町掘り起こし地蔵</v>
+      </c>
+      <c r="D1848" t="str">
+        <v>./images/856/IMG_8142.jpg</v>
+      </c>
+      <c r="E1848" t="str">
+        <v>2023-08-19T11:22:22</v>
+      </c>
+      <c r="F1848" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1848" t="str">
+        <v>./mid_thumbs/856/IMG_8142.jpg</v>
+      </c>
+      <c r="H1848" t="str">
+        <v>./small_thumbs/856/IMG_8142.jpg</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849">
+        <v>1855</v>
+      </c>
+      <c r="B1849">
+        <v>866</v>
+      </c>
+      <c r="C1849" t="str">
+        <v>佐保山地蔵堂</v>
+      </c>
+      <c r="D1849" t="str">
+        <v>./images/866/IMG_0328.jpg</v>
+      </c>
+      <c r="E1849" t="str">
+        <v>2023-08-19T17:03:41</v>
+      </c>
+      <c r="F1849" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1849" t="str">
+        <v>./mid_thumbs/866/IMG_0328.jpg</v>
+      </c>
+      <c r="H1849" t="str">
+        <v>./small_thumbs/866/IMG_0328.jpg</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850">
+        <v>1856</v>
+      </c>
+      <c r="B1850">
+        <v>866</v>
+      </c>
+      <c r="C1850" t="str">
+        <v>佐保山地蔵堂 浮彫五輪塔</v>
+      </c>
+      <c r="D1850" t="str">
+        <v>./images/866/IMG_0329.jpg</v>
+      </c>
+      <c r="E1850" t="str">
+        <v>2023-08-19T17:03:49</v>
+      </c>
+      <c r="F1850" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1850" t="str">
+        <v>./mid_thumbs/866/IMG_0329.jpg</v>
+      </c>
+      <c r="H1850" t="str">
+        <v>./small_thumbs/866/IMG_0329.jpg</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851">
+        <v>1857</v>
+      </c>
+      <c r="B1851">
+        <v>866</v>
+      </c>
+      <c r="C1851" t="str">
+        <v>佐保山地蔵堂 浮彫五輪塔</v>
+      </c>
+      <c r="D1851" t="str">
+        <v>./images/866/IMG_0330.jpg</v>
+      </c>
+      <c r="E1851" t="str">
+        <v>2023-08-19T17:03:53</v>
+      </c>
+      <c r="F1851" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1851" t="str">
+        <v>./mid_thumbs/866/IMG_0330.jpg</v>
+      </c>
+      <c r="H1851" t="str">
+        <v>./small_thumbs/866/IMG_0330.jpg</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852">
+        <v>1858</v>
+      </c>
+      <c r="B1852">
+        <v>866</v>
+      </c>
+      <c r="C1852" t="str">
+        <v>佐保山地蔵堂 堂内</v>
+      </c>
+      <c r="D1852" t="str">
+        <v>./images/866/IMG_0331.jpg</v>
+      </c>
+      <c r="E1852" t="str">
+        <v>2023-08-19T17:04:01</v>
+      </c>
+      <c r="F1852" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1852" t="str">
+        <v>./mid_thumbs/866/IMG_0331.jpg</v>
+      </c>
+      <c r="H1852" t="str">
+        <v>./small_thumbs/866/IMG_0331.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1843"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1852"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE591"/>
+  <dimension ref="A1:AE594"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -28511,16 +28511,154 @@
         <v>34.7018085585712</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592">
+        <v>867</v>
+      </c>
+      <c r="B592" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C592" t="str">
+        <v>鹿野園地蔵堂</v>
+      </c>
+      <c r="D592" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F592" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G592" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H592" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I592" t="str">
+        <v>鹿野園町</v>
+      </c>
+      <c r="P592" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q592" t="b">
+        <v>1</v>
+      </c>
+      <c r="R592">
+        <v>1859</v>
+      </c>
+      <c r="X592" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD592">
+        <v>135.84884562123156</v>
+      </c>
+      <c r="AE592">
+        <v>34.66335789744099</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593">
+        <v>868</v>
+      </c>
+      <c r="B593" t="str">
+        <v>庚申</v>
+      </c>
+      <c r="C593" t="str">
+        <v>鹿野園青面金剛</v>
+      </c>
+      <c r="D593" t="str">
+        <v>宝暦9年</v>
+      </c>
+      <c r="E593" t="str">
+        <v>1759</v>
+      </c>
+      <c r="F593" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G593" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H593" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I593" t="str">
+        <v>鹿野園町</v>
+      </c>
+      <c r="P593" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q593" t="b">
+        <v>1</v>
+      </c>
+      <c r="R593">
+        <v>1860</v>
+      </c>
+      <c r="W593" t="str">
+        <v>自然石</v>
+      </c>
+      <c r="X593" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD593">
+        <v>135.8488560134034</v>
+      </c>
+      <c r="AE593">
+        <v>34.66333347559771</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594">
+        <v>869</v>
+      </c>
+      <c r="B594" t="str">
+        <v>宝篋印塔</v>
+      </c>
+      <c r="C594" t="str">
+        <v>鹿野園宝篋印塔 二基</v>
+      </c>
+      <c r="D594" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F594" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G594" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H594" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I594" t="str">
+        <v>鹿野園町</v>
+      </c>
+      <c r="P594" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q594" t="b">
+        <v>1</v>
+      </c>
+      <c r="R594">
+        <v>1861</v>
+      </c>
+      <c r="X594" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD594">
+        <v>135.84882780607978</v>
+      </c>
+      <c r="AE594">
+        <v>34.66338109818544</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE591"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE594"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1852"/>
+  <dimension ref="A1:H1856"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -76677,9 +76815,113 @@
         <v>./small_thumbs/866/IMG_0331.jpg</v>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853">
+        <v>1859</v>
+      </c>
+      <c r="B1853">
+        <v>867</v>
+      </c>
+      <c r="C1853" t="str">
+        <v>鹿野園地蔵堂</v>
+      </c>
+      <c r="D1853" t="str">
+        <v>./images/867/IMG_8147.jpg</v>
+      </c>
+      <c r="E1853" t="str">
+        <v>2023-08-19T11:49:50</v>
+      </c>
+      <c r="F1853" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1853" t="str">
+        <v>./mid_thumbs/867/IMG_8147.jpg</v>
+      </c>
+      <c r="H1853" t="str">
+        <v>./small_thumbs/867/IMG_8147.jpg</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854">
+        <v>1860</v>
+      </c>
+      <c r="B1854">
+        <v>868</v>
+      </c>
+      <c r="C1854" t="str">
+        <v>鹿野園青面金剛</v>
+      </c>
+      <c r="D1854" t="str">
+        <v>./images/868/IMG_8146.jpg</v>
+      </c>
+      <c r="E1854" t="str">
+        <v>2023-08-19T11:49:38</v>
+      </c>
+      <c r="F1854" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1854" t="str">
+        <v>./mid_thumbs/868/IMG_8146.jpg</v>
+      </c>
+      <c r="H1854" t="str">
+        <v>./small_thumbs/868/IMG_8146.jpg</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855">
+        <v>1861</v>
+      </c>
+      <c r="B1855">
+        <v>869</v>
+      </c>
+      <c r="C1855" t="str">
+        <v>鹿野園宝篋印塔 二基</v>
+      </c>
+      <c r="D1855" t="str">
+        <v>./images/869/IMG_8148.jpg</v>
+      </c>
+      <c r="E1855" t="str">
+        <v>2023-08-19T11:50:00</v>
+      </c>
+      <c r="F1855" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1855" t="str">
+        <v>./mid_thumbs/869/IMG_8148.jpg</v>
+      </c>
+      <c r="H1855" t="str">
+        <v>./small_thumbs/869/IMG_8148.jpg</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856">
+        <v>1862</v>
+      </c>
+      <c r="B1856">
+        <v>869</v>
+      </c>
+      <c r="C1856" t="str">
+        <v>鹿野園宝篋印塔 二基</v>
+      </c>
+      <c r="D1856" t="str">
+        <v>./images/869/IMG_8149.jpg</v>
+      </c>
+      <c r="E1856" t="str">
+        <v>2023-08-19T11:50:04</v>
+      </c>
+      <c r="F1856" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1856" t="str">
+        <v>./mid_thumbs/869/IMG_8149.jpg</v>
+      </c>
+      <c r="H1856" t="str">
+        <v>./small_thumbs/869/IMG_8149.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1852"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1856"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE594"/>
+  <dimension ref="A1:AE607"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18279,7 +18279,7 @@
         <v>地蔵</v>
       </c>
       <c r="C376" t="str">
-        <v>地蔵群</v>
+        <v>八島町地蔵群</v>
       </c>
       <c r="F376" t="str">
         <v>奈良県</v>
@@ -18297,7 +18297,7 @@
         <v>八島町道脇の地蔵群</v>
       </c>
       <c r="P376" t="str">
-        <v>2020-08-09</v>
+        <v>2023-08-19</v>
       </c>
       <c r="Q376" t="b">
         <v>1</v>
@@ -28649,16 +28649,600 @@
         <v>34.66338109818544</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595">
+        <v>870</v>
+      </c>
+      <c r="B595" t="str">
+        <v>三界万霊塔</v>
+      </c>
+      <c r="C595" t="str">
+        <v>鹿野園町三界万霊塔</v>
+      </c>
+      <c r="D595" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F595" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G595" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H595" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I595" t="str">
+        <v>鹿野園町</v>
+      </c>
+      <c r="P595" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q595" t="b">
+        <v>1</v>
+      </c>
+      <c r="R595">
+        <v>1863</v>
+      </c>
+      <c r="W595" t="str">
+        <v>自然石</v>
+      </c>
+      <c r="X595" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD595">
+        <v>135.84875751076288</v>
+      </c>
+      <c r="AE595">
+        <v>34.66348301141601</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596">
+        <v>871</v>
+      </c>
+      <c r="B596" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C596" t="str">
+        <v>鹿野園町地蔵石仏群</v>
+      </c>
+      <c r="D596" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F596" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G596" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H596" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I596" t="str">
+        <v>鹿野園町</v>
+      </c>
+      <c r="P596" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q596" t="b">
+        <v>1</v>
+      </c>
+      <c r="R596">
+        <v>1868</v>
+      </c>
+      <c r="X596" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD596">
+        <v>135.84880238411174</v>
+      </c>
+      <c r="AE596">
+        <v>34.66341710848399</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597">
+        <v>872</v>
+      </c>
+      <c r="B597" t="str">
+        <v>菩薩</v>
+      </c>
+      <c r="C597" t="str">
+        <v>仙軒大菩薩</v>
+      </c>
+      <c r="D597" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F597" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G597" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H597" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I597" t="str">
+        <v>古市町</v>
+      </c>
+      <c r="P597" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q597" t="b">
+        <v>1</v>
+      </c>
+      <c r="R597">
+        <v>1869</v>
+      </c>
+      <c r="AD597">
+        <v>135.84105882810323</v>
+      </c>
+      <c r="AE597">
+        <v>34.6576787857703</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598">
+        <v>873</v>
+      </c>
+      <c r="B598" t="str">
+        <v>明王</v>
+      </c>
+      <c r="C598" t="str">
+        <v>身ノ立山不動明王堂</v>
+      </c>
+      <c r="D598" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F598" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G598" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H598" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I598" t="str">
+        <v>鉢伏町</v>
+      </c>
+      <c r="P598" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q598" t="b">
+        <v>1</v>
+      </c>
+      <c r="R598">
+        <v>1873</v>
+      </c>
+      <c r="AD598">
+        <v>135.85086990292942</v>
+      </c>
+      <c r="AE598">
+        <v>34.65863574731557</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599">
+        <v>874</v>
+      </c>
+      <c r="B599" t="str">
+        <v>記念碑</v>
+      </c>
+      <c r="C599" t="str">
+        <v>平尾池之碑</v>
+      </c>
+      <c r="D599" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F599" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G599" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H599" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I599" t="str">
+        <v>古市町</v>
+      </c>
+      <c r="P599" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q599" t="b">
+        <v>1</v>
+      </c>
+      <c r="R599">
+        <v>1877</v>
+      </c>
+      <c r="X599" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD599">
+        <v>135.8459570527488</v>
+      </c>
+      <c r="AE599">
+        <v>34.65635433276211</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600">
+        <v>875</v>
+      </c>
+      <c r="B600" t="str">
+        <v>小神社</v>
+      </c>
+      <c r="C600" t="str">
+        <v>厳島神社</v>
+      </c>
+      <c r="D600" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F600" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G600" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H600" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I600" t="str">
+        <v>古市町</v>
+      </c>
+      <c r="O600" t="str">
+        <v>御前原石立命神社の境外社か</v>
+      </c>
+      <c r="P600" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q600" t="b">
+        <v>1</v>
+      </c>
+      <c r="R600">
+        <v>1880</v>
+      </c>
+      <c r="AD600">
+        <v>135.84591450573777</v>
+      </c>
+      <c r="AE600">
+        <v>34.65647026425878</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601">
+        <v>876</v>
+      </c>
+      <c r="B601" t="str">
+        <v>板碑</v>
+      </c>
+      <c r="C601" t="str">
+        <v>白山比咩神社脇板碑</v>
+      </c>
+      <c r="D601" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F601" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G601" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H601" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I601" t="str">
+        <v>藤原町</v>
+      </c>
+      <c r="P601" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q601" t="b">
+        <v>1</v>
+      </c>
+      <c r="R601">
+        <v>1883</v>
+      </c>
+      <c r="W601" t="str">
+        <v>板碑状</v>
+      </c>
+      <c r="X601" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD601">
+        <v>135.846549386918</v>
+      </c>
+      <c r="AE601">
+        <v>34.64972737512034</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602">
+        <v>877</v>
+      </c>
+      <c r="B602" t="str">
+        <v>菩薩</v>
+      </c>
+      <c r="C602" t="str">
+        <v>藤原観音堂</v>
+      </c>
+      <c r="D602" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F602" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G602" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H602" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I602" t="str">
+        <v>藤原町</v>
+      </c>
+      <c r="P602" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q602" t="b">
+        <v>1</v>
+      </c>
+      <c r="R602">
+        <v>1886</v>
+      </c>
+      <c r="AD602">
+        <v>135.84592713688164</v>
+      </c>
+      <c r="AE602">
+        <v>34.649738312935334</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603">
+        <v>878</v>
+      </c>
+      <c r="B603" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C603" t="str">
+        <v>藤原観音堂脇地蔵群</v>
+      </c>
+      <c r="D603" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F603" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G603" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H603" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I603" t="str">
+        <v>藤原町</v>
+      </c>
+      <c r="P603" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q603" t="b">
+        <v>1</v>
+      </c>
+      <c r="R603">
+        <v>1889</v>
+      </c>
+      <c r="X603" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD603">
+        <v>135.84588193068242</v>
+      </c>
+      <c r="AE603">
+        <v>34.649737219153906</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604">
+        <v>879</v>
+      </c>
+      <c r="B604" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C604" t="str">
+        <v>八島町双体地蔵</v>
+      </c>
+      <c r="D604" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F604" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G604" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H604" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I604" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="P604" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q604" t="b">
+        <v>1</v>
+      </c>
+      <c r="R604">
+        <v>1890</v>
+      </c>
+      <c r="W604" t="str">
+        <v>厚碑型</v>
+      </c>
+      <c r="X604" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD604">
+        <v>135.84321077614598</v>
+      </c>
+      <c r="AE604">
+        <v>34.64845748498936</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605">
+        <v>880</v>
+      </c>
+      <c r="B605" t="str">
+        <v>板碑</v>
+      </c>
+      <c r="C605" t="str">
+        <v>八島廃寺付近板碑</v>
+      </c>
+      <c r="D605" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F605" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G605" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H605" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I605" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="P605" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q605" t="b">
+        <v>1</v>
+      </c>
+      <c r="R605">
+        <v>1893</v>
+      </c>
+      <c r="W605" t="str">
+        <v>板碑</v>
+      </c>
+      <c r="X605" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD605">
+        <v>135.84121005188973</v>
+      </c>
+      <c r="AE605">
+        <v>34.64762595875445</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606">
+        <v>881</v>
+      </c>
+      <c r="B606" t="str">
+        <v>その他石造物</v>
+      </c>
+      <c r="C606" t="str">
+        <v>八ツ石</v>
+      </c>
+      <c r="D606" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F606" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G606" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H606" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I606" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="O606" t="str">
+        <v>早良親王の八ツ石を淡路から投げた伝説の石</v>
+      </c>
+      <c r="P606" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q606" t="b">
+        <v>1</v>
+      </c>
+      <c r="R606">
+        <v>1894</v>
+      </c>
+      <c r="W606" t="str">
+        <v>自然石数個</v>
+      </c>
+      <c r="X606" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD606">
+        <v>135.841574948104</v>
+      </c>
+      <c r="AE606">
+        <v>34.64709435315079</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607">
+        <v>882</v>
+      </c>
+      <c r="B607" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C607" t="str">
+        <v>八ツ石脇双体地蔵</v>
+      </c>
+      <c r="D607" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F607" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G607" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H607" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I607" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="P607" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q607" t="b">
+        <v>1</v>
+      </c>
+      <c r="R607">
+        <v>1896</v>
+      </c>
+      <c r="W607" t="str">
+        <v>圭頭状連接 双体浮彫</v>
+      </c>
+      <c r="X607" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD607">
+        <v>135.8415683136274</v>
+      </c>
+      <c r="AE607">
+        <v>34.64711836826184</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE594"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE607"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1856"/>
+  <dimension ref="A1:H1890"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -76919,9 +77503,893 @@
         <v>./small_thumbs/869/IMG_8149.jpg</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857">
+        <v>1863</v>
+      </c>
+      <c r="B1857">
+        <v>870</v>
+      </c>
+      <c r="C1857" t="str">
+        <v>鹿野園町三界万霊塔</v>
+      </c>
+      <c r="D1857" t="str">
+        <v>./images/870/IMG_8152.jpg</v>
+      </c>
+      <c r="E1857" t="str">
+        <v>2023-08-19T11:51:03</v>
+      </c>
+      <c r="F1857" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1857" t="str">
+        <v>./mid_thumbs/870/IMG_8152.jpg</v>
+      </c>
+      <c r="H1857" t="str">
+        <v>./small_thumbs/870/IMG_8152.jpg</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858">
+        <v>1864</v>
+      </c>
+      <c r="B1858">
+        <v>871</v>
+      </c>
+      <c r="C1858" t="str">
+        <v>鹿野園町地蔵石仏群 柱状地蔵</v>
+      </c>
+      <c r="D1858" t="str">
+        <v>./images/871/IMG_8144.jpg</v>
+      </c>
+      <c r="E1858" t="str">
+        <v>2023-08-19T11:49:20</v>
+      </c>
+      <c r="F1858" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1858" t="str">
+        <v>./mid_thumbs/871/IMG_8144.jpg</v>
+      </c>
+      <c r="H1858" t="str">
+        <v>./small_thumbs/871/IMG_8144.jpg</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859">
+        <v>1865</v>
+      </c>
+      <c r="B1859">
+        <v>871</v>
+      </c>
+      <c r="C1859" t="str">
+        <v>鹿野園町地蔵石仏群 地蔵堂南側</v>
+      </c>
+      <c r="D1859" t="str">
+        <v>./images/871/IMG_8145.jpg</v>
+      </c>
+      <c r="E1859" t="str">
+        <v>2023-08-19T11:49:28</v>
+      </c>
+      <c r="F1859" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1859" t="str">
+        <v>./mid_thumbs/871/IMG_8145.jpg</v>
+      </c>
+      <c r="H1859" t="str">
+        <v>./small_thumbs/871/IMG_8145.jpg</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860">
+        <v>1866</v>
+      </c>
+      <c r="B1860">
+        <v>871</v>
+      </c>
+      <c r="C1860" t="str">
+        <v>鹿野園町地蔵石仏群 舟形背面</v>
+      </c>
+      <c r="D1860" t="str">
+        <v>./images/871/IMG_8150.jpg</v>
+      </c>
+      <c r="E1860" t="str">
+        <v>2023-08-19T11:50:44</v>
+      </c>
+      <c r="F1860" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1860" t="str">
+        <v>./mid_thumbs/871/IMG_8150.jpg</v>
+      </c>
+      <c r="H1860" t="str">
+        <v>./small_thumbs/871/IMG_8150.jpg</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861">
+        <v>1867</v>
+      </c>
+      <c r="B1861">
+        <v>871</v>
+      </c>
+      <c r="C1861" t="str">
+        <v>鹿野園町地蔵石仏群 舟形背面</v>
+      </c>
+      <c r="D1861" t="str">
+        <v>./images/871/IMG_8151.jpg</v>
+      </c>
+      <c r="E1861" t="str">
+        <v>2023-08-19T11:50:48</v>
+      </c>
+      <c r="F1861" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1861" t="str">
+        <v>./mid_thumbs/871/IMG_8151.jpg</v>
+      </c>
+      <c r="H1861" t="str">
+        <v>./small_thumbs/871/IMG_8151.jpg</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862">
+        <v>1868</v>
+      </c>
+      <c r="B1862">
+        <v>871</v>
+      </c>
+      <c r="C1862" t="str">
+        <v>鹿野園町地蔵石仏群 全体像</v>
+      </c>
+      <c r="D1862" t="str">
+        <v>./images/871/IMG_8153.jpg</v>
+      </c>
+      <c r="E1862" t="str">
+        <v>2023-08-19T11:51:23</v>
+      </c>
+      <c r="F1862" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1862" t="str">
+        <v>./mid_thumbs/871/IMG_8153.jpg</v>
+      </c>
+      <c r="H1862" t="str">
+        <v>./small_thumbs/871/IMG_8153.jpg</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863">
+        <v>1869</v>
+      </c>
+      <c r="B1863">
+        <v>872</v>
+      </c>
+      <c r="C1863" t="str">
+        <v>仙軒大菩薩 建屋</v>
+      </c>
+      <c r="D1863" t="str">
+        <v>./images/872/IMG_8170.jpg</v>
+      </c>
+      <c r="E1863" t="str">
+        <v>2023-08-19T13:12:15</v>
+      </c>
+      <c r="F1863" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1863" t="str">
+        <v>./mid_thumbs/872/IMG_8170.jpg</v>
+      </c>
+      <c r="H1863" t="str">
+        <v>./small_thumbs/872/IMG_8170.jpg</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864">
+        <v>1870</v>
+      </c>
+      <c r="B1864">
+        <v>872</v>
+      </c>
+      <c r="C1864" t="str">
+        <v>仙軒大菩薩 扁額</v>
+      </c>
+      <c r="D1864" t="str">
+        <v>./images/872/IMG_8171.jpg</v>
+      </c>
+      <c r="E1864" t="str">
+        <v>2023-08-19T13:12:25</v>
+      </c>
+      <c r="F1864" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1864" t="str">
+        <v>./mid_thumbs/872/IMG_8171.jpg</v>
+      </c>
+      <c r="H1864" t="str">
+        <v>./small_thumbs/872/IMG_8171.jpg</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865">
+        <v>1871</v>
+      </c>
+      <c r="B1865">
+        <v>872</v>
+      </c>
+      <c r="C1865" t="str">
+        <v>仙軒大菩薩 厨子</v>
+      </c>
+      <c r="D1865" t="str">
+        <v>./images/872/IMG_8172.jpg</v>
+      </c>
+      <c r="E1865" t="str">
+        <v>2023-08-19T13:12:36</v>
+      </c>
+      <c r="F1865" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1865" t="str">
+        <v>./mid_thumbs/872/IMG_8172.jpg</v>
+      </c>
+      <c r="H1865" t="str">
+        <v>./small_thumbs/872/IMG_8172.jpg</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866">
+        <v>1872</v>
+      </c>
+      <c r="B1866">
+        <v>872</v>
+      </c>
+      <c r="C1866" t="str">
+        <v>仙軒大菩薩 脇侍</v>
+      </c>
+      <c r="D1866" t="str">
+        <v>./images/872/IMG_8173.jpg</v>
+      </c>
+      <c r="E1866" t="str">
+        <v>2023-08-19T13:12:47</v>
+      </c>
+      <c r="F1866" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1866" t="str">
+        <v>./mid_thumbs/872/IMG_8173.jpg</v>
+      </c>
+      <c r="H1866" t="str">
+        <v>./small_thumbs/872/IMG_8173.jpg</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867">
+        <v>1873</v>
+      </c>
+      <c r="B1867">
+        <v>873</v>
+      </c>
+      <c r="C1867" t="str">
+        <v>身ノ立山不動明王堂 お堂</v>
+      </c>
+      <c r="D1867" t="str">
+        <v>./images/873/IMG_8188.jpg</v>
+      </c>
+      <c r="E1867" t="str">
+        <v>2023-08-19T13:33:32</v>
+      </c>
+      <c r="F1867" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1867" t="str">
+        <v>./mid_thumbs/873/IMG_8188.jpg</v>
+      </c>
+      <c r="H1867" t="str">
+        <v>./small_thumbs/873/IMG_8188.jpg</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868">
+        <v>1874</v>
+      </c>
+      <c r="B1868">
+        <v>873</v>
+      </c>
+      <c r="C1868" t="str">
+        <v>身ノ立山不動明王堂 扁額</v>
+      </c>
+      <c r="D1868" t="str">
+        <v>./images/873/IMG_8189.jpg</v>
+      </c>
+      <c r="E1868" t="str">
+        <v>2023-08-19T13:33:37</v>
+      </c>
+      <c r="F1868" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1868" t="str">
+        <v>./mid_thumbs/873/IMG_8189.jpg</v>
+      </c>
+      <c r="H1868" t="str">
+        <v>./small_thumbs/873/IMG_8189.jpg</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869">
+        <v>1875</v>
+      </c>
+      <c r="B1869">
+        <v>873</v>
+      </c>
+      <c r="C1869" t="str">
+        <v>身ノ立山不動明王堂 堂内</v>
+      </c>
+      <c r="D1869" t="str">
+        <v>./images/873/IMG_8190.jpg</v>
+      </c>
+      <c r="E1869" t="str">
+        <v>2023-08-19T13:33:49</v>
+      </c>
+      <c r="F1869" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1869" t="str">
+        <v>./mid_thumbs/873/IMG_8190.jpg</v>
+      </c>
+      <c r="H1869" t="str">
+        <v>./small_thumbs/873/IMG_8190.jpg</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870">
+        <v>1876</v>
+      </c>
+      <c r="B1870">
+        <v>873</v>
+      </c>
+      <c r="C1870" t="str">
+        <v>身ノ立山不動明王堂 主尊</v>
+      </c>
+      <c r="D1870" t="str">
+        <v>./images/873/IMG_8191.jpg</v>
+      </c>
+      <c r="E1870" t="str">
+        <v>2023-08-19T13:34:17</v>
+      </c>
+      <c r="F1870" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1870" t="str">
+        <v>./mid_thumbs/873/IMG_8191.jpg</v>
+      </c>
+      <c r="H1870" t="str">
+        <v>./small_thumbs/873/IMG_8191.jpg</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871">
+        <v>1877</v>
+      </c>
+      <c r="B1871">
+        <v>874</v>
+      </c>
+      <c r="C1871" t="str">
+        <v>平尾池之碑</v>
+      </c>
+      <c r="D1871" t="str">
+        <v>./images/874/IMG_8195.jpg</v>
+      </c>
+      <c r="E1871" t="str">
+        <v>2023-08-19T13:50:07</v>
+      </c>
+      <c r="F1871" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1871" t="str">
+        <v>./mid_thumbs/874/IMG_8195.jpg</v>
+      </c>
+      <c r="H1871" t="str">
+        <v>./small_thumbs/874/IMG_8195.jpg</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872">
+        <v>1878</v>
+      </c>
+      <c r="B1872">
+        <v>874</v>
+      </c>
+      <c r="C1872" t="str">
+        <v>平尾池之碑 刻銘拡大</v>
+      </c>
+      <c r="D1872" t="str">
+        <v>./images/874/IMG_8196.jpg</v>
+      </c>
+      <c r="E1872" t="str">
+        <v>2023-08-19T13:50:16</v>
+      </c>
+      <c r="F1872" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1872" t="str">
+        <v>./mid_thumbs/874/IMG_8196.jpg</v>
+      </c>
+      <c r="H1872" t="str">
+        <v>./small_thumbs/874/IMG_8196.jpg</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873">
+        <v>1879</v>
+      </c>
+      <c r="B1873">
+        <v>874</v>
+      </c>
+      <c r="C1873" t="str">
+        <v>平尾池之碑 背面</v>
+      </c>
+      <c r="D1873" t="str">
+        <v>./images/874/IMG_8197.jpg</v>
+      </c>
+      <c r="E1873" t="str">
+        <v>2023-08-19T13:50:46</v>
+      </c>
+      <c r="F1873" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1873" t="str">
+        <v>./mid_thumbs/874/IMG_8197.jpg</v>
+      </c>
+      <c r="H1873" t="str">
+        <v>./small_thumbs/874/IMG_8197.jpg</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874">
+        <v>1880</v>
+      </c>
+      <c r="B1874">
+        <v>875</v>
+      </c>
+      <c r="C1874" t="str">
+        <v>厳島神社</v>
+      </c>
+      <c r="D1874" t="str">
+        <v>./images/875/IMG_8198.jpg</v>
+      </c>
+      <c r="E1874" t="str">
+        <v>2023-08-19T13:50:56</v>
+      </c>
+      <c r="F1874" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1874" t="str">
+        <v>./mid_thumbs/875/IMG_8198.jpg</v>
+      </c>
+      <c r="H1874" t="str">
+        <v>./small_thumbs/875/IMG_8198.jpg</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875">
+        <v>1881</v>
+      </c>
+      <c r="B1875">
+        <v>875</v>
+      </c>
+      <c r="C1875" t="str">
+        <v>厳島神社 拝殿内</v>
+      </c>
+      <c r="D1875" t="str">
+        <v>./images/875/IMG_8199.jpg</v>
+      </c>
+      <c r="E1875" t="str">
+        <v>2023-08-19T13:51:17</v>
+      </c>
+      <c r="F1875" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1875" t="str">
+        <v>./mid_thumbs/875/IMG_8199.jpg</v>
+      </c>
+      <c r="H1875" t="str">
+        <v>./small_thumbs/875/IMG_8199.jpg</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876">
+        <v>1882</v>
+      </c>
+      <c r="B1876">
+        <v>875</v>
+      </c>
+      <c r="C1876" t="str">
+        <v>厳島神社</v>
+      </c>
+      <c r="D1876" t="str">
+        <v>./images/875/IMG_8200.jpg</v>
+      </c>
+      <c r="E1876" t="str">
+        <v>2023-08-19T13:51:49</v>
+      </c>
+      <c r="F1876" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1876" t="str">
+        <v>./mid_thumbs/875/IMG_8200.jpg</v>
+      </c>
+      <c r="H1876" t="str">
+        <v>./small_thumbs/875/IMG_8200.jpg</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877">
+        <v>1883</v>
+      </c>
+      <c r="B1877">
+        <v>876</v>
+      </c>
+      <c r="C1877" t="str">
+        <v>白山比咩神社脇板碑</v>
+      </c>
+      <c r="D1877" t="str">
+        <v>./images/876/IMG_8205.jpg</v>
+      </c>
+      <c r="E1877" t="str">
+        <v>2023-08-19T14:00:17</v>
+      </c>
+      <c r="F1877" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1877" t="str">
+        <v>./mid_thumbs/876/IMG_8205.jpg</v>
+      </c>
+      <c r="H1877" t="str">
+        <v>./small_thumbs/876/IMG_8205.jpg</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878">
+        <v>1884</v>
+      </c>
+      <c r="B1878">
+        <v>877</v>
+      </c>
+      <c r="C1878" t="str">
+        <v>藤原観音堂 背面から</v>
+      </c>
+      <c r="D1878" t="str">
+        <v>./images/877/IMG_8207.jpg</v>
+      </c>
+      <c r="E1878" t="str">
+        <v>2023-08-19T14:01:27</v>
+      </c>
+      <c r="F1878" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1878" t="str">
+        <v>./mid_thumbs/877/IMG_8207.jpg</v>
+      </c>
+      <c r="H1878" t="str">
+        <v>./small_thumbs/877/IMG_8207.jpg</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879">
+        <v>1885</v>
+      </c>
+      <c r="B1879">
+        <v>877</v>
+      </c>
+      <c r="C1879" t="str">
+        <v>藤原観音堂 説明文</v>
+      </c>
+      <c r="D1879" t="str">
+        <v>./images/877/IMG_8208.jpg</v>
+      </c>
+      <c r="E1879" t="str">
+        <v>2023-08-19T14:01:40</v>
+      </c>
+      <c r="F1879" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1879" t="str">
+        <v>./mid_thumbs/877/IMG_8208.jpg</v>
+      </c>
+      <c r="H1879" t="str">
+        <v>./small_thumbs/877/IMG_8208.jpg</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880">
+        <v>1886</v>
+      </c>
+      <c r="B1880">
+        <v>877</v>
+      </c>
+      <c r="C1880" t="str">
+        <v>藤原観音堂</v>
+      </c>
+      <c r="D1880" t="str">
+        <v>./images/877/IMG_8209.jpg</v>
+      </c>
+      <c r="E1880" t="str">
+        <v>2023-08-19T14:01:49</v>
+      </c>
+      <c r="F1880" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1880" t="str">
+        <v>./mid_thumbs/877/IMG_8209.jpg</v>
+      </c>
+      <c r="H1880" t="str">
+        <v>./small_thumbs/877/IMG_8209.jpg</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881">
+        <v>1887</v>
+      </c>
+      <c r="B1881">
+        <v>877</v>
+      </c>
+      <c r="C1881" t="str">
+        <v>藤原観音堂 堂内</v>
+      </c>
+      <c r="D1881" t="str">
+        <v>./images/877/IMG_8210.jpg</v>
+      </c>
+      <c r="E1881" t="str">
+        <v>2023-08-19T14:01:59</v>
+      </c>
+      <c r="F1881" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1881" t="str">
+        <v>./mid_thumbs/877/IMG_8210.jpg</v>
+      </c>
+      <c r="H1881" t="str">
+        <v>./small_thumbs/877/IMG_8210.jpg</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882">
+        <v>1888</v>
+      </c>
+      <c r="B1882">
+        <v>877</v>
+      </c>
+      <c r="C1882" t="str">
+        <v>藤原観音堂 主尊</v>
+      </c>
+      <c r="D1882" t="str">
+        <v>./images/877/IMG_8211.jpg</v>
+      </c>
+      <c r="E1882" t="str">
+        <v>2023-08-19T14:02:15</v>
+      </c>
+      <c r="F1882" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1882" t="str">
+        <v>./mid_thumbs/877/IMG_8211.jpg</v>
+      </c>
+      <c r="H1882" t="str">
+        <v>./small_thumbs/877/IMG_8211.jpg</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883">
+        <v>1889</v>
+      </c>
+      <c r="B1883">
+        <v>878</v>
+      </c>
+      <c r="C1883" t="str">
+        <v>藤原観音堂脇地蔵群</v>
+      </c>
+      <c r="D1883" t="str">
+        <v>./images/878/IMG_8212.jpg</v>
+      </c>
+      <c r="E1883" t="str">
+        <v>2023-08-19T14:02:34</v>
+      </c>
+      <c r="F1883" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1883" t="str">
+        <v>./mid_thumbs/878/IMG_8212.jpg</v>
+      </c>
+      <c r="H1883" t="str">
+        <v>./small_thumbs/878/IMG_8212.jpg</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884">
+        <v>1890</v>
+      </c>
+      <c r="B1884">
+        <v>879</v>
+      </c>
+      <c r="C1884" t="str">
+        <v>八島町双体地蔵</v>
+      </c>
+      <c r="D1884" t="str">
+        <v>./images/879/IMG_0252.jpg</v>
+      </c>
+      <c r="E1884" t="str">
+        <v>2023-08-19T14:11:29</v>
+      </c>
+      <c r="F1884" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1884" t="str">
+        <v>./mid_thumbs/879/IMG_0252.jpg</v>
+      </c>
+      <c r="H1884" t="str">
+        <v>./small_thumbs/879/IMG_0252.jpg</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885">
+        <v>1891</v>
+      </c>
+      <c r="B1885">
+        <v>649</v>
+      </c>
+      <c r="C1885" t="str">
+        <v>八島町地蔵群</v>
+      </c>
+      <c r="D1885" t="str">
+        <v>./images/649/IMG_0254.jpg</v>
+      </c>
+      <c r="E1885" t="str">
+        <v>2023-08-19T14:14:19</v>
+      </c>
+      <c r="F1885" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1885" t="str">
+        <v>./mid_thumbs/649/IMG_0254.jpg</v>
+      </c>
+      <c r="H1885" t="str">
+        <v>./small_thumbs/649/IMG_0254.jpg</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886">
+        <v>1892</v>
+      </c>
+      <c r="B1886">
+        <v>649</v>
+      </c>
+      <c r="C1886" t="str">
+        <v>八島町地蔵群</v>
+      </c>
+      <c r="D1886" t="str">
+        <v>./images/649/IMG_0255.jpg</v>
+      </c>
+      <c r="E1886" t="str">
+        <v>2023-08-19T14:14:26</v>
+      </c>
+      <c r="F1886" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1886" t="str">
+        <v>./mid_thumbs/649/IMG_0255.jpg</v>
+      </c>
+      <c r="H1886" t="str">
+        <v>./small_thumbs/649/IMG_0255.jpg</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887">
+        <v>1893</v>
+      </c>
+      <c r="B1887">
+        <v>880</v>
+      </c>
+      <c r="C1887" t="str">
+        <v>八島廃寺付近板碑</v>
+      </c>
+      <c r="D1887" t="str">
+        <v>./images/880/IMG_0256.jpg</v>
+      </c>
+      <c r="E1887" t="str">
+        <v>2023-08-19T14:16:14</v>
+      </c>
+      <c r="F1887" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1887" t="str">
+        <v>./mid_thumbs/880/IMG_0256.jpg</v>
+      </c>
+      <c r="H1887" t="str">
+        <v>./small_thumbs/880/IMG_0256.jpg</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888">
+        <v>1894</v>
+      </c>
+      <c r="B1888">
+        <v>881</v>
+      </c>
+      <c r="C1888" t="str">
+        <v>八ツ石</v>
+      </c>
+      <c r="D1888" t="str">
+        <v>./images/881/IMG_0262.jpg</v>
+      </c>
+      <c r="E1888" t="str">
+        <v>2023-08-19T14:23:00</v>
+      </c>
+      <c r="F1888" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1888" t="str">
+        <v>./mid_thumbs/881/IMG_0262.jpg</v>
+      </c>
+      <c r="H1888" t="str">
+        <v>./small_thumbs/881/IMG_0262.jpg</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889">
+        <v>1895</v>
+      </c>
+      <c r="B1889">
+        <v>881</v>
+      </c>
+      <c r="C1889" t="str">
+        <v>八ツ石</v>
+      </c>
+      <c r="D1889" t="str">
+        <v>./images/881/IMG_0264.jpg</v>
+      </c>
+      <c r="E1889" t="str">
+        <v>2023-08-19T14:23:26</v>
+      </c>
+      <c r="F1889" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1889" t="str">
+        <v>./mid_thumbs/881/IMG_0264.jpg</v>
+      </c>
+      <c r="H1889" t="str">
+        <v>./small_thumbs/881/IMG_0264.jpg</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890">
+        <v>1896</v>
+      </c>
+      <c r="B1890">
+        <v>882</v>
+      </c>
+      <c r="C1890" t="str">
+        <v>八ツ石脇双体地蔵</v>
+      </c>
+      <c r="D1890" t="str">
+        <v>./images/882/IMG_0263.jpg</v>
+      </c>
+      <c r="E1890" t="str">
+        <v>2023-08-19T14:23:12</v>
+      </c>
+      <c r="F1890" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1890" t="str">
+        <v>./mid_thumbs/882/IMG_0263.jpg</v>
+      </c>
+      <c r="H1890" t="str">
+        <v>./small_thumbs/882/IMG_0263.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1856"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1890"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE607"/>
+  <dimension ref="A1:AE609"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -16848,7 +16848,7 @@
         <v>地蔵</v>
       </c>
       <c r="C346" t="str">
-        <v>地蔵群</v>
+        <v>地蔵など石造物群</v>
       </c>
       <c r="F346" t="str">
         <v>奈良県</v>
@@ -16863,10 +16863,10 @@
         <v>八島町</v>
       </c>
       <c r="O346" t="str">
-        <v>八島町 大通り脇の地蔵群</v>
+        <v>八島町 大通り脇の石造物群 詳細な種類分けは要検討</v>
       </c>
       <c r="P346" t="str">
-        <v>2020-08-09</v>
+        <v>2023-08-19</v>
       </c>
       <c r="Q346" t="b">
         <v>1</v>
@@ -29233,16 +29233,113 @@
         <v>34.64711836826184</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608">
+        <v>883</v>
+      </c>
+      <c r="B608" t="str">
+        <v>記念碑</v>
+      </c>
+      <c r="C608" t="str">
+        <v>戦役記念碑</v>
+      </c>
+      <c r="D608" t="str">
+        <v>大正4年</v>
+      </c>
+      <c r="E608" t="str">
+        <v>1915</v>
+      </c>
+      <c r="F608" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G608" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H608" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I608" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="P608" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q608" t="b">
+        <v>1</v>
+      </c>
+      <c r="R608">
+        <v>1897</v>
+      </c>
+      <c r="W608" t="str">
+        <v>碑型</v>
+      </c>
+      <c r="X608" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD608">
+        <v>135.84060366072632</v>
+      </c>
+      <c r="AE608">
+        <v>34.6471396543772</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609">
+        <v>884</v>
+      </c>
+      <c r="B609" t="str">
+        <v>灯籠</v>
+      </c>
+      <c r="C609" t="str">
+        <v>崇道天王社常夜燈</v>
+      </c>
+      <c r="D609" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F609" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G609" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H609" t="str">
+        <v>東市</v>
+      </c>
+      <c r="I609" t="str">
+        <v>八島町</v>
+      </c>
+      <c r="P609" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q609" t="b">
+        <v>1</v>
+      </c>
+      <c r="R609">
+        <v>1899</v>
+      </c>
+      <c r="W609" t="str">
+        <v>灯籠</v>
+      </c>
+      <c r="X609" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD609">
+        <v>135.84057579592448</v>
+      </c>
+      <c r="AE609">
+        <v>34.64711345608061</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE607"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE609"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1890"/>
+  <dimension ref="A1:H1900"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -78387,9 +78484,269 @@
         <v>./small_thumbs/882/IMG_0263.jpg</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891">
+        <v>1897</v>
+      </c>
+      <c r="B1891">
+        <v>883</v>
+      </c>
+      <c r="C1891" t="str">
+        <v>戦役記念碑</v>
+      </c>
+      <c r="D1891" t="str">
+        <v>./images/883/IMG_0265.jpg</v>
+      </c>
+      <c r="E1891" t="str">
+        <v>2023-08-19T14:24:15</v>
+      </c>
+      <c r="F1891" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1891" t="str">
+        <v>./mid_thumbs/883/IMG_0265.jpg</v>
+      </c>
+      <c r="H1891" t="str">
+        <v>./small_thumbs/883/IMG_0265.jpg</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892">
+        <v>1898</v>
+      </c>
+      <c r="B1892">
+        <v>883</v>
+      </c>
+      <c r="C1892" t="str">
+        <v>戦役記念碑</v>
+      </c>
+      <c r="D1892" t="str">
+        <v>./images/883/IMG_0266.jpg</v>
+      </c>
+      <c r="E1892" t="str">
+        <v>2023-08-19T14:24:19</v>
+      </c>
+      <c r="F1892" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1892" t="str">
+        <v>./mid_thumbs/883/IMG_0266.jpg</v>
+      </c>
+      <c r="H1892" t="str">
+        <v>./small_thumbs/883/IMG_0266.jpg</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893">
+        <v>1899</v>
+      </c>
+      <c r="B1893">
+        <v>884</v>
+      </c>
+      <c r="C1893" t="str">
+        <v>崇道天王社常夜燈</v>
+      </c>
+      <c r="D1893" t="str">
+        <v>./images/884/IMG_0267.jpg</v>
+      </c>
+      <c r="E1893" t="str">
+        <v>2023-08-19T14:24:23</v>
+      </c>
+      <c r="F1893" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1893" t="str">
+        <v>./mid_thumbs/884/IMG_0267.jpg</v>
+      </c>
+      <c r="H1893" t="str">
+        <v>./small_thumbs/884/IMG_0267.jpg</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894">
+        <v>1900</v>
+      </c>
+      <c r="B1894">
+        <v>619</v>
+      </c>
+      <c r="C1894" t="str">
+        <v>地蔵など石造物群</v>
+      </c>
+      <c r="D1894" t="str">
+        <v>./images/619/IMG_0268.jpg</v>
+      </c>
+      <c r="E1894" t="str">
+        <v>2023-08-19T14:26:05</v>
+      </c>
+      <c r="F1894" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1894" t="str">
+        <v>./mid_thumbs/619/IMG_0268.jpg</v>
+      </c>
+      <c r="H1894" t="str">
+        <v>./small_thumbs/619/IMG_0268.jpg</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895">
+        <v>1901</v>
+      </c>
+      <c r="B1895">
+        <v>619</v>
+      </c>
+      <c r="C1895" t="str">
+        <v>地蔵など石造物群 天照皇太神</v>
+      </c>
+      <c r="D1895" t="str">
+        <v>./images/619/IMG_0269.jpg</v>
+      </c>
+      <c r="E1895" t="str">
+        <v>2023-08-19T14:26:48</v>
+      </c>
+      <c r="F1895" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1895" t="str">
+        <v>./mid_thumbs/619/IMG_0269.jpg</v>
+      </c>
+      <c r="H1895" t="str">
+        <v>./small_thumbs/619/IMG_0269.jpg</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896">
+        <v>1902</v>
+      </c>
+      <c r="B1896">
+        <v>619</v>
+      </c>
+      <c r="C1896" t="str">
+        <v>地蔵など石造物群 不明</v>
+      </c>
+      <c r="D1896" t="str">
+        <v>./images/619/IMG_0270.jpg</v>
+      </c>
+      <c r="E1896" t="str">
+        <v>2023-08-19T14:26:52</v>
+      </c>
+      <c r="F1896" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1896" t="str">
+        <v>./mid_thumbs/619/IMG_0270.jpg</v>
+      </c>
+      <c r="H1896" t="str">
+        <v>./small_thumbs/619/IMG_0270.jpg</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897">
+        <v>1903</v>
+      </c>
+      <c r="B1897">
+        <v>619</v>
+      </c>
+      <c r="C1897" t="str">
+        <v>地蔵など石造物群 西国三十三ヶ所</v>
+      </c>
+      <c r="D1897" t="str">
+        <v>./images/619/IMG_0271.jpg</v>
+      </c>
+      <c r="E1897" t="str">
+        <v>2023-08-19T14:26:58</v>
+      </c>
+      <c r="F1897" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1897" t="str">
+        <v>./mid_thumbs/619/IMG_0271.jpg</v>
+      </c>
+      <c r="H1897" t="str">
+        <v>./small_thumbs/619/IMG_0271.jpg</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898">
+        <v>1904</v>
+      </c>
+      <c r="B1898">
+        <v>619</v>
+      </c>
+      <c r="C1898" t="str">
+        <v>地蔵など石造物群 不明</v>
+      </c>
+      <c r="D1898" t="str">
+        <v>./images/619/IMG_0272.jpg</v>
+      </c>
+      <c r="E1898" t="str">
+        <v>2023-08-19T14:27:01</v>
+      </c>
+      <c r="F1898" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1898" t="str">
+        <v>./mid_thumbs/619/IMG_0272.jpg</v>
+      </c>
+      <c r="H1898" t="str">
+        <v>./small_thumbs/619/IMG_0272.jpg</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899">
+        <v>1905</v>
+      </c>
+      <c r="B1899">
+        <v>619</v>
+      </c>
+      <c r="C1899" t="str">
+        <v>地蔵など石造物群 地蔵</v>
+      </c>
+      <c r="D1899" t="str">
+        <v>./images/619/IMG_0273.jpg</v>
+      </c>
+      <c r="E1899" t="str">
+        <v>2023-08-19T14:27:04</v>
+      </c>
+      <c r="F1899" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1899" t="str">
+        <v>./mid_thumbs/619/IMG_0273.jpg</v>
+      </c>
+      <c r="H1899" t="str">
+        <v>./small_thumbs/619/IMG_0273.jpg</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900">
+        <v>1906</v>
+      </c>
+      <c r="B1900">
+        <v>619</v>
+      </c>
+      <c r="C1900" t="str">
+        <v>地蔵など石造物群 不明</v>
+      </c>
+      <c r="D1900" t="str">
+        <v>./images/619/IMG_0274.jpg</v>
+      </c>
+      <c r="E1900" t="str">
+        <v>2023-08-19T14:27:07</v>
+      </c>
+      <c r="F1900" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1900" t="str">
+        <v>./mid_thumbs/619/IMG_0274.jpg</v>
+      </c>
+      <c r="H1900" t="str">
+        <v>./small_thumbs/619/IMG_0274.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1890"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1900"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE609"/>
+  <dimension ref="A1:AE622"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2753,7 +2753,7 @@
         <v>山陵町</v>
       </c>
       <c r="P49" t="str">
-        <v>2018-07-21</v>
+        <v>2023-08-31</v>
       </c>
       <c r="Q49" t="b">
         <v>1</v>
@@ -2762,7 +2762,10 @@
         <v>145</v>
       </c>
       <c r="W49" t="str">
-        <v/>
+        <v>圭頭浮彫地蔵あり</v>
+      </c>
+      <c r="X49" t="str">
+        <v>石造</v>
       </c>
       <c r="AC49" t="str">
         <v/>
@@ -22872,7 +22875,7 @@
         <v>地蔵</v>
       </c>
       <c r="C472" t="str">
-        <v>地蔵尊</v>
+        <v>山町地蔵尊</v>
       </c>
       <c r="F472" t="str">
         <v>奈良県</v>
@@ -22889,14 +22892,23 @@
       <c r="O472" t="str">
         <v>山町 地蔵尊</v>
       </c>
+      <c r="P472" t="str">
+        <v>2023-08-19</v>
+      </c>
       <c r="Q472" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R472">
+        <v>1943</v>
       </c>
       <c r="W472" t="str">
-        <v/>
+        <v>舟形背面 浮彫</v>
+      </c>
+      <c r="X472" t="str">
+        <v>石造</v>
       </c>
       <c r="AB472" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
       </c>
       <c r="AC472" t="str">
         <v/>
@@ -23936,7 +23948,7 @@
         <v>歌姫町 地蔵群</v>
       </c>
       <c r="P494" t="str">
-        <v>2017-05-02</v>
+        <v>2023-08-30</v>
       </c>
       <c r="Q494" t="b">
         <v>1</v>
@@ -29330,16 +29342,606 @@
         <v>34.64711345608061</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610">
+        <v>885</v>
+      </c>
+      <c r="B610" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C610" t="str">
+        <v>佐紀町笠有り地蔵尊</v>
+      </c>
+      <c r="D610" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F610" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G610" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H610" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I610" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="P610" t="str">
+        <v>2023-08-31</v>
+      </c>
+      <c r="Q610" t="b">
+        <v>1</v>
+      </c>
+      <c r="R610">
+        <v>1908</v>
+      </c>
+      <c r="W610" t="str">
+        <v>浮彫 笠有り</v>
+      </c>
+      <c r="X610" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD610">
+        <v>135.80404739520787</v>
+      </c>
+      <c r="AE610">
+        <v>34.704178778318074</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611">
+        <v>886</v>
+      </c>
+      <c r="B611" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C611" t="str">
+        <v>佐紀町新墓墓地六地蔵</v>
+      </c>
+      <c r="D611" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F611" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G611" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H611" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I611" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="P611" t="str">
+        <v>2023-08-30</v>
+      </c>
+      <c r="Q611" t="b">
+        <v>1</v>
+      </c>
+      <c r="R611">
+        <v>1910</v>
+      </c>
+      <c r="W611" t="str">
+        <v>舟形背面浮彫 6体</v>
+      </c>
+      <c r="X611" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD611">
+        <v>135.79162444397667</v>
+      </c>
+      <c r="AE611">
+        <v>34.701824413634284</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612">
+        <v>887</v>
+      </c>
+      <c r="B612" t="str">
+        <v>菩薩</v>
+      </c>
+      <c r="C612" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔</v>
+      </c>
+      <c r="D612" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F612" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G612" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H612" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I612" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="P612" t="str">
+        <v>2023-08-30</v>
+      </c>
+      <c r="Q612" t="b">
+        <v>1</v>
+      </c>
+      <c r="R612">
+        <v>1917</v>
+      </c>
+      <c r="W612" t="str">
+        <v>主尊 丸彫り</v>
+      </c>
+      <c r="X612" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD612">
+        <v>135.7915848952555</v>
+      </c>
+      <c r="AE612">
+        <v>34.701826326224165</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613">
+        <v>888</v>
+      </c>
+      <c r="B613" t="str">
+        <v>標石</v>
+      </c>
+      <c r="C613" t="str">
+        <v>皇祖遥拝所</v>
+      </c>
+      <c r="D613" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F613" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G613" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H613" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I613" t="str">
+        <v>山町</v>
+      </c>
+      <c r="O613" t="str">
+        <v>御霊神社内</v>
+      </c>
+      <c r="P613" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q613" t="b">
+        <v>1</v>
+      </c>
+      <c r="R613">
+        <v>1926</v>
+      </c>
+      <c r="W613" t="str">
+        <v>柱型</v>
+      </c>
+      <c r="X613" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD613">
+        <v>135.84024610703534</v>
+      </c>
+      <c r="AE613">
+        <v>34.64270619831587</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614">
+        <v>889</v>
+      </c>
+      <c r="B614" t="str">
+        <v>記念碑</v>
+      </c>
+      <c r="C614" t="str">
+        <v>記念碑</v>
+      </c>
+      <c r="D614" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F614" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G614" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H614" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I614" t="str">
+        <v>山町</v>
+      </c>
+      <c r="O614" t="str">
+        <v>御霊神社内</v>
+      </c>
+      <c r="P614" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q614" t="b">
+        <v>1</v>
+      </c>
+      <c r="R614">
+        <v>1927</v>
+      </c>
+      <c r="W614" t="str">
+        <v>自然石</v>
+      </c>
+      <c r="X614" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD614">
+        <v>135.8402507598261</v>
+      </c>
+      <c r="AE614">
+        <v>34.642863142514315</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615">
+        <v>890</v>
+      </c>
+      <c r="B615" t="str">
+        <v>小神社</v>
+      </c>
+      <c r="C615" t="str">
+        <v>天武神社</v>
+      </c>
+      <c r="D615" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F615" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G615" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H615" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I615" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P615" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q615" t="b">
+        <v>1</v>
+      </c>
+      <c r="R615">
+        <v>1928</v>
+      </c>
+      <c r="AD615">
+        <v>135.84264229425784</v>
+      </c>
+      <c r="AE615">
+        <v>34.642759789051176</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616">
+        <v>891</v>
+      </c>
+      <c r="B616" t="str">
+        <v>その他石造物</v>
+      </c>
+      <c r="C616" t="str">
+        <v>天大源</v>
+      </c>
+      <c r="D616" t="str">
+        <v>大正10年</v>
+      </c>
+      <c r="E616" t="str">
+        <v>1921</v>
+      </c>
+      <c r="F616" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G616" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H616" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I616" t="str">
+        <v>山町</v>
+      </c>
+      <c r="O616" t="str">
+        <v>天武神社内</v>
+      </c>
+      <c r="P616" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q616" t="b">
+        <v>1</v>
+      </c>
+      <c r="R616">
+        <v>1933</v>
+      </c>
+      <c r="AD616">
+        <v>135.84269347495578</v>
+      </c>
+      <c r="AE616">
+        <v>34.64277892859112</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617">
+        <v>892</v>
+      </c>
+      <c r="B617" t="str">
+        <v>小神社</v>
+      </c>
+      <c r="C617" t="str">
+        <v>岡山稲荷大明神</v>
+      </c>
+      <c r="D617" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F617" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G617" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H617" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I617" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P617" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q617" t="b">
+        <v>1</v>
+      </c>
+      <c r="R617">
+        <v>1935</v>
+      </c>
+      <c r="AD617">
+        <v>135.84429868775533</v>
+      </c>
+      <c r="AE617">
+        <v>34.64291290524692</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618">
+        <v>893</v>
+      </c>
+      <c r="B618" t="str">
+        <v>小神社</v>
+      </c>
+      <c r="C618" t="str">
+        <v>大川池塚古墳</v>
+      </c>
+      <c r="D618" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F618" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G618" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H618" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I618" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P618" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q618" t="b">
+        <v>1</v>
+      </c>
+      <c r="R618">
+        <v>1942</v>
+      </c>
+      <c r="AD618">
+        <v>135.84487563380503</v>
+      </c>
+      <c r="AE618">
+        <v>34.641879365438996</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619">
+        <v>894</v>
+      </c>
+      <c r="B619" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C619" t="str">
+        <v>山町地蔵堂</v>
+      </c>
+      <c r="D619" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F619" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G619" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H619" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I619" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P619" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q619" t="b">
+        <v>1</v>
+      </c>
+      <c r="R619">
+        <v>1946</v>
+      </c>
+      <c r="AD619">
+        <v>135.84006348499943</v>
+      </c>
+      <c r="AE619">
+        <v>34.64065824069504</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620">
+        <v>895</v>
+      </c>
+      <c r="B620" t="str">
+        <v>顕彰碑</v>
+      </c>
+      <c r="C620" t="str">
+        <v>中澤忠七翁壽碑</v>
+      </c>
+      <c r="D620" t="str">
+        <v>昭和4年</v>
+      </c>
+      <c r="E620" t="str">
+        <v>1929</v>
+      </c>
+      <c r="F620" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G620" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H620" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I620" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P620" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q620" t="b">
+        <v>1</v>
+      </c>
+      <c r="R620">
+        <v>1948</v>
+      </c>
+      <c r="W620" t="str">
+        <v>碑型</v>
+      </c>
+      <c r="X620" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD620">
+        <v>135.8401146656974</v>
+      </c>
+      <c r="AE620">
+        <v>34.64064675667794</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621">
+        <v>896</v>
+      </c>
+      <c r="B621" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C621" t="str">
+        <v>山村館跡西地蔵堂</v>
+      </c>
+      <c r="D621" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F621" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G621" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H621" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I621" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P621" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q621" t="b">
+        <v>1</v>
+      </c>
+      <c r="R621">
+        <v>1950</v>
+      </c>
+      <c r="AD621">
+        <v>135.83587946294148</v>
+      </c>
+      <c r="AE621">
+        <v>34.641530064350704</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622">
+        <v>897</v>
+      </c>
+      <c r="B622" t="str">
+        <v>道標</v>
+      </c>
+      <c r="C622" t="str">
+        <v>菩提山道</v>
+      </c>
+      <c r="D622" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F622" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G622" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H622" t="str">
+        <v>帯解</v>
+      </c>
+      <c r="I622" t="str">
+        <v>山町</v>
+      </c>
+      <c r="P622" t="str">
+        <v>2023-08-19</v>
+      </c>
+      <c r="Q622" t="b">
+        <v>1</v>
+      </c>
+      <c r="R622">
+        <v>1953</v>
+      </c>
+      <c r="W622" t="str">
+        <v>自然石</v>
+      </c>
+      <c r="X622" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD622">
+        <v>135.83831287248978</v>
+      </c>
+      <c r="AE622">
+        <v>34.64264016682654</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE609"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE622"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1900"/>
+  <dimension ref="A1:H1947"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -78744,9 +79346,1231 @@
         <v>./small_thumbs/619/IMG_0274.jpg</v>
       </c>
     </row>
+    <row r="1901">
+      <c r="A1901">
+        <v>1907</v>
+      </c>
+      <c r="B1901">
+        <v>48</v>
+      </c>
+      <c r="C1901" t="str">
+        <v>地蔵堂</v>
+      </c>
+      <c r="D1901" t="str">
+        <v>./images/48/15045.jpg</v>
+      </c>
+      <c r="E1901" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1901" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1901" t="str">
+        <v>./mid_thumbs/48/15045.jpg</v>
+      </c>
+      <c r="H1901" t="str">
+        <v>./small_thumbs/48/15045.jpg</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902">
+        <v>1908</v>
+      </c>
+      <c r="B1902">
+        <v>885</v>
+      </c>
+      <c r="C1902" t="str">
+        <v>佐紀町笠有り地蔵尊</v>
+      </c>
+      <c r="D1902" t="str">
+        <v>./images/885/15000.jpg</v>
+      </c>
+      <c r="E1902" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1902" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1902" t="str">
+        <v>./mid_thumbs/885/15000.jpg</v>
+      </c>
+      <c r="H1902" t="str">
+        <v>./small_thumbs/885/15000.jpg</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903">
+        <v>1909</v>
+      </c>
+      <c r="B1903">
+        <v>885</v>
+      </c>
+      <c r="C1903" t="str">
+        <v>佐紀町笠有り地蔵尊</v>
+      </c>
+      <c r="D1903" t="str">
+        <v>./images/885/15067.jpg</v>
+      </c>
+      <c r="E1903" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1903" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1903" t="str">
+        <v>./mid_thumbs/885/15067.jpg</v>
+      </c>
+      <c r="H1903" t="str">
+        <v>./small_thumbs/885/15067.jpg</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904">
+        <v>1910</v>
+      </c>
+      <c r="B1904">
+        <v>886</v>
+      </c>
+      <c r="C1904" t="str">
+        <v>佐紀町新墓墓地六地蔵</v>
+      </c>
+      <c r="D1904" t="str">
+        <v>./images/886/14867.jpg</v>
+      </c>
+      <c r="E1904" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1904" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1904" t="str">
+        <v>./mid_thumbs/886/14867.jpg</v>
+      </c>
+      <c r="H1904" t="str">
+        <v>./small_thumbs/886/14867.jpg</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905">
+        <v>1911</v>
+      </c>
+      <c r="B1905">
+        <v>886</v>
+      </c>
+      <c r="C1905" t="str">
+        <v>佐紀町新墓墓地六地蔵 一番左</v>
+      </c>
+      <c r="D1905" t="str">
+        <v>./images/886/14868.jpg</v>
+      </c>
+      <c r="E1905" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1905" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1905" t="str">
+        <v>./mid_thumbs/886/14868.jpg</v>
+      </c>
+      <c r="H1905" t="str">
+        <v>./small_thumbs/886/14868.jpg</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906">
+        <v>1912</v>
+      </c>
+      <c r="B1906">
+        <v>886</v>
+      </c>
+      <c r="C1906" t="str">
+        <v>佐紀町新墓墓地六地蔵 左から2番目</v>
+      </c>
+      <c r="D1906" t="str">
+        <v>./images/886/14869.jpg</v>
+      </c>
+      <c r="E1906" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1906" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1906" t="str">
+        <v>./mid_thumbs/886/14869.jpg</v>
+      </c>
+      <c r="H1906" t="str">
+        <v>./small_thumbs/886/14869.jpg</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907">
+        <v>1913</v>
+      </c>
+      <c r="B1907">
+        <v>886</v>
+      </c>
+      <c r="C1907" t="str">
+        <v>佐紀町新墓墓地六地蔵 左から3番目</v>
+      </c>
+      <c r="D1907" t="str">
+        <v>./images/886/14870.jpg</v>
+      </c>
+      <c r="E1907" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1907" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1907" t="str">
+        <v>./mid_thumbs/886/14870.jpg</v>
+      </c>
+      <c r="H1907" t="str">
+        <v>./small_thumbs/886/14870.jpg</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908">
+        <v>1914</v>
+      </c>
+      <c r="B1908">
+        <v>886</v>
+      </c>
+      <c r="C1908" t="str">
+        <v>佐紀町新墓墓地六地蔵 右から3番目</v>
+      </c>
+      <c r="D1908" t="str">
+        <v>./images/886/14871.jpg</v>
+      </c>
+      <c r="E1908" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1908" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1908" t="str">
+        <v>./mid_thumbs/886/14871.jpg</v>
+      </c>
+      <c r="H1908" t="str">
+        <v>./small_thumbs/886/14871.jpg</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909">
+        <v>1915</v>
+      </c>
+      <c r="B1909">
+        <v>886</v>
+      </c>
+      <c r="C1909" t="str">
+        <v>佐紀町新墓墓地六地蔵 右から2番目</v>
+      </c>
+      <c r="D1909" t="str">
+        <v>./images/886/14872.jpg</v>
+      </c>
+      <c r="E1909" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1909" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1909" t="str">
+        <v>./mid_thumbs/886/14872.jpg</v>
+      </c>
+      <c r="H1909" t="str">
+        <v>./small_thumbs/886/14872.jpg</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910">
+        <v>1916</v>
+      </c>
+      <c r="B1910">
+        <v>886</v>
+      </c>
+      <c r="C1910" t="str">
+        <v>佐紀町新墓墓地六地蔵 一番右</v>
+      </c>
+      <c r="D1910" t="str">
+        <v>./images/886/14873.jpg</v>
+      </c>
+      <c r="E1910" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1910" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1910" t="str">
+        <v>./mid_thumbs/886/14873.jpg</v>
+      </c>
+      <c r="H1910" t="str">
+        <v>./small_thumbs/886/14873.jpg</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911">
+        <v>1917</v>
+      </c>
+      <c r="B1911">
+        <v>887</v>
+      </c>
+      <c r="C1911" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔</v>
+      </c>
+      <c r="D1911" t="str">
+        <v>./images/887/14875.jpg</v>
+      </c>
+      <c r="E1911" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1911" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1911" t="str">
+        <v>./mid_thumbs/887/14875.jpg</v>
+      </c>
+      <c r="H1911" t="str">
+        <v>./small_thumbs/887/14875.jpg</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912">
+        <v>1918</v>
+      </c>
+      <c r="B1912">
+        <v>887</v>
+      </c>
+      <c r="C1912" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 南側下段地蔵尊</v>
+      </c>
+      <c r="D1912" t="str">
+        <v>./images/887/14876.jpg</v>
+      </c>
+      <c r="E1912" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1912" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1912" t="str">
+        <v>./mid_thumbs/887/14876.jpg</v>
+      </c>
+      <c r="H1912" t="str">
+        <v>./small_thumbs/887/14876.jpg</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913">
+        <v>1919</v>
+      </c>
+      <c r="B1913">
+        <v>887</v>
+      </c>
+      <c r="C1913" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 南側</v>
+      </c>
+      <c r="D1913" t="str">
+        <v>./images/887/14877.jpg</v>
+      </c>
+      <c r="E1913" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1913" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1913" t="str">
+        <v>./mid_thumbs/887/14877.jpg</v>
+      </c>
+      <c r="H1913" t="str">
+        <v>./small_thumbs/887/14877.jpg</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914">
+        <v>1920</v>
+      </c>
+      <c r="B1914">
+        <v>887</v>
+      </c>
+      <c r="C1914" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 南東角</v>
+      </c>
+      <c r="D1914" t="str">
+        <v>./images/887/14878.jpg</v>
+      </c>
+      <c r="E1914" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1914" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1914" t="str">
+        <v>./mid_thumbs/887/14878.jpg</v>
+      </c>
+      <c r="H1914" t="str">
+        <v>./small_thumbs/887/14878.jpg</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915">
+        <v>1921</v>
+      </c>
+      <c r="B1915">
+        <v>887</v>
+      </c>
+      <c r="C1915" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 北東角</v>
+      </c>
+      <c r="D1915" t="str">
+        <v>./images/887/14879.jpg</v>
+      </c>
+      <c r="E1915" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1915" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1915" t="str">
+        <v>./mid_thumbs/887/14879.jpg</v>
+      </c>
+      <c r="H1915" t="str">
+        <v>./small_thumbs/887/14879.jpg</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916">
+        <v>1922</v>
+      </c>
+      <c r="B1916">
+        <v>887</v>
+      </c>
+      <c r="C1916" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 北東角</v>
+      </c>
+      <c r="D1916" t="str">
+        <v>./images/887/14880.jpg</v>
+      </c>
+      <c r="E1916" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1916" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1916" t="str">
+        <v>./mid_thumbs/887/14880.jpg</v>
+      </c>
+      <c r="H1916" t="str">
+        <v>./small_thumbs/887/14880.jpg</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917">
+        <v>1923</v>
+      </c>
+      <c r="B1917">
+        <v>887</v>
+      </c>
+      <c r="C1917" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 北西角</v>
+      </c>
+      <c r="D1917" t="str">
+        <v>./images/887/14881.jpg</v>
+      </c>
+      <c r="E1917" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1917" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1917" t="str">
+        <v>./mid_thumbs/887/14881.jpg</v>
+      </c>
+      <c r="H1917" t="str">
+        <v>./small_thumbs/887/14881.jpg</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918">
+        <v>1924</v>
+      </c>
+      <c r="B1918">
+        <v>887</v>
+      </c>
+      <c r="C1918" t="str">
+        <v>佐紀町新墓墓地観音菩薩無縁塔 北西角</v>
+      </c>
+      <c r="D1918" t="str">
+        <v>./images/887/14882.jpg</v>
+      </c>
+      <c r="E1918" t="str">
+        <v>2023-08-31T00:00:00</v>
+      </c>
+      <c r="F1918" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1918" t="str">
+        <v>./mid_thumbs/887/14882.jpg</v>
+      </c>
+      <c r="H1918" t="str">
+        <v>./small_thumbs/887/14882.jpg</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919">
+        <v>1925</v>
+      </c>
+      <c r="B1919">
+        <v>768</v>
+      </c>
+      <c r="C1919" t="str">
+        <v>地蔵群</v>
+      </c>
+      <c r="D1919" t="str">
+        <v>./images/768/14856.jpg</v>
+      </c>
+      <c r="E1919" t="str">
+        <v>2023-08-30T00:00:00</v>
+      </c>
+      <c r="F1919" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1919" t="str">
+        <v>./mid_thumbs/768/14856.jpg</v>
+      </c>
+      <c r="H1919" t="str">
+        <v>./small_thumbs/768/14856.jpg</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920">
+        <v>1926</v>
+      </c>
+      <c r="B1920">
+        <v>888</v>
+      </c>
+      <c r="C1920" t="str">
+        <v>皇祖遥拝所</v>
+      </c>
+      <c r="D1920" t="str">
+        <v>./images/888/IMG_0278.jpg</v>
+      </c>
+      <c r="E1920" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1920" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1920" t="str">
+        <v>./mid_thumbs/888/IMG_0278.jpg</v>
+      </c>
+      <c r="H1920" t="str">
+        <v>./small_thumbs/888/IMG_0278.jpg</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921">
+        <v>1927</v>
+      </c>
+      <c r="B1921">
+        <v>889</v>
+      </c>
+      <c r="C1921" t="str">
+        <v>記念碑</v>
+      </c>
+      <c r="D1921" t="str">
+        <v>./images/889/IMG_0279.jpg</v>
+      </c>
+      <c r="E1921" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1921" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1921" t="str">
+        <v>./mid_thumbs/889/IMG_0279.jpg</v>
+      </c>
+      <c r="H1921" t="str">
+        <v>./small_thumbs/889/IMG_0279.jpg</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922">
+        <v>1928</v>
+      </c>
+      <c r="B1922">
+        <v>890</v>
+      </c>
+      <c r="C1922" t="str">
+        <v>天武神社</v>
+      </c>
+      <c r="D1922" t="str">
+        <v>./images/890/IMG_0287.jpg</v>
+      </c>
+      <c r="E1922" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1922" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1922" t="str">
+        <v>./mid_thumbs/890/IMG_0287.jpg</v>
+      </c>
+      <c r="H1922" t="str">
+        <v>./small_thumbs/890/IMG_0287.jpg</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923">
+        <v>1929</v>
+      </c>
+      <c r="B1923">
+        <v>890</v>
+      </c>
+      <c r="C1923" t="str">
+        <v>天武神社 拝殿</v>
+      </c>
+      <c r="D1923" t="str">
+        <v>./images/890/IMG_0288.jpg</v>
+      </c>
+      <c r="E1923" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1923" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1923" t="str">
+        <v>./mid_thumbs/890/IMG_0288.jpg</v>
+      </c>
+      <c r="H1923" t="str">
+        <v>./small_thumbs/890/IMG_0288.jpg</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924">
+        <v>1930</v>
+      </c>
+      <c r="B1924">
+        <v>890</v>
+      </c>
+      <c r="C1924" t="str">
+        <v>天武神社 本殿</v>
+      </c>
+      <c r="D1924" t="str">
+        <v>./images/890/IMG_0289.jpg</v>
+      </c>
+      <c r="E1924" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1924" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1924" t="str">
+        <v>./mid_thumbs/890/IMG_0289.jpg</v>
+      </c>
+      <c r="H1924" t="str">
+        <v>./small_thumbs/890/IMG_0289.jpg</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925">
+        <v>1931</v>
+      </c>
+      <c r="B1925">
+        <v>891</v>
+      </c>
+      <c r="C1925" t="str">
+        <v>天大源</v>
+      </c>
+      <c r="D1925" t="str">
+        <v>./images/891/IMG_0290.jpg</v>
+      </c>
+      <c r="E1925" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1925" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1925" t="str">
+        <v>./mid_thumbs/891/IMG_0290.jpg</v>
+      </c>
+      <c r="H1925" t="str">
+        <v>./small_thumbs/891/IMG_0290.jpg</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926">
+        <v>1932</v>
+      </c>
+      <c r="B1926">
+        <v>891</v>
+      </c>
+      <c r="C1926" t="str">
+        <v>天大源 背面</v>
+      </c>
+      <c r="D1926" t="str">
+        <v>./images/891/IMG_0291.jpg</v>
+      </c>
+      <c r="E1926" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1926" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1926" t="str">
+        <v>./mid_thumbs/891/IMG_0291.jpg</v>
+      </c>
+      <c r="H1926" t="str">
+        <v>./small_thumbs/891/IMG_0291.jpg</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927">
+        <v>1933</v>
+      </c>
+      <c r="B1927">
+        <v>891</v>
+      </c>
+      <c r="C1927" t="str">
+        <v>天大源</v>
+      </c>
+      <c r="D1927" t="str">
+        <v>./images/891/IMG_0292.jpg</v>
+      </c>
+      <c r="E1927" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1927" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1927" t="str">
+        <v>./mid_thumbs/891/IMG_0292.jpg</v>
+      </c>
+      <c r="H1927" t="str">
+        <v>./small_thumbs/891/IMG_0292.jpg</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928">
+        <v>1934</v>
+      </c>
+      <c r="B1928">
+        <v>892</v>
+      </c>
+      <c r="C1928" t="str">
+        <v>岡山稲荷大明神 参道の鳥居</v>
+      </c>
+      <c r="D1928" t="str">
+        <v>./images/892/IMG_0294.jpg</v>
+      </c>
+      <c r="E1928" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1928" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1928" t="str">
+        <v>./mid_thumbs/892/IMG_0294.jpg</v>
+      </c>
+      <c r="H1928" t="str">
+        <v>./small_thumbs/892/IMG_0294.jpg</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929">
+        <v>1935</v>
+      </c>
+      <c r="B1929">
+        <v>892</v>
+      </c>
+      <c r="C1929" t="str">
+        <v>岡山稲荷大明神</v>
+      </c>
+      <c r="D1929" t="str">
+        <v>./images/892/IMG_0295.jpg</v>
+      </c>
+      <c r="E1929" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1929" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1929" t="str">
+        <v>./mid_thumbs/892/IMG_0295.jpg</v>
+      </c>
+      <c r="H1929" t="str">
+        <v>./small_thumbs/892/IMG_0295.jpg</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930">
+        <v>1936</v>
+      </c>
+      <c r="B1930">
+        <v>892</v>
+      </c>
+      <c r="C1930" t="str">
+        <v>岡山稲荷大明神 本殿</v>
+      </c>
+      <c r="D1930" t="str">
+        <v>./images/892/IMG_0296.jpg</v>
+      </c>
+      <c r="E1930" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1930" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1930" t="str">
+        <v>./mid_thumbs/892/IMG_0296.jpg</v>
+      </c>
+      <c r="H1930" t="str">
+        <v>./small_thumbs/892/IMG_0296.jpg</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931">
+        <v>1937</v>
+      </c>
+      <c r="B1931">
+        <v>892</v>
+      </c>
+      <c r="C1931" t="str">
+        <v>岡山稲荷大明神 本殿内部</v>
+      </c>
+      <c r="D1931" t="str">
+        <v>./images/892/IMG_0297.jpg</v>
+      </c>
+      <c r="E1931" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1931" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1931" t="str">
+        <v>./mid_thumbs/892/IMG_0297.jpg</v>
+      </c>
+      <c r="H1931" t="str">
+        <v>./small_thumbs/892/IMG_0297.jpg</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932">
+        <v>1938</v>
+      </c>
+      <c r="B1932">
+        <v>892</v>
+      </c>
+      <c r="C1932" t="str">
+        <v>岡山稲荷大明神 狐左側</v>
+      </c>
+      <c r="D1932" t="str">
+        <v>./images/892/IMG_0298.jpg</v>
+      </c>
+      <c r="E1932" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1932" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1932" t="str">
+        <v>./mid_thumbs/892/IMG_0298.jpg</v>
+      </c>
+      <c r="H1932" t="str">
+        <v>./small_thumbs/892/IMG_0298.jpg</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933">
+        <v>1939</v>
+      </c>
+      <c r="B1933">
+        <v>892</v>
+      </c>
+      <c r="C1933" t="str">
+        <v>岡山稲荷大明神 狐右側</v>
+      </c>
+      <c r="D1933" t="str">
+        <v>./images/892/IMG_0299.jpg</v>
+      </c>
+      <c r="E1933" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1933" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1933" t="str">
+        <v>./mid_thumbs/892/IMG_0299.jpg</v>
+      </c>
+      <c r="H1933" t="str">
+        <v>./small_thumbs/892/IMG_0299.jpg</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934">
+        <v>1940</v>
+      </c>
+      <c r="B1934">
+        <v>890</v>
+      </c>
+      <c r="C1934" t="str">
+        <v>天武神社 石灯籠</v>
+      </c>
+      <c r="D1934" t="str">
+        <v>./images/890/IMG_0293.jpg</v>
+      </c>
+      <c r="E1934" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1934" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1934" t="str">
+        <v>./mid_thumbs/890/IMG_0293.jpg</v>
+      </c>
+      <c r="H1934" t="str">
+        <v>./small_thumbs/890/IMG_0293.jpg</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935">
+        <v>1941</v>
+      </c>
+      <c r="B1935">
+        <v>893</v>
+      </c>
+      <c r="C1935" t="str">
+        <v>大川池塚古墳 北方から</v>
+      </c>
+      <c r="D1935" t="str">
+        <v>./images/893/IMG_0300.jpg</v>
+      </c>
+      <c r="E1935" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1935" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1935" t="str">
+        <v>./mid_thumbs/893/IMG_0300.jpg</v>
+      </c>
+      <c r="H1935" t="str">
+        <v>./small_thumbs/893/IMG_0300.jpg</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936">
+        <v>1942</v>
+      </c>
+      <c r="B1936">
+        <v>893</v>
+      </c>
+      <c r="C1936" t="str">
+        <v>大川池塚古墳 西方から</v>
+      </c>
+      <c r="D1936" t="str">
+        <v>./images/893/IMG_0301.jpg</v>
+      </c>
+      <c r="E1936" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1936" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1936" t="str">
+        <v>./mid_thumbs/893/IMG_0301.jpg</v>
+      </c>
+      <c r="H1936" t="str">
+        <v>./small_thumbs/893/IMG_0301.jpg</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937">
+        <v>1943</v>
+      </c>
+      <c r="B1937">
+        <v>746</v>
+      </c>
+      <c r="C1937" t="str">
+        <v>山町地蔵尊</v>
+      </c>
+      <c r="D1937" t="str">
+        <v>./images/746/IMG_0302.jpg</v>
+      </c>
+      <c r="E1937" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1937" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1937" t="str">
+        <v>./mid_thumbs/746/IMG_0302.jpg</v>
+      </c>
+      <c r="H1937" t="str">
+        <v>./small_thumbs/746/IMG_0302.jpg</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938">
+        <v>1944</v>
+      </c>
+      <c r="B1938">
+        <v>746</v>
+      </c>
+      <c r="C1938" t="str">
+        <v>山町地蔵尊 五輪塔残欠</v>
+      </c>
+      <c r="D1938" t="str">
+        <v>./images/746/IMG_0303.jpg</v>
+      </c>
+      <c r="E1938" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1938" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1938" t="str">
+        <v>./mid_thumbs/746/IMG_0303.jpg</v>
+      </c>
+      <c r="H1938" t="str">
+        <v>./small_thumbs/746/IMG_0303.jpg</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939">
+        <v>1945</v>
+      </c>
+      <c r="B1939">
+        <v>746</v>
+      </c>
+      <c r="C1939" t="str">
+        <v>山町地蔵尊 地蔵単独</v>
+      </c>
+      <c r="D1939" t="str">
+        <v>./images/746/IMG_0304.jpg</v>
+      </c>
+      <c r="E1939" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1939" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1939" t="str">
+        <v>./mid_thumbs/746/IMG_0304.jpg</v>
+      </c>
+      <c r="H1939" t="str">
+        <v>./small_thumbs/746/IMG_0304.jpg</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940">
+        <v>1946</v>
+      </c>
+      <c r="B1940">
+        <v>894</v>
+      </c>
+      <c r="C1940" t="str">
+        <v>山町地蔵堂</v>
+      </c>
+      <c r="D1940" t="str">
+        <v>./images/894/IMG_0313.jpg</v>
+      </c>
+      <c r="E1940" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1940" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1940" t="str">
+        <v>./mid_thumbs/894/IMG_0313.jpg</v>
+      </c>
+      <c r="H1940" t="str">
+        <v>./small_thumbs/894/IMG_0313.jpg</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941">
+        <v>1947</v>
+      </c>
+      <c r="B1941">
+        <v>894</v>
+      </c>
+      <c r="C1941" t="str">
+        <v>山町地蔵堂 内部</v>
+      </c>
+      <c r="D1941" t="str">
+        <v>./images/894/IMG_0314.jpg</v>
+      </c>
+      <c r="E1941" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1941" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1941" t="str">
+        <v>./mid_thumbs/894/IMG_0314.jpg</v>
+      </c>
+      <c r="H1941" t="str">
+        <v>./small_thumbs/894/IMG_0314.jpg</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942">
+        <v>1948</v>
+      </c>
+      <c r="B1942">
+        <v>895</v>
+      </c>
+      <c r="C1942" t="str">
+        <v>中澤忠七翁壽碑</v>
+      </c>
+      <c r="D1942" t="str">
+        <v>./images/895/IMG_0316.jpg</v>
+      </c>
+      <c r="E1942" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1942" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1942" t="str">
+        <v>./mid_thumbs/895/IMG_0316.jpg</v>
+      </c>
+      <c r="H1942" t="str">
+        <v>./small_thumbs/895/IMG_0316.jpg</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943">
+        <v>1949</v>
+      </c>
+      <c r="B1943">
+        <v>895</v>
+      </c>
+      <c r="C1943" t="str">
+        <v>中澤忠七翁壽碑 碑文拡大</v>
+      </c>
+      <c r="D1943" t="str">
+        <v>./images/895/IMG_0317.jpg</v>
+      </c>
+      <c r="E1943" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1943" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1943" t="str">
+        <v>./mid_thumbs/895/IMG_0317.jpg</v>
+      </c>
+      <c r="H1943" t="str">
+        <v>./small_thumbs/895/IMG_0317.jpg</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944">
+        <v>1950</v>
+      </c>
+      <c r="B1944">
+        <v>896</v>
+      </c>
+      <c r="C1944" t="str">
+        <v>山村館跡西地蔵堂</v>
+      </c>
+      <c r="D1944" t="str">
+        <v>./images/896/IMG_0320.jpg</v>
+      </c>
+      <c r="E1944" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1944" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1944" t="str">
+        <v>./mid_thumbs/896/IMG_0320.jpg</v>
+      </c>
+      <c r="H1944" t="str">
+        <v>./small_thumbs/896/IMG_0320.jpg</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945">
+        <v>1951</v>
+      </c>
+      <c r="B1945">
+        <v>896</v>
+      </c>
+      <c r="C1945" t="str">
+        <v>山村館跡西地蔵堂 地蔵堂脇</v>
+      </c>
+      <c r="D1945" t="str">
+        <v>./images/896/IMG_0321.jpg</v>
+      </c>
+      <c r="E1945" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1945" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1945" t="str">
+        <v>./mid_thumbs/896/IMG_0321.jpg</v>
+      </c>
+      <c r="H1945" t="str">
+        <v>./small_thumbs/896/IMG_0321.jpg</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946">
+        <v>1952</v>
+      </c>
+      <c r="B1946">
+        <v>896</v>
+      </c>
+      <c r="C1946" t="str">
+        <v>山村館跡西地蔵堂 内部</v>
+      </c>
+      <c r="D1946" t="str">
+        <v>./images/896/IMG_0322.jpg</v>
+      </c>
+      <c r="E1946" t="str">
+        <v>2023-08-19T00:00:00</v>
+      </c>
+      <c r="F1946" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1946" t="str">
+        <v>./mid_thumbs/896/IMG_0322.jpg</v>
+      </c>
+      <c r="H1946" t="str">
+        <v>./small_thumbs/896/IMG_0322.jpg</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947">
+        <v>1953</v>
+      </c>
+      <c r="B1947">
+        <v>897</v>
+      </c>
+      <c r="C1947" t="str">
+        <v>菩提山道</v>
+      </c>
+      <c r="D1947" t="str">
+        <v>./images/897/IMG_0327.jpg</v>
+      </c>
+      <c r="E1947" t="str">
+        <v>2023/08/19</v>
+      </c>
+      <c r="F1947" t="str">
+        <v>Kohei Otsuka</v>
+      </c>
+      <c r="G1947" t="str">
+        <v>./mid_thumbs/897/IMG_0327.jpg</v>
+      </c>
+      <c r="H1947" t="str">
+        <v>./small_thumbs/897/IMG_0327.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1900"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1947"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE622"/>
+  <dimension ref="A1:AE624"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5271,13 +5271,13 @@
         <v>杉ヶ町</v>
       </c>
       <c r="P102" t="str">
-        <v>2016-07-22</v>
+        <v>2023-09-12</v>
       </c>
       <c r="Q102" t="b">
         <v>1</v>
       </c>
       <c r="R102">
-        <v>279</v>
+        <v>1955</v>
       </c>
       <c r="W102" t="str">
         <v/>
@@ -29932,16 +29932,104 @@
         <v>34.64264016682654</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623">
+        <v>898</v>
+      </c>
+      <c r="B623" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C623" t="str">
+        <v>川上町佐保川沿い地蔵堂</v>
+      </c>
+      <c r="D623" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F623" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G623" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H623" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I623" t="str">
+        <v>川上町</v>
+      </c>
+      <c r="P623" t="str">
+        <v>2023-09-04</v>
+      </c>
+      <c r="Q623" t="b">
+        <v>1</v>
+      </c>
+      <c r="R623">
+        <v>1954</v>
+      </c>
+      <c r="X623" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD623">
+        <v>135.83840541414165</v>
+      </c>
+      <c r="AE623">
+        <v>34.69587125870344</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624">
+        <v>899</v>
+      </c>
+      <c r="B624" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C624" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="D624" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F624" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G624" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H624" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I624" t="str">
+        <v>法華寺町</v>
+      </c>
+      <c r="P624" t="str">
+        <v>2023-09-14</v>
+      </c>
+      <c r="Q624" t="b">
+        <v>1</v>
+      </c>
+      <c r="R624">
+        <v>1962</v>
+      </c>
+      <c r="X624" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD624">
+        <v>135.81137811550755</v>
+      </c>
+      <c r="AE624">
+        <v>34.689849433593125</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE622"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE624"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1947"/>
+  <dimension ref="A1:H1961"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -80556,7 +80644,7 @@
         <v>./images/897/IMG_0327.jpg</v>
       </c>
       <c r="E1947" t="str">
-        <v>2023/08/19</v>
+        <v>2023-08-19T00:00:00</v>
       </c>
       <c r="F1947" t="str">
         <v>Kohei Otsuka</v>
@@ -80568,9 +80656,373 @@
         <v>./small_thumbs/897/IMG_0327.jpg</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948">
+        <v>1954</v>
+      </c>
+      <c r="B1948">
+        <v>898</v>
+      </c>
+      <c r="C1948" t="str">
+        <v>川上町佐保川沿い地蔵堂</v>
+      </c>
+      <c r="D1948" t="str">
+        <v>./images/898/15382.jpg</v>
+      </c>
+      <c r="E1948" t="str">
+        <v>2023-09-04T00:00:00</v>
+      </c>
+      <c r="F1948" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1948" t="str">
+        <v>./mid_thumbs/898/15382.jpg</v>
+      </c>
+      <c r="H1948" t="str">
+        <v>./small_thumbs/898/15382.jpg</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949">
+        <v>1955</v>
+      </c>
+      <c r="B1949">
+        <v>101</v>
+      </c>
+      <c r="C1949" t="str">
+        <v>万直し地蔵尊</v>
+      </c>
+      <c r="D1949" t="str">
+        <v>./images/101/15818.jpg</v>
+      </c>
+      <c r="E1949" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1949" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1949" t="str">
+        <v>./mid_thumbs/101/15818.jpg</v>
+      </c>
+      <c r="H1949" t="str">
+        <v>./small_thumbs/101/15818.jpg</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950">
+        <v>1956</v>
+      </c>
+      <c r="B1950">
+        <v>101</v>
+      </c>
+      <c r="C1950" t="str">
+        <v>万直し地蔵尊 開扉</v>
+      </c>
+      <c r="D1950" t="str">
+        <v>./images/101/15819.jpg</v>
+      </c>
+      <c r="E1950" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1950" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1950" t="str">
+        <v>./mid_thumbs/101/15819.jpg</v>
+      </c>
+      <c r="H1950" t="str">
+        <v>./small_thumbs/101/15819.jpg</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951">
+        <v>1957</v>
+      </c>
+      <c r="B1951">
+        <v>101</v>
+      </c>
+      <c r="C1951" t="str">
+        <v>万直し地蔵尊 向かって右</v>
+      </c>
+      <c r="D1951" t="str">
+        <v>./images/101/15820.jpg</v>
+      </c>
+      <c r="E1951" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1951" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1951" t="str">
+        <v>./mid_thumbs/101/15820.jpg</v>
+      </c>
+      <c r="H1951" t="str">
+        <v>./small_thumbs/101/15820.jpg</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952">
+        <v>1958</v>
+      </c>
+      <c r="B1952">
+        <v>101</v>
+      </c>
+      <c r="C1952" t="str">
+        <v>万直し地蔵尊 中央</v>
+      </c>
+      <c r="D1952" t="str">
+        <v>./images/101/15822.jpg</v>
+      </c>
+      <c r="E1952" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1952" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1952" t="str">
+        <v>./mid_thumbs/101/15822.jpg</v>
+      </c>
+      <c r="H1952" t="str">
+        <v>./small_thumbs/101/15822.jpg</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953">
+        <v>1959</v>
+      </c>
+      <c r="B1953">
+        <v>101</v>
+      </c>
+      <c r="C1953" t="str">
+        <v>万直し地蔵尊 首だけの地蔵</v>
+      </c>
+      <c r="D1953" t="str">
+        <v>./images/101/15823.jpg</v>
+      </c>
+      <c r="E1953" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1953" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1953" t="str">
+        <v>./mid_thumbs/101/15823.jpg</v>
+      </c>
+      <c r="H1953" t="str">
+        <v>./small_thumbs/101/15823.jpg</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954">
+        <v>1960</v>
+      </c>
+      <c r="B1954">
+        <v>101</v>
+      </c>
+      <c r="C1954" t="str">
+        <v>万直し地蔵尊 向かって左</v>
+      </c>
+      <c r="D1954" t="str">
+        <v>./images/101/15824.jpg</v>
+      </c>
+      <c r="E1954" t="str">
+        <v>2023-09-12T00:00:00</v>
+      </c>
+      <c r="F1954" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1954" t="str">
+        <v>./mid_thumbs/101/15824.jpg</v>
+      </c>
+      <c r="H1954" t="str">
+        <v>./small_thumbs/101/15824.jpg</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955">
+        <v>1961</v>
+      </c>
+      <c r="B1955">
+        <v>899</v>
+      </c>
+      <c r="C1955" t="str">
+        <v>法華寺町地蔵堂 遠景</v>
+      </c>
+      <c r="D1955" t="str">
+        <v>./images/899/15932.jpg</v>
+      </c>
+      <c r="E1955" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1955" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1955" t="str">
+        <v>./mid_thumbs/899/15932.jpg</v>
+      </c>
+      <c r="H1955" t="str">
+        <v>./small_thumbs/899/15932.jpg</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956">
+        <v>1962</v>
+      </c>
+      <c r="B1956">
+        <v>899</v>
+      </c>
+      <c r="C1956" t="str">
+        <v>法華寺町地蔵堂</v>
+      </c>
+      <c r="D1956" t="str">
+        <v>./images/899/15933.jpg</v>
+      </c>
+      <c r="E1956" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1956" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1956" t="str">
+        <v>./mid_thumbs/899/15933.jpg</v>
+      </c>
+      <c r="H1956" t="str">
+        <v>./small_thumbs/899/15933.jpg</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957">
+        <v>1963</v>
+      </c>
+      <c r="B1957">
+        <v>899</v>
+      </c>
+      <c r="C1957" t="str">
+        <v>法華寺町地蔵堂 内部</v>
+      </c>
+      <c r="D1957" t="str">
+        <v>./images/899/15934.jpg</v>
+      </c>
+      <c r="E1957" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1957" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1957" t="str">
+        <v>./mid_thumbs/899/15934.jpg</v>
+      </c>
+      <c r="H1957" t="str">
+        <v>./small_thumbs/899/15934.jpg</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958">
+        <v>1964</v>
+      </c>
+      <c r="B1958">
+        <v>899</v>
+      </c>
+      <c r="C1958" t="str">
+        <v>法華寺町地蔵堂 向かって右</v>
+      </c>
+      <c r="D1958" t="str">
+        <v>./images/899/15935.jpg</v>
+      </c>
+      <c r="E1958" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1958" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1958" t="str">
+        <v>./mid_thumbs/899/15935.jpg</v>
+      </c>
+      <c r="H1958" t="str">
+        <v>./small_thumbs/899/15935.jpg</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959">
+        <v>1965</v>
+      </c>
+      <c r="B1959">
+        <v>899</v>
+      </c>
+      <c r="C1959" t="str">
+        <v>法華寺町地蔵堂 中央</v>
+      </c>
+      <c r="D1959" t="str">
+        <v>./images/899/15936.jpg</v>
+      </c>
+      <c r="E1959" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1959" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1959" t="str">
+        <v>./mid_thumbs/899/15936.jpg</v>
+      </c>
+      <c r="H1959" t="str">
+        <v>./small_thumbs/899/15936.jpg</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960">
+        <v>1966</v>
+      </c>
+      <c r="B1960">
+        <v>899</v>
+      </c>
+      <c r="C1960" t="str">
+        <v>法華寺町地蔵堂 向かって左</v>
+      </c>
+      <c r="D1960" t="str">
+        <v>./images/899/15937.jpg</v>
+      </c>
+      <c r="E1960" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1960" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1960" t="str">
+        <v>./mid_thumbs/899/15937.jpg</v>
+      </c>
+      <c r="H1960" t="str">
+        <v>./small_thumbs/899/15937.jpg</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961">
+        <v>1967</v>
+      </c>
+      <c r="B1961">
+        <v>899</v>
+      </c>
+      <c r="C1961" t="str">
+        <v>法華寺町地蔵堂 石塔残欠？</v>
+      </c>
+      <c r="D1961" t="str">
+        <v>./images/899/15938.jpg</v>
+      </c>
+      <c r="E1961" t="str">
+        <v>2023-09-14T00:00:00</v>
+      </c>
+      <c r="F1961" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1961" t="str">
+        <v>./mid_thumbs/899/15938.jpg</v>
+      </c>
+      <c r="H1961" t="str">
+        <v>./small_thumbs/899/15938.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1947"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1961"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE624"/>
+  <dimension ref="A1:AE625"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30020,16 +30020,63 @@
         <v>34.689849433593125</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625">
+        <v>900</v>
+      </c>
+      <c r="B625" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C625" t="str">
+        <v>平城宮跡東南地蔵尊</v>
+      </c>
+      <c r="D625" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F625" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G625" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H625" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I625" t="str">
+        <v>佐紀町</v>
+      </c>
+      <c r="J625" t="str">
+        <v>平城宮跡内</v>
+      </c>
+      <c r="P625" t="str">
+        <v>2023-09-26</v>
+      </c>
+      <c r="Q625" t="b">
+        <v>1</v>
+      </c>
+      <c r="R625">
+        <v>1970</v>
+      </c>
+      <c r="X625" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD625">
+        <v>135.79980440108017</v>
+      </c>
+      <c r="AE625">
+        <v>34.68705435127568</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE624"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE625"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1961"/>
+  <dimension ref="A1:H1964"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -81020,9 +81067,87 @@
         <v>./small_thumbs/899/15938.jpg</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962">
+        <v>1968</v>
+      </c>
+      <c r="B1962">
+        <v>900</v>
+      </c>
+      <c r="C1962" t="str">
+        <v>平城宮跡東南地蔵尊</v>
+      </c>
+      <c r="D1962" t="str">
+        <v>./images/900/16630.jpg</v>
+      </c>
+      <c r="E1962" t="str">
+        <v>2023-09-26</v>
+      </c>
+      <c r="F1962" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1962" t="str">
+        <v>./mid_thumbs/900/16630.jpg</v>
+      </c>
+      <c r="H1962" t="str">
+        <v>./small_thumbs/900/16630.jpg</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963">
+        <v>1969</v>
+      </c>
+      <c r="B1963">
+        <v>900</v>
+      </c>
+      <c r="C1963" t="str">
+        <v>平城宮跡東南地蔵尊</v>
+      </c>
+      <c r="D1963" t="str">
+        <v>./images/900/16633.jpg</v>
+      </c>
+      <c r="E1963" t="str">
+        <v>2023-09-26</v>
+      </c>
+      <c r="F1963" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1963" t="str">
+        <v>./mid_thumbs/900/16633.jpg</v>
+      </c>
+      <c r="H1963" t="str">
+        <v>./small_thumbs/900/16633.jpg</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964">
+        <v>1970</v>
+      </c>
+      <c r="B1964">
+        <v>900</v>
+      </c>
+      <c r="C1964" t="str">
+        <v>平城宮跡東南地蔵尊</v>
+      </c>
+      <c r="D1964" t="str">
+        <v>./images/900/16700.jpg</v>
+      </c>
+      <c r="E1964" t="str">
+        <v>2023-09-26</v>
+      </c>
+      <c r="F1964" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1964" t="str">
+        <v>./mid_thumbs/900/16700.jpg</v>
+      </c>
+      <c r="H1964" t="str">
+        <v>./small_thumbs/900/16700.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1961"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1964"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE625"/>
+  <dimension ref="A1:AE635"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15220,7 +15220,7 @@
         <v>奈良阪町</v>
       </c>
       <c r="P312" t="str">
-        <v>2017-06-17</v>
+        <v>2023-11-15</v>
       </c>
       <c r="Q312" t="b">
         <v>1</v>
@@ -22143,7 +22143,7 @@
         <v>地蔵</v>
       </c>
       <c r="C457" t="str">
-        <v>地蔵尊</v>
+        <v>あやめ池南３丁目地蔵尊</v>
       </c>
       <c r="F457" t="str">
         <v>奈良県</v>
@@ -22160,23 +22160,29 @@
       <c r="O457" t="str">
         <v>あやめ池南3丁目 地蔵尊</v>
       </c>
+      <c r="P457" t="str">
+        <v>2023-10-11</v>
+      </c>
       <c r="Q457" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R457">
+        <v>2018</v>
       </c>
       <c r="W457" t="str">
         <v/>
       </c>
       <c r="AB457" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
       </c>
       <c r="AC457" t="str">
         <v/>
       </c>
       <c r="AD457">
-        <v>135.7691100158412</v>
+        <v>135.76916070087512</v>
       </c>
       <c r="AE457">
-        <v>34.69641836074256</v>
+        <v>34.6964197775791</v>
       </c>
     </row>
     <row r="458">
@@ -22204,23 +22210,29 @@
       <c r="O458" t="str">
         <v>西大寺高塚町 鷹塚山地蔵尊</v>
       </c>
+      <c r="P458" t="str">
+        <v>2023-10-17</v>
+      </c>
       <c r="Q458" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R458">
+        <v>1977</v>
       </c>
       <c r="W458" t="str">
         <v/>
       </c>
       <c r="AB458" t="str">
-        <v>Google Mapsで発見</v>
+        <v/>
       </c>
       <c r="AC458" t="str">
         <v/>
       </c>
       <c r="AD458">
-        <v>135.7674369838035</v>
+        <v>135.7672486365275</v>
       </c>
       <c r="AE458">
-        <v>34.695477698908206</v>
+        <v>34.69534341079918</v>
       </c>
     </row>
     <row r="459">
@@ -26445,14 +26457,23 @@
       <c r="I548" t="str">
         <v>法蓮町</v>
       </c>
+      <c r="P548" t="str">
+        <v>2023-10-09</v>
+      </c>
       <c r="Q548" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R548">
+        <v>1971</v>
       </c>
       <c r="W548" t="str">
-        <v/>
+        <v>碑型</v>
+      </c>
+      <c r="X548" t="str">
+        <v>石造</v>
       </c>
       <c r="AB548" t="str">
-        <v>要現地調査、Google Mapsで発見</v>
+        <v/>
       </c>
       <c r="AD548">
         <v>135.8165400981756</v>
@@ -28410,17 +28431,23 @@
       <c r="I589" t="str">
         <v>秋篠町</v>
       </c>
+      <c r="P589" t="str">
+        <v>2023-10-11</v>
+      </c>
       <c r="Q589" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R589">
+        <v>2012</v>
       </c>
       <c r="X589" t="str">
         <v>石造</v>
       </c>
       <c r="AB589" t="str">
-        <v>ストリートビューで確認</v>
+        <v/>
       </c>
       <c r="AC589" t="str">
-        <v>要調査</v>
+        <v/>
       </c>
       <c r="AD589">
         <v>135.77612625896663</v>
@@ -30067,16 +30094,420 @@
         <v>34.68705435127568</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626">
+        <v>901</v>
+      </c>
+      <c r="B626" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C626" t="str">
+        <v>鷹塚山権現</v>
+      </c>
+      <c r="F626" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G626" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H626" t="str">
+        <v>あやめ池</v>
+      </c>
+      <c r="I626" t="str">
+        <v>あやめ池南４丁目</v>
+      </c>
+      <c r="O626" t="str">
+        <v>西大寺高塚町 鷹塚山権現</v>
+      </c>
+      <c r="P626" t="str">
+        <v>2023-10-17</v>
+      </c>
+      <c r="Q626" t="b">
+        <v>1</v>
+      </c>
+      <c r="R626">
+        <v>1972</v>
+      </c>
+      <c r="AD626">
+        <v>135.7672439837368</v>
+      </c>
+      <c r="AE626">
+        <v>34.695414182138286</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627">
+        <v>902</v>
+      </c>
+      <c r="B627" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C627" t="str">
+        <v>光明地蔵尊</v>
+      </c>
+      <c r="F627" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G627" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H627" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I627" t="str">
+        <v>西大寺竜王町１丁目</v>
+      </c>
+      <c r="K627" t="str">
+        <v>融通寺門前</v>
+      </c>
+      <c r="P627" t="str">
+        <v>2023-10-17</v>
+      </c>
+      <c r="Q627" t="b">
+        <v>1</v>
+      </c>
+      <c r="R627">
+        <v>1978</v>
+      </c>
+      <c r="AD627">
+        <v>135.7713570507362</v>
+      </c>
+      <c r="AE627">
+        <v>34.69541800761434</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628">
+        <v>903</v>
+      </c>
+      <c r="B628" t="str">
+        <v>小祠</v>
+      </c>
+      <c r="C628" t="str">
+        <v>融通寺門前祠</v>
+      </c>
+      <c r="F628" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G628" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H628" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I628" t="str">
+        <v>西大寺竜王町１丁目</v>
+      </c>
+      <c r="K628" t="str">
+        <v>融通寺門前</v>
+      </c>
+      <c r="P628" t="str">
+        <v>2023-10-17</v>
+      </c>
+      <c r="Q628" t="b">
+        <v>1</v>
+      </c>
+      <c r="R628">
+        <v>1983</v>
+      </c>
+      <c r="AD628">
+        <v>135.77137100910838</v>
+      </c>
+      <c r="AE628">
+        <v>34.69545434962815</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629">
+        <v>904</v>
+      </c>
+      <c r="B629" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C629" t="str">
+        <v>龍王大神社前地蔵堂</v>
+      </c>
+      <c r="F629" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G629" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H629" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I629" t="str">
+        <v>西大寺竜王町１丁目</v>
+      </c>
+      <c r="K629" t="str">
+        <v>龍王大神社前</v>
+      </c>
+      <c r="O629" t="str">
+        <v>子安、延命、開運の三地蔵があり</v>
+      </c>
+      <c r="P629" t="str">
+        <v>2023-10-17</v>
+      </c>
+      <c r="Q629" t="b">
+        <v>1</v>
+      </c>
+      <c r="R629">
+        <v>1985</v>
+      </c>
+      <c r="AD629">
+        <v>135.77239345986985</v>
+      </c>
+      <c r="AE629">
+        <v>34.69587228163983</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630">
+        <v>905</v>
+      </c>
+      <c r="B630" t="str">
+        <v>小神社</v>
+      </c>
+      <c r="C630" t="str">
+        <v>龍王大神社</v>
+      </c>
+      <c r="F630" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G630" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H630" t="str">
+        <v>伏見</v>
+      </c>
+      <c r="I630" t="str">
+        <v>西大寺竜王町１丁目</v>
+      </c>
+      <c r="P630" t="str">
+        <v>2023-10-17</v>
+      </c>
+      <c r="Q630" t="b">
+        <v>1</v>
+      </c>
+      <c r="R630">
+        <v>1988</v>
+      </c>
+      <c r="AD630">
+        <v>135.77245045655621</v>
+      </c>
+      <c r="AE630">
+        <v>34.69594783434117</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631">
+        <v>906</v>
+      </c>
+      <c r="B631" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C631" t="str">
+        <v>法蓮町露座地蔵尊</v>
+      </c>
+      <c r="F631" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G631" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H631" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I631" t="str">
+        <v>法蓮町</v>
+      </c>
+      <c r="P631" t="str">
+        <v>2023-10-19</v>
+      </c>
+      <c r="Q631" t="b">
+        <v>1</v>
+      </c>
+      <c r="R631">
+        <v>1990</v>
+      </c>
+      <c r="AD631">
+        <v>135.8177430478523</v>
+      </c>
+      <c r="AE631">
+        <v>34.69006503725148</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632">
+        <v>907</v>
+      </c>
+      <c r="B632" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C632" t="str">
+        <v>紀寺町敷地内地蔵堂</v>
+      </c>
+      <c r="F632" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G632" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H632" t="str">
+        <v>飛鳥</v>
+      </c>
+      <c r="I632" t="str">
+        <v>紀寺町</v>
+      </c>
+      <c r="K632" t="str">
+        <v>不在家屋の庭先？</v>
+      </c>
+      <c r="P632" t="str">
+        <v>2023-10-30</v>
+      </c>
+      <c r="Q632" t="b">
+        <v>1</v>
+      </c>
+      <c r="R632">
+        <v>1994</v>
+      </c>
+      <c r="AD632">
+        <v>135.8329251039825</v>
+      </c>
+      <c r="AE632">
+        <v>34.671517765829265</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633">
+        <v>908</v>
+      </c>
+      <c r="B633" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C633" t="str">
+        <v>奈保地蔵尊</v>
+      </c>
+      <c r="F633" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G633" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H633" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I633" t="str">
+        <v>奈保町</v>
+      </c>
+      <c r="O633" t="str">
+        <v>大小2つの地蔵堂あり、大の方は「子育地蔵尊」とある</v>
+      </c>
+      <c r="P633" t="str">
+        <v>2023-11-15</v>
+      </c>
+      <c r="Q633" t="b">
+        <v>1</v>
+      </c>
+      <c r="R633">
+        <v>1995</v>
+      </c>
+      <c r="AD633">
+        <v>135.82917379146178</v>
+      </c>
+      <c r="AE633">
+        <v>34.703954116974124</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634">
+        <v>909</v>
+      </c>
+      <c r="B634" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C634" t="str">
+        <v>奈良阪平野町地蔵堂</v>
+      </c>
+      <c r="F634" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G634" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H634" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I634" t="str">
+        <v>奈良阪町</v>
+      </c>
+      <c r="J634" t="str">
+        <v>平野</v>
+      </c>
+      <c r="P634" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="Q634" t="b">
+        <v>1</v>
+      </c>
+      <c r="R634">
+        <v>2004</v>
+      </c>
+      <c r="AD634">
+        <v>135.83614948795378</v>
+      </c>
+      <c r="AE634">
+        <v>34.70446572002455</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635">
+        <v>910</v>
+      </c>
+      <c r="B635" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C635" t="str">
+        <v>奈良阪町県道沿地蔵尊</v>
+      </c>
+      <c r="F635" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G635" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H635" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I635" t="str">
+        <v>奈良阪町</v>
+      </c>
+      <c r="P635" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="Q635" t="b">
+        <v>1</v>
+      </c>
+      <c r="R635">
+        <v>2009</v>
+      </c>
+      <c r="AD635">
+        <v>135.8353526975424</v>
+      </c>
+      <c r="AE635">
+        <v>34.70445520111518</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE625"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE635"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1964"/>
+  <dimension ref="A1:H2012"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -81081,7 +81512,7 @@
         <v>./images/900/16630.jpg</v>
       </c>
       <c r="E1962" t="str">
-        <v>2023-09-26</v>
+        <v>2023-09-26T00:00:00</v>
       </c>
       <c r="F1962" t="str">
         <v>J.Onoue</v>
@@ -81107,7 +81538,7 @@
         <v>./images/900/16633.jpg</v>
       </c>
       <c r="E1963" t="str">
-        <v>2023-09-26</v>
+        <v>2023-09-26T00:00:00</v>
       </c>
       <c r="F1963" t="str">
         <v>J.Onoue</v>
@@ -81133,7 +81564,7 @@
         <v>./images/900/16700.jpg</v>
       </c>
       <c r="E1964" t="str">
-        <v>2023-09-26</v>
+        <v>2023-09-26T00:00:00</v>
       </c>
       <c r="F1964" t="str">
         <v>J.Onoue</v>
@@ -81145,9 +81576,1257 @@
         <v>./small_thumbs/900/16700.jpg</v>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965">
+        <v>1971</v>
+      </c>
+      <c r="B1965">
+        <v>823</v>
+      </c>
+      <c r="C1965" t="str">
+        <v>法蓮佐保田野神</v>
+      </c>
+      <c r="D1965" t="str">
+        <v>./images/823/476490577723523074.jpg</v>
+      </c>
+      <c r="E1965" t="str">
+        <v>2023-10-09T00:00:00</v>
+      </c>
+      <c r="F1965" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1965" t="str">
+        <v>./mid_thumbs/823/476490577723523074.jpg</v>
+      </c>
+      <c r="H1965" t="str">
+        <v>./small_thumbs/823/476490577723523074.jpg</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966">
+        <v>1972</v>
+      </c>
+      <c r="B1966">
+        <v>901</v>
+      </c>
+      <c r="C1966" t="str">
+        <v>鷹塚山権現</v>
+      </c>
+      <c r="D1966" t="str">
+        <v>./images/901/477668156639805490.jpg</v>
+      </c>
+      <c r="E1966" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1966" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1966" t="str">
+        <v>./mid_thumbs/901/477668156639805490.jpg</v>
+      </c>
+      <c r="H1966" t="str">
+        <v>./small_thumbs/901/477668156639805490.jpg</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967">
+        <v>1973</v>
+      </c>
+      <c r="B1967">
+        <v>901</v>
+      </c>
+      <c r="C1967" t="str">
+        <v>鷹塚山権現 内部</v>
+      </c>
+      <c r="D1967" t="str">
+        <v>./images/901/477668156958835076.jpg</v>
+      </c>
+      <c r="E1967" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1967" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1967" t="str">
+        <v>./mid_thumbs/901/477668156958835076.jpg</v>
+      </c>
+      <c r="H1967" t="str">
+        <v>./small_thumbs/901/477668156958835076.jpg</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968">
+        <v>1974</v>
+      </c>
+      <c r="B1968">
+        <v>732</v>
+      </c>
+      <c r="C1968" t="str">
+        <v>鷹塚山地蔵尊 全身</v>
+      </c>
+      <c r="D1968" t="str">
+        <v>./images/732/477668280169922645.jpg</v>
+      </c>
+      <c r="E1968" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1968" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1968" t="str">
+        <v>./mid_thumbs/732/477668280169922645.jpg</v>
+      </c>
+      <c r="H1968" t="str">
+        <v>./small_thumbs/732/477668280169922645.jpg</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969">
+        <v>1975</v>
+      </c>
+      <c r="B1969">
+        <v>732</v>
+      </c>
+      <c r="C1969" t="str">
+        <v>鷹塚山地蔵尊 上半身</v>
+      </c>
+      <c r="D1969" t="str">
+        <v>./images/732/477668280371249250.jpg</v>
+      </c>
+      <c r="E1969" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1969" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1969" t="str">
+        <v>./mid_thumbs/732/477668280371249250.jpg</v>
+      </c>
+      <c r="H1969" t="str">
+        <v>./small_thumbs/732/477668280371249250.jpg</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970">
+        <v>1976</v>
+      </c>
+      <c r="B1970">
+        <v>732</v>
+      </c>
+      <c r="C1970" t="str">
+        <v>鷹塚山地蔵尊 下半身</v>
+      </c>
+      <c r="D1970" t="str">
+        <v>./images/732/477668280740610179.jpg</v>
+      </c>
+      <c r="E1970" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1970" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1970" t="str">
+        <v>./mid_thumbs/732/477668280740610179.jpg</v>
+      </c>
+      <c r="H1970" t="str">
+        <v>./small_thumbs/732/477668280740610179.jpg</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971">
+        <v>1977</v>
+      </c>
+      <c r="B1971">
+        <v>732</v>
+      </c>
+      <c r="C1971" t="str">
+        <v>鷹塚山地蔵尊</v>
+      </c>
+      <c r="D1971" t="str">
+        <v>./images/732/477668281126224323.jpg</v>
+      </c>
+      <c r="E1971" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1971" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1971" t="str">
+        <v>./mid_thumbs/732/477668281126224323.jpg</v>
+      </c>
+      <c r="H1971" t="str">
+        <v>./small_thumbs/732/477668281126224323.jpg</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972">
+        <v>1978</v>
+      </c>
+      <c r="B1972">
+        <v>902</v>
+      </c>
+      <c r="C1972" t="str">
+        <v>光明地蔵尊</v>
+      </c>
+      <c r="D1972" t="str">
+        <v>./images/902/477668768873447617.jpg</v>
+      </c>
+      <c r="E1972" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1972" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1972" t="str">
+        <v>./mid_thumbs/902/477668768873447617.jpg</v>
+      </c>
+      <c r="H1972" t="str">
+        <v>./small_thumbs/902/477668768873447617.jpg</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973">
+        <v>1979</v>
+      </c>
+      <c r="B1973">
+        <v>902</v>
+      </c>
+      <c r="C1973" t="str">
+        <v>光明地蔵尊 拡大</v>
+      </c>
+      <c r="D1973" t="str">
+        <v>./images/902/477668769058521459.jpg</v>
+      </c>
+      <c r="E1973" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1973" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1973" t="str">
+        <v>./mid_thumbs/902/477668769058521459.jpg</v>
+      </c>
+      <c r="H1973" t="str">
+        <v>./small_thumbs/902/477668769058521459.jpg</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974">
+        <v>1980</v>
+      </c>
+      <c r="B1974">
+        <v>902</v>
+      </c>
+      <c r="C1974" t="str">
+        <v>光明地蔵尊 背後石碑</v>
+      </c>
+      <c r="D1974" t="str">
+        <v>./images/902/477668769226293670.jpg</v>
+      </c>
+      <c r="E1974" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1974" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1974" t="str">
+        <v>./mid_thumbs/902/477668769226293670.jpg</v>
+      </c>
+      <c r="H1974" t="str">
+        <v>./small_thumbs/902/477668769226293670.jpg</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975">
+        <v>1981</v>
+      </c>
+      <c r="B1975">
+        <v>902</v>
+      </c>
+      <c r="C1975" t="str">
+        <v>光明地蔵尊 背後石碑</v>
+      </c>
+      <c r="D1975" t="str">
+        <v>./images/902/477668769963966661.jpg</v>
+      </c>
+      <c r="E1975" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1975" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1975" t="str">
+        <v>./mid_thumbs/902/477668769963966661.jpg</v>
+      </c>
+      <c r="H1975" t="str">
+        <v>./small_thumbs/902/477668769963966661.jpg</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976">
+        <v>1982</v>
+      </c>
+      <c r="B1976">
+        <v>903</v>
+      </c>
+      <c r="C1976" t="str">
+        <v>融通寺門前祠 内部</v>
+      </c>
+      <c r="D1976" t="str">
+        <v>./images/903/477668770014822403.jpg</v>
+      </c>
+      <c r="E1976" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1976" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1976" t="str">
+        <v>./mid_thumbs/903/477668770014822403.jpg</v>
+      </c>
+      <c r="H1976" t="str">
+        <v>./small_thumbs/903/477668770014822403.jpg</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977">
+        <v>1983</v>
+      </c>
+      <c r="B1977">
+        <v>903</v>
+      </c>
+      <c r="C1977" t="str">
+        <v>融通寺門前祠 光明地蔵尊を含む近景</v>
+      </c>
+      <c r="D1977" t="str">
+        <v>./images/903/477668770735718577.jpg</v>
+      </c>
+      <c r="E1977" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1977" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1977" t="str">
+        <v>./mid_thumbs/903/477668770735718577.jpg</v>
+      </c>
+      <c r="H1977" t="str">
+        <v>./small_thumbs/903/477668770735718577.jpg</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978">
+        <v>1984</v>
+      </c>
+      <c r="B1978">
+        <v>903</v>
+      </c>
+      <c r="C1978" t="str">
+        <v>融通寺門前祠 融通寺を含む遠景</v>
+      </c>
+      <c r="D1978" t="str">
+        <v>./images/903/477668772145004641.jpg</v>
+      </c>
+      <c r="E1978" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1978" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1978" t="str">
+        <v>./mid_thumbs/903/477668772145004641.jpg</v>
+      </c>
+      <c r="H1978" t="str">
+        <v>./small_thumbs/903/477668772145004641.jpg</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979">
+        <v>1985</v>
+      </c>
+      <c r="B1979">
+        <v>904</v>
+      </c>
+      <c r="C1979" t="str">
+        <v>龍王大神社前地蔵堂</v>
+      </c>
+      <c r="D1979" t="str">
+        <v>./images/904/477669104484876710.jpg</v>
+      </c>
+      <c r="E1979" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1979" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1979" t="str">
+        <v>./mid_thumbs/904/477669104484876710.jpg</v>
+      </c>
+      <c r="H1979" t="str">
+        <v>./small_thumbs/904/477669104484876710.jpg</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980">
+        <v>1986</v>
+      </c>
+      <c r="B1980">
+        <v>904</v>
+      </c>
+      <c r="C1980" t="str">
+        <v>龍王大神社前地蔵堂 龍王大神社を含む遠景</v>
+      </c>
+      <c r="D1980" t="str">
+        <v>./images/904/477669104585801769.jpg</v>
+      </c>
+      <c r="E1980" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1980" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1980" t="str">
+        <v>./mid_thumbs/904/477669104585801769.jpg</v>
+      </c>
+      <c r="H1980" t="str">
+        <v>./small_thumbs/904/477669104585801769.jpg</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981">
+        <v>1987</v>
+      </c>
+      <c r="B1981">
+        <v>905</v>
+      </c>
+      <c r="C1981" t="str">
+        <v>龍王大神社 西の祠</v>
+      </c>
+      <c r="D1981" t="str">
+        <v>./images/905/477669104887792088.jpg</v>
+      </c>
+      <c r="E1981" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1981" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1981" t="str">
+        <v>./mid_thumbs/905/477669104887792088.jpg</v>
+      </c>
+      <c r="H1981" t="str">
+        <v>./small_thumbs/905/477669104887792088.jpg</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982">
+        <v>1988</v>
+      </c>
+      <c r="B1982">
+        <v>905</v>
+      </c>
+      <c r="C1982" t="str">
+        <v>龍王大神社 両祠</v>
+      </c>
+      <c r="D1982" t="str">
+        <v>./images/905/477669105173004749.jpg</v>
+      </c>
+      <c r="E1982" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1982" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1982" t="str">
+        <v>./mid_thumbs/905/477669105173004749.jpg</v>
+      </c>
+      <c r="H1982" t="str">
+        <v>./small_thumbs/905/477669105173004749.jpg</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983">
+        <v>1989</v>
+      </c>
+      <c r="B1983">
+        <v>905</v>
+      </c>
+      <c r="C1983" t="str">
+        <v>龍王大神社 東の祠</v>
+      </c>
+      <c r="D1983" t="str">
+        <v>./images/905/477669105827316038.jpg</v>
+      </c>
+      <c r="E1983" t="str">
+        <v>2023-10-17T00:00:00</v>
+      </c>
+      <c r="F1983" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1983" t="str">
+        <v>./mid_thumbs/905/477669105827316038.jpg</v>
+      </c>
+      <c r="H1983" t="str">
+        <v>./small_thumbs/905/477669105827316038.jpg</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984">
+        <v>1990</v>
+      </c>
+      <c r="B1984">
+        <v>906</v>
+      </c>
+      <c r="C1984" t="str">
+        <v>法蓮町露座地蔵尊</v>
+      </c>
+      <c r="D1984" t="str">
+        <v>./images/906/477938059531518575.jpg</v>
+      </c>
+      <c r="E1984" t="str">
+        <v>2023-10-19T00:00:00</v>
+      </c>
+      <c r="F1984" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1984" t="str">
+        <v>./mid_thumbs/906/477938059531518575.jpg</v>
+      </c>
+      <c r="H1984" t="str">
+        <v>./small_thumbs/906/477938059531518575.jpg</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985">
+        <v>1991</v>
+      </c>
+      <c r="B1985">
+        <v>906</v>
+      </c>
+      <c r="C1985" t="str">
+        <v>法蓮町露座地蔵尊 台座</v>
+      </c>
+      <c r="D1985" t="str">
+        <v>./images/906/477938060085690468.jpg</v>
+      </c>
+      <c r="E1985" t="str">
+        <v>2023-10-19T00:00:00</v>
+      </c>
+      <c r="F1985" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1985" t="str">
+        <v>./mid_thumbs/906/477938060085690468.jpg</v>
+      </c>
+      <c r="H1985" t="str">
+        <v>./small_thumbs/906/477938060085690468.jpg</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986">
+        <v>1992</v>
+      </c>
+      <c r="B1986">
+        <v>907</v>
+      </c>
+      <c r="C1986" t="str">
+        <v>紀寺町敷地内地蔵堂 庭先ともの遠景</v>
+      </c>
+      <c r="D1986" t="str">
+        <v>./images/907/479550124906512730.jpg</v>
+      </c>
+      <c r="E1986" t="str">
+        <v>2023-10-30T00:00:00</v>
+      </c>
+      <c r="F1986" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1986" t="str">
+        <v>./mid_thumbs/907/479550124906512730.jpg</v>
+      </c>
+      <c r="H1986" t="str">
+        <v>./small_thumbs/907/479550124906512730.jpg</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987">
+        <v>1993</v>
+      </c>
+      <c r="B1987">
+        <v>907</v>
+      </c>
+      <c r="C1987" t="str">
+        <v>紀寺町敷地内地蔵堂 内部</v>
+      </c>
+      <c r="D1987" t="str">
+        <v>./images/907/479550125560037508.jpg</v>
+      </c>
+      <c r="E1987" t="str">
+        <v>2023-10-30T00:00:00</v>
+      </c>
+      <c r="F1987" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1987" t="str">
+        <v>./mid_thumbs/907/479550125560037508.jpg</v>
+      </c>
+      <c r="H1987" t="str">
+        <v>./small_thumbs/907/479550125560037508.jpg</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988">
+        <v>1994</v>
+      </c>
+      <c r="B1988">
+        <v>907</v>
+      </c>
+      <c r="C1988" t="str">
+        <v>紀寺町敷地内地蔵堂</v>
+      </c>
+      <c r="D1988" t="str">
+        <v>./images/907/479550125963215333.jpg</v>
+      </c>
+      <c r="E1988" t="str">
+        <v>2023-10-30T00:00:00</v>
+      </c>
+      <c r="F1988" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1988" t="str">
+        <v>./mid_thumbs/907/479550125963215333.jpg</v>
+      </c>
+      <c r="H1988" t="str">
+        <v>./small_thumbs/907/479550125963215333.jpg</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989">
+        <v>1995</v>
+      </c>
+      <c r="B1989">
+        <v>908</v>
+      </c>
+      <c r="C1989" t="str">
+        <v>奈保地蔵尊</v>
+      </c>
+      <c r="D1989" t="str">
+        <v>./images/908/481868006835356147.jpg</v>
+      </c>
+      <c r="E1989" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1989" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1989" t="str">
+        <v>./mid_thumbs/908/481868006835356147.jpg</v>
+      </c>
+      <c r="H1989" t="str">
+        <v>./small_thumbs/908/481868006835356147.jpg</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990">
+        <v>1996</v>
+      </c>
+      <c r="B1990">
+        <v>908</v>
+      </c>
+      <c r="C1990" t="str">
+        <v>奈保地蔵尊 小地蔵堂</v>
+      </c>
+      <c r="D1990" t="str">
+        <v>./images/908/481868007237746917.jpg</v>
+      </c>
+      <c r="E1990" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1990" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1990" t="str">
+        <v>./mid_thumbs/908/481868007237746917.jpg</v>
+      </c>
+      <c r="H1990" t="str">
+        <v>./small_thumbs/908/481868007237746917.jpg</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991">
+        <v>1997</v>
+      </c>
+      <c r="B1991">
+        <v>908</v>
+      </c>
+      <c r="C1991" t="str">
+        <v>奈保地蔵尊 子育地蔵尊右側</v>
+      </c>
+      <c r="D1991" t="str">
+        <v>./images/908/481868007573291352.jpg</v>
+      </c>
+      <c r="E1991" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1991" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1991" t="str">
+        <v>./mid_thumbs/908/481868007573291352.jpg</v>
+      </c>
+      <c r="H1991" t="str">
+        <v>./small_thumbs/908/481868007573291352.jpg</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992">
+        <v>1998</v>
+      </c>
+      <c r="B1992">
+        <v>908</v>
+      </c>
+      <c r="C1992" t="str">
+        <v>奈保地蔵尊 子育地蔵尊左側</v>
+      </c>
+      <c r="D1992" t="str">
+        <v>./images/908/481868008042528902.jpg</v>
+      </c>
+      <c r="E1992" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1992" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1992" t="str">
+        <v>./mid_thumbs/908/481868008042528902.jpg</v>
+      </c>
+      <c r="H1992" t="str">
+        <v>./small_thumbs/908/481868008042528902.jpg</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993">
+        <v>1999</v>
+      </c>
+      <c r="B1993">
+        <v>585</v>
+      </c>
+      <c r="C1993" t="str">
+        <v>地蔵堂 2023年</v>
+      </c>
+      <c r="D1993" t="str">
+        <v>./images/585/481868139190026861.jpg</v>
+      </c>
+      <c r="E1993" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1993" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1993" t="str">
+        <v>./mid_thumbs/585/481868139190026861.jpg</v>
+      </c>
+      <c r="H1993" t="str">
+        <v>./small_thumbs/585/481868139190026861.jpg</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994">
+        <v>2000</v>
+      </c>
+      <c r="B1994">
+        <v>585</v>
+      </c>
+      <c r="C1994" t="str">
+        <v>地蔵堂 内部2023年</v>
+      </c>
+      <c r="D1994" t="str">
+        <v>./images/585/481868139777753637.jpg</v>
+      </c>
+      <c r="E1994" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1994" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1994" t="str">
+        <v>./mid_thumbs/585/481868139777753637.jpg</v>
+      </c>
+      <c r="H1994" t="str">
+        <v>./small_thumbs/585/481868139777753637.jpg</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995">
+        <v>2001</v>
+      </c>
+      <c r="B1995">
+        <v>585</v>
+      </c>
+      <c r="C1995" t="str">
+        <v>地蔵堂 内部2023年</v>
+      </c>
+      <c r="D1995" t="str">
+        <v>./images/585/481868140163367262.jpg</v>
+      </c>
+      <c r="E1995" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1995" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1995" t="str">
+        <v>./mid_thumbs/585/481868140163367262.jpg</v>
+      </c>
+      <c r="H1995" t="str">
+        <v>./small_thumbs/585/481868140163367262.jpg</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996">
+        <v>2002</v>
+      </c>
+      <c r="B1996">
+        <v>585</v>
+      </c>
+      <c r="C1996" t="str">
+        <v>地蔵堂 内部2023年</v>
+      </c>
+      <c r="D1996" t="str">
+        <v>./images/585/481868140381470724.jpg</v>
+      </c>
+      <c r="E1996" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1996" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1996" t="str">
+        <v>./mid_thumbs/585/481868140381470724.jpg</v>
+      </c>
+      <c r="H1996" t="str">
+        <v>./small_thumbs/585/481868140381470724.jpg</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997">
+        <v>2003</v>
+      </c>
+      <c r="B1997">
+        <v>585</v>
+      </c>
+      <c r="C1997" t="str">
+        <v>地蔵堂 内部2023年</v>
+      </c>
+      <c r="D1997" t="str">
+        <v>./images/585/481868140683723284.jpg</v>
+      </c>
+      <c r="E1997" t="str">
+        <v>2023-11-15T00:00:00</v>
+      </c>
+      <c r="F1997" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1997" t="str">
+        <v>./mid_thumbs/585/481868140683723284.jpg</v>
+      </c>
+      <c r="H1997" t="str">
+        <v>./small_thumbs/585/481868140683723284.jpg</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998">
+        <v>2004</v>
+      </c>
+      <c r="B1998">
+        <v>909</v>
+      </c>
+      <c r="C1998" t="str">
+        <v>奈良阪平野町地蔵堂</v>
+      </c>
+      <c r="D1998" t="str">
+        <v>./images/909/481996165722669269.jpg</v>
+      </c>
+      <c r="E1998" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F1998" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1998" t="str">
+        <v>./mid_thumbs/909/481996165722669269.jpg</v>
+      </c>
+      <c r="H1998" t="str">
+        <v>./small_thumbs/909/481996165722669269.jpg</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999">
+        <v>2005</v>
+      </c>
+      <c r="B1999">
+        <v>909</v>
+      </c>
+      <c r="C1999" t="str">
+        <v>奈良阪平野町地蔵堂 内部</v>
+      </c>
+      <c r="D1999" t="str">
+        <v>./images/909/481996165790302567.jpg</v>
+      </c>
+      <c r="E1999" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F1999" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G1999" t="str">
+        <v>./mid_thumbs/909/481996165790302567.jpg</v>
+      </c>
+      <c r="H1999" t="str">
+        <v>./small_thumbs/909/481996165790302567.jpg</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000">
+        <v>2006</v>
+      </c>
+      <c r="B2000">
+        <v>909</v>
+      </c>
+      <c r="C2000" t="str">
+        <v>奈良阪平野町地蔵堂 扉を開けた状態</v>
+      </c>
+      <c r="D2000" t="str">
+        <v>./images/909/481996166260326692.jpg</v>
+      </c>
+      <c r="E2000" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2000" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2000" t="str">
+        <v>./mid_thumbs/909/481996166260326692.jpg</v>
+      </c>
+      <c r="H2000" t="str">
+        <v>./small_thumbs/909/481996166260326692.jpg</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001">
+        <v>2007</v>
+      </c>
+      <c r="B2001">
+        <v>909</v>
+      </c>
+      <c r="C2001" t="str">
+        <v>奈良阪平野町地蔵堂 扉を開けた状態</v>
+      </c>
+      <c r="D2001" t="str">
+        <v>./images/909/481996166779634033.jpg</v>
+      </c>
+      <c r="E2001" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2001" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2001" t="str">
+        <v>./mid_thumbs/909/481996166779634033.jpg</v>
+      </c>
+      <c r="H2001" t="str">
+        <v>./small_thumbs/909/481996166779634033.jpg</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002">
+        <v>2008</v>
+      </c>
+      <c r="B2002">
+        <v>909</v>
+      </c>
+      <c r="C2002" t="str">
+        <v>奈良阪平野町地蔵堂 遠景</v>
+      </c>
+      <c r="D2002" t="str">
+        <v>./images/909/481996166981747090.jpg</v>
+      </c>
+      <c r="E2002" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2002" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2002" t="str">
+        <v>./mid_thumbs/909/481996166981747090.jpg</v>
+      </c>
+      <c r="H2002" t="str">
+        <v>./small_thumbs/909/481996166981747090.jpg</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003">
+        <v>2009</v>
+      </c>
+      <c r="B2003">
+        <v>910</v>
+      </c>
+      <c r="C2003" t="str">
+        <v>奈良阪町県道沿地蔵尊</v>
+      </c>
+      <c r="D2003" t="str">
+        <v>./images/910/481996530643894535.jpg</v>
+      </c>
+      <c r="E2003" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2003" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2003" t="str">
+        <v>./mid_thumbs/910/481996530643894535.jpg</v>
+      </c>
+      <c r="H2003" t="str">
+        <v>./small_thumbs/910/481996530643894535.jpg</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004">
+        <v>2010</v>
+      </c>
+      <c r="B2004">
+        <v>910</v>
+      </c>
+      <c r="C2004" t="str">
+        <v>奈良阪町県道沿地蔵尊</v>
+      </c>
+      <c r="D2004" t="str">
+        <v>./images/910/481996530980225334.jpg</v>
+      </c>
+      <c r="E2004" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2004" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2004" t="str">
+        <v>./mid_thumbs/910/481996530980225334.jpg</v>
+      </c>
+      <c r="H2004" t="str">
+        <v>./small_thumbs/910/481996530980225334.jpg</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005">
+        <v>2011</v>
+      </c>
+      <c r="B2005">
+        <v>910</v>
+      </c>
+      <c r="C2005" t="str">
+        <v>奈良阪町県道沿地蔵尊</v>
+      </c>
+      <c r="D2005" t="str">
+        <v>./images/910/481996531700859057.jpg</v>
+      </c>
+      <c r="E2005" t="str">
+        <v>2023-11-16T00:00:00</v>
+      </c>
+      <c r="F2005" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2005" t="str">
+        <v>./mid_thumbs/910/481996531700859057.jpg</v>
+      </c>
+      <c r="H2005" t="str">
+        <v>./small_thumbs/910/481996531700859057.jpg</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006">
+        <v>2012</v>
+      </c>
+      <c r="B2006">
+        <v>864</v>
+      </c>
+      <c r="C2006" t="str">
+        <v>秋篠寺北地蔵</v>
+      </c>
+      <c r="D2006" t="str">
+        <v>./images/864/1544bf488ef6f5c8de81d1016d15da52.jpg</v>
+      </c>
+      <c r="E2006" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2006" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2006" t="str">
+        <v>./mid_thumbs/864/1544bf488ef6f5c8de81d1016d15da52.jpg</v>
+      </c>
+      <c r="H2006" t="str">
+        <v>./small_thumbs/864/1544bf488ef6f5c8de81d1016d15da52.jpg</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007">
+        <v>2013</v>
+      </c>
+      <c r="B2007">
+        <v>864</v>
+      </c>
+      <c r="C2007" t="str">
+        <v>秋篠寺北地蔵 拡大</v>
+      </c>
+      <c r="D2007" t="str">
+        <v>./images/864/4dc12f15ddccfd75618dfb5e7feb8856.jpg</v>
+      </c>
+      <c r="E2007" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2007" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2007" t="str">
+        <v>./mid_thumbs/864/4dc12f15ddccfd75618dfb5e7feb8856.jpg</v>
+      </c>
+      <c r="H2007" t="str">
+        <v>./small_thumbs/864/4dc12f15ddccfd75618dfb5e7feb8856.jpg</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008">
+        <v>2014</v>
+      </c>
+      <c r="B2008">
+        <v>864</v>
+      </c>
+      <c r="C2008" t="str">
+        <v>秋篠寺北地蔵</v>
+      </c>
+      <c r="D2008" t="str">
+        <v>./images/864/7199dedba69ceeddfab514e23d714010.jpg</v>
+      </c>
+      <c r="E2008" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2008" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2008" t="str">
+        <v>./mid_thumbs/864/7199dedba69ceeddfab514e23d714010.jpg</v>
+      </c>
+      <c r="H2008" t="str">
+        <v>./small_thumbs/864/7199dedba69ceeddfab514e23d714010.jpg</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009">
+        <v>2015</v>
+      </c>
+      <c r="B2009">
+        <v>731</v>
+      </c>
+      <c r="C2009" t="str">
+        <v>あやめ池南３丁目地蔵尊 近景</v>
+      </c>
+      <c r="D2009" t="str">
+        <v>./images/731/a6eb0e6ac609de37c7a9372b8ff13e8c.jpg</v>
+      </c>
+      <c r="E2009" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2009" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2009" t="str">
+        <v>./mid_thumbs/731/a6eb0e6ac609de37c7a9372b8ff13e8c.jpg</v>
+      </c>
+      <c r="H2009" t="str">
+        <v>./small_thumbs/731/a6eb0e6ac609de37c7a9372b8ff13e8c.jpg</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010">
+        <v>2016</v>
+      </c>
+      <c r="B2010">
+        <v>731</v>
+      </c>
+      <c r="C2010" t="str">
+        <v>あやめ池南３丁目地蔵尊 内部</v>
+      </c>
+      <c r="D2010" t="str">
+        <v>./images/731/c32f082eb86f7df3af43064b12b4ccba.jpg</v>
+      </c>
+      <c r="E2010" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2010" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2010" t="str">
+        <v>./mid_thumbs/731/c32f082eb86f7df3af43064b12b4ccba.jpg</v>
+      </c>
+      <c r="H2010" t="str">
+        <v>./small_thumbs/731/c32f082eb86f7df3af43064b12b4ccba.jpg</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011">
+        <v>2017</v>
+      </c>
+      <c r="B2011">
+        <v>731</v>
+      </c>
+      <c r="C2011" t="str">
+        <v>あやめ池南３丁目地蔵尊 遠景</v>
+      </c>
+      <c r="D2011" t="str">
+        <v>./images/731/d0fb9f43dafe8d932f50640f203b3715.jpg</v>
+      </c>
+      <c r="E2011" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2011" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2011" t="str">
+        <v>./mid_thumbs/731/d0fb9f43dafe8d932f50640f203b3715.jpg</v>
+      </c>
+      <c r="H2011" t="str">
+        <v>./small_thumbs/731/d0fb9f43dafe8d932f50640f203b3715.jpg</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012">
+        <v>2018</v>
+      </c>
+      <c r="B2012">
+        <v>731</v>
+      </c>
+      <c r="C2012" t="str">
+        <v>あやめ池南３丁目地蔵尊</v>
+      </c>
+      <c r="D2012" t="str">
+        <v>./images/731/e070364f480201d1d3a2f23854bb640c.jpg</v>
+      </c>
+      <c r="E2012" t="str">
+        <v>2023-10-11T00:00:00</v>
+      </c>
+      <c r="F2012" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2012" t="str">
+        <v>./mid_thumbs/731/e070364f480201d1d3a2f23854bb640c.jpg</v>
+      </c>
+      <c r="H2012" t="str">
+        <v>./small_thumbs/731/e070364f480201d1d3a2f23854bb640c.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1964"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2012"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE635"/>
+  <dimension ref="A1:AE636"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -30498,16 +30498,54 @@
         <v>34.70445520111518</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636">
+        <v>911</v>
+      </c>
+      <c r="B636" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C636" t="str">
+        <v>船橋町地蔵尊</v>
+      </c>
+      <c r="F636" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G636" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H636" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I636" t="str">
+        <v>船橋町</v>
+      </c>
+      <c r="P636" t="str">
+        <v>2023-11-29</v>
+      </c>
+      <c r="Q636" t="b">
+        <v>1</v>
+      </c>
+      <c r="R636">
+        <v>2022</v>
+      </c>
+      <c r="AD636">
+        <v>135.82160029133198</v>
+      </c>
+      <c r="AE636">
+        <v>34.68803885166785</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE635"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE636"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2012"/>
+  <dimension ref="A1:H2016"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -82824,9 +82862,113 @@
         <v>./small_thumbs/731/e070364f480201d1d3a2f23854bb640c.jpg</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013">
+        <v>2019</v>
+      </c>
+      <c r="B2013">
+        <v>911</v>
+      </c>
+      <c r="C2013" t="str">
+        <v>船橋町地蔵尊 主尊</v>
+      </c>
+      <c r="D2013" t="str">
+        <v>./images/911/483886146552856758.jpg</v>
+      </c>
+      <c r="E2013" t="str">
+        <v>2023-11-29T00:00:00</v>
+      </c>
+      <c r="F2013" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2013" t="str">
+        <v>./mid_thumbs/911/483886146552856758.jpg</v>
+      </c>
+      <c r="H2013" t="str">
+        <v>./small_thumbs/911/483886146552856758.jpg</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014">
+        <v>2020</v>
+      </c>
+      <c r="B2014">
+        <v>911</v>
+      </c>
+      <c r="C2014" t="str">
+        <v>船橋町地蔵尊 内部</v>
+      </c>
+      <c r="D2014" t="str">
+        <v>./images/911/483886147072950294.jpg</v>
+      </c>
+      <c r="E2014" t="str">
+        <v>2023-11-29T00:00:00</v>
+      </c>
+      <c r="F2014" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2014" t="str">
+        <v>./mid_thumbs/911/483886147072950294.jpg</v>
+      </c>
+      <c r="H2014" t="str">
+        <v>./small_thumbs/911/483886147072950294.jpg</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015">
+        <v>2021</v>
+      </c>
+      <c r="B2015">
+        <v>911</v>
+      </c>
+      <c r="C2015" t="str">
+        <v>船橋町地蔵尊 内部右奥</v>
+      </c>
+      <c r="D2015" t="str">
+        <v>./images/911/483886147509420181.jpg</v>
+      </c>
+      <c r="E2015" t="str">
+        <v>2023-11-29T00:00:00</v>
+      </c>
+      <c r="F2015" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2015" t="str">
+        <v>./mid_thumbs/911/483886147509420181.jpg</v>
+      </c>
+      <c r="H2015" t="str">
+        <v>./small_thumbs/911/483886147509420181.jpg</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016">
+        <v>2022</v>
+      </c>
+      <c r="B2016">
+        <v>911</v>
+      </c>
+      <c r="C2016" t="str">
+        <v>船橋町地蔵尊</v>
+      </c>
+      <c r="D2016" t="str">
+        <v>./images/911/483886148029775972.jpg</v>
+      </c>
+      <c r="E2016" t="str">
+        <v>2023-11-29T00:00:00</v>
+      </c>
+      <c r="F2016" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2016" t="str">
+        <v>./mid_thumbs/911/483886148029775972.jpg</v>
+      </c>
+      <c r="H2016" t="str">
+        <v>./small_thumbs/911/483886148029775972.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2012"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2016"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE636"/>
+  <dimension ref="A1:AE639"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -25518,6 +25518,9 @@
       <c r="C528" t="str">
         <v>腰痛地蔵尊</v>
       </c>
+      <c r="D528" t="str">
+        <v>不明</v>
+      </c>
       <c r="F528" t="str">
         <v>奈良県</v>
       </c>
@@ -25533,14 +25536,20 @@
       <c r="O528" t="str">
         <v>南庄町 腰痛地蔵尊</v>
       </c>
+      <c r="P528" t="str">
+        <v>2024-01-31</v>
+      </c>
       <c r="Q528" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R528">
+        <v>2028</v>
       </c>
       <c r="W528" t="str">
         <v/>
       </c>
       <c r="AB528" t="str">
-        <v>Google Mapsで発見、要調査</v>
+        <v/>
       </c>
       <c r="AC528" t="str">
         <v/>
@@ -30536,16 +30545,151 @@
         <v>34.68803885166785</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637">
+        <v>912</v>
+      </c>
+      <c r="B637" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C637" t="str">
+        <v>なごみ地蔵</v>
+      </c>
+      <c r="D637" t="str">
+        <v>不明</v>
+      </c>
+      <c r="E637" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="F637" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="G637" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="H637" t="str">
+        <v>六条2丁目</v>
+      </c>
+      <c r="P637" t="str">
+        <v>2024-01-16</v>
+      </c>
+      <c r="Q637" t="b">
+        <v>1</v>
+      </c>
+      <c r="R637">
+        <v>2023</v>
+      </c>
+      <c r="X637" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD637">
+        <v>135.77310153936486</v>
+      </c>
+      <c r="AE637">
+        <v>34.668743749470536</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638">
+        <v>913</v>
+      </c>
+      <c r="B638" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C638" t="str">
+        <v>住吉神社境内地蔵尊</v>
+      </c>
+      <c r="D638" t="str">
+        <v/>
+      </c>
+      <c r="E638" t="str">
+        <v/>
+      </c>
+      <c r="F638" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G638" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H638" t="str">
+        <v>椿井</v>
+      </c>
+      <c r="I638" t="str">
+        <v>勝南院町</v>
+      </c>
+      <c r="K638" t="str">
+        <v>住吉神社境内</v>
+      </c>
+      <c r="P638" t="str">
+        <v>2024-01-21</v>
+      </c>
+      <c r="Q638" t="b">
+        <v>1</v>
+      </c>
+      <c r="R638">
+        <v>2025</v>
+      </c>
+      <c r="AD638">
+        <v>135.83055784962022</v>
+      </c>
+      <c r="AE638">
+        <v>34.67891702235413</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639">
+        <v>914</v>
+      </c>
+      <c r="B639" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C639" t="str">
+        <v>二名4丁目地蔵尊</v>
+      </c>
+      <c r="D639" t="str">
+        <v>不明</v>
+      </c>
+      <c r="E639" t="str">
+        <v/>
+      </c>
+      <c r="F639" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G639" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H639" t="str">
+        <v>富雄</v>
+      </c>
+      <c r="I639" t="str">
+        <v>二名4丁目</v>
+      </c>
+      <c r="P639" t="str">
+        <v>2024-01-31</v>
+      </c>
+      <c r="Q639" t="b">
+        <v>1</v>
+      </c>
+      <c r="R639">
+        <v>2035</v>
+      </c>
+      <c r="AD639">
+        <v>135.7301900579443</v>
+      </c>
+      <c r="AE639">
+        <v>34.7090755198518</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE636"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE639"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2016"/>
+  <dimension ref="A1:H2030"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -82966,9 +83110,373 @@
         <v>./small_thumbs/911/483886148029775972.jpg</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017">
+        <v>2023</v>
+      </c>
+      <c r="B2017">
+        <v>912</v>
+      </c>
+      <c r="C2017" t="str">
+        <v>なごみ地蔵</v>
+      </c>
+      <c r="D2017" t="str">
+        <v>./images/912/IMG_3890.jpg</v>
+      </c>
+      <c r="E2017" t="str">
+        <v>2024-01-16T22:00:00</v>
+      </c>
+      <c r="F2017" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2017" t="str">
+        <v>./mid_thumbs/912/IMG_3890.jpg</v>
+      </c>
+      <c r="H2017" t="str">
+        <v>./small_thumbs/912/IMG_3890.jpg</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018">
+        <v>2024</v>
+      </c>
+      <c r="B2018">
+        <v>912</v>
+      </c>
+      <c r="C2018" t="str">
+        <v>なごみ地蔵 近影</v>
+      </c>
+      <c r="D2018" t="str">
+        <v>./images/912/IMG_3891.jpg</v>
+      </c>
+      <c r="E2018" t="str">
+        <v>2024-01-16T22:00:00</v>
+      </c>
+      <c r="F2018" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2018" t="str">
+        <v>./mid_thumbs/912/IMG_3891.jpg</v>
+      </c>
+      <c r="H2018" t="str">
+        <v>./small_thumbs/912/IMG_3891.jpg</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019">
+        <v>2025</v>
+      </c>
+      <c r="B2019">
+        <v>913</v>
+      </c>
+      <c r="C2019" t="str">
+        <v>住吉神社境内地蔵尊</v>
+      </c>
+      <c r="D2019" t="str">
+        <v>./images/913/IMG_3899.jpg</v>
+      </c>
+      <c r="E2019" t="str">
+        <v>2024-01-21T19:51:00</v>
+      </c>
+      <c r="F2019" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2019" t="str">
+        <v>./mid_thumbs/913/IMG_3899.jpg</v>
+      </c>
+      <c r="H2019" t="str">
+        <v>./small_thumbs/913/IMG_3899.jpg</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020">
+        <v>2026</v>
+      </c>
+      <c r="B2020">
+        <v>913</v>
+      </c>
+      <c r="C2020" t="str">
+        <v>住吉神社境内地蔵尊 拡大</v>
+      </c>
+      <c r="D2020" t="str">
+        <v>./images/913/IMG_3900.jpg</v>
+      </c>
+      <c r="E2020" t="str">
+        <v>2024-01-21T19:51:00</v>
+      </c>
+      <c r="F2020" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2020" t="str">
+        <v>./mid_thumbs/913/IMG_3900.jpg</v>
+      </c>
+      <c r="H2020" t="str">
+        <v>./small_thumbs/913/IMG_3900.jpg</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021">
+        <v>2027</v>
+      </c>
+      <c r="B2021">
+        <v>803</v>
+      </c>
+      <c r="C2021" t="str">
+        <v>腰痛地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D2021" t="str">
+        <v>./images/803/IMG_3902.jpg</v>
+      </c>
+      <c r="E2021" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2021" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2021" t="str">
+        <v>./mid_thumbs/803/IMG_3902.jpg</v>
+      </c>
+      <c r="H2021" t="str">
+        <v>./small_thumbs/803/IMG_3902.jpg</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022">
+        <v>2028</v>
+      </c>
+      <c r="B2022">
+        <v>803</v>
+      </c>
+      <c r="C2022" t="str">
+        <v>腰痛地蔵尊</v>
+      </c>
+      <c r="D2022" t="str">
+        <v>./images/803/IMG_3903.jpg</v>
+      </c>
+      <c r="E2022" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2022" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2022" t="str">
+        <v>./mid_thumbs/803/IMG_3903.jpg</v>
+      </c>
+      <c r="H2022" t="str">
+        <v>./small_thumbs/803/IMG_3903.jpg</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023">
+        <v>2029</v>
+      </c>
+      <c r="B2023">
+        <v>803</v>
+      </c>
+      <c r="C2023" t="str">
+        <v>腰痛地蔵尊 説明板右半</v>
+      </c>
+      <c r="D2023" t="str">
+        <v>./images/803/IMG_3904.jpg</v>
+      </c>
+      <c r="E2023" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2023" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2023" t="str">
+        <v>./mid_thumbs/803/IMG_3904.jpg</v>
+      </c>
+      <c r="H2023" t="str">
+        <v>./small_thumbs/803/IMG_3904.jpg</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024">
+        <v>2030</v>
+      </c>
+      <c r="B2024">
+        <v>803</v>
+      </c>
+      <c r="C2024" t="str">
+        <v>腰痛地蔵尊 腰痛地蔵尊 説明板左半</v>
+      </c>
+      <c r="D2024" t="str">
+        <v>./images/803/IMG_3906.jpg</v>
+      </c>
+      <c r="E2024" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2024" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2024" t="str">
+        <v>./mid_thumbs/803/IMG_3906.jpg</v>
+      </c>
+      <c r="H2024" t="str">
+        <v>./small_thumbs/803/IMG_3906.jpg</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025">
+        <v>2031</v>
+      </c>
+      <c r="B2025">
+        <v>803</v>
+      </c>
+      <c r="C2025" t="str">
+        <v>腰痛地蔵尊 主尊</v>
+      </c>
+      <c r="D2025" t="str">
+        <v>./images/803/IMG_3907.jpg</v>
+      </c>
+      <c r="E2025" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2025" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2025" t="str">
+        <v>./mid_thumbs/803/IMG_3907.jpg</v>
+      </c>
+      <c r="H2025" t="str">
+        <v>./small_thumbs/803/IMG_3907.jpg</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026">
+        <v>2032</v>
+      </c>
+      <c r="B2026">
+        <v>803</v>
+      </c>
+      <c r="C2026" t="str">
+        <v>腰痛地蔵尊 圭頭型梵字板碑</v>
+      </c>
+      <c r="D2026" t="str">
+        <v>./images/803/IMG_3908.jpg</v>
+      </c>
+      <c r="E2026" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2026" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2026" t="str">
+        <v>./mid_thumbs/803/IMG_3908.jpg</v>
+      </c>
+      <c r="H2026" t="str">
+        <v>./small_thumbs/803/IMG_3908.jpg</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027">
+        <v>2033</v>
+      </c>
+      <c r="B2027">
+        <v>803</v>
+      </c>
+      <c r="C2027" t="str">
+        <v>腰痛地蔵尊 石龕地蔵尊</v>
+      </c>
+      <c r="D2027" t="str">
+        <v>./images/803/IMG_3909.jpg</v>
+      </c>
+      <c r="E2027" t="str">
+        <v>2024-01-31T08:08:00</v>
+      </c>
+      <c r="F2027" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2027" t="str">
+        <v>./mid_thumbs/803/IMG_3909.jpg</v>
+      </c>
+      <c r="H2027" t="str">
+        <v>./small_thumbs/803/IMG_3909.jpg</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028">
+        <v>2034</v>
+      </c>
+      <c r="B2028">
+        <v>914</v>
+      </c>
+      <c r="C2028" t="str">
+        <v>二名4丁目地蔵尊</v>
+      </c>
+      <c r="D2028" t="str">
+        <v>./images/914/IMG_3913.jpg</v>
+      </c>
+      <c r="E2028" t="str">
+        <v>2024-01-31T22:39:00</v>
+      </c>
+      <c r="F2028" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2028" t="str">
+        <v>./mid_thumbs/914/IMG_3913.jpg</v>
+      </c>
+      <c r="H2028" t="str">
+        <v>./small_thumbs/914/IMG_3913.jpg</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029">
+        <v>2035</v>
+      </c>
+      <c r="B2029">
+        <v>914</v>
+      </c>
+      <c r="C2029" t="str">
+        <v>二名4丁目地蔵尊</v>
+      </c>
+      <c r="D2029" t="str">
+        <v>./images/914/IMG_3914.jpg</v>
+      </c>
+      <c r="E2029" t="str">
+        <v>2024-01-31T22:39:00</v>
+      </c>
+      <c r="F2029" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2029" t="str">
+        <v>./mid_thumbs/914/IMG_3914.jpg</v>
+      </c>
+      <c r="H2029" t="str">
+        <v>./small_thumbs/914/IMG_3914.jpg</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030">
+        <v>2036</v>
+      </c>
+      <c r="B2030">
+        <v>914</v>
+      </c>
+      <c r="C2030" t="str">
+        <v>二名4丁目地蔵尊</v>
+      </c>
+      <c r="D2030" t="str">
+        <v>./images/914/IMG_3915.jpg</v>
+      </c>
+      <c r="E2030" t="str">
+        <v>2024-01-31T22:39:00</v>
+      </c>
+      <c r="F2030" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2030" t="str">
+        <v>./mid_thumbs/914/IMG_3915.jpg</v>
+      </c>
+      <c r="H2030" t="str">
+        <v>./small_thumbs/914/IMG_3915.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2016"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2030"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -30559,15 +30559,18 @@
         <v>不明</v>
       </c>
       <c r="E637" t="str">
+        <v/>
+      </c>
+      <c r="F637" t="str">
         <v>奈良県</v>
       </c>
-      <c r="F637" t="str">
+      <c r="G637" t="str">
         <v>奈良市</v>
       </c>
-      <c r="G637" t="str">
+      <c r="H637" t="str">
         <v>都跡</v>
       </c>
-      <c r="H637" t="str">
+      <c r="I637" t="str">
         <v>六条2丁目</v>
       </c>
       <c r="P637" t="str">

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -83407,7 +83407,7 @@
         <v>914</v>
       </c>
       <c r="C2028" t="str">
-        <v>二名4丁目地蔵尊</v>
+        <v>二名4丁目地蔵尊 遠景</v>
       </c>
       <c r="D2028" t="str">
         <v>./images/914/IMG_3913.jpg</v>
@@ -83459,7 +83459,7 @@
         <v>914</v>
       </c>
       <c r="C2030" t="str">
-        <v>二名4丁目地蔵尊</v>
+        <v>二名4丁目地蔵尊 内部</v>
       </c>
       <c r="D2030" t="str">
         <v>./images/914/IMG_3915.jpg</v>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE639"/>
+  <dimension ref="A1:AE643"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -21904,6 +21904,9 @@
       <c r="C452" t="str">
         <v>下條地蔵塚</v>
       </c>
+      <c r="D452" t="str">
+        <v>不明</v>
+      </c>
       <c r="F452" t="str">
         <v>奈良県</v>
       </c>
@@ -21914,16 +21917,25 @@
         <v>富雄</v>
       </c>
       <c r="I452" t="str">
-        <v>三碓３丁目</v>
+        <v>三碓三丁目</v>
       </c>
       <c r="O452" t="str">
-        <v>三碓4丁目 下條地蔵塚</v>
+        <v>三碓三丁目 下條地蔵塚</v>
+      </c>
+      <c r="P452" t="str">
+        <v>2024-03-06</v>
       </c>
       <c r="Q452" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R452">
+        <v>2044</v>
       </c>
       <c r="W452" t="str">
         <v/>
+      </c>
+      <c r="X452" t="str">
+        <v>石造 複数</v>
       </c>
       <c r="AB452" t="str">
         <v>Google Mapsで発見</v>
@@ -21932,10 +21944,10 @@
         <v/>
       </c>
       <c r="AD452">
-        <v>135.73843392898206</v>
+        <v>135.73836326211438</v>
       </c>
       <c r="AE452">
-        <v>34.687342182418725</v>
+        <v>34.687331304530986</v>
       </c>
     </row>
     <row r="453">
@@ -30683,16 +30695,201 @@
         <v>34.7090755198518</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640">
+        <v>915</v>
+      </c>
+      <c r="B640" t="str">
+        <v>石神</v>
+      </c>
+      <c r="C640" t="str">
+        <v>鯉の慰霊碑</v>
+      </c>
+      <c r="D640" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F640" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G640" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H640" t="str">
+        <v>都跡</v>
+      </c>
+      <c r="I640" t="str">
+        <v>二条大路南五丁目</v>
+      </c>
+      <c r="P640" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="Q640" t="b">
+        <v>1</v>
+      </c>
+      <c r="R640">
+        <v>2037</v>
+      </c>
+      <c r="W640" t="str">
+        <v>自然石 鯉浮彫</v>
+      </c>
+      <c r="X640" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AC640" t="str">
+        <v/>
+      </c>
+      <c r="AD640">
+        <v>135.78867319017616</v>
+      </c>
+      <c r="AE640">
+        <v>34.68790267314965</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641">
+        <v>916</v>
+      </c>
+      <c r="B641" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C641" t="str">
+        <v>法連町の地蔵堂</v>
+      </c>
+      <c r="D641" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F641" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G641" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H641" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I641" t="str">
+        <v>法連町</v>
+      </c>
+      <c r="P641" t="str">
+        <v>2024-02-13</v>
+      </c>
+      <c r="Q641" t="b">
+        <v>1</v>
+      </c>
+      <c r="R641">
+        <v>2039</v>
+      </c>
+      <c r="W641" t="str">
+        <v/>
+      </c>
+      <c r="X641" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD641">
+        <v>135.81787687590383</v>
+      </c>
+      <c r="AE641">
+        <v>34.69205191368906</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642">
+        <v>917</v>
+      </c>
+      <c r="B642" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C642" t="str">
+        <v>黒谷橋東詰地蔵尊</v>
+      </c>
+      <c r="D642" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F642" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G642" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H642" t="str">
+        <v>富雄</v>
+      </c>
+      <c r="I642" t="str">
+        <v>三碓七丁目</v>
+      </c>
+      <c r="P642" t="str">
+        <v>2024-03-06</v>
+      </c>
+      <c r="Q642" t="b">
+        <v>1</v>
+      </c>
+      <c r="R642">
+        <v>2042</v>
+      </c>
+      <c r="X642" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD642">
+        <v>135.74009169614303</v>
+      </c>
+      <c r="AE642">
+        <v>34.683020099839524</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643">
+        <v>918</v>
+      </c>
+      <c r="B643" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C643" t="str">
+        <v>本子守町 ビルトイン型地蔵</v>
+      </c>
+      <c r="D643" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F643" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G643" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H643" t="str">
+        <v>椿井</v>
+      </c>
+      <c r="I643" t="str">
+        <v>本子守町</v>
+      </c>
+      <c r="P643" t="str">
+        <v>2024-03-07</v>
+      </c>
+      <c r="Q643" t="b">
+        <v>1</v>
+      </c>
+      <c r="R643">
+        <v>2051</v>
+      </c>
+      <c r="X643" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD643">
+        <v>135.82618465619498</v>
+      </c>
+      <c r="AE643">
+        <v>34.68084165312129</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE639"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE643"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2030"/>
+  <dimension ref="A1:H2051"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -83477,9 +83674,555 @@
         <v>./small_thumbs/914/IMG_3915.jpg</v>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031">
+        <v>2037</v>
+      </c>
+      <c r="B2031">
+        <v>915</v>
+      </c>
+      <c r="C2031" t="str">
+        <v>鯉の慰霊碑</v>
+      </c>
+      <c r="D2031" t="str">
+        <v>./images/915/IMG_3984.jpg</v>
+      </c>
+      <c r="E2031" t="str">
+        <v>2024-02-05T00:00:00</v>
+      </c>
+      <c r="F2031" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2031" t="str">
+        <v>./mid_thumbs/915/IMG_3984.jpg</v>
+      </c>
+      <c r="H2031" t="str">
+        <v>./small_thumbs/915/IMG_3984.jpg</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032">
+        <v>2038</v>
+      </c>
+      <c r="B2032">
+        <v>915</v>
+      </c>
+      <c r="C2032" t="str">
+        <v>鯉の慰霊碑 鯉拡大</v>
+      </c>
+      <c r="D2032" t="str">
+        <v>./images/915/IMG_3987.jpg</v>
+      </c>
+      <c r="E2032" t="str">
+        <v>2024-02-05T00:00:00</v>
+      </c>
+      <c r="F2032" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2032" t="str">
+        <v>./mid_thumbs/915/IMG_3987.jpg</v>
+      </c>
+      <c r="H2032" t="str">
+        <v>./small_thumbs/915/IMG_3987.jpg</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033">
+        <v>2039</v>
+      </c>
+      <c r="B2033">
+        <v>916</v>
+      </c>
+      <c r="C2033" t="str">
+        <v>法連町の地蔵堂</v>
+      </c>
+      <c r="D2033" t="str">
+        <v>./images/916/IMG_3991.jpg</v>
+      </c>
+      <c r="E2033" t="str">
+        <v>2024-02-13T00:00:00</v>
+      </c>
+      <c r="F2033" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2033" t="str">
+        <v>./mid_thumbs/916/IMG_3991.jpg</v>
+      </c>
+      <c r="H2033" t="str">
+        <v>./small_thumbs/916/IMG_3991.jpg</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034">
+        <v>2040</v>
+      </c>
+      <c r="B2034">
+        <v>916</v>
+      </c>
+      <c r="C2034" t="str">
+        <v>法連町の地蔵堂 内部</v>
+      </c>
+      <c r="D2034" t="str">
+        <v>./images/916/IMG_3992.jpg</v>
+      </c>
+      <c r="E2034" t="str">
+        <v>2024-02-13T00:00:00</v>
+      </c>
+      <c r="F2034" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2034" t="str">
+        <v>./mid_thumbs/916/IMG_3992.jpg</v>
+      </c>
+      <c r="H2034" t="str">
+        <v>./small_thumbs/916/IMG_3992.jpg</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035">
+        <v>2041</v>
+      </c>
+      <c r="B2035">
+        <v>917</v>
+      </c>
+      <c r="C2035" t="str">
+        <v>黒谷橋東詰地蔵尊 側面</v>
+      </c>
+      <c r="D2035" t="str">
+        <v>./images/917/IMG_5044.jpg</v>
+      </c>
+      <c r="E2035" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2035" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2035" t="str">
+        <v>./mid_thumbs/917/IMG_5044.jpg</v>
+      </c>
+      <c r="H2035" t="str">
+        <v>./small_thumbs/917/IMG_5044.jpg</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036">
+        <v>2042</v>
+      </c>
+      <c r="B2036">
+        <v>917</v>
+      </c>
+      <c r="C2036" t="str">
+        <v>黒谷橋東詰地蔵尊</v>
+      </c>
+      <c r="D2036" t="str">
+        <v>./images/917/IMG_5045.jpg</v>
+      </c>
+      <c r="E2036" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2036" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2036" t="str">
+        <v>./mid_thumbs/917/IMG_5045.jpg</v>
+      </c>
+      <c r="H2036" t="str">
+        <v>./small_thumbs/917/IMG_5045.jpg</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037">
+        <v>2043</v>
+      </c>
+      <c r="B2037">
+        <v>917</v>
+      </c>
+      <c r="C2037" t="str">
+        <v>黒谷橋東詰地蔵尊 主尊</v>
+      </c>
+      <c r="D2037" t="str">
+        <v>./images/917/IMG_5046.jpg</v>
+      </c>
+      <c r="E2037" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2037" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2037" t="str">
+        <v>./mid_thumbs/917/IMG_5046.jpg</v>
+      </c>
+      <c r="H2037" t="str">
+        <v>./small_thumbs/917/IMG_5046.jpg</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038">
+        <v>2044</v>
+      </c>
+      <c r="B2038">
+        <v>726</v>
+      </c>
+      <c r="C2038" t="str">
+        <v>下條地蔵塚</v>
+      </c>
+      <c r="D2038" t="str">
+        <v>./images/726/IMG_5049.jpg</v>
+      </c>
+      <c r="E2038" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2038" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2038" t="str">
+        <v>./mid_thumbs/726/IMG_5049.jpg</v>
+      </c>
+      <c r="H2038" t="str">
+        <v>./small_thumbs/726/IMG_5049.jpg</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039">
+        <v>2045</v>
+      </c>
+      <c r="B2039">
+        <v>726</v>
+      </c>
+      <c r="C2039" t="str">
+        <v>下條地蔵塚</v>
+      </c>
+      <c r="D2039" t="str">
+        <v>./images/726/IMG_5050.jpg</v>
+      </c>
+      <c r="E2039" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2039" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2039" t="str">
+        <v>./mid_thumbs/726/IMG_5050.jpg</v>
+      </c>
+      <c r="H2039" t="str">
+        <v>./small_thumbs/726/IMG_5050.jpg</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040">
+        <v>2046</v>
+      </c>
+      <c r="B2040">
+        <v>726</v>
+      </c>
+      <c r="C2040" t="str">
+        <v>下條地蔵塚</v>
+      </c>
+      <c r="D2040" t="str">
+        <v>./images/726/IMG_5051.jpg</v>
+      </c>
+      <c r="E2040" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2040" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2040" t="str">
+        <v>./mid_thumbs/726/IMG_5051.jpg</v>
+      </c>
+      <c r="H2040" t="str">
+        <v>./small_thumbs/726/IMG_5051.jpg</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041">
+        <v>2047</v>
+      </c>
+      <c r="B2041">
+        <v>726</v>
+      </c>
+      <c r="C2041" t="str">
+        <v>下條地蔵塚 圭頭六字名号塔</v>
+      </c>
+      <c r="D2041" t="str">
+        <v>./images/726/IMG_5052.jpg</v>
+      </c>
+      <c r="E2041" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2041" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2041" t="str">
+        <v>./mid_thumbs/726/IMG_5052.jpg</v>
+      </c>
+      <c r="H2041" t="str">
+        <v>./small_thumbs/726/IMG_5052.jpg</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042">
+        <v>2048</v>
+      </c>
+      <c r="B2042">
+        <v>726</v>
+      </c>
+      <c r="C2042" t="str">
+        <v>下條地蔵塚 圭頭石碑</v>
+      </c>
+      <c r="D2042" t="str">
+        <v>./images/726/IMG_5053.jpg</v>
+      </c>
+      <c r="E2042" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2042" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2042" t="str">
+        <v>./mid_thumbs/726/IMG_5053.jpg</v>
+      </c>
+      <c r="H2042" t="str">
+        <v>./small_thumbs/726/IMG_5053.jpg</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043">
+        <v>2049</v>
+      </c>
+      <c r="B2043">
+        <v>726</v>
+      </c>
+      <c r="C2043" t="str">
+        <v>下條地蔵塚 地蔵座像</v>
+      </c>
+      <c r="D2043" t="str">
+        <v>./images/726/IMG_5054.jpg</v>
+      </c>
+      <c r="E2043" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2043" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2043" t="str">
+        <v>./mid_thumbs/726/IMG_5054.jpg</v>
+      </c>
+      <c r="H2043" t="str">
+        <v>./small_thumbs/726/IMG_5054.jpg</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044">
+        <v>2050</v>
+      </c>
+      <c r="B2044">
+        <v>726</v>
+      </c>
+      <c r="C2044" t="str">
+        <v>下條地蔵塚 石龕地蔵群</v>
+      </c>
+      <c r="D2044" t="str">
+        <v>./images/726/IMG_5055.jpg</v>
+      </c>
+      <c r="E2044" t="str">
+        <v>2024-03-06T00:00:00</v>
+      </c>
+      <c r="F2044" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2044" t="str">
+        <v>./mid_thumbs/726/IMG_5055.jpg</v>
+      </c>
+      <c r="H2044" t="str">
+        <v>./small_thumbs/726/IMG_5055.jpg</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045">
+        <v>2051</v>
+      </c>
+      <c r="B2045">
+        <v>918</v>
+      </c>
+      <c r="C2045" t="str">
+        <v>本子守町 ビルトイン型地蔵</v>
+      </c>
+      <c r="D2045" t="str">
+        <v>./images/918/IMG_5061.jpg</v>
+      </c>
+      <c r="E2045" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2045" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2045" t="str">
+        <v>./mid_thumbs/918/IMG_5061.jpg</v>
+      </c>
+      <c r="H2045" t="str">
+        <v>./small_thumbs/918/IMG_5061.jpg</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046">
+        <v>2052</v>
+      </c>
+      <c r="B2046">
+        <v>918</v>
+      </c>
+      <c r="C2046" t="str">
+        <v>本子守町 ビルトイン型地蔵 石龕双体地蔵</v>
+      </c>
+      <c r="D2046" t="str">
+        <v>./images/918/IMG_5062.jpg</v>
+      </c>
+      <c r="E2046" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2046" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2046" t="str">
+        <v>./mid_thumbs/918/IMG_5062.jpg</v>
+      </c>
+      <c r="H2046" t="str">
+        <v>./small_thumbs/918/IMG_5062.jpg</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047">
+        <v>2053</v>
+      </c>
+      <c r="B2047">
+        <v>918</v>
+      </c>
+      <c r="C2047" t="str">
+        <v>本子守町 ビルトイン型地蔵 圭頭石碑</v>
+      </c>
+      <c r="D2047" t="str">
+        <v>./images/918/IMG_5063.jpg</v>
+      </c>
+      <c r="E2047" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2047" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2047" t="str">
+        <v>./mid_thumbs/918/IMG_5063.jpg</v>
+      </c>
+      <c r="H2047" t="str">
+        <v>./small_thumbs/918/IMG_5063.jpg</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048">
+        <v>2054</v>
+      </c>
+      <c r="B2048">
+        <v>918</v>
+      </c>
+      <c r="C2048" t="str">
+        <v>本子守町 ビルトイン型地蔵 石龕単体地蔵</v>
+      </c>
+      <c r="D2048" t="str">
+        <v>./images/918/IMG_5064.jpg</v>
+      </c>
+      <c r="E2048" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2048" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2048" t="str">
+        <v>./mid_thumbs/918/IMG_5064.jpg</v>
+      </c>
+      <c r="H2048" t="str">
+        <v>./small_thumbs/918/IMG_5064.jpg</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049">
+        <v>2055</v>
+      </c>
+      <c r="B2049">
+        <v>918</v>
+      </c>
+      <c r="C2049" t="str">
+        <v>本子守町 ビルトイン型地蔵 石龕地蔵</v>
+      </c>
+      <c r="D2049" t="str">
+        <v>./images/918/IMG_5065.jpg</v>
+      </c>
+      <c r="E2049" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2049" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2049" t="str">
+        <v>./mid_thumbs/918/IMG_5065.jpg</v>
+      </c>
+      <c r="H2049" t="str">
+        <v>./small_thumbs/918/IMG_5065.jpg</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050">
+        <v>2056</v>
+      </c>
+      <c r="B2050">
+        <v>918</v>
+      </c>
+      <c r="C2050" t="str">
+        <v>本子守町 ビルトイン型地蔵 石造物</v>
+      </c>
+      <c r="D2050" t="str">
+        <v>./images/918/IMG_5066.jpg</v>
+      </c>
+      <c r="E2050" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2050" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2050" t="str">
+        <v>./mid_thumbs/918/IMG_5066.jpg</v>
+      </c>
+      <c r="H2050" t="str">
+        <v>./small_thumbs/918/IMG_5066.jpg</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051">
+        <v>2057</v>
+      </c>
+      <c r="B2051">
+        <v>918</v>
+      </c>
+      <c r="C2051" t="str">
+        <v>本子守町 ビルトイン型地蔵 光背付き地蔵</v>
+      </c>
+      <c r="D2051" t="str">
+        <v>./images/918/IMG_5067.jpg</v>
+      </c>
+      <c r="E2051" t="str">
+        <v>2024-03-07T00:00:00</v>
+      </c>
+      <c r="F2051" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2051" t="str">
+        <v>./mid_thumbs/918/IMG_5067.jpg</v>
+      </c>
+      <c r="H2051" t="str">
+        <v>./small_thumbs/918/IMG_5067.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2030"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2051"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/jizo_project.xlsx
+++ b/jizo_project.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE643"/>
+  <dimension ref="A1:AE649"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6925,16 +6925,19 @@
         <v>高畑町</v>
       </c>
       <c r="P137" t="str">
-        <v>2015-05-17</v>
+        <v>2024-03-14</v>
       </c>
       <c r="Q137" t="b">
         <v>1</v>
       </c>
       <c r="R137">
-        <v>376</v>
+        <v>2071</v>
       </c>
       <c r="W137" t="str">
-        <v/>
+        <v>線刻</v>
+      </c>
+      <c r="X137" t="str">
+        <v>石造</v>
       </c>
       <c r="AC137" t="str">
         <v/>
@@ -30880,16 +30883,292 @@
         <v>34.68084165312129</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644">
+        <v>919</v>
+      </c>
+      <c r="B644" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C644" t="str">
+        <v>辻地蔵（新田地蔵会）</v>
+      </c>
+      <c r="D644" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F644" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G644" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H644" t="str">
+        <v>学園</v>
+      </c>
+      <c r="I644" t="str">
+        <v>学園北１丁目</v>
+      </c>
+      <c r="K644" t="str">
+        <v>地蔵山</v>
+      </c>
+      <c r="P644" t="str">
+        <v>2024-03-12</v>
+      </c>
+      <c r="Q644" t="b">
+        <v>1</v>
+      </c>
+      <c r="R644">
+        <v>2058</v>
+      </c>
+      <c r="X644" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD644">
+        <v>135.74985488747518</v>
+      </c>
+      <c r="AE644">
+        <v>34.69932522773089</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645">
+        <v>920</v>
+      </c>
+      <c r="B645" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C645" t="str">
+        <v>長澤橋地蔵尊</v>
+      </c>
+      <c r="D645" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F645" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G645" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H645" t="str">
+        <v>富雄</v>
+      </c>
+      <c r="I645" t="str">
+        <v>富雄元町４丁目</v>
+      </c>
+      <c r="P645" t="str">
+        <v>2024-03-12</v>
+      </c>
+      <c r="Q645" t="b">
+        <v>1</v>
+      </c>
+      <c r="R645">
+        <v>2069</v>
+      </c>
+      <c r="X645" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD645">
+        <v>135.73430826876623</v>
+      </c>
+      <c r="AE645">
+        <v>34.69206163444076</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646">
+        <v>921</v>
+      </c>
+      <c r="B646" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C646" t="str">
+        <v>田中町地蔵尊</v>
+      </c>
+      <c r="D646" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F646" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G646" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H646" t="str">
+        <v>飛鳥</v>
+      </c>
+      <c r="I646" t="str">
+        <v>紀寺町</v>
+      </c>
+      <c r="P646" t="str">
+        <v>2024-04-15</v>
+      </c>
+      <c r="Q646" t="b">
+        <v>1</v>
+      </c>
+      <c r="R646">
+        <v>2078</v>
+      </c>
+      <c r="X646" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD646">
+        <v>135.83140075671005</v>
+      </c>
+      <c r="AE646">
+        <v>34.67342144231527</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647">
+        <v>922</v>
+      </c>
+      <c r="B647" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C647" t="str">
+        <v>滝坂三体地蔵磨崖仏</v>
+      </c>
+      <c r="D647" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F647" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G647" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H647" t="str">
+        <v>飛鳥</v>
+      </c>
+      <c r="I647" t="str">
+        <v>白毫寺町</v>
+      </c>
+      <c r="P647" t="str">
+        <v>2024-04-22</v>
+      </c>
+      <c r="Q647" t="b">
+        <v>1</v>
+      </c>
+      <c r="R647">
+        <v>2079</v>
+      </c>
+      <c r="W647" t="str">
+        <v>自然石摩崖仏</v>
+      </c>
+      <c r="X647" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD647">
+        <v>135.8639940873722</v>
+      </c>
+      <c r="AE647">
+        <v>34.67347088506508</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648">
+        <v>923</v>
+      </c>
+      <c r="B648" t="str">
+        <v>如来</v>
+      </c>
+      <c r="C648" t="str">
+        <v>首無し如来像？</v>
+      </c>
+      <c r="D648" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F648" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G648" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H648" t="str">
+        <v>鼓阪</v>
+      </c>
+      <c r="I648" t="str">
+        <v>春日野町</v>
+      </c>
+      <c r="P648" t="str">
+        <v>2024-04-22</v>
+      </c>
+      <c r="Q648" t="b">
+        <v>1</v>
+      </c>
+      <c r="R648">
+        <v>2082</v>
+      </c>
+      <c r="W648" t="str">
+        <v>坐像 首無し</v>
+      </c>
+      <c r="X648" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD648">
+        <v>135.85120032521323</v>
+      </c>
+      <c r="AE648">
+        <v>34.67590018909726</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649">
+        <v>924</v>
+      </c>
+      <c r="B649" t="str">
+        <v>地蔵</v>
+      </c>
+      <c r="C649" t="str">
+        <v>地蔵群（法蓮佐保山１丁目）</v>
+      </c>
+      <c r="D649" t="str">
+        <v>不明</v>
+      </c>
+      <c r="F649" t="str">
+        <v>奈良県</v>
+      </c>
+      <c r="G649" t="str">
+        <v>奈良市</v>
+      </c>
+      <c r="H649" t="str">
+        <v>佐保</v>
+      </c>
+      <c r="I649" t="str">
+        <v>法蓮佐保山１丁目</v>
+      </c>
+      <c r="P649" t="str">
+        <v>2024-04-24</v>
+      </c>
+      <c r="Q649" t="b">
+        <v>1</v>
+      </c>
+      <c r="R649">
+        <v>2083</v>
+      </c>
+      <c r="W649" t="str">
+        <v>舟形背面、石龕地蔵など</v>
+      </c>
+      <c r="X649" t="str">
+        <v>石造</v>
+      </c>
+      <c r="AD649">
+        <v>135.82306741363618</v>
+      </c>
+      <c r="AE649">
+        <v>34.69632217026265</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE643"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE649"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2051"/>
+  <dimension ref="A1:H2080"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -84220,9 +84499,763 @@
         <v>./small_thumbs/918/IMG_5067.jpg</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052">
+        <v>2058</v>
+      </c>
+      <c r="B2052">
+        <v>919</v>
+      </c>
+      <c r="C2052" t="str">
+        <v>辻地蔵（新田地蔵会）</v>
+      </c>
+      <c r="D2052" t="str">
+        <v>./images/919/IMG_5582.jpg</v>
+      </c>
+      <c r="E2052" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2052" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2052" t="str">
+        <v>./mid_thumbs/919/IMG_5582.jpg</v>
+      </c>
+      <c r="H2052" t="str">
+        <v>./small_thumbs/919/IMG_5582.jpg</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053">
+        <v>2059</v>
+      </c>
+      <c r="B2053">
+        <v>919</v>
+      </c>
+      <c r="C2053" t="str">
+        <v>辻地蔵（新田地蔵会）並び尊像</v>
+      </c>
+      <c r="D2053" t="str">
+        <v>./images/919/IMG_5583.jpg</v>
+      </c>
+      <c r="E2053" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2053" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2053" t="str">
+        <v>./mid_thumbs/919/IMG_5583.jpg</v>
+      </c>
+      <c r="H2053" t="str">
+        <v>./small_thumbs/919/IMG_5583.jpg</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054">
+        <v>2060</v>
+      </c>
+      <c r="B2054">
+        <v>919</v>
+      </c>
+      <c r="C2054" t="str">
+        <v>辻地蔵（新田地蔵会）向かって右</v>
+      </c>
+      <c r="D2054" t="str">
+        <v>./images/919/IMG_5584.jpg</v>
+      </c>
+      <c r="E2054" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2054" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2054" t="str">
+        <v>./mid_thumbs/919/IMG_5584.jpg</v>
+      </c>
+      <c r="H2054" t="str">
+        <v>./small_thumbs/919/IMG_5584.jpg</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055">
+        <v>2061</v>
+      </c>
+      <c r="B2055">
+        <v>919</v>
+      </c>
+      <c r="C2055" t="str">
+        <v>辻地蔵（新田地蔵会）向かって右から2番目</v>
+      </c>
+      <c r="D2055" t="str">
+        <v>./images/919/IMG_5585.jpg</v>
+      </c>
+      <c r="E2055" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2055" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2055" t="str">
+        <v>./mid_thumbs/919/IMG_5585.jpg</v>
+      </c>
+      <c r="H2055" t="str">
+        <v>./small_thumbs/919/IMG_5585.jpg</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056">
+        <v>2062</v>
+      </c>
+      <c r="B2056">
+        <v>919</v>
+      </c>
+      <c r="C2056" t="str">
+        <v>辻地蔵（新田地蔵会）聖観音？</v>
+      </c>
+      <c r="D2056" t="str">
+        <v>./images/919/IMG_5586.jpg</v>
+      </c>
+      <c r="E2056" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2056" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2056" t="str">
+        <v>./mid_thumbs/919/IMG_5586.jpg</v>
+      </c>
+      <c r="H2056" t="str">
+        <v>./small_thumbs/919/IMG_5586.jpg</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057">
+        <v>2063</v>
+      </c>
+      <c r="B2057">
+        <v>919</v>
+      </c>
+      <c r="C2057" t="str">
+        <v>辻地蔵（新田地蔵会）地蔵</v>
+      </c>
+      <c r="D2057" t="str">
+        <v>./images/919/IMG_5587.jpg</v>
+      </c>
+      <c r="E2057" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2057" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2057" t="str">
+        <v>./mid_thumbs/919/IMG_5587.jpg</v>
+      </c>
+      <c r="H2057" t="str">
+        <v>./small_thumbs/919/IMG_5587.jpg</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058">
+        <v>2064</v>
+      </c>
+      <c r="B2058">
+        <v>919</v>
+      </c>
+      <c r="C2058" t="str">
+        <v>辻地蔵（新田地蔵会）明王？</v>
+      </c>
+      <c r="D2058" t="str">
+        <v>./images/919/IMG_5588.jpg</v>
+      </c>
+      <c r="E2058" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2058" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2058" t="str">
+        <v>./mid_thumbs/919/IMG_5588.jpg</v>
+      </c>
+      <c r="H2058" t="str">
+        <v>./small_thumbs/919/IMG_5588.jpg</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059">
+        <v>2065</v>
+      </c>
+      <c r="B2059">
+        <v>919</v>
+      </c>
+      <c r="C2059" t="str">
+        <v>辻地蔵（新田地蔵会）独立尊像</v>
+      </c>
+      <c r="D2059" t="str">
+        <v>./images/919/IMG_5204.jpg</v>
+      </c>
+      <c r="E2059" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2059" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2059" t="str">
+        <v>./mid_thumbs/919/IMG_5204.jpg</v>
+      </c>
+      <c r="H2059" t="str">
+        <v>./small_thumbs/919/IMG_5204.jpg</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060">
+        <v>2066</v>
+      </c>
+      <c r="B2060">
+        <v>919</v>
+      </c>
+      <c r="C2060" t="str">
+        <v>辻地蔵（新田地蔵会）右小像</v>
+      </c>
+      <c r="D2060" t="str">
+        <v>./images/919/IMG_5205.jpg</v>
+      </c>
+      <c r="E2060" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2060" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2060" t="str">
+        <v>./mid_thumbs/919/IMG_5205.jpg</v>
+      </c>
+      <c r="H2060" t="str">
+        <v>./small_thumbs/919/IMG_5205.jpg</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061">
+        <v>2067</v>
+      </c>
+      <c r="B2061">
+        <v>919</v>
+      </c>
+      <c r="C2061" t="str">
+        <v>辻地蔵（新田地蔵会）左小像</v>
+      </c>
+      <c r="D2061" t="str">
+        <v>./images/919/IMG_5206.jpg</v>
+      </c>
+      <c r="E2061" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2061" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2061" t="str">
+        <v>./mid_thumbs/919/IMG_5206.jpg</v>
+      </c>
+      <c r="H2061" t="str">
+        <v>./small_thumbs/919/IMG_5206.jpg</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062">
+        <v>2068</v>
+      </c>
+      <c r="B2062">
+        <v>919</v>
+      </c>
+      <c r="C2062" t="str">
+        <v>辻地蔵（新田地蔵会）独立地蔵</v>
+      </c>
+      <c r="D2062" t="str">
+        <v>./images/919/IMG_5207.jpg</v>
+      </c>
+      <c r="E2062" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2062" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2062" t="str">
+        <v>./mid_thumbs/919/IMG_5207.jpg</v>
+      </c>
+      <c r="H2062" t="str">
+        <v>./small_thumbs/919/IMG_5207.jpg</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063">
+        <v>2069</v>
+      </c>
+      <c r="B2063">
+        <v>920</v>
+      </c>
+      <c r="C2063" t="str">
+        <v>長澤橋地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D2063" t="str">
+        <v>./images/920/IMG_5200.jpg</v>
+      </c>
+      <c r="E2063" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2063" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2063" t="str">
+        <v>./mid_thumbs/920/IMG_5200.jpg</v>
+      </c>
+      <c r="H2063" t="str">
+        <v>./small_thumbs/920/IMG_5200.jpg</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064">
+        <v>2070</v>
+      </c>
+      <c r="B2064">
+        <v>920</v>
+      </c>
+      <c r="C2064" t="str">
+        <v>長澤橋地蔵尊</v>
+      </c>
+      <c r="D2064" t="str">
+        <v>./images/920/IMG_5201.jpg</v>
+      </c>
+      <c r="E2064" t="str">
+        <v>2024-03-12T00:23:35</v>
+      </c>
+      <c r="F2064" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2064" t="str">
+        <v>./mid_thumbs/920/IMG_5201.jpg</v>
+      </c>
+      <c r="H2064" t="str">
+        <v>./small_thumbs/920/IMG_5201.jpg</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065">
+        <v>2071</v>
+      </c>
+      <c r="B2065">
+        <v>136</v>
+      </c>
+      <c r="C2065" t="str">
+        <v>爪がき地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D2065" t="str">
+        <v>./images/136/IMG_5575.jpg</v>
+      </c>
+      <c r="E2065" t="str">
+        <v>2024-03-14T00:00:00</v>
+      </c>
+      <c r="F2065" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2065" t="str">
+        <v>./mid_thumbs/136/IMG_5575.jpg</v>
+      </c>
+      <c r="H2065" t="str">
+        <v>./small_thumbs/136/IMG_5575.jpg</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066">
+        <v>2072</v>
+      </c>
+      <c r="B2066">
+        <v>136</v>
+      </c>
+      <c r="C2066" t="str">
+        <v>爪がき地蔵尊 脇の地蔵群</v>
+      </c>
+      <c r="D2066" t="str">
+        <v>./images/136/IMG_5576.jpg</v>
+      </c>
+      <c r="E2066" t="str">
+        <v>2024-03-14T00:00:00</v>
+      </c>
+      <c r="F2066" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2066" t="str">
+        <v>./mid_thumbs/136/IMG_5576.jpg</v>
+      </c>
+      <c r="H2066" t="str">
+        <v>./small_thumbs/136/IMG_5576.jpg</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067">
+        <v>2073</v>
+      </c>
+      <c r="B2067">
+        <v>136</v>
+      </c>
+      <c r="C2067" t="str">
+        <v>爪がき地蔵尊 本尊</v>
+      </c>
+      <c r="D2067" t="str">
+        <v>./images/136/IMG_5577.jpg</v>
+      </c>
+      <c r="E2067" t="str">
+        <v>2024-03-14T00:00:00</v>
+      </c>
+      <c r="F2067" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2067" t="str">
+        <v>./mid_thumbs/136/IMG_5577.jpg</v>
+      </c>
+      <c r="H2067" t="str">
+        <v>./small_thumbs/136/IMG_5577.jpg</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068">
+        <v>2074</v>
+      </c>
+      <c r="B2068">
+        <v>136</v>
+      </c>
+      <c r="C2068" t="str">
+        <v>爪がき地蔵尊 地蔵堂内</v>
+      </c>
+      <c r="D2068" t="str">
+        <v>./images/136/IMG_5578.jpg</v>
+      </c>
+      <c r="E2068" t="str">
+        <v>2024-03-14T00:00:00</v>
+      </c>
+      <c r="F2068" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2068" t="str">
+        <v>./mid_thumbs/136/IMG_5578.jpg</v>
+      </c>
+      <c r="H2068" t="str">
+        <v>./small_thumbs/136/IMG_5578.jpg</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069">
+        <v>2075</v>
+      </c>
+      <c r="B2069">
+        <v>921</v>
+      </c>
+      <c r="C2069" t="str">
+        <v>田中町地蔵尊 内部右側</v>
+      </c>
+      <c r="D2069" t="str">
+        <v>./images/921/IMG_5592.jpg</v>
+      </c>
+      <c r="E2069" t="str">
+        <v>2024-04-15T00:00:00</v>
+      </c>
+      <c r="F2069" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2069" t="str">
+        <v>./mid_thumbs/921/IMG_5592.jpg</v>
+      </c>
+      <c r="H2069" t="str">
+        <v>./small_thumbs/921/IMG_5592.jpg</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070">
+        <v>2076</v>
+      </c>
+      <c r="B2070">
+        <v>921</v>
+      </c>
+      <c r="C2070" t="str">
+        <v>田中町地蔵尊 内部中央</v>
+      </c>
+      <c r="D2070" t="str">
+        <v>./images/921/IMG_5593.jpg</v>
+      </c>
+      <c r="E2070" t="str">
+        <v>2024-04-15T00:00:00</v>
+      </c>
+      <c r="F2070" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2070" t="str">
+        <v>./mid_thumbs/921/IMG_5593.jpg</v>
+      </c>
+      <c r="H2070" t="str">
+        <v>./small_thumbs/921/IMG_5593.jpg</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071">
+        <v>2077</v>
+      </c>
+      <c r="B2071">
+        <v>921</v>
+      </c>
+      <c r="C2071" t="str">
+        <v>田中町地蔵尊 地蔵堂内</v>
+      </c>
+      <c r="D2071" t="str">
+        <v>./images/921/IMG_5594.jpg</v>
+      </c>
+      <c r="E2071" t="str">
+        <v>2024-04-15T00:00:00</v>
+      </c>
+      <c r="F2071" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2071" t="str">
+        <v>./mid_thumbs/921/IMG_5594.jpg</v>
+      </c>
+      <c r="H2071" t="str">
+        <v>./small_thumbs/921/IMG_5594.jpg</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072">
+        <v>2078</v>
+      </c>
+      <c r="B2072">
+        <v>921</v>
+      </c>
+      <c r="C2072" t="str">
+        <v>田中町地蔵尊 地蔵堂</v>
+      </c>
+      <c r="D2072" t="str">
+        <v>./images/921/IMG_5595.jpg</v>
+      </c>
+      <c r="E2072" t="str">
+        <v>2024-04-15T00:00:00</v>
+      </c>
+      <c r="F2072" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2072" t="str">
+        <v>./mid_thumbs/921/IMG_5595.jpg</v>
+      </c>
+      <c r="H2072" t="str">
+        <v>./small_thumbs/921/IMG_5595.jpg</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073">
+        <v>2079</v>
+      </c>
+      <c r="B2073">
+        <v>922</v>
+      </c>
+      <c r="C2073" t="str">
+        <v>滝坂三体地蔵磨崖仏</v>
+      </c>
+      <c r="D2073" t="str">
+        <v>./images/922/IMG_5596.jpg</v>
+      </c>
+      <c r="E2073" t="str">
+        <v>2024-04-22T00:00:00</v>
+      </c>
+      <c r="F2073" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2073" t="str">
+        <v>./mid_thumbs/922/IMG_5596.jpg</v>
+      </c>
+      <c r="H2073" t="str">
+        <v>./small_thumbs/922/IMG_5596.jpg</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074">
+        <v>2080</v>
+      </c>
+      <c r="B2074">
+        <v>922</v>
+      </c>
+      <c r="C2074" t="str">
+        <v>滝坂三体地蔵磨崖仏</v>
+      </c>
+      <c r="D2074" t="str">
+        <v>./images/922/IMG_5597.jpg</v>
+      </c>
+      <c r="E2074" t="str">
+        <v>2024-04-22T00:00:00</v>
+      </c>
+      <c r="F2074" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2074" t="str">
+        <v>./mid_thumbs/922/IMG_5597.jpg</v>
+      </c>
+      <c r="H2074" t="str">
+        <v>./small_thumbs/922/IMG_5597.jpg</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075">
+        <v>2081</v>
+      </c>
+      <c r="B2075">
+        <v>923</v>
+      </c>
+      <c r="C2075" t="str">
+        <v>首無し如来像？遠景</v>
+      </c>
+      <c r="D2075" t="str">
+        <v>./images/923/IMG_5599.jpg</v>
+      </c>
+      <c r="E2075" t="str">
+        <v>2024-04-22T00:00:00</v>
+      </c>
+      <c r="F2075" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2075" t="str">
+        <v>./mid_thumbs/923/IMG_5599.jpg</v>
+      </c>
+      <c r="H2075" t="str">
+        <v>./small_thumbs/923/IMG_5599.jpg</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076">
+        <v>2082</v>
+      </c>
+      <c r="B2076">
+        <v>923</v>
+      </c>
+      <c r="C2076" t="str">
+        <v>首無し如来像？</v>
+      </c>
+      <c r="D2076" t="str">
+        <v>./images/923/IMG_5600.jpg</v>
+      </c>
+      <c r="E2076" t="str">
+        <v>2024-04-22T00:00:00</v>
+      </c>
+      <c r="F2076" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2076" t="str">
+        <v>./mid_thumbs/923/IMG_5600.jpg</v>
+      </c>
+      <c r="H2076" t="str">
+        <v>./small_thumbs/923/IMG_5600.jpg</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077">
+        <v>2083</v>
+      </c>
+      <c r="B2077">
+        <v>924</v>
+      </c>
+      <c r="C2077" t="str">
+        <v>地蔵群（法蓮佐保山１丁目）</v>
+      </c>
+      <c r="D2077" t="str">
+        <v>./images/924/IMG_5603.jpg</v>
+      </c>
+      <c r="E2077" t="str">
+        <v>2024-04-24T00:00:00</v>
+      </c>
+      <c r="F2077" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2077" t="str">
+        <v>./mid_thumbs/924/IMG_5603.jpg</v>
+      </c>
+      <c r="H2077" t="str">
+        <v>./small_thumbs/924/IMG_5603.jpg</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078">
+        <v>2084</v>
+      </c>
+      <c r="B2078">
+        <v>924</v>
+      </c>
+      <c r="C2078" t="str">
+        <v>地蔵群（法蓮佐保山１丁目）石龕双体地蔵</v>
+      </c>
+      <c r="D2078" t="str">
+        <v>./images/924/IMG_5604.jpg</v>
+      </c>
+      <c r="E2078" t="str">
+        <v>2024-04-24T00:00:00</v>
+      </c>
+      <c r="F2078" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2078" t="str">
+        <v>./mid_thumbs/924/IMG_5604.jpg</v>
+      </c>
+      <c r="H2078" t="str">
+        <v>./small_thumbs/924/IMG_5604.jpg</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079">
+        <v>2085</v>
+      </c>
+      <c r="B2079">
+        <v>924</v>
+      </c>
+      <c r="C2079" t="str">
+        <v>地蔵群（法蓮佐保山１丁目）石龕地蔵群</v>
+      </c>
+      <c r="D2079" t="str">
+        <v>./images/924/IMG_5605.jpg</v>
+      </c>
+      <c r="E2079" t="str">
+        <v>2024-04-24T00:00:00</v>
+      </c>
+      <c r="F2079" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2079" t="str">
+        <v>./mid_thumbs/924/IMG_5605.jpg</v>
+      </c>
+      <c r="H2079" t="str">
+        <v>./small_thumbs/924/IMG_5605.jpg</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080">
+        <v>2086</v>
+      </c>
+      <c r="B2080">
+        <v>924</v>
+      </c>
+      <c r="C2080" t="str">
+        <v>地蔵群（法蓮佐保山１丁目）舟形背面</v>
+      </c>
+      <c r="D2080" t="str">
+        <v>./images/924/IMG_5606.jpg</v>
+      </c>
+      <c r="E2080" t="str">
+        <v>2024-04-24T00:00:00</v>
+      </c>
+      <c r="F2080" t="str">
+        <v>J.Onoue</v>
+      </c>
+      <c r="G2080" t="str">
+        <v>./mid_thumbs/924/IMG_5606.jpg</v>
+      </c>
+      <c r="H2080" t="str">
+        <v>./small_thumbs/924/IMG_5606.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2051"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2080"/>
   </ignoredErrors>
 </worksheet>
 </file>
